--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelvolz/Github/excelator/mgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F0FA602-D63F-084F-A781-DACC757CF776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DADE49-0065-E64F-8070-80C546856D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="1008">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1011">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9029,10 +9029,19 @@
     <t>Nicht möglich</t>
   </si>
   <si>
-    <t>ceil(x)</t>
-  </si>
-  <si>
     <t>Nur ganzzahlen, wenn Anzahl stellen &gt;0 anpassung notwendig</t>
+  </si>
+  <si>
+    <t>500/Anzahl Teams</t>
+  </si>
+  <si>
+    <t>floor(x)</t>
+  </si>
+  <si>
+    <t>Math.abs(x)</t>
+  </si>
+  <si>
+    <t>X</t>
   </si>
 </sst>
 </file>
@@ -9604,11 +9613,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
-  <dimension ref="A1:F505"/>
+  <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9619,7 +9626,7 @@
     <col min="6" max="6" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9639,7 +9646,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9648,14 +9655,17 @@
         <v>507</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8"/>
+      <c r="H2" t="s">
         <v>1007</v>
       </c>
-      <c r="F2" s="8"/>
-    </row>
-    <row r="3" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9663,11 +9673,13 @@
       <c r="C3" s="7" t="s">
         <v>508</v>
       </c>
-      <c r="D3" s="8"/>
+      <c r="D3" s="8" t="s">
+        <v>1009</v>
+      </c>
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9677,9 +9689,11 @@
       </c>
       <c r="D4" s="8"/>
       <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-    </row>
-    <row r="5" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F4" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9691,7 +9705,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9703,7 +9717,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9715,7 +9729,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9727,7 +9741,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9739,7 +9753,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -9751,7 +9765,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -9763,7 +9777,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -9775,7 +9789,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -9787,7 +9801,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -9799,7 +9813,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -9811,7 +9825,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelvolz/Github/excelator/mgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69DADE49-0065-E64F-8070-80C546856D40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D3788-A7E3-764B-AAAD-B78E3066A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3160" yWindow="2260" windowWidth="28240" windowHeight="17240" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1019" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="1016">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9042,6 +9042,21 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>B</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>E</t>
   </si>
 </sst>
 </file>
@@ -9146,13 +9161,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9176,34 +9191,6 @@
     </dxf>
     <dxf>
       <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="0"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
         <b val="0"/>
         <i val="0"/>
         <strike val="0"/>
@@ -9284,6 +9271,34 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="0"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -9299,18 +9314,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F505">
     <sortCondition ref="A1:A505"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10428CB8-DF17-C24D-A8C2-8B4827E181B0}" name="Funktionsname" dataDxfId="7" dataCellStyle="Link"/>
-    <tableColumn id="2" xr3:uid="{98C1F64B-509E-934D-BBC9-297E60C938D9}" name="Team" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{E7210489-D250-D545-A3A7-8B64CF95D33B}" name="Kommentar" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{2FB03DEE-9D86-E448-AC9D-37A85488B243}" name="Nicht möglich" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{10428CB8-DF17-C24D-A8C2-8B4827E181B0}" name="Funktionsname" dataDxfId="5" dataCellStyle="Link"/>
+    <tableColumn id="2" xr3:uid="{98C1F64B-509E-934D-BBC9-297E60C938D9}" name="Team" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E7210489-D250-D545-A3A7-8B64CF95D33B}" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2FB03DEE-9D86-E448-AC9D-37A85488B243}" name="Nicht möglich" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9615,7 +9630,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C512" sqref="C512"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
@@ -9650,7 +9667,9 @@
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
-      <c r="B2" s="7"/>
+      <c r="B2" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C2" s="7" t="s">
         <v>507</v>
       </c>
@@ -9669,7 +9688,9 @@
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="7"/>
+      <c r="B3" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C3" s="7" t="s">
         <v>508</v>
       </c>
@@ -9683,7 +9704,9 @@
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="7"/>
+      <c r="B4" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C4" s="7" t="s">
         <v>509</v>
       </c>
@@ -9697,7 +9720,9 @@
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="7"/>
+      <c r="B5" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C5" s="7" t="s">
         <v>510</v>
       </c>
@@ -9709,7 +9734,9 @@
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="7"/>
+      <c r="B6" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C6" s="7" t="s">
         <v>511</v>
       </c>
@@ -9721,7 +9748,9 @@
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="7"/>
+      <c r="B7" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C7" s="7" t="s">
         <v>512</v>
       </c>
@@ -9733,7 +9762,9 @@
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
-      <c r="B8" s="7"/>
+      <c r="B8" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C8" s="7" t="s">
         <v>513</v>
       </c>
@@ -9745,7 +9776,9 @@
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B9" s="7"/>
+      <c r="B9" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C9" s="7" t="s">
         <v>514</v>
       </c>
@@ -9757,7 +9790,9 @@
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
-      <c r="B10" s="7"/>
+      <c r="B10" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C10" s="7" t="s">
         <v>515</v>
       </c>
@@ -9769,7 +9804,9 @@
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B11" s="7"/>
+      <c r="B11" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C11" s="7" t="s">
         <v>516</v>
       </c>
@@ -9781,7 +9818,9 @@
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B12" s="7"/>
+      <c r="B12" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C12" s="7" t="s">
         <v>517</v>
       </c>
@@ -9793,7 +9832,9 @@
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B13" s="7"/>
+      <c r="B13" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C13" s="7" t="s">
         <v>518</v>
       </c>
@@ -9805,7 +9846,9 @@
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C14" s="7" t="s">
         <v>519</v>
       </c>
@@ -9817,7 +9860,9 @@
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B15" s="7"/>
+      <c r="B15" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C15" s="7" t="s">
         <v>520</v>
       </c>
@@ -9829,7 +9874,9 @@
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="7"/>
+      <c r="B16" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C16" s="7" t="s">
         <v>521</v>
       </c>
@@ -9841,7 +9888,9 @@
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B17" s="7"/>
+      <c r="B17" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C17" s="7" t="s">
         <v>522</v>
       </c>
@@ -9853,7 +9902,9 @@
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="7"/>
+      <c r="B18" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C18" s="7" t="s">
         <v>523</v>
       </c>
@@ -9865,7 +9916,9 @@
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="7"/>
+      <c r="B19" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C19" s="7" t="s">
         <v>524</v>
       </c>
@@ -9877,7 +9930,9 @@
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B20" s="7"/>
+      <c r="B20" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C20" s="7" t="s">
         <v>525</v>
       </c>
@@ -9889,7 +9944,9 @@
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B21" s="7"/>
+      <c r="B21" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C21" s="7" t="s">
         <v>526</v>
       </c>
@@ -9901,7 +9958,9 @@
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="7"/>
+      <c r="B22" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C22" s="7" t="s">
         <v>527</v>
       </c>
@@ -9913,7 +9972,9 @@
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="7"/>
+      <c r="B23" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C23" s="7" t="s">
         <v>528</v>
       </c>
@@ -9925,7 +9986,9 @@
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B24" s="7"/>
+      <c r="B24" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C24" s="7" t="s">
         <v>529</v>
       </c>
@@ -9937,7 +10000,9 @@
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="7"/>
+      <c r="B25" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C25" s="7" t="s">
         <v>530</v>
       </c>
@@ -9949,7 +10014,9 @@
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="B26" s="7"/>
+      <c r="B26" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C26" s="7" t="s">
         <v>531</v>
       </c>
@@ -9961,7 +10028,9 @@
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B27" s="7"/>
+      <c r="B27" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C27" s="7" t="s">
         <v>532</v>
       </c>
@@ -9973,7 +10042,9 @@
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B28" s="7"/>
+      <c r="B28" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C28" s="7" t="s">
         <v>533</v>
       </c>
@@ -9985,7 +10056,9 @@
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="7"/>
+      <c r="B29" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C29" s="7" t="s">
         <v>534</v>
       </c>
@@ -9997,7 +10070,9 @@
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B30" s="7"/>
+      <c r="B30" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C30" s="7" t="s">
         <v>535</v>
       </c>
@@ -10009,7 +10084,9 @@
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="7"/>
+      <c r="B31" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C31" s="7" t="s">
         <v>536</v>
       </c>
@@ -10021,7 +10098,9 @@
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="7"/>
+      <c r="B32" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C32" s="7" t="s">
         <v>537</v>
       </c>
@@ -10033,7 +10112,9 @@
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="B33" s="7"/>
+      <c r="B33" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C33" s="7" t="s">
         <v>538</v>
       </c>
@@ -10045,7 +10126,9 @@
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="B34" s="7"/>
+      <c r="B34" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C34" s="7" t="s">
         <v>539</v>
       </c>
@@ -10057,7 +10140,9 @@
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B35" s="7"/>
+      <c r="B35" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C35" s="7" t="s">
         <v>540</v>
       </c>
@@ -10069,7 +10154,9 @@
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="7"/>
+      <c r="B36" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C36" s="7" t="s">
         <v>541</v>
       </c>
@@ -10081,7 +10168,9 @@
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="B37" s="7"/>
+      <c r="B37" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C37" s="7" t="s">
         <v>542</v>
       </c>
@@ -10093,7 +10182,9 @@
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="7"/>
+      <c r="B38" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C38" s="7" t="s">
         <v>543</v>
       </c>
@@ -10105,7 +10196,9 @@
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="B39" s="7"/>
+      <c r="B39" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C39" s="7" t="s">
         <v>544</v>
       </c>
@@ -10117,7 +10210,9 @@
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B40" s="7"/>
+      <c r="B40" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C40" s="7" t="s">
         <v>545</v>
       </c>
@@ -10129,7 +10224,9 @@
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="B41" s="7"/>
+      <c r="B41" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C41" s="7" t="s">
         <v>546</v>
       </c>
@@ -10141,7 +10238,9 @@
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="B42" s="7"/>
+      <c r="B42" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C42" s="7" t="s">
         <v>547</v>
       </c>
@@ -10153,7 +10252,9 @@
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B43" s="7"/>
+      <c r="B43" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C43" s="7" t="s">
         <v>548</v>
       </c>
@@ -10165,7 +10266,9 @@
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="B44" s="7"/>
+      <c r="B44" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C44" s="7" t="s">
         <v>549</v>
       </c>
@@ -10177,7 +10280,9 @@
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="B45" s="7"/>
+      <c r="B45" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C45" s="7" t="s">
         <v>550</v>
       </c>
@@ -10189,7 +10294,9 @@
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="B46" s="7"/>
+      <c r="B46" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C46" s="7" t="s">
         <v>551</v>
       </c>
@@ -10201,7 +10308,9 @@
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="B47" s="7"/>
+      <c r="B47" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C47" s="7" t="s">
         <v>552</v>
       </c>
@@ -10213,7 +10322,9 @@
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="B48" s="7"/>
+      <c r="B48" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C48" s="7" t="s">
         <v>553</v>
       </c>
@@ -10225,7 +10336,9 @@
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B49" s="7"/>
+      <c r="B49" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C49" s="7" t="s">
         <v>554</v>
       </c>
@@ -10237,7 +10350,9 @@
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B50" s="7"/>
+      <c r="B50" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C50" s="7" t="s">
         <v>555</v>
       </c>
@@ -10249,7 +10364,9 @@
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="B51" s="7"/>
+      <c r="B51" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C51" s="7" t="s">
         <v>556</v>
       </c>
@@ -10261,7 +10378,9 @@
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
-      <c r="B52" s="7"/>
+      <c r="B52" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C52" s="7" t="s">
         <v>557</v>
       </c>
@@ -10273,7 +10392,9 @@
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
-      <c r="B53" s="7"/>
+      <c r="B53" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C53" s="7" t="s">
         <v>558</v>
       </c>
@@ -10285,7 +10406,9 @@
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B54" s="7"/>
+      <c r="B54" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C54" s="7" t="s">
         <v>559</v>
       </c>
@@ -10297,7 +10420,9 @@
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="B55" s="7"/>
+      <c r="B55" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C55" s="7" t="s">
         <v>560</v>
       </c>
@@ -10309,7 +10434,9 @@
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
-      <c r="B56" s="7"/>
+      <c r="B56" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C56" s="7" t="s">
         <v>561</v>
       </c>
@@ -10321,7 +10448,9 @@
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B57" s="7"/>
+      <c r="B57" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C57" s="7" t="s">
         <v>562</v>
       </c>
@@ -10333,7 +10462,9 @@
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
-      <c r="B58" s="7"/>
+      <c r="B58" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C58" s="7" t="s">
         <v>563</v>
       </c>
@@ -10345,7 +10476,9 @@
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="B59" s="7"/>
+      <c r="B59" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C59" s="7" t="s">
         <v>564</v>
       </c>
@@ -10357,7 +10490,9 @@
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
-      <c r="B60" s="7"/>
+      <c r="B60" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C60" s="7" t="s">
         <v>565</v>
       </c>
@@ -10369,7 +10504,9 @@
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B61" s="7"/>
+      <c r="B61" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C61" s="7" t="s">
         <v>566</v>
       </c>
@@ -10381,7 +10518,9 @@
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="B62" s="7"/>
+      <c r="B62" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C62" s="7" t="s">
         <v>567</v>
       </c>
@@ -10393,7 +10532,9 @@
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
-      <c r="B63" s="7"/>
+      <c r="B63" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C63" s="7" t="s">
         <v>568</v>
       </c>
@@ -10405,7 +10546,9 @@
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B64" s="7"/>
+      <c r="B64" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C64" s="7" t="s">
         <v>569</v>
       </c>
@@ -10417,7 +10560,9 @@
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="B65" s="7"/>
+      <c r="B65" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C65" s="7" t="s">
         <v>567</v>
       </c>
@@ -10429,7 +10574,9 @@
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="B66" s="7"/>
+      <c r="B66" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C66" s="7" t="s">
         <v>570</v>
       </c>
@@ -10441,7 +10588,9 @@
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="B67" s="7"/>
+      <c r="B67" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C67" s="7" t="s">
         <v>571</v>
       </c>
@@ -10453,7 +10602,9 @@
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B68" s="7"/>
+      <c r="B68" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C68" s="7" t="s">
         <v>572</v>
       </c>
@@ -10465,7 +10616,9 @@
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="B69" s="7"/>
+      <c r="B69" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C69" s="7" t="s">
         <v>573</v>
       </c>
@@ -10477,7 +10630,9 @@
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="B70" s="7"/>
+      <c r="B70" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C70" s="7" t="s">
         <v>574</v>
       </c>
@@ -10489,7 +10644,9 @@
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
-      <c r="B71" s="7"/>
+      <c r="B71" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C71" s="7" t="s">
         <v>575</v>
       </c>
@@ -10501,7 +10658,9 @@
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
-      <c r="B72" s="7"/>
+      <c r="B72" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C72" s="7" t="s">
         <v>576</v>
       </c>
@@ -10513,7 +10672,9 @@
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
-      <c r="B73" s="7"/>
+      <c r="B73" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C73" s="7" t="s">
         <v>577</v>
       </c>
@@ -10525,7 +10686,9 @@
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
-      <c r="B74" s="7"/>
+      <c r="B74" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C74" s="7" t="s">
         <v>578</v>
       </c>
@@ -10537,7 +10700,9 @@
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="7"/>
+      <c r="B75" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C75" s="7" t="s">
         <v>579</v>
       </c>
@@ -10549,7 +10714,9 @@
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B76" s="7"/>
+      <c r="B76" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C76" s="7" t="s">
         <v>580</v>
       </c>
@@ -10561,7 +10728,9 @@
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
-      <c r="B77" s="7"/>
+      <c r="B77" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C77" s="7" t="s">
         <v>581</v>
       </c>
@@ -10573,7 +10742,9 @@
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
-      <c r="B78" s="7"/>
+      <c r="B78" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C78" s="7" t="s">
         <v>582</v>
       </c>
@@ -10585,7 +10756,9 @@
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B79" s="7"/>
+      <c r="B79" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C79" s="7" t="s">
         <v>583</v>
       </c>
@@ -10597,7 +10770,9 @@
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
-      <c r="B80" s="7"/>
+      <c r="B80" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C80" s="7" t="s">
         <v>584</v>
       </c>
@@ -10609,7 +10784,9 @@
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
-      <c r="B81" s="7"/>
+      <c r="B81" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C81" s="7" t="s">
         <v>585</v>
       </c>
@@ -10621,7 +10798,9 @@
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B82" s="7"/>
+      <c r="B82" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C82" s="7" t="s">
         <v>586</v>
       </c>
@@ -10633,7 +10812,9 @@
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B83" s="7"/>
+      <c r="B83" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C83" s="7" t="s">
         <v>587</v>
       </c>
@@ -10645,7 +10826,9 @@
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
-      <c r="B84" s="7"/>
+      <c r="B84" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C84" s="7" t="s">
         <v>588</v>
       </c>
@@ -10657,7 +10840,9 @@
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B85" s="7"/>
+      <c r="B85" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C85" s="7" t="s">
         <v>589</v>
       </c>
@@ -10669,7 +10854,9 @@
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
-      <c r="B86" s="7"/>
+      <c r="B86" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C86" s="7" t="s">
         <v>590</v>
       </c>
@@ -10681,7 +10868,9 @@
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
-      <c r="B87" s="7"/>
+      <c r="B87" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C87" s="7" t="s">
         <v>591</v>
       </c>
@@ -10693,7 +10882,9 @@
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
-      <c r="B88" s="7"/>
+      <c r="B88" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C88" s="7" t="s">
         <v>592</v>
       </c>
@@ -10705,7 +10896,9 @@
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B89" s="7"/>
+      <c r="B89" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C89" s="7" t="s">
         <v>593</v>
       </c>
@@ -10717,7 +10910,9 @@
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
-      <c r="B90" s="7"/>
+      <c r="B90" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C90" s="7" t="s">
         <v>594</v>
       </c>
@@ -10729,7 +10924,9 @@
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B91" s="7"/>
+      <c r="B91" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C91" s="7" t="s">
         <v>595</v>
       </c>
@@ -10741,7 +10938,9 @@
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
-      <c r="B92" s="7"/>
+      <c r="B92" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C92" s="7" t="s">
         <v>596</v>
       </c>
@@ -10753,7 +10952,9 @@
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B93" s="7"/>
+      <c r="B93" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C93" s="7" t="s">
         <v>597</v>
       </c>
@@ -10765,7 +10966,9 @@
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B94" s="7"/>
+      <c r="B94" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C94" s="7" t="s">
         <v>598</v>
       </c>
@@ -10777,7 +10980,9 @@
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
-      <c r="B95" s="7"/>
+      <c r="B95" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C95" s="7" t="s">
         <v>599</v>
       </c>
@@ -10789,7 +10994,9 @@
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="B96" s="7"/>
+      <c r="B96" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C96" s="7" t="s">
         <v>600</v>
       </c>
@@ -10801,7 +11008,9 @@
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
-      <c r="B97" s="7"/>
+      <c r="B97" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C97" s="7" t="s">
         <v>601</v>
       </c>
@@ -10813,7 +11022,9 @@
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
-      <c r="B98" s="7"/>
+      <c r="B98" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C98" s="7" t="s">
         <v>602</v>
       </c>
@@ -10825,7 +11036,9 @@
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
-      <c r="B99" s="7"/>
+      <c r="B99" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C99" s="7" t="s">
         <v>603</v>
       </c>
@@ -10837,7 +11050,9 @@
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
-      <c r="B100" s="7"/>
+      <c r="B100" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C100" s="7" t="s">
         <v>604</v>
       </c>
@@ -10849,7 +11064,9 @@
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
-      <c r="B101" s="7"/>
+      <c r="B101" s="7" t="s">
+        <v>1011</v>
+      </c>
       <c r="C101" s="7" t="s">
         <v>605</v>
       </c>
@@ -10861,7 +11078,9 @@
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
-      <c r="B102" s="7"/>
+      <c r="B102" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C102" s="7" t="s">
         <v>606</v>
       </c>
@@ -10873,7 +11092,9 @@
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
-      <c r="B103" s="7"/>
+      <c r="B103" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C103" s="7" t="s">
         <v>607</v>
       </c>
@@ -10885,7 +11106,9 @@
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
-      <c r="B104" s="7"/>
+      <c r="B104" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C104" s="7" t="s">
         <v>608</v>
       </c>
@@ -10897,7 +11120,9 @@
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
-      <c r="B105" s="7"/>
+      <c r="B105" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C105" s="7" t="s">
         <v>609</v>
       </c>
@@ -10909,7 +11134,9 @@
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
-      <c r="B106" s="7"/>
+      <c r="B106" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C106" s="7" t="s">
         <v>610</v>
       </c>
@@ -10921,7 +11148,9 @@
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
-      <c r="B107" s="7"/>
+      <c r="B107" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C107" s="7" t="s">
         <v>611</v>
       </c>
@@ -10933,7 +11162,9 @@
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
-      <c r="B108" s="7"/>
+      <c r="B108" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C108" s="7" t="s">
         <v>612</v>
       </c>
@@ -10945,7 +11176,9 @@
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
-      <c r="B109" s="7"/>
+      <c r="B109" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C109" s="7" t="s">
         <v>613</v>
       </c>
@@ -10957,7 +11190,9 @@
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B110" s="7"/>
+      <c r="B110" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C110" s="7" t="s">
         <v>614</v>
       </c>
@@ -10969,7 +11204,9 @@
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="B111" s="7"/>
+      <c r="B111" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C111" s="7" t="s">
         <v>615</v>
       </c>
@@ -10981,7 +11218,9 @@
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
-      <c r="B112" s="7"/>
+      <c r="B112" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C112" s="7" t="s">
         <v>616</v>
       </c>
@@ -10993,7 +11232,9 @@
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
-      <c r="B113" s="7"/>
+      <c r="B113" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C113" s="7" t="s">
         <v>617</v>
       </c>
@@ -11005,7 +11246,9 @@
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
-      <c r="B114" s="7"/>
+      <c r="B114" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C114" s="7" t="s">
         <v>618</v>
       </c>
@@ -11017,7 +11260,9 @@
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
-      <c r="B115" s="7"/>
+      <c r="B115" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C115" s="7" t="s">
         <v>619</v>
       </c>
@@ -11029,7 +11274,9 @@
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
-      <c r="B116" s="7"/>
+      <c r="B116" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C116" s="7" t="s">
         <v>620</v>
       </c>
@@ -11041,7 +11288,9 @@
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B117" s="7"/>
+      <c r="B117" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C117" s="7" t="s">
         <v>621</v>
       </c>
@@ -11053,7 +11302,9 @@
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
-      <c r="B118" s="7"/>
+      <c r="B118" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C118" s="7" t="s">
         <v>622</v>
       </c>
@@ -11065,7 +11316,9 @@
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
-      <c r="B119" s="7"/>
+      <c r="B119" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C119" s="7" t="s">
         <v>623</v>
       </c>
@@ -11077,7 +11330,9 @@
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
-      <c r="B120" s="7"/>
+      <c r="B120" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C120" s="7" t="s">
         <v>624</v>
       </c>
@@ -11089,7 +11344,9 @@
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
-      <c r="B121" s="7"/>
+      <c r="B121" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C121" s="7" t="s">
         <v>625</v>
       </c>
@@ -11101,7 +11358,9 @@
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
-      <c r="B122" s="7"/>
+      <c r="B122" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C122" s="7" t="s">
         <v>626</v>
       </c>
@@ -11113,7 +11372,9 @@
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
-      <c r="B123" s="7"/>
+      <c r="B123" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C123" s="7" t="s">
         <v>627</v>
       </c>
@@ -11125,7 +11386,9 @@
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="B124" s="7"/>
+      <c r="B124" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C124" s="7" t="s">
         <v>627</v>
       </c>
@@ -11137,7 +11400,9 @@
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
-      <c r="B125" s="7"/>
+      <c r="B125" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C125" s="7" t="s">
         <v>628</v>
       </c>
@@ -11149,7 +11414,9 @@
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
-      <c r="B126" s="7"/>
+      <c r="B126" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C126" s="7" t="s">
         <v>629</v>
       </c>
@@ -11161,7 +11428,9 @@
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
-      <c r="B127" s="7"/>
+      <c r="B127" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C127" s="7" t="s">
         <v>629</v>
       </c>
@@ -11173,7 +11442,9 @@
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
-      <c r="B128" s="7"/>
+      <c r="B128" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C128" s="7" t="s">
         <v>630</v>
       </c>
@@ -11185,7 +11456,9 @@
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="B129" s="7"/>
+      <c r="B129" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C129" s="7" t="s">
         <v>631</v>
       </c>
@@ -11197,7 +11470,9 @@
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
-      <c r="B130" s="7"/>
+      <c r="B130" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C130" s="7" t="s">
         <v>632</v>
       </c>
@@ -11209,7 +11484,9 @@
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
-      <c r="B131" s="7"/>
+      <c r="B131" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C131" s="7" t="s">
         <v>633</v>
       </c>
@@ -11221,7 +11498,9 @@
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
-      <c r="B132" s="7"/>
+      <c r="B132" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C132" s="7" t="s">
         <v>634</v>
       </c>
@@ -11233,7 +11512,9 @@
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="B133" s="7"/>
+      <c r="B133" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C133" s="7" t="s">
         <v>635</v>
       </c>
@@ -11245,7 +11526,9 @@
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="B134" s="7"/>
+      <c r="B134" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C134" s="7" t="s">
         <v>636</v>
       </c>
@@ -11257,7 +11540,9 @@
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
-      <c r="B135" s="7"/>
+      <c r="B135" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C135" s="7" t="s">
         <v>637</v>
       </c>
@@ -11269,7 +11554,9 @@
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
-      <c r="B136" s="7"/>
+      <c r="B136" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C136" s="7" t="s">
         <v>638</v>
       </c>
@@ -11281,7 +11568,9 @@
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
-      <c r="B137" s="7"/>
+      <c r="B137" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C137" s="7" t="s">
         <v>639</v>
       </c>
@@ -11293,7 +11582,9 @@
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="B138" s="7"/>
+      <c r="B138" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C138" s="7" t="s">
         <v>640</v>
       </c>
@@ -11305,7 +11596,9 @@
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
-      <c r="B139" s="7"/>
+      <c r="B139" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C139" s="7" t="s">
         <v>641</v>
       </c>
@@ -11317,7 +11610,9 @@
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
-      <c r="B140" s="7"/>
+      <c r="B140" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C140" s="7" t="s">
         <v>642</v>
       </c>
@@ -11329,7 +11624,9 @@
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
-      <c r="B141" s="7"/>
+      <c r="B141" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C141" s="7" t="s">
         <v>643</v>
       </c>
@@ -11341,7 +11638,9 @@
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
-      <c r="B142" s="7"/>
+      <c r="B142" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C142" s="7" t="s">
         <v>644</v>
       </c>
@@ -11353,7 +11652,9 @@
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
-      <c r="B143" s="7"/>
+      <c r="B143" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C143" s="7" t="s">
         <v>645</v>
       </c>
@@ -11365,7 +11666,9 @@
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
-      <c r="B144" s="7"/>
+      <c r="B144" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C144" s="7" t="s">
         <v>646</v>
       </c>
@@ -11377,7 +11680,9 @@
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="B145" s="7"/>
+      <c r="B145" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C145" s="7" t="s">
         <v>647</v>
       </c>
@@ -11389,7 +11694,9 @@
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
-      <c r="B146" s="7"/>
+      <c r="B146" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C146" s="7" t="s">
         <v>648</v>
       </c>
@@ -11401,7 +11708,9 @@
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
-      <c r="B147" s="7"/>
+      <c r="B147" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C147" s="7" t="s">
         <v>649</v>
       </c>
@@ -11413,7 +11722,9 @@
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
-      <c r="B148" s="7"/>
+      <c r="B148" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C148" s="7" t="s">
         <v>649</v>
       </c>
@@ -11425,7 +11736,9 @@
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B149" s="7"/>
+      <c r="B149" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C149" s="7" t="s">
         <v>650</v>
       </c>
@@ -11437,7 +11750,9 @@
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
-      <c r="B150" s="7"/>
+      <c r="B150" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C150" s="7" t="s">
         <v>651</v>
       </c>
@@ -11449,7 +11764,9 @@
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
-      <c r="B151" s="7"/>
+      <c r="B151" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C151" s="7" t="s">
         <v>652</v>
       </c>
@@ -11461,7 +11778,9 @@
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
-      <c r="B152" s="7"/>
+      <c r="B152" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C152" s="7" t="s">
         <v>652</v>
       </c>
@@ -11473,7 +11792,9 @@
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
-      <c r="B153" s="7"/>
+      <c r="B153" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C153" s="7" t="s">
         <v>653</v>
       </c>
@@ -11485,7 +11806,9 @@
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
-      <c r="B154" s="7"/>
+      <c r="B154" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C154" s="7" t="s">
         <v>654</v>
       </c>
@@ -11497,7 +11820,9 @@
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
-      <c r="B155" s="7"/>
+      <c r="B155" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C155" s="7" t="s">
         <v>655</v>
       </c>
@@ -11509,7 +11834,9 @@
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B156" s="7"/>
+      <c r="B156" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C156" s="7" t="s">
         <v>656</v>
       </c>
@@ -11521,7 +11848,9 @@
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
-      <c r="B157" s="7"/>
+      <c r="B157" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C157" s="7" t="s">
         <v>657</v>
       </c>
@@ -11533,7 +11862,9 @@
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="B158" s="7"/>
+      <c r="B158" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C158" s="7" t="s">
         <v>658</v>
       </c>
@@ -11545,7 +11876,9 @@
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B159" s="7"/>
+      <c r="B159" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C159" s="7" t="s">
         <v>659</v>
       </c>
@@ -11557,7 +11890,9 @@
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
-      <c r="B160" s="7"/>
+      <c r="B160" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C160" s="7" t="s">
         <v>660</v>
       </c>
@@ -11569,7 +11904,9 @@
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="B161" s="7"/>
+      <c r="B161" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C161" s="7" t="s">
         <v>661</v>
       </c>
@@ -11581,7 +11918,9 @@
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B162" s="7"/>
+      <c r="B162" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C162" s="7" t="s">
         <v>662</v>
       </c>
@@ -11593,7 +11932,9 @@
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
-      <c r="B163" s="7"/>
+      <c r="B163" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C163" s="7" t="s">
         <v>663</v>
       </c>
@@ -11605,7 +11946,9 @@
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
-      <c r="B164" s="7"/>
+      <c r="B164" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C164" s="7" t="s">
         <v>664</v>
       </c>
@@ -11617,7 +11960,9 @@
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B165" s="7"/>
+      <c r="B165" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C165" s="7" t="s">
         <v>665</v>
       </c>
@@ -11629,7 +11974,9 @@
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
-      <c r="B166" s="7"/>
+      <c r="B166" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C166" s="7" t="s">
         <v>666</v>
       </c>
@@ -11641,7 +11988,9 @@
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
-      <c r="B167" s="7"/>
+      <c r="B167" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C167" s="7" t="s">
         <v>667</v>
       </c>
@@ -11653,7 +12002,9 @@
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B168" s="7"/>
+      <c r="B168" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C168" s="7" t="s">
         <v>668</v>
       </c>
@@ -11665,7 +12016,9 @@
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
-      <c r="B169" s="7"/>
+      <c r="B169" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C169" s="7" t="s">
         <v>669</v>
       </c>
@@ -11677,7 +12030,9 @@
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
-      <c r="B170" s="7"/>
+      <c r="B170" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C170" s="7" t="s">
         <v>670</v>
       </c>
@@ -11689,7 +12044,9 @@
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
-      <c r="B171" s="7"/>
+      <c r="B171" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C171" s="7" t="s">
         <v>671</v>
       </c>
@@ -11701,7 +12058,9 @@
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
-      <c r="B172" s="7"/>
+      <c r="B172" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C172" s="7" t="s">
         <v>672</v>
       </c>
@@ -11713,7 +12072,9 @@
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
-      <c r="B173" s="7"/>
+      <c r="B173" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C173" s="7" t="s">
         <v>673</v>
       </c>
@@ -11725,7 +12086,9 @@
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
-      <c r="B174" s="7"/>
+      <c r="B174" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C174" s="7" t="s">
         <v>674</v>
       </c>
@@ -11737,7 +12100,9 @@
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
-      <c r="B175" s="7"/>
+      <c r="B175" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C175" s="7" t="s">
         <v>675</v>
       </c>
@@ -11749,7 +12114,9 @@
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
-      <c r="B176" s="7"/>
+      <c r="B176" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C176" s="7" t="s">
         <v>676</v>
       </c>
@@ -11761,7 +12128,9 @@
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
-      <c r="B177" s="7"/>
+      <c r="B177" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C177" s="7" t="s">
         <v>677</v>
       </c>
@@ -11773,7 +12142,9 @@
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="B178" s="7"/>
+      <c r="B178" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C178" s="7" t="s">
         <v>678</v>
       </c>
@@ -11785,7 +12156,9 @@
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
-      <c r="B179" s="7"/>
+      <c r="B179" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C179" s="7" t="s">
         <v>679</v>
       </c>
@@ -11797,7 +12170,9 @@
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B180" s="7"/>
+      <c r="B180" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C180" s="7" t="s">
         <v>680</v>
       </c>
@@ -11809,7 +12184,9 @@
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
-      <c r="B181" s="7"/>
+      <c r="B181" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C181" s="7" t="s">
         <v>681</v>
       </c>
@@ -11821,7 +12198,9 @@
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B182" s="7"/>
+      <c r="B182" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C182" s="7" t="s">
         <v>682</v>
       </c>
@@ -11833,7 +12212,9 @@
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B183" s="7"/>
+      <c r="B183" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C183" s="7" t="s">
         <v>683</v>
       </c>
@@ -11845,7 +12226,9 @@
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
-      <c r="B184" s="7"/>
+      <c r="B184" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C184" s="7" t="s">
         <v>684</v>
       </c>
@@ -11857,7 +12240,9 @@
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
-      <c r="B185" s="7"/>
+      <c r="B185" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C185" s="7" t="s">
         <v>685</v>
       </c>
@@ -11869,7 +12254,9 @@
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
-      <c r="B186" s="7"/>
+      <c r="B186" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C186" s="7" t="s">
         <v>686</v>
       </c>
@@ -11881,7 +12268,9 @@
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
-      <c r="B187" s="7"/>
+      <c r="B187" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C187" s="7" t="s">
         <v>687</v>
       </c>
@@ -11893,7 +12282,9 @@
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
-      <c r="B188" s="7"/>
+      <c r="B188" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C188" s="7" t="s">
         <v>688</v>
       </c>
@@ -11905,7 +12296,9 @@
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
-      <c r="B189" s="7"/>
+      <c r="B189" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C189" s="7" t="s">
         <v>689</v>
       </c>
@@ -11917,7 +12310,9 @@
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
-      <c r="B190" s="7"/>
+      <c r="B190" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C190" s="7" t="s">
         <v>690</v>
       </c>
@@ -11929,7 +12324,9 @@
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B191" s="7"/>
+      <c r="B191" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C191" s="7" t="s">
         <v>691</v>
       </c>
@@ -11941,7 +12338,9 @@
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
-      <c r="B192" s="7"/>
+      <c r="B192" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C192" s="7" t="s">
         <v>692</v>
       </c>
@@ -11953,7 +12352,9 @@
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="B193" s="7"/>
+      <c r="B193" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C193" s="7" t="s">
         <v>693</v>
       </c>
@@ -11965,7 +12366,9 @@
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
-      <c r="B194" s="7"/>
+      <c r="B194" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C194" s="7" t="s">
         <v>694</v>
       </c>
@@ -11977,7 +12380,9 @@
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
-      <c r="B195" s="7"/>
+      <c r="B195" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C195" s="7" t="s">
         <v>695</v>
       </c>
@@ -11989,7 +12394,9 @@
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B196" s="7"/>
+      <c r="B196" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C196" s="7" t="s">
         <v>696</v>
       </c>
@@ -12001,7 +12408,9 @@
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
-      <c r="B197" s="7"/>
+      <c r="B197" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C197" s="7" t="s">
         <v>697</v>
       </c>
@@ -12013,7 +12422,9 @@
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B198" s="7"/>
+      <c r="B198" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C198" s="7" t="s">
         <v>698</v>
       </c>
@@ -12025,7 +12436,9 @@
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
-      <c r="B199" s="7"/>
+      <c r="B199" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C199" s="7" t="s">
         <v>699</v>
       </c>
@@ -12037,7 +12450,9 @@
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
-      <c r="B200" s="7"/>
+      <c r="B200" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C200" s="7" t="s">
         <v>700</v>
       </c>
@@ -12049,7 +12464,9 @@
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
-      <c r="B201" s="7"/>
+      <c r="B201" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C201" s="7" t="s">
         <v>701</v>
       </c>
@@ -12061,7 +12478,9 @@
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
-      <c r="B202" s="7"/>
+      <c r="B202" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C202" s="7" t="s">
         <v>702</v>
       </c>
@@ -12073,7 +12492,9 @@
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B203" s="7"/>
+      <c r="B203" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C203" s="7" t="s">
         <v>703</v>
       </c>
@@ -12085,7 +12506,9 @@
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
-      <c r="B204" s="7"/>
+      <c r="B204" s="7" t="s">
+        <v>1012</v>
+      </c>
       <c r="C204" s="7" t="s">
         <v>704</v>
       </c>
@@ -12097,7 +12520,9 @@
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="B205" s="7"/>
+      <c r="B205" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C205" s="7" t="s">
         <v>705</v>
       </c>
@@ -12109,7 +12534,9 @@
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="B206" s="7"/>
+      <c r="B206" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C206" s="7" t="s">
         <v>706</v>
       </c>
@@ -12121,7 +12548,9 @@
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
-      <c r="B207" s="7"/>
+      <c r="B207" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C207" s="7" t="s">
         <v>707</v>
       </c>
@@ -12133,7 +12562,9 @@
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B208" s="7"/>
+      <c r="B208" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C208" s="7" t="s">
         <v>708</v>
       </c>
@@ -12145,7 +12576,9 @@
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
-      <c r="B209" s="7"/>
+      <c r="B209" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C209" s="7" t="s">
         <v>709</v>
       </c>
@@ -12157,7 +12590,9 @@
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B210" s="7"/>
+      <c r="B210" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C210" s="7" t="s">
         <v>710</v>
       </c>
@@ -12169,7 +12604,9 @@
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
-      <c r="B211" s="7"/>
+      <c r="B211" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C211" s="7" t="s">
         <v>711</v>
       </c>
@@ -12181,7 +12618,9 @@
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B212" s="7"/>
+      <c r="B212" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C212" s="7" t="s">
         <v>712</v>
       </c>
@@ -12193,7 +12632,9 @@
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
-      <c r="B213" s="7"/>
+      <c r="B213" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C213" s="7" t="s">
         <v>713</v>
       </c>
@@ -12205,7 +12646,9 @@
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
-      <c r="B214" s="7"/>
+      <c r="B214" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C214" s="7" t="s">
         <v>714</v>
       </c>
@@ -12217,7 +12660,9 @@
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B215" s="7"/>
+      <c r="B215" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C215" s="7" t="s">
         <v>715</v>
       </c>
@@ -12229,7 +12674,9 @@
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B216" s="7"/>
+      <c r="B216" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C216" s="7" t="s">
         <v>716</v>
       </c>
@@ -12241,7 +12688,9 @@
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
-      <c r="B217" s="7"/>
+      <c r="B217" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C217" s="7" t="s">
         <v>717</v>
       </c>
@@ -12253,7 +12702,9 @@
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
-      <c r="B218" s="7"/>
+      <c r="B218" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C218" s="7" t="s">
         <v>718</v>
       </c>
@@ -12265,7 +12716,9 @@
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
-      <c r="B219" s="7"/>
+      <c r="B219" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C219" s="7" t="s">
         <v>719</v>
       </c>
@@ -12277,7 +12730,9 @@
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B220" s="7"/>
+      <c r="B220" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C220" s="7" t="s">
         <v>720</v>
       </c>
@@ -12289,7 +12744,9 @@
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
-      <c r="B221" s="7"/>
+      <c r="B221" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C221" s="7" t="s">
         <v>721</v>
       </c>
@@ -12301,7 +12758,9 @@
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
-      <c r="B222" s="7"/>
+      <c r="B222" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C222" s="7" t="s">
         <v>722</v>
       </c>
@@ -12313,7 +12772,9 @@
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="B223" s="7"/>
+      <c r="B223" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C223" s="7" t="s">
         <v>723</v>
       </c>
@@ -12325,7 +12786,9 @@
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B224" s="7"/>
+      <c r="B224" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C224" s="7" t="s">
         <v>724</v>
       </c>
@@ -12337,7 +12800,9 @@
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
-      <c r="B225" s="7"/>
+      <c r="B225" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C225" s="7" t="s">
         <v>725</v>
       </c>
@@ -12349,7 +12814,9 @@
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
-      <c r="B226" s="7"/>
+      <c r="B226" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C226" s="7" t="s">
         <v>726</v>
       </c>
@@ -12361,7 +12828,9 @@
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
-      <c r="B227" s="7"/>
+      <c r="B227" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C227" s="7" t="s">
         <v>727</v>
       </c>
@@ -12373,7 +12842,9 @@
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
-      <c r="B228" s="7"/>
+      <c r="B228" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C228" s="7" t="s">
         <v>728</v>
       </c>
@@ -12385,7 +12856,9 @@
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="B229" s="7"/>
+      <c r="B229" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C229" s="7" t="s">
         <v>729</v>
       </c>
@@ -12397,7 +12870,9 @@
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
-      <c r="B230" s="7"/>
+      <c r="B230" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C230" s="7" t="s">
         <v>730</v>
       </c>
@@ -12409,7 +12884,9 @@
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="B231" s="7"/>
+      <c r="B231" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C231" s="7" t="s">
         <v>731</v>
       </c>
@@ -12421,7 +12898,9 @@
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="B232" s="7"/>
+      <c r="B232" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C232" s="7" t="s">
         <v>732</v>
       </c>
@@ -12433,7 +12912,9 @@
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="B233" s="7"/>
+      <c r="B233" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C233" s="7" t="s">
         <v>733</v>
       </c>
@@ -12445,7 +12926,9 @@
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
-      <c r="B234" s="7"/>
+      <c r="B234" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C234" s="7" t="s">
         <v>734</v>
       </c>
@@ -12457,7 +12940,9 @@
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
-      <c r="B235" s="7"/>
+      <c r="B235" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C235" s="7" t="s">
         <v>735</v>
       </c>
@@ -12469,7 +12954,9 @@
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B236" s="7"/>
+      <c r="B236" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C236" s="7" t="s">
         <v>736</v>
       </c>
@@ -12481,7 +12968,9 @@
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B237" s="7"/>
+      <c r="B237" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C237" s="7" t="s">
         <v>737</v>
       </c>
@@ -12493,7 +12982,9 @@
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
-      <c r="B238" s="7"/>
+      <c r="B238" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C238" s="7" t="s">
         <v>738</v>
       </c>
@@ -12505,7 +12996,9 @@
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B239" s="7"/>
+      <c r="B239" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C239" s="7" t="s">
         <v>739</v>
       </c>
@@ -12517,7 +13010,9 @@
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
-      <c r="B240" s="7"/>
+      <c r="B240" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C240" s="7" t="s">
         <v>740</v>
       </c>
@@ -12529,7 +13024,9 @@
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
-      <c r="B241" s="7"/>
+      <c r="B241" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C241" s="7" t="s">
         <v>741</v>
       </c>
@@ -12541,7 +13038,9 @@
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
-      <c r="B242" s="7"/>
+      <c r="B242" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C242" s="7" t="s">
         <v>742</v>
       </c>
@@ -12553,7 +13052,9 @@
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B243" s="7"/>
+      <c r="B243" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C243" s="7" t="s">
         <v>743</v>
       </c>
@@ -12565,7 +13066,9 @@
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B244" s="7"/>
+      <c r="B244" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C244" s="7" t="s">
         <v>744</v>
       </c>
@@ -12577,7 +13080,9 @@
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
-      <c r="B245" s="7"/>
+      <c r="B245" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C245" s="7" t="s">
         <v>745</v>
       </c>
@@ -12589,7 +13094,9 @@
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
-      <c r="B246" s="7"/>
+      <c r="B246" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C246" s="7" t="s">
         <v>746</v>
       </c>
@@ -12601,7 +13108,9 @@
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
-      <c r="B247" s="7"/>
+      <c r="B247" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C247" s="7" t="s">
         <v>747</v>
       </c>
@@ -12613,7 +13122,9 @@
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
-      <c r="B248" s="7"/>
+      <c r="B248" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C248" s="7" t="s">
         <v>748</v>
       </c>
@@ -12625,7 +13136,9 @@
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
-      <c r="B249" s="7"/>
+      <c r="B249" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C249" s="7" t="s">
         <v>749</v>
       </c>
@@ -12637,7 +13150,9 @@
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
-      <c r="B250" s="7"/>
+      <c r="B250" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C250" s="7" t="s">
         <v>750</v>
       </c>
@@ -12649,7 +13164,9 @@
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
-      <c r="B251" s="7"/>
+      <c r="B251" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C251" s="7" t="s">
         <v>751</v>
       </c>
@@ -12661,7 +13178,9 @@
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
-      <c r="B252" s="7"/>
+      <c r="B252" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C252" s="7" t="s">
         <v>752</v>
       </c>
@@ -12673,7 +13192,9 @@
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
-      <c r="B253" s="7"/>
+      <c r="B253" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C253" s="7" t="s">
         <v>753</v>
       </c>
@@ -12685,7 +13206,9 @@
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
-      <c r="B254" s="7"/>
+      <c r="B254" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C254" s="7" t="s">
         <v>754</v>
       </c>
@@ -12697,7 +13220,9 @@
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
-      <c r="B255" s="7"/>
+      <c r="B255" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C255" s="7" t="s">
         <v>755</v>
       </c>
@@ -12709,7 +13234,9 @@
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
-      <c r="B256" s="7"/>
+      <c r="B256" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C256" s="7" t="s">
         <v>756</v>
       </c>
@@ -12721,7 +13248,9 @@
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
-      <c r="B257" s="7"/>
+      <c r="B257" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C257" s="7" t="s">
         <v>757</v>
       </c>
@@ -12733,7 +13262,9 @@
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
-      <c r="B258" s="7"/>
+      <c r="B258" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C258" s="7" t="s">
         <v>758</v>
       </c>
@@ -12745,7 +13276,9 @@
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="B259" s="7"/>
+      <c r="B259" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C259" s="7" t="s">
         <v>759</v>
       </c>
@@ -12757,7 +13290,9 @@
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
-      <c r="B260" s="7"/>
+      <c r="B260" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C260" s="7" t="s">
         <v>760</v>
       </c>
@@ -12769,7 +13304,9 @@
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
-      <c r="B261" s="7"/>
+      <c r="B261" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C261" s="7" t="s">
         <v>761</v>
       </c>
@@ -12781,7 +13318,9 @@
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
-      <c r="B262" s="7"/>
+      <c r="B262" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C262" s="7" t="s">
         <v>762</v>
       </c>
@@ -12793,7 +13332,9 @@
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
-      <c r="B263" s="7"/>
+      <c r="B263" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C263" s="7" t="s">
         <v>763</v>
       </c>
@@ -12805,7 +13346,9 @@
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
-      <c r="B264" s="7"/>
+      <c r="B264" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C264" s="7" t="s">
         <v>764</v>
       </c>
@@ -12817,7 +13360,9 @@
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
-      <c r="B265" s="7"/>
+      <c r="B265" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C265" s="7" t="s">
         <v>765</v>
       </c>
@@ -12829,7 +13374,9 @@
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B266" s="7"/>
+      <c r="B266" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C266" s="7" t="s">
         <v>766</v>
       </c>
@@ -12841,7 +13388,9 @@
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
-      <c r="B267" s="7"/>
+      <c r="B267" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C267" s="7" t="s">
         <v>767</v>
       </c>
@@ -12853,7 +13402,9 @@
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B268" s="7"/>
+      <c r="B268" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C268" s="7" t="s">
         <v>768</v>
       </c>
@@ -12865,7 +13416,9 @@
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B269" s="7"/>
+      <c r="B269" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C269" s="7" t="s">
         <v>769</v>
       </c>
@@ -12877,7 +13430,9 @@
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B270" s="7"/>
+      <c r="B270" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C270" s="7" t="s">
         <v>770</v>
       </c>
@@ -12889,7 +13444,9 @@
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B271" s="7"/>
+      <c r="B271" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C271" s="7" t="s">
         <v>771</v>
       </c>
@@ -12901,7 +13458,9 @@
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="B272" s="7"/>
+      <c r="B272" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C272" s="7" t="s">
         <v>772</v>
       </c>
@@ -12913,7 +13472,9 @@
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="B273" s="7"/>
+      <c r="B273" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C273" s="7" t="s">
         <v>773</v>
       </c>
@@ -12925,7 +13486,9 @@
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="B274" s="7"/>
+      <c r="B274" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C274" s="7" t="s">
         <v>774</v>
       </c>
@@ -12937,7 +13500,9 @@
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B275" s="7"/>
+      <c r="B275" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C275" s="7" t="s">
         <v>775</v>
       </c>
@@ -12949,7 +13514,9 @@
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B276" s="7"/>
+      <c r="B276" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C276" s="7" t="s">
         <v>776</v>
       </c>
@@ -12961,7 +13528,9 @@
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B277" s="7"/>
+      <c r="B277" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C277" s="7" t="s">
         <v>777</v>
       </c>
@@ -12973,7 +13542,9 @@
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B278" s="7"/>
+      <c r="B278" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C278" s="7" t="s">
         <v>778</v>
       </c>
@@ -12985,7 +13556,9 @@
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="B279" s="7"/>
+      <c r="B279" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C279" s="7" t="s">
         <v>779</v>
       </c>
@@ -12997,7 +13570,9 @@
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
-      <c r="B280" s="7"/>
+      <c r="B280" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C280" s="7" t="s">
         <v>780</v>
       </c>
@@ -13009,7 +13584,9 @@
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B281" s="7"/>
+      <c r="B281" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C281" s="7" t="s">
         <v>781</v>
       </c>
@@ -13021,7 +13598,9 @@
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
-      <c r="B282" s="7"/>
+      <c r="B282" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C282" s="7" t="s">
         <v>782</v>
       </c>
@@ -13033,7 +13612,9 @@
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B283" s="7"/>
+      <c r="B283" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C283" s="7" t="s">
         <v>783</v>
       </c>
@@ -13045,7 +13626,9 @@
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B284" s="7"/>
+      <c r="B284" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C284" s="7" t="s">
         <v>784</v>
       </c>
@@ -13057,7 +13640,9 @@
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="B285" s="7"/>
+      <c r="B285" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C285" s="7" t="s">
         <v>785</v>
       </c>
@@ -13069,7 +13654,9 @@
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="B286" s="7"/>
+      <c r="B286" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C286" s="7" t="s">
         <v>786</v>
       </c>
@@ -13081,7 +13668,9 @@
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
-      <c r="B287" s="7"/>
+      <c r="B287" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C287" s="7" t="s">
         <v>787</v>
       </c>
@@ -13093,7 +13682,9 @@
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="B288" s="7"/>
+      <c r="B288" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C288" s="7" t="s">
         <v>788</v>
       </c>
@@ -13105,7 +13696,9 @@
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B289" s="7"/>
+      <c r="B289" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C289" s="7" t="s">
         <v>789</v>
       </c>
@@ -13117,7 +13710,9 @@
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B290" s="7"/>
+      <c r="B290" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C290" s="7" t="s">
         <v>790</v>
       </c>
@@ -13129,7 +13724,9 @@
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B291" s="7"/>
+      <c r="B291" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C291" s="7" t="s">
         <v>791</v>
       </c>
@@ -13141,7 +13738,9 @@
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B292" s="7"/>
+      <c r="B292" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C292" s="7" t="s">
         <v>792</v>
       </c>
@@ -13153,7 +13752,9 @@
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
-      <c r="B293" s="7"/>
+      <c r="B293" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C293" s="7" t="s">
         <v>793</v>
       </c>
@@ -13165,7 +13766,9 @@
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B294" s="7"/>
+      <c r="B294" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C294" s="7" t="s">
         <v>794</v>
       </c>
@@ -13177,7 +13780,9 @@
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B295" s="7"/>
+      <c r="B295" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C295" s="7" t="s">
         <v>795</v>
       </c>
@@ -13189,7 +13794,9 @@
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B296" s="7"/>
+      <c r="B296" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C296" s="7" t="s">
         <v>796</v>
       </c>
@@ -13201,7 +13808,9 @@
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B297" s="7"/>
+      <c r="B297" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C297" s="7" t="s">
         <v>797</v>
       </c>
@@ -13213,7 +13822,9 @@
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B298" s="7"/>
+      <c r="B298" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C298" s="7" t="s">
         <v>798</v>
       </c>
@@ -13225,7 +13836,9 @@
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B299" s="7"/>
+      <c r="B299" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C299" s="7" t="s">
         <v>799</v>
       </c>
@@ -13237,7 +13850,9 @@
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B300" s="7"/>
+      <c r="B300" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C300" s="7" t="s">
         <v>800</v>
       </c>
@@ -13249,7 +13864,9 @@
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B301" s="7"/>
+      <c r="B301" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C301" s="7" t="s">
         <v>801</v>
       </c>
@@ -13261,7 +13878,9 @@
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
-      <c r="B302" s="7"/>
+      <c r="B302" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C302" s="7" t="s">
         <v>802</v>
       </c>
@@ -13273,7 +13892,9 @@
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="B303" s="7"/>
+      <c r="B303" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C303" s="7" t="s">
         <v>803</v>
       </c>
@@ -13285,7 +13906,9 @@
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B304" s="7"/>
+      <c r="B304" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C304" s="7" t="s">
         <v>804</v>
       </c>
@@ -13297,7 +13920,9 @@
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B305" s="7"/>
+      <c r="B305" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C305" s="7" t="s">
         <v>805</v>
       </c>
@@ -13309,7 +13934,9 @@
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
-      <c r="B306" s="7"/>
+      <c r="B306" s="7" t="s">
+        <v>1013</v>
+      </c>
       <c r="C306" s="7" t="s">
         <v>806</v>
       </c>
@@ -13321,7 +13948,9 @@
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B307" s="7"/>
+      <c r="B307" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C307" s="7" t="s">
         <v>807</v>
       </c>
@@ -13333,7 +13962,9 @@
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B308" s="7"/>
+      <c r="B308" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C308" s="7" t="s">
         <v>808</v>
       </c>
@@ -13345,7 +13976,9 @@
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
-      <c r="B309" s="7"/>
+      <c r="B309" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C309" s="7" t="s">
         <v>809</v>
       </c>
@@ -13357,7 +13990,9 @@
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B310" s="7"/>
+      <c r="B310" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C310" s="7" t="s">
         <v>810</v>
       </c>
@@ -13369,7 +14004,9 @@
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
-      <c r="B311" s="7"/>
+      <c r="B311" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C311" s="7" t="s">
         <v>811</v>
       </c>
@@ -13381,7 +14018,9 @@
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B312" s="7"/>
+      <c r="B312" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C312" s="7" t="s">
         <v>812</v>
       </c>
@@ -13393,7 +14032,9 @@
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B313" s="7"/>
+      <c r="B313" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C313" s="7" t="s">
         <v>813</v>
       </c>
@@ -13405,7 +14046,9 @@
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="B314" s="7"/>
+      <c r="B314" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C314" s="7" t="s">
         <v>814</v>
       </c>
@@ -13417,7 +14060,9 @@
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B315" s="7"/>
+      <c r="B315" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C315" s="7" t="s">
         <v>815</v>
       </c>
@@ -13429,7 +14074,9 @@
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
-      <c r="B316" s="7"/>
+      <c r="B316" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C316" s="7" t="s">
         <v>816</v>
       </c>
@@ -13441,7 +14088,9 @@
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
-      <c r="B317" s="7"/>
+      <c r="B317" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C317" s="7" t="s">
         <v>817</v>
       </c>
@@ -13453,7 +14102,9 @@
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B318" s="7"/>
+      <c r="B318" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C318" s="7" t="s">
         <v>818</v>
       </c>
@@ -13465,7 +14116,9 @@
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
-      <c r="B319" s="7"/>
+      <c r="B319" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C319" s="7" t="s">
         <v>819</v>
       </c>
@@ -13477,7 +14130,9 @@
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="B320" s="7"/>
+      <c r="B320" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C320" s="7" t="s">
         <v>820</v>
       </c>
@@ -13489,7 +14144,9 @@
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
-      <c r="B321" s="7"/>
+      <c r="B321" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C321" s="7" t="s">
         <v>821</v>
       </c>
@@ -13501,7 +14158,9 @@
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B322" s="7"/>
+      <c r="B322" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C322" s="7" t="s">
         <v>822</v>
       </c>
@@ -13513,7 +14172,9 @@
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
-      <c r="B323" s="7"/>
+      <c r="B323" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C323" s="7" t="s">
         <v>823</v>
       </c>
@@ -13525,7 +14186,9 @@
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
-      <c r="B324" s="7"/>
+      <c r="B324" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C324" s="7" t="s">
         <v>824</v>
       </c>
@@ -13537,7 +14200,9 @@
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B325" s="7"/>
+      <c r="B325" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C325" s="7" t="s">
         <v>825</v>
       </c>
@@ -13549,7 +14214,9 @@
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="B326" s="7"/>
+      <c r="B326" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C326" s="7" t="s">
         <v>826</v>
       </c>
@@ -13561,7 +14228,9 @@
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
-      <c r="B327" s="7"/>
+      <c r="B327" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C327" s="7" t="s">
         <v>827</v>
       </c>
@@ -13573,7 +14242,9 @@
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="B328" s="7"/>
+      <c r="B328" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C328" s="7" t="s">
         <v>828</v>
       </c>
@@ -13581,11 +14252,13 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
-      <c r="B329" s="7"/>
+      <c r="B329" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C329" s="7" t="s">
         <v>829</v>
       </c>
@@ -13597,7 +14270,9 @@
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
-      <c r="B330" s="7"/>
+      <c r="B330" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C330" s="7" t="s">
         <v>830</v>
       </c>
@@ -13609,7 +14284,9 @@
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B331" s="7"/>
+      <c r="B331" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C331" s="7" t="s">
         <v>831</v>
       </c>
@@ -13621,7 +14298,9 @@
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
-      <c r="B332" s="7"/>
+      <c r="B332" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C332" s="7" t="s">
         <v>832</v>
       </c>
@@ -13633,7 +14312,9 @@
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
-      <c r="B333" s="7"/>
+      <c r="B333" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C333" s="7" t="s">
         <v>833</v>
       </c>
@@ -13645,7 +14326,9 @@
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B334" s="7"/>
+      <c r="B334" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C334" s="7" t="s">
         <v>834</v>
       </c>
@@ -13657,7 +14340,9 @@
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B335" s="7"/>
+      <c r="B335" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C335" s="7" t="s">
         <v>835</v>
       </c>
@@ -13669,7 +14354,9 @@
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B336" s="7"/>
+      <c r="B336" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C336" s="7" t="s">
         <v>836</v>
       </c>
@@ -13681,7 +14368,9 @@
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B337" s="7"/>
+      <c r="B337" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C337" s="7" t="s">
         <v>837</v>
       </c>
@@ -13693,7 +14382,9 @@
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B338" s="7"/>
+      <c r="B338" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C338" s="7" t="s">
         <v>838</v>
       </c>
@@ -13705,7 +14396,9 @@
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B339" s="7"/>
+      <c r="B339" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C339" s="7" t="s">
         <v>839</v>
       </c>
@@ -13717,7 +14410,9 @@
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B340" s="7"/>
+      <c r="B340" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C340" s="7" t="s">
         <v>840</v>
       </c>
@@ -13729,7 +14424,9 @@
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B341" s="7"/>
+      <c r="B341" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C341" s="7" t="s">
         <v>841</v>
       </c>
@@ -13741,7 +14438,9 @@
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
-      <c r="B342" s="7"/>
+      <c r="B342" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C342" s="7" t="s">
         <v>841</v>
       </c>
@@ -13753,7 +14452,9 @@
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
-      <c r="B343" s="7"/>
+      <c r="B343" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C343" s="7" t="s">
         <v>842</v>
       </c>
@@ -13765,7 +14466,9 @@
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B344" s="7"/>
+      <c r="B344" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C344" s="7" t="s">
         <v>843</v>
       </c>
@@ -13777,7 +14480,9 @@
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B345" s="7"/>
+      <c r="B345" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C345" s="7" t="s">
         <v>844</v>
       </c>
@@ -13789,7 +14494,9 @@
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B346" s="7"/>
+      <c r="B346" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C346" s="7" t="s">
         <v>845</v>
       </c>
@@ -13801,7 +14508,9 @@
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
-      <c r="B347" s="7"/>
+      <c r="B347" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C347" s="7" t="s">
         <v>846</v>
       </c>
@@ -13813,7 +14522,9 @@
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
-      <c r="B348" s="7"/>
+      <c r="B348" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C348" s="7" t="s">
         <v>847</v>
       </c>
@@ -13825,7 +14536,9 @@
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
-      <c r="B349" s="7"/>
+      <c r="B349" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C349" s="7" t="s">
         <v>848</v>
       </c>
@@ -13837,7 +14550,9 @@
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B350" s="7"/>
+      <c r="B350" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C350" s="7" t="s">
         <v>849</v>
       </c>
@@ -13849,7 +14564,9 @@
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
-      <c r="B351" s="7"/>
+      <c r="B351" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C351" s="7" t="s">
         <v>850</v>
       </c>
@@ -13861,7 +14578,9 @@
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="B352" s="7"/>
+      <c r="B352" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C352" s="7" t="s">
         <v>851</v>
       </c>
@@ -13873,7 +14592,9 @@
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
-      <c r="B353" s="7"/>
+      <c r="B353" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C353" s="7" t="s">
         <v>852</v>
       </c>
@@ -13885,7 +14606,9 @@
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="B354" s="7"/>
+      <c r="B354" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C354" s="7" t="s">
         <v>853</v>
       </c>
@@ -13897,7 +14620,9 @@
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
-      <c r="B355" s="7"/>
+      <c r="B355" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C355" s="7" t="s">
         <v>854</v>
       </c>
@@ -13909,7 +14634,9 @@
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
-      <c r="B356" s="7"/>
+      <c r="B356" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C356" s="7" t="s">
         <v>855</v>
       </c>
@@ -13917,11 +14644,13 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
-      <c r="B357" s="7"/>
+      <c r="B357" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C357" s="7" t="s">
         <v>856</v>
       </c>
@@ -13933,7 +14662,9 @@
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
-      <c r="B358" s="7"/>
+      <c r="B358" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C358" s="7" t="s">
         <v>857</v>
       </c>
@@ -13945,7 +14676,9 @@
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
-      <c r="B359" s="7"/>
+      <c r="B359" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C359" s="7" t="s">
         <v>858</v>
       </c>
@@ -13957,7 +14690,9 @@
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
-      <c r="B360" s="7"/>
+      <c r="B360" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C360" s="7" t="s">
         <v>859</v>
       </c>
@@ -13969,7 +14704,9 @@
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
-      <c r="B361" s="7"/>
+      <c r="B361" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C361" s="7" t="s">
         <v>860</v>
       </c>
@@ -13981,7 +14718,9 @@
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
-      <c r="B362" s="7"/>
+      <c r="B362" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C362" s="7" t="s">
         <v>861</v>
       </c>
@@ -13993,7 +14732,9 @@
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B363" s="7"/>
+      <c r="B363" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C363" s="7" t="s">
         <v>862</v>
       </c>
@@ -14001,11 +14742,13 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
-      <c r="B364" s="7"/>
+      <c r="B364" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C364" s="7" t="s">
         <v>863</v>
       </c>
@@ -14017,7 +14760,9 @@
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
-      <c r="B365" s="7"/>
+      <c r="B365" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C365" s="7" t="s">
         <v>864</v>
       </c>
@@ -14029,7 +14774,9 @@
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B366" s="7"/>
+      <c r="B366" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C366" s="7" t="s">
         <v>865</v>
       </c>
@@ -14041,7 +14788,9 @@
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B367" s="7"/>
+      <c r="B367" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C367" s="7" t="s">
         <v>866</v>
       </c>
@@ -14053,7 +14802,9 @@
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B368" s="7"/>
+      <c r="B368" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C368" s="7" t="s">
         <v>867</v>
       </c>
@@ -14065,7 +14816,9 @@
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
-      <c r="B369" s="7"/>
+      <c r="B369" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C369" s="7" t="s">
         <v>868</v>
       </c>
@@ -14077,7 +14830,9 @@
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
-      <c r="B370" s="7"/>
+      <c r="B370" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C370" s="7" t="s">
         <v>869</v>
       </c>
@@ -14089,7 +14844,9 @@
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
-      <c r="B371" s="7"/>
+      <c r="B371" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C371" s="7" t="s">
         <v>870</v>
       </c>
@@ -14101,7 +14858,9 @@
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="B372" s="7"/>
+      <c r="B372" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C372" s="7" t="s">
         <v>871</v>
       </c>
@@ -14113,7 +14872,9 @@
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="B373" s="7"/>
+      <c r="B373" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C373" s="7" t="s">
         <v>872</v>
       </c>
@@ -14125,7 +14886,9 @@
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="B374" s="7"/>
+      <c r="B374" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C374" s="7" t="s">
         <v>873</v>
       </c>
@@ -14137,7 +14900,9 @@
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
-      <c r="B375" s="7"/>
+      <c r="B375" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C375" s="7" t="s">
         <v>874</v>
       </c>
@@ -14149,7 +14914,9 @@
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
-      <c r="B376" s="7"/>
+      <c r="B376" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C376" s="7" t="s">
         <v>875</v>
       </c>
@@ -14161,7 +14928,9 @@
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
-      <c r="B377" s="7"/>
+      <c r="B377" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C377" s="7" t="s">
         <v>876</v>
       </c>
@@ -14173,7 +14942,9 @@
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B378" s="7"/>
+      <c r="B378" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C378" s="7" t="s">
         <v>877</v>
       </c>
@@ -14185,7 +14956,9 @@
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B379" s="7"/>
+      <c r="B379" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C379" s="7" t="s">
         <v>878</v>
       </c>
@@ -14197,7 +14970,9 @@
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
-      <c r="B380" s="7"/>
+      <c r="B380" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C380" s="7" t="s">
         <v>879</v>
       </c>
@@ -14209,7 +14984,9 @@
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
-      <c r="B381" s="7"/>
+      <c r="B381" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C381" s="7" t="s">
         <v>880</v>
       </c>
@@ -14221,7 +14998,9 @@
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
-      <c r="B382" s="7"/>
+      <c r="B382" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C382" s="7" t="s">
         <v>881</v>
       </c>
@@ -14233,7 +15012,9 @@
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
-      <c r="B383" s="7"/>
+      <c r="B383" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C383" s="7" t="s">
         <v>882</v>
       </c>
@@ -14245,7 +15026,9 @@
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
-      <c r="B384" s="7"/>
+      <c r="B384" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C384" s="7" t="s">
         <v>883</v>
       </c>
@@ -14257,7 +15040,9 @@
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
-      <c r="B385" s="7"/>
+      <c r="B385" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C385" s="7" t="s">
         <v>884</v>
       </c>
@@ -14269,7 +15054,9 @@
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
-      <c r="B386" s="7"/>
+      <c r="B386" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C386" s="7" t="s">
         <v>885</v>
       </c>
@@ -14281,7 +15068,9 @@
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
-      <c r="B387" s="7"/>
+      <c r="B387" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C387" s="7" t="s">
         <v>886</v>
       </c>
@@ -14293,7 +15082,9 @@
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
-      <c r="B388" s="7"/>
+      <c r="B388" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C388" s="7" t="s">
         <v>887</v>
       </c>
@@ -14305,7 +15096,9 @@
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
-      <c r="B389" s="7"/>
+      <c r="B389" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C389" s="7" t="s">
         <v>888</v>
       </c>
@@ -14317,7 +15110,9 @@
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
-      <c r="B390" s="7"/>
+      <c r="B390" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C390" s="7" t="s">
         <v>889</v>
       </c>
@@ -14329,7 +15124,9 @@
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
-      <c r="B391" s="7"/>
+      <c r="B391" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C391" s="7" t="s">
         <v>890</v>
       </c>
@@ -14341,7 +15138,9 @@
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
-      <c r="B392" s="7"/>
+      <c r="B392" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C392" s="7" t="s">
         <v>891</v>
       </c>
@@ -14349,11 +15148,13 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B393" s="7"/>
+      <c r="B393" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C393" s="7" t="s">
         <v>892</v>
       </c>
@@ -14365,7 +15166,9 @@
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="B394" s="7"/>
+      <c r="B394" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C394" s="7" t="s">
         <v>893</v>
       </c>
@@ -14377,7 +15180,9 @@
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
-      <c r="B395" s="7"/>
+      <c r="B395" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C395" s="7" t="s">
         <v>894</v>
       </c>
@@ -14389,7 +15194,9 @@
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
-      <c r="B396" s="7"/>
+      <c r="B396" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C396" s="7" t="s">
         <v>895</v>
       </c>
@@ -14401,7 +15208,9 @@
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
-      <c r="B397" s="7"/>
+      <c r="B397" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C397" s="7" t="s">
         <v>896</v>
       </c>
@@ -14413,7 +15222,9 @@
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B398" s="7"/>
+      <c r="B398" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C398" s="7" t="s">
         <v>897</v>
       </c>
@@ -14425,7 +15236,9 @@
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
-      <c r="B399" s="7"/>
+      <c r="B399" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C399" s="7" t="s">
         <v>898</v>
       </c>
@@ -14437,7 +15250,9 @@
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
-      <c r="B400" s="7"/>
+      <c r="B400" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C400" s="7" t="s">
         <v>898</v>
       </c>
@@ -14449,7 +15264,9 @@
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
-      <c r="B401" s="7"/>
+      <c r="B401" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C401" s="7" t="s">
         <v>899</v>
       </c>
@@ -14461,7 +15278,9 @@
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B402" s="7"/>
+      <c r="B402" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C402" s="7" t="s">
         <v>900</v>
       </c>
@@ -14473,7 +15292,9 @@
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B403" s="7"/>
+      <c r="B403" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C403" s="7" t="s">
         <v>901</v>
       </c>
@@ -14485,7 +15306,9 @@
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
-      <c r="B404" s="7"/>
+      <c r="B404" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C404" s="7" t="s">
         <v>902</v>
       </c>
@@ -14497,7 +15320,9 @@
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
-      <c r="B405" s="7"/>
+      <c r="B405" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C405" s="7" t="s">
         <v>903</v>
       </c>
@@ -14509,7 +15334,9 @@
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
-      <c r="B406" s="7"/>
+      <c r="B406" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C406" s="7" t="s">
         <v>904</v>
       </c>
@@ -14521,7 +15348,9 @@
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
-      <c r="B407" s="7"/>
+      <c r="B407" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C407" s="7" t="s">
         <v>905</v>
       </c>
@@ -14533,7 +15362,9 @@
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
-      <c r="B408" s="7"/>
+      <c r="B408" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C408" s="7" t="s">
         <v>906</v>
       </c>
@@ -14545,7 +15376,9 @@
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
-      <c r="B409" s="7"/>
+      <c r="B409" s="7" t="s">
+        <v>1014</v>
+      </c>
       <c r="C409" s="7" t="s">
         <v>907</v>
       </c>
@@ -14557,7 +15390,9 @@
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
-      <c r="B410" s="7"/>
+      <c r="B410" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C410" s="7" t="s">
         <v>908</v>
       </c>
@@ -14569,7 +15404,9 @@
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
-      <c r="B411" s="7"/>
+      <c r="B411" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C411" s="7" t="s">
         <v>909</v>
       </c>
@@ -14581,7 +15418,9 @@
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
-      <c r="B412" s="7"/>
+      <c r="B412" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C412" s="7" t="s">
         <v>910</v>
       </c>
@@ -14593,7 +15432,9 @@
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
-      <c r="B413" s="7"/>
+      <c r="B413" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C413" s="7" t="s">
         <v>911</v>
       </c>
@@ -14605,7 +15446,9 @@
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
-      <c r="B414" s="7"/>
+      <c r="B414" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C414" s="7" t="s">
         <v>912</v>
       </c>
@@ -14617,7 +15460,9 @@
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
-      <c r="B415" s="7"/>
+      <c r="B415" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C415" s="7" t="s">
         <v>913</v>
       </c>
@@ -14629,7 +15474,9 @@
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
-      <c r="B416" s="7"/>
+      <c r="B416" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C416" s="7" t="s">
         <v>914</v>
       </c>
@@ -14641,7 +15488,9 @@
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
-      <c r="B417" s="7"/>
+      <c r="B417" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C417" s="7" t="s">
         <v>915</v>
       </c>
@@ -14653,7 +15502,9 @@
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
-      <c r="B418" s="7"/>
+      <c r="B418" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C418" s="7" t="s">
         <v>916</v>
       </c>
@@ -14665,7 +15516,9 @@
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
-      <c r="B419" s="7"/>
+      <c r="B419" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C419" s="7" t="s">
         <v>917</v>
       </c>
@@ -14677,7 +15530,9 @@
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B420" s="7"/>
+      <c r="B420" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C420" s="7" t="s">
         <v>918</v>
       </c>
@@ -14689,7 +15544,9 @@
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B421" s="7"/>
+      <c r="B421" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C421" s="7" t="s">
         <v>919</v>
       </c>
@@ -14701,7 +15558,9 @@
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="B422" s="7"/>
+      <c r="B422" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C422" s="7" t="s">
         <v>920</v>
       </c>
@@ -14713,7 +15572,9 @@
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
-      <c r="B423" s="7"/>
+      <c r="B423" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C423" s="7" t="s">
         <v>921</v>
       </c>
@@ -14725,7 +15586,9 @@
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="B424" s="7"/>
+      <c r="B424" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C424" s="7" t="s">
         <v>922</v>
       </c>
@@ -14737,7 +15600,9 @@
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B425" s="7"/>
+      <c r="B425" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C425" s="7" t="s">
         <v>923</v>
       </c>
@@ -14745,11 +15610,13 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B426" s="7"/>
+      <c r="B426" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C426" s="7" t="s">
         <v>924</v>
       </c>
@@ -14757,11 +15624,13 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B427" s="7"/>
+      <c r="B427" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C427" s="7" t="s">
         <v>925</v>
       </c>
@@ -14773,7 +15642,9 @@
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
-      <c r="B428" s="7"/>
+      <c r="B428" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C428" s="7" t="s">
         <v>926</v>
       </c>
@@ -14785,7 +15656,9 @@
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="B429" s="7"/>
+      <c r="B429" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C429" s="7" t="s">
         <v>927</v>
       </c>
@@ -14797,7 +15670,9 @@
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B430" s="7"/>
+      <c r="B430" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C430" s="7" t="s">
         <v>928</v>
       </c>
@@ -14809,7 +15684,9 @@
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="B431" s="7"/>
+      <c r="B431" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C431" s="7" t="s">
         <v>929</v>
       </c>
@@ -14821,7 +15698,9 @@
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B432" s="7"/>
+      <c r="B432" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C432" s="7" t="s">
         <v>930</v>
       </c>
@@ -14833,7 +15712,9 @@
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="B433" s="7"/>
+      <c r="B433" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C433" s="7" t="s">
         <v>931</v>
       </c>
@@ -14845,7 +15726,9 @@
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
-      <c r="B434" s="7"/>
+      <c r="B434" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C434" s="7" t="s">
         <v>805</v>
       </c>
@@ -14857,7 +15740,9 @@
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
-      <c r="B435" s="7"/>
+      <c r="B435" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C435" s="7" t="s">
         <v>932</v>
       </c>
@@ -14869,7 +15754,9 @@
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B436" s="7"/>
+      <c r="B436" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C436" s="7" t="s">
         <v>933</v>
       </c>
@@ -14881,7 +15768,9 @@
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B437" s="7"/>
+      <c r="B437" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C437" s="7" t="s">
         <v>934</v>
       </c>
@@ -14893,7 +15782,9 @@
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="B438" s="7"/>
+      <c r="B438" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C438" s="7" t="s">
         <v>935</v>
       </c>
@@ -14905,7 +15796,9 @@
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
-      <c r="B439" s="7"/>
+      <c r="B439" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C439" s="7" t="s">
         <v>936</v>
       </c>
@@ -14917,7 +15810,9 @@
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
-      <c r="B440" s="7"/>
+      <c r="B440" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C440" s="7" t="s">
         <v>937</v>
       </c>
@@ -14929,7 +15824,9 @@
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B441" s="7"/>
+      <c r="B441" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C441" s="7" t="s">
         <v>938</v>
       </c>
@@ -14941,7 +15838,9 @@
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B442" s="7"/>
+      <c r="B442" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C442" s="7" t="s">
         <v>939</v>
       </c>
@@ -14953,7 +15852,9 @@
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
-      <c r="B443" s="7"/>
+      <c r="B443" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C443" s="7" t="s">
         <v>940</v>
       </c>
@@ -14965,7 +15866,9 @@
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B444" s="7"/>
+      <c r="B444" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C444" s="7" t="s">
         <v>941</v>
       </c>
@@ -14977,7 +15880,9 @@
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
-      <c r="B445" s="7"/>
+      <c r="B445" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C445" s="7" t="s">
         <v>942</v>
       </c>
@@ -14989,7 +15894,9 @@
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="B446" s="7"/>
+      <c r="B446" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C446" s="7" t="s">
         <v>943</v>
       </c>
@@ -15001,7 +15908,9 @@
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
-      <c r="B447" s="7"/>
+      <c r="B447" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C447" s="7" t="s">
         <v>944</v>
       </c>
@@ -15013,7 +15922,9 @@
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
-      <c r="B448" s="7"/>
+      <c r="B448" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C448" s="7" t="s">
         <v>945</v>
       </c>
@@ -15025,7 +15936,9 @@
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B449" s="7"/>
+      <c r="B449" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C449" s="7" t="s">
         <v>946</v>
       </c>
@@ -15037,7 +15950,9 @@
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="B450" s="7"/>
+      <c r="B450" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C450" s="7" t="s">
         <v>947</v>
       </c>
@@ -15049,7 +15964,9 @@
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="B451" s="7"/>
+      <c r="B451" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C451" s="7" t="s">
         <v>948</v>
       </c>
@@ -15061,7 +15978,9 @@
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B452" s="7"/>
+      <c r="B452" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C452" s="7" t="s">
         <v>949</v>
       </c>
@@ -15073,7 +15992,9 @@
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B453" s="7"/>
+      <c r="B453" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C453" s="7" t="s">
         <v>950</v>
       </c>
@@ -15085,7 +16006,9 @@
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
-      <c r="B454" s="7"/>
+      <c r="B454" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C454" s="7" t="s">
         <v>951</v>
       </c>
@@ -15097,7 +16020,9 @@
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
-      <c r="B455" s="7"/>
+      <c r="B455" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C455" s="7" t="s">
         <v>952</v>
       </c>
@@ -15105,11 +16030,13 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
-      <c r="B456" s="7"/>
+      <c r="B456" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C456" s="7" t="s">
         <v>953</v>
       </c>
@@ -15121,7 +16048,9 @@
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B457" s="7"/>
+      <c r="B457" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C457" s="7" t="s">
         <v>954</v>
       </c>
@@ -15133,7 +16062,9 @@
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B458" s="7"/>
+      <c r="B458" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C458" s="7" t="s">
         <v>955</v>
       </c>
@@ -15145,7 +16076,9 @@
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
-      <c r="B459" s="7"/>
+      <c r="B459" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C459" s="7" t="s">
         <v>956</v>
       </c>
@@ -15157,7 +16090,9 @@
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
-      <c r="B460" s="7"/>
+      <c r="B460" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C460" s="7" t="s">
         <v>957</v>
       </c>
@@ -15169,7 +16104,9 @@
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
-      <c r="B461" s="7"/>
+      <c r="B461" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C461" s="7" t="s">
         <v>958</v>
       </c>
@@ -15181,7 +16118,9 @@
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B462" s="7"/>
+      <c r="B462" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C462" s="7" t="s">
         <v>959</v>
       </c>
@@ -15193,7 +16132,9 @@
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
-      <c r="B463" s="7"/>
+      <c r="B463" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C463" s="7" t="s">
         <v>960</v>
       </c>
@@ -15205,7 +16146,9 @@
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
-      <c r="B464" s="7"/>
+      <c r="B464" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C464" s="7" t="s">
         <v>961</v>
       </c>
@@ -15217,7 +16160,9 @@
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B465" s="7"/>
+      <c r="B465" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C465" s="7" t="s">
         <v>962</v>
       </c>
@@ -15225,11 +16170,13 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="34" x14ac:dyDescent="0.2">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
-      <c r="B466" s="7"/>
+      <c r="B466" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C466" s="7" t="s">
         <v>963</v>
       </c>
@@ -15241,7 +16188,9 @@
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
-      <c r="B467" s="7"/>
+      <c r="B467" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C467" s="7" t="s">
         <v>964</v>
       </c>
@@ -15253,7 +16202,9 @@
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
-      <c r="B468" s="7"/>
+      <c r="B468" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C468" s="7" t="s">
         <v>965</v>
       </c>
@@ -15265,7 +16216,9 @@
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
-      <c r="B469" s="7"/>
+      <c r="B469" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C469" s="7" t="s">
         <v>966</v>
       </c>
@@ -15277,7 +16230,9 @@
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
-      <c r="B470" s="7"/>
+      <c r="B470" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C470" s="7" t="s">
         <v>967</v>
       </c>
@@ -15289,7 +16244,9 @@
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
-      <c r="B471" s="7"/>
+      <c r="B471" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C471" s="7" t="s">
         <v>968</v>
       </c>
@@ -15301,7 +16258,9 @@
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B472" s="7"/>
+      <c r="B472" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C472" s="7" t="s">
         <v>969</v>
       </c>
@@ -15313,7 +16272,9 @@
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
-      <c r="B473" s="7"/>
+      <c r="B473" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C473" s="7" t="s">
         <v>970</v>
       </c>
@@ -15325,7 +16286,9 @@
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
-      <c r="B474" s="7"/>
+      <c r="B474" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C474" s="7" t="s">
         <v>971</v>
       </c>
@@ -15337,7 +16300,9 @@
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
-      <c r="B475" s="7"/>
+      <c r="B475" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C475" s="7" t="s">
         <v>972</v>
       </c>
@@ -15349,7 +16314,9 @@
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B476" s="7"/>
+      <c r="B476" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C476" s="7" t="s">
         <v>973</v>
       </c>
@@ -15361,7 +16328,9 @@
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B477" s="7"/>
+      <c r="B477" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C477" s="7" t="s">
         <v>974</v>
       </c>
@@ -15373,7 +16342,9 @@
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B478" s="7"/>
+      <c r="B478" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C478" s="7" t="s">
         <v>975</v>
       </c>
@@ -15385,7 +16356,9 @@
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B479" s="7"/>
+      <c r="B479" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C479" s="7" t="s">
         <v>976</v>
       </c>
@@ -15397,7 +16370,9 @@
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="B480" s="7"/>
+      <c r="B480" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C480" s="7" t="s">
         <v>977</v>
       </c>
@@ -15409,7 +16384,9 @@
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
-      <c r="B481" s="7"/>
+      <c r="B481" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C481" s="7" t="s">
         <v>978</v>
       </c>
@@ -15421,7 +16398,9 @@
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
-      <c r="B482" s="7"/>
+      <c r="B482" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C482" s="7" t="s">
         <v>979</v>
       </c>
@@ -15433,7 +16412,9 @@
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
-      <c r="B483" s="7"/>
+      <c r="B483" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C483" s="7" t="s">
         <v>980</v>
       </c>
@@ -15445,7 +16426,9 @@
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
-      <c r="B484" s="7"/>
+      <c r="B484" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C484" s="7" t="s">
         <v>981</v>
       </c>
@@ -15457,7 +16440,9 @@
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
-      <c r="B485" s="7"/>
+      <c r="B485" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C485" s="7" t="s">
         <v>982</v>
       </c>
@@ -15469,7 +16454,9 @@
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
-      <c r="B486" s="7"/>
+      <c r="B486" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C486" s="7" t="s">
         <v>983</v>
       </c>
@@ -15481,7 +16468,9 @@
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
-      <c r="B487" s="7"/>
+      <c r="B487" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C487" s="7" t="s">
         <v>984</v>
       </c>
@@ -15493,7 +16482,9 @@
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B488" s="7"/>
+      <c r="B488" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C488" s="7" t="s">
         <v>985</v>
       </c>
@@ -15505,7 +16496,9 @@
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
-      <c r="B489" s="7"/>
+      <c r="B489" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C489" s="7" t="s">
         <v>986</v>
       </c>
@@ -15517,7 +16510,9 @@
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
-      <c r="B490" s="7"/>
+      <c r="B490" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C490" s="7" t="s">
         <v>987</v>
       </c>
@@ -15529,7 +16524,9 @@
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B491" s="7"/>
+      <c r="B491" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C491" s="7" t="s">
         <v>988</v>
       </c>
@@ -15541,7 +16538,9 @@
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B492" s="7"/>
+      <c r="B492" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C492" s="7" t="s">
         <v>989</v>
       </c>
@@ -15553,7 +16552,9 @@
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
-      <c r="B493" s="7"/>
+      <c r="B493" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C493" s="7" t="s">
         <v>990</v>
       </c>
@@ -15565,7 +16566,9 @@
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B494" s="7"/>
+      <c r="B494" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C494" s="7" t="s">
         <v>991</v>
       </c>
@@ -15577,7 +16580,9 @@
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
-      <c r="B495" s="7"/>
+      <c r="B495" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C495" s="7" t="s">
         <v>992</v>
       </c>
@@ -15589,7 +16594,9 @@
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
-      <c r="B496" s="7"/>
+      <c r="B496" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C496" s="7" t="s">
         <v>993</v>
       </c>
@@ -15601,7 +16608,9 @@
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="B497" s="7"/>
+      <c r="B497" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C497" s="7" t="s">
         <v>994</v>
       </c>
@@ -15613,7 +16622,9 @@
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B498" s="7"/>
+      <c r="B498" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C498" s="7" t="s">
         <v>995</v>
       </c>
@@ -15625,7 +16636,9 @@
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B499" s="7"/>
+      <c r="B499" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C499" s="7" t="s">
         <v>996</v>
       </c>
@@ -15637,7 +16650,9 @@
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
-      <c r="B500" s="7"/>
+      <c r="B500" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C500" s="7" t="s">
         <v>997</v>
       </c>
@@ -15649,7 +16664,9 @@
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B501" s="7"/>
+      <c r="B501" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C501" s="7" t="s">
         <v>998</v>
       </c>
@@ -15661,7 +16678,9 @@
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
-      <c r="B502" s="7"/>
+      <c r="B502" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C502" s="7" t="s">
         <v>999</v>
       </c>
@@ -15669,11 +16688,13 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="51" x14ac:dyDescent="0.2">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="B503" s="7"/>
+      <c r="B503" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C503" s="7" t="s">
         <v>1000</v>
       </c>
@@ -15685,7 +16706,9 @@
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
-      <c r="B504" s="7"/>
+      <c r="B504" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C504" s="7" t="s">
         <v>1001</v>
       </c>
@@ -15697,7 +16720,9 @@
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B505" s="7"/>
+      <c r="B505" s="7" t="s">
+        <v>1015</v>
+      </c>
       <c r="C505" s="7" t="s">
         <v>1002</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelvolz/Github/excelator/mgmt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weberpau\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D3788-A7E3-764B-AAAD-B78E3066A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2194B91A-E446-40F3-8172-6426A1D9AA59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1031">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9057,6 +9046,51 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>acos(x)</t>
+  </si>
+  <si>
+    <t>acosh(x)</t>
+  </si>
+  <si>
+    <t>cosh(x)</t>
+  </si>
+  <si>
+    <t>möglich aber unnötig ?</t>
+  </si>
+  <si>
+    <t>asin(x)</t>
+  </si>
+  <si>
+    <t>asinh(x)</t>
+  </si>
+  <si>
+    <t>atan(x)</t>
+  </si>
+  <si>
+    <t>möglich</t>
+  </si>
+  <si>
+    <t>ceil(x)</t>
+  </si>
+  <si>
+    <t>corr(xs; ys)</t>
+  </si>
+  <si>
+    <t>Berechnet den Korrelationskoeffizienten (Pearson) zweier gleichgroßer Vektoren</t>
+  </si>
+  <si>
+    <t>binom(n; p; k)</t>
+  </si>
+  <si>
+    <t>cos(x)</t>
+  </si>
+  <si>
+    <t>cov(xs; ys) ?</t>
   </si>
 </sst>
 </file>
@@ -9146,7 +9180,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9170,6 +9204,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
@@ -9316,7 +9353,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F505">
+  <sortState ref="A2:F505">
     <sortCondition ref="A1:A505"/>
   </sortState>
   <tableColumns count="6">
@@ -9630,20 +9667,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C512" sqref="C512"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D511" sqref="D511"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="197.875" customWidth="1"/>
+    <col min="4" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9663,7 +9701,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9684,7 +9722,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9700,7 +9738,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9716,7 +9754,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9728,9 +9766,11 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="F5" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9742,9 +9782,11 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9756,9 +9798,11 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9770,9 +9814,11 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9784,9 +9830,11 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -9798,9 +9846,11 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="F10" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -9812,9 +9862,11 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+      <c r="F11" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -9826,9 +9878,11 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="F12" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -9840,9 +9894,11 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+      <c r="F13" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -9852,11 +9908,13 @@
       <c r="C14" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>1017</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -9866,11 +9924,13 @@
       <c r="C15" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -9880,11 +9940,13 @@
       <c r="C16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -9895,10 +9957,12 @@
         <v>522</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
+      <c r="E17" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -9908,11 +9972,13 @@
       <c r="C18" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>1021</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -9922,11 +9988,13 @@
       <c r="C19" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>1022</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -9936,11 +10004,13 @@
       <c r="C20" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>1023</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -9951,10 +10021,12 @@
         <v>526</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
+      <c r="E21" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -9965,10 +10037,12 @@
         <v>527</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8"/>
+      <c r="E22" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -9980,9 +10054,11 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F23" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -9994,9 +10070,11 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F24" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10008,9 +10086,11 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F25" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10022,9 +10102,11 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F26" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10034,11 +10116,15 @@
       <c r="C27" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D27" s="8"/>
-      <c r="E27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>1025</v>
+      </c>
+      <c r="E27" s="8" t="s">
+        <v>1006</v>
+      </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10050,9 +10136,11 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F28" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10064,9 +10152,11 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F29" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10078,9 +10168,11 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F30" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10092,9 +10184,11 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F31" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10106,9 +10200,11 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F32" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10119,10 +10215,12 @@
         <v>538</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="8"/>
+      <c r="E33" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10133,10 +10231,12 @@
         <v>539</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="8"/>
+      <c r="E34" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10147,10 +10247,12 @@
         <v>540</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="8"/>
+      <c r="E35" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10162,9 +10264,11 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F36" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10176,9 +10280,11 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F37" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10190,9 +10296,11 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F38" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10204,9 +10312,11 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F39" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10217,10 +10327,12 @@
         <v>545</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="8"/>
+      <c r="E40" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10231,10 +10343,12 @@
         <v>546</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="8"/>
+      <c r="E41" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10245,10 +10359,12 @@
         <v>547</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="8"/>
+      <c r="E42" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10260,9 +10376,11 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F43" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10272,11 +10390,13 @@
       <c r="C44" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>1028</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10288,9 +10408,11 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F45" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10300,11 +10422,13 @@
       <c r="C46" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>1028</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10316,9 +10440,11 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F47" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10330,9 +10456,11 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F48" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10344,9 +10472,11 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F49" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10358,9 +10488,11 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F50" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10372,9 +10504,11 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F51" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10386,9 +10520,11 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F52" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10400,9 +10536,11 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F53" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10413,10 +10551,12 @@
         <v>559</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="8"/>
+      <c r="E54" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10428,9 +10568,11 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F55" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10442,9 +10584,11 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F56" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10456,9 +10600,11 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F57" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10469,10 +10615,12 @@
         <v>563</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="8"/>
+      <c r="E58" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10484,9 +10632,11 @@
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F59" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10498,9 +10648,11 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F60" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10512,9 +10664,11 @@
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F61" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10526,9 +10680,11 @@
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F62" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10540,9 +10696,11 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F63" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10554,9 +10712,11 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F64" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10568,9 +10728,11 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10582,9 +10744,11 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F66" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10596,9 +10760,11 @@
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F67" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10610,9 +10776,11 @@
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F68" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10624,9 +10792,11 @@
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F69" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10636,11 +10806,15 @@
       <c r="C70" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="D70" s="8"/>
-      <c r="E70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E70" s="8" t="s">
+        <v>1027</v>
+      </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10650,11 +10824,13 @@
       <c r="C71" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>1029</v>
+      </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -10665,10 +10841,12 @@
         <v>576</v>
       </c>
       <c r="D72" s="8"/>
-      <c r="E72" s="8"/>
+      <c r="E72" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -10679,10 +10857,12 @@
         <v>577</v>
       </c>
       <c r="D73" s="8"/>
-      <c r="E73" s="8"/>
+      <c r="E73" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -10692,11 +10872,13 @@
       <c r="C74" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -10706,11 +10888,13 @@
       <c r="C75" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -10721,10 +10905,12 @@
         <v>580</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="8"/>
+      <c r="E76" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -10734,11 +10920,13 @@
       <c r="C77" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="8" t="s">
+        <v>1030</v>
+      </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -10748,11 +10936,13 @@
       <c r="C78" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="8" t="s">
+        <v>1030</v>
+      </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -10764,9 +10954,11 @@
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="F79" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -10778,9 +10970,11 @@
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+      <c r="F80" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -10792,9 +10986,11 @@
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F81" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -10806,9 +11002,11 @@
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="F82" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -10820,9 +11018,11 @@
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F83" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -10834,9 +11034,11 @@
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+      <c r="F84" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -10848,9 +11050,11 @@
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="F85" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -10862,9 +11066,11 @@
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F86" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -10876,9 +11082,11 @@
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="F87" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -10889,10 +11097,12 @@
         <v>592</v>
       </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="8"/>
+      <c r="E88" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -10904,9 +11114,11 @@
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F89" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -10918,9 +11130,11 @@
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F90" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -10932,9 +11146,11 @@
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F91" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -10946,9 +11162,11 @@
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F92" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -10960,9 +11178,11 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+      <c r="F93" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -10974,9 +11194,11 @@
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F94" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -10988,9 +11210,11 @@
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F95" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11002,9 +11226,11 @@
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F96" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11016,9 +11242,11 @@
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="8"/>
-    </row>
-    <row r="98" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F97" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11030,9 +11258,11 @@
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F98" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11044,9 +11274,11 @@
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F99" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11058,9 +11290,11 @@
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="8"/>
-    </row>
-    <row r="101" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F100" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11072,9 +11306,11 @@
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="8"/>
-    </row>
-    <row r="102" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F101" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11088,7 +11324,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11102,7 +11338,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11116,7 +11352,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11130,7 +11366,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11144,7 +11380,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11158,7 +11394,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11172,7 +11408,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11186,7 +11422,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11200,7 +11436,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11214,7 +11450,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11228,7 +11464,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11242,7 +11478,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11256,7 +11492,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11270,7 +11506,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11284,7 +11520,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11298,7 +11534,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11312,7 +11548,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11326,7 +11562,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11340,7 +11576,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11354,7 +11590,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11368,7 +11604,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11382,7 +11618,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11396,7 +11632,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11410,7 +11646,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11424,7 +11660,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11438,7 +11674,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11452,7 +11688,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11466,7 +11702,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11480,7 +11716,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11494,7 +11730,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -11508,7 +11744,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -11522,7 +11758,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -11536,7 +11772,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -11550,7 +11786,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -11564,7 +11800,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -11578,7 +11814,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -11592,7 +11828,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -11606,7 +11842,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -11620,7 +11856,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -11634,7 +11870,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -11648,7 +11884,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -11662,7 +11898,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -11676,7 +11912,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -11690,7 +11926,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -11704,7 +11940,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -11718,7 +11954,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -11732,7 +11968,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -11746,7 +11982,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -11760,7 +11996,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -11774,7 +12010,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -11788,7 +12024,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -11802,7 +12038,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -11816,7 +12052,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -11830,7 +12066,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -11844,7 +12080,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -11858,7 +12094,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -11872,7 +12108,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -11886,7 +12122,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -11900,7 +12136,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -11914,7 +12150,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -11928,7 +12164,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -11942,7 +12178,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -11956,7 +12192,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -11970,7 +12206,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -11984,7 +12220,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -11998,7 +12234,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12012,7 +12248,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12026,7 +12262,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12040,7 +12276,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12054,7 +12290,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12068,7 +12304,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12082,7 +12318,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12096,7 +12332,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12110,7 +12346,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12124,7 +12360,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12138,7 +12374,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12152,7 +12388,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12166,7 +12402,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12180,7 +12416,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12194,7 +12430,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12208,7 +12444,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12222,7 +12458,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12236,7 +12472,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12250,7 +12486,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12264,7 +12500,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12278,7 +12514,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12292,7 +12528,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12306,7 +12542,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -12320,7 +12556,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -12334,7 +12570,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -12348,7 +12584,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -12362,7 +12598,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -12376,7 +12612,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -12390,7 +12626,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -12404,7 +12640,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -12418,7 +12654,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -12432,7 +12668,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -12446,7 +12682,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -12460,7 +12696,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -12474,7 +12710,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -12488,7 +12724,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -12502,7 +12738,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -12516,7 +12752,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -12530,7 +12766,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -12544,7 +12780,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -12558,7 +12794,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -12572,7 +12808,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -12586,7 +12822,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -12600,7 +12836,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -12614,7 +12850,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -12628,7 +12864,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -12642,7 +12878,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -12656,7 +12892,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -12670,7 +12906,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -12684,7 +12920,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -12698,7 +12934,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -12712,7 +12948,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -12726,7 +12962,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -12740,7 +12976,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -12754,7 +12990,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -12768,7 +13004,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -12782,7 +13018,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -12796,7 +13032,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -12810,7 +13046,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -12824,7 +13060,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -12838,7 +13074,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -12852,7 +13088,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -12866,7 +13102,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -12880,7 +13116,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -12894,7 +13130,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -12908,7 +13144,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -12922,7 +13158,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -12936,7 +13172,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -12950,7 +13186,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -12964,7 +13200,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -12978,7 +13214,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -12992,7 +13228,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13006,7 +13242,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13020,7 +13256,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13034,7 +13270,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13048,7 +13284,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13062,7 +13298,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13076,7 +13312,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13090,7 +13326,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13104,7 +13340,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13118,7 +13354,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -13132,7 +13368,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -13146,7 +13382,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13160,7 +13396,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -13174,7 +13410,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -13188,7 +13424,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -13202,7 +13438,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -13216,7 +13452,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13230,7 +13466,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -13244,7 +13480,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -13258,7 +13494,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -13272,7 +13508,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -13286,7 +13522,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13300,7 +13536,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -13314,7 +13550,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13328,7 +13564,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13342,7 +13578,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13356,7 +13592,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13370,7 +13606,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13384,7 +13620,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -13398,7 +13634,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -13412,7 +13648,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13426,7 +13662,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -13440,7 +13676,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -13454,7 +13690,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -13468,7 +13704,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -13482,7 +13718,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -13496,7 +13732,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -13510,7 +13746,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -13524,7 +13760,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -13538,7 +13774,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -13552,7 +13788,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -13566,7 +13802,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -13580,7 +13816,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -13594,7 +13830,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -13608,7 +13844,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -13622,7 +13858,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -13636,7 +13872,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -13650,7 +13886,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -13664,7 +13900,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -13678,7 +13914,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -13692,7 +13928,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -13706,7 +13942,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -13720,7 +13956,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -13734,7 +13970,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -13748,7 +13984,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -13762,7 +13998,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -13776,7 +14012,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -13790,7 +14026,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -13804,7 +14040,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -13818,7 +14054,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -13832,7 +14068,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -13846,7 +14082,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -13860,7 +14096,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -13874,7 +14110,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -13888,7 +14124,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -13902,7 +14138,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -13916,7 +14152,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -13930,7 +14166,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -13944,7 +14180,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -13958,7 +14194,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -13972,7 +14208,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -13986,7 +14222,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -14000,7 +14236,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -14014,7 +14250,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -14028,7 +14264,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -14042,7 +14278,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -14056,7 +14292,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -14070,7 +14306,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -14084,7 +14320,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -14098,7 +14334,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -14112,7 +14348,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -14126,7 +14362,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -14140,7 +14376,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -14154,7 +14390,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -14168,7 +14404,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -14182,7 +14418,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -14196,7 +14432,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -14210,7 +14446,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -14224,7 +14460,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -14238,7 +14474,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -14252,7 +14488,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -14266,7 +14502,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -14280,7 +14516,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -14294,7 +14530,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -14308,7 +14544,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -14322,7 +14558,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -14336,7 +14572,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -14350,7 +14586,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -14364,7 +14600,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -14378,7 +14614,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -14392,7 +14628,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -14406,7 +14642,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -14420,7 +14656,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -14434,7 +14670,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -14448,7 +14684,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -14462,7 +14698,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -14476,7 +14712,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -14490,7 +14726,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -14504,7 +14740,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -14518,7 +14754,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -14532,7 +14768,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -14546,7 +14782,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -14560,7 +14796,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -14574,7 +14810,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -14588,7 +14824,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -14602,7 +14838,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -14616,7 +14852,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -14630,7 +14866,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -14644,7 +14880,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -14658,7 +14894,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -14672,7 +14908,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -14686,7 +14922,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -14700,7 +14936,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -14714,7 +14950,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -14728,7 +14964,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -14742,7 +14978,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -14756,7 +14992,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -14770,7 +15006,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -14784,7 +15020,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -14798,7 +15034,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -14812,7 +15048,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -14826,7 +15062,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -14840,7 +15076,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -14854,7 +15090,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -14868,7 +15104,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -14882,7 +15118,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -14896,7 +15132,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -14910,7 +15146,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -14924,7 +15160,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -14938,7 +15174,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -14952,7 +15188,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -14966,7 +15202,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -14980,7 +15216,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -14994,7 +15230,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -15008,7 +15244,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -15022,7 +15258,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -15036,7 +15272,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -15050,7 +15286,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -15064,7 +15300,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -15078,7 +15314,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -15092,7 +15328,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -15106,7 +15342,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -15120,7 +15356,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -15134,7 +15370,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -15148,7 +15384,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -15162,7 +15398,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -15176,7 +15412,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -15190,7 +15426,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -15204,7 +15440,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -15218,7 +15454,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -15232,7 +15468,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -15246,7 +15482,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -15260,7 +15496,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -15274,7 +15510,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -15288,7 +15524,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -15302,7 +15538,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -15316,7 +15552,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -15330,7 +15566,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -15344,7 +15580,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -15358,7 +15594,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -15372,7 +15608,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -15386,7 +15622,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -15400,7 +15636,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -15414,7 +15650,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -15428,7 +15664,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -15442,7 +15678,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -15456,7 +15692,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -15470,7 +15706,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -15484,7 +15720,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -15498,7 +15734,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -15512,7 +15748,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -15526,7 +15762,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -15540,7 +15776,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -15554,7 +15790,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -15568,7 +15804,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -15582,7 +15818,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -15596,7 +15832,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -15610,7 +15846,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -15624,7 +15860,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -15638,7 +15874,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -15652,7 +15888,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -15666,7 +15902,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -15680,7 +15916,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -15694,7 +15930,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -15708,7 +15944,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -15722,7 +15958,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -15736,7 +15972,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -15750,7 +15986,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -15764,7 +16000,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -15778,7 +16014,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -15792,7 +16028,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -15806,7 +16042,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -15820,7 +16056,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -15834,7 +16070,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -15848,7 +16084,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -15862,7 +16098,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -15876,7 +16112,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -15890,7 +16126,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -15904,7 +16140,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -15918,7 +16154,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -15932,7 +16168,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -15946,7 +16182,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -15960,7 +16196,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -15974,7 +16210,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -15988,7 +16224,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -16002,7 +16238,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -16016,7 +16252,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -16030,7 +16266,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -16044,7 +16280,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -16058,7 +16294,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -16072,7 +16308,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -16086,7 +16322,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -16100,7 +16336,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
@@ -16114,7 +16350,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
@@ -16128,7 +16364,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
@@ -16142,7 +16378,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
@@ -16156,7 +16392,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
@@ -16170,7 +16406,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
@@ -16184,7 +16420,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
@@ -16198,7 +16434,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
@@ -16212,7 +16448,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
@@ -16226,7 +16462,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
@@ -16240,7 +16476,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
@@ -16254,7 +16490,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
@@ -16268,7 +16504,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
@@ -16282,7 +16518,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
@@ -16296,7 +16532,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
@@ -16310,7 +16546,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
@@ -16324,7 +16560,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
@@ -16338,7 +16574,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
@@ -16352,7 +16588,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
@@ -16366,7 +16602,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
@@ -16380,7 +16616,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
@@ -16394,7 +16630,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
@@ -16408,7 +16644,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
@@ -16422,7 +16658,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
@@ -16436,7 +16672,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
@@ -16450,7 +16686,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
@@ -16464,7 +16700,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
@@ -16478,7 +16714,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
@@ -16492,7 +16728,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -16506,7 +16742,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
@@ -16520,7 +16756,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
@@ -16534,7 +16770,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
@@ -16548,7 +16784,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
@@ -16562,7 +16798,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
@@ -16576,7 +16812,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
@@ -16590,7 +16826,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
@@ -16604,7 +16840,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
@@ -16618,7 +16854,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
@@ -16632,7 +16868,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
@@ -16646,7 +16882,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
@@ -16660,7 +16896,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
@@ -16674,7 +16910,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
@@ -16688,7 +16924,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
@@ -16702,7 +16938,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
@@ -16716,7 +16952,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>
@@ -17238,8 +17474,9 @@
     <hyperlink ref="A496" r:id="rId504" display="https://support.microsoft.com/de-de/office/gtest-funktion-8f33be8a-6bd6-4ecc-8e3a-d9a4420c4a6a" xr:uid="{36ECBA96-CFED-F34B-9AD6-7504936D86F9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId505"/>
   <tableParts count="1">
-    <tablePart r:id="rId505"/>
+    <tablePart r:id="rId506"/>
   </tableParts>
 </worksheet>
 </file>
--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weberpau\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.vaessen\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2194B91A-E446-40F3-8172-6426A1D9AA59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC62C92-8962-4055-80D5-480FE1BBD4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="14025" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -9353,7 +9353,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
   <autoFilter ref="A1:F505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
-  <sortState ref="A2:F505">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F505">
     <sortCondition ref="A1:A505"/>
   </sortState>
   <tableColumns count="6">
@@ -9668,20 +9668,20 @@
   <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D511" sqref="D511"/>
+      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="197.875" customWidth="1"/>
-    <col min="4" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="100.58203125" customWidth="1"/>
+    <col min="4" max="5" width="26.08203125" customWidth="1"/>
+    <col min="6" max="6" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="48.75" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9701,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9722,7 +9722,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9738,7 +9738,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9754,7 +9754,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9770,7 +9770,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9786,7 +9786,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9802,7 +9802,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9834,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -9850,7 +9850,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -9866,7 +9866,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -9882,7 +9882,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -9898,7 +9898,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -9914,7 +9914,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -9930,7 +9930,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -9946,7 +9946,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -9962,7 +9962,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -9978,7 +9978,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -9994,7 +9994,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10010,7 +10010,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -10026,7 +10026,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -10042,7 +10042,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -10058,7 +10058,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -10074,7 +10074,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10090,7 +10090,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10106,7 +10106,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10124,7 +10124,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10140,7 +10140,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10156,7 +10156,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10172,7 +10172,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10188,7 +10188,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10204,7 +10204,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10220,7 +10220,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10236,7 +10236,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10252,7 +10252,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10268,7 +10268,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10300,7 +10300,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10316,7 +10316,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10332,7 +10332,7 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10348,7 +10348,7 @@
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10364,7 +10364,7 @@
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10380,7 +10380,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10396,7 +10396,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10412,7 +10412,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10428,7 +10428,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10444,7 +10444,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10460,7 +10460,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10476,7 +10476,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10492,7 +10492,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10508,7 +10508,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10524,7 +10524,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10540,7 +10540,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10556,7 +10556,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10572,7 +10572,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10588,7 +10588,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10604,7 +10604,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10620,7 +10620,7 @@
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10636,7 +10636,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10652,7 +10652,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10668,7 +10668,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10684,7 +10684,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10700,7 +10700,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10716,7 +10716,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10732,7 +10732,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10748,7 +10748,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10764,7 +10764,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10780,7 +10780,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10796,7 +10796,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10814,7 +10814,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10830,7 +10830,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -10846,7 +10846,7 @@
       </c>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -10862,7 +10862,7 @@
       </c>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -10878,7 +10878,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -10894,7 +10894,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -10910,7 +10910,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -10926,7 +10926,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -10942,7 +10942,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -10958,7 +10958,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -10990,7 +10990,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -11006,7 +11006,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -11022,7 +11022,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -11038,7 +11038,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -11054,7 +11054,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -11070,7 +11070,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -11086,7 +11086,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -11102,7 +11102,7 @@
       </c>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -11118,7 +11118,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -11134,7 +11134,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -11150,7 +11150,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -11166,7 +11166,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -11182,7 +11182,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -11198,7 +11198,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -11214,7 +11214,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11230,7 +11230,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11246,7 +11246,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11262,7 +11262,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11278,7 +11278,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11294,7 +11294,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11310,7 +11310,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11324,7 +11324,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11338,7 +11338,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11352,7 +11352,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11366,7 +11366,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11380,7 +11380,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11394,7 +11394,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11408,7 +11408,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11422,7 +11422,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11436,7 +11436,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11450,7 +11450,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11464,7 +11464,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11478,7 +11478,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11492,7 +11492,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11506,7 +11506,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11520,7 +11520,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11534,7 +11534,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11548,7 +11548,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11562,7 +11562,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11576,7 +11576,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11590,7 +11590,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11604,7 +11604,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11618,7 +11618,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11632,7 +11632,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11646,7 +11646,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11660,7 +11660,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11674,7 +11674,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11688,7 +11688,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11702,7 +11702,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11716,7 +11716,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11730,7 +11730,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -11744,7 +11744,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -11758,7 +11758,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -11772,7 +11772,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -11786,7 +11786,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -11800,7 +11800,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -11814,7 +11814,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -11828,7 +11828,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -11842,7 +11842,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -11856,7 +11856,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -11870,7 +11870,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -11884,7 +11884,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -11898,7 +11898,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -11912,7 +11912,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -11926,7 +11926,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -11940,7 +11940,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -11954,7 +11954,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -11968,7 +11968,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -11982,7 +11982,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -11996,7 +11996,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -12010,7 +12010,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -12024,7 +12024,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -12038,7 +12038,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -12052,7 +12052,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -12066,7 +12066,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -12080,7 +12080,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -12094,7 +12094,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -12108,7 +12108,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -12122,7 +12122,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -12136,7 +12136,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -12150,7 +12150,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -12164,7 +12164,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -12178,7 +12178,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -12192,7 +12192,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -12206,7 +12206,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -12220,7 +12220,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -12234,7 +12234,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12248,7 +12248,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12262,7 +12262,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12276,7 +12276,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12290,7 +12290,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12304,7 +12304,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12318,7 +12318,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12332,7 +12332,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12346,7 +12346,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12360,7 +12360,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12374,7 +12374,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12388,7 +12388,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12402,7 +12402,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12416,7 +12416,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12430,7 +12430,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12444,7 +12444,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12458,7 +12458,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12472,7 +12472,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12486,7 +12486,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12500,7 +12500,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12514,7 +12514,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12528,7 +12528,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12542,7 +12542,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -12556,7 +12556,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -12570,7 +12570,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -12584,7 +12584,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -12598,7 +12598,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -12612,7 +12612,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -12626,7 +12626,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -12640,7 +12640,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -12654,7 +12654,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -12668,7 +12668,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -12682,7 +12682,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -12696,7 +12696,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -12710,7 +12710,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -12724,7 +12724,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -12738,7 +12738,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -12752,7 +12752,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -12766,7 +12766,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -12780,7 +12780,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -12794,7 +12794,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -12808,7 +12808,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -12822,7 +12822,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -12836,7 +12836,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -12850,7 +12850,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -12864,7 +12864,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -12878,7 +12878,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -12892,7 +12892,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -12906,7 +12906,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -12920,7 +12920,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -12934,7 +12934,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -12948,7 +12948,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -12962,7 +12962,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -12976,7 +12976,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -12990,7 +12990,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -13004,7 +13004,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -13018,7 +13018,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -13032,7 +13032,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -13046,7 +13046,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -13060,7 +13060,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -13074,7 +13074,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -13088,7 +13088,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -13102,7 +13102,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -13116,7 +13116,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -13130,7 +13130,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -13144,7 +13144,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -13158,7 +13158,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -13172,7 +13172,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -13186,7 +13186,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -13200,7 +13200,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -13214,7 +13214,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -13228,7 +13228,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13242,7 +13242,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13256,7 +13256,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13270,7 +13270,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13284,7 +13284,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13298,7 +13298,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13312,7 +13312,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13326,7 +13326,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13340,7 +13340,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13354,7 +13354,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -13368,7 +13368,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -13382,7 +13382,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13396,7 +13396,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -13410,7 +13410,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -13424,7 +13424,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -13438,7 +13438,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -13452,7 +13452,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13466,7 +13466,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -13480,7 +13480,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -13494,7 +13494,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -13508,7 +13508,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -13522,7 +13522,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13536,7 +13536,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -13550,7 +13550,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13564,7 +13564,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13578,7 +13578,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13592,7 +13592,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13606,7 +13606,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13620,7 +13620,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -13648,7 +13648,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13662,7 +13662,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -13676,7 +13676,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -13690,7 +13690,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -13704,7 +13704,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -13718,7 +13718,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -13732,7 +13732,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -13746,7 +13746,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -13760,7 +13760,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -13774,7 +13774,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -13788,7 +13788,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -13802,7 +13802,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -13816,7 +13816,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -13830,7 +13830,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -13844,7 +13844,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -13858,7 +13858,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -13872,7 +13872,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -13886,7 +13886,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -13900,7 +13900,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -13914,7 +13914,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -13928,7 +13928,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -13942,7 +13942,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -13956,7 +13956,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -13970,7 +13970,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -13984,7 +13984,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -13998,7 +13998,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -14012,7 +14012,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -14026,7 +14026,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -14040,7 +14040,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -14054,7 +14054,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -14068,7 +14068,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -14082,7 +14082,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -14096,7 +14096,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -14110,7 +14110,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -14124,7 +14124,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -14138,7 +14138,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -14152,7 +14152,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -14166,7 +14166,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -14180,7 +14180,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -14194,7 +14194,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -14208,7 +14208,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -14222,7 +14222,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -14236,7 +14236,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -14250,7 +14250,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -14264,7 +14264,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -14278,7 +14278,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -14292,7 +14292,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -14306,7 +14306,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -14320,7 +14320,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -14334,7 +14334,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -14348,7 +14348,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -14362,7 +14362,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -14376,7 +14376,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -14390,7 +14390,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -14404,7 +14404,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -14418,7 +14418,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -14432,7 +14432,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -14446,7 +14446,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -14460,7 +14460,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -14474,7 +14474,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -14488,7 +14488,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -14502,7 +14502,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -14516,7 +14516,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -14530,7 +14530,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -14544,7 +14544,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -14558,7 +14558,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -14572,7 +14572,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -14586,7 +14586,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -14600,7 +14600,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -14614,7 +14614,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -14628,7 +14628,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -14642,7 +14642,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -14656,7 +14656,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -14670,7 +14670,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -14684,7 +14684,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -14698,7 +14698,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -14712,7 +14712,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -14726,7 +14726,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -14740,7 +14740,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -14754,7 +14754,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -14768,7 +14768,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -14782,7 +14782,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -14796,7 +14796,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -14810,7 +14810,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -14824,7 +14824,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -14838,7 +14838,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -14852,7 +14852,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -14866,7 +14866,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -14880,7 +14880,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -14894,7 +14894,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -14908,7 +14908,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -14922,7 +14922,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -14936,7 +14936,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -14950,7 +14950,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -14964,7 +14964,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -14978,7 +14978,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -14992,7 +14992,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -15006,7 +15006,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -15020,7 +15020,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -15034,7 +15034,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -15048,7 +15048,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -15062,7 +15062,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -15076,7 +15076,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -15090,7 +15090,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -15104,7 +15104,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -15118,7 +15118,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -15132,7 +15132,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -15146,7 +15146,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -15160,7 +15160,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -15174,7 +15174,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -15188,7 +15188,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -15202,7 +15202,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -15216,7 +15216,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -15230,7 +15230,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -15244,7 +15244,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -15258,7 +15258,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -15272,7 +15272,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -15286,7 +15286,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -15300,7 +15300,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -15314,7 +15314,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -15328,7 +15328,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -15342,7 +15342,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -15356,7 +15356,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -15370,7 +15370,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -15384,7 +15384,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -15398,7 +15398,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -15412,7 +15412,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -15426,7 +15426,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -15440,7 +15440,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -15454,7 +15454,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -15468,7 +15468,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -15482,7 +15482,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -15496,7 +15496,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -15510,7 +15510,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -15524,7 +15524,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -15538,7 +15538,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -15552,7 +15552,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -15566,7 +15566,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -15580,7 +15580,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -15594,7 +15594,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -15608,7 +15608,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -15622,7 +15622,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -15636,7 +15636,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -15650,7 +15650,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -15664,7 +15664,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -15678,7 +15678,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -15692,7 +15692,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -15706,7 +15706,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -15720,7 +15720,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -15734,7 +15734,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -15748,7 +15748,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -15762,7 +15762,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -15776,7 +15776,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -15790,7 +15790,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -15804,7 +15804,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -15818,7 +15818,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -15832,7 +15832,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -15846,7 +15846,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -15860,7 +15860,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -15874,7 +15874,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -15888,7 +15888,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -15902,7 +15902,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -15916,7 +15916,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -15930,7 +15930,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -15944,7 +15944,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -15958,7 +15958,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -15972,7 +15972,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -15986,7 +15986,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -16000,7 +16000,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -16014,7 +16014,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -16028,7 +16028,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -16042,7 +16042,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -16056,7 +16056,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -16070,7 +16070,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -16084,7 +16084,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -16098,7 +16098,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -16112,7 +16112,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -16126,7 +16126,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -16140,7 +16140,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -16154,7 +16154,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -16168,7 +16168,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -16182,7 +16182,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -16196,7 +16196,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -16210,7 +16210,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -16224,7 +16224,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -16238,7 +16238,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -16252,7 +16252,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -16266,7 +16266,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -16280,7 +16280,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -16294,7 +16294,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -16308,7 +16308,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -16322,7 +16322,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -16336,7 +16336,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
@@ -16350,7 +16350,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
@@ -16364,7 +16364,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
@@ -16378,7 +16378,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
@@ -16392,7 +16392,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
@@ -16406,7 +16406,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
@@ -16420,7 +16420,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
@@ -16434,7 +16434,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
@@ -16448,7 +16448,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
@@ -16462,7 +16462,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
@@ -16476,7 +16476,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
@@ -16490,7 +16490,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
@@ -16504,7 +16504,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
@@ -16518,7 +16518,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
@@ -16532,7 +16532,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
@@ -16546,7 +16546,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
@@ -16560,7 +16560,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
@@ -16574,7 +16574,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
@@ -16588,7 +16588,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
@@ -16602,7 +16602,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
@@ -16616,7 +16616,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
@@ -16630,7 +16630,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
@@ -16644,7 +16644,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
@@ -16658,7 +16658,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
@@ -16672,7 +16672,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
@@ -16686,7 +16686,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
@@ -16700,7 +16700,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
@@ -16714,7 +16714,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
@@ -16728,7 +16728,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -16742,7 +16742,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
@@ -16756,7 +16756,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
@@ -16770,7 +16770,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
@@ -16784,7 +16784,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
@@ -16798,7 +16798,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
@@ -16812,7 +16812,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
@@ -16826,7 +16826,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
@@ -16840,7 +16840,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
@@ -16854,7 +16854,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="31" x14ac:dyDescent="0.35">
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
@@ -16868,7 +16868,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
@@ -16882,7 +16882,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
@@ -16896,7 +16896,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
@@ -16910,7 +16910,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
@@ -16924,7 +16924,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
@@ -16938,7 +16938,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
@@ -16952,7 +16952,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukas.vaessen\Documents\GitHub\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC62C92-8962-4055-80D5-480FE1BBD4D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C47019-8365-45C2-95BA-CB1AC9F9FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1622" uniqueCount="1031">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1057">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9091,6 +9091,93 @@
   </si>
   <si>
     <t>cov(xs; ys) ?</t>
+  </si>
+  <si>
+    <t>lg(x): Berechnet den Ln von x zur Basis 10</t>
+  </si>
+  <si>
+    <t>Die Gleichung der Kurve lautet
+y = b*m^X
+oder
+y = (b*(m1^x1)*(m2^x2)*_)
+Vorausgesetzt, es gibt mehrere x-Werte, wobei der abhängige y-Wert eine Funktion der unabhängigen x-Werte ist. Jeder m-Wert ist eine Basis, zu der ein entsprechender x-Wert als Exponent gehört, und b ist eine Konstante. Beachten Sie, dass y, x und m Vektoren sein können. Eine von RKP ausgegebene Matrix hat die Form {mn.mn-1 ... .m1.b}.</t>
+  </si>
+  <si>
+    <t>evtl. zu komplex?</t>
+  </si>
+  <si>
+    <t>evtl. möglich</t>
+  </si>
+  <si>
+    <t>zu komplex</t>
+  </si>
+  <si>
+    <t>LOGNORM.VERT(x;Mittelwert;Standabwn;Kumuliert)
+Die Syntax der Funktion LOGNORM.VERT weist die folgenden Argumente auf:
+x     Erforderlich. Der Wert, für den die Funktion ausgewertet werden soll
+Mittelwert     Erforderlich. Der Mittelwert der Lognormalverteilung
+Standabwn     Erforderlich. Die Standardabweichung der Lognormalverteilung
+Kumuliert     Erforderlich. Ein Wahrheitswert, der die Form der Funktion bestimmt. Ist Kumuliert mit WAHR begnen, gilt LOGNORM. DIST gibt die kumulierte Verteilungsfunktion zurück; Ist die Funktion FALSCH, wird die Dichtefunktion zurückgegeben.</t>
+  </si>
+  <si>
+    <t>zu komplex?</t>
+  </si>
+  <si>
+    <t>kann implementiert werden</t>
+  </si>
+  <si>
+    <t>Implementierung macht keinen Sinn für einen Taschenrechner</t>
+  </si>
+  <si>
+    <t>kann implementiert werden, macht jedoch keinen Sinn. Wer nicht den größten Wert kennt von Werten die er in den Taschenrechner eintippt, weiß vrsl. Nicht mal wie man einen Taschenrechner benutzt.</t>
+  </si>
+  <si>
+    <t>möglich, jedoch nicht Sinnvoll</t>
+  </si>
+  <si>
+    <t>kann implementiert werden, macht jedoch keinen Sinn für einen Taschenrechner</t>
+  </si>
+  <si>
+    <t>Implementierung möglich und Sinnvoll: Berechnung einer Determinante</t>
+  </si>
+  <si>
+    <t>Implementierung ist nicht Sinnvoll (keine Funktion, die im Taschenrechner benötigt wird)</t>
+  </si>
+  <si>
+    <t>möglich, jedoch nicht Sinnvoll: Median ist nur einer der Werte, die eingepflegt werden müssen bzw. der Mittelwert zweier Werte.</t>
+  </si>
+  <si>
+    <t>nicht Sinnvoll, außer wenn mit Matrizen gerechnet werden soll</t>
+  </si>
+  <si>
+    <t>nur bedingt Sinnvoll</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nicht Sinnvoll </t>
+  </si>
+  <si>
+    <t>Sinnvoll, kann implementiert werden durch Nutzung des Mittelwertes</t>
+  </si>
+  <si>
+    <t>nicht Sinnvoll</t>
+  </si>
+  <si>
+    <t>nur bedingt Sinnvoll, evtl schon durch die Inverse Formel abgedeckt</t>
+  </si>
+  <si>
+    <t>kann implementiert werden, jedoch komplex</t>
+  </si>
+  <si>
+    <t>kann implementiert werden, komplex</t>
+  </si>
+  <si>
+    <t>nur bedingt sinnvoll</t>
+  </si>
+  <si>
+    <t>eher nicht sinnvoll</t>
+  </si>
+  <si>
+    <t>komplex</t>
   </si>
 </sst>
 </file>
@@ -9180,7 +9267,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9202,9 +9289,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9667,21 +9751,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A116" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D140" sqref="D140"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D251" sqref="D251:F299"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.796875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="100.58203125" customWidth="1"/>
-    <col min="4" max="5" width="26.08203125" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="100.59765625" customWidth="1"/>
+    <col min="4" max="5" width="26.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9701,7 +9785,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9722,7 +9806,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9738,7 +9822,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9754,7 +9838,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9770,7 +9854,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9786,7 +9870,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9802,7 +9886,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9818,7 +9902,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9834,7 +9918,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -9850,7 +9934,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -9866,7 +9950,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -9882,7 +9966,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -9898,7 +9982,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -9914,7 +9998,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -9930,7 +10014,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -9940,13 +10024,13 @@
       <c r="C16" s="7" t="s">
         <v>521</v>
       </c>
-      <c r="D16" s="9"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="8" t="s">
         <v>1020</v>
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -9962,7 +10046,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -9978,7 +10062,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -9994,7 +10078,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10010,7 +10094,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -10026,7 +10110,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -10042,7 +10126,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -10058,7 +10142,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -10074,7 +10158,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10090,7 +10174,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10106,7 +10190,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="46.5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10124,7 +10208,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10140,7 +10224,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10156,7 +10240,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10172,7 +10256,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10188,7 +10272,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10204,7 +10288,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10220,7 +10304,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10236,7 +10320,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10252,7 +10336,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10268,7 +10352,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10284,7 +10368,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10300,7 +10384,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10316,7 +10400,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10332,7 +10416,7 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10348,7 +10432,7 @@
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10364,7 +10448,7 @@
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10380,7 +10464,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10396,7 +10480,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10412,7 +10496,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10428,7 +10512,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10444,7 +10528,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10460,7 +10544,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10476,7 +10560,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10492,7 +10576,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10508,7 +10592,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10524,7 +10608,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10540,7 +10624,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10556,7 +10640,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10572,7 +10656,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10588,7 +10672,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10604,7 +10688,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10620,7 +10704,7 @@
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10636,7 +10720,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10652,7 +10736,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10668,7 +10752,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10684,7 +10768,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10700,7 +10784,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10716,7 +10800,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10732,7 +10816,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10748,7 +10832,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10764,7 +10848,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10780,7 +10864,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10796,7 +10880,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10814,7 +10898,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10830,7 +10914,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -10846,7 +10930,7 @@
       </c>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -10862,7 +10946,7 @@
       </c>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -10878,7 +10962,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -10894,7 +10978,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -10910,7 +10994,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -10926,7 +11010,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -10942,7 +11026,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -10958,7 +11042,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -10974,7 +11058,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -10990,7 +11074,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -11006,7 +11090,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -11022,7 +11106,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -11038,7 +11122,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -11054,7 +11138,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -11070,7 +11154,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -11086,7 +11170,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -11102,7 +11186,7 @@
       </c>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -11118,7 +11202,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -11134,7 +11218,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -11150,7 +11234,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -11166,7 +11250,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -11182,7 +11266,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -11198,7 +11282,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -11214,7 +11298,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11230,7 +11314,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11246,7 +11330,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11262,7 +11346,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11278,7 +11362,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11294,7 +11378,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11310,7 +11394,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11324,7 +11408,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11338,7 +11422,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11352,7 +11436,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11366,7 +11450,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11380,7 +11464,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11394,7 +11478,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11408,7 +11492,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11422,7 +11506,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11436,7 +11520,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11450,7 +11534,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11464,7 +11548,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11478,7 +11562,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11492,7 +11576,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11506,7 +11590,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11520,7 +11604,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11534,7 +11618,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11548,7 +11632,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11562,7 +11646,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11576,7 +11660,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11590,7 +11674,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11604,7 +11688,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11618,7 +11702,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11632,7 +11716,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11646,7 +11730,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11660,7 +11744,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11674,7 +11758,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11688,7 +11772,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11702,7 +11786,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11716,7 +11800,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11730,7 +11814,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -11744,7 +11828,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -11758,7 +11842,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -11772,7 +11856,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -11786,7 +11870,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -11800,7 +11884,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -11814,7 +11898,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -11828,7 +11912,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -11842,7 +11926,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -11856,7 +11940,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -11870,7 +11954,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -11884,7 +11968,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -11898,7 +11982,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -11912,7 +11996,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -11926,7 +12010,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -11940,7 +12024,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -11954,7 +12038,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -11968,7 +12052,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -11982,7 +12066,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -11996,7 +12080,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -12010,7 +12094,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -12024,7 +12108,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -12038,7 +12122,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -12052,7 +12136,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -12066,7 +12150,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -12080,7 +12164,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -12094,7 +12178,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -12108,7 +12192,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -12122,7 +12206,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -12136,7 +12220,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -12150,7 +12234,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -12164,7 +12248,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -12178,7 +12262,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -12192,7 +12276,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -12206,7 +12290,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -12220,7 +12304,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -12234,7 +12318,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12248,7 +12332,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12262,7 +12346,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12276,7 +12360,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12290,7 +12374,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12304,7 +12388,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12318,7 +12402,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12332,7 +12416,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12346,7 +12430,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12360,7 +12444,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12374,7 +12458,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12388,7 +12472,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12402,7 +12486,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12416,7 +12500,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12430,7 +12514,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12444,7 +12528,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12458,7 +12542,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12472,7 +12556,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12486,7 +12570,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12500,7 +12584,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12514,7 +12598,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12528,7 +12612,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12542,7 +12626,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -12556,7 +12640,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -12570,7 +12654,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -12584,7 +12668,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -12598,7 +12682,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -12612,7 +12696,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -12626,7 +12710,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -12640,7 +12724,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -12654,7 +12738,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -12668,7 +12752,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -12682,7 +12766,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -12696,7 +12780,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -12710,7 +12794,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -12724,7 +12808,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -12738,7 +12822,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -12752,7 +12836,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -12766,7 +12850,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -12780,7 +12864,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -12794,7 +12878,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -12808,7 +12892,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -12822,7 +12906,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -12836,7 +12920,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -12850,7 +12934,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -12864,7 +12948,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -12878,7 +12962,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -12892,7 +12976,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="215" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -12906,7 +12990,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="216" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -12920,7 +13004,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -12934,7 +13018,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="218" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -12948,7 +13032,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="219" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -12962,7 +13046,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -12976,7 +13060,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -12990,7 +13074,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -13004,7 +13088,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -13018,7 +13102,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="224" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -13032,7 +13116,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="225" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -13046,7 +13130,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="226" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -13060,7 +13144,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="227" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -13074,7 +13158,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="228" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -13088,7 +13172,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -13102,7 +13186,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -13116,7 +13200,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -13130,7 +13214,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -13144,7 +13228,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -13158,7 +13242,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -13172,7 +13256,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="235" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -13186,7 +13270,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="236" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -13200,7 +13284,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -13214,7 +13298,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -13228,7 +13312,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13242,7 +13326,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="240" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13256,7 +13340,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="241" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13270,7 +13354,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="242" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13284,7 +13368,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="243" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13298,7 +13382,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="244" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13312,7 +13396,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13326,7 +13410,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13340,7 +13424,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13354,7 +13438,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -13368,7 +13452,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="249" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -13382,7 +13466,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="250" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13396,7 +13480,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="251" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -13406,11 +13490,13 @@
       <c r="C251" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="D251" s="8"/>
+      <c r="D251" s="8" t="s">
+        <v>1031</v>
+      </c>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="252" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -13421,10 +13507,14 @@
         <v>752</v>
       </c>
       <c r="D252" s="8"/>
-      <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-    </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E252" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="F252" s="8" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -13435,10 +13525,14 @@
         <v>753</v>
       </c>
       <c r="D253" s="8"/>
-      <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-    </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E253" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F253" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -13449,10 +13543,12 @@
         <v>754</v>
       </c>
       <c r="D254" s="8"/>
-      <c r="E254" s="8"/>
+      <c r="E254" s="8" t="s">
+        <v>1034</v>
+      </c>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="255" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13463,10 +13559,14 @@
         <v>755</v>
       </c>
       <c r="D255" s="8"/>
-      <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-    </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E255" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F255" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -13478,9 +13578,11 @@
       </c>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
-      <c r="F256" s="8"/>
-    </row>
-    <row r="257" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F256" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -13491,10 +13593,12 @@
         <v>757</v>
       </c>
       <c r="D257" s="8"/>
-      <c r="E257" s="8"/>
+      <c r="E257" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="258" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -13505,10 +13609,14 @@
         <v>758</v>
       </c>
       <c r="D258" s="8"/>
-      <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-    </row>
-    <row r="259" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E258" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F258" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -13519,10 +13627,12 @@
         <v>759</v>
       </c>
       <c r="D259" s="8"/>
-      <c r="E259" s="8"/>
+      <c r="E259" s="8" t="s">
+        <v>1039</v>
+      </c>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="260" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13533,10 +13643,14 @@
         <v>760</v>
       </c>
       <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
-      <c r="F260" s="8"/>
-    </row>
-    <row r="261" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E260" s="8" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F260" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -13547,10 +13661,14 @@
         <v>761</v>
       </c>
       <c r="D261" s="8"/>
-      <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-    </row>
-    <row r="262" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E261" s="8" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F261" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13562,9 +13680,11 @@
       </c>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
-      <c r="F262" s="8"/>
-    </row>
-    <row r="263" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F262" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13575,10 +13695,12 @@
         <v>763</v>
       </c>
       <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
+      <c r="E263" s="8" t="s">
+        <v>1043</v>
+      </c>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="264" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13590,9 +13712,11 @@
       </c>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
-      <c r="F264" s="8"/>
-    </row>
-    <row r="265" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F264" s="8" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13604,9 +13728,11 @@
       </c>
       <c r="D265" s="8"/>
       <c r="E265" s="8"/>
-      <c r="F265" s="8"/>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F265" s="8" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13618,9 +13744,11 @@
       </c>
       <c r="D266" s="8"/>
       <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-    </row>
-    <row r="267" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F266" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -13632,9 +13760,11 @@
       </c>
       <c r="D267" s="8"/>
       <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-    </row>
-    <row r="268" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F267" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -13646,9 +13776,11 @@
       </c>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
-      <c r="F268" s="8"/>
-    </row>
-    <row r="269" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F268" s="8" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13660,9 +13792,11 @@
       </c>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
-      <c r="F269" s="8"/>
-    </row>
-    <row r="270" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F269" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -13674,9 +13808,11 @@
       </c>
       <c r="D270" s="8"/>
       <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-    </row>
-    <row r="271" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F270" s="8" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -13688,9 +13824,11 @@
       </c>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="8"/>
-    </row>
-    <row r="272" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F271" s="8" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -13701,10 +13839,12 @@
         <v>772</v>
       </c>
       <c r="D272" s="8"/>
-      <c r="E272" s="8"/>
+      <c r="E272" s="8" t="s">
+        <v>1049</v>
+      </c>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="273" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -13715,10 +13855,12 @@
         <v>773</v>
       </c>
       <c r="D273" s="8"/>
-      <c r="E273" s="8"/>
+      <c r="E273" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="274" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -13730,9 +13872,11 @@
       </c>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
-      <c r="F274" s="8"/>
-    </row>
-    <row r="275" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F274" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -13744,9 +13888,11 @@
       </c>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="8"/>
-    </row>
-    <row r="276" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F275" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -13758,9 +13904,11 @@
       </c>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="8"/>
-    </row>
-    <row r="277" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F276" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -13771,10 +13919,12 @@
         <v>777</v>
       </c>
       <c r="D277" s="8"/>
-      <c r="E277" s="8"/>
+      <c r="E277" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="278" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -13786,9 +13936,11 @@
       </c>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="8"/>
-    </row>
-    <row r="279" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F278" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -13800,9 +13952,11 @@
       </c>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="8"/>
-    </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F279" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -13814,9 +13968,11 @@
       </c>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="8"/>
-    </row>
-    <row r="281" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F280" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -13828,9 +13984,11 @@
       </c>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="8"/>
-    </row>
-    <row r="282" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F281" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -13842,9 +14000,11 @@
       </c>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="8"/>
-    </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F282" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -13855,10 +14015,12 @@
         <v>783</v>
       </c>
       <c r="D283" s="8"/>
-      <c r="E283" s="8"/>
+      <c r="E283" s="8" t="s">
+        <v>1051</v>
+      </c>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -13870,9 +14032,11 @@
       </c>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="8"/>
-    </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F284" s="8" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -13883,10 +14047,14 @@
         <v>785</v>
       </c>
       <c r="D285" s="8"/>
-      <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-    </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E285" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="F285" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -13898,9 +14066,11 @@
       </c>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="8"/>
-    </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F286" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -13911,10 +14081,14 @@
         <v>787</v>
       </c>
       <c r="D287" s="8"/>
-      <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-    </row>
-    <row r="288" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E287" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="F287" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -13925,10 +14099,12 @@
         <v>788</v>
       </c>
       <c r="D288" s="8"/>
-      <c r="E288" s="8"/>
+      <c r="E288" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="289" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -13939,10 +14115,12 @@
         <v>789</v>
       </c>
       <c r="D289" s="8"/>
-      <c r="E289" s="8"/>
+      <c r="E289" s="8" t="s">
+        <v>1053</v>
+      </c>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="290" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -13953,10 +14131,14 @@
         <v>790</v>
       </c>
       <c r="D290" s="8"/>
-      <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
-    </row>
-    <row r="291" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E290" s="8" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F290" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -13968,9 +14150,11 @@
       </c>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="8"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="F291" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -13981,10 +14165,14 @@
         <v>792</v>
       </c>
       <c r="D292" s="8"/>
-      <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-    </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E292" s="8" t="s">
+        <v>1055</v>
+      </c>
+      <c r="F292" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -13995,10 +14183,12 @@
         <v>793</v>
       </c>
       <c r="D293" s="8"/>
-      <c r="E293" s="8"/>
+      <c r="E293" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -14009,10 +14199,14 @@
         <v>794</v>
       </c>
       <c r="D294" s="8"/>
-      <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
-    </row>
-    <row r="295" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="E294" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F294" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -14024,9 +14218,11 @@
       </c>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="8"/>
-    </row>
-    <row r="296" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="F295" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -14037,10 +14233,12 @@
         <v>796</v>
       </c>
       <c r="D296" s="8"/>
-      <c r="E296" s="8"/>
+      <c r="E296" s="8" t="s">
+        <v>1053</v>
+      </c>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -14051,10 +14249,12 @@
         <v>797</v>
       </c>
       <c r="D297" s="8"/>
-      <c r="E297" s="8"/>
+      <c r="E297" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -14065,10 +14265,12 @@
         <v>798</v>
       </c>
       <c r="D298" s="8"/>
-      <c r="E298" s="8"/>
+      <c r="E298" s="8" t="s">
+        <v>1038</v>
+      </c>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -14079,10 +14281,14 @@
         <v>799</v>
       </c>
       <c r="D299" s="8"/>
-      <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-    </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E299" s="8" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F299" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -14096,7 +14302,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="301" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -14110,7 +14316,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="302" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -14124,7 +14330,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="303" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -14138,7 +14344,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="304" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -14152,7 +14358,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="305" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -14166,7 +14372,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="306" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -14180,7 +14386,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -14194,7 +14400,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -14208,7 +14414,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -14222,7 +14428,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -14236,7 +14442,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -14250,7 +14456,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="312" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -14264,7 +14470,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -14278,7 +14484,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -14292,7 +14498,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -14306,7 +14512,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="316" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -14320,7 +14526,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="317" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -14334,7 +14540,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -14348,7 +14554,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -14362,7 +14568,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -14376,7 +14582,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -14390,7 +14596,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -14404,7 +14610,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -14418,7 +14624,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -14432,7 +14638,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="325" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -14446,7 +14652,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="326" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -14460,7 +14666,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="327" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -14474,7 +14680,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="328" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -14488,7 +14694,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -14502,7 +14708,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -14516,7 +14722,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="331" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -14530,7 +14736,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -14544,7 +14750,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -14558,7 +14764,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="334" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -14572,7 +14778,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="335" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -14586,7 +14792,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="336" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -14600,7 +14806,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="337" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -14614,7 +14820,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="338" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -14628,7 +14834,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="339" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -14642,7 +14848,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="340" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -14656,7 +14862,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="341" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -14670,7 +14876,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -14684,7 +14890,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -14698,7 +14904,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -14712,7 +14918,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="345" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -14726,7 +14932,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="346" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -14740,7 +14946,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -14754,7 +14960,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -14768,7 +14974,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -14782,7 +14988,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="350" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -14796,7 +15002,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="351" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -14810,7 +15016,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="352" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -14824,7 +15030,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="353" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -14838,7 +15044,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -14852,7 +15058,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="355" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -14866,7 +15072,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="356" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -14880,7 +15086,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -14894,7 +15100,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -14908,7 +15114,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="359" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -14922,7 +15128,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="360" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -14936,7 +15142,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="361" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -14950,7 +15156,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="362" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -14964,7 +15170,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -14978,7 +15184,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -14992,7 +15198,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -15006,7 +15212,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -15020,7 +15226,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -15034,7 +15240,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -15048,7 +15254,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -15062,7 +15268,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -15076,7 +15282,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="371" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -15090,7 +15296,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -15104,7 +15310,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="373" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -15118,7 +15324,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -15132,7 +15338,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -15146,7 +15352,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="376" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -15160,7 +15366,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="377" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -15174,7 +15380,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="378" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -15188,7 +15394,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -15202,7 +15408,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -15216,7 +15422,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -15230,7 +15436,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -15244,7 +15450,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="383" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -15258,7 +15464,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="384" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -15272,7 +15478,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -15286,7 +15492,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -15300,7 +15506,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="387" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -15314,7 +15520,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="388" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -15328,7 +15534,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="389" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -15342,7 +15548,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="390" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -15356,7 +15562,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="391" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -15370,7 +15576,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -15384,7 +15590,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="393" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -15398,7 +15604,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="394" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -15412,7 +15618,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="395" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -15426,7 +15632,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="396" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -15440,7 +15646,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -15454,7 +15660,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -15468,7 +15674,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -15482,7 +15688,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="400" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -15496,7 +15702,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="401" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -15510,7 +15716,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -15524,7 +15730,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -15538,7 +15744,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="404" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -15552,7 +15758,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -15566,7 +15772,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -15580,7 +15786,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -15594,7 +15800,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="408" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -15608,7 +15814,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="409" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -15622,7 +15828,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -15636,7 +15842,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="411" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -15650,7 +15856,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="412" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -15664,7 +15870,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -15678,7 +15884,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="414" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -15692,7 +15898,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="415" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -15706,7 +15912,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="416" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -15720,7 +15926,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="417" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -15734,7 +15940,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="418" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -15748,7 +15954,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -15762,7 +15968,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -15776,7 +15982,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -15790,7 +15996,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="422" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -15804,7 +16010,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="423" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -15818,7 +16024,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -15832,7 +16038,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -15846,7 +16052,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -15860,7 +16066,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -15874,7 +16080,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -15888,7 +16094,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="429" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -15902,7 +16108,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="430" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -15916,7 +16122,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="431" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -15930,7 +16136,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -15944,7 +16150,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -15958,7 +16164,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="434" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -15972,7 +16178,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="435" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -15986,7 +16192,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -16000,7 +16206,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -16014,7 +16220,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -16028,7 +16234,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -16042,7 +16248,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="440" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -16056,7 +16262,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="441" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -16070,7 +16276,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="442" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -16084,7 +16290,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="443" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -16098,7 +16304,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="444" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -16112,7 +16318,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -16126,7 +16332,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -16140,7 +16346,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="447" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -16154,7 +16360,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="448" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -16168,7 +16374,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -16182,7 +16388,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -16196,7 +16402,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="451" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -16210,7 +16416,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="452" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -16224,7 +16430,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -16238,7 +16444,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -16252,7 +16458,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -16266,7 +16472,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="456" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -16280,7 +16486,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="457" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -16294,7 +16500,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="458" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -16308,7 +16514,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -16322,7 +16528,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="460" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -16336,7 +16542,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="461" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
@@ -16350,7 +16556,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="462" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
@@ -16364,7 +16570,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
@@ -16378,7 +16584,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
@@ -16392,7 +16598,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
@@ -16406,7 +16612,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
@@ -16420,7 +16626,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
@@ -16434,7 +16640,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
@@ -16448,7 +16654,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
@@ -16462,7 +16668,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="470" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
@@ -16476,7 +16682,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="471" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
@@ -16490,7 +16696,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
@@ -16504,7 +16710,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="473" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
@@ -16518,7 +16724,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
@@ -16532,7 +16738,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="475" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
@@ -16546,7 +16752,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="476" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
@@ -16560,7 +16766,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
@@ -16574,7 +16780,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
@@ -16588,7 +16794,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
@@ -16602,7 +16808,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
@@ -16616,7 +16822,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
@@ -16630,7 +16836,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="482" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
@@ -16644,7 +16850,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
@@ -16658,7 +16864,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="484" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
@@ -16672,7 +16878,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="485" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
@@ -16686,7 +16892,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
@@ -16700,7 +16906,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
@@ -16714,7 +16920,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
@@ -16728,7 +16934,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -16742,7 +16948,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
@@ -16756,7 +16962,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
@@ -16770,7 +16976,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
@@ -16784,7 +16990,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
@@ -16798,7 +17004,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
@@ -16812,7 +17018,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
@@ -16826,7 +17032,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="496" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
@@ -16840,7 +17046,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="497" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
@@ -16854,7 +17060,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="31" x14ac:dyDescent="0.35">
+    <row r="498" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
@@ -16868,7 +17074,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="499" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
@@ -16882,7 +17088,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="500" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
@@ -16896,7 +17102,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="501" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
@@ -16910,7 +17116,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="502" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
@@ -16924,7 +17130,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="503" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
@@ -16938,7 +17144,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
@@ -16952,7 +17158,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.35">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warn\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C47019-8365-45C2-95BA-CB1AC9F9FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ED6F0-D719-4D77-8683-AE430379BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1066">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9178,6 +9178,33 @@
   </si>
   <si>
     <t>komplex</t>
+  </si>
+  <si>
+    <t>Möglich</t>
+  </si>
+  <si>
+    <t>Visualisierung</t>
+  </si>
+  <si>
+    <t>Möglich - Jedoch nicht für Trigonometrie?</t>
+  </si>
+  <si>
+    <t>Finanzmathematik</t>
+  </si>
+  <si>
+    <t>Bezug zu anderen Zeilen</t>
+  </si>
+  <si>
+    <t>Möglich - Aber unnötig?</t>
+  </si>
+  <si>
+    <t>Möglich - Erweiterung zu obigen (Wdh)</t>
+  </si>
+  <si>
+    <t>Möglich - aber unnötig und zu komplex?</t>
+  </si>
+  <si>
+    <t>möglich - aber unnötig?</t>
   </si>
 </sst>
 </file>
@@ -9267,7 +9294,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9286,6 +9313,9 @@
       <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -9751,9 +9781,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251:F299"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H211" sqref="H211"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12847,8 +12877,10 @@
         <v>705</v>
       </c>
       <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
+      <c r="E205" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F205" s="9"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
@@ -12861,8 +12893,12 @@
         <v>706</v>
       </c>
       <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
+      <c r="E206" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="F206" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="207" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
@@ -12875,8 +12911,10 @@
         <v>707</v>
       </c>
       <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
+      <c r="E207" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F207" s="9"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
@@ -12889,8 +12927,10 @@
         <v>708</v>
       </c>
       <c r="D208" s="8"/>
-      <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
+      <c r="E208" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F208" s="9"/>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
@@ -12903,8 +12943,12 @@
         <v>709</v>
       </c>
       <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
+      <c r="E209" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F209" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
@@ -12917,8 +12961,12 @@
         <v>710</v>
       </c>
       <c r="D210" s="8"/>
-      <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
+      <c r="E210" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F210" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
@@ -12931,8 +12979,12 @@
         <v>711</v>
       </c>
       <c r="D211" s="8"/>
-      <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
+      <c r="E211" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F211" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
@@ -12945,8 +12997,12 @@
         <v>712</v>
       </c>
       <c r="D212" s="8"/>
-      <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
+      <c r="E212" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F212" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
@@ -12959,8 +13015,12 @@
         <v>713</v>
       </c>
       <c r="D213" s="8"/>
-      <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
+      <c r="E213" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F213" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
@@ -12973,8 +13033,10 @@
         <v>714</v>
       </c>
       <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
+      <c r="E214" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F214" s="9"/>
     </row>
     <row r="215" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
@@ -12987,8 +13049,10 @@
         <v>715</v>
       </c>
       <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
+      <c r="E215" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F215" s="9"/>
     </row>
     <row r="216" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
@@ -13001,8 +13065,12 @@
         <v>716</v>
       </c>
       <c r="D216" s="8"/>
-      <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
+      <c r="E216" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F216" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
@@ -13015,8 +13083,12 @@
         <v>717</v>
       </c>
       <c r="D217" s="8"/>
-      <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
+      <c r="E217" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F217" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="218" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
@@ -13029,8 +13101,12 @@
         <v>718</v>
       </c>
       <c r="D218" s="8"/>
-      <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
+      <c r="E218" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F218" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="219" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
@@ -13043,8 +13119,10 @@
         <v>719</v>
       </c>
       <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
+      <c r="E219" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F219" s="9"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
@@ -13057,8 +13135,10 @@
         <v>720</v>
       </c>
       <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
+      <c r="E220" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F220" s="9"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
@@ -13071,8 +13151,10 @@
         <v>721</v>
       </c>
       <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
+      <c r="E221" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F221" s="9"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
@@ -13085,8 +13167,10 @@
         <v>722</v>
       </c>
       <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
+      <c r="E222" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F222" s="9"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
@@ -13099,8 +13183,10 @@
         <v>723</v>
       </c>
       <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
+      <c r="E223" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F223" s="9"/>
     </row>
     <row r="224" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
@@ -13113,8 +13199,10 @@
         <v>724</v>
       </c>
       <c r="D224" s="8"/>
-      <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
+      <c r="E224" s="9"/>
+      <c r="F224" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="225" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
@@ -13127,8 +13215,8 @@
         <v>725</v>
       </c>
       <c r="D225" s="8"/>
-      <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
+      <c r="E225" s="9"/>
+      <c r="F225" s="9"/>
     </row>
     <row r="226" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
@@ -13141,8 +13229,10 @@
         <v>726</v>
       </c>
       <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
+      <c r="E226" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F226" s="9"/>
     </row>
     <row r="227" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
@@ -13155,8 +13245,12 @@
         <v>727</v>
       </c>
       <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
+      <c r="E227" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F227" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="228" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A228" s="6" t="s">
@@ -13169,8 +13263,10 @@
         <v>728</v>
       </c>
       <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
-      <c r="F228" s="8"/>
+      <c r="E228" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F228" s="9"/>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
@@ -13183,8 +13279,10 @@
         <v>729</v>
       </c>
       <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
+      <c r="E229" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F229" s="9"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
@@ -13197,8 +13295,10 @@
         <v>730</v>
       </c>
       <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
+      <c r="E230" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F230" s="9"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
@@ -13211,10 +13311,12 @@
         <v>731</v>
       </c>
       <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E231" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F231" s="9"/>
+    </row>
+    <row r="232" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -13225,8 +13327,10 @@
         <v>732</v>
       </c>
       <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
+      <c r="E232" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F232" s="9"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
@@ -13239,8 +13343,10 @@
         <v>733</v>
       </c>
       <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
+      <c r="E233" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F233" s="9"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
@@ -13253,8 +13359,12 @@
         <v>734</v>
       </c>
       <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
+      <c r="E234" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F234" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="235" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
@@ -13267,8 +13377,12 @@
         <v>735</v>
       </c>
       <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
+      <c r="E235" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F235" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="236" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
@@ -13281,8 +13395,12 @@
         <v>736</v>
       </c>
       <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
+      <c r="E236" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F236" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
@@ -13295,8 +13413,12 @@
         <v>737</v>
       </c>
       <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
+      <c r="E237" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F237" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
@@ -13309,8 +13431,12 @@
         <v>738</v>
       </c>
       <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
+      <c r="E238" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F238" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
@@ -13323,8 +13449,12 @@
         <v>739</v>
       </c>
       <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
+      <c r="E239" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F239" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="240" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
@@ -13337,8 +13467,12 @@
         <v>740</v>
       </c>
       <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
+      <c r="E240" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F240" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="241" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
@@ -13351,8 +13485,12 @@
         <v>741</v>
       </c>
       <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
+      <c r="E241" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F241" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="242" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
@@ -13365,8 +13503,10 @@
         <v>742</v>
       </c>
       <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
+      <c r="E242" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F242" s="9"/>
     </row>
     <row r="243" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
@@ -13379,8 +13519,10 @@
         <v>743</v>
       </c>
       <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
+      <c r="E243" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F243" s="9"/>
     </row>
     <row r="244" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
@@ -13393,8 +13535,10 @@
         <v>744</v>
       </c>
       <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
+      <c r="E244" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F244" s="9"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
@@ -13407,10 +13551,12 @@
         <v>745</v>
       </c>
       <c r="D245" s="8"/>
-      <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E245" s="9"/>
+      <c r="F245" s="9" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13421,8 +13567,10 @@
         <v>746</v>
       </c>
       <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
+      <c r="E246" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F246" s="9"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
@@ -13435,8 +13583,12 @@
         <v>747</v>
       </c>
       <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
+      <c r="E247" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="F247" s="9" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
@@ -13449,8 +13601,10 @@
         <v>748</v>
       </c>
       <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
+      <c r="E248" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="F248" s="9"/>
     </row>
     <row r="249" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
@@ -13463,8 +13617,10 @@
         <v>749</v>
       </c>
       <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
-      <c r="F249" s="8"/>
+      <c r="E249" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F249" s="9"/>
     </row>
     <row r="250" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A250" s="6" t="s">
@@ -13477,8 +13633,10 @@
         <v>750</v>
       </c>
       <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
-      <c r="F250" s="8"/>
+      <c r="E250" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="F250" s="9"/>
     </row>
     <row r="251" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warn\Documents\GitHub\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anselmch\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF9ED6F0-D719-4D77-8683-AE430379BC40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850E073-87BC-4D24-8D6A-08C33A200982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="720" yWindow="3210" windowWidth="21180" windowHeight="15345" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1066">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1073">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9205,6 +9205,27 @@
   </si>
   <si>
     <t>möglich - aber unnötig?</t>
+  </si>
+  <si>
+    <t>Datenbank?</t>
+  </si>
+  <si>
+    <t>Müsste gehen</t>
+  </si>
+  <si>
+    <t>Zu kompliziert</t>
+  </si>
+  <si>
+    <t>Könnte gehen</t>
+  </si>
+  <si>
+    <t>Gibt es schon</t>
+  </si>
+  <si>
+    <t>Komplexe Funktionen nicht möglich.</t>
+  </si>
+  <si>
+    <t>Zu kompliziert.</t>
   </si>
 </sst>
 </file>
@@ -9781,21 +9802,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A186" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H211" sqref="H211"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.75" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="100.59765625" customWidth="1"/>
-    <col min="4" max="5" width="26.09765625" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="100.625" customWidth="1"/>
+    <col min="4" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="17.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9815,7 +9836,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9836,7 +9857,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9852,7 +9873,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9868,7 +9889,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9884,7 +9905,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9900,7 +9921,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9916,7 +9937,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9932,7 +9953,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9948,7 +9969,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -9964,7 +9985,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -9980,7 +10001,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -9996,7 +10017,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -10012,7 +10033,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -10028,7 +10049,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -10044,7 +10065,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -10060,7 +10081,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -10076,7 +10097,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -10092,7 +10113,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -10108,7 +10129,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10124,7 +10145,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -10140,7 +10161,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -10156,7 +10177,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -10172,7 +10193,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -10188,7 +10209,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10204,7 +10225,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10220,7 +10241,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10238,7 +10259,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10254,7 +10275,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10270,7 +10291,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10286,7 +10307,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10302,7 +10323,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10318,7 +10339,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10334,7 +10355,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10350,7 +10371,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10366,7 +10387,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10382,7 +10403,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10398,7 +10419,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10414,7 +10435,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10430,7 +10451,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10446,7 +10467,7 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10462,7 +10483,7 @@
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10478,7 +10499,7 @@
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10494,7 +10515,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10510,7 +10531,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10526,7 +10547,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10542,7 +10563,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10558,7 +10579,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10574,7 +10595,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10590,7 +10611,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10606,7 +10627,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10622,7 +10643,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10638,7 +10659,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10654,7 +10675,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10670,7 +10691,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10686,7 +10707,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10702,7 +10723,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10718,7 +10739,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10734,7 +10755,7 @@
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10750,7 +10771,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10766,7 +10787,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10782,7 +10803,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10798,7 +10819,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10814,7 +10835,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10830,7 +10851,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10846,7 +10867,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10862,7 +10883,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10878,7 +10899,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10894,7 +10915,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10910,7 +10931,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10928,7 +10949,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10944,7 +10965,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -10960,7 +10981,7 @@
       </c>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -10976,7 +10997,7 @@
       </c>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -10992,7 +11013,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -11008,7 +11029,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -11024,7 +11045,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -11040,7 +11061,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -11056,7 +11077,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -11072,7 +11093,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -11088,7 +11109,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -11104,7 +11125,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -11120,7 +11141,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -11136,7 +11157,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -11152,7 +11173,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -11168,7 +11189,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -11184,7 +11205,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -11200,7 +11221,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -11216,7 +11237,7 @@
       </c>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -11232,7 +11253,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -11248,7 +11269,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -11264,7 +11285,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -11280,7 +11301,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -11296,7 +11317,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -11312,7 +11333,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -11328,7 +11349,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11344,7 +11365,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11360,7 +11381,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11376,7 +11397,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11392,7 +11413,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11408,7 +11429,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11424,7 +11445,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11435,10 +11456,14 @@
         <v>606</v>
       </c>
       <c r="D102" s="8"/>
-      <c r="E102" s="8"/>
-      <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E102" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F102" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11449,10 +11474,14 @@
         <v>607</v>
       </c>
       <c r="D103" s="8"/>
-      <c r="E103" s="8"/>
-      <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E103" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F103" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11463,10 +11492,12 @@
         <v>608</v>
       </c>
       <c r="D104" s="8"/>
-      <c r="E104" s="8"/>
+      <c r="E104" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11477,10 +11508,14 @@
         <v>609</v>
       </c>
       <c r="D105" s="8"/>
-      <c r="E105" s="8"/>
-      <c r="F105" s="8"/>
-    </row>
-    <row r="106" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E105" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F105" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11491,10 +11526,12 @@
         <v>610</v>
       </c>
       <c r="D106" s="8"/>
-      <c r="E106" s="8"/>
+      <c r="E106" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11505,10 +11542,12 @@
         <v>611</v>
       </c>
       <c r="D107" s="8"/>
-      <c r="E107" s="8"/>
+      <c r="E107" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11519,10 +11558,12 @@
         <v>612</v>
       </c>
       <c r="D108" s="8"/>
-      <c r="E108" s="8"/>
+      <c r="E108" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11533,10 +11574,14 @@
         <v>613</v>
       </c>
       <c r="D109" s="8"/>
-      <c r="E109" s="8"/>
-      <c r="F109" s="8"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E109" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F109" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11547,10 +11592,12 @@
         <v>614</v>
       </c>
       <c r="D110" s="8"/>
-      <c r="E110" s="8"/>
+      <c r="E110" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11561,10 +11608,12 @@
         <v>615</v>
       </c>
       <c r="D111" s="8"/>
-      <c r="E111" s="8"/>
+      <c r="E111" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11575,10 +11624,14 @@
         <v>616</v>
       </c>
       <c r="D112" s="8"/>
-      <c r="E112" s="8"/>
-      <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="E112" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F112" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11589,10 +11642,12 @@
         <v>617</v>
       </c>
       <c r="D113" s="8"/>
-      <c r="E113" s="8"/>
+      <c r="E113" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11603,10 +11658,12 @@
         <v>618</v>
       </c>
       <c r="D114" s="8"/>
-      <c r="E114" s="8"/>
+      <c r="E114" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11617,10 +11674,14 @@
         <v>619</v>
       </c>
       <c r="D115" s="8"/>
-      <c r="E115" s="8"/>
-      <c r="F115" s="8"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E115" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F115" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11631,10 +11692,14 @@
         <v>620</v>
       </c>
       <c r="D116" s="8"/>
-      <c r="E116" s="8"/>
-      <c r="F116" s="8"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E116" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F116" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11645,10 +11710,14 @@
         <v>621</v>
       </c>
       <c r="D117" s="8"/>
-      <c r="E117" s="8"/>
-      <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E117" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11659,10 +11728,14 @@
         <v>622</v>
       </c>
       <c r="D118" s="8"/>
-      <c r="E118" s="8"/>
-      <c r="F118" s="8"/>
-    </row>
-    <row r="119" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E118" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11673,10 +11746,14 @@
         <v>623</v>
       </c>
       <c r="D119" s="8"/>
-      <c r="E119" s="8"/>
-      <c r="F119" s="8"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E119" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11687,10 +11764,12 @@
         <v>624</v>
       </c>
       <c r="D120" s="8"/>
-      <c r="E120" s="8"/>
+      <c r="E120" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11701,10 +11780,14 @@
         <v>625</v>
       </c>
       <c r="D121" s="8"/>
-      <c r="E121" s="8"/>
-      <c r="F121" s="8"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E121" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F121" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11715,10 +11798,14 @@
         <v>626</v>
       </c>
       <c r="D122" s="8"/>
-      <c r="E122" s="8"/>
-      <c r="F122" s="8"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E122" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F122" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11729,10 +11816,14 @@
         <v>627</v>
       </c>
       <c r="D123" s="8"/>
-      <c r="E123" s="8"/>
-      <c r="F123" s="8"/>
-    </row>
-    <row r="124" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E123" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F123" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11743,10 +11834,14 @@
         <v>627</v>
       </c>
       <c r="D124" s="8"/>
-      <c r="E124" s="8"/>
-      <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E124" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11757,10 +11852,14 @@
         <v>628</v>
       </c>
       <c r="D125" s="8"/>
-      <c r="E125" s="8"/>
-      <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E125" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11771,10 +11870,14 @@
         <v>629</v>
       </c>
       <c r="D126" s="8"/>
-      <c r="E126" s="8"/>
-      <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E126" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11785,10 +11888,14 @@
         <v>629</v>
       </c>
       <c r="D127" s="8"/>
-      <c r="E127" s="8"/>
-      <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E127" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11799,10 +11906,12 @@
         <v>630</v>
       </c>
       <c r="D128" s="8"/>
-      <c r="E128" s="8"/>
+      <c r="E128" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11813,10 +11922,12 @@
         <v>631</v>
       </c>
       <c r="D129" s="8"/>
-      <c r="E129" s="8"/>
+      <c r="E129" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11827,10 +11938,14 @@
         <v>632</v>
       </c>
       <c r="D130" s="8"/>
-      <c r="E130" s="8"/>
-      <c r="F130" s="8"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E130" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11841,10 +11956,12 @@
         <v>633</v>
       </c>
       <c r="D131" s="8"/>
-      <c r="E131" s="8"/>
+      <c r="E131" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -11855,10 +11972,14 @@
         <v>634</v>
       </c>
       <c r="D132" s="8"/>
-      <c r="E132" s="8"/>
-      <c r="F132" s="8"/>
-    </row>
-    <row r="133" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E132" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -11869,10 +11990,14 @@
         <v>635</v>
       </c>
       <c r="D133" s="8"/>
-      <c r="E133" s="8"/>
-      <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E133" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -11883,10 +12008,14 @@
         <v>636</v>
       </c>
       <c r="D134" s="8"/>
-      <c r="E134" s="8"/>
-      <c r="F134" s="8"/>
-    </row>
-    <row r="135" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E134" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -11897,10 +12026,14 @@
         <v>637</v>
       </c>
       <c r="D135" s="8"/>
-      <c r="E135" s="8"/>
-      <c r="F135" s="8"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E135" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -11911,10 +12044,12 @@
         <v>638</v>
       </c>
       <c r="D136" s="8"/>
-      <c r="E136" s="8"/>
+      <c r="E136" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -11925,10 +12060,12 @@
         <v>639</v>
       </c>
       <c r="D137" s="8"/>
-      <c r="E137" s="8"/>
+      <c r="E137" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -11939,10 +12076,14 @@
         <v>640</v>
       </c>
       <c r="D138" s="8"/>
-      <c r="E138" s="8"/>
-      <c r="F138" s="8"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E138" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F138" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -11953,10 +12094,14 @@
         <v>641</v>
       </c>
       <c r="D139" s="8"/>
-      <c r="E139" s="8"/>
-      <c r="F139" s="8"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E139" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F139" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -11967,10 +12112,14 @@
         <v>642</v>
       </c>
       <c r="D140" s="8"/>
-      <c r="E140" s="8"/>
-      <c r="F140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E140" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F140" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -11981,10 +12130,12 @@
         <v>643</v>
       </c>
       <c r="D141" s="8"/>
-      <c r="E141" s="8"/>
+      <c r="E141" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -11995,10 +12146,14 @@
         <v>644</v>
       </c>
       <c r="D142" s="8"/>
-      <c r="E142" s="8"/>
-      <c r="F142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E142" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -12009,10 +12164,14 @@
         <v>645</v>
       </c>
       <c r="D143" s="8"/>
-      <c r="E143" s="8"/>
-      <c r="F143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E143" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -12023,10 +12182,14 @@
         <v>646</v>
       </c>
       <c r="D144" s="8"/>
-      <c r="E144" s="8"/>
-      <c r="F144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E144" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -12037,10 +12200,14 @@
         <v>647</v>
       </c>
       <c r="D145" s="8"/>
-      <c r="E145" s="8"/>
-      <c r="F145" s="8"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E145" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F145" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -12051,10 +12218,14 @@
         <v>648</v>
       </c>
       <c r="D146" s="8"/>
-      <c r="E146" s="8"/>
-      <c r="F146" s="8"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E146" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F146" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -12065,10 +12236,14 @@
         <v>649</v>
       </c>
       <c r="D147" s="8"/>
-      <c r="E147" s="8"/>
-      <c r="F147" s="8"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E147" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F147" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -12079,10 +12254,14 @@
         <v>649</v>
       </c>
       <c r="D148" s="8"/>
-      <c r="E148" s="8"/>
-      <c r="F148" s="8"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E148" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F148" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -12093,10 +12272,12 @@
         <v>650</v>
       </c>
       <c r="D149" s="8"/>
-      <c r="E149" s="8"/>
+      <c r="E149" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -12107,10 +12288,14 @@
         <v>651</v>
       </c>
       <c r="D150" s="8"/>
-      <c r="E150" s="8"/>
-      <c r="F150" s="8"/>
-    </row>
-    <row r="151" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E150" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F150" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -12121,10 +12306,14 @@
         <v>652</v>
       </c>
       <c r="D151" s="8"/>
-      <c r="E151" s="8"/>
-      <c r="F151" s="8"/>
-    </row>
-    <row r="152" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E151" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F151" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -12135,10 +12324,14 @@
         <v>652</v>
       </c>
       <c r="D152" s="8"/>
-      <c r="E152" s="8"/>
-      <c r="F152" s="8"/>
-    </row>
-    <row r="153" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E152" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F152" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -12149,10 +12342,14 @@
         <v>653</v>
       </c>
       <c r="D153" s="8"/>
-      <c r="E153" s="8"/>
-      <c r="F153" s="8"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E153" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F153" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -12163,10 +12360,14 @@
         <v>654</v>
       </c>
       <c r="D154" s="8"/>
-      <c r="E154" s="8"/>
-      <c r="F154" s="8"/>
-    </row>
-    <row r="155" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="E154" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F154" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -12177,10 +12378,14 @@
         <v>655</v>
       </c>
       <c r="D155" s="8"/>
-      <c r="E155" s="8"/>
-      <c r="F155" s="8"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E155" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F155" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -12191,10 +12396,14 @@
         <v>656</v>
       </c>
       <c r="D156" s="8"/>
-      <c r="E156" s="8"/>
-      <c r="F156" s="8"/>
-    </row>
-    <row r="157" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E156" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F156" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -12205,10 +12414,12 @@
         <v>657</v>
       </c>
       <c r="D157" s="8"/>
-      <c r="E157" s="8"/>
+      <c r="E157" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -12219,10 +12430,12 @@
         <v>658</v>
       </c>
       <c r="D158" s="8"/>
-      <c r="E158" s="8"/>
+      <c r="E158" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -12233,10 +12446,12 @@
         <v>659</v>
       </c>
       <c r="D159" s="8"/>
-      <c r="E159" s="8"/>
+      <c r="E159" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -12247,10 +12462,12 @@
         <v>660</v>
       </c>
       <c r="D160" s="8"/>
-      <c r="E160" s="8"/>
+      <c r="E160" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -12261,10 +12478,12 @@
         <v>661</v>
       </c>
       <c r="D161" s="8"/>
-      <c r="E161" s="8"/>
+      <c r="E161" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -12275,10 +12494,14 @@
         <v>662</v>
       </c>
       <c r="D162" s="8"/>
-      <c r="E162" s="8"/>
-      <c r="F162" s="8"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E162" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -12289,10 +12512,12 @@
         <v>663</v>
       </c>
       <c r="D163" s="8"/>
-      <c r="E163" s="8"/>
+      <c r="E163" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -12303,10 +12528,14 @@
         <v>664</v>
       </c>
       <c r="D164" s="8"/>
-      <c r="E164" s="8"/>
-      <c r="F164" s="8"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E164" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -12317,10 +12546,14 @@
         <v>665</v>
       </c>
       <c r="D165" s="8"/>
-      <c r="E165" s="8"/>
-      <c r="F165" s="8"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E165" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -12331,10 +12564,12 @@
         <v>666</v>
       </c>
       <c r="D166" s="8"/>
-      <c r="E166" s="8"/>
+      <c r="E166" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -12345,10 +12580,12 @@
         <v>667</v>
       </c>
       <c r="D167" s="8"/>
-      <c r="E167" s="8"/>
+      <c r="E167" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12359,10 +12596,12 @@
         <v>668</v>
       </c>
       <c r="D168" s="8"/>
-      <c r="E168" s="8"/>
+      <c r="E168" s="8" t="s">
+        <v>1069</v>
+      </c>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12373,10 +12612,12 @@
         <v>669</v>
       </c>
       <c r="D169" s="8"/>
-      <c r="E169" s="8"/>
+      <c r="E169" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12387,10 +12628,12 @@
         <v>670</v>
       </c>
       <c r="D170" s="8"/>
-      <c r="E170" s="8"/>
+      <c r="E170" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12401,10 +12644,12 @@
         <v>671</v>
       </c>
       <c r="D171" s="8"/>
-      <c r="E171" s="8"/>
+      <c r="E171" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12415,10 +12660,14 @@
         <v>672</v>
       </c>
       <c r="D172" s="8"/>
-      <c r="E172" s="8"/>
-      <c r="F172" s="8"/>
-    </row>
-    <row r="173" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="E172" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F172" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12429,10 +12678,14 @@
         <v>673</v>
       </c>
       <c r="D173" s="8"/>
-      <c r="E173" s="8"/>
-      <c r="F173" s="8"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E173" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F173" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12443,10 +12696,14 @@
         <v>674</v>
       </c>
       <c r="D174" s="8"/>
-      <c r="E174" s="8"/>
-      <c r="F174" s="8"/>
-    </row>
-    <row r="175" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E174" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F174" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12457,10 +12714,14 @@
         <v>675</v>
       </c>
       <c r="D175" s="8"/>
-      <c r="E175" s="8"/>
-      <c r="F175" s="8"/>
-    </row>
-    <row r="176" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E175" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F175" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12471,10 +12732,14 @@
         <v>676</v>
       </c>
       <c r="D176" s="8"/>
-      <c r="E176" s="8"/>
-      <c r="F176" s="8"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E176" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12485,10 +12750,14 @@
         <v>677</v>
       </c>
       <c r="D177" s="8"/>
-      <c r="E177" s="8"/>
-      <c r="F177" s="8"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E177" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12499,10 +12768,14 @@
         <v>678</v>
       </c>
       <c r="D178" s="8"/>
-      <c r="E178" s="8"/>
-      <c r="F178" s="8"/>
-    </row>
-    <row r="179" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E178" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12513,10 +12786,14 @@
         <v>679</v>
       </c>
       <c r="D179" s="8"/>
-      <c r="E179" s="8"/>
-      <c r="F179" s="8"/>
-    </row>
-    <row r="180" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E179" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12527,10 +12804,14 @@
         <v>680</v>
       </c>
       <c r="D180" s="8"/>
-      <c r="E180" s="8"/>
-      <c r="F180" s="8"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E180" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F180" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12541,10 +12822,14 @@
         <v>681</v>
       </c>
       <c r="D181" s="8"/>
-      <c r="E181" s="8"/>
-      <c r="F181" s="8"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E181" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F181" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12555,10 +12840,14 @@
         <v>682</v>
       </c>
       <c r="D182" s="8"/>
-      <c r="E182" s="8"/>
-      <c r="F182" s="8"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E182" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F182" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12569,10 +12858,14 @@
         <v>683</v>
       </c>
       <c r="D183" s="8"/>
-      <c r="E183" s="8"/>
-      <c r="F183" s="8"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E183" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F183" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12583,10 +12876,14 @@
         <v>684</v>
       </c>
       <c r="D184" s="8"/>
-      <c r="E184" s="8"/>
-      <c r="F184" s="8"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E184" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F184" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12597,10 +12894,14 @@
         <v>685</v>
       </c>
       <c r="D185" s="8"/>
-      <c r="E185" s="8"/>
-      <c r="F185" s="8"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E185" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F185" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12611,10 +12912,14 @@
         <v>686</v>
       </c>
       <c r="D186" s="8"/>
-      <c r="E186" s="8"/>
-      <c r="F186" s="8"/>
-    </row>
-    <row r="187" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E186" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F186" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12625,10 +12930,14 @@
         <v>687</v>
       </c>
       <c r="D187" s="8"/>
-      <c r="E187" s="8"/>
-      <c r="F187" s="8"/>
-    </row>
-    <row r="188" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E187" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F187" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12639,10 +12948,14 @@
         <v>688</v>
       </c>
       <c r="D188" s="8"/>
-      <c r="E188" s="8"/>
-      <c r="F188" s="8"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E188" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F188" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12653,10 +12966,14 @@
         <v>689</v>
       </c>
       <c r="D189" s="8"/>
-      <c r="E189" s="8"/>
-      <c r="F189" s="8"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E189" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F189" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -12667,10 +12984,14 @@
         <v>690</v>
       </c>
       <c r="D190" s="8"/>
-      <c r="E190" s="8"/>
-      <c r="F190" s="8"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E190" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F190" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -12681,10 +13002,14 @@
         <v>691</v>
       </c>
       <c r="D191" s="8"/>
-      <c r="E191" s="8"/>
-      <c r="F191" s="8"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E191" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F191" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -12695,10 +13020,14 @@
         <v>692</v>
       </c>
       <c r="D192" s="8"/>
-      <c r="E192" s="8"/>
-      <c r="F192" s="8"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E192" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F192" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -12709,10 +13038,14 @@
         <v>693</v>
       </c>
       <c r="D193" s="8"/>
-      <c r="E193" s="8"/>
-      <c r="F193" s="8"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E193" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F193" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -12723,10 +13056,14 @@
         <v>694</v>
       </c>
       <c r="D194" s="8"/>
-      <c r="E194" s="8"/>
-      <c r="F194" s="8"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E194" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -12737,10 +13074,14 @@
         <v>695</v>
       </c>
       <c r="D195" s="8"/>
-      <c r="E195" s="8"/>
-      <c r="F195" s="8"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E195" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -12751,10 +13092,14 @@
         <v>696</v>
       </c>
       <c r="D196" s="8"/>
-      <c r="E196" s="8"/>
-      <c r="F196" s="8"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E196" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -12765,10 +13110,14 @@
         <v>697</v>
       </c>
       <c r="D197" s="8"/>
-      <c r="E197" s="8"/>
-      <c r="F197" s="8"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E197" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -12779,10 +13128,14 @@
         <v>698</v>
       </c>
       <c r="D198" s="8"/>
-      <c r="E198" s="8"/>
-      <c r="F198" s="8"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E198" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -12793,10 +13146,14 @@
         <v>699</v>
       </c>
       <c r="D199" s="8"/>
-      <c r="E199" s="8"/>
-      <c r="F199" s="8"/>
-    </row>
-    <row r="200" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E199" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -12807,10 +13164,14 @@
         <v>700</v>
       </c>
       <c r="D200" s="8"/>
-      <c r="E200" s="8"/>
-      <c r="F200" s="8"/>
-    </row>
-    <row r="201" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E200" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -12821,10 +13182,14 @@
         <v>701</v>
       </c>
       <c r="D201" s="8"/>
-      <c r="E201" s="8"/>
-      <c r="F201" s="8"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E201" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -12835,10 +13200,14 @@
         <v>702</v>
       </c>
       <c r="D202" s="8"/>
-      <c r="E202" s="8"/>
-      <c r="F202" s="8"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E202" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -12849,10 +13218,14 @@
         <v>703</v>
       </c>
       <c r="D203" s="8"/>
-      <c r="E203" s="8"/>
-      <c r="F203" s="8"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E203" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -12863,10 +13236,14 @@
         <v>704</v>
       </c>
       <c r="D204" s="8"/>
-      <c r="E204" s="8"/>
-      <c r="F204" s="8"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="E204" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -12882,7 +13259,7 @@
       </c>
       <c r="F205" s="9"/>
     </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -12900,7 +13277,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -12916,7 +13293,7 @@
       </c>
       <c r="F207" s="9"/>
     </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -12932,7 +13309,7 @@
       </c>
       <c r="F208" s="9"/>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -12950,7 +13327,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -12968,7 +13345,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -12986,7 +13363,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -13004,7 +13381,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -13022,7 +13399,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -13038,7 +13415,7 @@
       </c>
       <c r="F214" s="9"/>
     </row>
-    <row r="215" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -13054,7 +13431,7 @@
       </c>
       <c r="F215" s="9"/>
     </row>
-    <row r="216" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -13072,7 +13449,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -13090,7 +13467,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -13108,7 +13485,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -13124,7 +13501,7 @@
       </c>
       <c r="F219" s="9"/>
     </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -13140,7 +13517,7 @@
       </c>
       <c r="F220" s="9"/>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -13156,7 +13533,7 @@
       </c>
       <c r="F221" s="9"/>
     </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -13172,7 +13549,7 @@
       </c>
       <c r="F222" s="9"/>
     </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -13188,7 +13565,7 @@
       </c>
       <c r="F223" s="9"/>
     </row>
-    <row r="224" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -13204,7 +13581,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -13218,7 +13595,7 @@
       <c r="E225" s="9"/>
       <c r="F225" s="9"/>
     </row>
-    <row r="226" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -13234,7 +13611,7 @@
       </c>
       <c r="F226" s="9"/>
     </row>
-    <row r="227" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -13252,7 +13629,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -13268,7 +13645,7 @@
       </c>
       <c r="F228" s="9"/>
     </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -13284,7 +13661,7 @@
       </c>
       <c r="F229" s="9"/>
     </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -13300,7 +13677,7 @@
       </c>
       <c r="F230" s="9"/>
     </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -13316,7 +13693,7 @@
       </c>
       <c r="F231" s="9"/>
     </row>
-    <row r="232" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -13332,7 +13709,7 @@
       </c>
       <c r="F232" s="9"/>
     </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -13348,7 +13725,7 @@
       </c>
       <c r="F233" s="9"/>
     </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -13366,7 +13743,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -13384,7 +13761,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -13402,7 +13779,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -13420,7 +13797,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -13438,7 +13815,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13456,7 +13833,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13474,7 +13851,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13492,7 +13869,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13508,7 +13885,7 @@
       </c>
       <c r="F242" s="9"/>
     </row>
-    <row r="243" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13524,7 +13901,7 @@
       </c>
       <c r="F243" s="9"/>
     </row>
-    <row r="244" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13540,7 +13917,7 @@
       </c>
       <c r="F244" s="9"/>
     </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13556,7 +13933,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13572,7 +13949,7 @@
       </c>
       <c r="F246" s="9"/>
     </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13590,7 +13967,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -13606,7 +13983,7 @@
       </c>
       <c r="F248" s="9"/>
     </row>
-    <row r="249" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -13622,7 +13999,7 @@
       </c>
       <c r="F249" s="9"/>
     </row>
-    <row r="250" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13638,7 +14015,7 @@
       </c>
       <c r="F250" s="9"/>
     </row>
-    <row r="251" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -13654,7 +14031,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -13672,7 +14049,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -13690,7 +14067,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -13706,7 +14083,7 @@
       </c>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13724,7 +14101,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -13740,7 +14117,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -13756,7 +14133,7 @@
       </c>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -13774,7 +14151,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -13790,7 +14167,7 @@
       </c>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13808,7 +14185,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -13826,7 +14203,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13842,7 +14219,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13858,7 +14235,7 @@
       </c>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13874,7 +14251,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13890,7 +14267,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13906,7 +14283,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -13922,7 +14299,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -13938,7 +14315,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13954,7 +14331,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -13970,7 +14347,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -13986,7 +14363,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -14002,7 +14379,7 @@
       </c>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -14018,7 +14395,7 @@
       </c>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -14034,7 +14411,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -14050,7 +14427,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -14066,7 +14443,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -14082,7 +14459,7 @@
       </c>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -14098,7 +14475,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -14114,7 +14491,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -14130,7 +14507,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -14146,7 +14523,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -14162,7 +14539,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -14178,7 +14555,7 @@
       </c>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -14194,7 +14571,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -14212,7 +14589,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -14228,7 +14605,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -14246,7 +14623,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -14262,7 +14639,7 @@
       </c>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -14278,7 +14655,7 @@
       </c>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -14296,7 +14673,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -14312,7 +14689,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -14330,7 +14707,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -14346,7 +14723,7 @@
       </c>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -14364,7 +14741,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -14380,7 +14757,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -14396,7 +14773,7 @@
       </c>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -14412,7 +14789,7 @@
       </c>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -14428,7 +14805,7 @@
       </c>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -14446,7 +14823,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -14460,7 +14837,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -14474,7 +14851,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -14488,7 +14865,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -14502,7 +14879,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -14516,7 +14893,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -14530,7 +14907,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -14544,7 +14921,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -14558,7 +14935,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -14572,7 +14949,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -14586,7 +14963,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -14600,7 +14977,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -14614,7 +14991,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -14628,7 +15005,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -14642,7 +15019,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -14656,7 +15033,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -14670,7 +15047,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -14684,7 +15061,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -14698,7 +15075,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -14712,7 +15089,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -14726,7 +15103,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -14740,7 +15117,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -14754,7 +15131,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -14768,7 +15145,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -14782,7 +15159,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -14796,7 +15173,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -14810,7 +15187,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -14824,7 +15201,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -14838,7 +15215,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -14852,7 +15229,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -14866,7 +15243,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -14880,7 +15257,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -14894,7 +15271,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -14908,7 +15285,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -14922,7 +15299,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -14936,7 +15313,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -14950,7 +15327,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -14964,7 +15341,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -14978,7 +15355,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -14992,7 +15369,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -15006,7 +15383,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -15020,7 +15397,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -15034,7 +15411,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -15048,7 +15425,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -15062,7 +15439,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -15076,7 +15453,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -15090,7 +15467,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -15104,7 +15481,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -15118,7 +15495,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -15132,7 +15509,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -15146,7 +15523,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -15160,7 +15537,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -15174,7 +15551,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -15188,7 +15565,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -15202,7 +15579,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -15216,7 +15593,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -15230,7 +15607,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -15244,7 +15621,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -15258,7 +15635,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -15272,7 +15649,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -15286,7 +15663,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -15300,7 +15677,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -15314,7 +15691,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -15328,7 +15705,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -15342,7 +15719,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -15356,7 +15733,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -15370,7 +15747,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -15384,7 +15761,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -15398,7 +15775,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -15412,7 +15789,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -15426,7 +15803,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -15440,7 +15817,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -15454,7 +15831,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -15468,7 +15845,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -15482,7 +15859,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -15496,7 +15873,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -15510,7 +15887,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -15524,7 +15901,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -15538,7 +15915,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -15552,7 +15929,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -15566,7 +15943,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -15580,7 +15957,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -15594,7 +15971,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -15608,7 +15985,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -15622,7 +15999,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -15636,7 +16013,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -15650,7 +16027,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -15664,7 +16041,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -15678,7 +16055,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -15692,7 +16069,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -15706,7 +16083,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -15720,7 +16097,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -15734,7 +16111,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -15748,7 +16125,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -15762,7 +16139,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -15776,7 +16153,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -15790,7 +16167,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -15804,7 +16181,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -15818,7 +16195,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -15832,7 +16209,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -15846,7 +16223,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -15860,7 +16237,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -15874,7 +16251,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -15888,7 +16265,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -15902,7 +16279,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -15916,7 +16293,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -15930,7 +16307,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -15944,7 +16321,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -15958,7 +16335,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -15972,7 +16349,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -15986,7 +16363,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -16000,7 +16377,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -16014,7 +16391,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -16028,7 +16405,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -16042,7 +16419,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -16056,7 +16433,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -16070,7 +16447,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -16084,7 +16461,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -16098,7 +16475,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -16112,7 +16489,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -16126,7 +16503,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -16140,7 +16517,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -16154,7 +16531,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -16168,7 +16545,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -16182,7 +16559,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -16196,7 +16573,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -16210,7 +16587,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -16224,7 +16601,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -16238,7 +16615,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -16252,7 +16629,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -16266,7 +16643,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -16280,7 +16657,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -16294,7 +16671,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -16308,7 +16685,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -16322,7 +16699,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -16336,7 +16713,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -16350,7 +16727,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -16364,7 +16741,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -16378,7 +16755,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -16392,7 +16769,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -16406,7 +16783,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -16420,7 +16797,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -16434,7 +16811,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -16448,7 +16825,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -16462,7 +16839,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -16476,7 +16853,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -16490,7 +16867,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -16504,7 +16881,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -16518,7 +16895,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -16532,7 +16909,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -16546,7 +16923,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -16560,7 +16937,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -16574,7 +16951,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -16588,7 +16965,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -16602,7 +16979,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -16616,7 +16993,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -16630,7 +17007,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -16644,7 +17021,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -16658,7 +17035,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -16672,7 +17049,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -16686,7 +17063,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -16700,7 +17077,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
@@ -16714,7 +17091,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
@@ -16728,7 +17105,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
@@ -16742,7 +17119,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
@@ -16756,7 +17133,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
@@ -16770,7 +17147,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
@@ -16784,7 +17161,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
@@ -16798,7 +17175,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
@@ -16812,7 +17189,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
@@ -16826,7 +17203,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
@@ -16840,7 +17217,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
@@ -16854,7 +17231,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
@@ -16868,7 +17245,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
@@ -16882,7 +17259,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
@@ -16896,7 +17273,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
@@ -16910,7 +17287,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
@@ -16924,7 +17301,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
@@ -16938,7 +17315,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
@@ -16952,7 +17329,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
@@ -16966,7 +17343,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
@@ -16980,7 +17357,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
@@ -16994,7 +17371,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
@@ -17008,7 +17385,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
@@ -17022,7 +17399,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
@@ -17036,7 +17413,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
@@ -17050,7 +17427,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
@@ -17064,7 +17441,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
@@ -17078,7 +17455,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
@@ -17092,7 +17469,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -17106,7 +17483,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
@@ -17120,7 +17497,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
@@ -17134,7 +17511,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
@@ -17148,7 +17525,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
@@ -17162,7 +17539,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
@@ -17176,7 +17553,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
@@ -17190,7 +17567,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
@@ -17204,7 +17581,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
@@ -17218,7 +17595,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
@@ -17232,7 +17609,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
@@ -17246,7 +17623,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
@@ -17260,7 +17637,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
@@ -17274,7 +17651,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
@@ -17288,7 +17665,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
@@ -17302,7 +17679,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
@@ -17316,7 +17693,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anselmch\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3850E073-87BC-4D24-8D6A-08C33A200982}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2F527-1192-42D5-9FB6-2A00BC273F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="720" yWindow="3210" windowWidth="21180" windowHeight="15345" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1925" uniqueCount="1073">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1076">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9227,12 +9227,21 @@
   <si>
     <t>Zu kompliziert.</t>
   </si>
+  <si>
+    <t>exp(x)</t>
+  </si>
+  <si>
+    <t>fact(n)</t>
+  </si>
+  <si>
+    <t>gcd(a; b)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9293,6 +9302,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9315,7 +9330,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9340,6 +9355,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9802,9 +9820,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A106" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F117" sqref="F117"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E161" sqref="E161"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -11763,8 +11781,10 @@
       <c r="C120" s="7" t="s">
         <v>624</v>
       </c>
-      <c r="D120" s="8"/>
-      <c r="E120" s="8" t="s">
+      <c r="D120" t="s">
+        <v>1073</v>
+      </c>
+      <c r="E120" s="10" t="s">
         <v>1070</v>
       </c>
       <c r="F120" s="8"/>
@@ -11905,8 +11925,10 @@
       <c r="C128" s="7" t="s">
         <v>630</v>
       </c>
-      <c r="D128" s="8"/>
-      <c r="E128" s="8" t="s">
+      <c r="D128" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E128" s="10" t="s">
         <v>1070</v>
       </c>
       <c r="F128" s="8"/>
@@ -12477,8 +12499,10 @@
       <c r="C161" s="7" t="s">
         <v>661</v>
       </c>
-      <c r="D161" s="8"/>
-      <c r="E161" s="8" t="s">
+      <c r="D161" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E161" s="10" t="s">
         <v>1070</v>
       </c>
       <c r="F161" s="8"/>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\anselmch\Documents\GitHub\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warn\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B2F527-1192-42D5-9FB6-2A00BC273F1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A2BDDAB-7B70-42B9-964C-344D5B3BB64E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1928" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1922" uniqueCount="1080">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9236,12 +9236,24 @@
   <si>
     <t>gcd(a; b)</t>
   </si>
+  <si>
+    <t>ln(x)</t>
+  </si>
+  <si>
+    <t>log(x; base)</t>
+  </si>
+  <si>
+    <t>Unnötig</t>
+  </si>
+  <si>
+    <t>lcm(a; b)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9308,6 +9320,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9330,7 +9348,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9354,11 +9372,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9820,21 +9842,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A115" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E161" sqref="E161"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A210" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="44.75" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="100.625" customWidth="1"/>
-    <col min="4" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="17.75" customWidth="1"/>
+    <col min="1" max="1" width="44.69921875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="7.19921875" customWidth="1"/>
+    <col min="3" max="3" width="100.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" customWidth="1"/>
+    <col min="5" max="5" width="26.09765625" customWidth="1"/>
+    <col min="6" max="6" width="17.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9854,7 +9877,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9875,7 +9898,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9891,7 +9914,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9907,7 +9930,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9923,7 +9946,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9939,7 +9962,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9955,7 +9978,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9971,7 +9994,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9987,7 +10010,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -10003,7 +10026,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -10019,7 +10042,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -10035,7 +10058,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -10051,7 +10074,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -10067,7 +10090,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -10083,7 +10106,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -10099,7 +10122,7 @@
       </c>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -10115,7 +10138,7 @@
       </c>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -10131,7 +10154,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -10147,7 +10170,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10163,7 +10186,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -10179,7 +10202,7 @@
       </c>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -10195,7 +10218,7 @@
       </c>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -10211,7 +10234,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -10227,7 +10250,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10243,7 +10266,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10259,7 +10282,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10277,7 +10300,7 @@
       </c>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10293,7 +10316,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10309,7 +10332,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10325,7 +10348,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10341,7 +10364,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10357,7 +10380,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10373,7 +10396,7 @@
       </c>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10389,7 +10412,7 @@
       </c>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10405,7 +10428,7 @@
       </c>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10421,7 +10444,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10437,7 +10460,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10453,7 +10476,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10469,7 +10492,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10485,7 +10508,7 @@
       </c>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10501,7 +10524,7 @@
       </c>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10517,7 +10540,7 @@
       </c>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10533,7 +10556,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10549,7 +10572,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10565,7 +10588,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10581,7 +10604,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10597,7 +10620,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10613,7 +10636,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10629,7 +10652,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10645,7 +10668,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10661,7 +10684,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10677,7 +10700,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10693,7 +10716,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10709,7 +10732,7 @@
       </c>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10725,7 +10748,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10741,7 +10764,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10757,7 +10780,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10773,7 +10796,7 @@
       </c>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10789,7 +10812,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10805,7 +10828,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10821,7 +10844,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10837,7 +10860,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10853,7 +10876,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10869,7 +10892,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10885,7 +10908,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10901,7 +10924,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10917,7 +10940,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10933,7 +10956,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10949,7 +10972,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10967,7 +10990,7 @@
       </c>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10983,7 +11006,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -10999,7 +11022,7 @@
       </c>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -11015,7 +11038,7 @@
       </c>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -11031,7 +11054,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -11047,7 +11070,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -11063,7 +11086,7 @@
       </c>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -11079,7 +11102,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -11095,7 +11118,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -11111,7 +11134,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -11127,7 +11150,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -11143,7 +11166,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -11159,7 +11182,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -11175,7 +11198,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -11191,7 +11214,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -11207,7 +11230,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -11223,7 +11246,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -11239,7 +11262,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -11255,7 +11278,7 @@
       </c>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -11271,7 +11294,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -11287,7 +11310,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -11303,7 +11326,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -11319,7 +11342,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -11335,7 +11358,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -11351,7 +11374,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -11367,7 +11390,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11383,7 +11406,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11399,7 +11422,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11415,7 +11438,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11431,7 +11454,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11447,7 +11470,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11463,7 +11486,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11481,7 +11504,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="103" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11499,7 +11522,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="104" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11515,7 +11538,7 @@
       </c>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11533,7 +11556,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11549,7 +11572,7 @@
       </c>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11565,7 +11588,7 @@
       </c>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11581,7 +11604,7 @@
       </c>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11599,7 +11622,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11615,7 +11638,7 @@
       </c>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11631,7 +11654,7 @@
       </c>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11649,7 +11672,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11665,7 +11688,7 @@
       </c>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11681,7 +11704,7 @@
       </c>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11699,7 +11722,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11717,7 +11740,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11735,7 +11758,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="118" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11753,7 +11776,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="119" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11771,7 +11794,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11784,12 +11807,12 @@
       <c r="D120" t="s">
         <v>1073</v>
       </c>
-      <c r="E120" s="10" t="s">
+      <c r="E120" s="9" t="s">
         <v>1070</v>
       </c>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11807,7 +11830,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11825,7 +11848,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11843,7 +11866,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="124" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11861,7 +11884,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="125" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11879,7 +11902,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="126" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11897,7 +11920,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="127" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11915,7 +11938,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11928,12 +11951,12 @@
       <c r="D128" t="s">
         <v>1074</v>
       </c>
-      <c r="E128" s="10" t="s">
+      <c r="E128" s="9" t="s">
         <v>1070</v>
       </c>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11949,7 +11972,7 @@
       </c>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11967,7 +11990,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11983,7 +12006,7 @@
       </c>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -12001,7 +12024,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="133" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -12019,7 +12042,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="134" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -12037,7 +12060,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="135" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -12055,7 +12078,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -12071,7 +12094,7 @@
       </c>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -12087,7 +12110,7 @@
       </c>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -12105,7 +12128,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -12123,7 +12146,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -12141,7 +12164,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -12157,7 +12180,7 @@
       </c>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -12175,7 +12198,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -12193,7 +12216,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -12211,7 +12234,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -12229,7 +12252,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -12247,7 +12270,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -12265,7 +12288,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -12283,7 +12306,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -12299,7 +12322,7 @@
       </c>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -12317,7 +12340,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="151" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -12335,7 +12358,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="152" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -12353,7 +12376,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="153" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -12371,7 +12394,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -12389,7 +12412,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="155" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -12407,7 +12430,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -12425,7 +12448,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="157" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -12441,7 +12464,7 @@
       </c>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -12457,7 +12480,7 @@
       </c>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -12473,7 +12496,7 @@
       </c>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -12489,7 +12512,7 @@
       </c>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -12502,12 +12525,12 @@
       <c r="D161" t="s">
         <v>1075</v>
       </c>
-      <c r="E161" s="10" t="s">
+      <c r="E161" s="9" t="s">
         <v>1070</v>
       </c>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -12525,7 +12548,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -12541,7 +12564,7 @@
       </c>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -12559,7 +12582,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -12577,7 +12600,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -12593,7 +12616,7 @@
       </c>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -12609,7 +12632,7 @@
       </c>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12625,7 +12648,7 @@
       </c>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12641,7 +12664,7 @@
       </c>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12657,7 +12680,7 @@
       </c>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12673,7 +12696,7 @@
       </c>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12691,7 +12714,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="173" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12709,7 +12732,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12727,7 +12750,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="175" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12745,7 +12768,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="176" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12763,7 +12786,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12781,7 +12804,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="178" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12799,7 +12822,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="179" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12817,7 +12840,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="180" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12835,7 +12858,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="181" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12853,7 +12876,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="182" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12871,7 +12894,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="183" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12889,7 +12912,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="184" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12907,7 +12930,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="185" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12925,7 +12948,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="186" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12943,7 +12966,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="187" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12961,7 +12984,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="188" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12979,7 +13002,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="189" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12997,7 +13020,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="190" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -13015,7 +13038,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="191" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -13033,7 +13056,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="192" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -13051,7 +13074,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="193" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -13069,7 +13092,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="194" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -13087,7 +13110,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="195" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -13105,7 +13128,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="196" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -13123,7 +13146,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="197" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -13141,7 +13164,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="198" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -13159,7 +13182,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="199" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -13177,7 +13200,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="200" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -13195,7 +13218,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="201" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -13213,7 +13236,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="202" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -13231,7 +13254,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -13249,7 +13272,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -13267,7 +13290,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -13278,12 +13301,12 @@
         <v>705</v>
       </c>
       <c r="D205" s="8"/>
-      <c r="E205" s="9" t="s">
+      <c r="E205" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F205" s="9"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F205" s="8"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -13294,14 +13317,14 @@
         <v>706</v>
       </c>
       <c r="D206" s="8"/>
-      <c r="E206" s="9" t="s">
+      <c r="E206" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="F206" s="9" t="s">
+      <c r="F206" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -13312,12 +13335,12 @@
         <v>707</v>
       </c>
       <c r="D207" s="8"/>
-      <c r="E207" s="9" t="s">
+      <c r="E207" s="8" t="s">
         <v>1059</v>
       </c>
-      <c r="F207" s="9"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F207" s="8"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -13328,12 +13351,12 @@
         <v>708</v>
       </c>
       <c r="D208" s="8"/>
-      <c r="E208" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F208" s="9"/>
-    </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E208" s="8"/>
+      <c r="F208" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -13344,14 +13367,14 @@
         <v>709</v>
       </c>
       <c r="D209" s="8"/>
-      <c r="E209" s="9" t="s">
+      <c r="E209" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F209" s="9" t="s">
+      <c r="F209" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -13362,14 +13385,12 @@
         <v>710</v>
       </c>
       <c r="D210" s="8"/>
-      <c r="E210" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F210" s="9" t="s">
+      <c r="E210" s="8"/>
+      <c r="F210" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -13380,14 +13401,12 @@
         <v>711</v>
       </c>
       <c r="D211" s="8"/>
-      <c r="E211" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F211" s="9" t="s">
+      <c r="E211" s="8"/>
+      <c r="F211" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -13398,14 +13417,12 @@
         <v>712</v>
       </c>
       <c r="D212" s="8"/>
-      <c r="E212" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F212" s="9" t="s">
+      <c r="E212" s="8"/>
+      <c r="F212" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -13416,14 +13433,12 @@
         <v>713</v>
       </c>
       <c r="D213" s="8"/>
-      <c r="E213" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F213" s="9" t="s">
+      <c r="E213" s="8"/>
+      <c r="F213" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -13434,12 +13449,12 @@
         <v>714</v>
       </c>
       <c r="D214" s="8"/>
-      <c r="E214" s="9" t="s">
+      <c r="E214" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F214" s="9"/>
-    </row>
-    <row r="215" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F214" s="8"/>
+    </row>
+    <row r="215" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -13450,12 +13465,12 @@
         <v>715</v>
       </c>
       <c r="D215" s="8"/>
-      <c r="E215" s="9" t="s">
+      <c r="E215" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F215" s="9"/>
-    </row>
-    <row r="216" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F215" s="8"/>
+    </row>
+    <row r="216" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -13466,14 +13481,12 @@
         <v>716</v>
       </c>
       <c r="D216" s="8"/>
-      <c r="E216" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F216" s="9" t="s">
+      <c r="E216" s="8"/>
+      <c r="F216" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -13484,14 +13497,12 @@
         <v>717</v>
       </c>
       <c r="D217" s="8"/>
-      <c r="E217" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F217" s="9" t="s">
+      <c r="E217" s="8"/>
+      <c r="F217" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -13502,14 +13513,12 @@
         <v>718</v>
       </c>
       <c r="D218" s="8"/>
-      <c r="E218" s="9" t="s">
-        <v>1061</v>
-      </c>
-      <c r="F218" s="9" t="s">
+      <c r="E218" s="8"/>
+      <c r="F218" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -13520,12 +13529,12 @@
         <v>719</v>
       </c>
       <c r="D219" s="8"/>
-      <c r="E219" s="9" t="s">
+      <c r="E219" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F219" s="9"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F219" s="8"/>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -13536,12 +13545,12 @@
         <v>720</v>
       </c>
       <c r="D220" s="8"/>
-      <c r="E220" s="9" t="s">
+      <c r="E220" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F220" s="9"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F220" s="8"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -13552,12 +13561,12 @@
         <v>721</v>
       </c>
       <c r="D221" s="8"/>
-      <c r="E221" s="9" t="s">
+      <c r="E221" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F221" s="9"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F221" s="8"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -13568,12 +13577,12 @@
         <v>722</v>
       </c>
       <c r="D222" s="8"/>
-      <c r="E222" s="9" t="s">
+      <c r="E222" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="F222" s="9"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F222" s="8"/>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -13584,12 +13593,12 @@
         <v>723</v>
       </c>
       <c r="D223" s="8"/>
-      <c r="E223" s="9" t="s">
+      <c r="E223" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="F223" s="9"/>
-    </row>
-    <row r="224" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F223" s="8"/>
+    </row>
+    <row r="224" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -13600,12 +13609,12 @@
         <v>724</v>
       </c>
       <c r="D224" s="8"/>
-      <c r="E224" s="9"/>
-      <c r="F224" s="9" t="s">
+      <c r="E224" s="8"/>
+      <c r="F224" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -13616,10 +13625,12 @@
         <v>725</v>
       </c>
       <c r="D225" s="8"/>
-      <c r="E225" s="9"/>
-      <c r="F225" s="9"/>
-    </row>
-    <row r="226" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E225" s="8"/>
+      <c r="F225" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -13630,12 +13641,12 @@
         <v>726</v>
       </c>
       <c r="D226" s="8"/>
-      <c r="E226" s="9" t="s">
+      <c r="E226" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="F226" s="9"/>
-    </row>
-    <row r="227" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F226" s="8"/>
+    </row>
+    <row r="227" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -13646,14 +13657,14 @@
         <v>727</v>
       </c>
       <c r="D227" s="8"/>
-      <c r="E227" s="9" t="s">
+      <c r="E227" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="F227" s="9" t="s">
+      <c r="F227" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -13663,13 +13674,13 @@
       <c r="C228" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="D228" s="8"/>
-      <c r="E228" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F228" s="9"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D228" s="10" t="s">
+        <v>1079</v>
+      </c>
+      <c r="E228" s="8"/>
+      <c r="F228" s="8"/>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -13680,12 +13691,12 @@
         <v>729</v>
       </c>
       <c r="D229" s="8"/>
-      <c r="E229" s="9" t="s">
+      <c r="E229" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F229" s="9"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F229" s="8"/>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -13696,12 +13707,12 @@
         <v>730</v>
       </c>
       <c r="D230" s="8"/>
-      <c r="E230" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F230" s="9"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E230" s="8" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F230" s="8"/>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -13712,12 +13723,12 @@
         <v>731</v>
       </c>
       <c r="D231" s="8"/>
-      <c r="E231" s="9" t="s">
+      <c r="E231" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F231" s="9"/>
-    </row>
-    <row r="232" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F231" s="8"/>
+    </row>
+    <row r="232" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -13728,12 +13739,12 @@
         <v>732</v>
       </c>
       <c r="D232" s="8"/>
-      <c r="E232" s="9" t="s">
+      <c r="E232" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F232" s="9"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F232" s="8"/>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -13744,12 +13755,12 @@
         <v>733</v>
       </c>
       <c r="D233" s="8"/>
-      <c r="E233" s="9" t="s">
+      <c r="E233" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F233" s="9"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F233" s="8"/>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -13760,14 +13771,14 @@
         <v>734</v>
       </c>
       <c r="D234" s="8"/>
-      <c r="E234" s="9" t="s">
+      <c r="E234" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="F234" s="9" t="s">
+      <c r="F234" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -13778,14 +13789,14 @@
         <v>735</v>
       </c>
       <c r="D235" s="8"/>
-      <c r="E235" s="9" t="s">
+      <c r="E235" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="F235" s="9" t="s">
+      <c r="F235" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -13796,14 +13807,14 @@
         <v>736</v>
       </c>
       <c r="D236" s="8"/>
-      <c r="E236" s="9" t="s">
+      <c r="E236" s="8" t="s">
         <v>1061</v>
       </c>
-      <c r="F236" s="9" t="s">
+      <c r="F236" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -13814,14 +13825,14 @@
         <v>737</v>
       </c>
       <c r="D237" s="8"/>
-      <c r="E237" s="9" t="s">
+      <c r="E237" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F237" s="9" t="s">
+      <c r="F237" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -13832,14 +13843,14 @@
         <v>738</v>
       </c>
       <c r="D238" s="8"/>
-      <c r="E238" s="9" t="s">
+      <c r="E238" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F238" s="9" t="s">
+      <c r="F238" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13850,14 +13861,14 @@
         <v>739</v>
       </c>
       <c r="D239" s="8"/>
-      <c r="E239" s="9" t="s">
+      <c r="E239" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F239" s="9" t="s">
+      <c r="F239" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13868,14 +13879,14 @@
         <v>740</v>
       </c>
       <c r="D240" s="8"/>
-      <c r="E240" s="9" t="s">
+      <c r="E240" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F240" s="9" t="s">
+      <c r="F240" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13886,14 +13897,14 @@
         <v>741</v>
       </c>
       <c r="D241" s="8"/>
-      <c r="E241" s="9" t="s">
+      <c r="E241" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F241" s="9" t="s">
+      <c r="F241" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13904,12 +13915,12 @@
         <v>742</v>
       </c>
       <c r="D242" s="8"/>
-      <c r="E242" s="9" t="s">
+      <c r="E242" s="8" t="s">
         <v>1062</v>
       </c>
-      <c r="F242" s="9"/>
-    </row>
-    <row r="243" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F242" s="8"/>
+    </row>
+    <row r="243" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13920,12 +13931,12 @@
         <v>743</v>
       </c>
       <c r="D243" s="8"/>
-      <c r="E243" s="9" t="s">
+      <c r="E243" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F243" s="9"/>
-    </row>
-    <row r="244" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F243" s="8"/>
+    </row>
+    <row r="244" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13936,12 +13947,12 @@
         <v>744</v>
       </c>
       <c r="D244" s="8"/>
-      <c r="E244" s="9" t="s">
+      <c r="E244" s="8" t="s">
         <v>1057</v>
       </c>
-      <c r="F244" s="9"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F244" s="8"/>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13951,13 +13962,13 @@
       <c r="C245" s="7" t="s">
         <v>745</v>
       </c>
-      <c r="D245" s="8"/>
-      <c r="E245" s="9"/>
-      <c r="F245" s="9" t="s">
+      <c r="D245" s="11"/>
+      <c r="E245" s="8"/>
+      <c r="F245" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13968,12 +13979,12 @@
         <v>746</v>
       </c>
       <c r="D246" s="8"/>
-      <c r="E246" s="9" t="s">
+      <c r="E246" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="F246" s="9"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F246" s="8"/>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13984,14 +13995,14 @@
         <v>747</v>
       </c>
       <c r="D247" s="8"/>
-      <c r="E247" s="9" t="s">
+      <c r="E247" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F247" s="9" t="s">
+      <c r="F247" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -14002,12 +14013,12 @@
         <v>748</v>
       </c>
       <c r="D248" s="8"/>
-      <c r="E248" s="9" t="s">
+      <c r="E248" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="F248" s="9"/>
-    </row>
-    <row r="249" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F248" s="8"/>
+    </row>
+    <row r="249" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -14017,13 +14028,13 @@
       <c r="C249" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="D249" s="8"/>
-      <c r="E249" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F249" s="9"/>
-    </row>
-    <row r="250" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D249" s="12" t="s">
+        <v>1076</v>
+      </c>
+      <c r="E249" s="8"/>
+      <c r="F249" s="8"/>
+    </row>
+    <row r="250" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -14033,13 +14044,13 @@
       <c r="C250" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="D250" s="8"/>
-      <c r="E250" s="9" t="s">
-        <v>1057</v>
-      </c>
-      <c r="F250" s="9"/>
-    </row>
-    <row r="251" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D250" s="10" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E250" s="8"/>
+      <c r="F250" s="8"/>
+    </row>
+    <row r="251" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -14055,7 +14066,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -14073,7 +14084,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -14091,7 +14102,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -14107,7 +14118,7 @@
       </c>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -14125,7 +14136,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -14141,7 +14152,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -14157,7 +14168,7 @@
       </c>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -14175,7 +14186,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -14191,7 +14202,7 @@
       </c>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -14209,7 +14220,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="261" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -14227,7 +14238,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -14243,7 +14254,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -14259,7 +14270,7 @@
       </c>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:6" ht="78" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -14275,7 +14286,7 @@
         <v>1044</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="126" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -14291,7 +14302,7 @@
         <v>1045</v>
       </c>
     </row>
-    <row r="266" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -14307,7 +14318,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -14323,7 +14334,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -14339,7 +14350,7 @@
         <v>1041</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -14355,7 +14366,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -14371,7 +14382,7 @@
         <v>1047</v>
       </c>
     </row>
-    <row r="271" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -14387,7 +14398,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -14403,7 +14414,7 @@
       </c>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -14419,7 +14430,7 @@
       </c>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -14435,7 +14446,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -14451,7 +14462,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -14467,7 +14478,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -14483,7 +14494,7 @@
       </c>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -14499,7 +14510,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -14515,7 +14526,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -14531,7 +14542,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -14547,7 +14558,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -14563,7 +14574,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -14579,7 +14590,7 @@
       </c>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -14595,7 +14606,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -14613,7 +14624,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -14629,7 +14640,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -14647,7 +14658,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -14663,7 +14674,7 @@
       </c>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -14679,7 +14690,7 @@
       </c>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -14697,7 +14708,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -14713,7 +14724,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -14731,7 +14742,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -14747,7 +14758,7 @@
       </c>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -14765,7 +14776,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -14781,7 +14792,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -14797,7 +14808,7 @@
       </c>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -14813,7 +14824,7 @@
       </c>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -14829,7 +14840,7 @@
       </c>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -14847,7 +14858,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -14861,7 +14872,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -14875,7 +14886,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -14889,7 +14900,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -14903,7 +14914,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -14917,7 +14928,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -14931,7 +14942,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -14945,7 +14956,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -14959,7 +14970,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -14973,7 +14984,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -14987,7 +14998,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -15001,7 +15012,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -15015,7 +15026,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -15029,7 +15040,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -15043,7 +15054,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -15057,7 +15068,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -15071,7 +15082,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -15085,7 +15096,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -15099,7 +15110,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -15113,7 +15124,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -15127,7 +15138,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -15141,7 +15152,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -15155,7 +15166,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -15169,7 +15180,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -15183,7 +15194,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -15197,7 +15208,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -15211,7 +15222,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -15225,7 +15236,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -15239,7 +15250,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -15253,7 +15264,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -15267,7 +15278,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -15281,7 +15292,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -15295,7 +15306,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -15309,7 +15320,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -15323,7 +15334,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -15337,7 +15348,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -15351,7 +15362,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -15365,7 +15376,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -15379,7 +15390,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -15393,7 +15404,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -15407,7 +15418,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -15421,7 +15432,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -15435,7 +15446,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -15449,7 +15460,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -15463,7 +15474,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -15477,7 +15488,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -15491,7 +15502,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -15505,7 +15516,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -15519,7 +15530,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -15533,7 +15544,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -15547,7 +15558,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -15561,7 +15572,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -15575,7 +15586,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -15589,7 +15600,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -15603,7 +15614,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -15617,7 +15628,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -15631,7 +15642,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -15645,7 +15656,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -15659,7 +15670,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -15673,7 +15684,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -15687,7 +15698,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -15701,7 +15712,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -15715,7 +15726,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -15729,7 +15740,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -15743,7 +15754,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -15757,7 +15768,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -15771,7 +15782,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -15785,7 +15796,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -15799,7 +15810,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -15813,7 +15824,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -15827,7 +15838,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -15841,7 +15852,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -15855,7 +15866,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -15869,7 +15880,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -15883,7 +15894,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -15897,7 +15908,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -15911,7 +15922,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -15925,7 +15936,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -15939,7 +15950,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -15953,7 +15964,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -15967,7 +15978,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -15981,7 +15992,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -15995,7 +16006,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -16009,7 +16020,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -16023,7 +16034,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -16037,7 +16048,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -16051,7 +16062,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -16065,7 +16076,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -16079,7 +16090,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -16093,7 +16104,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -16107,7 +16118,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -16121,7 +16132,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -16135,7 +16146,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -16149,7 +16160,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -16163,7 +16174,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -16177,7 +16188,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -16191,7 +16202,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -16205,7 +16216,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -16219,7 +16230,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -16233,7 +16244,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -16247,7 +16258,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -16261,7 +16272,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -16275,7 +16286,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -16289,7 +16300,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -16303,7 +16314,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -16317,7 +16328,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -16331,7 +16342,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -16345,7 +16356,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -16359,7 +16370,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -16373,7 +16384,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -16387,7 +16398,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -16401,7 +16412,7 @@
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
     </row>
-    <row r="411" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -16415,7 +16426,7 @@
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
     </row>
-    <row r="412" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -16429,7 +16440,7 @@
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
     </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -16443,7 +16454,7 @@
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
     </row>
-    <row r="414" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -16457,7 +16468,7 @@
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
     </row>
-    <row r="415" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -16471,7 +16482,7 @@
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
     </row>
-    <row r="416" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -16485,7 +16496,7 @@
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
     </row>
-    <row r="417" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -16499,7 +16510,7 @@
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
     </row>
-    <row r="418" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -16513,7 +16524,7 @@
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
     </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -16527,7 +16538,7 @@
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
     </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -16541,7 +16552,7 @@
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -16555,7 +16566,7 @@
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
     </row>
-    <row r="422" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -16569,7 +16580,7 @@
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
     </row>
-    <row r="423" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -16583,7 +16594,7 @@
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -16597,7 +16608,7 @@
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -16611,7 +16622,7 @@
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -16625,7 +16636,7 @@
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -16639,7 +16650,7 @@
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
     </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -16653,7 +16664,7 @@
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
     </row>
-    <row r="429" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -16667,7 +16678,7 @@
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
     </row>
-    <row r="430" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -16681,7 +16692,7 @@
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
     </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -16695,7 +16706,7 @@
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
     </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -16709,7 +16720,7 @@
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
     </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -16723,7 +16734,7 @@
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -16737,7 +16748,7 @@
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -16751,7 +16762,7 @@
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -16765,7 +16776,7 @@
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -16779,7 +16790,7 @@
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
     </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -16793,7 +16804,7 @@
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -16807,7 +16818,7 @@
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
     </row>
-    <row r="440" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -16821,7 +16832,7 @@
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
     </row>
-    <row r="441" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -16835,7 +16846,7 @@
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
     </row>
-    <row r="442" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -16849,7 +16860,7 @@
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
     </row>
-    <row r="443" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -16863,7 +16874,7 @@
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
     </row>
-    <row r="444" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -16877,7 +16888,7 @@
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -16891,7 +16902,7 @@
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -16905,7 +16916,7 @@
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
     </row>
-    <row r="447" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -16919,7 +16930,7 @@
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
     </row>
-    <row r="448" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -16933,7 +16944,7 @@
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -16947,7 +16958,7 @@
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -16961,7 +16972,7 @@
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -16975,7 +16986,7 @@
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -16989,7 +17000,7 @@
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
     </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -17003,7 +17014,7 @@
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
     </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -17017,7 +17028,7 @@
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -17031,7 +17042,7 @@
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
     </row>
-    <row r="456" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -17045,7 +17056,7 @@
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
     </row>
-    <row r="457" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -17059,7 +17070,7 @@
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
     </row>
-    <row r="458" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -17073,7 +17084,7 @@
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
     </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -17087,7 +17098,7 @@
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -17101,7 +17112,7 @@
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
     </row>
-    <row r="461" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
@@ -17115,7 +17126,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
@@ -17129,7 +17140,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
@@ -17143,7 +17154,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
@@ -17157,7 +17168,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
@@ -17171,7 +17182,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
@@ -17185,7 +17196,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
@@ -17199,7 +17210,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
@@ -17213,7 +17224,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
@@ -17227,7 +17238,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
@@ -17241,7 +17252,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
@@ -17255,7 +17266,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
@@ -17269,7 +17280,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
@@ -17283,7 +17294,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
@@ -17297,7 +17308,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
@@ -17311,7 +17322,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
@@ -17325,7 +17336,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
@@ -17339,7 +17350,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
@@ -17353,7 +17364,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
@@ -17367,7 +17378,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
@@ -17381,7 +17392,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
@@ -17395,7 +17406,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
@@ -17409,7 +17420,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
@@ -17423,7 +17434,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
@@ -17437,7 +17448,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
@@ -17451,7 +17462,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
@@ -17465,7 +17476,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
@@ -17479,7 +17490,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
@@ -17493,7 +17504,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -17507,7 +17518,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
@@ -17521,7 +17532,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
@@ -17535,7 +17546,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
@@ -17549,7 +17560,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
@@ -17563,7 +17574,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
@@ -17577,7 +17588,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
@@ -17591,7 +17602,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
@@ -17605,7 +17616,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
@@ -17619,7 +17630,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
@@ -17633,7 +17644,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
@@ -17647,7 +17658,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
@@ -17661,7 +17672,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
@@ -17675,7 +17686,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="1:6" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:6" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
@@ -17689,7 +17700,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
@@ -17703,7 +17714,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
@@ -17717,7 +17728,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0C47019-8365-45C2-95BA-CB1AC9F9FF9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D7CDB-2E98-4234-B808-B04998C92BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1683" uniqueCount="1057">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1063">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9129,33 +9129,21 @@
     <t>Implementierung macht keinen Sinn für einen Taschenrechner</t>
   </si>
   <si>
-    <t>kann implementiert werden, macht jedoch keinen Sinn. Wer nicht den größten Wert kennt von Werten die er in den Taschenrechner eintippt, weiß vrsl. Nicht mal wie man einen Taschenrechner benutzt.</t>
-  </si>
-  <si>
     <t>möglich, jedoch nicht Sinnvoll</t>
   </si>
   <si>
     <t>kann implementiert werden, macht jedoch keinen Sinn für einen Taschenrechner</t>
   </si>
   <si>
-    <t>Implementierung möglich und Sinnvoll: Berechnung einer Determinante</t>
-  </si>
-  <si>
     <t>Implementierung ist nicht Sinnvoll (keine Funktion, die im Taschenrechner benötigt wird)</t>
   </si>
   <si>
-    <t>möglich, jedoch nicht Sinnvoll: Median ist nur einer der Werte, die eingepflegt werden müssen bzw. der Mittelwert zweier Werte.</t>
-  </si>
-  <si>
     <t>nicht Sinnvoll, außer wenn mit Matrizen gerechnet werden soll</t>
   </si>
   <si>
     <t>nur bedingt Sinnvoll</t>
   </si>
   <si>
-    <t xml:space="preserve">nicht Sinnvoll </t>
-  </si>
-  <si>
     <t>Sinnvoll, kann implementiert werden durch Nutzung des Mittelwertes</t>
   </si>
   <si>
@@ -9178,13 +9166,43 @@
   </si>
   <si>
     <t>komplex</t>
+  </si>
+  <si>
+    <t>max(v; ;,,) _ Gibt das Maximum aus allen übergebenen Werten zurück.</t>
+  </si>
+  <si>
+    <t>matrix:det(n)</t>
+  </si>
+  <si>
+    <t>Berechnet die Determinante einer Matrix</t>
+  </si>
+  <si>
+    <t>median(x; ;,,)</t>
+  </si>
+  <si>
+    <t>matrix:id(n)</t>
+  </si>
+  <si>
+    <t>Erzeugt eine n x n Einheitsmatrix</t>
+  </si>
+  <si>
+    <t>min(v; ;,,)</t>
+  </si>
+  <si>
+    <t>Gibt das Minimum aus allen übergebenen Werten zurück.</t>
+  </si>
+  <si>
+    <t>matrix:inverse(n)</t>
+  </si>
+  <si>
+    <t>Berechnet die inverse Matrix, falls diese existiert.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9245,6 +9263,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -9254,11 +9278,20 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -9267,7 +9300,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9290,6 +9323,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9751,9 +9788,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A283" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D251" sqref="D251:F299"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C272" sqref="C272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -13548,7 +13585,7 @@
       </c>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13630,9 +13667,11 @@
       <c r="E259" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="F259" s="8"/>
-    </row>
-    <row r="260" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+      <c r="F259" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13642,13 +13681,11 @@
       <c r="C260" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8" t="s">
-        <v>1040</v>
-      </c>
-      <c r="F260" s="8" t="s">
-        <v>1041</v>
-      </c>
+      <c r="D260" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E260" s="8"/>
+      <c r="F260" s="8"/>
     </row>
     <row r="261" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
@@ -13662,13 +13699,13 @@
       </c>
       <c r="D261" s="8"/>
       <c r="E261" s="8" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="F261" s="8" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="262" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13684,7 +13721,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13694,13 +13731,15 @@
       <c r="C263" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8" t="s">
-        <v>1043</v>
+      <c r="D263" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E263" s="10" t="s">
+        <v>1055</v>
       </c>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="78" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13713,10 +13752,10 @@
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
       <c r="F264" s="8" t="s">
-        <v>1044</v>
-      </c>
-    </row>
-    <row r="265" spans="1:6" ht="124.8" x14ac:dyDescent="0.3">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13726,13 +13765,13 @@
       <c r="C265" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="D265" s="8"/>
+      <c r="D265" s="10" t="s">
+        <v>1056</v>
+      </c>
       <c r="E265" s="8"/>
-      <c r="F265" s="8" t="s">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="F265" s="8"/>
+    </row>
+    <row r="266" spans="1:6" ht="64.8" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13742,10 +13781,14 @@
       <c r="C266" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
+      <c r="D266" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E266" s="8" t="s">
+        <v>1058</v>
+      </c>
       <c r="F266" s="8" t="s">
-        <v>1046</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="267" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -13758,10 +13801,14 @@
       <c r="C267" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
+      <c r="D267" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E267" s="8" t="s">
+        <v>1060</v>
+      </c>
       <c r="F267" s="8" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="268" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13777,10 +13824,10 @@
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
       <c r="F268" s="8" t="s">
-        <v>1041</v>
-      </c>
-    </row>
-    <row r="269" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13806,11 +13853,13 @@
       <c r="C270" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8" t="s">
-        <v>1047</v>
-      </c>
+      <c r="D270" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E270" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="F270" s="8"/>
     </row>
     <row r="271" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
@@ -13825,7 +13874,7 @@
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
       <c r="F271" s="8" t="s">
-        <v>1048</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="272" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13840,7 +13889,7 @@
       </c>
       <c r="D272" s="8"/>
       <c r="E272" s="8" t="s">
-        <v>1049</v>
+        <v>1045</v>
       </c>
       <c r="F272" s="8"/>
     </row>
@@ -13937,7 +13986,7 @@
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
       <c r="F278" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="279" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13953,7 +14002,7 @@
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
       <c r="F279" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.3">
@@ -13969,7 +14018,7 @@
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
       <c r="F280" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="281" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13985,7 +14034,7 @@
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
       <c r="F281" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="282" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -14001,7 +14050,7 @@
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
       <c r="F282" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="283" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
@@ -14016,7 +14065,7 @@
       </c>
       <c r="D283" s="8"/>
       <c r="E283" s="8" t="s">
-        <v>1051</v>
+        <v>1047</v>
       </c>
       <c r="F283" s="8"/>
     </row>
@@ -14033,7 +14082,7 @@
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
       <c r="F284" s="8" t="s">
-        <v>1050</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="285" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -14048,7 +14097,7 @@
       </c>
       <c r="D285" s="8"/>
       <c r="E285" s="8" t="s">
-        <v>1052</v>
+        <v>1048</v>
       </c>
       <c r="F285" s="8" t="s">
         <v>1037</v>
@@ -14082,7 +14131,7 @@
       </c>
       <c r="D287" s="8"/>
       <c r="E287" s="8" t="s">
-        <v>1047</v>
+        <v>1044</v>
       </c>
       <c r="F287" s="8" t="s">
         <v>1016</v>
@@ -14116,7 +14165,7 @@
       </c>
       <c r="D289" s="8"/>
       <c r="E289" s="8" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F289" s="8"/>
     </row>
@@ -14132,7 +14181,7 @@
       </c>
       <c r="D290" s="8"/>
       <c r="E290" s="8" t="s">
-        <v>1054</v>
+        <v>1050</v>
       </c>
       <c r="F290" s="8" t="s">
         <v>1016</v>
@@ -14166,7 +14215,7 @@
       </c>
       <c r="D292" s="8"/>
       <c r="E292" s="8" t="s">
-        <v>1055</v>
+        <v>1051</v>
       </c>
       <c r="F292" s="8" t="s">
         <v>1016</v>
@@ -14200,7 +14249,7 @@
       </c>
       <c r="D294" s="8"/>
       <c r="E294" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="F294" s="8" t="s">
         <v>1037</v>
@@ -14234,7 +14283,7 @@
       </c>
       <c r="D296" s="8"/>
       <c r="E296" s="8" t="s">
-        <v>1053</v>
+        <v>1049</v>
       </c>
       <c r="F296" s="8"/>
     </row>
@@ -14282,7 +14331,7 @@
       </c>
       <c r="D299" s="8"/>
       <c r="E299" s="8" t="s">
-        <v>1056</v>
+        <v>1052</v>
       </c>
       <c r="F299" s="8" t="s">
         <v>1037</v>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warn\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D15D7CDB-2E98-4234-B808-B04998C92BD9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0118BE9-2B7E-4E96-8C21-7E14241A93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1689" uniqueCount="1063">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1076">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9196,6 +9196,45 @@
   </si>
   <si>
     <t>Berechnet die inverse Matrix, falls diese existiert.</t>
+  </si>
+  <si>
+    <t>Möglich</t>
+  </si>
+  <si>
+    <t>Visualisierung</t>
+  </si>
+  <si>
+    <t>Möglich - Jedoch nicht für Trigonometrie?</t>
+  </si>
+  <si>
+    <t>Finanzmathematik</t>
+  </si>
+  <si>
+    <t>Möglich - Aber unnötig?</t>
+  </si>
+  <si>
+    <t>Bezug zu anderen Zeilen</t>
+  </si>
+  <si>
+    <t>lcm(a; b)</t>
+  </si>
+  <si>
+    <t>Unnötig</t>
+  </si>
+  <si>
+    <t>Möglich - Erweiterung zu obigen (Wdh)</t>
+  </si>
+  <si>
+    <t>Möglich - aber unnötig und zu komplex?</t>
+  </si>
+  <si>
+    <t>möglich - aber unnötig?</t>
+  </si>
+  <si>
+    <t>ln(x)</t>
+  </si>
+  <si>
+    <t>log(x; base)</t>
   </si>
 </sst>
 </file>
@@ -9300,7 +9339,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9326,6 +9365,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -9789,8 +9831,8 @@
   <dimension ref="A1:H505"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A255" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C272" sqref="C272"/>
+      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -12884,7 +12926,9 @@
         <v>705</v>
       </c>
       <c r="D205" s="8"/>
-      <c r="E205" s="8"/>
+      <c r="E205" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F205" s="8"/>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.3">
@@ -12898,8 +12942,12 @@
         <v>706</v>
       </c>
       <c r="D206" s="8"/>
-      <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
+      <c r="E206" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F206" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="207" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
@@ -12912,7 +12960,9 @@
         <v>707</v>
       </c>
       <c r="D207" s="8"/>
-      <c r="E207" s="8"/>
+      <c r="E207" s="8" t="s">
+        <v>1065</v>
+      </c>
       <c r="F207" s="8"/>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.3">
@@ -12927,7 +12977,9 @@
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
-      <c r="F208" s="8"/>
+      <c r="F208" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
@@ -12940,8 +12992,12 @@
         <v>709</v>
       </c>
       <c r="D209" s="8"/>
-      <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
+      <c r="E209" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F209" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
@@ -12955,7 +13011,9 @@
       </c>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
-      <c r="F210" s="8"/>
+      <c r="F210" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
@@ -12969,7 +13027,9 @@
       </c>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="8"/>
+      <c r="F211" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
@@ -12983,7 +13043,9 @@
       </c>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
-      <c r="F212" s="8"/>
+      <c r="F212" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
@@ -12997,7 +13059,9 @@
       </c>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
-      <c r="F213" s="8"/>
+      <c r="F213" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
@@ -13010,7 +13074,9 @@
         <v>714</v>
       </c>
       <c r="D214" s="8"/>
-      <c r="E214" s="8"/>
+      <c r="E214" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F214" s="8"/>
     </row>
     <row r="215" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13024,7 +13090,9 @@
         <v>715</v>
       </c>
       <c r="D215" s="8"/>
-      <c r="E215" s="8"/>
+      <c r="E215" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F215" s="8"/>
     </row>
     <row r="216" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13039,7 +13107,9 @@
       </c>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
-      <c r="F216" s="8"/>
+      <c r="F216" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
@@ -13053,7 +13123,9 @@
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
-      <c r="F217" s="8"/>
+      <c r="F217" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="218" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
@@ -13067,7 +13139,9 @@
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="8"/>
+      <c r="F218" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="219" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
@@ -13080,7 +13154,9 @@
         <v>719</v>
       </c>
       <c r="D219" s="8"/>
-      <c r="E219" s="8"/>
+      <c r="E219" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F219" s="8"/>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -13094,7 +13170,9 @@
         <v>720</v>
       </c>
       <c r="D220" s="8"/>
-      <c r="E220" s="8"/>
+      <c r="E220" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F220" s="8"/>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.3">
@@ -13108,7 +13186,9 @@
         <v>721</v>
       </c>
       <c r="D221" s="8"/>
-      <c r="E221" s="8"/>
+      <c r="E221" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F221" s="8"/>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
@@ -13122,7 +13202,9 @@
         <v>722</v>
       </c>
       <c r="D222" s="8"/>
-      <c r="E222" s="8"/>
+      <c r="E222" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F222" s="8"/>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -13136,7 +13218,9 @@
         <v>723</v>
       </c>
       <c r="D223" s="8"/>
-      <c r="E223" s="8"/>
+      <c r="E223" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F223" s="8"/>
     </row>
     <row r="224" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
@@ -13151,7 +13235,9 @@
       </c>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="F224" s="8"/>
+      <c r="F224" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="225" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
@@ -13165,7 +13251,9 @@
       </c>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="8"/>
+      <c r="F225" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="226" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
@@ -13178,7 +13266,9 @@
         <v>726</v>
       </c>
       <c r="D226" s="8"/>
-      <c r="E226" s="8"/>
+      <c r="E226" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F226" s="8"/>
     </row>
     <row r="227" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13192,10 +13282,14 @@
         <v>727</v>
       </c>
       <c r="D227" s="8"/>
-      <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-    </row>
-    <row r="228" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E227" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F227" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -13205,7 +13299,9 @@
       <c r="C228" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="D228" s="8"/>
+      <c r="D228" s="9" t="s">
+        <v>1069</v>
+      </c>
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
@@ -13220,7 +13316,9 @@
         <v>729</v>
       </c>
       <c r="D229" s="8"/>
-      <c r="E229" s="8"/>
+      <c r="E229" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F229" s="8"/>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.3">
@@ -13234,7 +13332,9 @@
         <v>730</v>
       </c>
       <c r="D230" s="8"/>
-      <c r="E230" s="8"/>
+      <c r="E230" s="8" t="s">
+        <v>1070</v>
+      </c>
       <c r="F230" s="8"/>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.3">
@@ -13248,10 +13348,12 @@
         <v>731</v>
       </c>
       <c r="D231" s="8"/>
-      <c r="E231" s="8"/>
+      <c r="E231" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -13262,7 +13364,9 @@
         <v>732</v>
       </c>
       <c r="D232" s="8"/>
-      <c r="E232" s="8"/>
+      <c r="E232" s="8" t="s">
+        <v>1071</v>
+      </c>
       <c r="F232" s="8"/>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.3">
@@ -13276,7 +13380,9 @@
         <v>733</v>
       </c>
       <c r="D233" s="8"/>
-      <c r="E233" s="8"/>
+      <c r="E233" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F233" s="8"/>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.3">
@@ -13290,8 +13396,12 @@
         <v>734</v>
       </c>
       <c r="D234" s="8"/>
-      <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
+      <c r="E234" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="235" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
@@ -13304,8 +13414,12 @@
         <v>735</v>
       </c>
       <c r="D235" s="8"/>
-      <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
+      <c r="E235" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="236" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
@@ -13318,8 +13432,12 @@
         <v>736</v>
       </c>
       <c r="D236" s="8"/>
-      <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
+      <c r="E236" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
@@ -13332,8 +13450,12 @@
         <v>737</v>
       </c>
       <c r="D237" s="8"/>
-      <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
+      <c r="E237" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
@@ -13346,8 +13468,12 @@
         <v>738</v>
       </c>
       <c r="D238" s="8"/>
-      <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
+      <c r="E238" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
@@ -13360,8 +13486,12 @@
         <v>739</v>
       </c>
       <c r="D239" s="8"/>
-      <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
+      <c r="E239" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="240" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
@@ -13374,8 +13504,12 @@
         <v>740</v>
       </c>
       <c r="D240" s="8"/>
-      <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
+      <c r="E240" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="241" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
@@ -13388,8 +13522,12 @@
         <v>741</v>
       </c>
       <c r="D241" s="8"/>
-      <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
+      <c r="E241" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F241" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="242" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
@@ -13402,7 +13540,9 @@
         <v>742</v>
       </c>
       <c r="D242" s="8"/>
-      <c r="E242" s="8"/>
+      <c r="E242" s="8" t="s">
+        <v>1067</v>
+      </c>
       <c r="F242" s="8"/>
     </row>
     <row r="243" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13416,7 +13556,9 @@
         <v>743</v>
       </c>
       <c r="D243" s="8"/>
-      <c r="E243" s="8"/>
+      <c r="E243" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F243" s="8"/>
     </row>
     <row r="244" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13430,7 +13572,9 @@
         <v>744</v>
       </c>
       <c r="D244" s="8"/>
-      <c r="E244" s="8"/>
+      <c r="E244" s="8" t="s">
+        <v>1063</v>
+      </c>
       <c r="F244" s="8"/>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.3">
@@ -13445,9 +13589,11 @@
       </c>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
-      <c r="F245" s="8"/>
-    </row>
-    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="F245" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13458,7 +13604,9 @@
         <v>746</v>
       </c>
       <c r="D246" s="8"/>
-      <c r="E246" s="8"/>
+      <c r="E246" s="8" t="s">
+        <v>1072</v>
+      </c>
       <c r="F246" s="8"/>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.3">
@@ -13472,8 +13620,12 @@
         <v>747</v>
       </c>
       <c r="D247" s="8"/>
-      <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
+      <c r="E247" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>1010</v>
+      </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
@@ -13486,7 +13638,9 @@
         <v>748</v>
       </c>
       <c r="D248" s="8"/>
-      <c r="E248" s="8"/>
+      <c r="E248" s="8" t="s">
+        <v>1073</v>
+      </c>
       <c r="F248" s="8"/>
     </row>
     <row r="249" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
@@ -13499,11 +13653,13 @@
       <c r="C249" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="D249" s="8"/>
+      <c r="D249" s="11" t="s">
+        <v>1074</v>
+      </c>
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13513,7 +13669,9 @@
       <c r="C250" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="D250" s="8"/>
+      <c r="D250" s="9" t="s">
+        <v>1075</v>
+      </c>
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warn\Documents\GitHub\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelvolz/Github/excelator/mgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0118BE9-2B7E-4E96-8C21-7E14241A93EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDE9168F-B332-5749-A6D3-2BEC3DDFB261}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1747" uniqueCount="1076">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1751" uniqueCount="1078">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9235,6 +9235,12 @@
   </si>
   <si>
     <t>log(x; base)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
   </si>
 </sst>
 </file>
@@ -9339,7 +9345,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9370,12 +9376,18 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -9514,18 +9526,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F505">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:G505" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G505">
     <sortCondition ref="A1:A505"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10428CB8-DF17-C24D-A8C2-8B4827E181B0}" name="Funktionsname" dataDxfId="5" dataCellStyle="Link"/>
-    <tableColumn id="2" xr3:uid="{98C1F64B-509E-934D-BBC9-297E60C938D9}" name="Team" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{E7210489-D250-D545-A3A7-8B64CF95D33B}" name="Kommentar" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{2FB03DEE-9D86-E448-AC9D-37A85488B243}" name="Nicht möglich" dataDxfId="0"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{10428CB8-DF17-C24D-A8C2-8B4827E181B0}" name="Funktionsname" dataDxfId="6" dataCellStyle="Link"/>
+    <tableColumn id="2" xr3:uid="{98C1F64B-509E-934D-BBC9-297E60C938D9}" name="Team" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{47391C81-2EA8-A148-8D5A-099836562F33}" name="Status" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{E7210489-D250-D545-A3A7-8B64CF95D33B}" name="Kommentar" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{2FB03DEE-9D86-E448-AC9D-37A85488B243}" name="Nicht möglich" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -9828,23 +9841,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A230" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G207" sqref="G207"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.796875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="100.59765625" customWidth="1"/>
-    <col min="4" max="5" width="26.09765625" customWidth="1"/>
-    <col min="6" max="6" width="17.796875" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" customWidth="1"/>
+    <col min="4" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9858,13 +9871,16 @@
         <v>1003</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9878,14 +9894,17 @@
         <v>1008</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="H2" t="s">
+      <c r="G2" s="8"/>
+      <c r="I2" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9898,10 +9917,13 @@
       <c r="D3" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>1077</v>
+      </c>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9912,12 +9934,15 @@
         <v>509</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9929,11 +9954,12 @@
       </c>
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
-      <c r="F5" s="8" t="s">
+      <c r="F5" s="8"/>
+      <c r="G5" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9945,11 +9971,12 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
-      <c r="F6" s="8" t="s">
+      <c r="F6" s="8"/>
+      <c r="G6" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9961,11 +9988,12 @@
       </c>
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
-      <c r="F7" s="8" t="s">
+      <c r="F7" s="8"/>
+      <c r="G7" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9977,11 +10005,12 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
-      <c r="F8" s="8" t="s">
+      <c r="F8" s="8"/>
+      <c r="G8" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9993,11 +10022,12 @@
       </c>
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
-      <c r="F9" s="8" t="s">
+      <c r="F9" s="8"/>
+      <c r="G9" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -10009,11 +10039,12 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
-      <c r="F10" s="8" t="s">
+      <c r="F10" s="8"/>
+      <c r="G10" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -10025,11 +10056,12 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
-      <c r="F11" s="8" t="s">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -10041,11 +10073,12 @@
       </c>
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
-      <c r="F12" s="8" t="s">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -10057,11 +10090,12 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
-      <c r="F13" s="8" t="s">
+      <c r="F13" s="8"/>
+      <c r="G13" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -10076,8 +10110,9 @@
       </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -10092,8 +10127,9 @@
       </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -10104,12 +10140,13 @@
         <v>521</v>
       </c>
       <c r="D16" s="8"/>
-      <c r="E16" s="8" t="s">
+      <c r="E16" s="8"/>
+      <c r="F16" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -10120,12 +10157,13 @@
         <v>522</v>
       </c>
       <c r="D17" s="8"/>
-      <c r="E17" s="8" t="s">
+      <c r="E17" s="8"/>
+      <c r="F17" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -10140,8 +10178,9 @@
       </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -10156,8 +10195,9 @@
       </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10172,8 +10212,9 @@
       </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -10184,12 +10225,13 @@
         <v>526</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="8" t="s">
+      <c r="E21" s="8"/>
+      <c r="F21" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -10200,12 +10242,13 @@
         <v>527</v>
       </c>
       <c r="D22" s="8"/>
-      <c r="E22" s="8" t="s">
+      <c r="E22" s="8"/>
+      <c r="F22" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -10217,11 +10260,12 @@
       </c>
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
-      <c r="F23" s="8" t="s">
+      <c r="F23" s="8"/>
+      <c r="G23" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -10233,11 +10277,12 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
-      <c r="F24" s="8" t="s">
+      <c r="F24" s="8"/>
+      <c r="G24" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10249,11 +10294,12 @@
       </c>
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
-      <c r="F25" s="8" t="s">
+      <c r="F25" s="8"/>
+      <c r="G25" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10265,11 +10311,12 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
-      <c r="F26" s="8" t="s">
+      <c r="F26" s="8"/>
+      <c r="G26" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10282,12 +10329,13 @@
       <c r="D27" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="E27" s="8" t="s">
+      <c r="E27" s="8"/>
+      <c r="F27" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10299,11 +10347,12 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
-      <c r="F28" s="8" t="s">
+      <c r="F28" s="8"/>
+      <c r="G28" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10315,11 +10364,12 @@
       </c>
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
-      <c r="F29" s="8" t="s">
+      <c r="F29" s="8"/>
+      <c r="G29" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10331,11 +10381,12 @@
       </c>
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
-      <c r="F30" s="8" t="s">
+      <c r="F30" s="8"/>
+      <c r="G30" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10347,11 +10398,12 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
-      <c r="F31" s="8" t="s">
+      <c r="F31" s="8"/>
+      <c r="G31" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10363,11 +10415,12 @@
       </c>
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
-      <c r="F32" s="8" t="s">
+      <c r="F32" s="8"/>
+      <c r="G32" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10378,12 +10431,13 @@
         <v>538</v>
       </c>
       <c r="D33" s="8"/>
-      <c r="E33" s="8" t="s">
+      <c r="E33" s="8"/>
+      <c r="F33" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10394,12 +10448,13 @@
         <v>539</v>
       </c>
       <c r="D34" s="8"/>
-      <c r="E34" s="8" t="s">
+      <c r="E34" s="8"/>
+      <c r="F34" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10410,12 +10465,13 @@
         <v>540</v>
       </c>
       <c r="D35" s="8"/>
-      <c r="E35" s="8" t="s">
+      <c r="E35" s="8"/>
+      <c r="F35" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10427,11 +10483,12 @@
       </c>
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
-      <c r="F36" s="8" t="s">
+      <c r="F36" s="8"/>
+      <c r="G36" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10443,11 +10500,12 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
-      <c r="F37" s="8" t="s">
+      <c r="F37" s="8"/>
+      <c r="G37" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10459,11 +10517,12 @@
       </c>
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
-      <c r="F38" s="8" t="s">
+      <c r="F38" s="8"/>
+      <c r="G38" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10475,11 +10534,12 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
-      <c r="F39" s="8" t="s">
+      <c r="F39" s="8"/>
+      <c r="G39" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10490,12 +10550,13 @@
         <v>545</v>
       </c>
       <c r="D40" s="8"/>
-      <c r="E40" s="8" t="s">
+      <c r="E40" s="8"/>
+      <c r="F40" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10506,12 +10567,13 @@
         <v>546</v>
       </c>
       <c r="D41" s="8"/>
-      <c r="E41" s="8" t="s">
+      <c r="E41" s="8"/>
+      <c r="F41" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10522,12 +10584,13 @@
         <v>547</v>
       </c>
       <c r="D42" s="8"/>
-      <c r="E42" s="8" t="s">
+      <c r="E42" s="8"/>
+      <c r="F42" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10539,11 +10602,12 @@
       </c>
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
-      <c r="F43" s="8" t="s">
+      <c r="F43" s="8"/>
+      <c r="G43" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10558,8 +10622,9 @@
       </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10571,11 +10636,12 @@
       </c>
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
-      <c r="F45" s="8" t="s">
+      <c r="F45" s="8"/>
+      <c r="G45" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10590,8 +10656,9 @@
       </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10603,11 +10670,12 @@
       </c>
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
-      <c r="F47" s="8" t="s">
+      <c r="F47" s="8"/>
+      <c r="G47" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10619,11 +10687,12 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
-      <c r="F48" s="8" t="s">
+      <c r="F48" s="8"/>
+      <c r="G48" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10635,11 +10704,12 @@
       </c>
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
-      <c r="F49" s="8" t="s">
+      <c r="F49" s="8"/>
+      <c r="G49" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10651,11 +10721,12 @@
       </c>
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
-      <c r="F50" s="8" t="s">
+      <c r="F50" s="8"/>
+      <c r="G50" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10667,11 +10738,12 @@
       </c>
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
-      <c r="F51" s="8" t="s">
+      <c r="F51" s="8"/>
+      <c r="G51" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10683,11 +10755,12 @@
       </c>
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
-      <c r="F52" s="8" t="s">
+      <c r="F52" s="8"/>
+      <c r="G52" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10699,11 +10772,12 @@
       </c>
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
-      <c r="F53" s="8" t="s">
+      <c r="F53" s="8"/>
+      <c r="G53" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10714,12 +10788,13 @@
         <v>559</v>
       </c>
       <c r="D54" s="8"/>
-      <c r="E54" s="8" t="s">
+      <c r="E54" s="8"/>
+      <c r="F54" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10731,11 +10806,12 @@
       </c>
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
-      <c r="F55" s="8" t="s">
+      <c r="F55" s="8"/>
+      <c r="G55" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10747,11 +10823,12 @@
       </c>
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
-      <c r="F56" s="8" t="s">
+      <c r="F56" s="8"/>
+      <c r="G56" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="57" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10763,11 +10840,12 @@
       </c>
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
-      <c r="F57" s="8" t="s">
+      <c r="F57" s="8"/>
+      <c r="G57" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="58" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10778,12 +10856,13 @@
         <v>563</v>
       </c>
       <c r="D58" s="8"/>
-      <c r="E58" s="8" t="s">
+      <c r="E58" s="8"/>
+      <c r="F58" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10795,11 +10874,12 @@
       </c>
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
-      <c r="F59" s="8" t="s">
+      <c r="F59" s="8"/>
+      <c r="G59" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="60" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10811,11 +10891,12 @@
       </c>
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
-      <c r="F60" s="8" t="s">
+      <c r="F60" s="8"/>
+      <c r="G60" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="61" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10827,11 +10908,12 @@
       </c>
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
-      <c r="F61" s="8" t="s">
+      <c r="F61" s="8"/>
+      <c r="G61" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10843,11 +10925,12 @@
       </c>
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
-      <c r="F62" s="8" t="s">
+      <c r="F62" s="8"/>
+      <c r="G62" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="63" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10859,11 +10942,12 @@
       </c>
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
-      <c r="F63" s="8" t="s">
+      <c r="F63" s="8"/>
+      <c r="G63" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="64" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10875,11 +10959,12 @@
       </c>
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
-      <c r="F64" s="8" t="s">
+      <c r="F64" s="8"/>
+      <c r="G64" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="65" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10891,11 +10976,12 @@
       </c>
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
-      <c r="F65" s="8" t="s">
+      <c r="F65" s="8"/>
+      <c r="G65" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="66" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10907,11 +10993,12 @@
       </c>
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
-      <c r="F66" s="8" t="s">
+      <c r="F66" s="8"/>
+      <c r="G66" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="67" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10923,11 +11010,12 @@
       </c>
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
-      <c r="F67" s="8" t="s">
+      <c r="F67" s="8"/>
+      <c r="G67" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10939,11 +11027,12 @@
       </c>
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
-      <c r="F68" s="8" t="s">
+      <c r="F68" s="8"/>
+      <c r="G68" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="69" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10955,11 +11044,12 @@
       </c>
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
-      <c r="F69" s="8" t="s">
+      <c r="F69" s="8"/>
+      <c r="G69" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="70" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10972,12 +11062,13 @@
       <c r="D70" s="8" t="s">
         <v>1026</v>
       </c>
-      <c r="E70" s="8" t="s">
+      <c r="E70" s="8"/>
+      <c r="F70" s="8" t="s">
         <v>1027</v>
       </c>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10992,8 +11083,9 @@
       </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -11004,12 +11096,13 @@
         <v>576</v>
       </c>
       <c r="D72" s="8"/>
-      <c r="E72" s="8" t="s">
+      <c r="E72" s="8"/>
+      <c r="F72" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -11020,12 +11113,13 @@
         <v>577</v>
       </c>
       <c r="D73" s="8"/>
-      <c r="E73" s="8" t="s">
+      <c r="E73" s="8"/>
+      <c r="F73" s="8" t="s">
         <v>1020</v>
       </c>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -11040,8 +11134,9 @@
       </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -11056,8 +11151,9 @@
       </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -11068,12 +11164,13 @@
         <v>580</v>
       </c>
       <c r="D76" s="8"/>
-      <c r="E76" s="8" t="s">
+      <c r="E76" s="8"/>
+      <c r="F76" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -11088,8 +11185,9 @@
       </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -11104,8 +11202,9 @@
       </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -11117,11 +11216,12 @@
       </c>
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
-      <c r="F79" s="8" t="s">
+      <c r="F79" s="8"/>
+      <c r="G79" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -11133,11 +11233,12 @@
       </c>
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
-      <c r="F80" s="8" t="s">
+      <c r="F80" s="8"/>
+      <c r="G80" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -11149,11 +11250,12 @@
       </c>
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
-      <c r="F81" s="8" t="s">
+      <c r="F81" s="8"/>
+      <c r="G81" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -11165,11 +11267,12 @@
       </c>
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
-      <c r="F82" s="8" t="s">
+      <c r="F82" s="8"/>
+      <c r="G82" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -11181,11 +11284,12 @@
       </c>
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
-      <c r="F83" s="8" t="s">
+      <c r="F83" s="8"/>
+      <c r="G83" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -11197,11 +11301,12 @@
       </c>
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
-      <c r="F84" s="8" t="s">
+      <c r="F84" s="8"/>
+      <c r="G84" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -11213,11 +11318,12 @@
       </c>
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
-      <c r="F85" s="8" t="s">
+      <c r="F85" s="8"/>
+      <c r="G85" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -11229,11 +11335,12 @@
       </c>
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
-      <c r="F86" s="8" t="s">
+      <c r="F86" s="8"/>
+      <c r="G86" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -11245,11 +11352,12 @@
       </c>
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
-      <c r="F87" s="8" t="s">
+      <c r="F87" s="8"/>
+      <c r="G87" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -11260,12 +11368,13 @@
         <v>592</v>
       </c>
       <c r="D88" s="8"/>
-      <c r="E88" s="8" t="s">
+      <c r="E88" s="8"/>
+      <c r="F88" s="8" t="s">
         <v>1024</v>
       </c>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -11277,11 +11386,12 @@
       </c>
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
-      <c r="F89" s="8" t="s">
+      <c r="F89" s="8"/>
+      <c r="G89" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -11293,11 +11403,12 @@
       </c>
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
-      <c r="F90" s="8" t="s">
+      <c r="F90" s="8"/>
+      <c r="G90" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -11309,11 +11420,12 @@
       </c>
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
-      <c r="F91" s="8" t="s">
+      <c r="F91" s="8"/>
+      <c r="G91" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -11325,11 +11437,12 @@
       </c>
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
-      <c r="F92" s="8" t="s">
+      <c r="F92" s="8"/>
+      <c r="G92" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -11341,11 +11454,12 @@
       </c>
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
-      <c r="F93" s="8" t="s">
+      <c r="F93" s="8"/>
+      <c r="G93" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -11357,11 +11471,12 @@
       </c>
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
-      <c r="F94" s="8" t="s">
+      <c r="F94" s="8"/>
+      <c r="G94" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -11373,11 +11488,12 @@
       </c>
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
-      <c r="F95" s="8" t="s">
+      <c r="F95" s="8"/>
+      <c r="G95" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11389,11 +11505,12 @@
       </c>
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
-      <c r="F96" s="8" t="s">
+      <c r="F96" s="8"/>
+      <c r="G96" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11405,11 +11522,12 @@
       </c>
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
-      <c r="F97" s="8" t="s">
+      <c r="F97" s="8"/>
+      <c r="G97" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11421,11 +11539,12 @@
       </c>
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
-      <c r="F98" s="8" t="s">
+      <c r="F98" s="8"/>
+      <c r="G98" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11437,11 +11556,12 @@
       </c>
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
-      <c r="F99" s="8" t="s">
+      <c r="F99" s="8"/>
+      <c r="G99" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11453,11 +11573,12 @@
       </c>
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
-      <c r="F100" s="8" t="s">
+      <c r="F100" s="8"/>
+      <c r="G100" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11469,11 +11590,12 @@
       </c>
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
-      <c r="F101" s="8" t="s">
+      <c r="F101" s="8"/>
+      <c r="G101" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11486,8 +11608,9 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11500,8 +11623,9 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11514,8 +11638,9 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
-    </row>
-    <row r="105" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11528,8 +11653,9 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
-    </row>
-    <row r="106" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11542,8 +11668,9 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11556,8 +11683,9 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11570,8 +11698,9 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-    </row>
-    <row r="109" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11584,8 +11713,9 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11598,8 +11728,9 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11612,8 +11743,9 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11626,8 +11758,9 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11640,8 +11773,9 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11654,8 +11788,9 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11668,8 +11803,9 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11682,8 +11818,9 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11696,8 +11833,9 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11710,8 +11848,9 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
-    </row>
-    <row r="119" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11724,8 +11863,9 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11738,8 +11878,9 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11752,8 +11893,9 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11766,8 +11908,9 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11780,8 +11923,9 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
-    </row>
-    <row r="124" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11794,8 +11938,9 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11808,8 +11953,9 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11822,8 +11968,9 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11836,8 +11983,9 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11850,8 +11998,9 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11864,8 +12013,9 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11878,8 +12028,9 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11892,8 +12043,9 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -11906,8 +12058,9 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
-    </row>
-    <row r="133" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -11920,8 +12073,9 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -11934,8 +12088,9 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
-    </row>
-    <row r="135" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -11948,8 +12103,9 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -11962,8 +12118,9 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -11976,8 +12133,9 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -11990,8 +12148,9 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -12004,8 +12163,9 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -12018,8 +12178,9 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -12032,8 +12193,9 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -12046,8 +12208,9 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -12060,8 +12223,9 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -12074,8 +12238,9 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -12088,8 +12253,9 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -12102,8 +12268,9 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -12116,8 +12283,9 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -12130,8 +12298,9 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -12144,8 +12313,9 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
-    </row>
-    <row r="150" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -12158,8 +12328,9 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
-    </row>
-    <row r="151" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -12172,8 +12343,9 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
-    </row>
-    <row r="152" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -12186,8 +12358,9 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
-    </row>
-    <row r="153" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -12200,8 +12373,9 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -12214,8 +12388,9 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
-    </row>
-    <row r="155" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -12228,8 +12403,9 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -12242,8 +12418,9 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
-    </row>
-    <row r="157" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -12256,8 +12433,9 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
-    </row>
-    <row r="158" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -12270,8 +12448,9 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
-    </row>
-    <row r="159" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -12284,8 +12463,9 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
-    </row>
-    <row r="160" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -12298,8 +12478,9 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -12312,8 +12493,9 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -12326,8 +12508,9 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -12340,8 +12523,9 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -12354,8 +12538,9 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -12368,8 +12553,9 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -12382,8 +12568,9 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -12396,8 +12583,9 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
-    </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12410,8 +12598,9 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12424,8 +12613,9 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
-    </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12438,8 +12628,9 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
-    </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12452,8 +12643,9 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
-    </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12466,8 +12658,9 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
-    </row>
-    <row r="173" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12480,8 +12673,9 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
-    </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12494,8 +12688,9 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
-    </row>
-    <row r="175" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12508,8 +12703,9 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
-    </row>
-    <row r="176" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12522,8 +12718,9 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
-    </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12536,8 +12733,9 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
-    </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12550,8 +12748,9 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
-    </row>
-    <row r="179" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12564,8 +12763,9 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
-    </row>
-    <row r="180" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12578,8 +12778,9 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
-    </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12592,8 +12793,9 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
-    </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12606,8 +12808,9 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
-    </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12620,8 +12823,9 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
-    </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12634,8 +12838,9 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
-    </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12648,8 +12853,9 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
-    </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12662,8 +12868,9 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
-    </row>
-    <row r="187" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12676,8 +12883,9 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
-    </row>
-    <row r="188" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12690,8 +12898,9 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
-    </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12704,8 +12913,9 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
-    </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G189" s="8"/>
+    </row>
+    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -12718,8 +12928,9 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
-    </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -12732,8 +12943,9 @@
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
-    </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -12746,8 +12958,9 @@
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
-    </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -12760,8 +12973,9 @@
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
-    </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -12774,8 +12988,9 @@
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
-    </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -12788,8 +13003,9 @@
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
-    </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -12802,8 +13018,9 @@
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
-    </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -12816,8 +13033,9 @@
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
-    </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -12830,8 +13048,9 @@
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
-    </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -12844,8 +13063,9 @@
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
-    </row>
-    <row r="200" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -12858,8 +13078,9 @@
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
-    </row>
-    <row r="201" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -12872,8 +13093,9 @@
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
-    </row>
-    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -12886,8 +13108,9 @@
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
-    </row>
-    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -12900,8 +13123,9 @@
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
-    </row>
-    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -12914,8 +13138,9 @@
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
-    </row>
-    <row r="205" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -12926,12 +13151,13 @@
         <v>705</v>
       </c>
       <c r="D205" s="8"/>
-      <c r="E205" s="8" t="s">
+      <c r="E205" s="8"/>
+      <c r="F205" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F205" s="8"/>
-    </row>
-    <row r="206" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -12942,14 +13168,15 @@
         <v>706</v>
       </c>
       <c r="D206" s="8"/>
-      <c r="E206" s="8" t="s">
+      <c r="E206" s="8"/>
+      <c r="F206" s="8" t="s">
         <v>1064</v>
       </c>
-      <c r="F206" s="8" t="s">
+      <c r="G206" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="207" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -12960,12 +13187,13 @@
         <v>707</v>
       </c>
       <c r="D207" s="8"/>
-      <c r="E207" s="8" t="s">
+      <c r="E207" s="8"/>
+      <c r="F207" s="8" t="s">
         <v>1065</v>
       </c>
-      <c r="F207" s="8"/>
-    </row>
-    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -12977,11 +13205,12 @@
       </c>
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
-      <c r="F208" s="8" t="s">
+      <c r="F208" s="8"/>
+      <c r="G208" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="209" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -12992,14 +13221,15 @@
         <v>709</v>
       </c>
       <c r="D209" s="8"/>
-      <c r="E209" s="8" t="s">
+      <c r="E209" s="8"/>
+      <c r="F209" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F209" s="8" t="s">
+      <c r="G209" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -13011,11 +13241,12 @@
       </c>
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
-      <c r="F210" s="8" t="s">
+      <c r="F210" s="8"/>
+      <c r="G210" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -13027,11 +13258,12 @@
       </c>
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
-      <c r="F211" s="8" t="s">
+      <c r="F211" s="8"/>
+      <c r="G211" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -13043,11 +13275,12 @@
       </c>
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
-      <c r="F212" s="8" t="s">
+      <c r="F212" s="8"/>
+      <c r="G212" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -13059,11 +13292,12 @@
       </c>
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
-      <c r="F213" s="8" t="s">
+      <c r="F213" s="8"/>
+      <c r="G213" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -13074,12 +13308,13 @@
         <v>714</v>
       </c>
       <c r="D214" s="8"/>
-      <c r="E214" s="8" t="s">
+      <c r="E214" s="8"/>
+      <c r="F214" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F214" s="8"/>
-    </row>
-    <row r="215" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -13090,12 +13325,13 @@
         <v>715</v>
       </c>
       <c r="D215" s="8"/>
-      <c r="E215" s="8" t="s">
+      <c r="E215" s="8"/>
+      <c r="F215" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F215" s="8"/>
-    </row>
-    <row r="216" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -13107,11 +13343,12 @@
       </c>
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
-      <c r="F216" s="8" t="s">
+      <c r="F216" s="8"/>
+      <c r="G216" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -13123,11 +13360,12 @@
       </c>
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
-      <c r="F217" s="8" t="s">
+      <c r="F217" s="8"/>
+      <c r="G217" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="218" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -13139,11 +13377,12 @@
       </c>
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
-      <c r="F218" s="8" t="s">
+      <c r="F218" s="8"/>
+      <c r="G218" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="219" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -13154,12 +13393,13 @@
         <v>719</v>
       </c>
       <c r="D219" s="8"/>
-      <c r="E219" s="8" t="s">
+      <c r="E219" s="8"/>
+      <c r="F219" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F219" s="8"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G219" s="8"/>
+    </row>
+    <row r="220" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -13170,12 +13410,13 @@
         <v>720</v>
       </c>
       <c r="D220" s="8"/>
-      <c r="E220" s="8" t="s">
+      <c r="E220" s="8"/>
+      <c r="F220" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F220" s="8"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G220" s="8"/>
+    </row>
+    <row r="221" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -13186,12 +13427,13 @@
         <v>721</v>
       </c>
       <c r="D221" s="8"/>
-      <c r="E221" s="8" t="s">
+      <c r="E221" s="8"/>
+      <c r="F221" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F221" s="8"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G221" s="8"/>
+    </row>
+    <row r="222" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -13202,12 +13444,13 @@
         <v>722</v>
       </c>
       <c r="D222" s="8"/>
-      <c r="E222" s="8" t="s">
+      <c r="E222" s="8"/>
+      <c r="F222" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="F222" s="8"/>
-    </row>
-    <row r="223" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G222" s="8"/>
+    </row>
+    <row r="223" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -13218,12 +13461,13 @@
         <v>723</v>
       </c>
       <c r="D223" s="8"/>
-      <c r="E223" s="8" t="s">
+      <c r="E223" s="8"/>
+      <c r="F223" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="F223" s="8"/>
-    </row>
-    <row r="224" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G223" s="8"/>
+    </row>
+    <row r="224" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -13235,11 +13479,12 @@
       </c>
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
-      <c r="F224" s="8" t="s">
+      <c r="F224" s="8"/>
+      <c r="G224" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="225" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -13251,11 +13496,12 @@
       </c>
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
-      <c r="F225" s="8" t="s">
+      <c r="F225" s="8"/>
+      <c r="G225" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="226" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -13266,12 +13512,13 @@
         <v>726</v>
       </c>
       <c r="D226" s="8"/>
-      <c r="E226" s="8" t="s">
+      <c r="E226" s="8"/>
+      <c r="F226" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="F226" s="8"/>
-    </row>
-    <row r="227" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -13282,14 +13529,15 @@
         <v>727</v>
       </c>
       <c r="D227" s="8"/>
-      <c r="E227" s="8" t="s">
+      <c r="E227" s="8"/>
+      <c r="F227" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="F227" s="8" t="s">
+      <c r="G227" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="228" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -13302,10 +13550,11 @@
       <c r="D228" s="9" t="s">
         <v>1069</v>
       </c>
-      <c r="E228" s="8"/>
+      <c r="E228" s="9"/>
       <c r="F228" s="8"/>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -13316,12 +13565,13 @@
         <v>729</v>
       </c>
       <c r="D229" s="8"/>
-      <c r="E229" s="8" t="s">
+      <c r="E229" s="8"/>
+      <c r="F229" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F229" s="8"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G229" s="8"/>
+    </row>
+    <row r="230" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -13332,12 +13582,13 @@
         <v>730</v>
       </c>
       <c r="D230" s="8"/>
-      <c r="E230" s="8" t="s">
+      <c r="E230" s="8"/>
+      <c r="F230" s="8" t="s">
         <v>1070</v>
       </c>
-      <c r="F230" s="8"/>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G230" s="8"/>
+    </row>
+    <row r="231" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -13348,12 +13599,13 @@
         <v>731</v>
       </c>
       <c r="D231" s="8"/>
-      <c r="E231" s="8" t="s">
+      <c r="E231" s="8"/>
+      <c r="F231" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F231" s="8"/>
-    </row>
-    <row r="232" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G231" s="8"/>
+    </row>
+    <row r="232" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -13364,12 +13616,13 @@
         <v>732</v>
       </c>
       <c r="D232" s="8"/>
-      <c r="E232" s="8" t="s">
+      <c r="E232" s="8"/>
+      <c r="F232" s="8" t="s">
         <v>1071</v>
       </c>
-      <c r="F232" s="8"/>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G232" s="8"/>
+    </row>
+    <row r="233" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -13380,12 +13633,13 @@
         <v>733</v>
       </c>
       <c r="D233" s="8"/>
-      <c r="E233" s="8" t="s">
+      <c r="E233" s="8"/>
+      <c r="F233" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F233" s="8"/>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G233" s="8"/>
+    </row>
+    <row r="234" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -13396,14 +13650,15 @@
         <v>734</v>
       </c>
       <c r="D234" s="8"/>
-      <c r="E234" s="8" t="s">
+      <c r="E234" s="8"/>
+      <c r="F234" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="F234" s="8" t="s">
+      <c r="G234" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="235" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -13414,14 +13669,15 @@
         <v>735</v>
       </c>
       <c r="D235" s="8"/>
-      <c r="E235" s="8" t="s">
+      <c r="E235" s="8"/>
+      <c r="F235" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="F235" s="8" t="s">
+      <c r="G235" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="236" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -13432,14 +13688,15 @@
         <v>736</v>
       </c>
       <c r="D236" s="8"/>
-      <c r="E236" s="8" t="s">
+      <c r="E236" s="8"/>
+      <c r="F236" s="8" t="s">
         <v>1068</v>
       </c>
-      <c r="F236" s="8" t="s">
+      <c r="G236" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -13450,14 +13707,15 @@
         <v>737</v>
       </c>
       <c r="D237" s="8"/>
-      <c r="E237" s="8" t="s">
+      <c r="E237" s="8"/>
+      <c r="F237" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F237" s="8" t="s">
+      <c r="G237" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -13468,14 +13726,15 @@
         <v>738</v>
       </c>
       <c r="D238" s="8"/>
-      <c r="E238" s="8" t="s">
+      <c r="E238" s="8"/>
+      <c r="F238" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F238" s="8" t="s">
+      <c r="G238" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13486,14 +13745,15 @@
         <v>739</v>
       </c>
       <c r="D239" s="8"/>
-      <c r="E239" s="8" t="s">
+      <c r="E239" s="8"/>
+      <c r="F239" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F239" s="8" t="s">
+      <c r="G239" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="240" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13504,14 +13764,15 @@
         <v>740</v>
       </c>
       <c r="D240" s="8"/>
-      <c r="E240" s="8" t="s">
+      <c r="E240" s="8"/>
+      <c r="F240" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F240" s="8" t="s">
+      <c r="G240" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="241" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13522,14 +13783,15 @@
         <v>741</v>
       </c>
       <c r="D241" s="8"/>
-      <c r="E241" s="8" t="s">
+      <c r="E241" s="8"/>
+      <c r="F241" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F241" s="8" t="s">
+      <c r="G241" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="242" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13540,12 +13802,13 @@
         <v>742</v>
       </c>
       <c r="D242" s="8"/>
-      <c r="E242" s="8" t="s">
+      <c r="E242" s="8"/>
+      <c r="F242" s="8" t="s">
         <v>1067</v>
       </c>
-      <c r="F242" s="8"/>
-    </row>
-    <row r="243" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13556,12 +13819,13 @@
         <v>743</v>
       </c>
       <c r="D243" s="8"/>
-      <c r="E243" s="8" t="s">
+      <c r="E243" s="8"/>
+      <c r="F243" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F243" s="8"/>
-    </row>
-    <row r="244" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13572,12 +13836,13 @@
         <v>744</v>
       </c>
       <c r="D244" s="8"/>
-      <c r="E244" s="8" t="s">
+      <c r="E244" s="8"/>
+      <c r="F244" s="8" t="s">
         <v>1063</v>
       </c>
-      <c r="F244" s="8"/>
-    </row>
-    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G244" s="8"/>
+    </row>
+    <row r="245" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13589,11 +13854,12 @@
       </c>
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
-      <c r="F245" s="8" t="s">
+      <c r="F245" s="8"/>
+      <c r="G245" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="246" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13604,12 +13870,13 @@
         <v>746</v>
       </c>
       <c r="D246" s="8"/>
-      <c r="E246" s="8" t="s">
+      <c r="E246" s="8"/>
+      <c r="F246" s="8" t="s">
         <v>1072</v>
       </c>
-      <c r="F246" s="8"/>
-    </row>
-    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13620,14 +13887,15 @@
         <v>747</v>
       </c>
       <c r="D247" s="8"/>
-      <c r="E247" s="8" t="s">
+      <c r="E247" s="8"/>
+      <c r="F247" s="8" t="s">
         <v>1066</v>
       </c>
-      <c r="F247" s="8" t="s">
+      <c r="G247" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -13638,12 +13906,13 @@
         <v>748</v>
       </c>
       <c r="D248" s="8"/>
-      <c r="E248" s="8" t="s">
+      <c r="E248" s="8"/>
+      <c r="F248" s="8" t="s">
         <v>1073</v>
       </c>
-      <c r="F248" s="8"/>
-    </row>
-    <row r="249" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G248" s="8"/>
+    </row>
+    <row r="249" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -13656,10 +13925,11 @@
       <c r="D249" s="11" t="s">
         <v>1074</v>
       </c>
-      <c r="E249" s="8"/>
+      <c r="E249" s="11"/>
       <c r="F249" s="8"/>
-    </row>
-    <row r="250" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="G249" s="8"/>
+    </row>
+    <row r="250" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13672,10 +13942,11 @@
       <c r="D250" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="E250" s="8"/>
+      <c r="E250" s="9"/>
       <c r="F250" s="8"/>
-    </row>
-    <row r="251" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G250" s="8"/>
+    </row>
+    <row r="251" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -13690,8 +13961,9 @@
       </c>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
-    </row>
-    <row r="252" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G251" s="8"/>
+    </row>
+    <row r="252" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -13702,14 +13974,15 @@
         <v>752</v>
       </c>
       <c r="D252" s="8"/>
-      <c r="E252" s="8" t="s">
+      <c r="E252" s="8"/>
+      <c r="F252" s="8" t="s">
         <v>1032</v>
       </c>
-      <c r="F252" s="8" t="s">
+      <c r="G252" s="8" t="s">
         <v>1033</v>
       </c>
     </row>
-    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -13720,14 +13993,15 @@
         <v>753</v>
       </c>
       <c r="D253" s="8"/>
-      <c r="E253" s="8" t="s">
+      <c r="E253" s="8"/>
+      <c r="F253" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="F253" s="8" t="s">
+      <c r="G253" s="8" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -13738,12 +14012,13 @@
         <v>754</v>
       </c>
       <c r="D254" s="8"/>
-      <c r="E254" s="8" t="s">
+      <c r="E254" s="8"/>
+      <c r="F254" s="8" t="s">
         <v>1034</v>
       </c>
-      <c r="F254" s="8"/>
-    </row>
-    <row r="255" spans="1:6" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13754,14 +14029,15 @@
         <v>755</v>
       </c>
       <c r="D255" s="8"/>
-      <c r="E255" s="8" t="s">
+      <c r="E255" s="8"/>
+      <c r="F255" s="8" t="s">
         <v>1036</v>
       </c>
-      <c r="F255" s="8" t="s">
+      <c r="G255" s="8" t="s">
         <v>1035</v>
       </c>
     </row>
-    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -13773,11 +14049,12 @@
       </c>
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
-      <c r="F256" s="8" t="s">
+      <c r="F256" s="8"/>
+      <c r="G256" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="257" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -13788,12 +14065,13 @@
         <v>757</v>
       </c>
       <c r="D257" s="8"/>
-      <c r="E257" s="8" t="s">
+      <c r="E257" s="8"/>
+      <c r="F257" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F257" s="8"/>
-    </row>
-    <row r="258" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G257" s="8"/>
+    </row>
+    <row r="258" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -13804,14 +14082,15 @@
         <v>758</v>
       </c>
       <c r="D258" s="8"/>
-      <c r="E258" s="8" t="s">
+      <c r="E258" s="8"/>
+      <c r="F258" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F258" s="8" t="s">
+      <c r="G258" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="259" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -13822,14 +14101,15 @@
         <v>759</v>
       </c>
       <c r="D259" s="8"/>
-      <c r="E259" s="8" t="s">
+      <c r="E259" s="8"/>
+      <c r="F259" s="8" t="s">
         <v>1039</v>
       </c>
-      <c r="F259" s="8" t="s">
+      <c r="G259" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="260" spans="1:6" ht="19.2" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13842,10 +14122,11 @@
       <c r="D260" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="E260" s="8"/>
+      <c r="E260" s="9"/>
       <c r="F260" s="8"/>
-    </row>
-    <row r="261" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G260" s="8"/>
+    </row>
+    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -13856,14 +14137,15 @@
         <v>761</v>
       </c>
       <c r="D261" s="8"/>
-      <c r="E261" s="8" t="s">
+      <c r="E261" s="8"/>
+      <c r="F261" s="8" t="s">
         <v>1041</v>
       </c>
-      <c r="F261" s="8" t="s">
+      <c r="G261" s="8" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="262" spans="1:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="262" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13875,11 +14157,12 @@
       </c>
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
-      <c r="F262" s="8" t="s">
+      <c r="F262" s="8"/>
+      <c r="G262" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="263" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13892,12 +14175,13 @@
       <c r="D263" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="E263" s="10" t="s">
+      <c r="E263" s="9"/>
+      <c r="F263" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="F263" s="8"/>
-    </row>
-    <row r="264" spans="1:6" ht="78.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="G263" s="8"/>
+    </row>
+    <row r="264" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13909,11 +14193,12 @@
       </c>
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
-      <c r="F264" s="8" t="s">
+      <c r="F264" s="8"/>
+      <c r="G264" s="8" t="s">
         <v>1042</v>
       </c>
     </row>
-    <row r="265" spans="1:6" ht="19.2" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13926,10 +14211,11 @@
       <c r="D265" s="10" t="s">
         <v>1056</v>
       </c>
-      <c r="E265" s="8"/>
+      <c r="E265" s="12"/>
       <c r="F265" s="8"/>
-    </row>
-    <row r="266" spans="1:6" ht="64.8" thickBot="1" x14ac:dyDescent="0.5">
+      <c r="G265" s="8"/>
+    </row>
+    <row r="266" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13942,14 +14228,15 @@
       <c r="D266" s="9" t="s">
         <v>1057</v>
       </c>
-      <c r="E266" s="8" t="s">
+      <c r="E266" s="9"/>
+      <c r="F266" s="8" t="s">
         <v>1058</v>
       </c>
-      <c r="F266" s="8" t="s">
+      <c r="G266" s="8" t="s">
         <v>1043</v>
       </c>
     </row>
-    <row r="267" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -13962,14 +14249,15 @@
       <c r="D267" s="10" t="s">
         <v>1059</v>
       </c>
-      <c r="E267" s="8" t="s">
+      <c r="E267" s="12"/>
+      <c r="F267" s="8" t="s">
         <v>1060</v>
       </c>
-      <c r="F267" s="8" t="s">
+      <c r="G267" s="8" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="268" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -13981,11 +14269,12 @@
       </c>
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
-      <c r="F268" s="8" t="s">
+      <c r="F268" s="8"/>
+      <c r="G268" s="8" t="s">
         <v>1040</v>
       </c>
     </row>
-    <row r="269" spans="1:6" ht="16.05" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="269" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13997,11 +14286,12 @@
       </c>
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
-      <c r="F269" s="8" t="s">
+      <c r="F269" s="8"/>
+      <c r="G269" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="270" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -14014,12 +14304,13 @@
       <c r="D270" s="10" t="s">
         <v>1061</v>
       </c>
-      <c r="E270" s="10" t="s">
+      <c r="E270" s="10"/>
+      <c r="F270" s="10" t="s">
         <v>1062</v>
       </c>
-      <c r="F270" s="8"/>
-    </row>
-    <row r="271" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G270" s="8"/>
+    </row>
+    <row r="271" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -14031,11 +14322,12 @@
       </c>
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
-      <c r="F271" s="8" t="s">
+      <c r="F271" s="8"/>
+      <c r="G271" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="272" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -14046,12 +14338,13 @@
         <v>772</v>
       </c>
       <c r="D272" s="8"/>
-      <c r="E272" s="8" t="s">
+      <c r="E272" s="8"/>
+      <c r="F272" s="8" t="s">
         <v>1045</v>
       </c>
-      <c r="F272" s="8"/>
-    </row>
-    <row r="273" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G272" s="8"/>
+    </row>
+    <row r="273" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -14062,12 +14355,13 @@
         <v>773</v>
       </c>
       <c r="D273" s="8"/>
-      <c r="E273" s="8" t="s">
+      <c r="E273" s="8"/>
+      <c r="F273" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F273" s="8"/>
-    </row>
-    <row r="274" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G273" s="8"/>
+    </row>
+    <row r="274" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -14079,11 +14373,12 @@
       </c>
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
-      <c r="F274" s="8" t="s">
+      <c r="F274" s="8"/>
+      <c r="G274" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="275" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -14095,11 +14390,12 @@
       </c>
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
-      <c r="F275" s="8" t="s">
+      <c r="F275" s="8"/>
+      <c r="G275" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="276" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -14111,11 +14407,12 @@
       </c>
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
-      <c r="F276" s="8" t="s">
+      <c r="F276" s="8"/>
+      <c r="G276" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="277" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -14126,12 +14423,13 @@
         <v>777</v>
       </c>
       <c r="D277" s="8"/>
-      <c r="E277" s="8" t="s">
+      <c r="E277" s="8"/>
+      <c r="F277" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F277" s="8"/>
-    </row>
-    <row r="278" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G277" s="8"/>
+    </row>
+    <row r="278" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -14143,11 +14441,12 @@
       </c>
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
-      <c r="F278" s="8" t="s">
+      <c r="F278" s="8"/>
+      <c r="G278" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="279" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -14159,11 +14458,12 @@
       </c>
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
-      <c r="F279" s="8" t="s">
+      <c r="F279" s="8"/>
+      <c r="G279" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -14175,11 +14475,12 @@
       </c>
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
-      <c r="F280" s="8" t="s">
+      <c r="F280" s="8"/>
+      <c r="G280" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="281" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -14191,11 +14492,12 @@
       </c>
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
-      <c r="F281" s="8" t="s">
+      <c r="F281" s="8"/>
+      <c r="G281" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="282" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -14207,11 +14509,12 @@
       </c>
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
-      <c r="F282" s="8" t="s">
+      <c r="F282" s="8"/>
+      <c r="G282" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="283" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -14222,12 +14525,13 @@
         <v>783</v>
       </c>
       <c r="D283" s="8"/>
-      <c r="E283" s="8" t="s">
+      <c r="E283" s="8"/>
+      <c r="F283" s="8" t="s">
         <v>1047</v>
       </c>
-      <c r="F283" s="8"/>
-    </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G283" s="8"/>
+    </row>
+    <row r="284" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -14239,11 +14543,12 @@
       </c>
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
-      <c r="F284" s="8" t="s">
+      <c r="F284" s="8"/>
+      <c r="G284" s="8" t="s">
         <v>1046</v>
       </c>
     </row>
-    <row r="285" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -14254,14 +14559,15 @@
         <v>785</v>
       </c>
       <c r="D285" s="8"/>
-      <c r="E285" s="8" t="s">
+      <c r="E285" s="8"/>
+      <c r="F285" s="8" t="s">
         <v>1048</v>
       </c>
-      <c r="F285" s="8" t="s">
+      <c r="G285" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -14273,11 +14579,12 @@
       </c>
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
-      <c r="F286" s="8" t="s">
+      <c r="F286" s="8"/>
+      <c r="G286" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="287" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -14288,14 +14595,15 @@
         <v>787</v>
       </c>
       <c r="D287" s="8"/>
-      <c r="E287" s="8" t="s">
+      <c r="E287" s="8"/>
+      <c r="F287" s="8" t="s">
         <v>1044</v>
       </c>
-      <c r="F287" s="8" t="s">
+      <c r="G287" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="288" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -14306,12 +14614,13 @@
         <v>788</v>
       </c>
       <c r="D288" s="8"/>
-      <c r="E288" s="8" t="s">
+      <c r="E288" s="8"/>
+      <c r="F288" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F288" s="8"/>
-    </row>
-    <row r="289" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G288" s="8"/>
+    </row>
+    <row r="289" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -14322,12 +14631,13 @@
         <v>789</v>
       </c>
       <c r="D289" s="8"/>
-      <c r="E289" s="8" t="s">
+      <c r="E289" s="8"/>
+      <c r="F289" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="F289" s="8"/>
-    </row>
-    <row r="290" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G289" s="8"/>
+    </row>
+    <row r="290" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -14338,14 +14648,15 @@
         <v>790</v>
       </c>
       <c r="D290" s="8"/>
-      <c r="E290" s="8" t="s">
+      <c r="E290" s="8"/>
+      <c r="F290" s="8" t="s">
         <v>1050</v>
       </c>
-      <c r="F290" s="8" t="s">
+      <c r="G290" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="291" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -14357,11 +14668,12 @@
       </c>
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
-      <c r="F291" s="8" t="s">
+      <c r="F291" s="8"/>
+      <c r="G291" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -14372,14 +14684,15 @@
         <v>792</v>
       </c>
       <c r="D292" s="8"/>
-      <c r="E292" s="8" t="s">
+      <c r="E292" s="8"/>
+      <c r="F292" s="8" t="s">
         <v>1051</v>
       </c>
-      <c r="F292" s="8" t="s">
+      <c r="G292" s="8" t="s">
         <v>1016</v>
       </c>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -14390,12 +14703,13 @@
         <v>793</v>
       </c>
       <c r="D293" s="8"/>
-      <c r="E293" s="8" t="s">
+      <c r="E293" s="8"/>
+      <c r="F293" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F293" s="8"/>
-    </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G293" s="8"/>
+    </row>
+    <row r="294" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -14406,14 +14720,15 @@
         <v>794</v>
       </c>
       <c r="D294" s="8"/>
-      <c r="E294" s="8" t="s">
+      <c r="E294" s="8"/>
+      <c r="F294" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="F294" s="8" t="s">
+      <c r="G294" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="295" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -14425,11 +14740,12 @@
       </c>
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
-      <c r="F295" s="8" t="s">
+      <c r="F295" s="8"/>
+      <c r="G295" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="296" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -14440,12 +14756,13 @@
         <v>796</v>
       </c>
       <c r="D296" s="8"/>
-      <c r="E296" s="8" t="s">
+      <c r="E296" s="8"/>
+      <c r="F296" s="8" t="s">
         <v>1049</v>
       </c>
-      <c r="F296" s="8"/>
-    </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G296" s="8"/>
+    </row>
+    <row r="297" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -14456,12 +14773,13 @@
         <v>797</v>
       </c>
       <c r="D297" s="8"/>
-      <c r="E297" s="8" t="s">
+      <c r="E297" s="8"/>
+      <c r="F297" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F297" s="8"/>
-    </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G297" s="8"/>
+    </row>
+    <row r="298" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -14472,12 +14790,13 @@
         <v>798</v>
       </c>
       <c r="D298" s="8"/>
-      <c r="E298" s="8" t="s">
+      <c r="E298" s="8"/>
+      <c r="F298" s="8" t="s">
         <v>1038</v>
       </c>
-      <c r="F298" s="8"/>
-    </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G298" s="8"/>
+    </row>
+    <row r="299" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -14488,14 +14807,15 @@
         <v>799</v>
       </c>
       <c r="D299" s="8"/>
-      <c r="E299" s="8" t="s">
+      <c r="E299" s="8"/>
+      <c r="F299" s="8" t="s">
         <v>1052</v>
       </c>
-      <c r="F299" s="8" t="s">
+      <c r="G299" s="8" t="s">
         <v>1037</v>
       </c>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -14508,8 +14828,9 @@
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
-    </row>
-    <row r="301" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G300" s="8"/>
+    </row>
+    <row r="301" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -14522,8 +14843,9 @@
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
-    </row>
-    <row r="302" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G301" s="8"/>
+    </row>
+    <row r="302" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -14536,8 +14858,9 @@
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
-    </row>
-    <row r="303" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G302" s="8"/>
+    </row>
+    <row r="303" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -14550,8 +14873,9 @@
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
-    </row>
-    <row r="304" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G303" s="8"/>
+    </row>
+    <row r="304" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -14564,8 +14888,9 @@
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
-    </row>
-    <row r="305" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G304" s="8"/>
+    </row>
+    <row r="305" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -14578,8 +14903,9 @@
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
-    </row>
-    <row r="306" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G305" s="8"/>
+    </row>
+    <row r="306" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -14592,8 +14918,9 @@
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
-    </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G306" s="8"/>
+    </row>
+    <row r="307" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -14606,8 +14933,9 @@
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
-    </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G307" s="8"/>
+    </row>
+    <row r="308" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -14620,8 +14948,9 @@
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
-    </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G308" s="8"/>
+    </row>
+    <row r="309" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -14634,8 +14963,9 @@
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
-    </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G309" s="8"/>
+    </row>
+    <row r="310" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -14648,8 +14978,9 @@
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
-    </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G310" s="8"/>
+    </row>
+    <row r="311" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -14662,8 +14993,9 @@
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
-    </row>
-    <row r="312" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G311" s="8"/>
+    </row>
+    <row r="312" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -14676,8 +15008,9 @@
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
-    </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G312" s="8"/>
+    </row>
+    <row r="313" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -14690,8 +15023,9 @@
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
-    </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G313" s="8"/>
+    </row>
+    <row r="314" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -14704,8 +15038,9 @@
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
-    </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G314" s="8"/>
+    </row>
+    <row r="315" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -14718,8 +15053,9 @@
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
-    </row>
-    <row r="316" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G315" s="8"/>
+    </row>
+    <row r="316" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -14732,8 +15068,9 @@
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
-    </row>
-    <row r="317" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G316" s="8"/>
+    </row>
+    <row r="317" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -14746,8 +15083,9 @@
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
-    </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G317" s="8"/>
+    </row>
+    <row r="318" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -14760,8 +15098,9 @@
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
-    </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G318" s="8"/>
+    </row>
+    <row r="319" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -14774,8 +15113,9 @@
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G319" s="8"/>
+    </row>
+    <row r="320" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -14788,8 +15128,9 @@
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
-    </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G320" s="8"/>
+    </row>
+    <row r="321" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -14802,8 +15143,9 @@
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
-    </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G321" s="8"/>
+    </row>
+    <row r="322" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -14816,8 +15158,9 @@
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
-    </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G322" s="8"/>
+    </row>
+    <row r="323" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -14830,8 +15173,9 @@
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
-    </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G323" s="8"/>
+    </row>
+    <row r="324" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -14844,8 +15188,9 @@
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
-    </row>
-    <row r="325" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G324" s="8"/>
+    </row>
+    <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -14858,8 +15203,9 @@
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
-    </row>
-    <row r="326" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G325" s="8"/>
+    </row>
+    <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -14872,8 +15218,9 @@
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
-    </row>
-    <row r="327" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G326" s="8"/>
+    </row>
+    <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -14886,8 +15233,9 @@
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
-    </row>
-    <row r="328" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G327" s="8"/>
+    </row>
+    <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -14900,8 +15248,9 @@
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
-    </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G328" s="8"/>
+    </row>
+    <row r="329" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -14914,8 +15263,9 @@
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
-    </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G329" s="8"/>
+    </row>
+    <row r="330" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -14928,8 +15278,9 @@
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
-    </row>
-    <row r="331" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G330" s="8"/>
+    </row>
+    <row r="331" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -14942,8 +15293,9 @@
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
-    </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G331" s="8"/>
+    </row>
+    <row r="332" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -14956,8 +15308,9 @@
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
-    </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G332" s="8"/>
+    </row>
+    <row r="333" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -14970,8 +15323,9 @@
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
-    </row>
-    <row r="334" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G333" s="8"/>
+    </row>
+    <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -14984,8 +15338,9 @@
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
-    </row>
-    <row r="335" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G334" s="8"/>
+    </row>
+    <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -14998,8 +15353,9 @@
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
-    </row>
-    <row r="336" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G335" s="8"/>
+    </row>
+    <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -15012,8 +15368,9 @@
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
-    </row>
-    <row r="337" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G336" s="8"/>
+    </row>
+    <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -15026,8 +15383,9 @@
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
-    </row>
-    <row r="338" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G337" s="8"/>
+    </row>
+    <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -15040,8 +15398,9 @@
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
-    </row>
-    <row r="339" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G338" s="8"/>
+    </row>
+    <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -15054,8 +15413,9 @@
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
-    </row>
-    <row r="340" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G339" s="8"/>
+    </row>
+    <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -15068,8 +15428,9 @@
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
-    </row>
-    <row r="341" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G340" s="8"/>
+    </row>
+    <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -15082,8 +15443,9 @@
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G341" s="8"/>
+    </row>
+    <row r="342" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -15096,8 +15458,9 @@
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G342" s="8"/>
+    </row>
+    <row r="343" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -15110,8 +15473,9 @@
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G343" s="8"/>
+    </row>
+    <row r="344" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -15124,8 +15488,9 @@
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
-    </row>
-    <row r="345" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G344" s="8"/>
+    </row>
+    <row r="345" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -15138,8 +15503,9 @@
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
-    </row>
-    <row r="346" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G345" s="8"/>
+    </row>
+    <row r="346" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -15152,8 +15518,9 @@
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G346" s="8"/>
+    </row>
+    <row r="347" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -15166,8 +15533,9 @@
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G347" s="8"/>
+    </row>
+    <row r="348" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -15180,8 +15548,9 @@
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G348" s="8"/>
+    </row>
+    <row r="349" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -15194,8 +15563,9 @@
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
-    </row>
-    <row r="350" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G349" s="8"/>
+    </row>
+    <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -15208,8 +15578,9 @@
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
-    </row>
-    <row r="351" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G350" s="8"/>
+    </row>
+    <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -15222,8 +15593,9 @@
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
-    </row>
-    <row r="352" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G351" s="8"/>
+    </row>
+    <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -15236,8 +15608,9 @@
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
-    </row>
-    <row r="353" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G352" s="8"/>
+    </row>
+    <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -15250,8 +15623,9 @@
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G353" s="8"/>
+    </row>
+    <row r="354" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -15264,8 +15638,9 @@
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
-    </row>
-    <row r="355" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G354" s="8"/>
+    </row>
+    <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -15278,8 +15653,9 @@
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
-    </row>
-    <row r="356" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G355" s="8"/>
+    </row>
+    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -15292,8 +15668,9 @@
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G356" s="8"/>
+    </row>
+    <row r="357" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -15306,8 +15683,9 @@
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G357" s="8"/>
+    </row>
+    <row r="358" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -15320,8 +15698,9 @@
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
-    </row>
-    <row r="359" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G358" s="8"/>
+    </row>
+    <row r="359" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -15334,8 +15713,9 @@
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
-    </row>
-    <row r="360" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G359" s="8"/>
+    </row>
+    <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -15348,8 +15728,9 @@
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
-    </row>
-    <row r="361" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G360" s="8"/>
+    </row>
+    <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -15362,8 +15743,9 @@
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
-    </row>
-    <row r="362" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G361" s="8"/>
+    </row>
+    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -15376,8 +15758,9 @@
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G362" s="8"/>
+    </row>
+    <row r="363" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -15390,8 +15773,9 @@
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G363" s="8"/>
+    </row>
+    <row r="364" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -15404,8 +15788,9 @@
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G364" s="8"/>
+    </row>
+    <row r="365" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -15418,8 +15803,9 @@
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G365" s="8"/>
+    </row>
+    <row r="366" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -15432,8 +15818,9 @@
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G366" s="8"/>
+    </row>
+    <row r="367" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -15446,8 +15833,9 @@
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G367" s="8"/>
+    </row>
+    <row r="368" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -15460,8 +15848,9 @@
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G368" s="8"/>
+    </row>
+    <row r="369" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -15474,8 +15863,9 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G369" s="8"/>
+    </row>
+    <row r="370" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -15488,8 +15878,9 @@
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
-    </row>
-    <row r="371" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G370" s="8"/>
+    </row>
+    <row r="371" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -15502,8 +15893,9 @@
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G371" s="8"/>
+    </row>
+    <row r="372" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -15516,8 +15908,9 @@
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
-    </row>
-    <row r="373" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G372" s="8"/>
+    </row>
+    <row r="373" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -15530,8 +15923,9 @@
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G373" s="8"/>
+    </row>
+    <row r="374" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -15544,8 +15938,9 @@
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G374" s="8"/>
+    </row>
+    <row r="375" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -15558,8 +15953,9 @@
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
-    </row>
-    <row r="376" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G375" s="8"/>
+    </row>
+    <row r="376" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -15572,8 +15968,9 @@
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
-    </row>
-    <row r="377" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G376" s="8"/>
+    </row>
+    <row r="377" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -15586,8 +15983,9 @@
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
-    </row>
-    <row r="378" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G377" s="8"/>
+    </row>
+    <row r="378" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -15600,8 +15998,9 @@
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G378" s="8"/>
+    </row>
+    <row r="379" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -15614,8 +16013,9 @@
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G379" s="8"/>
+    </row>
+    <row r="380" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -15628,8 +16028,9 @@
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G380" s="8"/>
+    </row>
+    <row r="381" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -15642,8 +16043,9 @@
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G381" s="8"/>
+    </row>
+    <row r="382" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -15656,8 +16058,9 @@
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
-    </row>
-    <row r="383" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G382" s="8"/>
+    </row>
+    <row r="383" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -15670,8 +16073,9 @@
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
-    </row>
-    <row r="384" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G383" s="8"/>
+    </row>
+    <row r="384" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -15684,8 +16088,9 @@
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G384" s="8"/>
+    </row>
+    <row r="385" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -15698,8 +16103,9 @@
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G385" s="8"/>
+    </row>
+    <row r="386" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -15712,8 +16118,9 @@
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
-    </row>
-    <row r="387" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G386" s="8"/>
+    </row>
+    <row r="387" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -15726,8 +16133,9 @@
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
-    </row>
-    <row r="388" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G387" s="8"/>
+    </row>
+    <row r="388" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -15740,8 +16148,9 @@
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
-    </row>
-    <row r="389" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G388" s="8"/>
+    </row>
+    <row r="389" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -15754,8 +16163,9 @@
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
-    </row>
-    <row r="390" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G389" s="8"/>
+    </row>
+    <row r="390" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -15768,8 +16178,9 @@
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
-    </row>
-    <row r="391" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G390" s="8"/>
+    </row>
+    <row r="391" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -15782,8 +16193,9 @@
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G391" s="8"/>
+    </row>
+    <row r="392" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -15796,8 +16208,9 @@
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
-    </row>
-    <row r="393" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G392" s="8"/>
+    </row>
+    <row r="393" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -15810,8 +16223,9 @@
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
-    </row>
-    <row r="394" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G393" s="8"/>
+    </row>
+    <row r="394" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -15824,8 +16238,9 @@
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
-    </row>
-    <row r="395" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G394" s="8"/>
+    </row>
+    <row r="395" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -15838,8 +16253,9 @@
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
-    </row>
-    <row r="396" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G395" s="8"/>
+    </row>
+    <row r="396" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -15852,8 +16268,9 @@
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G396" s="8"/>
+    </row>
+    <row r="397" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -15866,8 +16283,9 @@
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G397" s="8"/>
+    </row>
+    <row r="398" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -15880,8 +16298,9 @@
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G398" s="8"/>
+    </row>
+    <row r="399" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -15894,8 +16313,9 @@
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
-    </row>
-    <row r="400" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G399" s="8"/>
+    </row>
+    <row r="400" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -15908,8 +16328,9 @@
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
-    </row>
-    <row r="401" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G400" s="8"/>
+    </row>
+    <row r="401" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -15922,8 +16343,9 @@
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G401" s="8"/>
+    </row>
+    <row r="402" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -15936,8 +16358,9 @@
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G402" s="8"/>
+    </row>
+    <row r="403" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -15950,8 +16373,9 @@
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
-    </row>
-    <row r="404" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G403" s="8"/>
+    </row>
+    <row r="404" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -15964,8 +16388,9 @@
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G404" s="8"/>
+    </row>
+    <row r="405" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -15978,8 +16403,9 @@
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G405" s="8"/>
+    </row>
+    <row r="406" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -15992,8 +16418,9 @@
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G406" s="8"/>
+    </row>
+    <row r="407" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -16006,8 +16433,9 @@
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
-    </row>
-    <row r="408" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G407" s="8"/>
+    </row>
+    <row r="408" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -16020,8 +16448,9 @@
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
-    </row>
-    <row r="409" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G408" s="8"/>
+    </row>
+    <row r="409" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -16034,8 +16463,9 @@
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G409" s="8"/>
+    </row>
+    <row r="410" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -16048,8 +16478,9 @@
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
-    </row>
-    <row r="411" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G410" s="8"/>
+    </row>
+    <row r="411" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -16062,8 +16493,9 @@
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
-    </row>
-    <row r="412" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G411" s="8"/>
+    </row>
+    <row r="412" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -16076,8 +16508,9 @@
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G412" s="8"/>
+    </row>
+    <row r="413" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -16090,8 +16523,9 @@
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
-    </row>
-    <row r="414" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G413" s="8"/>
+    </row>
+    <row r="414" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -16104,8 +16538,9 @@
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
-    </row>
-    <row r="415" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G414" s="8"/>
+    </row>
+    <row r="415" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -16118,8 +16553,9 @@
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
-    </row>
-    <row r="416" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G415" s="8"/>
+    </row>
+    <row r="416" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -16132,8 +16568,9 @@
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
-    </row>
-    <row r="417" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G416" s="8"/>
+    </row>
+    <row r="417" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -16146,8 +16583,9 @@
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
-    </row>
-    <row r="418" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G417" s="8"/>
+    </row>
+    <row r="418" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -16160,8 +16598,9 @@
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G418" s="8"/>
+    </row>
+    <row r="419" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -16174,8 +16613,9 @@
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G419" s="8"/>
+    </row>
+    <row r="420" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -16188,8 +16628,9 @@
       <c r="D420" s="8"/>
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G420" s="8"/>
+    </row>
+    <row r="421" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -16202,8 +16643,9 @@
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
-    </row>
-    <row r="422" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G421" s="8"/>
+    </row>
+    <row r="422" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -16216,8 +16658,9 @@
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
-    </row>
-    <row r="423" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G422" s="8"/>
+    </row>
+    <row r="423" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -16230,8 +16673,9 @@
       <c r="D423" s="8"/>
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G423" s="8"/>
+    </row>
+    <row r="424" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -16244,8 +16688,9 @@
       <c r="D424" s="8"/>
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G424" s="8"/>
+    </row>
+    <row r="425" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -16258,8 +16703,9 @@
       <c r="D425" s="8"/>
       <c r="E425" s="8"/>
       <c r="F425" s="8"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G425" s="8"/>
+    </row>
+    <row r="426" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -16272,8 +16718,9 @@
       <c r="D426" s="8"/>
       <c r="E426" s="8"/>
       <c r="F426" s="8"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G426" s="8"/>
+    </row>
+    <row r="427" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -16286,8 +16733,9 @@
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G427" s="8"/>
+    </row>
+    <row r="428" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -16300,8 +16748,9 @@
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
-    </row>
-    <row r="429" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G428" s="8"/>
+    </row>
+    <row r="429" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -16314,8 +16763,9 @@
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
-    </row>
-    <row r="430" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G429" s="8"/>
+    </row>
+    <row r="430" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -16328,8 +16778,9 @@
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
-    </row>
-    <row r="431" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G430" s="8"/>
+    </row>
+    <row r="431" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -16342,8 +16793,9 @@
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G431" s="8"/>
+    </row>
+    <row r="432" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -16356,8 +16808,9 @@
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G432" s="8"/>
+    </row>
+    <row r="433" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -16370,8 +16823,9 @@
       <c r="D433" s="8"/>
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
-    </row>
-    <row r="434" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G433" s="8"/>
+    </row>
+    <row r="434" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -16384,8 +16838,9 @@
       <c r="D434" s="8"/>
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
-    </row>
-    <row r="435" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G434" s="8"/>
+    </row>
+    <row r="435" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -16398,8 +16853,9 @@
       <c r="D435" s="8"/>
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G435" s="8"/>
+    </row>
+    <row r="436" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -16412,8 +16868,9 @@
       <c r="D436" s="8"/>
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G436" s="8"/>
+    </row>
+    <row r="437" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -16426,8 +16883,9 @@
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G437" s="8"/>
+    </row>
+    <row r="438" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -16440,8 +16898,9 @@
       <c r="D438" s="8"/>
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G438" s="8"/>
+    </row>
+    <row r="439" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -16454,8 +16913,9 @@
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
-    </row>
-    <row r="440" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G439" s="8"/>
+    </row>
+    <row r="440" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -16468,8 +16928,9 @@
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
-    </row>
-    <row r="441" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G440" s="8"/>
+    </row>
+    <row r="441" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -16482,8 +16943,9 @@
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
-    </row>
-    <row r="442" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G441" s="8"/>
+    </row>
+    <row r="442" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -16496,8 +16958,9 @@
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
-    </row>
-    <row r="443" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G442" s="8"/>
+    </row>
+    <row r="443" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -16510,8 +16973,9 @@
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
-    </row>
-    <row r="444" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G443" s="8"/>
+    </row>
+    <row r="444" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -16524,8 +16988,9 @@
       <c r="D444" s="8"/>
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G444" s="8"/>
+    </row>
+    <row r="445" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -16538,8 +17003,9 @@
       <c r="D445" s="8"/>
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G445" s="8"/>
+    </row>
+    <row r="446" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -16552,8 +17018,9 @@
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
-    </row>
-    <row r="447" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G446" s="8"/>
+    </row>
+    <row r="447" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -16566,8 +17033,9 @@
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
-    </row>
-    <row r="448" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G447" s="8"/>
+    </row>
+    <row r="448" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -16580,8 +17048,9 @@
       <c r="D448" s="8"/>
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G448" s="8"/>
+    </row>
+    <row r="449" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -16594,8 +17063,9 @@
       <c r="D449" s="8"/>
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G449" s="8"/>
+    </row>
+    <row r="450" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -16608,8 +17078,9 @@
       <c r="D450" s="8"/>
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
-    </row>
-    <row r="451" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G450" s="8"/>
+    </row>
+    <row r="451" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -16622,8 +17093,9 @@
       <c r="D451" s="8"/>
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
-    </row>
-    <row r="452" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G451" s="8"/>
+    </row>
+    <row r="452" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -16636,8 +17108,9 @@
       <c r="D452" s="8"/>
       <c r="E452" s="8"/>
       <c r="F452" s="8"/>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G452" s="8"/>
+    </row>
+    <row r="453" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -16650,8 +17123,9 @@
       <c r="D453" s="8"/>
       <c r="E453" s="8"/>
       <c r="F453" s="8"/>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G453" s="8"/>
+    </row>
+    <row r="454" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -16664,8 +17138,9 @@
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
       <c r="F454" s="8"/>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G454" s="8"/>
+    </row>
+    <row r="455" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -16678,8 +17153,9 @@
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
       <c r="F455" s="8"/>
-    </row>
-    <row r="456" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G455" s="8"/>
+    </row>
+    <row r="456" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -16692,8 +17168,9 @@
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
       <c r="F456" s="8"/>
-    </row>
-    <row r="457" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G456" s="8"/>
+    </row>
+    <row r="457" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -16706,8 +17183,9 @@
       <c r="D457" s="8"/>
       <c r="E457" s="8"/>
       <c r="F457" s="8"/>
-    </row>
-    <row r="458" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G457" s="8"/>
+    </row>
+    <row r="458" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -16720,8 +17198,9 @@
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
       <c r="F458" s="8"/>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G458" s="8"/>
+    </row>
+    <row r="459" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -16734,8 +17213,9 @@
       <c r="D459" s="8"/>
       <c r="E459" s="8"/>
       <c r="F459" s="8"/>
-    </row>
-    <row r="460" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G459" s="8"/>
+    </row>
+    <row r="460" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -16748,8 +17228,9 @@
       <c r="D460" s="8"/>
       <c r="E460" s="8"/>
       <c r="F460" s="8"/>
-    </row>
-    <row r="461" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G460" s="8"/>
+    </row>
+    <row r="461" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
@@ -16762,8 +17243,9 @@
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
-    </row>
-    <row r="462" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G461" s="8"/>
+    </row>
+    <row r="462" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
@@ -16776,8 +17258,9 @@
       <c r="D462" s="8"/>
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G462" s="8"/>
+    </row>
+    <row r="463" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
@@ -16790,8 +17273,9 @@
       <c r="D463" s="8"/>
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G463" s="8"/>
+    </row>
+    <row r="464" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
@@ -16804,8 +17288,9 @@
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G464" s="8"/>
+    </row>
+    <row r="465" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
@@ -16818,8 +17303,9 @@
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G465" s="8"/>
+    </row>
+    <row r="466" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
@@ -16832,8 +17318,9 @@
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G466" s="8"/>
+    </row>
+    <row r="467" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
@@ -16846,8 +17333,9 @@
       <c r="D467" s="8"/>
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G467" s="8"/>
+    </row>
+    <row r="468" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
@@ -16860,8 +17348,9 @@
       <c r="D468" s="8"/>
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G468" s="8"/>
+    </row>
+    <row r="469" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
@@ -16874,8 +17363,9 @@
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
-    </row>
-    <row r="470" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G469" s="8"/>
+    </row>
+    <row r="470" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
@@ -16888,8 +17378,9 @@
       <c r="D470" s="8"/>
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
-    </row>
-    <row r="471" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G470" s="8"/>
+    </row>
+    <row r="471" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
@@ -16902,8 +17393,9 @@
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G471" s="8"/>
+    </row>
+    <row r="472" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
@@ -16916,8 +17408,9 @@
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
-    </row>
-    <row r="473" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G472" s="8"/>
+    </row>
+    <row r="473" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
@@ -16930,8 +17423,9 @@
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G473" s="8"/>
+    </row>
+    <row r="474" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
@@ -16944,8 +17438,9 @@
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
-    </row>
-    <row r="475" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G474" s="8"/>
+    </row>
+    <row r="475" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
@@ -16958,8 +17453,9 @@
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
-    </row>
-    <row r="476" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G475" s="8"/>
+    </row>
+    <row r="476" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
@@ -16972,8 +17468,9 @@
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G476" s="8"/>
+    </row>
+    <row r="477" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
@@ -16986,8 +17483,9 @@
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G477" s="8"/>
+    </row>
+    <row r="478" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
@@ -17000,8 +17498,9 @@
       <c r="D478" s="8"/>
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G478" s="8"/>
+    </row>
+    <row r="479" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
@@ -17014,8 +17513,9 @@
       <c r="D479" s="8"/>
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G479" s="8"/>
+    </row>
+    <row r="480" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
@@ -17028,8 +17528,9 @@
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G480" s="8"/>
+    </row>
+    <row r="481" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
@@ -17042,8 +17543,9 @@
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
-    </row>
-    <row r="482" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G481" s="8"/>
+    </row>
+    <row r="482" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
@@ -17056,8 +17558,9 @@
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G482" s="8"/>
+    </row>
+    <row r="483" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
@@ -17070,8 +17573,9 @@
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
-    </row>
-    <row r="484" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G483" s="8"/>
+    </row>
+    <row r="484" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
@@ -17084,8 +17588,9 @@
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
-    </row>
-    <row r="485" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G484" s="8"/>
+    </row>
+    <row r="485" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
@@ -17098,8 +17603,9 @@
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G485" s="8"/>
+    </row>
+    <row r="486" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
@@ -17112,8 +17618,9 @@
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G486" s="8"/>
+    </row>
+    <row r="487" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
@@ -17126,8 +17633,9 @@
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G487" s="8"/>
+    </row>
+    <row r="488" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
@@ -17140,8 +17648,9 @@
       <c r="D488" s="8"/>
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G488" s="8"/>
+    </row>
+    <row r="489" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -17154,8 +17663,9 @@
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G489" s="8"/>
+    </row>
+    <row r="490" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
@@ -17168,8 +17678,9 @@
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G490" s="8"/>
+    </row>
+    <row r="491" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
@@ -17182,8 +17693,9 @@
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G491" s="8"/>
+    </row>
+    <row r="492" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
@@ -17196,8 +17708,9 @@
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G492" s="8"/>
+    </row>
+    <row r="493" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
@@ -17210,8 +17723,9 @@
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G493" s="8"/>
+    </row>
+    <row r="494" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
@@ -17224,8 +17738,9 @@
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G494" s="8"/>
+    </row>
+    <row r="495" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
@@ -17238,8 +17753,9 @@
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
-    </row>
-    <row r="496" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G495" s="8"/>
+    </row>
+    <row r="496" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
@@ -17252,8 +17768,9 @@
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
-    </row>
-    <row r="497" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G496" s="8"/>
+    </row>
+    <row r="497" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
@@ -17266,8 +17783,9 @@
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
-    </row>
-    <row r="498" spans="1:6" ht="46.8" x14ac:dyDescent="0.3">
+      <c r="G497" s="8"/>
+    </row>
+    <row r="498" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
@@ -17280,8 +17798,9 @@
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
-    </row>
-    <row r="499" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G498" s="8"/>
+    </row>
+    <row r="499" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
@@ -17294,8 +17813,9 @@
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
-    </row>
-    <row r="500" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G499" s="8"/>
+    </row>
+    <row r="500" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
@@ -17308,8 +17828,9 @@
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
-    </row>
-    <row r="501" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G500" s="8"/>
+    </row>
+    <row r="501" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
@@ -17322,8 +17843,9 @@
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
-    </row>
-    <row r="502" spans="1:6" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G501" s="8"/>
+    </row>
+    <row r="502" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
@@ -17336,8 +17858,9 @@
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
-    </row>
-    <row r="503" spans="1:6" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="G502" s="8"/>
+    </row>
+    <row r="503" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
@@ -17350,8 +17873,9 @@
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G503" s="8"/>
+    </row>
+    <row r="504" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
@@ -17364,8 +17888,9 @@
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G504" s="8"/>
+    </row>
+    <row r="505" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>
@@ -17378,6 +17903,7 @@
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
+      <c r="G505" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelvolz/Github/excelator/mgmt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wh\OneDrive\Dokumente\Studium\Fachsemester\7.Semester\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{407D3788-A7E3-764B-AAAD-B78E3066A3EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBCF534-986F-4AE4-A68B-D227089FD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="34560" windowHeight="21600" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1523" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1022">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9057,6 +9057,24 @@
   </si>
   <si>
     <t>E</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>Noch nicht vorhanden, allerdings machbar.</t>
+  </si>
+  <si>
+    <t>In abgewandelter Form umsetzbar z.B. gebe Zahl aus einem Array zurück.</t>
+  </si>
+  <si>
+    <t>Möglich, noch nicht vorhanden</t>
+  </si>
+  <si>
+    <t>VAR(x; ;,,)</t>
+  </si>
+  <si>
+    <t>Möglich wenn man z.B. zufällig eine Zahl ausgeben möchte, noch nicht vorhanden</t>
   </si>
 </sst>
 </file>
@@ -9630,20 +9648,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:H505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A499" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="C512" sqref="C512"/>
+    <sheetView tabSelected="1" topLeftCell="A509" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="F453" sqref="F453"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="44.83203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="37.33203125" customWidth="1"/>
-    <col min="4" max="5" width="26.1640625" customWidth="1"/>
-    <col min="6" max="6" width="17.83203125" customWidth="1"/>
+    <col min="3" max="3" width="37.375" customWidth="1"/>
+    <col min="4" max="5" width="26.125" customWidth="1"/>
+    <col min="6" max="6" width="17.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9663,7 +9681,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9684,7 +9702,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9700,7 +9718,7 @@
       <c r="E3" s="8"/>
       <c r="F3" s="8"/>
     </row>
-    <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9716,7 +9734,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9730,7 +9748,7 @@
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
     </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9744,7 +9762,7 @@
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
     </row>
-    <row r="7" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9758,7 +9776,7 @@
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
     </row>
-    <row r="8" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9772,7 +9790,7 @@
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
     </row>
-    <row r="9" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9786,7 +9804,7 @@
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
     </row>
-    <row r="10" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -9800,7 +9818,7 @@
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
     </row>
-    <row r="11" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -9814,7 +9832,7 @@
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
     </row>
-    <row r="12" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -9828,7 +9846,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
     </row>
-    <row r="13" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -9842,7 +9860,7 @@
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
     </row>
-    <row r="14" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -9856,7 +9874,7 @@
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
     </row>
-    <row r="15" spans="1:8" ht="51" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -9870,7 +9888,7 @@
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
     </row>
-    <row r="16" spans="1:8" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -9884,7 +9902,7 @@
       <c r="E16" s="8"/>
       <c r="F16" s="8"/>
     </row>
-    <row r="17" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -9898,7 +9916,7 @@
       <c r="E17" s="8"/>
       <c r="F17" s="8"/>
     </row>
-    <row r="18" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -9912,7 +9930,7 @@
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
     </row>
-    <row r="19" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -9926,7 +9944,7 @@
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
     </row>
-    <row r="20" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -9940,7 +9958,7 @@
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
     </row>
-    <row r="21" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -9954,7 +9972,7 @@
       <c r="E21" s="8"/>
       <c r="F21" s="8"/>
     </row>
-    <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -9968,7 +9986,7 @@
       <c r="E22" s="8"/>
       <c r="F22" s="8"/>
     </row>
-    <row r="23" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -9982,7 +10000,7 @@
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -9996,7 +10014,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10010,7 +10028,7 @@
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
     </row>
-    <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10024,7 +10042,7 @@
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
     </row>
-    <row r="27" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10038,7 +10056,7 @@
       <c r="E27" s="8"/>
       <c r="F27" s="8"/>
     </row>
-    <row r="28" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10052,7 +10070,7 @@
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
     </row>
-    <row r="29" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10066,7 +10084,7 @@
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
     </row>
-    <row r="30" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10080,7 +10098,7 @@
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
     </row>
-    <row r="31" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10094,7 +10112,7 @@
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
     </row>
-    <row r="32" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10108,7 +10126,7 @@
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
     </row>
-    <row r="33" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10122,7 +10140,7 @@
       <c r="E33" s="8"/>
       <c r="F33" s="8"/>
     </row>
-    <row r="34" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10136,7 +10154,7 @@
       <c r="E34" s="8"/>
       <c r="F34" s="8"/>
     </row>
-    <row r="35" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10150,7 +10168,7 @@
       <c r="E35" s="8"/>
       <c r="F35" s="8"/>
     </row>
-    <row r="36" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10164,7 +10182,7 @@
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
     </row>
-    <row r="37" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10178,7 +10196,7 @@
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
     </row>
-    <row r="38" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10192,7 +10210,7 @@
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
     </row>
-    <row r="39" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10206,7 +10224,7 @@
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
     </row>
-    <row r="40" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10220,7 +10238,7 @@
       <c r="E40" s="8"/>
       <c r="F40" s="8"/>
     </row>
-    <row r="41" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10234,7 +10252,7 @@
       <c r="E41" s="8"/>
       <c r="F41" s="8"/>
     </row>
-    <row r="42" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10248,7 +10266,7 @@
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
     </row>
-    <row r="43" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10262,7 +10280,7 @@
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
     </row>
-    <row r="44" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10276,7 +10294,7 @@
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
     </row>
-    <row r="45" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10290,7 +10308,7 @@
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
     </row>
-    <row r="46" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10304,7 +10322,7 @@
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
     </row>
-    <row r="47" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10318,7 +10336,7 @@
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
     </row>
-    <row r="48" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10332,7 +10350,7 @@
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
     </row>
-    <row r="49" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10346,7 +10364,7 @@
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
     </row>
-    <row r="50" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10360,7 +10378,7 @@
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
     </row>
-    <row r="51" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10374,7 +10392,7 @@
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
     </row>
-    <row r="52" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10388,7 +10406,7 @@
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
     </row>
-    <row r="53" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10402,7 +10420,7 @@
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
     </row>
-    <row r="54" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10416,7 +10434,7 @@
       <c r="E54" s="8"/>
       <c r="F54" s="8"/>
     </row>
-    <row r="55" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10430,7 +10448,7 @@
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
     </row>
-    <row r="56" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10444,7 +10462,7 @@
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
     </row>
-    <row r="57" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10458,7 +10476,7 @@
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
     </row>
-    <row r="58" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10472,7 +10490,7 @@
       <c r="E58" s="8"/>
       <c r="F58" s="8"/>
     </row>
-    <row r="59" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10486,7 +10504,7 @@
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
     </row>
-    <row r="60" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10500,7 +10518,7 @@
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
     </row>
-    <row r="61" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10514,7 +10532,7 @@
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
     </row>
-    <row r="62" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10528,7 +10546,7 @@
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
     </row>
-    <row r="63" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10542,7 +10560,7 @@
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
     </row>
-    <row r="64" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10556,7 +10574,7 @@
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
     </row>
-    <row r="65" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10570,7 +10588,7 @@
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
     </row>
-    <row r="66" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10584,7 +10602,7 @@
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
     </row>
-    <row r="67" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10598,7 +10616,7 @@
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
     </row>
-    <row r="68" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10612,7 +10630,7 @@
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
     </row>
-    <row r="69" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10626,7 +10644,7 @@
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
     </row>
-    <row r="70" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10640,7 +10658,7 @@
       <c r="E70" s="8"/>
       <c r="F70" s="8"/>
     </row>
-    <row r="71" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10654,7 +10672,7 @@
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
     </row>
-    <row r="72" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -10668,7 +10686,7 @@
       <c r="E72" s="8"/>
       <c r="F72" s="8"/>
     </row>
-    <row r="73" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -10682,7 +10700,7 @@
       <c r="E73" s="8"/>
       <c r="F73" s="8"/>
     </row>
-    <row r="74" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -10696,7 +10714,7 @@
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
     </row>
-    <row r="75" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -10710,7 +10728,7 @@
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
     </row>
-    <row r="76" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -10724,7 +10742,7 @@
       <c r="E76" s="8"/>
       <c r="F76" s="8"/>
     </row>
-    <row r="77" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -10738,7 +10756,7 @@
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
     </row>
-    <row r="78" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -10752,7 +10770,7 @@
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
     </row>
-    <row r="79" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -10766,7 +10784,7 @@
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
     </row>
-    <row r="80" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -10780,7 +10798,7 @@
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
     </row>
-    <row r="81" spans="1:6" ht="153" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -10794,7 +10812,7 @@
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
     </row>
-    <row r="82" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -10808,7 +10826,7 @@
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
     </row>
-    <row r="83" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -10822,7 +10840,7 @@
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
     </row>
-    <row r="84" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -10836,7 +10854,7 @@
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
     </row>
-    <row r="85" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -10850,7 +10868,7 @@
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
     </row>
-    <row r="86" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -10864,7 +10882,7 @@
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
     </row>
-    <row r="87" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -10878,7 +10896,7 @@
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
     </row>
-    <row r="88" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -10892,7 +10910,7 @@
       <c r="E88" s="8"/>
       <c r="F88" s="8"/>
     </row>
-    <row r="89" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -10906,7 +10924,7 @@
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
     </row>
-    <row r="90" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -10920,7 +10938,7 @@
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
     </row>
-    <row r="91" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -10934,7 +10952,7 @@
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
     </row>
-    <row r="92" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -10948,7 +10966,7 @@
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
     </row>
-    <row r="93" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -10962,7 +10980,7 @@
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
     </row>
-    <row r="94" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -10976,7 +10994,7 @@
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
     </row>
-    <row r="95" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -10990,7 +11008,7 @@
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
     </row>
-    <row r="96" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11004,7 +11022,7 @@
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
     </row>
-    <row r="97" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11018,7 +11036,7 @@
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
     </row>
-    <row r="98" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11032,7 +11050,7 @@
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
     </row>
-    <row r="99" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11046,7 +11064,7 @@
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
     </row>
-    <row r="100" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11060,7 +11078,7 @@
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
     </row>
-    <row r="101" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11074,7 +11092,7 @@
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
     </row>
-    <row r="102" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11088,7 +11106,7 @@
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
     </row>
-    <row r="103" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11102,7 +11120,7 @@
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
     </row>
-    <row r="104" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11116,7 +11134,7 @@
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
     </row>
-    <row r="105" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11130,7 +11148,7 @@
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
     </row>
-    <row r="106" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11144,7 +11162,7 @@
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
     </row>
-    <row r="107" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11158,7 +11176,7 @@
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
     </row>
-    <row r="108" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11172,7 +11190,7 @@
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
     </row>
-    <row r="109" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11186,7 +11204,7 @@
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
     </row>
-    <row r="110" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11200,7 +11218,7 @@
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
     </row>
-    <row r="111" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11214,7 +11232,7 @@
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
     </row>
-    <row r="112" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11228,7 +11246,7 @@
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
     </row>
-    <row r="113" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11242,7 +11260,7 @@
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
     </row>
-    <row r="114" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11256,7 +11274,7 @@
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
     </row>
-    <row r="115" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11270,7 +11288,7 @@
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
     </row>
-    <row r="116" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11284,7 +11302,7 @@
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
     </row>
-    <row r="117" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11298,7 +11316,7 @@
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
     </row>
-    <row r="118" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11312,7 +11330,7 @@
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
     </row>
-    <row r="119" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11326,7 +11344,7 @@
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
     </row>
-    <row r="120" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11340,7 +11358,7 @@
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
     </row>
-    <row r="121" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11354,7 +11372,7 @@
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
     </row>
-    <row r="122" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11368,7 +11386,7 @@
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
     </row>
-    <row r="123" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11382,7 +11400,7 @@
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
     </row>
-    <row r="124" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11396,7 +11414,7 @@
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
     </row>
-    <row r="125" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11410,7 +11428,7 @@
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
     </row>
-    <row r="126" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11424,7 +11442,7 @@
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
     </row>
-    <row r="127" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11438,7 +11456,7 @@
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
     </row>
-    <row r="128" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11452,7 +11470,7 @@
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
     </row>
-    <row r="129" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11466,7 +11484,7 @@
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
     </row>
-    <row r="130" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11480,7 +11498,7 @@
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
     </row>
-    <row r="131" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11494,7 +11512,7 @@
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
     </row>
-    <row r="132" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -11508,7 +11526,7 @@
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
     </row>
-    <row r="133" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -11522,7 +11540,7 @@
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
     </row>
-    <row r="134" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -11536,7 +11554,7 @@
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
     </row>
-    <row r="135" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -11550,7 +11568,7 @@
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
     </row>
-    <row r="136" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -11564,7 +11582,7 @@
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
     </row>
-    <row r="137" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -11578,7 +11596,7 @@
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
     </row>
-    <row r="138" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -11592,7 +11610,7 @@
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
     </row>
-    <row r="139" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -11606,7 +11624,7 @@
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
     </row>
-    <row r="140" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -11620,7 +11638,7 @@
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
     </row>
-    <row r="141" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -11634,7 +11652,7 @@
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
     </row>
-    <row r="142" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -11648,7 +11666,7 @@
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
     </row>
-    <row r="143" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -11662,7 +11680,7 @@
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
     </row>
-    <row r="144" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -11676,7 +11694,7 @@
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
     </row>
-    <row r="145" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -11690,7 +11708,7 @@
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
     </row>
-    <row r="146" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -11704,7 +11722,7 @@
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
     </row>
-    <row r="147" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -11718,7 +11736,7 @@
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
     </row>
-    <row r="148" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -11732,7 +11750,7 @@
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
     </row>
-    <row r="149" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -11746,7 +11764,7 @@
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
     </row>
-    <row r="150" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -11760,7 +11778,7 @@
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
     </row>
-    <row r="151" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -11774,7 +11792,7 @@
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
     </row>
-    <row r="152" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -11788,7 +11806,7 @@
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
     </row>
-    <row r="153" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -11802,7 +11820,7 @@
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
     </row>
-    <row r="154" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -11816,7 +11834,7 @@
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
     </row>
-    <row r="155" spans="1:6" ht="102" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -11830,7 +11848,7 @@
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
     </row>
-    <row r="156" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -11844,7 +11862,7 @@
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
     </row>
-    <row r="157" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -11858,7 +11876,7 @@
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
     </row>
-    <row r="158" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -11872,7 +11890,7 @@
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
     </row>
-    <row r="159" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -11886,7 +11904,7 @@
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
     </row>
-    <row r="160" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -11900,7 +11918,7 @@
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
     </row>
-    <row r="161" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -11914,7 +11932,7 @@
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
     </row>
-    <row r="162" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -11928,7 +11946,7 @@
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
     </row>
-    <row r="163" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -11942,7 +11960,7 @@
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
     </row>
-    <row r="164" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -11956,7 +11974,7 @@
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
     </row>
-    <row r="165" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -11970,7 +11988,7 @@
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
     </row>
-    <row r="166" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -11984,7 +12002,7 @@
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
     </row>
-    <row r="167" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -11998,7 +12016,7 @@
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
     </row>
-    <row r="168" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12012,7 +12030,7 @@
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
     </row>
-    <row r="169" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12026,7 +12044,7 @@
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
     </row>
-    <row r="170" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12040,7 +12058,7 @@
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
     </row>
-    <row r="171" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12054,7 +12072,7 @@
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
     </row>
-    <row r="172" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12068,7 +12086,7 @@
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
     </row>
-    <row r="173" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12082,7 +12100,7 @@
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
     </row>
-    <row r="174" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12096,7 +12114,7 @@
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
     </row>
-    <row r="175" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12110,7 +12128,7 @@
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
     </row>
-    <row r="176" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12124,7 +12142,7 @@
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
     </row>
-    <row r="177" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12138,7 +12156,7 @@
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
     </row>
-    <row r="178" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12152,7 +12170,7 @@
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
     </row>
-    <row r="179" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12166,7 +12184,7 @@
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
     </row>
-    <row r="180" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12180,7 +12198,7 @@
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
     </row>
-    <row r="181" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12194,7 +12212,7 @@
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
     </row>
-    <row r="182" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12208,7 +12226,7 @@
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
     </row>
-    <row r="183" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12222,7 +12240,7 @@
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
     </row>
-    <row r="184" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12236,7 +12254,7 @@
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
     </row>
-    <row r="185" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12250,7 +12268,7 @@
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
     </row>
-    <row r="186" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12264,7 +12282,7 @@
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
     </row>
-    <row r="187" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12278,7 +12296,7 @@
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
     </row>
-    <row r="188" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12292,7 +12310,7 @@
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
     </row>
-    <row r="189" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12306,7 +12324,7 @@
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
     </row>
-    <row r="190" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -12320,7 +12338,7 @@
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
     </row>
-    <row r="191" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -12334,7 +12352,7 @@
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
     </row>
-    <row r="192" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -12348,7 +12366,7 @@
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
     </row>
-    <row r="193" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -12362,7 +12380,7 @@
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
     </row>
-    <row r="194" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -12376,7 +12394,7 @@
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
     </row>
-    <row r="195" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -12390,7 +12408,7 @@
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
     </row>
-    <row r="196" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -12404,7 +12422,7 @@
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
     </row>
-    <row r="197" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -12418,7 +12436,7 @@
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
     </row>
-    <row r="198" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -12432,7 +12450,7 @@
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
     </row>
-    <row r="199" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -12446,7 +12464,7 @@
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
     </row>
-    <row r="200" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -12460,7 +12478,7 @@
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
     </row>
-    <row r="201" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -12474,7 +12492,7 @@
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
     </row>
-    <row r="202" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -12488,7 +12506,7 @@
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
     </row>
-    <row r="203" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -12502,7 +12520,7 @@
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
     </row>
-    <row r="204" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -12516,7 +12534,7 @@
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
     </row>
-    <row r="205" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -12530,7 +12548,7 @@
       <c r="E205" s="8"/>
       <c r="F205" s="8"/>
     </row>
-    <row r="206" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -12544,7 +12562,7 @@
       <c r="E206" s="8"/>
       <c r="F206" s="8"/>
     </row>
-    <row r="207" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -12558,7 +12576,7 @@
       <c r="E207" s="8"/>
       <c r="F207" s="8"/>
     </row>
-    <row r="208" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -12572,7 +12590,7 @@
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
     </row>
-    <row r="209" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -12586,7 +12604,7 @@
       <c r="E209" s="8"/>
       <c r="F209" s="8"/>
     </row>
-    <row r="210" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -12600,7 +12618,7 @@
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
     </row>
-    <row r="211" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -12614,7 +12632,7 @@
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
     </row>
-    <row r="212" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -12628,7 +12646,7 @@
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
     </row>
-    <row r="213" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -12642,7 +12660,7 @@
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
     </row>
-    <row r="214" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -12656,7 +12674,7 @@
       <c r="E214" s="8"/>
       <c r="F214" s="8"/>
     </row>
-    <row r="215" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -12670,7 +12688,7 @@
       <c r="E215" s="8"/>
       <c r="F215" s="8"/>
     </row>
-    <row r="216" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -12684,7 +12702,7 @@
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
     </row>
-    <row r="217" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -12698,7 +12716,7 @@
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
     </row>
-    <row r="218" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -12712,7 +12730,7 @@
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
     </row>
-    <row r="219" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -12726,7 +12744,7 @@
       <c r="E219" s="8"/>
       <c r="F219" s="8"/>
     </row>
-    <row r="220" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -12740,7 +12758,7 @@
       <c r="E220" s="8"/>
       <c r="F220" s="8"/>
     </row>
-    <row r="221" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -12754,7 +12772,7 @@
       <c r="E221" s="8"/>
       <c r="F221" s="8"/>
     </row>
-    <row r="222" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -12768,7 +12786,7 @@
       <c r="E222" s="8"/>
       <c r="F222" s="8"/>
     </row>
-    <row r="223" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -12782,7 +12800,7 @@
       <c r="E223" s="8"/>
       <c r="F223" s="8"/>
     </row>
-    <row r="224" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -12796,7 +12814,7 @@
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
     </row>
-    <row r="225" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -12810,7 +12828,7 @@
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
     </row>
-    <row r="226" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -12824,7 +12842,7 @@
       <c r="E226" s="8"/>
       <c r="F226" s="8"/>
     </row>
-    <row r="227" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -12838,7 +12856,7 @@
       <c r="E227" s="8"/>
       <c r="F227" s="8"/>
     </row>
-    <row r="228" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -12852,7 +12870,7 @@
       <c r="E228" s="8"/>
       <c r="F228" s="8"/>
     </row>
-    <row r="229" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -12866,7 +12884,7 @@
       <c r="E229" s="8"/>
       <c r="F229" s="8"/>
     </row>
-    <row r="230" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -12880,7 +12898,7 @@
       <c r="E230" s="8"/>
       <c r="F230" s="8"/>
     </row>
-    <row r="231" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -12894,7 +12912,7 @@
       <c r="E231" s="8"/>
       <c r="F231" s="8"/>
     </row>
-    <row r="232" spans="1:6" ht="17" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -12908,7 +12926,7 @@
       <c r="E232" s="8"/>
       <c r="F232" s="8"/>
     </row>
-    <row r="233" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -12922,7 +12940,7 @@
       <c r="E233" s="8"/>
       <c r="F233" s="8"/>
     </row>
-    <row r="234" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -12936,7 +12954,7 @@
       <c r="E234" s="8"/>
       <c r="F234" s="8"/>
     </row>
-    <row r="235" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -12950,7 +12968,7 @@
       <c r="E235" s="8"/>
       <c r="F235" s="8"/>
     </row>
-    <row r="236" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -12964,7 +12982,7 @@
       <c r="E236" s="8"/>
       <c r="F236" s="8"/>
     </row>
-    <row r="237" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -12978,7 +12996,7 @@
       <c r="E237" s="8"/>
       <c r="F237" s="8"/>
     </row>
-    <row r="238" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -12992,7 +13010,7 @@
       <c r="E238" s="8"/>
       <c r="F238" s="8"/>
     </row>
-    <row r="239" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13006,7 +13024,7 @@
       <c r="E239" s="8"/>
       <c r="F239" s="8"/>
     </row>
-    <row r="240" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13020,7 +13038,7 @@
       <c r="E240" s="8"/>
       <c r="F240" s="8"/>
     </row>
-    <row r="241" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13034,7 +13052,7 @@
       <c r="E241" s="8"/>
       <c r="F241" s="8"/>
     </row>
-    <row r="242" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13048,7 +13066,7 @@
       <c r="E242" s="8"/>
       <c r="F242" s="8"/>
     </row>
-    <row r="243" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13062,7 +13080,7 @@
       <c r="E243" s="8"/>
       <c r="F243" s="8"/>
     </row>
-    <row r="244" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13076,7 +13094,7 @@
       <c r="E244" s="8"/>
       <c r="F244" s="8"/>
     </row>
-    <row r="245" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13090,7 +13108,7 @@
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
     </row>
-    <row r="246" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13104,7 +13122,7 @@
       <c r="E246" s="8"/>
       <c r="F246" s="8"/>
     </row>
-    <row r="247" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13118,7 +13136,7 @@
       <c r="E247" s="8"/>
       <c r="F247" s="8"/>
     </row>
-    <row r="248" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -13132,7 +13150,7 @@
       <c r="E248" s="8"/>
       <c r="F248" s="8"/>
     </row>
-    <row r="249" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -13146,7 +13164,7 @@
       <c r="E249" s="8"/>
       <c r="F249" s="8"/>
     </row>
-    <row r="250" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13160,7 +13178,7 @@
       <c r="E250" s="8"/>
       <c r="F250" s="8"/>
     </row>
-    <row r="251" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -13174,7 +13192,7 @@
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
     </row>
-    <row r="252" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -13188,7 +13206,7 @@
       <c r="E252" s="8"/>
       <c r="F252" s="8"/>
     </row>
-    <row r="253" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -13202,7 +13220,7 @@
       <c r="E253" s="8"/>
       <c r="F253" s="8"/>
     </row>
-    <row r="254" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -13216,7 +13234,7 @@
       <c r="E254" s="8"/>
       <c r="F254" s="8"/>
     </row>
-    <row r="255" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13230,7 +13248,7 @@
       <c r="E255" s="8"/>
       <c r="F255" s="8"/>
     </row>
-    <row r="256" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -13244,7 +13262,7 @@
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
     </row>
-    <row r="257" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -13258,7 +13276,7 @@
       <c r="E257" s="8"/>
       <c r="F257" s="8"/>
     </row>
-    <row r="258" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -13272,7 +13290,7 @@
       <c r="E258" s="8"/>
       <c r="F258" s="8"/>
     </row>
-    <row r="259" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -13286,7 +13304,7 @@
       <c r="E259" s="8"/>
       <c r="F259" s="8"/>
     </row>
-    <row r="260" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13300,7 +13318,7 @@
       <c r="E260" s="8"/>
       <c r="F260" s="8"/>
     </row>
-    <row r="261" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -13314,7 +13332,7 @@
       <c r="E261" s="8"/>
       <c r="F261" s="8"/>
     </row>
-    <row r="262" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13328,7 +13346,7 @@
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
     </row>
-    <row r="263" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13342,7 +13360,7 @@
       <c r="E263" s="8"/>
       <c r="F263" s="8"/>
     </row>
-    <row r="264" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13356,7 +13374,7 @@
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
     </row>
-    <row r="265" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13370,7 +13388,7 @@
       <c r="E265" s="8"/>
       <c r="F265" s="8"/>
     </row>
-    <row r="266" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13384,7 +13402,7 @@
       <c r="E266" s="8"/>
       <c r="F266" s="8"/>
     </row>
-    <row r="267" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -13398,7 +13416,7 @@
       <c r="E267" s="8"/>
       <c r="F267" s="8"/>
     </row>
-    <row r="268" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -13412,7 +13430,7 @@
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
     </row>
-    <row r="269" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13426,7 +13444,7 @@
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
     </row>
-    <row r="270" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -13440,7 +13458,7 @@
       <c r="E270" s="8"/>
       <c r="F270" s="8"/>
     </row>
-    <row r="271" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -13454,7 +13472,7 @@
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
     </row>
-    <row r="272" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -13468,7 +13486,7 @@
       <c r="E272" s="8"/>
       <c r="F272" s="8"/>
     </row>
-    <row r="273" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -13482,7 +13500,7 @@
       <c r="E273" s="8"/>
       <c r="F273" s="8"/>
     </row>
-    <row r="274" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -13496,7 +13514,7 @@
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
     </row>
-    <row r="275" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -13510,7 +13528,7 @@
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
     </row>
-    <row r="276" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -13524,7 +13542,7 @@
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
     </row>
-    <row r="277" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -13538,7 +13556,7 @@
       <c r="E277" s="8"/>
       <c r="F277" s="8"/>
     </row>
-    <row r="278" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -13552,7 +13570,7 @@
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
     </row>
-    <row r="279" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -13566,7 +13584,7 @@
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
     </row>
-    <row r="280" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -13580,7 +13598,7 @@
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
     </row>
-    <row r="281" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -13594,7 +13612,7 @@
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
     </row>
-    <row r="282" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -13608,7 +13626,7 @@
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
     </row>
-    <row r="283" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -13622,7 +13640,7 @@
       <c r="E283" s="8"/>
       <c r="F283" s="8"/>
     </row>
-    <row r="284" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -13636,7 +13654,7 @@
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
     </row>
-    <row r="285" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -13650,7 +13668,7 @@
       <c r="E285" s="8"/>
       <c r="F285" s="8"/>
     </row>
-    <row r="286" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -13664,7 +13682,7 @@
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
     </row>
-    <row r="287" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -13678,7 +13696,7 @@
       <c r="E287" s="8"/>
       <c r="F287" s="8"/>
     </row>
-    <row r="288" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -13692,7 +13710,7 @@
       <c r="E288" s="8"/>
       <c r="F288" s="8"/>
     </row>
-    <row r="289" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -13706,7 +13724,7 @@
       <c r="E289" s="8"/>
       <c r="F289" s="8"/>
     </row>
-    <row r="290" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -13720,7 +13738,7 @@
       <c r="E290" s="8"/>
       <c r="F290" s="8"/>
     </row>
-    <row r="291" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -13734,7 +13752,7 @@
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
     </row>
-    <row r="292" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -13748,7 +13766,7 @@
       <c r="E292" s="8"/>
       <c r="F292" s="8"/>
     </row>
-    <row r="293" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -13762,7 +13780,7 @@
       <c r="E293" s="8"/>
       <c r="F293" s="8"/>
     </row>
-    <row r="294" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -13776,7 +13794,7 @@
       <c r="E294" s="8"/>
       <c r="F294" s="8"/>
     </row>
-    <row r="295" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -13790,7 +13808,7 @@
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
     </row>
-    <row r="296" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -13804,7 +13822,7 @@
       <c r="E296" s="8"/>
       <c r="F296" s="8"/>
     </row>
-    <row r="297" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -13818,7 +13836,7 @@
       <c r="E297" s="8"/>
       <c r="F297" s="8"/>
     </row>
-    <row r="298" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -13832,7 +13850,7 @@
       <c r="E298" s="8"/>
       <c r="F298" s="8"/>
     </row>
-    <row r="299" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -13846,7 +13864,7 @@
       <c r="E299" s="8"/>
       <c r="F299" s="8"/>
     </row>
-    <row r="300" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -13860,7 +13878,7 @@
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
     </row>
-    <row r="301" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -13874,7 +13892,7 @@
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
     </row>
-    <row r="302" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -13888,7 +13906,7 @@
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
     </row>
-    <row r="303" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -13902,7 +13920,7 @@
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
     </row>
-    <row r="304" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -13916,7 +13934,7 @@
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
     </row>
-    <row r="305" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -13930,7 +13948,7 @@
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
     </row>
-    <row r="306" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -13944,7 +13962,7 @@
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
     </row>
-    <row r="307" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -13958,7 +13976,7 @@
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
     </row>
-    <row r="308" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -13972,7 +13990,7 @@
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
     </row>
-    <row r="309" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -13986,7 +14004,7 @@
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
     </row>
-    <row r="310" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -14000,7 +14018,7 @@
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
     </row>
-    <row r="311" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -14014,7 +14032,7 @@
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
     </row>
-    <row r="312" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -14028,7 +14046,7 @@
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
     </row>
-    <row r="313" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -14042,7 +14060,7 @@
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
     </row>
-    <row r="314" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -14056,7 +14074,7 @@
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
     </row>
-    <row r="315" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -14070,7 +14088,7 @@
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
     </row>
-    <row r="316" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -14084,7 +14102,7 @@
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
     </row>
-    <row r="317" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -14098,7 +14116,7 @@
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
     </row>
-    <row r="318" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -14112,7 +14130,7 @@
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
     </row>
-    <row r="319" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -14126,7 +14144,7 @@
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
     </row>
-    <row r="320" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -14140,7 +14158,7 @@
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
     </row>
-    <row r="321" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -14154,7 +14172,7 @@
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
     </row>
-    <row r="322" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -14168,7 +14186,7 @@
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
     </row>
-    <row r="323" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -14182,7 +14200,7 @@
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
     </row>
-    <row r="324" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -14196,7 +14214,7 @@
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
     </row>
-    <row r="325" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -14210,7 +14228,7 @@
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
     </row>
-    <row r="326" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -14224,7 +14242,7 @@
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
     </row>
-    <row r="327" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -14238,7 +14256,7 @@
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
     </row>
-    <row r="328" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -14252,7 +14270,7 @@
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
     </row>
-    <row r="329" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -14266,7 +14284,7 @@
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
     </row>
-    <row r="330" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -14280,7 +14298,7 @@
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
     </row>
-    <row r="331" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -14294,7 +14312,7 @@
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
     </row>
-    <row r="332" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -14308,7 +14326,7 @@
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
     </row>
-    <row r="333" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -14322,7 +14340,7 @@
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
     </row>
-    <row r="334" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -14336,7 +14354,7 @@
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
     </row>
-    <row r="335" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -14350,7 +14368,7 @@
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
     </row>
-    <row r="336" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -14364,7 +14382,7 @@
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
     </row>
-    <row r="337" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -14378,7 +14396,7 @@
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
     </row>
-    <row r="338" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -14392,7 +14410,7 @@
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
     </row>
-    <row r="339" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -14406,7 +14424,7 @@
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
     </row>
-    <row r="340" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -14420,7 +14438,7 @@
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
     </row>
-    <row r="341" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -14434,7 +14452,7 @@
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
     </row>
-    <row r="342" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -14448,7 +14466,7 @@
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
     </row>
-    <row r="343" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -14462,7 +14480,7 @@
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
     </row>
-    <row r="344" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -14476,7 +14494,7 @@
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
     </row>
-    <row r="345" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -14490,7 +14508,7 @@
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
     </row>
-    <row r="346" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -14504,7 +14522,7 @@
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
     </row>
-    <row r="347" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -14518,7 +14536,7 @@
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
     </row>
-    <row r="348" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -14532,7 +14550,7 @@
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
     </row>
-    <row r="349" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -14546,7 +14564,7 @@
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
     </row>
-    <row r="350" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -14560,7 +14578,7 @@
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
     </row>
-    <row r="351" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -14574,7 +14592,7 @@
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
     </row>
-    <row r="352" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -14588,7 +14606,7 @@
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
     </row>
-    <row r="353" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -14602,7 +14620,7 @@
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
     </row>
-    <row r="354" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -14616,7 +14634,7 @@
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
     </row>
-    <row r="355" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -14630,7 +14648,7 @@
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
     </row>
-    <row r="356" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -14644,7 +14662,7 @@
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
     </row>
-    <row r="357" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -14658,7 +14676,7 @@
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
     </row>
-    <row r="358" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -14672,7 +14690,7 @@
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
     </row>
-    <row r="359" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -14686,7 +14704,7 @@
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
     </row>
-    <row r="360" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -14700,7 +14718,7 @@
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
     </row>
-    <row r="361" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -14714,7 +14732,7 @@
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
     </row>
-    <row r="362" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -14728,7 +14746,7 @@
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
     </row>
-    <row r="363" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -14742,7 +14760,7 @@
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
     </row>
-    <row r="364" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -14756,7 +14774,7 @@
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
     </row>
-    <row r="365" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -14770,7 +14788,7 @@
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
     </row>
-    <row r="366" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -14784,7 +14802,7 @@
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
     </row>
-    <row r="367" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -14798,7 +14816,7 @@
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
     </row>
-    <row r="368" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -14812,7 +14830,7 @@
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
     </row>
-    <row r="369" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -14826,7 +14844,7 @@
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
     </row>
-    <row r="370" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -14840,7 +14858,7 @@
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
     </row>
-    <row r="371" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -14854,7 +14872,7 @@
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
     </row>
-    <row r="372" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -14868,7 +14886,7 @@
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
     </row>
-    <row r="373" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -14882,7 +14900,7 @@
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
     </row>
-    <row r="374" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -14896,7 +14914,7 @@
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
     </row>
-    <row r="375" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -14910,7 +14928,7 @@
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
     </row>
-    <row r="376" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -14924,7 +14942,7 @@
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
     </row>
-    <row r="377" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -14938,7 +14956,7 @@
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
     </row>
-    <row r="378" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -14952,7 +14970,7 @@
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
     </row>
-    <row r="379" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -14966,7 +14984,7 @@
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
     </row>
-    <row r="380" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -14980,7 +14998,7 @@
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
     </row>
-    <row r="381" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -14994,7 +15012,7 @@
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
     </row>
-    <row r="382" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -15008,7 +15026,7 @@
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
     </row>
-    <row r="383" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -15022,7 +15040,7 @@
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
     </row>
-    <row r="384" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -15036,7 +15054,7 @@
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
     </row>
-    <row r="385" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -15050,7 +15068,7 @@
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
     </row>
-    <row r="386" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -15064,7 +15082,7 @@
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
     </row>
-    <row r="387" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -15078,7 +15096,7 @@
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
     </row>
-    <row r="388" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -15092,7 +15110,7 @@
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
     </row>
-    <row r="389" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -15106,7 +15124,7 @@
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
     </row>
-    <row r="390" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -15120,7 +15138,7 @@
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
     </row>
-    <row r="391" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -15134,7 +15152,7 @@
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
     </row>
-    <row r="392" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -15148,7 +15166,7 @@
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
     </row>
-    <row r="393" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -15162,7 +15180,7 @@
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
     </row>
-    <row r="394" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -15176,7 +15194,7 @@
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
     </row>
-    <row r="395" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -15190,7 +15208,7 @@
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
     </row>
-    <row r="396" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -15204,7 +15222,7 @@
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
     </row>
-    <row r="397" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -15218,7 +15236,7 @@
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
     </row>
-    <row r="398" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -15232,7 +15250,7 @@
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
     </row>
-    <row r="399" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -15246,7 +15264,7 @@
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
     </row>
-    <row r="400" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -15260,7 +15278,7 @@
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
     </row>
-    <row r="401" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -15274,7 +15292,7 @@
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
     </row>
-    <row r="402" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -15288,7 +15306,7 @@
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
     </row>
-    <row r="403" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -15302,7 +15320,7 @@
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
     </row>
-    <row r="404" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -15316,7 +15334,7 @@
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
     </row>
-    <row r="405" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -15330,7 +15348,7 @@
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
     </row>
-    <row r="406" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -15344,7 +15362,7 @@
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
     </row>
-    <row r="407" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -15358,7 +15376,7 @@
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
     </row>
-    <row r="408" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -15372,7 +15390,7 @@
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
     </row>
-    <row r="409" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -15386,7 +15404,7 @@
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
     </row>
-    <row r="410" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -15398,9 +15416,11 @@
       </c>
       <c r="D410" s="8"/>
       <c r="E410" s="8"/>
-      <c r="F410" s="8"/>
-    </row>
-    <row r="411" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F410" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -15412,9 +15432,11 @@
       </c>
       <c r="D411" s="8"/>
       <c r="E411" s="8"/>
-      <c r="F411" s="8"/>
-    </row>
-    <row r="412" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F411" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -15426,9 +15448,11 @@
       </c>
       <c r="D412" s="8"/>
       <c r="E412" s="8"/>
-      <c r="F412" s="8"/>
-    </row>
-    <row r="413" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F412" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -15440,9 +15464,11 @@
       </c>
       <c r="D413" s="8"/>
       <c r="E413" s="8"/>
-      <c r="F413" s="8"/>
-    </row>
-    <row r="414" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F413" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -15454,9 +15480,11 @@
       </c>
       <c r="D414" s="8"/>
       <c r="E414" s="8"/>
-      <c r="F414" s="8"/>
-    </row>
-    <row r="415" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F414" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="415" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -15468,9 +15496,11 @@
       </c>
       <c r="D415" s="8"/>
       <c r="E415" s="8"/>
-      <c r="F415" s="8"/>
-    </row>
-    <row r="416" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F415" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="416" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -15482,9 +15512,11 @@
       </c>
       <c r="D416" s="8"/>
       <c r="E416" s="8"/>
-      <c r="F416" s="8"/>
-    </row>
-    <row r="417" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F416" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="417" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -15496,9 +15528,11 @@
       </c>
       <c r="D417" s="8"/>
       <c r="E417" s="8"/>
-      <c r="F417" s="8"/>
-    </row>
-    <row r="418" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F417" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="418" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -15510,9 +15544,11 @@
       </c>
       <c r="D418" s="8"/>
       <c r="E418" s="8"/>
-      <c r="F418" s="8"/>
-    </row>
-    <row r="419" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F418" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="419" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -15524,9 +15560,11 @@
       </c>
       <c r="D419" s="8"/>
       <c r="E419" s="8"/>
-      <c r="F419" s="8"/>
-    </row>
-    <row r="420" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F419" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="420" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -15537,10 +15575,12 @@
         <v>918</v>
       </c>
       <c r="D420" s="8"/>
-      <c r="E420" s="8"/>
+      <c r="E420" s="8" t="s">
+        <v>1017</v>
+      </c>
       <c r="F420" s="8"/>
     </row>
-    <row r="421" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -15552,9 +15592,11 @@
       </c>
       <c r="D421" s="8"/>
       <c r="E421" s="8"/>
-      <c r="F421" s="8"/>
-    </row>
-    <row r="422" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F421" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="422" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -15566,9 +15608,11 @@
       </c>
       <c r="D422" s="8"/>
       <c r="E422" s="8"/>
-      <c r="F422" s="8"/>
-    </row>
-    <row r="423" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F422" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="423" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -15579,10 +15623,12 @@
         <v>921</v>
       </c>
       <c r="D423" s="8"/>
-      <c r="E423" s="8"/>
+      <c r="E423" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="F423" s="8"/>
     </row>
-    <row r="424" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -15593,10 +15639,12 @@
         <v>922</v>
       </c>
       <c r="D424" s="8"/>
-      <c r="E424" s="8"/>
+      <c r="E424" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F424" s="8"/>
     </row>
-    <row r="425" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -15607,10 +15655,12 @@
         <v>923</v>
       </c>
       <c r="D425" s="8"/>
-      <c r="E425" s="8"/>
+      <c r="E425" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F425" s="8"/>
     </row>
-    <row r="426" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -15621,10 +15671,12 @@
         <v>924</v>
       </c>
       <c r="D426" s="8"/>
-      <c r="E426" s="8"/>
+      <c r="E426" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F426" s="8"/>
     </row>
-    <row r="427" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -15636,9 +15688,11 @@
       </c>
       <c r="D427" s="8"/>
       <c r="E427" s="8"/>
-      <c r="F427" s="8"/>
-    </row>
-    <row r="428" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F427" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="428" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -15650,9 +15704,11 @@
       </c>
       <c r="D428" s="8"/>
       <c r="E428" s="8"/>
-      <c r="F428" s="8"/>
-    </row>
-    <row r="429" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F428" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="429" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -15664,9 +15720,11 @@
       </c>
       <c r="D429" s="8"/>
       <c r="E429" s="8"/>
-      <c r="F429" s="8"/>
-    </row>
-    <row r="430" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F429" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="430" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -15678,9 +15736,11 @@
       </c>
       <c r="D430" s="8"/>
       <c r="E430" s="8"/>
-      <c r="F430" s="8"/>
-    </row>
-    <row r="431" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F430" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="431" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -15692,9 +15752,11 @@
       </c>
       <c r="D431" s="8"/>
       <c r="E431" s="8"/>
-      <c r="F431" s="8"/>
-    </row>
-    <row r="432" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F431" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="432" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -15706,9 +15768,11 @@
       </c>
       <c r="D432" s="8"/>
       <c r="E432" s="8"/>
-      <c r="F432" s="8"/>
-    </row>
-    <row r="433" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F432" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="433" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -15719,10 +15783,12 @@
         <v>931</v>
       </c>
       <c r="D433" s="8"/>
-      <c r="E433" s="8"/>
+      <c r="E433" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F433" s="8"/>
     </row>
-    <row r="434" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -15733,10 +15799,12 @@
         <v>805</v>
       </c>
       <c r="D434" s="8"/>
-      <c r="E434" s="8"/>
+      <c r="E434" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F434" s="8"/>
     </row>
-    <row r="435" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -15747,10 +15815,12 @@
         <v>932</v>
       </c>
       <c r="D435" s="8"/>
-      <c r="E435" s="8"/>
+      <c r="E435" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F435" s="8"/>
     </row>
-    <row r="436" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -15760,11 +15830,13 @@
       <c r="C436" s="7" t="s">
         <v>933</v>
       </c>
-      <c r="D436" s="8"/>
+      <c r="D436" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
     </row>
-    <row r="437" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -15776,9 +15848,11 @@
       </c>
       <c r="D437" s="8"/>
       <c r="E437" s="8"/>
-      <c r="F437" s="8"/>
-    </row>
-    <row r="438" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F437" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="438" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -15788,11 +15862,13 @@
       <c r="C438" s="7" t="s">
         <v>935</v>
       </c>
-      <c r="D438" s="8"/>
+      <c r="D438" s="8" t="s">
+        <v>1020</v>
+      </c>
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
     </row>
-    <row r="439" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -15804,9 +15880,11 @@
       </c>
       <c r="D439" s="8"/>
       <c r="E439" s="8"/>
-      <c r="F439" s="8"/>
-    </row>
-    <row r="440" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F439" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="440" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -15818,9 +15896,11 @@
       </c>
       <c r="D440" s="8"/>
       <c r="E440" s="8"/>
-      <c r="F440" s="8"/>
-    </row>
-    <row r="441" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F440" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="441" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -15832,9 +15912,11 @@
       </c>
       <c r="D441" s="8"/>
       <c r="E441" s="8"/>
-      <c r="F441" s="8"/>
-    </row>
-    <row r="442" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F441" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="442" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -15846,9 +15928,11 @@
       </c>
       <c r="D442" s="8"/>
       <c r="E442" s="8"/>
-      <c r="F442" s="8"/>
-    </row>
-    <row r="443" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F442" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="443" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -15860,9 +15944,11 @@
       </c>
       <c r="D443" s="8"/>
       <c r="E443" s="8"/>
-      <c r="F443" s="8"/>
-    </row>
-    <row r="444" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="F443" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="444" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -15873,10 +15959,12 @@
         <v>941</v>
       </c>
       <c r="D444" s="8"/>
-      <c r="E444" s="8"/>
+      <c r="E444" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F444" s="8"/>
     </row>
-    <row r="445" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -15887,10 +15975,12 @@
         <v>942</v>
       </c>
       <c r="D445" s="8"/>
-      <c r="E445" s="8"/>
+      <c r="E445" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F445" s="8"/>
     </row>
-    <row r="446" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -15902,9 +15992,11 @@
       </c>
       <c r="D446" s="8"/>
       <c r="E446" s="8"/>
-      <c r="F446" s="8"/>
-    </row>
-    <row r="447" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F446" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="447" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -15916,9 +16008,11 @@
       </c>
       <c r="D447" s="8"/>
       <c r="E447" s="8"/>
-      <c r="F447" s="8"/>
-    </row>
-    <row r="448" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F447" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="448" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -15929,10 +16023,12 @@
         <v>945</v>
       </c>
       <c r="D448" s="8"/>
-      <c r="E448" s="8"/>
+      <c r="E448" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F448" s="8"/>
     </row>
-    <row r="449" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -15943,10 +16039,12 @@
         <v>946</v>
       </c>
       <c r="D449" s="8"/>
-      <c r="E449" s="8"/>
+      <c r="E449" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F449" s="8"/>
     </row>
-    <row r="450" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -15957,10 +16055,12 @@
         <v>947</v>
       </c>
       <c r="D450" s="8"/>
-      <c r="E450" s="8"/>
+      <c r="E450" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F450" s="8"/>
     </row>
-    <row r="451" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -15971,10 +16071,12 @@
         <v>948</v>
       </c>
       <c r="D451" s="8"/>
-      <c r="E451" s="8"/>
+      <c r="E451" s="8" t="s">
+        <v>1021</v>
+      </c>
       <c r="F451" s="8"/>
     </row>
-    <row r="452" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -15986,9 +16088,11 @@
       </c>
       <c r="D452" s="8"/>
       <c r="E452" s="8"/>
-      <c r="F452" s="8"/>
-    </row>
-    <row r="453" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F452" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="453" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -16000,9 +16104,11 @@
       </c>
       <c r="D453" s="8"/>
       <c r="E453" s="8"/>
-      <c r="F453" s="8"/>
-    </row>
-    <row r="454" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F453" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="454" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -16014,9 +16120,11 @@
       </c>
       <c r="D454" s="8"/>
       <c r="E454" s="8"/>
-      <c r="F454" s="8"/>
-    </row>
-    <row r="455" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F454" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="455" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -16028,9 +16136,11 @@
       </c>
       <c r="D455" s="8"/>
       <c r="E455" s="8"/>
-      <c r="F455" s="8"/>
-    </row>
-    <row r="456" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="F455" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="456" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -16042,9 +16152,11 @@
       </c>
       <c r="D456" s="8"/>
       <c r="E456" s="8"/>
-      <c r="F456" s="8"/>
-    </row>
-    <row r="457" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F456" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="457" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -16056,9 +16168,11 @@
       </c>
       <c r="D457" s="8"/>
       <c r="E457" s="8"/>
-      <c r="F457" s="8"/>
-    </row>
-    <row r="458" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F457" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="458" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -16070,9 +16184,11 @@
       </c>
       <c r="D458" s="8"/>
       <c r="E458" s="8"/>
-      <c r="F458" s="8"/>
-    </row>
-    <row r="459" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="F458" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="459" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -16083,10 +16199,12 @@
         <v>956</v>
       </c>
       <c r="D459" s="8"/>
-      <c r="E459" s="8"/>
+      <c r="E459" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="F459" s="8"/>
     </row>
-    <row r="460" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -16098,9 +16216,11 @@
       </c>
       <c r="D460" s="8"/>
       <c r="E460" s="8"/>
-      <c r="F460" s="8"/>
-    </row>
-    <row r="461" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F460" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="461" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="6" t="s">
         <v>217</v>
       </c>
@@ -16114,7 +16234,7 @@
       <c r="E461" s="8"/>
       <c r="F461" s="8"/>
     </row>
-    <row r="462" spans="1:6" ht="85" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A462" s="6" t="s">
         <v>218</v>
       </c>
@@ -16128,7 +16248,7 @@
       <c r="E462" s="8"/>
       <c r="F462" s="8"/>
     </row>
-    <row r="463" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A463" s="6" t="s">
         <v>473</v>
       </c>
@@ -16142,7 +16262,7 @@
       <c r="E463" s="8"/>
       <c r="F463" s="8"/>
     </row>
-    <row r="464" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A464" s="6" t="s">
         <v>474</v>
       </c>
@@ -16156,7 +16276,7 @@
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
     </row>
-    <row r="465" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A465" s="6" t="s">
         <v>383</v>
       </c>
@@ -16170,7 +16290,7 @@
       <c r="E465" s="8"/>
       <c r="F465" s="8"/>
     </row>
-    <row r="466" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A466" s="6" t="s">
         <v>485</v>
       </c>
@@ -16184,7 +16304,7 @@
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
     </row>
-    <row r="467" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A467" s="6" t="s">
         <v>262</v>
       </c>
@@ -16198,7 +16318,7 @@
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
     </row>
-    <row r="468" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A468" s="6" t="s">
         <v>413</v>
       </c>
@@ -16212,7 +16332,7 @@
       <c r="E468" s="8"/>
       <c r="F468" s="8"/>
     </row>
-    <row r="469" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A469" s="6" t="s">
         <v>414</v>
       </c>
@@ -16226,7 +16346,7 @@
       <c r="E469" s="8"/>
       <c r="F469" s="8"/>
     </row>
-    <row r="470" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="6" t="s">
         <v>209</v>
       </c>
@@ -16240,7 +16360,7 @@
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
     </row>
-    <row r="471" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="6" t="s">
         <v>493</v>
       </c>
@@ -16254,7 +16374,7 @@
       <c r="E471" s="8"/>
       <c r="F471" s="8"/>
     </row>
-    <row r="472" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A472" s="6" t="s">
         <v>496</v>
       </c>
@@ -16268,7 +16388,7 @@
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
     </row>
-    <row r="473" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A473" s="6" t="s">
         <v>494</v>
       </c>
@@ -16282,7 +16402,7 @@
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
     </row>
-    <row r="474" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A474" s="6" t="s">
         <v>169</v>
       </c>
@@ -16296,7 +16416,7 @@
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
     </row>
-    <row r="475" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="6" t="s">
         <v>497</v>
       </c>
@@ -16310,7 +16430,7 @@
       <c r="E475" s="8"/>
       <c r="F475" s="8"/>
     </row>
-    <row r="476" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="6" t="s">
         <v>495</v>
       </c>
@@ -16324,7 +16444,7 @@
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
     </row>
-    <row r="477" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A477" s="6" t="s">
         <v>89</v>
       </c>
@@ -16338,7 +16458,7 @@
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
     </row>
-    <row r="478" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A478" s="6" t="s">
         <v>90</v>
       </c>
@@ -16352,7 +16472,7 @@
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
     </row>
-    <row r="479" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A479" s="6" t="s">
         <v>331</v>
       </c>
@@ -16366,7 +16486,7 @@
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
     </row>
-    <row r="480" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A480" s="6" t="s">
         <v>56</v>
       </c>
@@ -16380,7 +16500,7 @@
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
     </row>
-    <row r="481" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A481" s="6" t="s">
         <v>390</v>
       </c>
@@ -16394,7 +16514,7 @@
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
     </row>
-    <row r="482" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:6" ht="63" x14ac:dyDescent="0.25">
       <c r="A482" s="6" t="s">
         <v>492</v>
       </c>
@@ -16408,7 +16528,7 @@
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
     </row>
-    <row r="483" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A483" s="6" t="s">
         <v>67</v>
       </c>
@@ -16422,7 +16542,7 @@
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
     </row>
-    <row r="484" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="6" t="s">
         <v>452</v>
       </c>
@@ -16436,7 +16556,7 @@
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
     </row>
-    <row r="485" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="6" t="s">
         <v>453</v>
       </c>
@@ -16450,7 +16570,7 @@
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
     </row>
-    <row r="486" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A486" s="6" t="s">
         <v>378</v>
       </c>
@@ -16464,7 +16584,7 @@
       <c r="E486" s="8"/>
       <c r="F486" s="8"/>
     </row>
-    <row r="487" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A487" s="6" t="s">
         <v>249</v>
       </c>
@@ -16478,7 +16598,7 @@
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
     </row>
-    <row r="488" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A488" s="6" t="s">
         <v>94</v>
       </c>
@@ -16492,7 +16612,7 @@
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
     </row>
-    <row r="489" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A489" s="6" t="s">
         <v>92</v>
       </c>
@@ -16506,7 +16626,7 @@
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
     </row>
-    <row r="490" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A490" s="6" t="s">
         <v>93</v>
       </c>
@@ -16520,7 +16640,7 @@
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
     </row>
-    <row r="491" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A491" s="6" t="s">
         <v>91</v>
       </c>
@@ -16534,7 +16654,7 @@
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
     </row>
-    <row r="492" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A492" s="6" t="s">
         <v>96</v>
       </c>
@@ -16548,7 +16668,7 @@
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
     </row>
-    <row r="493" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A493" s="6" t="s">
         <v>95</v>
       </c>
@@ -16562,7 +16682,7 @@
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
     </row>
-    <row r="494" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A494" s="6" t="s">
         <v>250</v>
       </c>
@@ -16576,7 +16696,7 @@
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
     </row>
-    <row r="495" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A495" s="6" t="s">
         <v>391</v>
       </c>
@@ -16590,7 +16710,7 @@
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
     </row>
-    <row r="496" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="6" t="s">
         <v>504</v>
       </c>
@@ -16604,7 +16724,7 @@
       <c r="E496" s="8"/>
       <c r="F496" s="8"/>
     </row>
-    <row r="497" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="6" t="s">
         <v>374</v>
       </c>
@@ -16618,7 +16738,7 @@
       <c r="E497" s="8"/>
       <c r="F497" s="8"/>
     </row>
-    <row r="498" spans="1:6" ht="136" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:6" ht="126" x14ac:dyDescent="0.25">
       <c r="A498" s="6" t="s">
         <v>373</v>
       </c>
@@ -16632,7 +16752,7 @@
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
     </row>
-    <row r="499" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="6" t="s">
         <v>372</v>
       </c>
@@ -16646,7 +16766,7 @@
       <c r="E499" s="8"/>
       <c r="F499" s="8"/>
     </row>
-    <row r="500" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="6" t="s">
         <v>457</v>
       </c>
@@ -16660,7 +16780,7 @@
       <c r="E500" s="8"/>
       <c r="F500" s="8"/>
     </row>
-    <row r="501" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="6" t="s">
         <v>458</v>
       </c>
@@ -16674,7 +16794,7 @@
       <c r="E501" s="8"/>
       <c r="F501" s="8"/>
     </row>
-    <row r="502" spans="1:6" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="6" t="s">
         <v>190</v>
       </c>
@@ -16688,7 +16808,7 @@
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
     </row>
-    <row r="503" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A503" s="6" t="s">
         <v>191</v>
       </c>
@@ -16702,7 +16822,7 @@
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
     </row>
-    <row r="504" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A504" s="6" t="s">
         <v>163</v>
       </c>
@@ -16716,7 +16836,7 @@
       <c r="E504" s="8"/>
       <c r="F504" s="8"/>
     </row>
-    <row r="505" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A505" s="6" t="s">
         <v>329</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,42 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Wh\OneDrive\Dokumente\Studium\Fachsemester\7.Semester\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelvolz/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDBCF534-986F-4AE4-A68B-D227089FD63C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07DA047-2525-2248-8D4D-E3253B20290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19740" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1574" uniqueCount="1022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1093">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9062,6 +9051,198 @@
     <t>x</t>
   </si>
   <si>
+    <t>acos(x)</t>
+  </si>
+  <si>
+    <t>acosh(x)</t>
+  </si>
+  <si>
+    <t>cosh(x)</t>
+  </si>
+  <si>
+    <t>möglich aber unnötig ?</t>
+  </si>
+  <si>
+    <t>asin(x)</t>
+  </si>
+  <si>
+    <t>asinh(x)</t>
+  </si>
+  <si>
+    <t>atan(x)</t>
+  </si>
+  <si>
+    <t>möglich</t>
+  </si>
+  <si>
+    <t>ceil(x)</t>
+  </si>
+  <si>
+    <t>corr(xs; ys)</t>
+  </si>
+  <si>
+    <t>Berechnet den Korrelationskoeffizienten (Pearson) zweier gleichgroßer Vektoren</t>
+  </si>
+  <si>
+    <t>binom(n; p; k)</t>
+  </si>
+  <si>
+    <t>cos(x)</t>
+  </si>
+  <si>
+    <t>cov(xs; ys) ?</t>
+  </si>
+  <si>
+    <t>lg(x): Berechnet den Ln von x zur Basis 10</t>
+  </si>
+  <si>
+    <t>Die Gleichung der Kurve lautet
+y = b*m^X
+oder
+y = (b*(m1^x1)*(m2^x2)*_)
+Vorausgesetzt, es gibt mehrere x-Werte, wobei der abhängige y-Wert eine Funktion der unabhängigen x-Werte ist. Jeder m-Wert ist eine Basis, zu der ein entsprechender x-Wert als Exponent gehört, und b ist eine Konstante. Beachten Sie, dass y, x und m Vektoren sein können. Eine von RKP ausgegebene Matrix hat die Form {mn.mn-1 ... .m1.b}.</t>
+  </si>
+  <si>
+    <t>evtl. zu komplex?</t>
+  </si>
+  <si>
+    <t>evtl. möglich</t>
+  </si>
+  <si>
+    <t>zu komplex</t>
+  </si>
+  <si>
+    <t>LOGNORM.VERT(x;Mittelwert;Standabwn;Kumuliert)
+Die Syntax der Funktion LOGNORM.VERT weist die folgenden Argumente auf:
+x     Erforderlich. Der Wert, für den die Funktion ausgewertet werden soll
+Mittelwert     Erforderlich. Der Mittelwert der Lognormalverteilung
+Standabwn     Erforderlich. Die Standardabweichung der Lognormalverteilung
+Kumuliert     Erforderlich. Ein Wahrheitswert, der die Form der Funktion bestimmt. Ist Kumuliert mit WAHR begnen, gilt LOGNORM. DIST gibt die kumulierte Verteilungsfunktion zurück; Ist die Funktion FALSCH, wird die Dichtefunktion zurückgegeben.</t>
+  </si>
+  <si>
+    <t>zu komplex?</t>
+  </si>
+  <si>
+    <t>kann implementiert werden</t>
+  </si>
+  <si>
+    <t>Implementierung macht keinen Sinn für einen Taschenrechner</t>
+  </si>
+  <si>
+    <t>möglich, jedoch nicht Sinnvoll</t>
+  </si>
+  <si>
+    <t>kann implementiert werden, macht jedoch keinen Sinn für einen Taschenrechner</t>
+  </si>
+  <si>
+    <t>Implementierung ist nicht Sinnvoll (keine Funktion, die im Taschenrechner benötigt wird)</t>
+  </si>
+  <si>
+    <t>nicht Sinnvoll, außer wenn mit Matrizen gerechnet werden soll</t>
+  </si>
+  <si>
+    <t>nur bedingt Sinnvoll</t>
+  </si>
+  <si>
+    <t>Sinnvoll, kann implementiert werden durch Nutzung des Mittelwertes</t>
+  </si>
+  <si>
+    <t>nicht Sinnvoll</t>
+  </si>
+  <si>
+    <t>nur bedingt Sinnvoll, evtl schon durch die Inverse Formel abgedeckt</t>
+  </si>
+  <si>
+    <t>kann implementiert werden, jedoch komplex</t>
+  </si>
+  <si>
+    <t>kann implementiert werden, komplex</t>
+  </si>
+  <si>
+    <t>nur bedingt sinnvoll</t>
+  </si>
+  <si>
+    <t>eher nicht sinnvoll</t>
+  </si>
+  <si>
+    <t>komplex</t>
+  </si>
+  <si>
+    <t>max(v; ;,,) _ Gibt das Maximum aus allen übergebenen Werten zurück.</t>
+  </si>
+  <si>
+    <t>matrix:det(n)</t>
+  </si>
+  <si>
+    <t>Berechnet die Determinante einer Matrix</t>
+  </si>
+  <si>
+    <t>median(x; ;,,)</t>
+  </si>
+  <si>
+    <t>matrix:id(n)</t>
+  </si>
+  <si>
+    <t>Erzeugt eine n x n Einheitsmatrix</t>
+  </si>
+  <si>
+    <t>min(v; ;,,)</t>
+  </si>
+  <si>
+    <t>Gibt das Minimum aus allen übergebenen Werten zurück.</t>
+  </si>
+  <si>
+    <t>matrix:inverse(n)</t>
+  </si>
+  <si>
+    <t>Berechnet die inverse Matrix, falls diese existiert.</t>
+  </si>
+  <si>
+    <t>Möglich</t>
+  </si>
+  <si>
+    <t>Visualisierung</t>
+  </si>
+  <si>
+    <t>Möglich - Jedoch nicht für Trigonometrie?</t>
+  </si>
+  <si>
+    <t>Finanzmathematik</t>
+  </si>
+  <si>
+    <t>Möglich - Aber unnötig?</t>
+  </si>
+  <si>
+    <t>Bezug zu anderen Zeilen</t>
+  </si>
+  <si>
+    <t>lcm(a; b)</t>
+  </si>
+  <si>
+    <t>Unnötig</t>
+  </si>
+  <si>
+    <t>Möglich - Erweiterung zu obigen (Wdh)</t>
+  </si>
+  <si>
+    <t>Möglich - aber unnötig und zu komplex?</t>
+  </si>
+  <si>
+    <t>möglich - aber unnötig?</t>
+  </si>
+  <si>
+    <t>ln(x)</t>
+  </si>
+  <si>
+    <t>log(x; base)</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Erledigt</t>
+  </si>
+  <si>
     <t>Noch nicht vorhanden, allerdings machbar.</t>
   </si>
   <si>
@@ -9075,13 +9256,43 @@
   </si>
   <si>
     <t>Möglich wenn man z.B. zufällig eine Zahl ausgeben möchte, noch nicht vorhanden</t>
+  </si>
+  <si>
+    <t>möglich, aber wohl nicht sehr nützlich</t>
+  </si>
+  <si>
+    <t>gibt nur Zahlen, bzw. Variablen hinter denen Zahlen stecken</t>
+  </si>
+  <si>
+    <t>möglich, Zweck aber unklar</t>
+  </si>
+  <si>
+    <t>sqrt(x)</t>
+  </si>
+  <si>
+    <t>absoluter Klassiker</t>
+  </si>
+  <si>
+    <t>bisher keine Implementierung von Finanzrechnung in A~</t>
+  </si>
+  <si>
+    <t>sollte theoretisch ^ (caret) oder "XOR" sein, ist aber nicht implementiert, UND (&amp;) und ODER (|) vorhanden</t>
+  </si>
+  <si>
+    <t>Legacy</t>
+  </si>
+  <si>
+    <t>möglich, Standardumfang eines übliches TR</t>
+  </si>
+  <si>
+    <t>möglich, ähnlich Fakultät [math.: !; A~: fact(x)] bloß mit Abstand 2 statt 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -9142,20 +9353,41 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -9164,7 +9396,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9188,12 +9420,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Link" xfId="1" builtinId="8"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="9">
     <dxf>
       <font>
         <strike val="0"/>
@@ -9225,6 +9470,9 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9332,16 +9580,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:F505" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
-  <autoFilter ref="A1:F505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F505">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:G505" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:G505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G505">
     <sortCondition ref="A1:A505"/>
   </sortState>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{10428CB8-DF17-C24D-A8C2-8B4827E181B0}" name="Funktionsname" dataDxfId="5" dataCellStyle="Link"/>
-    <tableColumn id="2" xr3:uid="{98C1F64B-509E-934D-BBC9-297E60C938D9}" name="Team" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="2"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{10428CB8-DF17-C24D-A8C2-8B4827E181B0}" name="Funktionsname" dataDxfId="6" dataCellStyle="Link"/>
+    <tableColumn id="2" xr3:uid="{98C1F64B-509E-934D-BBC9-297E60C938D9}" name="Team" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{47391C81-2EA8-A148-8D5A-099836562F33}" name="Status" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{E7210489-D250-D545-A3A7-8B64CF95D33B}" name="Kommentar" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{2FB03DEE-9D86-E448-AC9D-37A85488B243}" name="Nicht möglich" dataDxfId="0"/>
   </tableColumns>
@@ -9646,22 +9895,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
-  <dimension ref="A1:H505"/>
+  <dimension ref="A1:I505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A509" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F453" sqref="F453"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C462" sqref="C462"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="44.875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="44.83203125" style="1" customWidth="1"/>
     <col min="2" max="2" width="28.5" customWidth="1"/>
-    <col min="3" max="3" width="37.375" customWidth="1"/>
-    <col min="4" max="5" width="26.125" customWidth="1"/>
-    <col min="6" max="6" width="17.875" customWidth="1"/>
+    <col min="3" max="3" width="100.6640625" customWidth="1"/>
+    <col min="4" max="6" width="26.1640625" customWidth="1"/>
+    <col min="7" max="7" width="17.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" s="2" customFormat="1" ht="36" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -9675,13 +9925,16 @@
         <v>1003</v>
       </c>
       <c r="E1" s="5" t="s">
+        <v>1076</v>
+      </c>
+      <c r="F1" s="5" t="s">
         <v>1004</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="5" t="s">
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -9695,14 +9948,17 @@
         <v>1008</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>1077</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>1006</v>
       </c>
-      <c r="F2" s="8"/>
-      <c r="H2" t="s">
+      <c r="G2" s="8"/>
+      <c r="I2" t="s">
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -9715,10 +9971,13 @@
       <c r="D3" s="8" t="s">
         <v>1009</v>
       </c>
-      <c r="E3" s="8"/>
+      <c r="E3" s="8" t="s">
+        <v>1077</v>
+      </c>
       <c r="F3" s="8"/>
-    </row>
-    <row r="4" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G3" s="8"/>
+    </row>
+    <row r="4" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -9729,12 +9988,15 @@
         <v>509</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8" t="s">
+      <c r="E4" s="8" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="8" t="s">
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -9747,8 +10009,11 @@
       <c r="D5" s="8"/>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
-    </row>
-    <row r="6" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G5" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -9761,8 +10026,11 @@
       <c r="D6" s="8"/>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
-    </row>
-    <row r="7" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G6" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -9775,8 +10043,11 @@
       <c r="D7" s="8"/>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
-    </row>
-    <row r="8" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -9789,8 +10060,11 @@
       <c r="D8" s="8"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
-    </row>
-    <row r="9" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G8" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -9803,8 +10077,11 @@
       <c r="D9" s="8"/>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
-    </row>
-    <row r="10" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G9" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -9817,8 +10094,11 @@
       <c r="D10" s="8"/>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
-    </row>
-    <row r="11" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G10" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -9831,8 +10111,11 @@
       <c r="D11" s="8"/>
       <c r="E11" s="8"/>
       <c r="F11" s="8"/>
-    </row>
-    <row r="12" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G11" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="34" x14ac:dyDescent="0.2">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -9845,8 +10128,11 @@
       <c r="D12" s="8"/>
       <c r="E12" s="8"/>
       <c r="F12" s="8"/>
-    </row>
-    <row r="13" spans="1:8" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="G12" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -9859,8 +10145,11 @@
       <c r="D13" s="8"/>
       <c r="E13" s="8"/>
       <c r="F13" s="8"/>
-    </row>
-    <row r="14" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G13" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -9870,11 +10159,14 @@
       <c r="C14" s="7" t="s">
         <v>519</v>
       </c>
-      <c r="D14" s="8"/>
+      <c r="D14" s="8" t="s">
+        <v>1017</v>
+      </c>
       <c r="E14" s="8"/>
       <c r="F14" s="8"/>
-    </row>
-    <row r="15" spans="1:8" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G14" s="8"/>
+    </row>
+    <row r="15" spans="1:9" ht="17" x14ac:dyDescent="0.2">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -9884,11 +10176,14 @@
       <c r="C15" s="7" t="s">
         <v>520</v>
       </c>
-      <c r="D15" s="8"/>
+      <c r="D15" s="8" t="s">
+        <v>1018</v>
+      </c>
       <c r="E15" s="8"/>
       <c r="F15" s="8"/>
-    </row>
-    <row r="16" spans="1:8" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G15" s="8"/>
+    </row>
+    <row r="16" spans="1:9" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -9900,9 +10195,12 @@
       </c>
       <c r="D16" s="8"/>
       <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F16" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -9914,9 +10212,12 @@
       </c>
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-    </row>
-    <row r="18" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F17" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G17" s="8"/>
+    </row>
+    <row r="18" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -9926,11 +10227,14 @@
       <c r="C18" s="7" t="s">
         <v>523</v>
       </c>
-      <c r="D18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>1021</v>
+      </c>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -9940,11 +10244,14 @@
       <c r="C19" s="7" t="s">
         <v>524</v>
       </c>
-      <c r="D19" s="8"/>
+      <c r="D19" s="8" t="s">
+        <v>1022</v>
+      </c>
       <c r="E19" s="8"/>
       <c r="F19" s="8"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="8"/>
+    </row>
+    <row r="20" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -9954,11 +10261,14 @@
       <c r="C20" s="7" t="s">
         <v>525</v>
       </c>
-      <c r="D20" s="8"/>
+      <c r="D20" s="8" t="s">
+        <v>1023</v>
+      </c>
       <c r="E20" s="8"/>
       <c r="F20" s="8"/>
-    </row>
-    <row r="21" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G20" s="8"/>
+    </row>
+    <row r="21" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -9970,9 +10280,12 @@
       </c>
       <c r="D21" s="8"/>
       <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-    </row>
-    <row r="22" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F21" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G21" s="8"/>
+    </row>
+    <row r="22" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -9984,9 +10297,12 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
-      <c r="F22" s="8"/>
-    </row>
-    <row r="23" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="F22" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G22" s="8"/>
+    </row>
+    <row r="23" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -9999,8 +10315,11 @@
       <c r="D23" s="8"/>
       <c r="E23" s="8"/>
       <c r="F23" s="8"/>
-    </row>
-    <row r="24" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G23" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -10013,8 +10332,11 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
-    </row>
-    <row r="25" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G24" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10027,8 +10349,11 @@
       <c r="D25" s="8"/>
       <c r="E25" s="8"/>
       <c r="F25" s="8"/>
-    </row>
-    <row r="26" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G25" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10041,8 +10366,11 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
       <c r="F26" s="8"/>
-    </row>
-    <row r="27" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G26" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10052,11 +10380,16 @@
       <c r="C27" s="7" t="s">
         <v>532</v>
       </c>
-      <c r="D27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>1025</v>
+      </c>
       <c r="E27" s="8"/>
-      <c r="F27" s="8"/>
-    </row>
-    <row r="28" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F27" s="8" t="s">
+        <v>1006</v>
+      </c>
+      <c r="G27" s="8"/>
+    </row>
+    <row r="28" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10069,8 +10402,11 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
-    </row>
-    <row r="29" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G28" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10083,8 +10419,11 @@
       <c r="D29" s="8"/>
       <c r="E29" s="8"/>
       <c r="F29" s="8"/>
-    </row>
-    <row r="30" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G29" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10097,8 +10436,11 @@
       <c r="D30" s="8"/>
       <c r="E30" s="8"/>
       <c r="F30" s="8"/>
-    </row>
-    <row r="31" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G30" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10111,8 +10453,11 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
       <c r="F31" s="8"/>
-    </row>
-    <row r="32" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G31" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10125,8 +10470,11 @@
       <c r="D32" s="8"/>
       <c r="E32" s="8"/>
       <c r="F32" s="8"/>
-    </row>
-    <row r="33" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G32" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10138,9 +10486,12 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-    </row>
-    <row r="34" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F33" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G33" s="8"/>
+    </row>
+    <row r="34" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10152,9 +10503,12 @@
       </c>
       <c r="D34" s="8"/>
       <c r="E34" s="8"/>
-      <c r="F34" s="8"/>
-    </row>
-    <row r="35" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F34" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G34" s="8"/>
+    </row>
+    <row r="35" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10166,9 +10520,12 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
-      <c r="F35" s="8"/>
-    </row>
-    <row r="36" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F35" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G35" s="8"/>
+    </row>
+    <row r="36" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10181,8 +10538,11 @@
       <c r="D36" s="8"/>
       <c r="E36" s="8"/>
       <c r="F36" s="8"/>
-    </row>
-    <row r="37" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G36" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10195,8 +10555,11 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
       <c r="F37" s="8"/>
-    </row>
-    <row r="38" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G37" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10209,8 +10572,11 @@
       <c r="D38" s="8"/>
       <c r="E38" s="8"/>
       <c r="F38" s="8"/>
-    </row>
-    <row r="39" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G38" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10223,8 +10589,11 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
       <c r="F39" s="8"/>
-    </row>
-    <row r="40" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G39" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10236,9 +10605,12 @@
       </c>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
-    </row>
-    <row r="41" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G40" s="8"/>
+    </row>
+    <row r="41" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10250,9 +10622,12 @@
       </c>
       <c r="D41" s="8"/>
       <c r="E41" s="8"/>
-      <c r="F41" s="8"/>
-    </row>
-    <row r="42" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F41" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G41" s="8"/>
+    </row>
+    <row r="42" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10264,9 +10639,12 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
-      <c r="F42" s="8"/>
-    </row>
-    <row r="43" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="F42" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G42" s="8"/>
+    </row>
+    <row r="43" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10279,8 +10657,11 @@
       <c r="D43" s="8"/>
       <c r="E43" s="8"/>
       <c r="F43" s="8"/>
-    </row>
-    <row r="44" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G43" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -10290,11 +10671,14 @@
       <c r="C44" s="7" t="s">
         <v>549</v>
       </c>
-      <c r="D44" s="8"/>
+      <c r="D44" s="8" t="s">
+        <v>1028</v>
+      </c>
       <c r="E44" s="8"/>
       <c r="F44" s="8"/>
-    </row>
-    <row r="45" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G44" s="8"/>
+    </row>
+    <row r="45" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -10307,8 +10691,11 @@
       <c r="D45" s="8"/>
       <c r="E45" s="8"/>
       <c r="F45" s="8"/>
-    </row>
-    <row r="46" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G45" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -10318,11 +10705,14 @@
       <c r="C46" s="7" t="s">
         <v>551</v>
       </c>
-      <c r="D46" s="8"/>
+      <c r="D46" s="8" t="s">
+        <v>1028</v>
+      </c>
       <c r="E46" s="8"/>
       <c r="F46" s="8"/>
-    </row>
-    <row r="47" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G46" s="8"/>
+    </row>
+    <row r="47" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -10335,8 +10725,11 @@
       <c r="D47" s="8"/>
       <c r="E47" s="8"/>
       <c r="F47" s="8"/>
-    </row>
-    <row r="48" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G47" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -10349,8 +10742,11 @@
       <c r="D48" s="8"/>
       <c r="E48" s="8"/>
       <c r="F48" s="8"/>
-    </row>
-    <row r="49" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G48" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -10363,8 +10759,11 @@
       <c r="D49" s="8"/>
       <c r="E49" s="8"/>
       <c r="F49" s="8"/>
-    </row>
-    <row r="50" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G49" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -10377,8 +10776,11 @@
       <c r="D50" s="8"/>
       <c r="E50" s="8"/>
       <c r="F50" s="8"/>
-    </row>
-    <row r="51" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G50" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -10391,8 +10793,11 @@
       <c r="D51" s="8"/>
       <c r="E51" s="8"/>
       <c r="F51" s="8"/>
-    </row>
-    <row r="52" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G51" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -10405,8 +10810,11 @@
       <c r="D52" s="8"/>
       <c r="E52" s="8"/>
       <c r="F52" s="8"/>
-    </row>
-    <row r="53" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G52" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -10419,8 +10827,11 @@
       <c r="D53" s="8"/>
       <c r="E53" s="8"/>
       <c r="F53" s="8"/>
-    </row>
-    <row r="54" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G53" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -10432,9 +10843,12 @@
       </c>
       <c r="D54" s="8"/>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
-    </row>
-    <row r="55" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F54" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G54" s="8"/>
+    </row>
+    <row r="55" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -10447,8 +10861,11 @@
       <c r="D55" s="8"/>
       <c r="E55" s="8"/>
       <c r="F55" s="8"/>
-    </row>
-    <row r="56" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G55" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -10461,8 +10878,11 @@
       <c r="D56" s="8"/>
       <c r="E56" s="8"/>
       <c r="F56" s="8"/>
-    </row>
-    <row r="57" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G56" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -10475,8 +10895,11 @@
       <c r="D57" s="8"/>
       <c r="E57" s="8"/>
       <c r="F57" s="8"/>
-    </row>
-    <row r="58" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -10488,9 +10911,12 @@
       </c>
       <c r="D58" s="8"/>
       <c r="E58" s="8"/>
-      <c r="F58" s="8"/>
-    </row>
-    <row r="59" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F58" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G58" s="8"/>
+    </row>
+    <row r="59" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -10503,8 +10929,11 @@
       <c r="D59" s="8"/>
       <c r="E59" s="8"/>
       <c r="F59" s="8"/>
-    </row>
-    <row r="60" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G59" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -10517,8 +10946,11 @@
       <c r="D60" s="8"/>
       <c r="E60" s="8"/>
       <c r="F60" s="8"/>
-    </row>
-    <row r="61" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G60" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -10531,8 +10963,11 @@
       <c r="D61" s="8"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
-    </row>
-    <row r="62" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G61" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -10545,8 +10980,11 @@
       <c r="D62" s="8"/>
       <c r="E62" s="8"/>
       <c r="F62" s="8"/>
-    </row>
-    <row r="63" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G62" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -10559,8 +10997,11 @@
       <c r="D63" s="8"/>
       <c r="E63" s="8"/>
       <c r="F63" s="8"/>
-    </row>
-    <row r="64" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G63" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -10573,8 +11014,11 @@
       <c r="D64" s="8"/>
       <c r="E64" s="8"/>
       <c r="F64" s="8"/>
-    </row>
-    <row r="65" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G64" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -10587,8 +11031,11 @@
       <c r="D65" s="8"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
-    </row>
-    <row r="66" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G65" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -10601,8 +11048,11 @@
       <c r="D66" s="8"/>
       <c r="E66" s="8"/>
       <c r="F66" s="8"/>
-    </row>
-    <row r="67" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G66" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -10615,8 +11065,11 @@
       <c r="D67" s="8"/>
       <c r="E67" s="8"/>
       <c r="F67" s="8"/>
-    </row>
-    <row r="68" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G67" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -10629,8 +11082,11 @@
       <c r="D68" s="8"/>
       <c r="E68" s="8"/>
       <c r="F68" s="8"/>
-    </row>
-    <row r="69" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G68" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -10643,8 +11099,11 @@
       <c r="D69" s="8"/>
       <c r="E69" s="8"/>
       <c r="F69" s="8"/>
-    </row>
-    <row r="70" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G69" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -10654,11 +11113,16 @@
       <c r="C70" s="7" t="s">
         <v>574</v>
       </c>
-      <c r="D70" s="8"/>
+      <c r="D70" s="8" t="s">
+        <v>1026</v>
+      </c>
       <c r="E70" s="8"/>
-      <c r="F70" s="8"/>
-    </row>
-    <row r="71" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F70" s="8" t="s">
+        <v>1027</v>
+      </c>
+      <c r="G70" s="8"/>
+    </row>
+    <row r="71" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -10668,11 +11132,14 @@
       <c r="C71" s="7" t="s">
         <v>575</v>
       </c>
-      <c r="D71" s="8"/>
+      <c r="D71" s="8" t="s">
+        <v>1029</v>
+      </c>
       <c r="E71" s="8"/>
       <c r="F71" s="8"/>
-    </row>
-    <row r="72" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G71" s="8"/>
+    </row>
+    <row r="72" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -10684,9 +11151,12 @@
       </c>
       <c r="D72" s="8"/>
       <c r="E72" s="8"/>
-      <c r="F72" s="8"/>
-    </row>
-    <row r="73" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F72" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G72" s="8"/>
+    </row>
+    <row r="73" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -10698,9 +11168,12 @@
       </c>
       <c r="D73" s="8"/>
       <c r="E73" s="8"/>
-      <c r="F73" s="8"/>
-    </row>
-    <row r="74" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F73" s="8" t="s">
+        <v>1020</v>
+      </c>
+      <c r="G73" s="8"/>
+    </row>
+    <row r="74" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -10710,11 +11183,14 @@
       <c r="C74" s="7" t="s">
         <v>578</v>
       </c>
-      <c r="D74" s="8"/>
+      <c r="D74" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="E74" s="8"/>
       <c r="F74" s="8"/>
-    </row>
-    <row r="75" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G74" s="8"/>
+    </row>
+    <row r="75" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -10724,11 +11200,14 @@
       <c r="C75" s="7" t="s">
         <v>579</v>
       </c>
-      <c r="D75" s="8"/>
+      <c r="D75" s="8" t="s">
+        <v>1019</v>
+      </c>
       <c r="E75" s="8"/>
       <c r="F75" s="8"/>
-    </row>
-    <row r="76" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G75" s="8"/>
+    </row>
+    <row r="76" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -10740,9 +11219,12 @@
       </c>
       <c r="D76" s="8"/>
       <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
-    </row>
-    <row r="77" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F76" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G76" s="8"/>
+    </row>
+    <row r="77" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -10752,11 +11234,14 @@
       <c r="C77" s="7" t="s">
         <v>581</v>
       </c>
-      <c r="D77" s="8"/>
+      <c r="D77" s="8" t="s">
+        <v>1030</v>
+      </c>
       <c r="E77" s="8"/>
       <c r="F77" s="8"/>
-    </row>
-    <row r="78" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G77" s="8"/>
+    </row>
+    <row r="78" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -10766,11 +11251,14 @@
       <c r="C78" s="7" t="s">
         <v>582</v>
       </c>
-      <c r="D78" s="8"/>
+      <c r="D78" s="8" t="s">
+        <v>1030</v>
+      </c>
       <c r="E78" s="8"/>
       <c r="F78" s="8"/>
-    </row>
-    <row r="79" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G78" s="8"/>
+    </row>
+    <row r="79" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -10783,8 +11271,11 @@
       <c r="D79" s="8"/>
       <c r="E79" s="8"/>
       <c r="F79" s="8"/>
-    </row>
-    <row r="80" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G79" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -10797,8 +11288,11 @@
       <c r="D80" s="8"/>
       <c r="E80" s="8"/>
       <c r="F80" s="8"/>
-    </row>
-    <row r="81" spans="1:6" ht="141.75" x14ac:dyDescent="0.25">
+      <c r="G80" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -10811,8 +11305,11 @@
       <c r="D81" s="8"/>
       <c r="E81" s="8"/>
       <c r="F81" s="8"/>
-    </row>
-    <row r="82" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G81" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -10825,8 +11322,11 @@
       <c r="D82" s="8"/>
       <c r="E82" s="8"/>
       <c r="F82" s="8"/>
-    </row>
-    <row r="83" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="G82" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -10839,8 +11339,11 @@
       <c r="D83" s="8"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
-    </row>
-    <row r="84" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G83" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -10853,8 +11356,11 @@
       <c r="D84" s="8"/>
       <c r="E84" s="8"/>
       <c r="F84" s="8"/>
-    </row>
-    <row r="85" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="G84" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -10867,8 +11373,11 @@
       <c r="D85" s="8"/>
       <c r="E85" s="8"/>
       <c r="F85" s="8"/>
-    </row>
-    <row r="86" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G85" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -10881,8 +11390,11 @@
       <c r="D86" s="8"/>
       <c r="E86" s="8"/>
       <c r="F86" s="8"/>
-    </row>
-    <row r="87" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G86" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -10895,8 +11407,11 @@
       <c r="D87" s="8"/>
       <c r="E87" s="8"/>
       <c r="F87" s="8"/>
-    </row>
-    <row r="88" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G87" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -10908,9 +11423,12 @@
       </c>
       <c r="D88" s="8"/>
       <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
-    </row>
-    <row r="89" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F88" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G88" s="8"/>
+    </row>
+    <row r="89" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -10923,8 +11441,11 @@
       <c r="D89" s="8"/>
       <c r="E89" s="8"/>
       <c r="F89" s="8"/>
-    </row>
-    <row r="90" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G89" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -10937,8 +11458,11 @@
       <c r="D90" s="8"/>
       <c r="E90" s="8"/>
       <c r="F90" s="8"/>
-    </row>
-    <row r="91" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G90" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -10951,8 +11475,11 @@
       <c r="D91" s="8"/>
       <c r="E91" s="8"/>
       <c r="F91" s="8"/>
-    </row>
-    <row r="92" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G91" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -10965,8 +11492,11 @@
       <c r="D92" s="8"/>
       <c r="E92" s="8"/>
       <c r="F92" s="8"/>
-    </row>
-    <row r="93" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G92" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -10979,8 +11509,11 @@
       <c r="D93" s="8"/>
       <c r="E93" s="8"/>
       <c r="F93" s="8"/>
-    </row>
-    <row r="94" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G93" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -10993,8 +11526,11 @@
       <c r="D94" s="8"/>
       <c r="E94" s="8"/>
       <c r="F94" s="8"/>
-    </row>
-    <row r="95" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G94" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -11007,8 +11543,11 @@
       <c r="D95" s="8"/>
       <c r="E95" s="8"/>
       <c r="F95" s="8"/>
-    </row>
-    <row r="96" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G95" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -11021,8 +11560,11 @@
       <c r="D96" s="8"/>
       <c r="E96" s="8"/>
       <c r="F96" s="8"/>
-    </row>
-    <row r="97" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G96" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -11035,8 +11577,11 @@
       <c r="D97" s="8"/>
       <c r="E97" s="8"/>
       <c r="F97" s="8"/>
-    </row>
-    <row r="98" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -11049,8 +11594,11 @@
       <c r="D98" s="8"/>
       <c r="E98" s="8"/>
       <c r="F98" s="8"/>
-    </row>
-    <row r="99" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G98" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -11063,8 +11611,11 @@
       <c r="D99" s="8"/>
       <c r="E99" s="8"/>
       <c r="F99" s="8"/>
-    </row>
-    <row r="100" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G99" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -11077,8 +11628,11 @@
       <c r="D100" s="8"/>
       <c r="E100" s="8"/>
       <c r="F100" s="8"/>
-    </row>
-    <row r="101" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G100" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -11091,8 +11645,11 @@
       <c r="D101" s="8"/>
       <c r="E101" s="8"/>
       <c r="F101" s="8"/>
-    </row>
-    <row r="102" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G101" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -11105,8 +11662,9 @@
       <c r="D102" s="8"/>
       <c r="E102" s="8"/>
       <c r="F102" s="8"/>
-    </row>
-    <row r="103" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G102" s="8"/>
+    </row>
+    <row r="103" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -11119,8 +11677,9 @@
       <c r="D103" s="8"/>
       <c r="E103" s="8"/>
       <c r="F103" s="8"/>
-    </row>
-    <row r="104" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G103" s="8"/>
+    </row>
+    <row r="104" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -11133,8 +11692,9 @@
       <c r="D104" s="8"/>
       <c r="E104" s="8"/>
       <c r="F104" s="8"/>
-    </row>
-    <row r="105" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G104" s="8"/>
+    </row>
+    <row r="105" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -11147,8 +11707,9 @@
       <c r="D105" s="8"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
-    </row>
-    <row r="106" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G105" s="8"/>
+    </row>
+    <row r="106" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -11161,8 +11722,9 @@
       <c r="D106" s="8"/>
       <c r="E106" s="8"/>
       <c r="F106" s="8"/>
-    </row>
-    <row r="107" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G106" s="8"/>
+    </row>
+    <row r="107" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -11175,8 +11737,9 @@
       <c r="D107" s="8"/>
       <c r="E107" s="8"/>
       <c r="F107" s="8"/>
-    </row>
-    <row r="108" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G107" s="8"/>
+    </row>
+    <row r="108" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -11189,8 +11752,9 @@
       <c r="D108" s="8"/>
       <c r="E108" s="8"/>
       <c r="F108" s="8"/>
-    </row>
-    <row r="109" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G108" s="8"/>
+    </row>
+    <row r="109" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -11203,8 +11767,9 @@
       <c r="D109" s="8"/>
       <c r="E109" s="8"/>
       <c r="F109" s="8"/>
-    </row>
-    <row r="110" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G109" s="8"/>
+    </row>
+    <row r="110" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -11217,8 +11782,9 @@
       <c r="D110" s="8"/>
       <c r="E110" s="8"/>
       <c r="F110" s="8"/>
-    </row>
-    <row r="111" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G110" s="8"/>
+    </row>
+    <row r="111" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -11231,8 +11797,9 @@
       <c r="D111" s="8"/>
       <c r="E111" s="8"/>
       <c r="F111" s="8"/>
-    </row>
-    <row r="112" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G111" s="8"/>
+    </row>
+    <row r="112" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -11245,8 +11812,9 @@
       <c r="D112" s="8"/>
       <c r="E112" s="8"/>
       <c r="F112" s="8"/>
-    </row>
-    <row r="113" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G112" s="8"/>
+    </row>
+    <row r="113" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -11259,8 +11827,9 @@
       <c r="D113" s="8"/>
       <c r="E113" s="8"/>
       <c r="F113" s="8"/>
-    </row>
-    <row r="114" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G113" s="8"/>
+    </row>
+    <row r="114" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -11273,8 +11842,9 @@
       <c r="D114" s="8"/>
       <c r="E114" s="8"/>
       <c r="F114" s="8"/>
-    </row>
-    <row r="115" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G114" s="8"/>
+    </row>
+    <row r="115" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -11287,8 +11857,9 @@
       <c r="D115" s="8"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
-    </row>
-    <row r="116" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G115" s="8"/>
+    </row>
+    <row r="116" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -11301,8 +11872,9 @@
       <c r="D116" s="8"/>
       <c r="E116" s="8"/>
       <c r="F116" s="8"/>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G116" s="8"/>
+    </row>
+    <row r="117" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -11315,8 +11887,9 @@
       <c r="D117" s="8"/>
       <c r="E117" s="8"/>
       <c r="F117" s="8"/>
-    </row>
-    <row r="118" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G117" s="8"/>
+    </row>
+    <row r="118" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -11329,8 +11902,9 @@
       <c r="D118" s="8"/>
       <c r="E118" s="8"/>
       <c r="F118" s="8"/>
-    </row>
-    <row r="119" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G118" s="8"/>
+    </row>
+    <row r="119" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -11343,8 +11917,9 @@
       <c r="D119" s="8"/>
       <c r="E119" s="8"/>
       <c r="F119" s="8"/>
-    </row>
-    <row r="120" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G119" s="8"/>
+    </row>
+    <row r="120" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -11357,8 +11932,9 @@
       <c r="D120" s="8"/>
       <c r="E120" s="8"/>
       <c r="F120" s="8"/>
-    </row>
-    <row r="121" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G120" s="8"/>
+    </row>
+    <row r="121" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -11371,8 +11947,9 @@
       <c r="D121" s="8"/>
       <c r="E121" s="8"/>
       <c r="F121" s="8"/>
-    </row>
-    <row r="122" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G121" s="8"/>
+    </row>
+    <row r="122" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -11385,8 +11962,9 @@
       <c r="D122" s="8"/>
       <c r="E122" s="8"/>
       <c r="F122" s="8"/>
-    </row>
-    <row r="123" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G122" s="8"/>
+    </row>
+    <row r="123" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -11399,8 +11977,9 @@
       <c r="D123" s="8"/>
       <c r="E123" s="8"/>
       <c r="F123" s="8"/>
-    </row>
-    <row r="124" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G123" s="8"/>
+    </row>
+    <row r="124" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -11413,8 +11992,9 @@
       <c r="D124" s="8"/>
       <c r="E124" s="8"/>
       <c r="F124" s="8"/>
-    </row>
-    <row r="125" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G124" s="8"/>
+    </row>
+    <row r="125" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -11427,8 +12007,9 @@
       <c r="D125" s="8"/>
       <c r="E125" s="8"/>
       <c r="F125" s="8"/>
-    </row>
-    <row r="126" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G125" s="8"/>
+    </row>
+    <row r="126" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -11441,8 +12022,9 @@
       <c r="D126" s="8"/>
       <c r="E126" s="8"/>
       <c r="F126" s="8"/>
-    </row>
-    <row r="127" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G126" s="8"/>
+    </row>
+    <row r="127" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -11455,8 +12037,9 @@
       <c r="D127" s="8"/>
       <c r="E127" s="8"/>
       <c r="F127" s="8"/>
-    </row>
-    <row r="128" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G127" s="8"/>
+    </row>
+    <row r="128" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -11469,8 +12052,9 @@
       <c r="D128" s="8"/>
       <c r="E128" s="8"/>
       <c r="F128" s="8"/>
-    </row>
-    <row r="129" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G128" s="8"/>
+    </row>
+    <row r="129" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -11483,8 +12067,9 @@
       <c r="D129" s="8"/>
       <c r="E129" s="8"/>
       <c r="F129" s="8"/>
-    </row>
-    <row r="130" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G129" s="8"/>
+    </row>
+    <row r="130" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -11497,8 +12082,9 @@
       <c r="D130" s="8"/>
       <c r="E130" s="8"/>
       <c r="F130" s="8"/>
-    </row>
-    <row r="131" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G130" s="8"/>
+    </row>
+    <row r="131" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -11511,8 +12097,9 @@
       <c r="D131" s="8"/>
       <c r="E131" s="8"/>
       <c r="F131" s="8"/>
-    </row>
-    <row r="132" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G131" s="8"/>
+    </row>
+    <row r="132" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -11525,8 +12112,9 @@
       <c r="D132" s="8"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
-    </row>
-    <row r="133" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G132" s="8"/>
+    </row>
+    <row r="133" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -11539,8 +12127,9 @@
       <c r="D133" s="8"/>
       <c r="E133" s="8"/>
       <c r="F133" s="8"/>
-    </row>
-    <row r="134" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G133" s="8"/>
+    </row>
+    <row r="134" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -11553,8 +12142,9 @@
       <c r="D134" s="8"/>
       <c r="E134" s="8"/>
       <c r="F134" s="8"/>
-    </row>
-    <row r="135" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G134" s="8"/>
+    </row>
+    <row r="135" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -11567,8 +12157,9 @@
       <c r="D135" s="8"/>
       <c r="E135" s="8"/>
       <c r="F135" s="8"/>
-    </row>
-    <row r="136" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G135" s="8"/>
+    </row>
+    <row r="136" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -11581,8 +12172,9 @@
       <c r="D136" s="8"/>
       <c r="E136" s="8"/>
       <c r="F136" s="8"/>
-    </row>
-    <row r="137" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G136" s="8"/>
+    </row>
+    <row r="137" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -11595,8 +12187,9 @@
       <c r="D137" s="8"/>
       <c r="E137" s="8"/>
       <c r="F137" s="8"/>
-    </row>
-    <row r="138" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G137" s="8"/>
+    </row>
+    <row r="138" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -11609,8 +12202,9 @@
       <c r="D138" s="8"/>
       <c r="E138" s="8"/>
       <c r="F138" s="8"/>
-    </row>
-    <row r="139" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G138" s="8"/>
+    </row>
+    <row r="139" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -11623,8 +12217,9 @@
       <c r="D139" s="8"/>
       <c r="E139" s="8"/>
       <c r="F139" s="8"/>
-    </row>
-    <row r="140" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G139" s="8"/>
+    </row>
+    <row r="140" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -11637,8 +12232,9 @@
       <c r="D140" s="8"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
-    </row>
-    <row r="141" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G140" s="8"/>
+    </row>
+    <row r="141" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -11651,8 +12247,9 @@
       <c r="D141" s="8"/>
       <c r="E141" s="8"/>
       <c r="F141" s="8"/>
-    </row>
-    <row r="142" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G141" s="8"/>
+    </row>
+    <row r="142" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -11665,8 +12262,9 @@
       <c r="D142" s="8"/>
       <c r="E142" s="8"/>
       <c r="F142" s="8"/>
-    </row>
-    <row r="143" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G142" s="8"/>
+    </row>
+    <row r="143" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -11679,8 +12277,9 @@
       <c r="D143" s="8"/>
       <c r="E143" s="8"/>
       <c r="F143" s="8"/>
-    </row>
-    <row r="144" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G143" s="8"/>
+    </row>
+    <row r="144" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -11693,8 +12292,9 @@
       <c r="D144" s="8"/>
       <c r="E144" s="8"/>
       <c r="F144" s="8"/>
-    </row>
-    <row r="145" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G144" s="8"/>
+    </row>
+    <row r="145" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -11707,8 +12307,9 @@
       <c r="D145" s="8"/>
       <c r="E145" s="8"/>
       <c r="F145" s="8"/>
-    </row>
-    <row r="146" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G145" s="8"/>
+    </row>
+    <row r="146" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -11721,8 +12322,9 @@
       <c r="D146" s="8"/>
       <c r="E146" s="8"/>
       <c r="F146" s="8"/>
-    </row>
-    <row r="147" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G146" s="8"/>
+    </row>
+    <row r="147" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -11735,8 +12337,9 @@
       <c r="D147" s="8"/>
       <c r="E147" s="8"/>
       <c r="F147" s="8"/>
-    </row>
-    <row r="148" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G147" s="8"/>
+    </row>
+    <row r="148" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -11749,8 +12352,9 @@
       <c r="D148" s="8"/>
       <c r="E148" s="8"/>
       <c r="F148" s="8"/>
-    </row>
-    <row r="149" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G148" s="8"/>
+    </row>
+    <row r="149" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -11763,8 +12367,9 @@
       <c r="D149" s="8"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
-    </row>
-    <row r="150" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G149" s="8"/>
+    </row>
+    <row r="150" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -11777,8 +12382,9 @@
       <c r="D150" s="8"/>
       <c r="E150" s="8"/>
       <c r="F150" s="8"/>
-    </row>
-    <row r="151" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G150" s="8"/>
+    </row>
+    <row r="151" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -11791,8 +12397,9 @@
       <c r="D151" s="8"/>
       <c r="E151" s="8"/>
       <c r="F151" s="8"/>
-    </row>
-    <row r="152" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G151" s="8"/>
+    </row>
+    <row r="152" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -11805,8 +12412,9 @@
       <c r="D152" s="8"/>
       <c r="E152" s="8"/>
       <c r="F152" s="8"/>
-    </row>
-    <row r="153" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G152" s="8"/>
+    </row>
+    <row r="153" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -11819,8 +12427,9 @@
       <c r="D153" s="8"/>
       <c r="E153" s="8"/>
       <c r="F153" s="8"/>
-    </row>
-    <row r="154" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G153" s="8"/>
+    </row>
+    <row r="154" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -11833,8 +12442,9 @@
       <c r="D154" s="8"/>
       <c r="E154" s="8"/>
       <c r="F154" s="8"/>
-    </row>
-    <row r="155" spans="1:6" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="G154" s="8"/>
+    </row>
+    <row r="155" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -11847,8 +12457,9 @@
       <c r="D155" s="8"/>
       <c r="E155" s="8"/>
       <c r="F155" s="8"/>
-    </row>
-    <row r="156" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G155" s="8"/>
+    </row>
+    <row r="156" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -11861,8 +12472,9 @@
       <c r="D156" s="8"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
-    </row>
-    <row r="157" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G156" s="8"/>
+    </row>
+    <row r="157" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -11875,8 +12487,9 @@
       <c r="D157" s="8"/>
       <c r="E157" s="8"/>
       <c r="F157" s="8"/>
-    </row>
-    <row r="158" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G157" s="8"/>
+    </row>
+    <row r="158" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -11889,8 +12502,9 @@
       <c r="D158" s="8"/>
       <c r="E158" s="8"/>
       <c r="F158" s="8"/>
-    </row>
-    <row r="159" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G158" s="8"/>
+    </row>
+    <row r="159" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -11903,8 +12517,9 @@
       <c r="D159" s="8"/>
       <c r="E159" s="8"/>
       <c r="F159" s="8"/>
-    </row>
-    <row r="160" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G159" s="8"/>
+    </row>
+    <row r="160" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -11917,8 +12532,9 @@
       <c r="D160" s="8"/>
       <c r="E160" s="8"/>
       <c r="F160" s="8"/>
-    </row>
-    <row r="161" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G160" s="8"/>
+    </row>
+    <row r="161" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -11931,8 +12547,9 @@
       <c r="D161" s="8"/>
       <c r="E161" s="8"/>
       <c r="F161" s="8"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G161" s="8"/>
+    </row>
+    <row r="162" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -11945,8 +12562,9 @@
       <c r="D162" s="8"/>
       <c r="E162" s="8"/>
       <c r="F162" s="8"/>
-    </row>
-    <row r="163" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G162" s="8"/>
+    </row>
+    <row r="163" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -11959,8 +12577,9 @@
       <c r="D163" s="8"/>
       <c r="E163" s="8"/>
       <c r="F163" s="8"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G163" s="8"/>
+    </row>
+    <row r="164" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -11973,8 +12592,9 @@
       <c r="D164" s="8"/>
       <c r="E164" s="8"/>
       <c r="F164" s="8"/>
-    </row>
-    <row r="165" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G164" s="8"/>
+    </row>
+    <row r="165" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -11987,8 +12607,9 @@
       <c r="D165" s="8"/>
       <c r="E165" s="8"/>
       <c r="F165" s="8"/>
-    </row>
-    <row r="166" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G165" s="8"/>
+    </row>
+    <row r="166" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -12001,8 +12622,9 @@
       <c r="D166" s="8"/>
       <c r="E166" s="8"/>
       <c r="F166" s="8"/>
-    </row>
-    <row r="167" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G166" s="8"/>
+    </row>
+    <row r="167" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -12015,8 +12637,9 @@
       <c r="D167" s="8"/>
       <c r="E167" s="8"/>
       <c r="F167" s="8"/>
-    </row>
-    <row r="168" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G167" s="8"/>
+    </row>
+    <row r="168" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -12029,8 +12652,9 @@
       <c r="D168" s="8"/>
       <c r="E168" s="8"/>
       <c r="F168" s="8"/>
-    </row>
-    <row r="169" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G168" s="8"/>
+    </row>
+    <row r="169" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -12043,8 +12667,9 @@
       <c r="D169" s="8"/>
       <c r="E169" s="8"/>
       <c r="F169" s="8"/>
-    </row>
-    <row r="170" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G169" s="8"/>
+    </row>
+    <row r="170" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -12057,8 +12682,9 @@
       <c r="D170" s="8"/>
       <c r="E170" s="8"/>
       <c r="F170" s="8"/>
-    </row>
-    <row r="171" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G170" s="8"/>
+    </row>
+    <row r="171" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -12071,8 +12697,9 @@
       <c r="D171" s="8"/>
       <c r="E171" s="8"/>
       <c r="F171" s="8"/>
-    </row>
-    <row r="172" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G171" s="8"/>
+    </row>
+    <row r="172" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -12085,8 +12712,9 @@
       <c r="D172" s="8"/>
       <c r="E172" s="8"/>
       <c r="F172" s="8"/>
-    </row>
-    <row r="173" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G172" s="8"/>
+    </row>
+    <row r="173" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -12099,8 +12727,9 @@
       <c r="D173" s="8"/>
       <c r="E173" s="8"/>
       <c r="F173" s="8"/>
-    </row>
-    <row r="174" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G173" s="8"/>
+    </row>
+    <row r="174" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -12113,8 +12742,9 @@
       <c r="D174" s="8"/>
       <c r="E174" s="8"/>
       <c r="F174" s="8"/>
-    </row>
-    <row r="175" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G174" s="8"/>
+    </row>
+    <row r="175" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -12127,8 +12757,9 @@
       <c r="D175" s="8"/>
       <c r="E175" s="8"/>
       <c r="F175" s="8"/>
-    </row>
-    <row r="176" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G175" s="8"/>
+    </row>
+    <row r="176" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -12141,8 +12772,9 @@
       <c r="D176" s="8"/>
       <c r="E176" s="8"/>
       <c r="F176" s="8"/>
-    </row>
-    <row r="177" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G176" s="8"/>
+    </row>
+    <row r="177" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -12155,8 +12787,9 @@
       <c r="D177" s="8"/>
       <c r="E177" s="8"/>
       <c r="F177" s="8"/>
-    </row>
-    <row r="178" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G177" s="8"/>
+    </row>
+    <row r="178" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -12169,8 +12802,9 @@
       <c r="D178" s="8"/>
       <c r="E178" s="8"/>
       <c r="F178" s="8"/>
-    </row>
-    <row r="179" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G178" s="8"/>
+    </row>
+    <row r="179" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -12183,8 +12817,9 @@
       <c r="D179" s="8"/>
       <c r="E179" s="8"/>
       <c r="F179" s="8"/>
-    </row>
-    <row r="180" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G179" s="8"/>
+    </row>
+    <row r="180" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -12197,8 +12832,9 @@
       <c r="D180" s="8"/>
       <c r="E180" s="8"/>
       <c r="F180" s="8"/>
-    </row>
-    <row r="181" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G180" s="8"/>
+    </row>
+    <row r="181" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -12211,8 +12847,9 @@
       <c r="D181" s="8"/>
       <c r="E181" s="8"/>
       <c r="F181" s="8"/>
-    </row>
-    <row r="182" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G181" s="8"/>
+    </row>
+    <row r="182" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -12225,8 +12862,9 @@
       <c r="D182" s="8"/>
       <c r="E182" s="8"/>
       <c r="F182" s="8"/>
-    </row>
-    <row r="183" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G182" s="8"/>
+    </row>
+    <row r="183" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -12239,8 +12877,9 @@
       <c r="D183" s="8"/>
       <c r="E183" s="8"/>
       <c r="F183" s="8"/>
-    </row>
-    <row r="184" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G183" s="8"/>
+    </row>
+    <row r="184" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -12253,8 +12892,9 @@
       <c r="D184" s="8"/>
       <c r="E184" s="8"/>
       <c r="F184" s="8"/>
-    </row>
-    <row r="185" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G184" s="8"/>
+    </row>
+    <row r="185" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -12267,8 +12907,9 @@
       <c r="D185" s="8"/>
       <c r="E185" s="8"/>
       <c r="F185" s="8"/>
-    </row>
-    <row r="186" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G185" s="8"/>
+    </row>
+    <row r="186" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -12281,8 +12922,9 @@
       <c r="D186" s="8"/>
       <c r="E186" s="8"/>
       <c r="F186" s="8"/>
-    </row>
-    <row r="187" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G186" s="8"/>
+    </row>
+    <row r="187" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -12295,8 +12937,9 @@
       <c r="D187" s="8"/>
       <c r="E187" s="8"/>
       <c r="F187" s="8"/>
-    </row>
-    <row r="188" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G187" s="8"/>
+    </row>
+    <row r="188" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -12309,8 +12952,9 @@
       <c r="D188" s="8"/>
       <c r="E188" s="8"/>
       <c r="F188" s="8"/>
-    </row>
-    <row r="189" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G188" s="8"/>
+    </row>
+    <row r="189" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -12323,8 +12967,9 @@
       <c r="D189" s="8"/>
       <c r="E189" s="8"/>
       <c r="F189" s="8"/>
-    </row>
-    <row r="190" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G189" s="8"/>
+    </row>
+    <row r="190" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -12337,8 +12982,9 @@
       <c r="D190" s="8"/>
       <c r="E190" s="8"/>
       <c r="F190" s="8"/>
-    </row>
-    <row r="191" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G190" s="8"/>
+    </row>
+    <row r="191" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -12351,8 +12997,9 @@
       <c r="D191" s="8"/>
       <c r="E191" s="8"/>
       <c r="F191" s="8"/>
-    </row>
-    <row r="192" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G191" s="8"/>
+    </row>
+    <row r="192" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -12365,8 +13012,9 @@
       <c r="D192" s="8"/>
       <c r="E192" s="8"/>
       <c r="F192" s="8"/>
-    </row>
-    <row r="193" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G192" s="8"/>
+    </row>
+    <row r="193" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -12379,8 +13027,9 @@
       <c r="D193" s="8"/>
       <c r="E193" s="8"/>
       <c r="F193" s="8"/>
-    </row>
-    <row r="194" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G193" s="8"/>
+    </row>
+    <row r="194" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -12393,8 +13042,9 @@
       <c r="D194" s="8"/>
       <c r="E194" s="8"/>
       <c r="F194" s="8"/>
-    </row>
-    <row r="195" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G194" s="8"/>
+    </row>
+    <row r="195" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -12407,8 +13057,9 @@
       <c r="D195" s="8"/>
       <c r="E195" s="8"/>
       <c r="F195" s="8"/>
-    </row>
-    <row r="196" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G195" s="8"/>
+    </row>
+    <row r="196" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -12421,8 +13072,9 @@
       <c r="D196" s="8"/>
       <c r="E196" s="8"/>
       <c r="F196" s="8"/>
-    </row>
-    <row r="197" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G196" s="8"/>
+    </row>
+    <row r="197" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -12435,8 +13087,9 @@
       <c r="D197" s="8"/>
       <c r="E197" s="8"/>
       <c r="F197" s="8"/>
-    </row>
-    <row r="198" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G197" s="8"/>
+    </row>
+    <row r="198" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -12449,8 +13102,9 @@
       <c r="D198" s="8"/>
       <c r="E198" s="8"/>
       <c r="F198" s="8"/>
-    </row>
-    <row r="199" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G198" s="8"/>
+    </row>
+    <row r="199" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -12463,8 +13117,9 @@
       <c r="D199" s="8"/>
       <c r="E199" s="8"/>
       <c r="F199" s="8"/>
-    </row>
-    <row r="200" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G199" s="8"/>
+    </row>
+    <row r="200" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -12477,8 +13132,9 @@
       <c r="D200" s="8"/>
       <c r="E200" s="8"/>
       <c r="F200" s="8"/>
-    </row>
-    <row r="201" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G200" s="8"/>
+    </row>
+    <row r="201" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -12491,8 +13147,9 @@
       <c r="D201" s="8"/>
       <c r="E201" s="8"/>
       <c r="F201" s="8"/>
-    </row>
-    <row r="202" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G201" s="8"/>
+    </row>
+    <row r="202" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -12505,8 +13162,9 @@
       <c r="D202" s="8"/>
       <c r="E202" s="8"/>
       <c r="F202" s="8"/>
-    </row>
-    <row r="203" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G202" s="8"/>
+    </row>
+    <row r="203" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -12519,8 +13177,9 @@
       <c r="D203" s="8"/>
       <c r="E203" s="8"/>
       <c r="F203" s="8"/>
-    </row>
-    <row r="204" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G203" s="8"/>
+    </row>
+    <row r="204" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -12533,8 +13192,9 @@
       <c r="D204" s="8"/>
       <c r="E204" s="8"/>
       <c r="F204" s="8"/>
-    </row>
-    <row r="205" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G204" s="8"/>
+    </row>
+    <row r="205" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -12546,9 +13206,12 @@
       </c>
       <c r="D205" s="8"/>
       <c r="E205" s="8"/>
-      <c r="F205" s="8"/>
-    </row>
-    <row r="206" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F205" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G205" s="8"/>
+    </row>
+    <row r="206" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -12560,9 +13223,14 @@
       </c>
       <c r="D206" s="8"/>
       <c r="E206" s="8"/>
-      <c r="F206" s="8"/>
-    </row>
-    <row r="207" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="F206" s="8" t="s">
+        <v>1064</v>
+      </c>
+      <c r="G206" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -12574,9 +13242,12 @@
       </c>
       <c r="D207" s="8"/>
       <c r="E207" s="8"/>
-      <c r="F207" s="8"/>
-    </row>
-    <row r="208" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F207" s="8" t="s">
+        <v>1065</v>
+      </c>
+      <c r="G207" s="8"/>
+    </row>
+    <row r="208" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -12589,8 +13260,11 @@
       <c r="D208" s="8"/>
       <c r="E208" s="8"/>
       <c r="F208" s="8"/>
-    </row>
-    <row r="209" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G208" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -12602,9 +13276,14 @@
       </c>
       <c r="D209" s="8"/>
       <c r="E209" s="8"/>
-      <c r="F209" s="8"/>
-    </row>
-    <row r="210" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F209" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G209" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -12617,8 +13296,11 @@
       <c r="D210" s="8"/>
       <c r="E210" s="8"/>
       <c r="F210" s="8"/>
-    </row>
-    <row r="211" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G210" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -12631,8 +13313,11 @@
       <c r="D211" s="8"/>
       <c r="E211" s="8"/>
       <c r="F211" s="8"/>
-    </row>
-    <row r="212" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G211" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -12645,8 +13330,11 @@
       <c r="D212" s="8"/>
       <c r="E212" s="8"/>
       <c r="F212" s="8"/>
-    </row>
-    <row r="213" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G212" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -12659,8 +13347,11 @@
       <c r="D213" s="8"/>
       <c r="E213" s="8"/>
       <c r="F213" s="8"/>
-    </row>
-    <row r="214" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G213" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -12672,9 +13363,12 @@
       </c>
       <c r="D214" s="8"/>
       <c r="E214" s="8"/>
-      <c r="F214" s="8"/>
-    </row>
-    <row r="215" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F214" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G214" s="8"/>
+    </row>
+    <row r="215" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -12686,9 +13380,12 @@
       </c>
       <c r="D215" s="8"/>
       <c r="E215" s="8"/>
-      <c r="F215" s="8"/>
-    </row>
-    <row r="216" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F215" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G215" s="8"/>
+    </row>
+    <row r="216" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -12701,8 +13398,11 @@
       <c r="D216" s="8"/>
       <c r="E216" s="8"/>
       <c r="F216" s="8"/>
-    </row>
-    <row r="217" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G216" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -12715,8 +13415,11 @@
       <c r="D217" s="8"/>
       <c r="E217" s="8"/>
       <c r="F217" s="8"/>
-    </row>
-    <row r="218" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G217" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -12729,8 +13432,11 @@
       <c r="D218" s="8"/>
       <c r="E218" s="8"/>
       <c r="F218" s="8"/>
-    </row>
-    <row r="219" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G218" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -12742,9 +13448,12 @@
       </c>
       <c r="D219" s="8"/>
       <c r="E219" s="8"/>
-      <c r="F219" s="8"/>
-    </row>
-    <row r="220" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F219" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G219" s="8"/>
+    </row>
+    <row r="220" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -12756,9 +13465,12 @@
       </c>
       <c r="D220" s="8"/>
       <c r="E220" s="8"/>
-      <c r="F220" s="8"/>
-    </row>
-    <row r="221" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F220" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G220" s="8"/>
+    </row>
+    <row r="221" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -12770,9 +13482,12 @@
       </c>
       <c r="D221" s="8"/>
       <c r="E221" s="8"/>
-      <c r="F221" s="8"/>
-    </row>
-    <row r="222" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F221" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G221" s="8"/>
+    </row>
+    <row r="222" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -12784,9 +13499,12 @@
       </c>
       <c r="D222" s="8"/>
       <c r="E222" s="8"/>
-      <c r="F222" s="8"/>
-    </row>
-    <row r="223" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F222" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G222" s="8"/>
+    </row>
+    <row r="223" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -12798,9 +13516,12 @@
       </c>
       <c r="D223" s="8"/>
       <c r="E223" s="8"/>
-      <c r="F223" s="8"/>
-    </row>
-    <row r="224" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="F223" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G223" s="8"/>
+    </row>
+    <row r="224" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -12813,8 +13534,11 @@
       <c r="D224" s="8"/>
       <c r="E224" s="8"/>
       <c r="F224" s="8"/>
-    </row>
-    <row r="225" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G224" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -12827,8 +13551,11 @@
       <c r="D225" s="8"/>
       <c r="E225" s="8"/>
       <c r="F225" s="8"/>
-    </row>
-    <row r="226" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G225" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -12840,9 +13567,12 @@
       </c>
       <c r="D226" s="8"/>
       <c r="E226" s="8"/>
-      <c r="F226" s="8"/>
-    </row>
-    <row r="227" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F226" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G226" s="8"/>
+    </row>
+    <row r="227" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -12854,9 +13584,14 @@
       </c>
       <c r="D227" s="8"/>
       <c r="E227" s="8"/>
-      <c r="F227" s="8"/>
-    </row>
-    <row r="228" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F227" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G227" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -12866,11 +13601,14 @@
       <c r="C228" s="7" t="s">
         <v>728</v>
       </c>
-      <c r="D228" s="8"/>
-      <c r="E228" s="8"/>
+      <c r="D228" s="9" t="s">
+        <v>1069</v>
+      </c>
+      <c r="E228" s="9"/>
       <c r="F228" s="8"/>
-    </row>
-    <row r="229" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G228" s="8"/>
+    </row>
+    <row r="229" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -12882,9 +13620,12 @@
       </c>
       <c r="D229" s="8"/>
       <c r="E229" s="8"/>
-      <c r="F229" s="8"/>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F229" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G229" s="8"/>
+    </row>
+    <row r="230" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -12896,9 +13637,12 @@
       </c>
       <c r="D230" s="8"/>
       <c r="E230" s="8"/>
-      <c r="F230" s="8"/>
-    </row>
-    <row r="231" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F230" s="8" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G230" s="8"/>
+    </row>
+    <row r="231" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -12910,9 +13654,12 @@
       </c>
       <c r="D231" s="8"/>
       <c r="E231" s="8"/>
-      <c r="F231" s="8"/>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="F231" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G231" s="8"/>
+    </row>
+    <row r="232" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -12924,9 +13671,12 @@
       </c>
       <c r="D232" s="8"/>
       <c r="E232" s="8"/>
-      <c r="F232" s="8"/>
-    </row>
-    <row r="233" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F232" s="8" t="s">
+        <v>1071</v>
+      </c>
+      <c r="G232" s="8"/>
+    </row>
+    <row r="233" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -12938,9 +13688,12 @@
       </c>
       <c r="D233" s="8"/>
       <c r="E233" s="8"/>
-      <c r="F233" s="8"/>
-    </row>
-    <row r="234" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F233" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G233" s="8"/>
+    </row>
+    <row r="234" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -12952,9 +13705,14 @@
       </c>
       <c r="D234" s="8"/>
       <c r="E234" s="8"/>
-      <c r="F234" s="8"/>
-    </row>
-    <row r="235" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F234" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -12966,9 +13724,14 @@
       </c>
       <c r="D235" s="8"/>
       <c r="E235" s="8"/>
-      <c r="F235" s="8"/>
-    </row>
-    <row r="236" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F235" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -12980,9 +13743,14 @@
       </c>
       <c r="D236" s="8"/>
       <c r="E236" s="8"/>
-      <c r="F236" s="8"/>
-    </row>
-    <row r="237" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F236" s="8" t="s">
+        <v>1068</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -12994,9 +13762,14 @@
       </c>
       <c r="D237" s="8"/>
       <c r="E237" s="8"/>
-      <c r="F237" s="8"/>
-    </row>
-    <row r="238" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F237" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -13008,9 +13781,14 @@
       </c>
       <c r="D238" s="8"/>
       <c r="E238" s="8"/>
-      <c r="F238" s="8"/>
-    </row>
-    <row r="239" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F238" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -13022,9 +13800,14 @@
       </c>
       <c r="D239" s="8"/>
       <c r="E239" s="8"/>
-      <c r="F239" s="8"/>
-    </row>
-    <row r="240" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F239" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -13036,9 +13819,14 @@
       </c>
       <c r="D240" s="8"/>
       <c r="E240" s="8"/>
-      <c r="F240" s="8"/>
-    </row>
-    <row r="241" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F240" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -13050,9 +13838,14 @@
       </c>
       <c r="D241" s="8"/>
       <c r="E241" s="8"/>
-      <c r="F241" s="8"/>
-    </row>
-    <row r="242" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F241" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G241" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -13064,9 +13857,12 @@
       </c>
       <c r="D242" s="8"/>
       <c r="E242" s="8"/>
-      <c r="F242" s="8"/>
-    </row>
-    <row r="243" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F242" s="8" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G242" s="8"/>
+    </row>
+    <row r="243" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -13078,9 +13874,12 @@
       </c>
       <c r="D243" s="8"/>
       <c r="E243" s="8"/>
-      <c r="F243" s="8"/>
-    </row>
-    <row r="244" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F243" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G243" s="8"/>
+    </row>
+    <row r="244" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -13092,9 +13891,12 @@
       </c>
       <c r="D244" s="8"/>
       <c r="E244" s="8"/>
-      <c r="F244" s="8"/>
-    </row>
-    <row r="245" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F244" s="8" t="s">
+        <v>1063</v>
+      </c>
+      <c r="G244" s="8"/>
+    </row>
+    <row r="245" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -13107,8 +13909,11 @@
       <c r="D245" s="8"/>
       <c r="E245" s="8"/>
       <c r="F245" s="8"/>
-    </row>
-    <row r="246" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G245" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -13120,9 +13925,12 @@
       </c>
       <c r="D246" s="8"/>
       <c r="E246" s="8"/>
-      <c r="F246" s="8"/>
-    </row>
-    <row r="247" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F246" s="8" t="s">
+        <v>1072</v>
+      </c>
+      <c r="G246" s="8"/>
+    </row>
+    <row r="247" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -13134,9 +13942,14 @@
       </c>
       <c r="D247" s="8"/>
       <c r="E247" s="8"/>
-      <c r="F247" s="8"/>
-    </row>
-    <row r="248" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F247" s="8" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -13148,9 +13961,12 @@
       </c>
       <c r="D248" s="8"/>
       <c r="E248" s="8"/>
-      <c r="F248" s="8"/>
-    </row>
-    <row r="249" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F248" s="8" t="s">
+        <v>1073</v>
+      </c>
+      <c r="G248" s="8"/>
+    </row>
+    <row r="249" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -13160,11 +13976,14 @@
       <c r="C249" s="7" t="s">
         <v>749</v>
       </c>
-      <c r="D249" s="8"/>
-      <c r="E249" s="8"/>
+      <c r="D249" s="11" t="s">
+        <v>1074</v>
+      </c>
+      <c r="E249" s="11"/>
       <c r="F249" s="8"/>
-    </row>
-    <row r="250" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G249" s="8"/>
+    </row>
+    <row r="250" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -13174,11 +13993,14 @@
       <c r="C250" s="7" t="s">
         <v>750</v>
       </c>
-      <c r="D250" s="8"/>
-      <c r="E250" s="8"/>
+      <c r="D250" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="E250" s="9"/>
       <c r="F250" s="8"/>
-    </row>
-    <row r="251" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G250" s="8"/>
+    </row>
+    <row r="251" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -13188,11 +14010,14 @@
       <c r="C251" s="7" t="s">
         <v>751</v>
       </c>
-      <c r="D251" s="8"/>
+      <c r="D251" s="8" t="s">
+        <v>1031</v>
+      </c>
       <c r="E251" s="8"/>
       <c r="F251" s="8"/>
-    </row>
-    <row r="252" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G251" s="8"/>
+    </row>
+    <row r="252" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -13204,9 +14029,14 @@
       </c>
       <c r="D252" s="8"/>
       <c r="E252" s="8"/>
-      <c r="F252" s="8"/>
-    </row>
-    <row r="253" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F252" s="8" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G252" s="8" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -13218,9 +14048,14 @@
       </c>
       <c r="D253" s="8"/>
       <c r="E253" s="8"/>
-      <c r="F253" s="8"/>
-    </row>
-    <row r="254" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F253" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G253" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -13232,9 +14067,12 @@
       </c>
       <c r="D254" s="8"/>
       <c r="E254" s="8"/>
-      <c r="F254" s="8"/>
-    </row>
-    <row r="255" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F254" s="8" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G254" s="8"/>
+    </row>
+    <row r="255" spans="1:7" ht="69" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -13246,9 +14084,14 @@
       </c>
       <c r="D255" s="8"/>
       <c r="E255" s="8"/>
-      <c r="F255" s="8"/>
-    </row>
-    <row r="256" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F255" s="8" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G255" s="8" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -13261,8 +14104,11 @@
       <c r="D256" s="8"/>
       <c r="E256" s="8"/>
       <c r="F256" s="8"/>
-    </row>
-    <row r="257" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G256" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -13274,9 +14120,12 @@
       </c>
       <c r="D257" s="8"/>
       <c r="E257" s="8"/>
-      <c r="F257" s="8"/>
-    </row>
-    <row r="258" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="F257" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G257" s="8"/>
+    </row>
+    <row r="258" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -13288,9 +14137,14 @@
       </c>
       <c r="D258" s="8"/>
       <c r="E258" s="8"/>
-      <c r="F258" s="8"/>
-    </row>
-    <row r="259" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F258" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G258" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -13302,9 +14156,14 @@
       </c>
       <c r="D259" s="8"/>
       <c r="E259" s="8"/>
-      <c r="F259" s="8"/>
-    </row>
-    <row r="260" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F259" s="8" t="s">
+        <v>1039</v>
+      </c>
+      <c r="G259" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -13314,11 +14173,14 @@
       <c r="C260" s="7" t="s">
         <v>760</v>
       </c>
-      <c r="D260" s="8"/>
-      <c r="E260" s="8"/>
+      <c r="D260" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E260" s="9"/>
       <c r="F260" s="8"/>
-    </row>
-    <row r="261" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G260" s="8"/>
+    </row>
+    <row r="261" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -13330,9 +14192,14 @@
       </c>
       <c r="D261" s="8"/>
       <c r="E261" s="8"/>
-      <c r="F261" s="8"/>
-    </row>
-    <row r="262" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F261" s="8" t="s">
+        <v>1041</v>
+      </c>
+      <c r="G261" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -13345,8 +14212,11 @@
       <c r="D262" s="8"/>
       <c r="E262" s="8"/>
       <c r="F262" s="8"/>
-    </row>
-    <row r="263" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G262" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -13356,11 +14226,16 @@
       <c r="C263" s="7" t="s">
         <v>763</v>
       </c>
-      <c r="D263" s="8"/>
-      <c r="E263" s="8"/>
-      <c r="F263" s="8"/>
-    </row>
-    <row r="264" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D263" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="E263" s="9"/>
+      <c r="F263" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="G263" s="8"/>
+    </row>
+    <row r="264" spans="1:7" ht="86" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -13373,8 +14248,11 @@
       <c r="D264" s="8"/>
       <c r="E264" s="8"/>
       <c r="F264" s="8"/>
-    </row>
-    <row r="265" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G264" s="8" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -13384,11 +14262,14 @@
       <c r="C265" s="7" t="s">
         <v>765</v>
       </c>
-      <c r="D265" s="8"/>
-      <c r="E265" s="8"/>
+      <c r="D265" s="10" t="s">
+        <v>1056</v>
+      </c>
+      <c r="E265" s="11"/>
       <c r="F265" s="8"/>
-    </row>
-    <row r="266" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G265" s="8"/>
+    </row>
+    <row r="266" spans="1:7" ht="69" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -13398,11 +14279,18 @@
       <c r="C266" s="7" t="s">
         <v>766</v>
       </c>
-      <c r="D266" s="8"/>
-      <c r="E266" s="8"/>
-      <c r="F266" s="8"/>
-    </row>
-    <row r="267" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D266" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="E266" s="9"/>
+      <c r="F266" s="8" t="s">
+        <v>1058</v>
+      </c>
+      <c r="G266" s="8" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -13412,11 +14300,18 @@
       <c r="C267" s="7" t="s">
         <v>767</v>
       </c>
-      <c r="D267" s="8"/>
-      <c r="E267" s="8"/>
-      <c r="F267" s="8"/>
-    </row>
-    <row r="268" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D267" s="10" t="s">
+        <v>1059</v>
+      </c>
+      <c r="E267" s="11"/>
+      <c r="F267" s="8" t="s">
+        <v>1060</v>
+      </c>
+      <c r="G267" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -13429,8 +14324,11 @@
       <c r="D268" s="8"/>
       <c r="E268" s="8"/>
       <c r="F268" s="8"/>
-    </row>
-    <row r="269" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G268" s="8" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" ht="16" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -13443,8 +14341,11 @@
       <c r="D269" s="8"/>
       <c r="E269" s="8"/>
       <c r="F269" s="8"/>
-    </row>
-    <row r="270" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G269" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -13454,11 +14355,16 @@
       <c r="C270" s="7" t="s">
         <v>770</v>
       </c>
-      <c r="D270" s="8"/>
-      <c r="E270" s="8"/>
-      <c r="F270" s="8"/>
-    </row>
-    <row r="271" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D270" s="10" t="s">
+        <v>1061</v>
+      </c>
+      <c r="E270" s="10"/>
+      <c r="F270" s="10" t="s">
+        <v>1062</v>
+      </c>
+      <c r="G270" s="8"/>
+    </row>
+    <row r="271" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -13471,8 +14377,11 @@
       <c r="D271" s="8"/>
       <c r="E271" s="8"/>
       <c r="F271" s="8"/>
-    </row>
-    <row r="272" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G271" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -13484,9 +14393,12 @@
       </c>
       <c r="D272" s="8"/>
       <c r="E272" s="8"/>
-      <c r="F272" s="8"/>
-    </row>
-    <row r="273" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F272" s="8" t="s">
+        <v>1045</v>
+      </c>
+      <c r="G272" s="8"/>
+    </row>
+    <row r="273" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -13498,9 +14410,12 @@
       </c>
       <c r="D273" s="8"/>
       <c r="E273" s="8"/>
-      <c r="F273" s="8"/>
-    </row>
-    <row r="274" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F273" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G273" s="8"/>
+    </row>
+    <row r="274" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -13513,8 +14428,11 @@
       <c r="D274" s="8"/>
       <c r="E274" s="8"/>
       <c r="F274" s="8"/>
-    </row>
-    <row r="275" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G274" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -13527,8 +14445,11 @@
       <c r="D275" s="8"/>
       <c r="E275" s="8"/>
       <c r="F275" s="8"/>
-    </row>
-    <row r="276" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G275" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -13541,8 +14462,11 @@
       <c r="D276" s="8"/>
       <c r="E276" s="8"/>
       <c r="F276" s="8"/>
-    </row>
-    <row r="277" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G276" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -13554,9 +14478,12 @@
       </c>
       <c r="D277" s="8"/>
       <c r="E277" s="8"/>
-      <c r="F277" s="8"/>
-    </row>
-    <row r="278" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F277" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G277" s="8"/>
+    </row>
+    <row r="278" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -13569,8 +14496,11 @@
       <c r="D278" s="8"/>
       <c r="E278" s="8"/>
       <c r="F278" s="8"/>
-    </row>
-    <row r="279" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G278" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -13583,8 +14513,11 @@
       <c r="D279" s="8"/>
       <c r="E279" s="8"/>
       <c r="F279" s="8"/>
-    </row>
-    <row r="280" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G279" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -13597,8 +14530,11 @@
       <c r="D280" s="8"/>
       <c r="E280" s="8"/>
       <c r="F280" s="8"/>
-    </row>
-    <row r="281" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G280" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -13611,8 +14547,11 @@
       <c r="D281" s="8"/>
       <c r="E281" s="8"/>
       <c r="F281" s="8"/>
-    </row>
-    <row r="282" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G281" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -13625,8 +14564,11 @@
       <c r="D282" s="8"/>
       <c r="E282" s="8"/>
       <c r="F282" s="8"/>
-    </row>
-    <row r="283" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G282" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -13638,9 +14580,12 @@
       </c>
       <c r="D283" s="8"/>
       <c r="E283" s="8"/>
-      <c r="F283" s="8"/>
-    </row>
-    <row r="284" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F283" s="8" t="s">
+        <v>1047</v>
+      </c>
+      <c r="G283" s="8"/>
+    </row>
+    <row r="284" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -13653,8 +14598,11 @@
       <c r="D284" s="8"/>
       <c r="E284" s="8"/>
       <c r="F284" s="8"/>
-    </row>
-    <row r="285" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G284" s="8" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -13666,9 +14614,14 @@
       </c>
       <c r="D285" s="8"/>
       <c r="E285" s="8"/>
-      <c r="F285" s="8"/>
-    </row>
-    <row r="286" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F285" s="8" t="s">
+        <v>1048</v>
+      </c>
+      <c r="G285" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -13681,8 +14634,11 @@
       <c r="D286" s="8"/>
       <c r="E286" s="8"/>
       <c r="F286" s="8"/>
-    </row>
-    <row r="287" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G286" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -13694,9 +14650,14 @@
       </c>
       <c r="D287" s="8"/>
       <c r="E287" s="8"/>
-      <c r="F287" s="8"/>
-    </row>
-    <row r="288" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F287" s="8" t="s">
+        <v>1044</v>
+      </c>
+      <c r="G287" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -13708,9 +14669,12 @@
       </c>
       <c r="D288" s="8"/>
       <c r="E288" s="8"/>
-      <c r="F288" s="8"/>
-    </row>
-    <row r="289" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F288" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G288" s="8"/>
+    </row>
+    <row r="289" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -13722,9 +14686,12 @@
       </c>
       <c r="D289" s="8"/>
       <c r="E289" s="8"/>
-      <c r="F289" s="8"/>
-    </row>
-    <row r="290" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F289" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G289" s="8"/>
+    </row>
+    <row r="290" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -13736,9 +14703,14 @@
       </c>
       <c r="D290" s="8"/>
       <c r="E290" s="8"/>
-      <c r="F290" s="8"/>
-    </row>
-    <row r="291" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F290" s="8" t="s">
+        <v>1050</v>
+      </c>
+      <c r="G290" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -13751,8 +14723,11 @@
       <c r="D291" s="8"/>
       <c r="E291" s="8"/>
       <c r="F291" s="8"/>
-    </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G291" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -13764,9 +14739,14 @@
       </c>
       <c r="D292" s="8"/>
       <c r="E292" s="8"/>
-      <c r="F292" s="8"/>
-    </row>
-    <row r="293" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F292" s="8" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G292" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -13778,9 +14758,12 @@
       </c>
       <c r="D293" s="8"/>
       <c r="E293" s="8"/>
-      <c r="F293" s="8"/>
-    </row>
-    <row r="294" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F293" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G293" s="8"/>
+    </row>
+    <row r="294" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -13792,9 +14775,14 @@
       </c>
       <c r="D294" s="8"/>
       <c r="E294" s="8"/>
-      <c r="F294" s="8"/>
-    </row>
-    <row r="295" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F294" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G294" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -13807,8 +14795,11 @@
       <c r="D295" s="8"/>
       <c r="E295" s="8"/>
       <c r="F295" s="8"/>
-    </row>
-    <row r="296" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G295" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -13820,9 +14811,12 @@
       </c>
       <c r="D296" s="8"/>
       <c r="E296" s="8"/>
-      <c r="F296" s="8"/>
-    </row>
-    <row r="297" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F296" s="8" t="s">
+        <v>1049</v>
+      </c>
+      <c r="G296" s="8"/>
+    </row>
+    <row r="297" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -13834,9 +14828,12 @@
       </c>
       <c r="D297" s="8"/>
       <c r="E297" s="8"/>
-      <c r="F297" s="8"/>
-    </row>
-    <row r="298" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="F297" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G297" s="8"/>
+    </row>
+    <row r="298" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -13848,9 +14845,12 @@
       </c>
       <c r="D298" s="8"/>
       <c r="E298" s="8"/>
-      <c r="F298" s="8"/>
-    </row>
-    <row r="299" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F298" s="8" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G298" s="8"/>
+    </row>
+    <row r="299" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -13862,9 +14862,14 @@
       </c>
       <c r="D299" s="8"/>
       <c r="E299" s="8"/>
-      <c r="F299" s="8"/>
-    </row>
-    <row r="300" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="F299" s="8" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G299" s="8" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -13877,8 +14882,9 @@
       <c r="D300" s="8"/>
       <c r="E300" s="8"/>
       <c r="F300" s="8"/>
-    </row>
-    <row r="301" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G300" s="8"/>
+    </row>
+    <row r="301" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -13891,8 +14897,9 @@
       <c r="D301" s="8"/>
       <c r="E301" s="8"/>
       <c r="F301" s="8"/>
-    </row>
-    <row r="302" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G301" s="8"/>
+    </row>
+    <row r="302" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -13905,8 +14912,9 @@
       <c r="D302" s="8"/>
       <c r="E302" s="8"/>
       <c r="F302" s="8"/>
-    </row>
-    <row r="303" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G302" s="8"/>
+    </row>
+    <row r="303" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -13919,8 +14927,9 @@
       <c r="D303" s="8"/>
       <c r="E303" s="8"/>
       <c r="F303" s="8"/>
-    </row>
-    <row r="304" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G303" s="8"/>
+    </row>
+    <row r="304" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -13933,8 +14942,9 @@
       <c r="D304" s="8"/>
       <c r="E304" s="8"/>
       <c r="F304" s="8"/>
-    </row>
-    <row r="305" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G304" s="8"/>
+    </row>
+    <row r="305" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -13947,8 +14957,9 @@
       <c r="D305" s="8"/>
       <c r="E305" s="8"/>
       <c r="F305" s="8"/>
-    </row>
-    <row r="306" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G305" s="8"/>
+    </row>
+    <row r="306" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -13961,8 +14972,9 @@
       <c r="D306" s="8"/>
       <c r="E306" s="8"/>
       <c r="F306" s="8"/>
-    </row>
-    <row r="307" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G306" s="8"/>
+    </row>
+    <row r="307" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -13975,8 +14987,9 @@
       <c r="D307" s="8"/>
       <c r="E307" s="8"/>
       <c r="F307" s="8"/>
-    </row>
-    <row r="308" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G307" s="8"/>
+    </row>
+    <row r="308" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -13989,8 +15002,9 @@
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
       <c r="F308" s="8"/>
-    </row>
-    <row r="309" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G308" s="8"/>
+    </row>
+    <row r="309" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -14003,8 +15017,9 @@
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
       <c r="F309" s="8"/>
-    </row>
-    <row r="310" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G309" s="8"/>
+    </row>
+    <row r="310" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -14017,8 +15032,9 @@
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
       <c r="F310" s="8"/>
-    </row>
-    <row r="311" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G310" s="8"/>
+    </row>
+    <row r="311" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -14031,8 +15047,9 @@
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
       <c r="F311" s="8"/>
-    </row>
-    <row r="312" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G311" s="8"/>
+    </row>
+    <row r="312" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -14045,8 +15062,9 @@
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
       <c r="F312" s="8"/>
-    </row>
-    <row r="313" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G312" s="8"/>
+    </row>
+    <row r="313" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -14059,8 +15077,9 @@
       <c r="D313" s="8"/>
       <c r="E313" s="8"/>
       <c r="F313" s="8"/>
-    </row>
-    <row r="314" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G313" s="8"/>
+    </row>
+    <row r="314" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -14073,8 +15092,9 @@
       <c r="D314" s="8"/>
       <c r="E314" s="8"/>
       <c r="F314" s="8"/>
-    </row>
-    <row r="315" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G314" s="8"/>
+    </row>
+    <row r="315" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -14087,8 +15107,9 @@
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
       <c r="F315" s="8"/>
-    </row>
-    <row r="316" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G315" s="8"/>
+    </row>
+    <row r="316" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -14101,8 +15122,9 @@
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
       <c r="F316" s="8"/>
-    </row>
-    <row r="317" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G316" s="8"/>
+    </row>
+    <row r="317" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -14115,8 +15137,9 @@
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
       <c r="F317" s="8"/>
-    </row>
-    <row r="318" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G317" s="8"/>
+    </row>
+    <row r="318" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -14129,8 +15152,9 @@
       <c r="D318" s="8"/>
       <c r="E318" s="8"/>
       <c r="F318" s="8"/>
-    </row>
-    <row r="319" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G318" s="8"/>
+    </row>
+    <row r="319" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -14143,8 +15167,9 @@
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
       <c r="F319" s="8"/>
-    </row>
-    <row r="320" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G319" s="8"/>
+    </row>
+    <row r="320" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -14157,8 +15182,9 @@
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
       <c r="F320" s="8"/>
-    </row>
-    <row r="321" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G320" s="8"/>
+    </row>
+    <row r="321" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -14171,8 +15197,9 @@
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
       <c r="F321" s="8"/>
-    </row>
-    <row r="322" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G321" s="8"/>
+    </row>
+    <row r="322" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -14185,8 +15212,9 @@
       <c r="D322" s="8"/>
       <c r="E322" s="8"/>
       <c r="F322" s="8"/>
-    </row>
-    <row r="323" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G322" s="8"/>
+    </row>
+    <row r="323" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -14199,8 +15227,9 @@
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
       <c r="F323" s="8"/>
-    </row>
-    <row r="324" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G323" s="8"/>
+    </row>
+    <row r="324" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -14213,8 +15242,9 @@
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
       <c r="F324" s="8"/>
-    </row>
-    <row r="325" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G324" s="8"/>
+    </row>
+    <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -14227,8 +15257,9 @@
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
       <c r="F325" s="8"/>
-    </row>
-    <row r="326" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G325" s="8"/>
+    </row>
+    <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -14241,8 +15272,9 @@
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
-    </row>
-    <row r="327" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G326" s="8"/>
+    </row>
+    <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -14255,8 +15287,9 @@
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
-    </row>
-    <row r="328" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G327" s="8"/>
+    </row>
+    <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -14269,8 +15302,9 @@
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
-    </row>
-    <row r="329" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G328" s="8"/>
+    </row>
+    <row r="329" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -14283,8 +15317,9 @@
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
-    </row>
-    <row r="330" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G329" s="8"/>
+    </row>
+    <row r="330" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -14297,8 +15332,9 @@
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
-    </row>
-    <row r="331" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G330" s="8"/>
+    </row>
+    <row r="331" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -14311,8 +15347,9 @@
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
       <c r="F331" s="8"/>
-    </row>
-    <row r="332" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G331" s="8"/>
+    </row>
+    <row r="332" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -14325,8 +15362,9 @@
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
       <c r="F332" s="8"/>
-    </row>
-    <row r="333" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G332" s="8"/>
+    </row>
+    <row r="333" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -14339,8 +15377,9 @@
       <c r="D333" s="8"/>
       <c r="E333" s="8"/>
       <c r="F333" s="8"/>
-    </row>
-    <row r="334" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G333" s="8"/>
+    </row>
+    <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -14353,8 +15392,9 @@
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
-    </row>
-    <row r="335" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G334" s="8"/>
+    </row>
+    <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -14367,8 +15407,9 @@
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
-    </row>
-    <row r="336" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G335" s="8"/>
+    </row>
+    <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -14381,8 +15422,9 @@
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
-    </row>
-    <row r="337" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G336" s="8"/>
+    </row>
+    <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -14395,8 +15437,9 @@
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
-    </row>
-    <row r="338" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G337" s="8"/>
+    </row>
+    <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -14409,8 +15452,9 @@
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
-    </row>
-    <row r="339" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G338" s="8"/>
+    </row>
+    <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -14423,8 +15467,9 @@
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
-    </row>
-    <row r="340" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G339" s="8"/>
+    </row>
+    <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -14437,8 +15482,9 @@
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
       <c r="F340" s="8"/>
-    </row>
-    <row r="341" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G340" s="8"/>
+    </row>
+    <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -14451,8 +15497,9 @@
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
-    </row>
-    <row r="342" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G341" s="8"/>
+    </row>
+    <row r="342" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -14465,8 +15512,9 @@
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
-    </row>
-    <row r="343" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G342" s="8"/>
+    </row>
+    <row r="343" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -14479,8 +15527,9 @@
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
-    </row>
-    <row r="344" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G343" s="8"/>
+    </row>
+    <row r="344" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -14493,8 +15542,9 @@
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
       <c r="F344" s="8"/>
-    </row>
-    <row r="345" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G344" s="8"/>
+    </row>
+    <row r="345" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -14507,8 +15557,9 @@
       <c r="D345" s="8"/>
       <c r="E345" s="8"/>
       <c r="F345" s="8"/>
-    </row>
-    <row r="346" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G345" s="8"/>
+    </row>
+    <row r="346" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -14521,8 +15572,9 @@
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
-    </row>
-    <row r="347" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G346" s="8"/>
+    </row>
+    <row r="347" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -14535,8 +15587,9 @@
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
-    </row>
-    <row r="348" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G347" s="8"/>
+    </row>
+    <row r="348" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -14549,8 +15602,9 @@
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
-    </row>
-    <row r="349" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G348" s="8"/>
+    </row>
+    <row r="349" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -14563,8 +15617,9 @@
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
-    </row>
-    <row r="350" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G349" s="8"/>
+    </row>
+    <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -14577,8 +15632,9 @@
       <c r="D350" s="8"/>
       <c r="E350" s="8"/>
       <c r="F350" s="8"/>
-    </row>
-    <row r="351" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G350" s="8"/>
+    </row>
+    <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -14591,8 +15647,9 @@
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
-    </row>
-    <row r="352" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G351" s="8"/>
+    </row>
+    <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -14605,8 +15662,9 @@
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
-    </row>
-    <row r="353" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G352" s="8"/>
+    </row>
+    <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -14619,8 +15677,9 @@
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
-    </row>
-    <row r="354" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G353" s="8"/>
+    </row>
+    <row r="354" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -14633,8 +15692,9 @@
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
       <c r="F354" s="8"/>
-    </row>
-    <row r="355" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G354" s="8"/>
+    </row>
+    <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -14647,8 +15707,9 @@
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
-    </row>
-    <row r="356" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G355" s="8"/>
+    </row>
+    <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -14661,8 +15722,9 @@
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
-    </row>
-    <row r="357" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G356" s="8"/>
+    </row>
+    <row r="357" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -14675,8 +15737,9 @@
       <c r="D357" s="8"/>
       <c r="E357" s="8"/>
       <c r="F357" s="8"/>
-    </row>
-    <row r="358" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G357" s="8"/>
+    </row>
+    <row r="358" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -14689,8 +15752,9 @@
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
       <c r="F358" s="8"/>
-    </row>
-    <row r="359" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G358" s="8"/>
+    </row>
+    <row r="359" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -14703,8 +15767,9 @@
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
-    </row>
-    <row r="360" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G359" s="8"/>
+    </row>
+    <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -14717,8 +15782,9 @@
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
-    </row>
-    <row r="361" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G360" s="8"/>
+    </row>
+    <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -14731,8 +15797,9 @@
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
-    </row>
-    <row r="362" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G361" s="8"/>
+    </row>
+    <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -14745,8 +15812,9 @@
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
-    </row>
-    <row r="363" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G362" s="8"/>
+    </row>
+    <row r="363" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -14759,8 +15827,9 @@
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
-    </row>
-    <row r="364" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G363" s="8"/>
+    </row>
+    <row r="364" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -14773,8 +15842,9 @@
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
-    </row>
-    <row r="365" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G364" s="8"/>
+    </row>
+    <row r="365" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -14787,8 +15857,9 @@
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
-    </row>
-    <row r="366" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G365" s="8"/>
+    </row>
+    <row r="366" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -14801,8 +15872,9 @@
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
-    </row>
-    <row r="367" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G366" s="8"/>
+    </row>
+    <row r="367" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -14815,8 +15887,9 @@
       <c r="D367" s="8"/>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
-    </row>
-    <row r="368" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G367" s="8"/>
+    </row>
+    <row r="368" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -14829,8 +15902,9 @@
       <c r="D368" s="8"/>
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
-    </row>
-    <row r="369" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G368" s="8"/>
+    </row>
+    <row r="369" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -14843,8 +15917,9 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
-    </row>
-    <row r="370" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G369" s="8"/>
+    </row>
+    <row r="370" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -14857,8 +15932,9 @@
       <c r="D370" s="8"/>
       <c r="E370" s="8"/>
       <c r="F370" s="8"/>
-    </row>
-    <row r="371" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G370" s="8"/>
+    </row>
+    <row r="371" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -14871,8 +15947,9 @@
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
-    </row>
-    <row r="372" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G371" s="8"/>
+    </row>
+    <row r="372" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -14885,8 +15962,9 @@
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
-    </row>
-    <row r="373" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G372" s="8"/>
+    </row>
+    <row r="373" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -14899,8 +15977,9 @@
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
-    </row>
-    <row r="374" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G373" s="8"/>
+    </row>
+    <row r="374" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -14913,8 +15992,9 @@
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
-    </row>
-    <row r="375" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G374" s="8"/>
+    </row>
+    <row r="375" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -14927,8 +16007,9 @@
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
-    </row>
-    <row r="376" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G375" s="8"/>
+    </row>
+    <row r="376" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -14941,8 +16022,9 @@
       <c r="D376" s="8"/>
       <c r="E376" s="8"/>
       <c r="F376" s="8"/>
-    </row>
-    <row r="377" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G376" s="8"/>
+    </row>
+    <row r="377" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -14955,8 +16037,9 @@
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
-    </row>
-    <row r="378" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G377" s="8"/>
+    </row>
+    <row r="378" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -14969,8 +16052,9 @@
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
-    </row>
-    <row r="379" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G378" s="8"/>
+    </row>
+    <row r="379" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -14983,8 +16067,9 @@
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
-    </row>
-    <row r="380" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G379" s="8"/>
+    </row>
+    <row r="380" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -14997,8 +16082,9 @@
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
-    </row>
-    <row r="381" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G380" s="8"/>
+    </row>
+    <row r="381" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -15011,8 +16097,9 @@
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
-    </row>
-    <row r="382" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G381" s="8"/>
+    </row>
+    <row r="382" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -15025,8 +16112,9 @@
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
-    </row>
-    <row r="383" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G382" s="8"/>
+    </row>
+    <row r="383" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -15039,8 +16127,9 @@
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
-    </row>
-    <row r="384" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G383" s="8"/>
+    </row>
+    <row r="384" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -15053,8 +16142,9 @@
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
-    </row>
-    <row r="385" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G384" s="8"/>
+    </row>
+    <row r="385" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -15067,8 +16157,9 @@
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
       <c r="F385" s="8"/>
-    </row>
-    <row r="386" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G385" s="8"/>
+    </row>
+    <row r="386" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -15081,8 +16172,9 @@
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
-    </row>
-    <row r="387" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G386" s="8"/>
+    </row>
+    <row r="387" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -15095,8 +16187,9 @@
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
-    </row>
-    <row r="388" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G387" s="8"/>
+    </row>
+    <row r="388" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -15109,8 +16202,9 @@
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
-    </row>
-    <row r="389" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G388" s="8"/>
+    </row>
+    <row r="389" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -15123,8 +16217,9 @@
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
-    </row>
-    <row r="390" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G389" s="8"/>
+    </row>
+    <row r="390" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -15137,8 +16232,9 @@
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
-    </row>
-    <row r="391" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G390" s="8"/>
+    </row>
+    <row r="391" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -15151,8 +16247,9 @@
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
-    </row>
-    <row r="392" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G391" s="8"/>
+    </row>
+    <row r="392" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -15165,8 +16262,9 @@
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
-    </row>
-    <row r="393" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G392" s="8"/>
+    </row>
+    <row r="393" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -15179,8 +16277,9 @@
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
-    </row>
-    <row r="394" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G393" s="8"/>
+    </row>
+    <row r="394" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -15193,8 +16292,9 @@
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
-    </row>
-    <row r="395" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G394" s="8"/>
+    </row>
+    <row r="395" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -15207,8 +16307,9 @@
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
       <c r="F395" s="8"/>
-    </row>
-    <row r="396" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G395" s="8"/>
+    </row>
+    <row r="396" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -15221,8 +16322,9 @@
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
-    </row>
-    <row r="397" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G396" s="8"/>
+    </row>
+    <row r="397" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -15235,8 +16337,9 @@
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
-    </row>
-    <row r="398" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G397" s="8"/>
+    </row>
+    <row r="398" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -15249,8 +16352,9 @@
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
-    </row>
-    <row r="399" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G398" s="8"/>
+    </row>
+    <row r="399" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -15263,8 +16367,9 @@
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
-    </row>
-    <row r="400" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G399" s="8"/>
+    </row>
+    <row r="400" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -15277,8 +16382,9 @@
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
-    </row>
-    <row r="401" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G400" s="8"/>
+    </row>
+    <row r="401" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -15291,8 +16397,9 @@
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
-    </row>
-    <row r="402" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G401" s="8"/>
+    </row>
+    <row r="402" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -15305,8 +16412,9 @@
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
-    </row>
-    <row r="403" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G402" s="8"/>
+    </row>
+    <row r="403" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -15319,8 +16427,9 @@
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
-    </row>
-    <row r="404" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G403" s="8"/>
+    </row>
+    <row r="404" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -15333,8 +16442,9 @@
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
-    </row>
-    <row r="405" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G404" s="8"/>
+    </row>
+    <row r="405" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -15347,8 +16457,9 @@
       <c r="D405" s="8"/>
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
-    </row>
-    <row r="406" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G405" s="8"/>
+    </row>
+    <row r="406" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -15361,8 +16472,9 @@
       <c r="D406" s="8"/>
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
-    </row>
-    <row r="407" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G406" s="8"/>
+    </row>
+    <row r="407" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -15375,8 +16487,9 @@
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
-    </row>
-    <row r="408" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G407" s="8"/>
+    </row>
+    <row r="408" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -15389,8 +16502,9 @@
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
-    </row>
-    <row r="409" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G408" s="8"/>
+    </row>
+    <row r="409" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -15403,8 +16517,9 @@
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
-    </row>
-    <row r="410" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G409" s="8"/>
+    </row>
+    <row r="410" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -15419,8 +16534,9 @@
       <c r="F410" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G410" s="8"/>
+    </row>
+    <row r="411" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -15435,8 +16551,9 @@
       <c r="F411" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G411" s="8"/>
+    </row>
+    <row r="412" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -15451,8 +16568,9 @@
       <c r="F412" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G412" s="8"/>
+    </row>
+    <row r="413" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -15467,8 +16585,9 @@
       <c r="F413" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G413" s="8"/>
+    </row>
+    <row r="414" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -15483,8 +16602,9 @@
       <c r="F414" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G414" s="8"/>
+    </row>
+    <row r="415" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -15499,8 +16619,9 @@
       <c r="F415" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G415" s="8"/>
+    </row>
+    <row r="416" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -15515,8 +16636,9 @@
       <c r="F416" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G416" s="8"/>
+    </row>
+    <row r="417" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -15531,8 +16653,9 @@
       <c r="F417" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G417" s="8"/>
+    </row>
+    <row r="418" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -15547,8 +16670,9 @@
       <c r="F418" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G418" s="8"/>
+    </row>
+    <row r="419" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -15563,8 +16687,9 @@
       <c r="F419" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G419" s="8"/>
+    </row>
+    <row r="420" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -15576,11 +16701,12 @@
       </c>
       <c r="D420" s="8"/>
       <c r="E420" s="8" t="s">
-        <v>1017</v>
+        <v>1078</v>
       </c>
       <c r="F420" s="8"/>
-    </row>
-    <row r="421" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G420" s="8"/>
+    </row>
+    <row r="421" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -15595,8 +16721,9 @@
       <c r="F421" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G421" s="8"/>
+    </row>
+    <row r="422" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -15611,8 +16738,9 @@
       <c r="F422" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G422" s="8"/>
+    </row>
+    <row r="423" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -15624,11 +16752,12 @@
       </c>
       <c r="D423" s="8"/>
       <c r="E423" s="8" t="s">
-        <v>1018</v>
+        <v>1079</v>
       </c>
       <c r="F423" s="8"/>
-    </row>
-    <row r="424" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G423" s="8"/>
+    </row>
+    <row r="424" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -15640,11 +16769,12 @@
       </c>
       <c r="D424" s="8"/>
       <c r="E424" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F424" s="8"/>
-    </row>
-    <row r="425" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G424" s="8"/>
+    </row>
+    <row r="425" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -15656,11 +16786,12 @@
       </c>
       <c r="D425" s="8"/>
       <c r="E425" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F425" s="8"/>
-    </row>
-    <row r="426" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G425" s="8"/>
+    </row>
+    <row r="426" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -15672,11 +16803,12 @@
       </c>
       <c r="D426" s="8"/>
       <c r="E426" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F426" s="8"/>
-    </row>
-    <row r="427" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G426" s="8"/>
+    </row>
+    <row r="427" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -15691,8 +16823,9 @@
       <c r="F427" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G427" s="8"/>
+    </row>
+    <row r="428" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -15707,8 +16840,9 @@
       <c r="F428" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G428" s="8"/>
+    </row>
+    <row r="429" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -15723,8 +16857,9 @@
       <c r="F429" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G429" s="8"/>
+    </row>
+    <row r="430" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -15739,8 +16874,9 @@
       <c r="F430" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G430" s="8"/>
+    </row>
+    <row r="431" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -15755,8 +16891,9 @@
       <c r="F431" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G431" s="8"/>
+    </row>
+    <row r="432" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -15771,8 +16908,9 @@
       <c r="F432" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G432" s="8"/>
+    </row>
+    <row r="433" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -15784,11 +16922,12 @@
       </c>
       <c r="D433" s="8"/>
       <c r="E433" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F433" s="8"/>
-    </row>
-    <row r="434" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="G433" s="8"/>
+    </row>
+    <row r="434" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -15800,11 +16939,12 @@
       </c>
       <c r="D434" s="8"/>
       <c r="E434" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F434" s="8"/>
-    </row>
-    <row r="435" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G434" s="8"/>
+    </row>
+    <row r="435" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -15816,11 +16956,12 @@
       </c>
       <c r="D435" s="8"/>
       <c r="E435" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F435" s="8"/>
-    </row>
-    <row r="436" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G435" s="8"/>
+    </row>
+    <row r="436" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -15831,12 +16972,13 @@
         <v>933</v>
       </c>
       <c r="D436" s="8" t="s">
-        <v>1020</v>
+        <v>1081</v>
       </c>
       <c r="E436" s="8"/>
       <c r="F436" s="8"/>
-    </row>
-    <row r="437" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G436" s="8"/>
+    </row>
+    <row r="437" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -15851,8 +16993,9 @@
       <c r="F437" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G437" s="8"/>
+    </row>
+    <row r="438" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -15863,12 +17006,13 @@
         <v>935</v>
       </c>
       <c r="D438" s="8" t="s">
-        <v>1020</v>
+        <v>1081</v>
       </c>
       <c r="E438" s="8"/>
       <c r="F438" s="8"/>
-    </row>
-    <row r="439" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G438" s="8"/>
+    </row>
+    <row r="439" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -15883,8 +17027,9 @@
       <c r="F439" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G439" s="8"/>
+    </row>
+    <row r="440" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -15899,8 +17044,9 @@
       <c r="F440" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G440" s="8"/>
+    </row>
+    <row r="441" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -15915,8 +17061,9 @@
       <c r="F441" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="442" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G441" s="8"/>
+    </row>
+    <row r="442" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -15931,8 +17078,9 @@
       <c r="F442" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="443" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G442" s="8"/>
+    </row>
+    <row r="443" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -15947,8 +17095,9 @@
       <c r="F443" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="444" spans="1:6" ht="63" x14ac:dyDescent="0.25">
+      <c r="G443" s="8"/>
+    </row>
+    <row r="444" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -15960,11 +17109,12 @@
       </c>
       <c r="D444" s="8"/>
       <c r="E444" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F444" s="8"/>
-    </row>
-    <row r="445" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G444" s="8"/>
+    </row>
+    <row r="445" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -15976,11 +17126,12 @@
       </c>
       <c r="D445" s="8"/>
       <c r="E445" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F445" s="8"/>
-    </row>
-    <row r="446" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G445" s="8"/>
+    </row>
+    <row r="446" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -15995,8 +17146,9 @@
       <c r="F446" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="447" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G446" s="8"/>
+    </row>
+    <row r="447" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -16011,8 +17163,9 @@
       <c r="F447" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="448" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G447" s="8"/>
+    </row>
+    <row r="448" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -16024,11 +17177,12 @@
       </c>
       <c r="D448" s="8"/>
       <c r="E448" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F448" s="8"/>
-    </row>
-    <row r="449" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G448" s="8"/>
+    </row>
+    <row r="449" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -16040,11 +17194,12 @@
       </c>
       <c r="D449" s="8"/>
       <c r="E449" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F449" s="8"/>
-    </row>
-    <row r="450" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G449" s="8"/>
+    </row>
+    <row r="450" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -16056,11 +17211,12 @@
       </c>
       <c r="D450" s="8"/>
       <c r="E450" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F450" s="8"/>
-    </row>
-    <row r="451" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G450" s="8"/>
+    </row>
+    <row r="451" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -16072,11 +17228,12 @@
       </c>
       <c r="D451" s="8"/>
       <c r="E451" s="8" t="s">
-        <v>1021</v>
+        <v>1082</v>
       </c>
       <c r="F451" s="8"/>
-    </row>
-    <row r="452" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G451" s="8"/>
+    </row>
+    <row r="452" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -16091,8 +17248,9 @@
       <c r="F452" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G452" s="8"/>
+    </row>
+    <row r="453" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -16107,8 +17265,9 @@
       <c r="F453" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G453" s="8"/>
+    </row>
+    <row r="454" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -16123,8 +17282,9 @@
       <c r="F454" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="455" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G454" s="8"/>
+    </row>
+    <row r="455" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -16139,8 +17299,9 @@
       <c r="F455" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="G455" s="8"/>
+    </row>
+    <row r="456" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -16155,8 +17316,9 @@
       <c r="F456" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G456" s="8"/>
+    </row>
+    <row r="457" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -16171,8 +17333,9 @@
       <c r="F457" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G457" s="8"/>
+    </row>
+    <row r="458" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -16187,8 +17350,9 @@
       <c r="F458" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G458" s="8"/>
+    </row>
+    <row r="459" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -16200,11 +17364,12 @@
       </c>
       <c r="D459" s="8"/>
       <c r="E459" s="8" t="s">
-        <v>1019</v>
+        <v>1080</v>
       </c>
       <c r="F459" s="8"/>
-    </row>
-    <row r="460" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G459" s="8"/>
+    </row>
+    <row r="460" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -16219,12 +17384,13 @@
       <c r="F460" s="8" t="s">
         <v>1016</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A461" s="6" t="s">
+      <c r="G460" s="8"/>
+    </row>
+    <row r="461" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A461" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B461" s="7" t="s">
+      <c r="B461" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C461" s="7" t="s">
@@ -16232,13 +17398,16 @@
       </c>
       <c r="D461" s="8"/>
       <c r="E461" s="8"/>
-      <c r="F461" s="8"/>
-    </row>
-    <row r="462" spans="1:6" ht="78.75" x14ac:dyDescent="0.25">
-      <c r="A462" s="6" t="s">
+      <c r="F461" s="8" t="s">
+        <v>1083</v>
+      </c>
+      <c r="G461" s="8"/>
+    </row>
+    <row r="462" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A462" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B462" s="7" t="s">
+      <c r="B462" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C462" s="7" t="s">
@@ -16246,13 +17415,16 @@
       </c>
       <c r="D462" s="8"/>
       <c r="E462" s="8"/>
-      <c r="F462" s="8"/>
-    </row>
-    <row r="463" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A463" s="6" t="s">
+      <c r="F462" s="8" t="s">
+        <v>1024</v>
+      </c>
+      <c r="G462" s="8"/>
+    </row>
+    <row r="463" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A463" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B463" s="7" t="s">
+      <c r="B463" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C463" s="7" t="s">
@@ -16260,13 +17432,18 @@
       </c>
       <c r="D463" s="8"/>
       <c r="E463" s="8"/>
-      <c r="F463" s="8"/>
-    </row>
-    <row r="464" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A464" s="6" t="s">
+      <c r="F463" s="8" t="s">
+        <v>1084</v>
+      </c>
+      <c r="G463" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A464" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B464" s="7" t="s">
+      <c r="B464" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C464" s="7" t="s">
@@ -16275,12 +17452,15 @@
       <c r="D464" s="8"/>
       <c r="E464" s="8"/>
       <c r="F464" s="8"/>
-    </row>
-    <row r="465" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A465" s="6" t="s">
+      <c r="G464" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A465" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="B465" s="7" t="s">
+      <c r="B465" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C465" s="7" t="s">
@@ -16288,13 +17468,18 @@
       </c>
       <c r="D465" s="8"/>
       <c r="E465" s="8"/>
-      <c r="F465" s="8"/>
-    </row>
-    <row r="466" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A466" s="6" t="s">
+      <c r="F465" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G465" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A466" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B466" s="7" t="s">
+      <c r="B466" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C466" s="7" t="s">
@@ -16303,12 +17488,15 @@
       <c r="D466" s="8"/>
       <c r="E466" s="8"/>
       <c r="F466" s="8"/>
-    </row>
-    <row r="467" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A467" s="6" t="s">
+      <c r="G466" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A467" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B467" s="7" t="s">
+      <c r="B467" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C467" s="7" t="s">
@@ -16317,26 +17505,34 @@
       <c r="D467" s="8"/>
       <c r="E467" s="8"/>
       <c r="F467" s="8"/>
-    </row>
-    <row r="468" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A468" s="6" t="s">
+      <c r="G467" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A468" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B468" s="7" t="s">
+      <c r="B468" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C468" s="7" t="s">
         <v>965</v>
       </c>
       <c r="D468" s="8"/>
-      <c r="E468" s="8"/>
-      <c r="F468" s="8"/>
-    </row>
-    <row r="469" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A469" s="6" t="s">
+      <c r="E468" t="s">
+        <v>1086</v>
+      </c>
+      <c r="F468" s="8" t="s">
+        <v>1087</v>
+      </c>
+      <c r="G468" s="8"/>
+    </row>
+    <row r="469" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A469" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B469" s="7" t="s">
+      <c r="B469" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C469" s="7" t="s">
@@ -16344,13 +17540,16 @@
       </c>
       <c r="D469" s="8"/>
       <c r="E469" s="8"/>
-      <c r="F469" s="8"/>
-    </row>
-    <row r="470" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A470" s="6" t="s">
+      <c r="F469" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G469" s="8"/>
+    </row>
+    <row r="470" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A470" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B470" s="7" t="s">
+      <c r="B470" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C470" s="7" t="s">
@@ -16359,12 +17558,15 @@
       <c r="D470" s="8"/>
       <c r="E470" s="8"/>
       <c r="F470" s="8"/>
-    </row>
-    <row r="471" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A471" s="6" t="s">
+      <c r="G470" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A471" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="B471" s="7" t="s">
+      <c r="B471" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C471" s="7" t="s">
@@ -16372,13 +17574,18 @@
       </c>
       <c r="D471" s="8"/>
       <c r="E471" s="8"/>
-      <c r="F471" s="8"/>
-    </row>
-    <row r="472" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A472" s="6" t="s">
+      <c r="F471" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G471" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A472" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="B472" s="7" t="s">
+      <c r="B472" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C472" s="7" t="s">
@@ -16387,12 +17594,15 @@
       <c r="D472" s="8"/>
       <c r="E472" s="8"/>
       <c r="F472" s="8"/>
-    </row>
-    <row r="473" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A473" s="6" t="s">
+      <c r="G472" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A473" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B473" s="7" t="s">
+      <c r="B473" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C473" s="7" t="s">
@@ -16401,12 +17611,15 @@
       <c r="D473" s="8"/>
       <c r="E473" s="8"/>
       <c r="F473" s="8"/>
-    </row>
-    <row r="474" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A474" s="6" t="s">
+      <c r="G473" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A474" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B474" s="7" t="s">
+      <c r="B474" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C474" s="7" t="s">
@@ -16415,12 +17628,15 @@
       <c r="D474" s="8"/>
       <c r="E474" s="8"/>
       <c r="F474" s="8"/>
-    </row>
-    <row r="475" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A475" s="6" t="s">
+      <c r="G474" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A475" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B475" s="7" t="s">
+      <c r="B475" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C475" s="7" t="s">
@@ -16428,13 +17644,16 @@
       </c>
       <c r="D475" s="8"/>
       <c r="E475" s="8"/>
-      <c r="F475" s="8"/>
-    </row>
-    <row r="476" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A476" s="6" t="s">
+      <c r="F475" s="8" t="s">
+        <v>1089</v>
+      </c>
+      <c r="G475" s="8"/>
+    </row>
+    <row r="476" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A476" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="B476" s="7" t="s">
+      <c r="B476" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C476" s="7" t="s">
@@ -16443,12 +17662,15 @@
       <c r="D476" s="8"/>
       <c r="E476" s="8"/>
       <c r="F476" s="8"/>
-    </row>
-    <row r="477" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A477" s="6" t="s">
+      <c r="G476" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A477" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B477" s="7" t="s">
+      <c r="B477" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C477" s="7" t="s">
@@ -16457,12 +17679,15 @@
       <c r="D477" s="8"/>
       <c r="E477" s="8"/>
       <c r="F477" s="8"/>
-    </row>
-    <row r="478" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A478" s="6" t="s">
+      <c r="G477" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A478" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B478" s="7" t="s">
+      <c r="B478" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C478" s="7" t="s">
@@ -16471,12 +17696,15 @@
       <c r="D478" s="8"/>
       <c r="E478" s="8"/>
       <c r="F478" s="8"/>
-    </row>
-    <row r="479" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A479" s="6" t="s">
+      <c r="G478" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A479" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="B479" s="7" t="s">
+      <c r="B479" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C479" s="7" t="s">
@@ -16485,12 +17713,15 @@
       <c r="D479" s="8"/>
       <c r="E479" s="8"/>
       <c r="F479" s="8"/>
-    </row>
-    <row r="480" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A480" s="6" t="s">
+      <c r="G479" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A480" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B480" s="7" t="s">
+      <c r="B480" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C480" s="7" t="s">
@@ -16499,12 +17730,15 @@
       <c r="D480" s="8"/>
       <c r="E480" s="8"/>
       <c r="F480" s="8"/>
-    </row>
-    <row r="481" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A481" s="6" t="s">
+      <c r="G480" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A481" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="B481" s="7" t="s">
+      <c r="B481" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C481" s="7" t="s">
@@ -16513,12 +17747,15 @@
       <c r="D481" s="8"/>
       <c r="E481" s="8"/>
       <c r="F481" s="8"/>
-    </row>
-    <row r="482" spans="1:6" ht="63" x14ac:dyDescent="0.25">
-      <c r="A482" s="6" t="s">
+      <c r="G481" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="482" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A482" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="B482" s="7" t="s">
+      <c r="B482" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C482" s="7" t="s">
@@ -16527,12 +17764,15 @@
       <c r="D482" s="8"/>
       <c r="E482" s="8"/>
       <c r="F482" s="8"/>
-    </row>
-    <row r="483" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A483" s="6" t="s">
+      <c r="G482" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="483" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A483" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B483" s="7" t="s">
+      <c r="B483" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C483" s="7" t="s">
@@ -16541,12 +17781,15 @@
       <c r="D483" s="8"/>
       <c r="E483" s="8"/>
       <c r="F483" s="8"/>
-    </row>
-    <row r="484" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A484" s="6" t="s">
+      <c r="G483" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="484" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A484" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B484" s="7" t="s">
+      <c r="B484" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C484" s="7" t="s">
@@ -16555,12 +17798,15 @@
       <c r="D484" s="8"/>
       <c r="E484" s="8"/>
       <c r="F484" s="8"/>
-    </row>
-    <row r="485" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A485" s="6" t="s">
+      <c r="G484" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="485" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A485" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B485" s="7" t="s">
+      <c r="B485" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C485" s="7" t="s">
@@ -16569,12 +17815,15 @@
       <c r="D485" s="8"/>
       <c r="E485" s="8"/>
       <c r="F485" s="8"/>
-    </row>
-    <row r="486" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A486" s="6" t="s">
+      <c r="G485" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="486" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A486" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B486" s="7" t="s">
+      <c r="B486" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C486" s="7" t="s">
@@ -16582,13 +17831,18 @@
       </c>
       <c r="D486" s="8"/>
       <c r="E486" s="8"/>
-      <c r="F486" s="8"/>
-    </row>
-    <row r="487" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A487" s="6" t="s">
+      <c r="F486" s="8" t="s">
+        <v>1088</v>
+      </c>
+      <c r="G486" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="487" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A487" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B487" s="7" t="s">
+      <c r="B487" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C487" s="7" t="s">
@@ -16597,12 +17851,15 @@
       <c r="D487" s="8"/>
       <c r="E487" s="8"/>
       <c r="F487" s="8"/>
-    </row>
-    <row r="488" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A488" s="6" t="s">
+      <c r="G487" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="488" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A488" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B488" s="7" t="s">
+      <c r="B488" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C488" s="7" t="s">
@@ -16611,12 +17868,15 @@
       <c r="D488" s="8"/>
       <c r="E488" s="8"/>
       <c r="F488" s="8"/>
-    </row>
-    <row r="489" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A489" s="6" t="s">
+      <c r="G488" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="489" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A489" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B489" s="7" t="s">
+      <c r="B489" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C489" s="7" t="s">
@@ -16625,12 +17885,15 @@
       <c r="D489" s="8"/>
       <c r="E489" s="8"/>
       <c r="F489" s="8"/>
-    </row>
-    <row r="490" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A490" s="6" t="s">
+      <c r="G489" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="490" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A490" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B490" s="7" t="s">
+      <c r="B490" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C490" s="7" t="s">
@@ -16639,12 +17902,15 @@
       <c r="D490" s="8"/>
       <c r="E490" s="8"/>
       <c r="F490" s="8"/>
-    </row>
-    <row r="491" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A491" s="6" t="s">
+      <c r="G490" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="491" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A491" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B491" s="7" t="s">
+      <c r="B491" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C491" s="7" t="s">
@@ -16653,12 +17919,15 @@
       <c r="D491" s="8"/>
       <c r="E491" s="8"/>
       <c r="F491" s="8"/>
-    </row>
-    <row r="492" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A492" s="6" t="s">
+      <c r="G491" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="492" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A492" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B492" s="7" t="s">
+      <c r="B492" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C492" s="7" t="s">
@@ -16667,12 +17936,15 @@
       <c r="D492" s="8"/>
       <c r="E492" s="8"/>
       <c r="F492" s="8"/>
-    </row>
-    <row r="493" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A493" s="6" t="s">
+      <c r="G492" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="493" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A493" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B493" s="7" t="s">
+      <c r="B493" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C493" s="7" t="s">
@@ -16681,12 +17953,15 @@
       <c r="D493" s="8"/>
       <c r="E493" s="8"/>
       <c r="F493" s="8"/>
-    </row>
-    <row r="494" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A494" s="6" t="s">
+      <c r="G493" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="494" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A494" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B494" s="7" t="s">
+      <c r="B494" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C494" s="7" t="s">
@@ -16695,12 +17970,15 @@
       <c r="D494" s="8"/>
       <c r="E494" s="8"/>
       <c r="F494" s="8"/>
-    </row>
-    <row r="495" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A495" s="6" t="s">
+      <c r="G494" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="495" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A495" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="B495" s="7" t="s">
+      <c r="B495" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C495" s="7" t="s">
@@ -16709,12 +17987,15 @@
       <c r="D495" s="8"/>
       <c r="E495" s="8"/>
       <c r="F495" s="8"/>
-    </row>
-    <row r="496" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A496" s="6" t="s">
+      <c r="G495" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="496" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A496" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B496" s="7" t="s">
+      <c r="B496" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C496" s="7" t="s">
@@ -16722,13 +18003,18 @@
       </c>
       <c r="D496" s="8"/>
       <c r="E496" s="8"/>
-      <c r="F496" s="8"/>
-    </row>
-    <row r="497" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A497" s="6" t="s">
+      <c r="F496" s="8" t="s">
+        <v>1090</v>
+      </c>
+      <c r="G496" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="497" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A497" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B497" s="7" t="s">
+      <c r="B497" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C497" s="7" t="s">
@@ -16736,13 +18022,16 @@
       </c>
       <c r="D497" s="8"/>
       <c r="E497" s="8"/>
-      <c r="F497" s="8"/>
-    </row>
-    <row r="498" spans="1:6" ht="126" x14ac:dyDescent="0.25">
-      <c r="A498" s="6" t="s">
+      <c r="F497" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G497" s="8"/>
+    </row>
+    <row r="498" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A498" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B498" s="7" t="s">
+      <c r="B498" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C498" s="7" t="s">
@@ -16751,12 +18040,15 @@
       <c r="D498" s="8"/>
       <c r="E498" s="8"/>
       <c r="F498" s="8"/>
-    </row>
-    <row r="499" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A499" s="6" t="s">
+      <c r="G498" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="499" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A499" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B499" s="7" t="s">
+      <c r="B499" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C499" s="7" t="s">
@@ -16764,13 +18056,16 @@
       </c>
       <c r="D499" s="8"/>
       <c r="E499" s="8"/>
-      <c r="F499" s="8"/>
-    </row>
-    <row r="500" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A500" s="6" t="s">
+      <c r="F499" s="8" t="s">
+        <v>1091</v>
+      </c>
+      <c r="G499" s="8"/>
+    </row>
+    <row r="500" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A500" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B500" s="7" t="s">
+      <c r="B500" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C500" s="7" t="s">
@@ -16778,13 +18073,18 @@
       </c>
       <c r="D500" s="8"/>
       <c r="E500" s="8"/>
-      <c r="F500" s="8"/>
-    </row>
-    <row r="501" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A501" s="6" t="s">
+      <c r="F500" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G500" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="501" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A501" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="B501" s="7" t="s">
+      <c r="B501" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C501" s="7" t="s">
@@ -16792,13 +18092,18 @@
       </c>
       <c r="D501" s="8"/>
       <c r="E501" s="8"/>
-      <c r="F501" s="8"/>
-    </row>
-    <row r="502" spans="1:6" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A502" s="6" t="s">
+      <c r="F501" s="8" t="s">
+        <v>1085</v>
+      </c>
+      <c r="G501" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="502" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A502" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B502" s="7" t="s">
+      <c r="B502" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C502" s="7" t="s">
@@ -16807,12 +18112,15 @@
       <c r="D502" s="8"/>
       <c r="E502" s="8"/>
       <c r="F502" s="8"/>
-    </row>
-    <row r="503" spans="1:6" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A503" s="6" t="s">
+      <c r="G502" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="503" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A503" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B503" s="7" t="s">
+      <c r="B503" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C503" s="7" t="s">
@@ -16821,12 +18129,15 @@
       <c r="D503" s="8"/>
       <c r="E503" s="8"/>
       <c r="F503" s="8"/>
-    </row>
-    <row r="504" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A504" s="6" t="s">
+      <c r="G503" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="504" spans="1:7" ht="51" x14ac:dyDescent="0.2">
+      <c r="A504" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B504" s="7" t="s">
+      <c r="B504" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C504" s="7" t="s">
@@ -16834,13 +18145,16 @@
       </c>
       <c r="D504" s="8"/>
       <c r="E504" s="8"/>
-      <c r="F504" s="8"/>
-    </row>
-    <row r="505" spans="1:6" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A505" s="6" t="s">
+      <c r="F504" s="8" t="s">
+        <v>1092</v>
+      </c>
+      <c r="G504" s="8"/>
+    </row>
+    <row r="505" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A505" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B505" s="7" t="s">
+      <c r="B505" s="13" t="s">
         <v>1015</v>
       </c>
       <c r="C505" s="7" t="s">
@@ -16849,6 +18163,9 @@
       <c r="D505" s="8"/>
       <c r="E505" s="8"/>
       <c r="F505" s="8"/>
+      <c r="G505" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -16863,503 +18180,504 @@
     <hyperlink ref="A4" r:id="rId9" display="https://support.microsoft.com/de-de/office/adresse-funktion-d0c26c0d-3991-446b-8de4-ab46431d4f89" xr:uid="{DB3EAC32-FA3D-DE4B-B5AA-04BAE7192878}"/>
     <hyperlink ref="A6" r:id="rId10" display="https://support.microsoft.com/de-de/office/amordegrk-funktion-a14d0ca1-64a4-42eb-9b3d-b0dededf9e51" xr:uid="{6D5FD264-21FA-D340-9256-12B5391FBD11}"/>
     <hyperlink ref="A7" r:id="rId11" display="https://support.microsoft.com/de-de/office/amorlineark-funktion-7d417b45-f7f5-4dba-a0a5-3451a81079a8" xr:uid="{80582287-98B1-1F4E-AA8D-9663390EB64B}"/>
-    <hyperlink ref="A425" r:id="rId12" display="https://support.microsoft.com/de-de/office/und-funktion-5f19b2e8-e1df-4408-897a-ce285a19e9d9" xr:uid="{FA3DD9DC-0BE4-224D-A81F-14DBF03CF3AB}"/>
-    <hyperlink ref="A11" r:id="rId13" display="https://support.microsoft.com/de-de/office/arabisch-funktion-9a8da418-c17b-4ef9-a657-9370a30a674f" xr:uid="{88317945-FDE7-A549-9423-069800A1E0E8}"/>
-    <hyperlink ref="A31" r:id="rId14" display="https://support.microsoft.com/de-de/office/bereiche-funktion-8392ba32-7a41-43b3-96b0-3695d2ec6152" xr:uid="{217B1609-6621-2E42-93EA-F8805EDFA092}"/>
-    <hyperlink ref="A259" r:id="rId15" display="https://support.microsoft.com/de-de/office/arraytotext-funktion-9cdcad46-2fa5-4c6b-ac92-14e7bc862b8b" xr:uid="{9826580A-33A0-204F-9F32-5251CA87BE1C}"/>
-    <hyperlink ref="A23" r:id="rId16" display="https://support.microsoft.com/de-de/office/asc-funktion-0b6abf1c-c663-4004-a964-ebc00b723266" xr:uid="{F2C0A103-73C9-9D42-A578-969AB622CF78}"/>
-    <hyperlink ref="A18" r:id="rId17" display="https://support.microsoft.com/de-de/office/arcsin-funktion-81fb95e5-6d6f-48c4-bc45-58f955c6d347" xr:uid="{38820B26-3B51-F344-A099-85635B68EEB7}"/>
-    <hyperlink ref="A19" r:id="rId18" display="https://support.microsoft.com/de-de/office/arcsinhyp-funktion-4e00475a-067a-43cf-926a-765b0249717c" xr:uid="{42A5BF76-1C17-C245-BEDA-8F4FF3EF91AF}"/>
-    <hyperlink ref="A20" r:id="rId19" display="https://support.microsoft.com/de-de/office/arctan-funktion-50746fa8-630a-406b-81d0-4a2aed395543" xr:uid="{DA010B25-5816-B445-BE16-2B4695FCC85F}"/>
-    <hyperlink ref="A21" r:id="rId20" display="https://support.microsoft.com/de-de/office/arctan2-funktion-c04592ab-b9e3-4908-b428-c96b3a565033" xr:uid="{3A09FFD5-C854-0E42-8CAF-9C691A81A999}"/>
-    <hyperlink ref="A22" r:id="rId21" display="https://support.microsoft.com/de-de/office/arctanhyp-funktion-3cd65768-0de7-4f1d-b312-d01c8c930d90" xr:uid="{AC5E77F1-656E-FB45-916D-ED8BAE6B261C}"/>
-    <hyperlink ref="A272" r:id="rId22" display="https://support.microsoft.com/de-de/office/mittelabw-funktion-58fe8d65-2a84-4dc7-8052-f3f87b5c6639" xr:uid="{4485EAE7-8507-9A44-842F-79E4734923E7}"/>
-    <hyperlink ref="A273" r:id="rId23" display="https://support.microsoft.com/de-de/office/mittelwert-funktion-047bac88-d466-426c-a32b-8f33eb960cf6" xr:uid="{7FCDEF88-F327-734E-B7DE-A5FF5E9CC1E8}"/>
-    <hyperlink ref="A274" r:id="rId24" display="https://support.microsoft.com/de-de/office/mittelwerta-funktion-f5f84098-d453-4f4c-bbba-3d2c66356091" xr:uid="{759C1C08-B7DD-4946-8643-F24FD59A31CF}"/>
-    <hyperlink ref="A275" r:id="rId25" display="https://support.microsoft.com/de-de/office/mittelwertwenn-funktion-faec8e2e-0dec-4308-af69-f5576d8ac642" xr:uid="{91BE010F-9873-0941-BE78-9A268B9FE141}"/>
-    <hyperlink ref="A276" r:id="rId26" display="https://support.microsoft.com/de-de/office/mittelwertwenns-funktion-48910c45-1fc0-4389-a028-f7c5c3001690" xr:uid="{98615A9F-A1C8-8840-8334-C2205CC83DFD}"/>
-    <hyperlink ref="A29" r:id="rId27" display="https://support.microsoft.com/de-de/office/bahttext-funktion-5ba4d0b4-abd3-4325-8d22-7a92d59aab9c" xr:uid="{0701E001-C301-7441-9EFB-731D0076A984}"/>
-    <hyperlink ref="A30" r:id="rId28" display="https://support.microsoft.com/de-de/office/basis-funktion-2ef61411-aee9-4f29-a811-1c42456c6342" xr:uid="{A28E3701-8906-E145-A009-928500F4B174}"/>
-    <hyperlink ref="A32" r:id="rId29" display="https://support.microsoft.com/de-de/office/besseli-funktion-8d33855c-9a8d-444b-98e0-852267b1c0df" xr:uid="{61DF87AD-4DCC-334D-BB82-6A02DD3D2FFA}"/>
-    <hyperlink ref="A33" r:id="rId30" display="https://support.microsoft.com/de-de/office/besselj-funktion-839cb181-48de-408b-9d80-bd02982d94f7" xr:uid="{4451A7A2-689C-0143-9186-2DB8B2E42FD7}"/>
-    <hyperlink ref="A34" r:id="rId31" display="https://support.microsoft.com/de-de/office/besselk-funktion-606d11bc-06d3-4d53-9ecb-2803e2b90b70" xr:uid="{62DCA904-0BD1-C444-B6A1-744FE2FC715C}"/>
-    <hyperlink ref="A35" r:id="rId32" display="https://support.microsoft.com/de-de/office/bessely-funktion-f3a356b3-da89-42c3-8974-2da54d6353a2" xr:uid="{98E86012-C64C-8546-9474-F5AD01A4AEA5}"/>
-    <hyperlink ref="A38" r:id="rId33" display="https://support.microsoft.com/de-de/office/betavert-funktion-49f1b9a9-a5da-470f-8077-5f1730b5fd47" xr:uid="{061CED11-CB35-9B4F-9217-E934833810FB}"/>
-    <hyperlink ref="A37" r:id="rId34" display="https://support.microsoft.com/de-de/office/beta-vert-funktion-11188c9c-780a-42c7-ba43-9ecb5a878d31" xr:uid="{B1BCFE50-4CB9-6A45-8148-1073BB958E6E}"/>
-    <hyperlink ref="A39" r:id="rId35" display="https://support.microsoft.com/de-de/office/betainv-funktion-8b914ade-b902-43c1-ac9c-c05c54f10d6c" xr:uid="{DBEC3300-8C2D-8247-B860-1B72D8EB0DFA}"/>
-    <hyperlink ref="A36" r:id="rId36" display="https://support.microsoft.com/de-de/office/beta-inv-funktion-e84cb8aa-8df0-4cf6-9892-83a341d252eb" xr:uid="{1AF567B4-8577-B740-B273-F59582D93475}"/>
-    <hyperlink ref="A40" r:id="rId37" display="https://support.microsoft.com/de-de/office/binindez-funktion-63905b57-b3a0-453d-99f4-647bb519cd6c" xr:uid="{6FD58EE8-D794-1842-B707-1D4867FD7FFA}"/>
-    <hyperlink ref="A41" r:id="rId38" display="https://support.microsoft.com/de-de/office/bininhex-funktion-0375e507-f5e5-4077-9af8-28d84f9f41cc" xr:uid="{E25648E9-BBC3-2D41-BD80-8EFAC1388F7B}"/>
-    <hyperlink ref="A42" r:id="rId39" display="https://support.microsoft.com/de-de/office/bininokt-funktion-0a4e01ba-ac8d-4158-9b29-16c25c4c23fd" xr:uid="{32C620AD-AAF0-1142-918A-DB04C9AE95AB}"/>
-    <hyperlink ref="A46" r:id="rId40" display="https://support.microsoft.com/de-de/office/binomvert-funktion-506a663e-c4ca-428d-b9a8-05583d68789c" xr:uid="{789332EE-1E59-244B-84C7-8AB343B8D008}"/>
-    <hyperlink ref="A44" r:id="rId41" display="https://support.microsoft.com/de-de/office/binom-vert-funktion-c5ae37b6-f39c-4be2-94c2-509a1480770c" xr:uid="{2DBF5653-A4B0-FB45-B730-C18D7CA95364}"/>
-    <hyperlink ref="A45" r:id="rId42" display="https://support.microsoft.com/de-de/office/binom-vert-bereich-funktion-17331329-74c7-4053-bb4c-6653a7421595" xr:uid="{ABE96AFC-6DC4-014C-AAFE-486F0CDB4328}"/>
-    <hyperlink ref="A43" r:id="rId43" display="https://support.microsoft.com/de-de/office/binom-inv-funktion-80a0370c-ada6-49b4-83e7-05a91ba77ac9" xr:uid="{8BCCC76F-D1CA-CA4E-8864-D5607D5E455C}"/>
-    <hyperlink ref="A50" r:id="rId44" display="https://support.microsoft.com/de-de/office/bitund-funktion-8a2be3d7-91c3-4b48-9517-64548008563a" xr:uid="{AE1EE01E-5995-064A-8B7A-D1DD6AEAA9CF}"/>
-    <hyperlink ref="A47" r:id="rId45" display="https://support.microsoft.com/de-de/office/bitlverschieb-funktion-c55bb27e-cacd-4c7c-b258-d80861a03c9c" xr:uid="{D2B9470E-20BC-424B-9E50-27B5659CDD60}"/>
-    <hyperlink ref="A48" r:id="rId46" display="https://support.microsoft.com/de-de/office/bitoder-funktion-f6ead5c8-5b98-4c9e-9053-8ad5234919b2" xr:uid="{492E3895-D3F1-8343-89EA-C7F59346E797}"/>
-    <hyperlink ref="A49" r:id="rId47" display="https://support.microsoft.com/de-de/office/bitrverschieb-funktion-274d6996-f42c-4743-abdb-4ff95351222c" xr:uid="{BADAE209-0EA9-9B42-9CDF-2A0F0AE7C1E4}"/>
-    <hyperlink ref="A51" r:id="rId48" display="https://support.microsoft.com/de-de/office/bitxoder-funktion-c81306a1-03f9-4e89-85ac-b86c3cba10e4" xr:uid="{9CBBC8F6-9655-8F4C-81AD-4069FB105B3F}"/>
-    <hyperlink ref="A285" r:id="rId49" display="https://support.microsoft.com/de-de/office/bycol-funktion-58463999-7de5-49ce-8f38-b7f7a2192bfb" xr:uid="{5F3C374C-7C15-704A-8C09-3D8E4C6AE157}"/>
-    <hyperlink ref="A286" r:id="rId50" display="https://support.microsoft.com/de-de/office/byrow-funktion-2e04c677-78c8-4e6b-8c10-a4602f2602bb" xr:uid="{6DECADE0-FF13-0448-85F7-2DA902FF5601}"/>
-    <hyperlink ref="A26" r:id="rId51" display="https://support.microsoft.com/de-de/office/aufrufen-funktion-32d58445-e646-4ffd-8d5e-b45077a5e995" xr:uid="{E128DEEE-D534-3044-B432-2B459FF368A9}"/>
-    <hyperlink ref="A58" r:id="rId52" display="https://support.microsoft.com/de-de/office/obergrenze-funktion-0a5cd7c8-0720-4f0a-bd2c-c943e510899f" xr:uid="{70B6A38F-C1F7-764C-ACCF-D15088BE0C36}"/>
-    <hyperlink ref="A306" r:id="rId53" display="https://support.microsoft.com/de-de/office/obergrenze-mathematik-funktion-80f95d2f-b499-4eee-9f16-f795a8e306c8" xr:uid="{9E3A720C-3D38-C142-BF9F-2A48F2D837E4}"/>
-    <hyperlink ref="A305" r:id="rId54" display="https://support.microsoft.com/de-de/office/obergrenze-genau-funktion-f366a774-527a-4c92-ba49-af0a196e66cb" xr:uid="{59FC1545-41DE-DC4E-B11E-DBA836CFD701}"/>
-    <hyperlink ref="A59" r:id="rId55" display="https://support.microsoft.com/de-de/office/zelle-funktion-51bd39a5-f338-4dbe-a33f-955d67c2b2cf" xr:uid="{F5BBDF85-9A7C-F74B-8240-F5612EC29A65}"/>
-    <hyperlink ref="A480" r:id="rId56" display="https://support.microsoft.com/de-de/office/zeichen-funktion-bbd249c8-b36e-4a91-8017-1c133f9b837a" xr:uid="{34B346E3-D372-7C48-B116-9A56D6E8D441}"/>
-    <hyperlink ref="A60" r:id="rId57" display="https://support.microsoft.com/de-de/office/chivert-funktion-c90d0fbc-5b56-4f5f-ab57-34af1bf6897e" xr:uid="{D8906FEA-428A-0A48-8298-1FCE32A59603}"/>
-    <hyperlink ref="A61" r:id="rId58" display="https://support.microsoft.com/de-de/office/chiinv-funktion-cfbea3f6-6e4f-40c9-a87f-20472e0512af" xr:uid="{B1B6DBB5-2882-3D47-B31F-35D6CCC25474}"/>
-    <hyperlink ref="A67" r:id="rId59" display="https://support.microsoft.com/de-de/office/chitest-funktion-981ff871-b694-4134-848e-38ec704577ac" xr:uid="{B6290C54-97C9-E74F-8B54-3B1261C8AF74}"/>
-    <hyperlink ref="A65" r:id="rId60" display="https://support.microsoft.com/de-de/office/chiqu-vert-funktion-8486b05e-5c05-4942-a9ea-f6b341518732" xr:uid="{F5815CB5-BEFB-4D45-8132-F46A6C7BA186}"/>
-    <hyperlink ref="A66" r:id="rId61" display="https://support.microsoft.com/de-de/office/chiqu-vert-re-funktion-dc4832e8-ed2b-49ae-8d7c-b28d5804c0f2" xr:uid="{59FDF295-59FA-7A40-A377-A5493090CC00}"/>
-    <hyperlink ref="A62" r:id="rId62" display="https://support.microsoft.com/de-de/office/chiqu-inv-funktion-400db556-62b3-472d-80b3-254723e7092f" xr:uid="{B1BB769F-8725-3845-B572-A048FEF603CC}"/>
-    <hyperlink ref="A63" r:id="rId63" display="https://support.microsoft.com/de-de/office/chiqu-inv-re-funktion-435b5ed8-98d5-4da6-823f-293e2cbc94fe" xr:uid="{A4D0269D-AE34-DC4B-B820-CD059D7E45CF}"/>
-    <hyperlink ref="A64" r:id="rId64" display="https://support.microsoft.com/de-de/office/chiqu-test-funktion-2e8a7861-b14a-4985-aa93-fb88de3f260f" xr:uid="{6A934CCF-E9E6-B74A-9D88-B99E89BE00A7}"/>
-    <hyperlink ref="A451" r:id="rId65" display="https://support.microsoft.com/de-de/office/wahl-funktion-fc5c184f-cb62-4ec7-a46e-38653b98f5bc" xr:uid="{FE9440DD-55D8-B644-8870-A2B601EA7C35}"/>
-    <hyperlink ref="A374" r:id="rId66" display="https://support.microsoft.com/de-de/office/spaltenwahl-funktion-bf117976-2722-4466-9b9a-1c01ed9aebff" xr:uid="{2ACE4F83-6AC5-2749-A4CC-86E50F62826C}"/>
-    <hyperlink ref="A483" r:id="rId67" display="https://support.microsoft.com/de-de/office/chooserows-funktion-51ace882-9bab-4a44-9625-7274ef7507a3" xr:uid="{5BD56915-E202-2748-95AC-68E86FF2EC71}"/>
-    <hyperlink ref="A358" r:id="rId68" display="https://support.microsoft.com/de-de/office/s%C3%A4ubern-funktion-26f3d7c5-475f-4a9c-90e5-4b8ba987ba41" xr:uid="{E33277F0-F272-3D41-9F30-E616021E44B8}"/>
-    <hyperlink ref="A68" r:id="rId69" display="https://support.microsoft.com/de-de/office/code-funktion-c32b692b-2ed0-4a04-bdd9-75640144b928" xr:uid="{BA987445-8450-FC41-9539-CEB7D70F262A}"/>
-    <hyperlink ref="A69" r:id="rId70" display="https://support.microsoft.com/de-de/office/spalte-funktion-44e8c754-711c-4df3-9da4-47a55042554b" xr:uid="{A2DCFBDE-F065-F947-8112-F5D4987B363B}"/>
-    <hyperlink ref="A372" r:id="rId71" display="https://support.microsoft.com/de-de/office/spalten-funktion-4e8e7b4e-e603-43e8-b177-956088fa48ca" xr:uid="{FE0F0272-0ECE-6C44-83C8-D7BC072EA3AE}"/>
-    <hyperlink ref="A231" r:id="rId72" display="https://support.microsoft.com/de-de/office/kombinationen-funktion-12a3f276-0a21-423a-8de6-06990aaf638a" xr:uid="{9D0F2C72-28D4-CC4E-93E4-81DB2C83DBE2}"/>
-    <hyperlink ref="A232" r:id="rId73" display="https://support.microsoft.com/de-de/office/kombinationen2-funktion-efb49eaa-4f4c-4cd2-8179-0ddfcf9d035d" xr:uid="{D481C8B0-CED9-3A4B-9EE1-1E82F8CAE778}"/>
-    <hyperlink ref="A233" r:id="rId74" display="https://support.microsoft.com/de-de/office/komplexe-funktion-f0b8f3a9-51cc-4d6d-86fb-3a9362fa4128" xr:uid="{FD0A95D9-B198-1E4C-B02C-E508ABD5A0E1}"/>
-    <hyperlink ref="A414" r:id="rId75" display="https://support.microsoft.com/de-de/office/textkette-funktion-9b1a9a3f-94ff-41af-9736-694cbd6b4ca2" xr:uid="{27BC27CC-1DBA-8547-B9DB-F4C8FBC8A387}"/>
-    <hyperlink ref="A446" r:id="rId76" display="https://support.microsoft.com/de-de/office/verketten-funktion-8f8ae884-2ca8-4f7a-b093-75d702bea31d" xr:uid="{368DA9EC-912D-884D-96C7-379BB436902B}"/>
-    <hyperlink ref="A234" r:id="rId77" display="https://support.microsoft.com/de-de/office/konfidenz-funktion-75ccc007-f77c-4343-bc14-673642091ad6" xr:uid="{FC884DE9-6606-1049-8A65-FEF55A0A70BD}"/>
-    <hyperlink ref="A235" r:id="rId78" display="https://support.microsoft.com/de-de/office/konfidenz-norm-funktion-7cec58a6-85bb-488d-91c3-63828d4fbfd4" xr:uid="{2A133571-A4AD-A648-B507-03995662DB8C}"/>
-    <hyperlink ref="A236" r:id="rId79" display="https://support.microsoft.com/de-de/office/konfidenz-t-funktion-e8eca395-6c3a-4ba9-9003-79ccc61d3c53" xr:uid="{608D2822-ED6E-9648-870D-B104C1A49FC9}"/>
-    <hyperlink ref="A424" r:id="rId80" display="https://support.microsoft.com/de-de/office/umwandeln-funktion-d785bef1-808e-4aac-bdcd-666c810f9af2" xr:uid="{625E11EE-A6D5-5847-B23F-07E6F2A7F07D}"/>
-    <hyperlink ref="A70" r:id="rId81" display="https://support.microsoft.com/de-de/office/korrel-funktion-995dcef7-0c0a-4bed-a3fb-239d7b68ca92" xr:uid="{5B97F27F-5F7B-E74E-8F21-BF949ECCB058}"/>
-    <hyperlink ref="A71" r:id="rId82" display="https://support.microsoft.com/de-de/office/cos-funktion-0fb808a5-95d6-4553-8148-22aebdce5f05" xr:uid="{409A4F26-0B00-E54A-A1E5-3627163454DB}"/>
-    <hyperlink ref="A74" r:id="rId83" display="https://support.microsoft.com/de-de/office/coshyp-funktion-e460d426-c471-43e8-9540-a57ff3b70555" xr:uid="{AAC8FCC0-06F2-744A-968A-4681AA695116}"/>
-    <hyperlink ref="A75" r:id="rId84" display="https://support.microsoft.com/de-de/office/cot-funktion-c446f34d-6fe4-40dc-84f8-cf59e5f5e31a" xr:uid="{9D23C0EA-4784-9845-B029-444722ECF62D}"/>
-    <hyperlink ref="A76" r:id="rId85" display="https://support.microsoft.com/de-de/office/cothyp-funktion-2e0b4cb6-0ba0-403e-aed4-deaa71b49df5" xr:uid="{AA49E6C6-EB86-744D-952F-383803861910}"/>
-    <hyperlink ref="A8" r:id="rId86" display="https://support.microsoft.com/de-de/office/anzahl-funktion-a59cd7fc-b623-4d93-87a4-d23bf411294c" xr:uid="{5C3D9BED-7C2B-5E41-A6FE-20754B31E84D}"/>
-    <hyperlink ref="A9" r:id="rId87" display="https://support.microsoft.com/de-de/office/anzahl2-funktion-7dc98875-d5c1-46f1-9a82-53f3219e2509" xr:uid="{15777651-5CD4-B648-AC4F-6A4DD663DC45}"/>
-    <hyperlink ref="A10" r:id="rId88" display="https://support.microsoft.com/de-de/office/anzahlleerezellen-funktion-6a92d772-675c-4bee-b346-24af6bd3ac22" xr:uid="{9AF59D19-EDDB-114A-B215-67A240855A27}"/>
-    <hyperlink ref="A477" r:id="rId89" display="https://support.microsoft.com/de-de/office/z%C3%A4hlenwenn-funktion-e0de10c6-f885-4e71-abb4-1f464816df34" xr:uid="{3287314E-99A0-3142-8F3F-00F6B77EE874}"/>
-    <hyperlink ref="A478" r:id="rId90" display="https://support.microsoft.com/de-de/office/z%C3%A4hlenwenns-funktion-dda3dc6e-f74e-4aee-88bc-aa8c2a866842" xr:uid="{99897767-AB5D-A541-9597-86C746586D50}"/>
-    <hyperlink ref="A491" r:id="rId91" display="https://support.microsoft.com/de-de/office/zinstermtagva-funktion-eb9a8dfb-2fb2-4c61-8e5d-690b320cf872" xr:uid="{EB454058-7EA3-E740-92D8-D56FC12D7653}"/>
-    <hyperlink ref="A489" r:id="rId92" display="https://support.microsoft.com/de-de/office/zinstermtage-funktion-cc64380b-315b-4e7b-950c-b30b0a76f671" xr:uid="{95957159-418D-F34D-AC71-1EF20D0A0386}"/>
-    <hyperlink ref="A490" r:id="rId93" display="https://support.microsoft.com/de-de/office/zinstermtagnz-funktion-5ab3f0b2-029f-4a8b-bb65-47d525eea547" xr:uid="{48EC4004-F1B5-F844-BB1B-A88ADBB3EF26}"/>
-    <hyperlink ref="A488" r:id="rId94" display="https://support.microsoft.com/de-de/office/zinstermnz-funktion-fd962fef-506b-4d9d-8590-16df5393691f" xr:uid="{AF5D2D26-1C99-7644-8D65-AA1D55BE32E0}"/>
-    <hyperlink ref="A493" r:id="rId95" display="https://support.microsoft.com/de-de/office/zinstermzahl-funktion-a90af57b-de53-4969-9c99-dd6139db2522" xr:uid="{8590BFAA-220A-C941-9A17-D8D2B6B0799B}"/>
-    <hyperlink ref="A492" r:id="rId96" display="https://support.microsoft.com/de-de/office/zinstermvz-funktion-2eb50473-6ee9-4052-a206-77a9a385d5b3" xr:uid="{6BD7BE1A-8AB8-7743-8939-766CC297B292}"/>
-    <hyperlink ref="A77" r:id="rId97" display="https://support.microsoft.com/de-de/office/kovar-funktion-50479552-2c03-4daf-bd71-a5ab88b2db03" xr:uid="{349C56E9-7B29-114D-9CD6-F1F70E8E89D8}"/>
-    <hyperlink ref="A78" r:id="rId98" display="https://support.microsoft.com/de-de/office/kovarianz-p-funktion-6f0e1e6d-956d-4e4b-9943-cfef0bf9edfc" xr:uid="{2B4E563B-40DF-6645-8FBB-7B9BC411EBAC}"/>
-    <hyperlink ref="A79" r:id="rId99" display="https://support.microsoft.com/de-de/office/kovarianz-s-funktion-0a539b74-7371-42aa-a18f-1f5320314977" xr:uid="{29CD52EF-950F-9440-A776-02671AECDD61}"/>
-    <hyperlink ref="A80" r:id="rId100" display="https://support.microsoft.com/de-de/office/kritbinom-funktion-eb6b871d-796b-4d21-b69b-e4350d5f407b" xr:uid="{BF63556B-CEDC-3547-B502-6024C64E053D}"/>
-    <hyperlink ref="A72" r:id="rId101" display="https://support.microsoft.com/de-de/office/cosec-funktion-07379361-219a-4398-8675-07ddc4f135c1" xr:uid="{258D2C22-E99A-FF42-9BDE-D4C5179E7A8B}"/>
-    <hyperlink ref="A73" r:id="rId102" display="https://support.microsoft.com/de-de/office/cosechyp-funktion-f58f2c22-eb75-4dd6-84f4-a503527f8eeb" xr:uid="{7B608A4D-E572-7844-BCD6-74BCDFF1039A}"/>
-    <hyperlink ref="A81" r:id="rId103" display="https://support.microsoft.com/de-de/office/cubekpielement-744608bf-2c62-42cd-b67a-a56109f4b03b" xr:uid="{AE0BDE39-C266-9143-96D0-03F8FE5C8D12}"/>
-    <hyperlink ref="A82" r:id="rId104" display="https://support.microsoft.com/de-de/office/cubeelement-0f6a15b9-2c18-4819-ae89-e1b5c8b398ad" xr:uid="{F6E89DE0-9003-6E48-BBF2-BD144BB5D61C}"/>
-    <hyperlink ref="A83" r:id="rId105" display="https://support.microsoft.com/de-de/office/cubeelementeigenschaft-funktion-001e57d6-b35a-49e5-abcd-05ff599e8951" xr:uid="{D4DCA0A8-C6D2-AA4A-9ABB-E43361EF2F7D}"/>
-    <hyperlink ref="A85" r:id="rId106" display="https://support.microsoft.com/de-de/office/cuberangelement-07efecde-e669-4075-b4bf-6b40df2dc4b3" xr:uid="{9EBA881D-B223-2042-B83E-AFD579E98318}"/>
-    <hyperlink ref="A86" r:id="rId107" display="https://support.microsoft.com/de-de/office/cubemenge-5b2146bd-62d6-4d04-9d8f-670e993ee1d9" xr:uid="{4E80823C-35FE-8646-9204-138E5CEB5345}"/>
-    <hyperlink ref="A84" r:id="rId108" display="https://support.microsoft.com/de-de/office/cubemengenanzahl-funktion-c4c2a438-c1ff-4061-80fe-982f2d705286" xr:uid="{A9C27623-713D-4C42-86A5-1A92850B1009}"/>
-    <hyperlink ref="A87" r:id="rId109" display="https://support.microsoft.com/de-de/office/cubewert-8733da24-26d1-4e34-9b3a-84a8f00dcbe0" xr:uid="{0388A821-E7EF-B84A-B3D2-6FE62500E1CF}"/>
-    <hyperlink ref="A238" r:id="rId110" display="https://support.microsoft.com/de-de/office/kumzinsz-funktion-61067bb0-9016-427d-b95b-1a752af0e606" xr:uid="{6941ABDE-98CD-2145-9F8D-28178E90888D}"/>
-    <hyperlink ref="A237" r:id="rId111" display="https://support.microsoft.com/de-de/office/kumkapital-funktion-94a4516d-bd65-41a1-bc16-053a6af4c04d" xr:uid="{45941D1B-339C-0140-9639-FF2D77672229}"/>
-    <hyperlink ref="A89" r:id="rId112" display="https://support.microsoft.com/de-de/office/datum-funktion-e36c0c8c-4104-49da-ab83-82328b832349" xr:uid="{2AD97F79-ABB3-DF40-B558-5B2A0BE905A5}"/>
-    <hyperlink ref="A88" r:id="rId113" display="https://support.microsoft.com/de-de/office/datedif-25dba1a4-2812-480b-84dd-8b32a451b35c" xr:uid="{C79397FC-546B-894C-BCCC-4432AA700117}"/>
-    <hyperlink ref="A90" r:id="rId114" display="https://support.microsoft.com/de-de/office/datwert-funktion-df8b07d4-7761-4a93-bc33-b7471bbff252" xr:uid="{8BCB99EC-961C-CA42-9D11-458CD610DEF4}"/>
-    <hyperlink ref="A97" r:id="rId115" display="https://support.microsoft.com/de-de/office/dbmittelwert-funktion-a6a2d5ac-4b4b-48cd-a1d8-7b37834e5aee" xr:uid="{C8222945-729F-8C40-B6AA-F57B4F59A0B0}"/>
-    <hyperlink ref="A402" r:id="rId116" display="https://support.microsoft.com/de-de/office/tag-funktion-8a7d1cbb-6c7d-4ba1-8aea-25c134d03101" xr:uid="{4B5EEA29-339D-A64E-A58D-700145576CA7}"/>
-    <hyperlink ref="A403" r:id="rId117" display="https://support.microsoft.com/de-de/office/tage-funktion-57740535-d549-4395-8728-0f07bff0b9df" xr:uid="{68420475-7AE0-1B47-A28F-409BE0AF90B7}"/>
-    <hyperlink ref="A404" r:id="rId118" display="https://support.microsoft.com/de-de/office/tage360-funktion-b9a509fd-49ef-407e-94df-0cbda5718c2a" xr:uid="{2820ADC0-DE5B-7140-8CCB-4DDEB246E833}"/>
-    <hyperlink ref="A156" r:id="rId119" display="https://support.microsoft.com/de-de/office/gda2-funktion-354e7d28-5f93-4ff1-8a52-eb4ee549d9d7" xr:uid="{90066CE9-3122-DB41-8A86-A66040CCACB2}"/>
-    <hyperlink ref="A94" r:id="rId120" display="https://support.microsoft.com/de-de/office/jis-funktion-a4025e73-63d2-4958-9423-21a24794c9e5" xr:uid="{F096E47E-8BAE-5346-85F7-12E057F3F9D3}"/>
-    <hyperlink ref="A91" r:id="rId121" display="https://support.microsoft.com/de-de/office/dbanzahl-funktion-c1fc7b93-fb0d-4d8d-97db-8d5f076eaeb1" xr:uid="{0008E345-3E1C-9046-8842-0F5202CC0E03}"/>
-    <hyperlink ref="A92" r:id="rId122" display="https://support.microsoft.com/de-de/office/dbanzahl2-funktion-00232a6d-5a66-4a01-a25b-c1653fda1244" xr:uid="{0EF8F4F3-4726-7242-8D62-CD96C39FCC18}"/>
-    <hyperlink ref="A155" r:id="rId123" display="https://support.microsoft.com/de-de/office/gda-funktion-519a7a37-8772-4c96-85c0-ed2c209717a5" xr:uid="{02294E7F-7638-0843-B883-FF57C7C30C6E}"/>
-    <hyperlink ref="A106" r:id="rId124" display="https://support.microsoft.com/de-de/office/dezinbin-funktion-0f63dd0e-5d1a-42d8-b511-5bf5c6d43838" xr:uid="{5CE931C9-1E7F-C441-9185-D02204090CF2}"/>
-    <hyperlink ref="A107" r:id="rId125" display="https://support.microsoft.com/de-de/office/dezinhex-funktion-6344ee8b-b6b5-4c6a-a672-f64666704619" xr:uid="{9EA0BB4C-B9E3-9342-982D-8B0B4E0CCB59}"/>
-    <hyperlink ref="A108" r:id="rId126" display="https://support.microsoft.com/de-de/office/dezinokt-funktion-c9d835ca-20b7-40c4-8a9e-d3be351ce00f" xr:uid="{0DC2B4F3-3B75-1446-9075-805969104182}"/>
-    <hyperlink ref="A105" r:id="rId127" display="https://support.microsoft.com/de-de/office/dezimal-funktion-ee554665-6176-46ef-82de-0a283658da2e" xr:uid="{5859FA69-8A1A-4D44-A007-1D41DB6D9F31}"/>
-    <hyperlink ref="A163" r:id="rId128" display="https://support.microsoft.com/de-de/office/grad-funktion-4d6ec4db-e694-4b94-ace0-1cc3f61f9ba1" xr:uid="{C8746787-935F-CD45-B738-82B59A6C7F29}"/>
-    <hyperlink ref="A104" r:id="rId129" display="https://support.microsoft.com/de-de/office/delta-funktion-2f763672-c959-4e07-ac33-fe03220ba432" xr:uid="{DA275F09-B459-8B43-9E32-2BF165C3B6B0}"/>
-    <hyperlink ref="A392" r:id="rId130" display="https://support.microsoft.com/de-de/office/sumquadabw-funktion-8b739616-8376-4df5-8bd0-cfe0a6caf444" xr:uid="{E94FCE75-2923-6F4D-9931-F082C531F83A}"/>
-    <hyperlink ref="A93" r:id="rId131" display="https://support.microsoft.com/de-de/office/dbauszug-funktion-455568bf-4eef-45f7-90f0-ec250d00892e" xr:uid="{E77B26CD-8AEF-AB41-A1D9-0964853DC990}"/>
-    <hyperlink ref="A110" r:id="rId132" display="https://support.microsoft.com/de-de/office/disagio-funktion-71fce9f3-3f05-4acf-a5a3-eac6ef4daa53" xr:uid="{31A4353F-ED8B-FC4C-B011-CF955B963496}"/>
-    <hyperlink ref="A95" r:id="rId133" display="https://support.microsoft.com/de-de/office/dbmax-funktion-f4e8209d-8958-4c3d-a1ee-6351665d41c2" xr:uid="{8EEB1C8B-8342-724B-BD72-4BA03F4D722A}"/>
-    <hyperlink ref="A96" r:id="rId134" display="https://support.microsoft.com/de-de/office/dbmin-funktion-4ae6f1d9-1f26-40f1-a783-6dc3680192a3" xr:uid="{8F91F3E6-F619-0D4F-8049-0D76920E0EAF}"/>
-    <hyperlink ref="A111" r:id="rId135" display="https://support.microsoft.com/de-de/office/dm-funktion-a6cd05d9-9740-4ad3-a469-8109d18ff611" xr:uid="{BA5486B1-722F-6A40-AF22-B495855D39F7}"/>
-    <hyperlink ref="A303" r:id="rId136" display="https://support.microsoft.com/de-de/office/notierungdez-funktion-db85aab0-1677-428a-9dfd-a38476693427" xr:uid="{9A2D56F4-A095-1342-B3E9-4072C0D2A2EC}"/>
-    <hyperlink ref="A302" r:id="rId137" display="https://support.microsoft.com/de-de/office/notierungbru-funktion-0835d163-3023-4a33-9824-3042c5d4f495" xr:uid="{44C346DC-5061-6C4C-A97D-EC2EF845B38E}"/>
-    <hyperlink ref="A98" r:id="rId138" display="https://support.microsoft.com/de-de/office/dbprodukt-funktion-4f96b13e-d49c-47a7-b769-22f6d017cb31" xr:uid="{C1DA81A7-FBFF-FC49-BB2B-695E37DD4050}"/>
-    <hyperlink ref="A456" r:id="rId139" display="https://support.microsoft.com/de-de/office/drop-funktion-1cb4e151-9e17-4838-abe5-9ba48d8c6a34" xr:uid="{3A87F010-B5AE-2C40-B6C0-890B85E6D467}"/>
-    <hyperlink ref="A99" r:id="rId140" display="https://support.microsoft.com/de-de/office/dbstdabw-funktion-026b8c73-616d-4b5e-b072-241871c4ab96" xr:uid="{45CBD3D4-A501-4E47-8F06-5CCED133C756}"/>
-    <hyperlink ref="A100" r:id="rId141" display="https://support.microsoft.com/de-de/office/dbstdabwn-funktion-04b78995-da03-4813-bbd9-d74fd0f5d94b" xr:uid="{5A1A919A-6EAA-FC4B-996C-8D720F683DF4}"/>
-    <hyperlink ref="A101" r:id="rId142" display="https://support.microsoft.com/de-de/office/dbsumme-funktion-53181285-0c4b-4f5a-aaa3-529a322be41b" xr:uid="{3DB7E534-D09F-184A-96AF-F90BD6FB861E}"/>
-    <hyperlink ref="A112" r:id="rId143" display="https://support.microsoft.com/de-de/office/duration-funktion-b254ea57-eadc-4602-a86a-c8e369334038" xr:uid="{33FAE164-6DA9-0D42-8DDF-247CFC6999ED}"/>
-    <hyperlink ref="A102" r:id="rId144" display="https://support.microsoft.com/de-de/office/dbvarianz-funktion-d6747ca9-99c7-48bb-996e-9d7af00f3ed1" xr:uid="{75E1D52C-4D38-A845-B60D-67CE70B0452E}"/>
-    <hyperlink ref="A103" r:id="rId145" display="https://support.microsoft.com/de-de/office/dbvarianzen-funktion-eb0ba387-9cb7-45c8-81e9-0394912502fc" xr:uid="{1A18D5A4-64F3-7148-9B2F-A04F58AD94BF}"/>
-    <hyperlink ref="A113" r:id="rId146" display="https://support.microsoft.com/de-de/office/edatum-funktion-3c920eb2-6e66-44e7-a1f5-753ae47ee4f5" xr:uid="{2BFC7862-BD80-A042-9DAC-21BE2358086C}"/>
-    <hyperlink ref="A114" r:id="rId147" display="https://support.microsoft.com/de-de/office/effektiv-funktion-910d4e4c-79e2-4009-95e6-507e04f11bc4" xr:uid="{8B19A890-9BF3-934D-A813-3217271E47C9}"/>
-    <hyperlink ref="A116" r:id="rId148" display="https://support.microsoft.com/de-de/office/urlcodieren-funktion-07c7fb90-7c60-4bff-8687-fac50fe33d0e" xr:uid="{654E2ACD-440C-854E-8BD1-EBC6091ACF71}"/>
-    <hyperlink ref="A282" r:id="rId149" display="https://support.microsoft.com/de-de/office/monatsende-funktion-7314ffa1-2bc9-4005-9d66-f49db127d628" xr:uid="{05E446BE-9239-0A4A-8059-FEDA912FF50A}"/>
-    <hyperlink ref="A151" r:id="rId150" display="https://support.microsoft.com/de-de/office/gaussfehler-funktion-c53c7e7b-5482-4b6c-883e-56df3c9af349" xr:uid="{98D31F71-B0A0-7C4C-AA86-AC8E3D68EAF5}"/>
-    <hyperlink ref="A152" r:id="rId151" display="https://support.microsoft.com/de-de/office/gaussf-genau-funktion-9a349593-705c-4278-9a98-e4122831a8e0" xr:uid="{DDC2C507-7D91-9848-8CE5-A9345FA2460B}"/>
-    <hyperlink ref="A153" r:id="rId152" display="https://support.microsoft.com/de-de/office/gaussfkompl-funktion-736e0318-70ba-4e8b-8d08-461fe68b71b3" xr:uid="{65DC6BB7-B9EC-9F47-9C83-D02E1F9974BE}"/>
-    <hyperlink ref="A154" r:id="rId153" display="https://support.microsoft.com/de-de/office/gaussfkompl-genau-funktion-e90e6bab-f45e-45df-b2ac-cd2eb4d4a273" xr:uid="{3246C95B-11D2-2543-AFBA-755AC429D68F}"/>
-    <hyperlink ref="A131" r:id="rId154" display="https://support.microsoft.com/de-de/office/fehler-typ-funktion-10958677-7c8d-44f7-ae77-b9a9ee6eefaa" xr:uid="{89889CA4-5C29-5A4C-BE41-716F4CE43A97}"/>
-    <hyperlink ref="A119" r:id="rId155" display="https://support.microsoft.com/de-de/office/euroconvert-funktion-79c8fd67-c665-450c-bb6c-15fc92f8345c" xr:uid="{F10C6EDD-8097-584B-B13D-A2EA04F486B9}"/>
-    <hyperlink ref="A158" r:id="rId156" display="https://support.microsoft.com/de-de/office/gerade-funktion-197b5f06-c795-4c1e-8696-3c3b8a646cf9" xr:uid="{CF27556A-B287-854A-BF7E-0168386D4452}"/>
-    <hyperlink ref="A176" r:id="rId157" display="https://support.microsoft.com/de-de/office/identisch-funktion-d3087698-fc15-4a15-9631-12575cf29926" xr:uid="{36B9F994-7A98-474A-8355-32C75FED6EB2}"/>
-    <hyperlink ref="A120" r:id="rId158" display="https://support.microsoft.com/de-de/office/exp-funktion-c578f034-2c45-4c37-bc8c-329660a63abe" xr:uid="{97EC44EC-9288-8C43-B830-8F145FB427CD}"/>
-    <hyperlink ref="A118" r:id="rId159" display="https://support.microsoft.com/de-de/office/expand-funktion-7433fba5-4ad1-41da-a904-d5d95808bc38" xr:uid="{FD364E4C-9029-BC41-BA38-CF13BC151040}"/>
-    <hyperlink ref="A121" r:id="rId160" display="https://support.microsoft.com/de-de/office/expon-vert-funktion-4c12ae24-e563-4155-bf3e-8b78b6ae140e" xr:uid="{AE25ED80-08A3-BB4C-9DC3-F68894CF6121}"/>
-    <hyperlink ref="A122" r:id="rId161" display="https://support.microsoft.com/de-de/office/exponvert-funktion-68ab45fd-cd6d-4887-9770-9357eb8ee06a" xr:uid="{480C9D4A-43C0-DE4C-A21F-DAED4505E12F}"/>
-    <hyperlink ref="A128" r:id="rId162" display="https://support.microsoft.com/de-de/office/fakult%C3%A4t-funktion-ca8588c2-15f2-41c0-8e8c-c11bd471a4f3" xr:uid="{EFA59580-EF9D-0D4E-95FD-9927587FF29D}"/>
-    <hyperlink ref="A504" r:id="rId163" display="https://support.microsoft.com/de-de/office/zweifakult%C3%A4t-funktion-e67697ac-d214-48eb-b7b7-cce2589ecac8" xr:uid="{B20E789F-E7ED-E244-880C-4E1F107C235C}"/>
-    <hyperlink ref="A129" r:id="rId164" display="https://support.microsoft.com/de-de/office/falsch-funktion-2d58dfa5-9c03-4259-bf8f-f0ae14346904" xr:uid="{9C19B7A0-62EB-DA43-90F9-3BD0DF13A11C}"/>
-    <hyperlink ref="A126" r:id="rId165" display="https://support.microsoft.com/de-de/office/f-vert-funktion-a887efdc-7c8e-46cb-a74a-f884cd29b25d" xr:uid="{F232793A-7A65-844F-BBCD-C8A153113293}"/>
-    <hyperlink ref="A130" r:id="rId166" display="https://support.microsoft.com/de-de/office/fvert-funktion-ecf76fba-b3f1-4e7d-a57e-6a5b7460b786" xr:uid="{524427E0-B865-2A44-932C-23CF28E05F07}"/>
-    <hyperlink ref="A127" r:id="rId167" display="https://support.microsoft.com/de-de/office/f-vert-re-funktion-d74cbb00-6017-4ac9-b7d7-6049badc0520" xr:uid="{29C89ACE-7BAA-FE44-8C7F-CAE715D296D0}"/>
-    <hyperlink ref="A133" r:id="rId168" display="https://support.microsoft.com/de-de/office/filter-funktion-f4f7cb66-82eb-4767-8f7c-4877ad80c759" xr:uid="{C29136F3-4C19-4B4B-8F0F-871D8E8EE3B9}"/>
-    <hyperlink ref="A474" r:id="rId169" display="https://support.microsoft.com/de-de/office/xmlfiltern-funktion-4df72efc-11ec-4951-86f5-c1374812f5b7" xr:uid="{FDA2F4C9-F774-FD42-85FC-68F1C35DC596}"/>
-    <hyperlink ref="A134" r:id="rId170" display="https://support.microsoft.com/de-de/office/finden-findenb-funktionen-c7912941-af2a-4bdf-a553-d0d89b0a0628" xr:uid="{2CBD31C6-408D-6D44-957E-3161D53B5292}"/>
-    <hyperlink ref="A123" r:id="rId171" display="https://support.microsoft.com/de-de/office/f-inv-funktion-0dda0cf9-4ea0-42fd-8c3c-417a1ff30dbe" xr:uid="{62ADE46E-6691-3940-A762-6DA452053582}"/>
-    <hyperlink ref="A124" r:id="rId172" display="https://support.microsoft.com/de-de/office/f-inv-re-funktion-d371aa8f-b0b1-40ef-9cc2-496f0693ac00" xr:uid="{011CE859-F015-AF4B-BB27-2429634E2D6D}"/>
-    <hyperlink ref="A135" r:id="rId173" display="https://support.microsoft.com/de-de/office/finv-funktion-4d46c97c-c368-4852-bc15-41e8e31140b1" xr:uid="{AB7F7E6C-3E9E-6749-83DC-9DC9E7028BC5}"/>
-    <hyperlink ref="A136" r:id="rId174" display="https://support.microsoft.com/de-de/office/fisher-funktion-d656523c-5076-4f95-b87b-7741bf236c69" xr:uid="{F5679FD7-2331-8443-88E9-ECC20985CD91}"/>
-    <hyperlink ref="A137" r:id="rId175" display="https://support.microsoft.com/de-de/office/fisherinv-funktion-62504b39-415a-4284-a285-19c8e82f86bb" xr:uid="{9A166659-CE5B-A142-929C-31F4BE01D178}"/>
-    <hyperlink ref="A132" r:id="rId176" display="https://support.microsoft.com/de-de/office/fest-funktion-ffd5723c-324c-45e9-8b96-e41be2a8274a" xr:uid="{A5599F0B-4585-A540-8565-C8F13D304BBA}"/>
-    <hyperlink ref="A433" r:id="rId177" display="https://support.microsoft.com/de-de/office/untergrenze-funktion-14bb497c-24f2-4e04-b327-b0b4de5a8886" xr:uid="{6652234D-E52F-D048-BF14-638B26F0E3D9}"/>
-    <hyperlink ref="A435" r:id="rId178" display="https://support.microsoft.com/de-de/office/untergrenze-mathematik-funktion-c302b599-fbdb-4177-ba19-2c2b1249a2f5" xr:uid="{4CD514D0-D079-964F-8037-13D3D024CF18}"/>
-    <hyperlink ref="A434" r:id="rId179" display="https://support.microsoft.com/de-de/office/untergrenze-genau-funktion-f769b468-1452-4617-8dc3-02f842a0702e" xr:uid="{433AEC8E-8CE8-3044-8036-04338F61D9FE}"/>
-    <hyperlink ref="A360" r:id="rId180" display="https://support.microsoft.com/de-de/office/vorhersage-und-prognose-lineare-funktionen-50ca49c9-7b40-4892-94e4-7ad38bbeda99" xr:uid="{73ED692F-B9B3-594B-B6FA-DF963C59876A}"/>
-    <hyperlink ref="A326" r:id="rId181" location="_FORECAST.ETS" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS" xr:uid="{9B19E57F-3169-EA4D-BD3D-3E1CBB80DCE3}"/>
-    <hyperlink ref="A327" r:id="rId182" location="_FORECAST.ETS.CONFINT" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS.CONFINT" xr:uid="{9CD44E86-D25B-9848-B115-5AAEB795A4D7}"/>
-    <hyperlink ref="A328" r:id="rId183" location="_FORECAST.ETS.SEASONALITY" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS.SEASONALITY" xr:uid="{FDC4B0D2-AB91-FA45-9D96-6C2FF098853C}"/>
-    <hyperlink ref="A329" r:id="rId184" location="_FORECAST.ETS.STAT" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS.STAT" xr:uid="{032262B0-5D6A-A54C-AFBE-6A79FD5588CC}"/>
-    <hyperlink ref="A330" r:id="rId185" location="_FORECAST.LINEAR" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.LINEAR" xr:uid="{7155189B-E818-4543-B973-74146C6E4D24}"/>
-    <hyperlink ref="A138" r:id="rId186" display="https://support.microsoft.com/de-de/office/formeltext-funktion-0a786771-54fd-4ae2-96ee-09cda35439c8" xr:uid="{406B4FC2-07BF-394D-AEF5-A92107DCC5B7}"/>
-    <hyperlink ref="A139" r:id="rId187" display="https://support.microsoft.com/de-de/office/h%C3%A4ufigkeit-funktion-44e3be2b-eca0-42cd-a3f7-fd9ea898fdb9" xr:uid="{553591EC-4EDB-5549-9240-EABCF2E1AEE8}"/>
-    <hyperlink ref="A125" r:id="rId188" display="https://support.microsoft.com/de-de/office/f-test-funktion-100a59e7-4108-46f8-8443-78ffacb6c0a7" xr:uid="{5FC593FD-9BD6-C94A-9391-2D97894069FE}"/>
-    <hyperlink ref="A140" r:id="rId189" display="https://support.microsoft.com/de-de/office/ftest-funktion-4c9e1202-53fe-428c-a737-976f6fc3f9fd" xr:uid="{0943F989-F559-6646-BD54-FC260BF10214}"/>
-    <hyperlink ref="A502" r:id="rId190" display="https://support.microsoft.com/de-de/office/zw-funktion-2eef9f44-a084-4c61-bdd8-4fe4bb1b71b3" xr:uid="{701C587C-6FA8-3548-8016-E0A2CA85B89A}"/>
-    <hyperlink ref="A503" r:id="rId191" display="https://support.microsoft.com/de-de/office/zw2-funktion-bec29522-bd87-4082-bab9-a241f3fb251d" xr:uid="{0EE2C549-B2E9-F348-807B-574B8DE0FB91}"/>
-    <hyperlink ref="A142" r:id="rId192" display="https://support.microsoft.com/de-de/office/gamma-funktion-ce1702b1-cf55-471d-8307-f83be0fc5297" xr:uid="{649C8232-9B41-C24E-8F20-380C8816BCA0}"/>
-    <hyperlink ref="A144" r:id="rId193" display="https://support.microsoft.com/de-de/office/gamma-vert-funktion-9b6f1538-d11c-4d5f-8966-21f6a2201def" xr:uid="{43998265-CA07-274A-A939-65AFF1258655}"/>
-    <hyperlink ref="A145" r:id="rId194" display="https://support.microsoft.com/de-de/office/gammavert-funktion-7327c94d-0f05-4511-83df-1dd7ed23e19e" xr:uid="{BD34C523-D4ED-6E46-832E-B75FF8728B32}"/>
-    <hyperlink ref="A143" r:id="rId195" display="https://support.microsoft.com/de-de/office/gamma-inv-funktion-74991443-c2b0-4be5-aaab-1aa4d71fbb18" xr:uid="{09CA0764-DB5D-3049-B4AD-BAD21176528D}"/>
-    <hyperlink ref="A146" r:id="rId196" display="https://support.microsoft.com/de-de/office/gammainv-funktion-06393558-37ab-47d0-aa63-432f99e7916d" xr:uid="{593DBEF0-F645-AF4D-B3CC-802A53AE10C0}"/>
-    <hyperlink ref="A147" r:id="rId197" display="https://support.microsoft.com/de-de/office/gammaln-funktion-b838c48b-c65f-484f-9e1d-141c55470eb9" xr:uid="{95AD9404-968C-AD4B-8DBF-B455379DE850}"/>
-    <hyperlink ref="A148" r:id="rId198" display="https://support.microsoft.com/de-de/office/gammaln-genau-funktion-5cdfe601-4e1e-4189-9d74-241ef1caa599" xr:uid="{FD71F682-CE3F-DA4A-B0D7-B5125978E16F}"/>
-    <hyperlink ref="A150" r:id="rId199" display="https://support.microsoft.com/de-de/office/gauss-funktion-069f1b4e-7dee-4d6a-a71f-4b69044a6b33" xr:uid="{B1294B99-C5CE-D44A-8A76-B64935344CA5}"/>
-    <hyperlink ref="A161" r:id="rId200" display="https://support.microsoft.com/de-de/office/ggt-funktion-d5107a51-69e3-461f-8e4c-ddfc21b5073a" xr:uid="{C29C5E0B-726E-404D-AAF0-95B08E0A023A}"/>
-    <hyperlink ref="A157" r:id="rId201" display="https://support.microsoft.com/de-de/office/geomittel-funktion-db1ac48d-25a5-40a0-ab83-0b38980e40d5" xr:uid="{CDCE7EA3-4D07-D14C-A55C-B40868949862}"/>
-    <hyperlink ref="A160" r:id="rId202" display="https://support.microsoft.com/de-de/office/gganzzahl-funktion-f37e7d2a-41da-4129-be95-640883fca9df" xr:uid="{39656DD0-A726-774E-8159-608528B6C753}"/>
-    <hyperlink ref="A319" r:id="rId203" display="https://support.microsoft.com/de-de/office/pivotdatenzuordnen-funktion-8c083b99-a922-4ca0-af5e-3af55960761f" xr:uid="{A856386A-5D8A-544D-B3DE-046F6D535B5A}"/>
-    <hyperlink ref="A166" r:id="rId204" display="https://support.microsoft.com/de-de/office/variation-funktion-541a91dc-3d5e-437d-b156-21324e68b80d" xr:uid="{88085673-D4E6-6541-8109-F3C7E961B62B}"/>
-    <hyperlink ref="A167" r:id="rId205" display="https://support.microsoft.com/de-de/office/harmittel-funktion-5efd9184-fab5-42f9-b1d3-57883a1d3bc6" xr:uid="{CF8D16DA-2139-2A49-B2D2-A8A9EC665F00}"/>
-    <hyperlink ref="A169" r:id="rId206" display="https://support.microsoft.com/de-de/office/hexinbin-funktion-a13aafaa-5737-4920-8424-643e581828c1" xr:uid="{8D821C61-4A73-694E-9097-15E1D20E53CA}"/>
-    <hyperlink ref="A170" r:id="rId207" display="https://support.microsoft.com/de-de/office/hexindez-funktion-8c8c3155-9f37-45a5-a3ee-ee5379ef106e" xr:uid="{B9413722-0FC8-CF4C-9B77-DD0D4596F620}"/>
-    <hyperlink ref="A171" r:id="rId208" display="https://support.microsoft.com/de-de/office/hexinokt-funktion-54d52808-5d19-4bd0-8a63-1096a5d11912" xr:uid="{F5E011A2-494B-2949-956F-6E06948DEA7D}"/>
-    <hyperlink ref="A470" r:id="rId209" display="https://support.microsoft.com/de-de/office/wverweis-funktion-a3034eec-b719-4ba3-bb65-e1ad662ed95f" xr:uid="{CA268D8B-1A65-0440-AE70-1B1BF5E6A187}"/>
-    <hyperlink ref="A383" r:id="rId210" display="https://support.microsoft.com/de-de/office/stunde-funktion-a3afa879-86cb-4339-b1b5-2dd2d7310ac7" xr:uid="{12DB7FC6-70D8-2147-B1AA-B517C47E2216}"/>
-    <hyperlink ref="A172" r:id="rId211" display="https://support.microsoft.com/de-de/office/hstapeln-funktion-98c4ab76-10fe-4b4f-8d5f-af1c125fe8c2" xr:uid="{0B06C6CE-3E83-BC48-AD3B-D8E00B5C66D3}"/>
-    <hyperlink ref="A173" r:id="rId212" display="https://support.microsoft.com/de-de/office/hyperlink-funktion-333c7ce6-c5ae-4164-9c47-7de9b76f577f" xr:uid="{0E4CBD27-CE94-5D42-97F8-06827B9CFA0A}"/>
-    <hyperlink ref="A174" r:id="rId213" display="https://support.microsoft.com/de-de/office/hypgeom-vert-funktion-6dbd547f-1d12-4b1f-8ae5-b0d9e3d22fbf" xr:uid="{598848F9-5547-3544-8605-1087079789ED}"/>
-    <hyperlink ref="A175" r:id="rId214" display="https://support.microsoft.com/de-de/office/hypgeomvert-funktion-23e37961-2871-4195-9629-d0b2c108a12e" xr:uid="{AD1D3730-857B-2A4E-8ED1-86224B25459F}"/>
-    <hyperlink ref="A459" r:id="rId215" display="https://support.microsoft.com/de-de/office/wenn-funktion-69aed7c9-4e8a-4755-a9bc-aa8bbff73be2" xr:uid="{7D636596-2489-824C-8244-C92934A8C149}"/>
-    <hyperlink ref="A460" r:id="rId216" display="https://support.microsoft.com/de-de/office/wennfehler-funktion-c526fd07-caeb-47b8-8bb6-63f3e417f611" xr:uid="{A0BBA6CB-A3B9-3642-9FB0-BA5A7ABBEEBF}"/>
-    <hyperlink ref="A461" r:id="rId217" display="https://support.microsoft.com/de-de/office/wennnv-funktion-6626c961-a569-42fc-a49d-79b4951fd461" xr:uid="{0A4910F9-C884-9541-A808-4812A141323C}"/>
-    <hyperlink ref="A462" r:id="rId218" display="https://support.microsoft.com/de-de/office/wenns-funktion-36329a26-37b2-467c-972b-4a39bd951d45" xr:uid="{8F63CE7E-7EC1-B94C-AB1E-58DAF8137052}"/>
-    <hyperlink ref="A178" r:id="rId219" display="https://support.microsoft.com/de-de/office/imabs-funktion-b31e73c6-d90c-4062-90bc-8eb351d765a1" xr:uid="{A19507E1-818D-514D-A681-1C667DC50624}"/>
-    <hyperlink ref="A179" r:id="rId220" display="https://support.microsoft.com/de-de/office/imagin%C3%A4rteil-funktion-dd5952fd-473d-44d9-95a1-9a17b23e428a" xr:uid="{53F68F97-F078-2E4C-8230-F90525F857C2}"/>
-    <hyperlink ref="A181" r:id="rId221" display="https://support.microsoft.com/de-de/office/imargument-funktion-eed37ec1-23b3-4f59-b9f3-d340358a034a" xr:uid="{AF176B4F-F488-104A-B3FB-4077D2C4532F}"/>
-    <hyperlink ref="A189" r:id="rId222" display="https://support.microsoft.com/de-de/office/imkonjugierte-funktion-2e2fc1ea-f32b-4f9b-9de6-233853bafd42" xr:uid="{A46B2C67-4733-8D4F-BD25-AC90C527F622}"/>
-    <hyperlink ref="A182" r:id="rId223" display="https://support.microsoft.com/de-de/office/imcos-funktion-dad75277-f592-4a6b-ad6c-be93a808a53c" xr:uid="{9F46FC4F-C1A1-6F47-AE45-F93FE7A36A69}"/>
-    <hyperlink ref="A185" r:id="rId224" display="https://support.microsoft.com/de-de/office/imcoshyp-funktion-053e4ddb-4122-458b-be9a-457c405e90ff" xr:uid="{34B88A7F-2DE0-2A47-8ECE-C284C57A71FD}"/>
-    <hyperlink ref="A186" r:id="rId225" display="https://support.microsoft.com/de-de/office/imcot-funktion-dc6a3607-d26a-4d06-8b41-8931da36442c" xr:uid="{A1200398-083D-C041-9999-8EFA58E6293D}"/>
-    <hyperlink ref="A183" r:id="rId226" display="https://support.microsoft.com/de-de/office/imcosec-funktion-9e158d8f-2ddf-46cd-9b1d-98e29904a323" xr:uid="{BE6296E3-DDBD-1E43-B6E6-FEC55B129C6C}"/>
-    <hyperlink ref="A184" r:id="rId227" display="https://support.microsoft.com/de-de/office/imcosechyp-funktion-c0ae4f54-5f09-4fef-8da0-dc33ea2c5ca9" xr:uid="{4AA04412-F90E-724B-BB53-753C8CBC82CF}"/>
-    <hyperlink ref="A187" r:id="rId228" display="https://support.microsoft.com/de-de/office/imdiv-funktion-a505aff7-af8a-4451-8142-77ec3d74d83f" xr:uid="{B73257D2-3C5E-F14D-86E8-E64457F754C4}"/>
-    <hyperlink ref="A188" r:id="rId229" display="https://support.microsoft.com/de-de/office/imexp-funktion-c6f8da1f-e024-4c0c-b802-a60e7147a95f" xr:uid="{3EE96CE8-39D8-874E-93C9-C3A92907BC22}"/>
-    <hyperlink ref="A190" r:id="rId230" display="https://support.microsoft.com/de-de/office/imln-funktion-32b98bcf-8b81-437c-a636-6fb3aad509d8" xr:uid="{9317D16F-67E7-E649-BA4A-48D2ADB80E75}"/>
-    <hyperlink ref="A191" r:id="rId231" display="https://support.microsoft.com/de-de/office/imlog10-funktion-58200fca-e2a2-4271-8a98-ccd4360213a5" xr:uid="{55533C7A-3C29-E749-831B-B4161D3EE884}"/>
-    <hyperlink ref="A192" r:id="rId232" display="https://support.microsoft.com/de-de/office/imlog2-funktion-152e13b4-bc79-486c-a243-e6a676878c51" xr:uid="{752EB90D-B25D-DA49-B688-1AA079EC718A}"/>
-    <hyperlink ref="A180" r:id="rId233" display="https://support.microsoft.com/de-de/office/imapotenz-funktion-210fd2f5-f8ff-4c6a-9d60-30e34fbdef39" xr:uid="{431B459B-F923-2345-BCB5-E22640F0E575}"/>
-    <hyperlink ref="A193" r:id="rId234" display="https://support.microsoft.com/de-de/office/improdukt-funktion-2fb8651a-a4f2-444f-975e-8ba7aab3a5ba" xr:uid="{809E7527-6409-4B4D-A126-033CEEC94FC7}"/>
-    <hyperlink ref="A194" r:id="rId235" display="https://support.microsoft.com/de-de/office/imrealteil-funktion-d12bc4c0-25d0-4bb3-a25f-ece1938bf366" xr:uid="{B6744836-E03D-9C41-A633-2E91B2CE139A}"/>
-    <hyperlink ref="A195" r:id="rId236" display="https://support.microsoft.com/de-de/office/imsec-funktion-6df11132-4411-4df4-a3dc-1f17372459e0" xr:uid="{D66B6BD8-6FBA-E845-A12F-510217612E0F}"/>
-    <hyperlink ref="A196" r:id="rId237" display="https://support.microsoft.com/de-de/office/imsechyp-funktion-f250304f-788b-4505-954e-eb01fa50903b" xr:uid="{B64FD425-E337-2242-A81C-D052CBCA1CDC}"/>
-    <hyperlink ref="A197" r:id="rId238" display="https://support.microsoft.com/de-de/office/imsin-funktion-1ab02a39-a721-48de-82ef-f52bf37859f6" xr:uid="{D624F109-C596-A541-B73D-FE4799CF1119}"/>
-    <hyperlink ref="A198" r:id="rId239" display="https://support.microsoft.com/de-de/office/imsinhyp-funktion-dfb9ec9e-8783-4985-8c42-b028e9e8da3d" xr:uid="{86A7278D-8C3E-9347-BC9C-FEC958E3EA2C}"/>
-    <hyperlink ref="A202" r:id="rId240" display="https://support.microsoft.com/de-de/office/imwurzel-funktion-e1753f80-ba11-4664-a10e-e17368396b70" xr:uid="{349BC6A4-D694-924E-8D37-6F06871B79F5}"/>
-    <hyperlink ref="A199" r:id="rId241" display="https://support.microsoft.com/de-de/office/imsub-funktion-2e404b4d-4935-4e85-9f52-cb08b9a45054" xr:uid="{7E0E7520-F692-5A4C-A9CF-038FB9274D8A}"/>
-    <hyperlink ref="A200" r:id="rId242" display="https://support.microsoft.com/de-de/office/imsumme-funktion-81542999-5f1c-4da6-9ffe-f1d7aaa9457f" xr:uid="{D99F4471-411D-7F4D-B3D4-7732B3ED1CA2}"/>
-    <hyperlink ref="A201" r:id="rId243" display="https://support.microsoft.com/de-de/office/imtan-funktion-8478f45d-610a-43cf-8544-9fc0b553a132" xr:uid="{9C0F0088-142D-2F4F-BD7C-F67061F36866}"/>
-    <hyperlink ref="A203" r:id="rId244" display="https://support.microsoft.com/de-de/office/index-funktion-a5dcf0dd-996d-40a4-a822-b56b061328bd" xr:uid="{BD0C74DF-D10B-284B-8DC0-39B142145DC3}"/>
-    <hyperlink ref="A204" r:id="rId245" display="https://support.microsoft.com/de-de/office/indirekt-funktion-474b3a3a-8a26-4f44-b491-92b6306fa261" xr:uid="{36C98A8A-E0C7-D54E-BC89-56FABB064998}"/>
-    <hyperlink ref="A205" r:id="rId246" display="https://support.microsoft.com/de-de/office/info-funktion-725f259a-0e4b-49b3-8b52-58815c69acae" xr:uid="{94841156-DA6F-BD49-AF22-294B804E07DD}"/>
-    <hyperlink ref="A149" r:id="rId247" display="https://support.microsoft.com/de-de/office/ganzzahl-funktion-a6c4af9e-356d-4369-ab6a-cb1fd9d343ef" xr:uid="{A0DD0FBB-09D1-984C-9EAF-DBB225C866E9}"/>
-    <hyperlink ref="A206" r:id="rId248" display="https://support.microsoft.com/de-de/office/achsenabschnitt-funktion-2a9b74e2-9d47-4772-b663-3bca70bf63ef" xr:uid="{22E9F2A2-D047-6F48-A702-A41A224E6B0B}"/>
-    <hyperlink ref="A487" r:id="rId249" display="https://support.microsoft.com/de-de/office/zinssatz-funktion-5cb34dde-a221-4cb6-b3eb-0b9e55e1316f" xr:uid="{A1DD8DF7-61DB-374D-A766-19BC189E96BA}"/>
-    <hyperlink ref="A494" r:id="rId250" display="https://support.microsoft.com/de-de/office/zinsz-funktion-5cce0ad6-8402-4a41-8d29-61a0b054cb6f" xr:uid="{CAD30E9B-68A8-A048-B013-717947047D24}"/>
-    <hyperlink ref="A177" r:id="rId251" display="https://support.microsoft.com/de-de/office/ikv-funktion-64925eaa-9988-495b-b290-3ad0c163c1bc" xr:uid="{1DE93ED0-A3F4-5946-9981-A84B627E59B9}"/>
-    <hyperlink ref="A216" r:id="rId252" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{436033F3-FD5B-3748-A624-18E65B3F3F58}"/>
-    <hyperlink ref="A211" r:id="rId253" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{B4258E58-EBFF-2B46-AD6E-E4C89200F378}"/>
-    <hyperlink ref="A212" r:id="rId254" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{8E12CE7E-E3B9-244A-A85D-88B206B079FD}"/>
-    <hyperlink ref="A214" r:id="rId255" display="https://support.microsoft.com/de-de/office/istgerade-funktion-aa15929a-d77b-4fbb-92f4-2f479af55356" xr:uid="{BCC6EF0B-AC71-0149-821D-3559A3AD88A5}"/>
-    <hyperlink ref="A213" r:id="rId256" display="https://support.microsoft.com/de-de/office/istformel-funktion-e4d1355f-7121-4ef2-801e-3839bfd6b1e5" xr:uid="{9E524249-8E1D-7448-976B-BFC98204BC20}"/>
-    <hyperlink ref="A217" r:id="rId257" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{960D9B0B-9842-C54A-8A3F-D71571C8635B}"/>
-    <hyperlink ref="A218" r:id="rId258" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{36B93735-F2CF-514C-B090-4B0AA10E4E49}"/>
-    <hyperlink ref="A215" r:id="rId259" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{D608F250-A685-634A-A05D-5E484E7D6961}"/>
-    <hyperlink ref="A221" r:id="rId260" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{D0087E48-D070-564D-8E68-F3C1B224C69F}"/>
-    <hyperlink ref="A220" r:id="rId261" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{E906D8A3-7E86-E84C-8EA2-8906333491E3}"/>
-    <hyperlink ref="A467" r:id="rId262" display="https://support.microsoft.com/de-de/office/isomitted-funktion-831d6fbc-0f07-40c4-9c5b-9c73fd1d60c1" xr:uid="{9F38B315-9056-7D4D-AC05-FBEB29040CC6}"/>
-    <hyperlink ref="A210" r:id="rId263" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{C3CEFF76-978C-824D-8DF4-EDFF56CB2456}"/>
-    <hyperlink ref="A219" r:id="rId264" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{0447F11A-AA47-B94D-85F8-AB0210E86CB2}"/>
-    <hyperlink ref="A207" r:id="rId265" display="https://support.microsoft.com/de-de/office/iso-obergrenze-funktion-e587bb73-6cc2-4113-b664-ff5b09859a83" xr:uid="{80F5C81F-B3A3-1C42-B676-FF8236EE2343}"/>
-    <hyperlink ref="A208" r:id="rId266" display="https://support.microsoft.com/de-de/office/isokalenderwoche-funktion-1c2d0afe-d25b-4ab1-8894-8d0520e90e0e" xr:uid="{46481D82-6827-9346-A404-E5A00F0116D0}"/>
-    <hyperlink ref="A209" r:id="rId267" display="https://support.microsoft.com/de-de/office/ispmt-funktion-fa58adb6-9d39-4ce0-8f43-75399cea56cc" xr:uid="{9FD048C2-E74C-7F47-A5CB-25E01B5E15B3}"/>
-    <hyperlink ref="A224" r:id="rId268" display="https://support.microsoft.com/de-de/office/jis-funktion-b72fb1a7-ba52-448a-b7d3-d2610868b7e2" xr:uid="{C223B310-DD42-B244-AC60-74B1E2B926B3}"/>
-    <hyperlink ref="A242" r:id="rId269" display="https://support.microsoft.com/de-de/office/kurt-funktion-bc3a265c-5da4-4dcb-b7fd-c237789095ab" xr:uid="{43E7E962-D3CC-2B41-A8E1-425ECAD027B7}"/>
-    <hyperlink ref="A244" r:id="rId270" display="https://support.microsoft.com/de-de/office/funktion-lambda-bd212d27-1cd1-4321-a34a-ccbf254b8b67" xr:uid="{7C9CAAB5-330E-6F4E-B4BB-08FCCA6B3679}"/>
-    <hyperlink ref="A227" r:id="rId271" display="https://support.microsoft.com/de-de/office/kgr%C3%B6sste-funktion-3af0af19-1190-42bb-bb8b-01672ec00a64" xr:uid="{F144FA45-345E-384A-9395-48A2E1E385FB}"/>
-    <hyperlink ref="A228" r:id="rId272" display="https://support.microsoft.com/de-de/office/kgv-funktion-7152b67a-8bb5-4075-ae5c-06ede5563c94" xr:uid="{E5D16ED7-3453-374D-A7BE-60CB9B3FDD06}"/>
-    <hyperlink ref="A248" r:id="rId273" display="https://support.microsoft.com/de-de/office/links-linksb-funktionen-9203d2d2-7960-479b-84c6-1ea52b99640c" xr:uid="{E2179A7F-3F69-A647-8D3A-9DFD13835960}"/>
-    <hyperlink ref="A245" r:id="rId274" display="https://support.microsoft.com/de-de/office/l%C3%A4nge-l%C3%A4ngeb-funktionen-29236f94-cedc-429d-affd-b5e33d2c67cb" xr:uid="{F03CF69C-2902-384B-A2EB-900E5AEEF267}"/>
-    <hyperlink ref="A246" r:id="rId275" display="https://support.microsoft.com/de-de/office/let-funktion-34842dd8-b92b-4d3f-b325-b8b8f9908999" xr:uid="{189D1472-4041-6D4A-823D-D8B5AFD8AA8A}"/>
-    <hyperlink ref="A351" r:id="rId276" display="https://support.microsoft.com/de-de/office/rgp-funktion-84d7d0d9-6e50-4101-977a-fa7abf772b6d" xr:uid="{B2BB40BE-6D49-6048-91A0-B7A79DBFB0AB}"/>
-    <hyperlink ref="A249" r:id="rId277" display="https://support.microsoft.com/de-de/office/ln-funktion-81fe1ed7-dac9-4acd-ba1d-07a142c6118f" xr:uid="{29131F59-17FB-3643-A946-8914D806DFF5}"/>
-    <hyperlink ref="A250" r:id="rId278" display="https://support.microsoft.com/de-de/office/log-funktion-4e82f196-1ca9-4747-8fb0-6c4a3abb3280" xr:uid="{70BE5447-29AC-EA44-AD28-EE7BF9A518A1}"/>
-    <hyperlink ref="A251" r:id="rId279" display="https://support.microsoft.com/de-de/office/log10-funktion-c75b881b-49dd-44fb-b6f4-37e3486a0211" xr:uid="{1A37A81B-5125-3540-971C-B8AEDD22F06B}"/>
-    <hyperlink ref="A252" r:id="rId280" display="https://support.microsoft.com/de-de/office/rkp-funktion-f27462d8-3657-4030-866b-a272c1d18b4b" xr:uid="{0509CD6B-8426-8D4B-91BC-51E4FBE01BB5}"/>
-    <hyperlink ref="A253" r:id="rId281" display="https://support.microsoft.com/de-de/office/loginv-funktion-0bd7631a-2725-482b-afb4-de23df77acfe" xr:uid="{6E992EA5-D839-2A4A-85BE-9EF711EAB9A4}"/>
-    <hyperlink ref="A255" r:id="rId282" display="https://support.microsoft.com/de-de/office/lognorm-vert-funktion-eb60d00b-48a9-4217-be2b-6074aee6b070" xr:uid="{9CE0D549-6ABB-3143-853E-6DA9C5A0A3DF}"/>
-    <hyperlink ref="A256" r:id="rId283" display="https://support.microsoft.com/de-de/office/lognormvert-funktion-f8d194cb-9ee3-4034-8c75-1bdb3884100b" xr:uid="{19808655-B6CA-F946-AEDA-96D45B419478}"/>
-    <hyperlink ref="A254" r:id="rId284" display="https://support.microsoft.com/de-de/office/lognorm-inv-funktion-fe79751a-f1f2-4af8-a0a1-e151b2d4f600" xr:uid="{10406489-2538-9D40-9F0A-853FDFD6C170}"/>
-    <hyperlink ref="A447" r:id="rId285" display="https://support.microsoft.com/de-de/office/verweis-funktion-446d94af-663b-451d-8251-369d5e3864cb" xr:uid="{D3D8A9CB-5847-B44F-89C0-05DDA49462BD}"/>
-    <hyperlink ref="A230" r:id="rId286" display="https://support.microsoft.com/de-de/office/klein-funktion-3f21df02-a80c-44b2-afaf-81358f9fdeb4" xr:uid="{70EF6965-1031-EF41-867C-A2E120A774F0}"/>
-    <hyperlink ref="A258" r:id="rId287" display="https://support.microsoft.com/de-de/office/makearray-funktion-b80da5ad-b338-4149-a523-5b221da09097" xr:uid="{83B98FBC-37DF-574E-8C79-87BF3DCE7BB5}"/>
-    <hyperlink ref="A257" r:id="rId288" display="https://support.microsoft.com/de-de/office/map-funktion-48006093-f97c-47c1-bfcc-749263bb1f01" xr:uid="{59C1ECE4-BE8F-BE40-9018-4E7282351BCF}"/>
-    <hyperlink ref="A445" r:id="rId289" display="https://support.microsoft.com/de-de/office/vergleich-funktion-e8dffd45-c762-47d6-bf89-533f4a37673a" xr:uid="{EF9E90E2-D6F3-9F4E-B729-ED5B73548DC8}"/>
-    <hyperlink ref="A260" r:id="rId290" display="https://support.microsoft.com/de-de/office/max-funktion-e0012414-9ac8-4b34-9a47-73e662c08098" xr:uid="{882CF65F-5D90-3D41-AB45-11DA9D8E616F}"/>
-    <hyperlink ref="A261" r:id="rId291" display="https://support.microsoft.com/de-de/office/maxa-funktion-814bda1e-3840-4bff-9365-2f59ac2ee62d" xr:uid="{11DD5A5F-C838-5D4B-83CC-D8A86BB6AB28}"/>
-    <hyperlink ref="A262" r:id="rId292" display="https://support.microsoft.com/de-de/office/maxwenns-funktion-dfd611e6-da2c-488a-919b-9b6376b28883" xr:uid="{6D094BE0-CC24-6542-81A1-743C6F9AD4EA}"/>
-    <hyperlink ref="A263" r:id="rId293" display="https://support.microsoft.com/de-de/office/mdet-funktion-e7bfa857-3834-422b-b871-0ffd03717020" xr:uid="{662E657C-940E-D74F-BEF7-29E04D9A6BAC}"/>
-    <hyperlink ref="A264" r:id="rId294" display="https://support.microsoft.com/de-de/office/mduration-funktion-b3786a69-4f20-469a-94ad-33e5b90a763c" xr:uid="{A48A7B7D-B107-5344-8764-BBADF96A38AC}"/>
-    <hyperlink ref="A265" r:id="rId295" display="https://support.microsoft.com/de-de/office/median-funktion-d0916313-4753-414c-8537-ce85bdd967d2" xr:uid="{B00B9280-F94F-4143-904D-C4B1A6A64A74}"/>
-    <hyperlink ref="A411" r:id="rId296" display="https://support.microsoft.com/de-de/office/teil-teilb-funktionen-d5f9e25c-d7d6-472e-b568-4ecb12433028" xr:uid="{A3092114-B34D-674A-B5AF-B2D6B003F892}"/>
-    <hyperlink ref="A267" r:id="rId297" display="https://support.microsoft.com/de-de/office/min-funktion-61635d12-920f-4ce2-a70f-96f202dcc152" xr:uid="{283BF1E3-22B9-CF47-B3D9-ACB03B1E4405}"/>
-    <hyperlink ref="A271" r:id="rId298" display="https://support.microsoft.com/de-de/office/minwenns-funktion-6ca1ddaa-079b-4e74-80cc-72eef32e6599" xr:uid="{0B063C82-048E-8440-82CA-2EAEDDDA0937}"/>
-    <hyperlink ref="A268" r:id="rId299" display="https://support.microsoft.com/de-de/office/mina-funktion-245a6f46-7ca5-4dc7-ab49-805341bc31d3" xr:uid="{2AD5F53A-3F77-4146-8372-26637AD69766}"/>
-    <hyperlink ref="A269" r:id="rId300" display="https://support.microsoft.com/de-de/office/minute-funktion-af728df0-05c4-4b07-9eed-a84801a60589" xr:uid="{3527691E-1101-2242-BEEE-5828CD4A29DB}"/>
-    <hyperlink ref="A270" r:id="rId301" display="https://support.microsoft.com/de-de/office/minv-funktion-11f55086-adde-4c9f-8eb9-59da2d72efc6" xr:uid="{E48E9793-FE28-C64C-A4FF-658A59B2A851}"/>
-    <hyperlink ref="A331" r:id="rId302" display="https://support.microsoft.com/de-de/office/qikv-funktion-b020f038-7492-4fb4-93c1-35c345b53524" xr:uid="{AEE76B10-03C9-2A42-AA16-218FAD7FC7AA}"/>
-    <hyperlink ref="A277" r:id="rId303" display="https://support.microsoft.com/de-de/office/mmult-funktion-40593ed7-a3cd-4b6b-b9a3-e4ad3c7245eb" xr:uid="{7A42255B-C9A5-9F47-B162-055FDD9CD9BE}"/>
-    <hyperlink ref="A350" r:id="rId304" display="https://support.microsoft.com/de-de/office/rest-funktion-9b6cd169-b6ee-406a-a97b-edf2a9dc24f3" xr:uid="{26B29539-0D0B-2C43-89F7-668A35AE6D70}"/>
-    <hyperlink ref="A278" r:id="rId305" display="https://support.microsoft.com/de-de/office/modalwert-funktion-e45192ce-9122-4980-82ed-4bdc34973120" xr:uid="{0718A4DB-C902-9B46-A891-2C201CB25F4E}"/>
-    <hyperlink ref="A279" r:id="rId306" display="https://support.microsoft.com/de-de/office/modus-vielf-funktion-50fd9464-b2ba-4191-b57a-39446689ae8c" xr:uid="{F960E020-C0F2-7846-82A3-3AAA512D13AF}"/>
-    <hyperlink ref="A280" r:id="rId307" display="https://support.microsoft.com/de-de/office/modus-einf-funktion-f1267c16-66c6-4386-959f-8fba5f8bb7f8" xr:uid="{BE376B62-AFB5-B348-8FB8-1BC9AB2B110C}"/>
-    <hyperlink ref="A281" r:id="rId308" display="https://support.microsoft.com/de-de/office/monat-funktion-579a2881-199b-48b2-ab90-ddba0eba86e8" xr:uid="{F3A542ED-C545-C146-A5CB-99979A502EDF}"/>
-    <hyperlink ref="A449" r:id="rId309" display="https://support.microsoft.com/de-de/office/vrunden-funktion-c299c3b0-15a5-426d-aa4b-d2d5b3baf427" xr:uid="{CBD0AEA5-46A9-B149-8EEF-0F1F94100D15}"/>
-    <hyperlink ref="A322" r:id="rId310" display="https://support.microsoft.com/de-de/office/polynomial-funktion-6fa6373c-6533-41a2-a45e-a56db1db1bf6" xr:uid="{225764CC-2699-A44D-947C-67A7673A9892}"/>
-    <hyperlink ref="A266" r:id="rId311" display="https://support.microsoft.com/de-de/office/meinheit-funktion-c9fe916a-dc26-4105-997d-ba22799853a3" xr:uid="{1ED9EAF4-2811-3945-ACD8-5438ACA1392A}"/>
-    <hyperlink ref="A284" r:id="rId312" display="https://support.microsoft.com/de-de/office/n-funktion-a624cad1-3635-4208-b54a-29733d1278c9" xr:uid="{AC438C25-9CEC-8E44-963D-ABA4B2EDDE48}"/>
-    <hyperlink ref="A304" r:id="rId313" display="https://support.microsoft.com/de-de/office/nv-funktion-5469c2d1-a90c-4fb5-9bbc-64bd9bb6b47c" xr:uid="{47C0226E-5D75-3146-82B1-A9249DE0E578}"/>
-    <hyperlink ref="A288" r:id="rId314" display="https://support.microsoft.com/de-de/office/negbinom-vert-funktion-c8239f89-c2d0-45bd-b6af-172e570f8599" xr:uid="{FF9DAB28-6158-5946-9721-B8B6FCC5818D}"/>
-    <hyperlink ref="A289" r:id="rId315" display="https://support.microsoft.com/de-de/office/negbinomvert-funktion-f59b0a37-bae2-408d-b115-a315609ba714" xr:uid="{AB669EA6-E222-6042-B0CE-5D16DE89CF4E}"/>
-    <hyperlink ref="A290" r:id="rId316" display="https://support.microsoft.com/de-de/office/nettoarbeitstage-funktion-48e717bf-a7a3-495f-969e-5005e3eb18e7" xr:uid="{F4A77D8C-764C-0E47-9602-AA868502D87B}"/>
-    <hyperlink ref="A291" r:id="rId317" display="https://support.microsoft.com/de-de/office/nettoarbeitstage-intl-funktion-a9b26239-4f20-46a1-9ab8-4e925bfd5e28" xr:uid="{F0E6F285-6B82-084A-94BC-52CA030B8626}"/>
-    <hyperlink ref="A293" r:id="rId318" display="https://support.microsoft.com/de-de/office/nominal-funktion-7f1ae29b-6b92-435e-b950-ad8b190ddd2b" xr:uid="{DEB3D147-88E6-A04A-803C-7A955DF6C487}"/>
-    <hyperlink ref="A297" r:id="rId319" display="https://support.microsoft.com/de-de/office/norm-vert-funktion-edb1cc14-a21c-4e53-839d-8082074c9f8d" xr:uid="{4AECE833-4B4D-4C4D-8217-19DC30BB8A4D}"/>
-    <hyperlink ref="A298" r:id="rId320" display="https://support.microsoft.com/de-de/office/normvert-funktion-126db625-c53e-4591-9a22-c9ff422d6d58" xr:uid="{F0EA0BB0-B0BC-754B-986F-55F10CCEAFD9}"/>
-    <hyperlink ref="A299" r:id="rId321" display="https://support.microsoft.com/de-de/office/norminv-funktion-87981ab8-2de0-4cb0-b1aa-e21d4cb879b8" xr:uid="{233A9BAB-C259-2547-9A9B-288871FB62B7}"/>
-    <hyperlink ref="A294" r:id="rId322" display="https://support.microsoft.com/de-de/office/norm-inv-funktion-54b30935-fee7-493c-bedb-2278a9db7e13" xr:uid="{F4861A36-3784-524C-9071-9044BEA08CFE}"/>
-    <hyperlink ref="A296" r:id="rId323" display="https://support.microsoft.com/de-de/office/norm-s-vert-funktion-1e787282-3832-4520-a9ae-bd2a8d99ba88" xr:uid="{D7BEC7C7-A103-C44D-BBB1-1B3638909319}"/>
-    <hyperlink ref="A300" r:id="rId324" display="https://support.microsoft.com/de-de/office/standnormvert-funktion-463369ea-0345-445d-802a-4ff0d6ce7cac" xr:uid="{9DD12FA0-3F51-B240-BDFB-FC370ABB4777}"/>
-    <hyperlink ref="A295" r:id="rId325" display="https://support.microsoft.com/de-de/office/norm-s-inv-funktion-d6d556b4-ab7f-49cd-b526-5a20918452b1" xr:uid="{71AA8DC0-AE83-0144-8D20-A03D651D6030}"/>
-    <hyperlink ref="A301" r:id="rId326" display="https://support.microsoft.com/de-de/office/standnorminv-funktion-8d1bce66-8e4d-4f3b-967c-30eed61f019d" xr:uid="{50830CE1-E680-2243-BDA8-E3A41BCAEC69}"/>
-    <hyperlink ref="A292" r:id="rId327" display="https://support.microsoft.com/de-de/office/nicht-funktion-9cfc6011-a054-40c7-a140-cd4ba2d87d77" xr:uid="{5F8988A0-5583-E045-93A9-7CC93E63AD10}"/>
-    <hyperlink ref="A223" r:id="rId328" display="https://support.microsoft.com/de-de/office/jetzt-funktion-3337fd29-145a-4347-b2e6-20c904739c46" xr:uid="{132FCED4-0753-7B4D-8B7C-FE1D8C7C33D4}"/>
-    <hyperlink ref="A505" r:id="rId329" display="https://support.microsoft.com/de-de/office/zzr-funktion-240535b5-6653-4d2d-bfcf-b6a38151d815" xr:uid="{2E12638C-685B-CC45-9488-E7CF11DB1008}"/>
-    <hyperlink ref="A287" r:id="rId330" display="https://support.microsoft.com/de-de/office/nbw-funktion-8672cb67-2576-4d07-b67b-ac28acf2a568" xr:uid="{FC5ABDAE-1FB3-A444-93C9-1985621C0F89}"/>
-    <hyperlink ref="A479" r:id="rId331" display="https://support.microsoft.com/de-de/office/zahlenwert-funktion-1b05c8cf-2bfa-4437-af70-596c7ea7d879" xr:uid="{4A7E3C1F-15FA-D146-A144-AD6EFE4E30A4}"/>
-    <hyperlink ref="A309" r:id="rId332" display="https://support.microsoft.com/de-de/office/oktinbin-funktion-55383471-3c56-4d27-9522-1a8ec646c589" xr:uid="{0DC2A874-A6E8-6A49-8604-7D1F7F5C8BC2}"/>
-    <hyperlink ref="A310" r:id="rId333" display="https://support.microsoft.com/de-de/office/oktindez-funktion-87606014-cb98-44b2-8dbb-e48f8ced1554" xr:uid="{D6D82AB2-6223-8B40-8341-063B1CC64897}"/>
-    <hyperlink ref="A311" r:id="rId334" display="https://support.microsoft.com/de-de/office/oktinhex-funktion-912175b4-d497-41b4-a029-221f051b858f" xr:uid="{BA2FC8B9-3050-A84E-B9AD-856E2B664291}"/>
-    <hyperlink ref="A426" r:id="rId335" display="https://support.microsoft.com/de-de/office/ungerade-funktion-deae64eb-e08a-4c88-8b40-6d0b42575c98" xr:uid="{9F4C9BDE-AC4E-4845-9786-203417907002}"/>
-    <hyperlink ref="A429" r:id="rId336" display="https://support.microsoft.com/de-de/office/unreger-kurs-funktion-d7d664a8-34df-4233-8d2b-922bcf6a69e1" xr:uid="{F0AE7C14-57B7-FE4A-9327-FF6C028285BB}"/>
-    <hyperlink ref="A430" r:id="rId337" display="https://support.microsoft.com/de-de/office/unreger-rend-funktion-66bc8b7b-6501-4c93-9ce3-2fd16220fe37" xr:uid="{B75B059D-8173-A24A-A99F-CF6A98E71DB7}"/>
-    <hyperlink ref="A431" r:id="rId338" display="https://support.microsoft.com/de-de/office/unregle-kurs-funktion-fb657749-d200-4902-afaf-ed5445027fc4" xr:uid="{95FCC1FB-8CF3-A04E-BA25-0CA24F7022A6}"/>
-    <hyperlink ref="A432" r:id="rId339" display="https://support.microsoft.com/de-de/office/unregle-rend-funktion-c873d088-cf40-435f-8d41-c8232fee9238" xr:uid="{0349C6D9-22E8-DE49-9A88-1D1CB98DC844}"/>
-    <hyperlink ref="A308" r:id="rId340" display="https://support.microsoft.com/de-de/office/bereich-verschieben-funktion-c8de19ae-dd79-4b9b-a14e-b4d906d11b66" xr:uid="{7AA98EF6-AA5C-A341-A14D-BD5757488127}"/>
-    <hyperlink ref="A307" r:id="rId341" display="https://support.microsoft.com/de-de/office/oder-funktion-7d17ad14-8700-4281-b308-00b131e22af0" xr:uid="{9374BF9A-2B31-324A-A05E-61861DC7F49D}"/>
-    <hyperlink ref="A312" r:id="rId342" display="https://support.microsoft.com/de-de/office/pduration-funktion-44f33460-5be5-4c90-b857-22308892adaf" xr:uid="{E4A70BBD-DACE-A445-A316-830F536C8346}"/>
-    <hyperlink ref="A313" r:id="rId343" display="https://support.microsoft.com/de-de/office/pearson-funktion-0c3e30fc-e5af-49c4-808a-3ef66e034c18" xr:uid="{EE808AFB-8995-FA47-8448-223C9B98093C}"/>
-    <hyperlink ref="A333" r:id="rId344" display="https://support.microsoft.com/de-de/office/quantil-exkl-funktion-bbaa7204-e9e1-4010-85bf-c31dc5dce4ba" xr:uid="{1C174383-2667-584C-870F-3518E4F08CE4}"/>
-    <hyperlink ref="A334" r:id="rId345" display="https://support.microsoft.com/de-de/office/quantil-inkl-funktion-680f9539-45eb-410b-9a5e-c1355e5fe2ed" xr:uid="{73D2C438-3867-1342-AB3E-5E8C57CE41DD}"/>
-    <hyperlink ref="A314" r:id="rId346" display="https://support.microsoft.com/de-de/office/quantil-funktion-91b43a53-543c-4708-93de-d626debdddca" xr:uid="{8BC2037B-993C-7B4C-9B09-832F60B94C5F}"/>
-    <hyperlink ref="A335" r:id="rId347" display="https://support.microsoft.com/de-de/office/quantilsrang-exkl-funktion-d8afee96-b7e2-4a2f-8c01-8fcdedaa6314" xr:uid="{61F443C9-5126-6048-BEB3-E04030569031}"/>
-    <hyperlink ref="A336" r:id="rId348" display="https://support.microsoft.com/de-de/office/quantilsrang-inkl-funktion-149592c9-00c0-49ba-86c1-c1f45b80463a" xr:uid="{66B7B582-F6AD-0748-9C7D-4919017D0068}"/>
-    <hyperlink ref="A315" r:id="rId349" display="https://support.microsoft.com/de-de/office/quantilsrang-funktion-f1b5836c-9619-4847-9fc9-080ec9024442" xr:uid="{812E9C0D-41C7-B14D-B41C-EB6C5B710E34}"/>
-    <hyperlink ref="A441" r:id="rId350" display="https://support.microsoft.com/de-de/office/variationen-funktion-3bd1cb9a-2880-41ab-a197-f246a7a602d3" xr:uid="{47233FDF-47D4-C347-A0E7-43A908209BD5}"/>
-    <hyperlink ref="A442" r:id="rId351" display="https://support.microsoft.com/de-de/office/variationen2-funktion-6c7d7fdc-d657-44e6-aa19-2857b25cae4e" xr:uid="{60C42026-5C6B-1B48-8C63-05574A681614}"/>
-    <hyperlink ref="A316" r:id="rId352" display="https://support.microsoft.com/de-de/office/phi-funktion-23e49bc6-a8e8-402d-98d3-9ded87f6295c" xr:uid="{0A258D2E-FA3E-C844-8069-C41634CF97F1}"/>
-    <hyperlink ref="A317" r:id="rId353" display="https://support.microsoft.com/de-de/office/phonetic-funktion-9a329dac-0c0f-42f8-9a55-639086988554" xr:uid="{89327455-772F-A448-BDAA-BAB55E21BB79}"/>
-    <hyperlink ref="A318" r:id="rId354" display="https://support.microsoft.com/de-de/office/pi-funktion-264199d0-a3ba-46b8-975a-c4a04608989b" xr:uid="{73585751-436E-5B42-9EB7-93BFF1A40EAF}"/>
-    <hyperlink ref="A352" r:id="rId355" display="https://support.microsoft.com/de-de/office/rmz-funktion-0214da64-9a63-4996-bc20-214433fa6441" xr:uid="{F588C938-D0BE-1540-B06D-6E7C869C8242}"/>
-    <hyperlink ref="A321" r:id="rId356" display="https://support.microsoft.com/de-de/office/poisson-vert-funktion-8fe148ff-39a2-46cb-abf3-7772695d9636" xr:uid="{146AAF12-9362-F24C-9ABA-4435F2852D8C}"/>
-    <hyperlink ref="A320" r:id="rId357" display="https://support.microsoft.com/de-de/office/poisson-funktion-d81f7294-9d7c-4f75-bc23-80aa8624173a" xr:uid="{CB33C8C1-9733-E54C-9C20-5F6F15B912DC}"/>
-    <hyperlink ref="A323" r:id="rId358" display="https://support.microsoft.com/de-de/office/potenz-funktion-d3f2908b-56f4-4c3f-895a-07fb519c362a" xr:uid="{BAF27558-DD14-3144-A871-A83D909C5F27}"/>
-    <hyperlink ref="A226" r:id="rId359" display="https://support.microsoft.com/de-de/office/kapz-funktion-c370d9e3-7749-4ca4-beea-b06c6ac95e1b" xr:uid="{495BAA0A-3596-5E46-B805-B0CA3B062CAE}"/>
-    <hyperlink ref="A239" r:id="rId360" display="https://support.microsoft.com/de-de/office/kurs-funktion-3ea9deac-8dfa-436f-a7c8-17ea02c21b0a" xr:uid="{7EC8B1AB-EE53-6A41-9181-3847E94420DE}"/>
-    <hyperlink ref="A240" r:id="rId361" display="https://support.microsoft.com/de-de/office/kursdisagio-funktion-d06ad7c1-380e-4be7-9fd9-75e3079acfd3" xr:uid="{77CADF10-039A-4E4A-9F92-5223F58B849F}"/>
-    <hyperlink ref="A241" r:id="rId362" display="https://support.microsoft.com/de-de/office/kursf%C3%A4llig-funktion-52c3b4da-bc7e-476a-989f-a95f675cae77" xr:uid="{E8815276-CA79-794E-9E06-202BBE90A71B}"/>
-    <hyperlink ref="A453" r:id="rId363" display="https://support.microsoft.com/de-de/office/wahrschbereich-funktion-9ac30561-c81c-4259-8253-34f0a238fc49" xr:uid="{4B118244-AF35-6E4B-9000-465FA6C57A8C}"/>
-    <hyperlink ref="A325" r:id="rId364" display="https://support.microsoft.com/de-de/office/produkt-funktion-8e6b5b24-90ee-4650-aeec-80982a0512ce" xr:uid="{8110E3D1-837B-CD48-9AED-1635915D7B34}"/>
-    <hyperlink ref="A165" r:id="rId365" display="https://support.microsoft.com/de-de/office/gross2-funktion-52a5a283-e8b2-49be-8506-b2887b889f94" xr:uid="{0A49C125-D2B3-6049-B2CA-C88AA9E36CE9}"/>
-    <hyperlink ref="A57" r:id="rId366" display="https://support.microsoft.com/de-de/office/bw-funktion-23879d31-0e02-4321-be01-da16e8168cbd" xr:uid="{682CA767-6C04-2648-914A-1DC86D2E14E0}"/>
-    <hyperlink ref="A337" r:id="rId367" display="https://support.microsoft.com/de-de/office/quartile-funktion-93cf8f62-60cd-4fdb-8a92-8451041e1a2a" xr:uid="{972DDC46-DE51-F241-B6A3-8C7E90F22180}"/>
-    <hyperlink ref="A338" r:id="rId368" display="https://support.microsoft.com/de-de/office/quartile-exkl-funktion-5a355b7a-840b-4a01-b0f1-f538c2864cad" xr:uid="{6BD73DC1-02C5-B543-97B4-8685EAC9056C}"/>
-    <hyperlink ref="A339" r:id="rId369" display="https://support.microsoft.com/de-de/office/quartile-inkl-funktion-1bbacc80-5075-42f1-aed6-47d735c4819d" xr:uid="{4B94F43E-4F13-4E4C-8C90-1D3E5AD5E13B}"/>
-    <hyperlink ref="A340" r:id="rId370" display="https://support.microsoft.com/de-de/office/quotient-funktion-9f7bf099-2a18-4282-8fa4-65290cc99dee" xr:uid="{98CC7C43-B069-7845-A671-4DFA91DFD48A}"/>
-    <hyperlink ref="A54" r:id="rId371" display="https://support.microsoft.com/de-de/office/bogenmass-funktion-ac409508-3d48-45f5-ac02-1497c92de5bf" xr:uid="{CA66F762-9FED-C44B-892B-CBBE75F8AE3E}"/>
-    <hyperlink ref="A499" r:id="rId372" display="https://support.microsoft.com/de-de/office/zufallszahl-funktion-4cbfa695-8869-4788-8d90-021ea9f5be73" xr:uid="{F37875CE-56D6-B940-981D-AB38D6BB98C9}"/>
-    <hyperlink ref="A498" r:id="rId373" display="https://support.microsoft.com/de-de/office/zufallsmatrix-funktion-21261e55-3bec-4885-86a6-8b0a47fd4d33" xr:uid="{A06DF868-B8F7-9E48-8520-2777B4880A6A}"/>
-    <hyperlink ref="A497" r:id="rId374" display="https://support.microsoft.com/de-de/office/zufallsbereich-funktion-4cc7f0d1-87dc-4eb7-987f-a469ab381685" xr:uid="{B84A404E-F1E1-F94C-B2D3-7F95574211C2}"/>
-    <hyperlink ref="A342" r:id="rId375" display="https://support.microsoft.com/de-de/office/rang-mittelw-funktion-bd406a6f-eb38-4d73-aa8e-6d1c3c72e83a" xr:uid="{C4B5809E-8B23-0F49-A1A6-C771A4722D33}"/>
-    <hyperlink ref="A341" r:id="rId376" display="https://support.microsoft.com/de-de/office/rang-gleich-funktion-284858ce-8ef6-450e-b662-26245be04a40" xr:uid="{F5DA1679-B5DB-C145-9DFA-6F6D0676B502}"/>
-    <hyperlink ref="A343" r:id="rId377" display="https://support.microsoft.com/de-de/office/rang-funktion-6a2fc49d-1831-4a03-9d8c-c279cf99f723" xr:uid="{8CDEA5AA-7409-2E47-92D5-D37FD9BAD05D}"/>
-    <hyperlink ref="A486" r:id="rId378" display="https://support.microsoft.com/de-de/office/zins-funktion-9f665657-4a7e-4bb7-a030-83fc59e748ce" xr:uid="{E0A5EAD2-FC30-8044-B2A8-C1DA6A785355}"/>
-    <hyperlink ref="A28" r:id="rId379" display="https://support.microsoft.com/de-de/office/auszahlung-funktion-7a3f8b93-6611-4f81-8576-828312c9b5e5" xr:uid="{6CCEB526-500D-C548-9868-DD75DD67E670}"/>
-    <hyperlink ref="A345" r:id="rId380" display="https://support.microsoft.com/de-de/office/reduce-funktion-42e39910-b345-45f3-84b8-0642b568b7cb" xr:uid="{2E371574-C91C-5A46-AD6B-45A969631FAC}"/>
-    <hyperlink ref="A346" r:id="rId381" display="https://support.microsoft.com/de-de/office/register-kennummer-funktion-f8f0af0f-fd66-4704-a0f2-87b27b175b50" xr:uid="{22E5B6FB-0B0F-6C41-885A-B77548885FD5}"/>
-    <hyperlink ref="A117" r:id="rId382" display="https://support.microsoft.com/de-de/office/ersetzen-ersetzenb-funktionen-8d799074-2425-4a8a-84bc-82472868878a" xr:uid="{571C0C08-803F-E24C-9378-7EE1A663EB8B}"/>
-    <hyperlink ref="A465" r:id="rId383" display="https://support.microsoft.com/de-de/office/wiederholen-funktion-04c4d778-e712-43b4-9c15-d656582bb061" xr:uid="{F01BD07E-C92B-A94B-ABEE-D261A97540A9}"/>
-    <hyperlink ref="A344" r:id="rId384" display="https://support.microsoft.com/de-de/office/rechts-rechtsb-240267ee-9afa-4639-a02b-f19e1786cf2f" xr:uid="{43F92E28-DE07-6D4D-8D47-867A2A2251F8}"/>
-    <hyperlink ref="A353" r:id="rId385" display="https://support.microsoft.com/de-de/office/r%C3%B6misch-funktion-d6b0b99e-de46-4704-a518-b45a0f8b56f5" xr:uid="{D0414B1B-66E6-434D-94A9-92BA26103E5E}"/>
-    <hyperlink ref="A357" r:id="rId386" display="https://support.microsoft.com/de-de/office/runden-funktion-c018c5d8-40fb-4053-90b1-b3e7f61a213c" xr:uid="{82E68B80-D11C-BE46-91D2-DC4339FDD85C}"/>
-    <hyperlink ref="A2" r:id="rId387" display="https://support.microsoft.com/de-de/office/abrunden-funktion-2ec94c73-241f-4b01-8c6f-17e6d7968f53" xr:uid="{03A4E142-72B4-4E49-BBD3-8730D013C175}"/>
-    <hyperlink ref="A27" r:id="rId388" display="https://support.microsoft.com/de-de/office/aufrunden-funktion-f8bc9b23-e795-47db-8703-db171d0c42a7" xr:uid="{5A4DC162-42D5-8048-8C5C-C7DBACA4D626}"/>
-    <hyperlink ref="A354" r:id="rId389" display="https://support.microsoft.com/de-de/office/zeile-funktion-3a63b74a-c4d0-4093-b49a-e76eb49a6d8d" xr:uid="{746AD8B1-5CFE-7046-86B6-585B455983BD}"/>
-    <hyperlink ref="A481" r:id="rId390" display="https://support.microsoft.com/de-de/office/zeilen-funktion-b592593e-3fc2-47f2-bec1-bda493811597" xr:uid="{31E99D8C-D12B-DB46-BC64-D8C79B84147D}"/>
-    <hyperlink ref="A495" r:id="rId391" display="https://support.microsoft.com/de-de/office/zsatzinvest-funktion-6f5822d8-7ef1-4233-944c-79e8172930f4" xr:uid="{6A945F62-FCB9-1F47-85EF-C0D652A778BC}"/>
-    <hyperlink ref="A355" r:id="rId392" display="https://support.microsoft.com/de-de/office/bestimmtheitsmass-funktion-d7161715-250d-4a01-b80d-a8364f2be08f" xr:uid="{40E28B58-EB7F-2F43-BC80-65BEA8DC08B8}"/>
-    <hyperlink ref="A356" r:id="rId393" display="https://support.microsoft.com/de-de/office/rtd-funktion-e0cc001a-56f0-470a-9b19-9455dc0eb593" xr:uid="{EA207D6A-1AC3-9B44-BC62-0083121965E4}"/>
-    <hyperlink ref="A359" r:id="rId394" display="https://support.microsoft.com/de-de/office/scan-funktion-d58dfd11-9969-4439-b2dc-e7062724de29" xr:uid="{D168F4E7-02FA-3E4E-ABF0-F2F6C2A6E073}"/>
-    <hyperlink ref="A384" r:id="rId395" display="https://support.microsoft.com/de-de/office/suchen-suchenb-funktionen-9ab04538-0e55-4719-a72e-b6f54513b495" xr:uid="{D7DBFB1C-B4A7-1B40-B949-0748A70E31DB}"/>
-    <hyperlink ref="A363" r:id="rId396" display="https://support.microsoft.com/de-de/office/sec-funktion-ff224717-9c87-4170-9b58-d069ced6d5f7" xr:uid="{A845A323-CB3D-BC45-9709-B9FB07DD30AC}"/>
-    <hyperlink ref="A364" r:id="rId397" display="https://support.microsoft.com/de-de/office/sechyp-funktion-e05a789f-5ff7-4d7f-984a-5edb9b09556f" xr:uid="{B7A17241-831F-FF40-A897-19B2633508E1}"/>
-    <hyperlink ref="A365" r:id="rId398" display="https://support.microsoft.com/de-de/office/sekunde-funktion-740d1cfc-553c-4099-b668-80eaa24e8af1" xr:uid="{6608DCBA-FE21-B345-BEDE-AA07B71BFD2D}"/>
-    <hyperlink ref="A366" r:id="rId399" display="https://support.microsoft.com/de-de/office/sequenz-funktion-57467a98-57e0-4817-9f14-2eb78519ca90" xr:uid="{C4FB79A7-145F-634D-8822-B5F20CF75237}"/>
-    <hyperlink ref="A324" r:id="rId400" display="https://support.microsoft.com/de-de/office/potenzreihe-funktion-a3ab25b5-1093-4f5b-b084-96c49087f637" xr:uid="{08DD69FA-2C23-374A-ADAC-C926C46F5F40}"/>
-    <hyperlink ref="A52" r:id="rId401" display="https://support.microsoft.com/de-de/office/blatt-funktion-44718b6f-8b87-47a1-a9d6-b701c06cff24" xr:uid="{C0E58A7B-70F8-4245-9F9E-B8BCCDB11216}"/>
-    <hyperlink ref="A53" r:id="rId402" display="https://support.microsoft.com/de-de/office/bl%C3%A4tter-funktion-770515eb-e1e8-45ce-8066-b557e5e4b80b" xr:uid="{671BC752-452C-F34B-8DB4-67F71A3D33B7}"/>
-    <hyperlink ref="A448" r:id="rId403" display="https://support.microsoft.com/de-de/office/vorzeichen-funktion-109c932d-fcdc-4023-91f1-2dd0e916a1d8" xr:uid="{FD2DF000-1AE6-D948-8702-31DC3BFD1960}"/>
-    <hyperlink ref="A367" r:id="rId404" display="https://support.microsoft.com/de-de/office/sin-funktion-cf0e3432-8b9e-483c-bc55-a76651c95602" xr:uid="{250102FB-1A65-F746-92DB-A69245F72B7A}"/>
-    <hyperlink ref="A368" r:id="rId405" display="https://support.microsoft.com/de-de/office/sinhyp-funktion-1e4e8b9f-2b65-43fc-ab8a-0a37f4081fa7" xr:uid="{0E95DC34-0474-2E48-AB1A-FF0B909110BD}"/>
-    <hyperlink ref="A361" r:id="rId406" display="https://support.microsoft.com/de-de/office/schiefe-funktion-bdf49d86-b1ef-4804-a046-28eaea69c9fa" xr:uid="{AC0644CB-329D-9E4B-9705-106CC33FADB9}"/>
-    <hyperlink ref="A362" r:id="rId407" display="https://support.microsoft.com/de-de/office/schiefe-p-funktion-76530a5c-99b9-48a1-8392-26632d542fcb" xr:uid="{AE379053-708E-8B4B-A028-93C75A06E309}"/>
-    <hyperlink ref="A247" r:id="rId408" display="https://support.microsoft.com/de-de/office/lia-funktion-cdb666e5-c1c6-40a7-806a-e695edc2f1c8" xr:uid="{D4F6F0F6-8C08-8C45-98A2-E1B14069F19B}"/>
-    <hyperlink ref="A369" r:id="rId409" display="https://support.microsoft.com/de-de/office/steigung-funktion-11fb8f97-3117-4813-98aa-61d7e01276b9" xr:uid="{09449A2D-AD0F-2E42-B99F-609F554E85A9}"/>
-    <hyperlink ref="A229" r:id="rId410" display="https://support.microsoft.com/de-de/office/kkleinste-funktion-17da8222-7c82-42b2-961b-14c45384df07" xr:uid="{3699D5B6-2999-9744-8E39-6EF228F58945}"/>
-    <hyperlink ref="A370" r:id="rId411" display="https://support.microsoft.com/de-de/office/sortieren-funktion-22f63bd0-ccc8-492f-953d-c20e8e44b86c" xr:uid="{D72EC34E-3D65-7F4F-9A88-FABA83FBCE14}"/>
-    <hyperlink ref="A371" r:id="rId412" display="https://support.microsoft.com/de-de/office/sortierennach-funktion-cd2d7a62-1b93-435c-b561-d6a35134f28f" xr:uid="{C20095C5-0F6E-1744-9956-7ED628D42616}"/>
-    <hyperlink ref="A468" r:id="rId413" display="https://support.microsoft.com/de-de/office/wurzel-funktion-654975c2-05c4-4831-9a24-2c65e4040fdf" xr:uid="{7B8C950B-F8F6-444F-86E7-3E46CAA046F2}"/>
-    <hyperlink ref="A469" r:id="rId414" display="https://support.microsoft.com/de-de/office/wurzelpi-funktion-1fb4e63f-9b51-46d6-ad68-b3e7a8b519b4" xr:uid="{CF76EC8B-C727-9346-BD78-B656022D249B}"/>
-    <hyperlink ref="A379" r:id="rId415" display="https://support.microsoft.com/de-de/office/standardisierung-funktion-81d66554-2d54-40ec-ba83-6437108ee775" xr:uid="{429E473C-BDA3-0544-8C35-93F5E6EB691F}"/>
-    <hyperlink ref="A55" r:id="rId416" display="https://support.microsoft.com/de-de/office/b%C3%B6rsenhistorie-funktion-1ac8b5b3-5f62-4d94-8ab8-7504ec7239a8" xr:uid="{A58DA5A7-C8D7-B545-99A3-5C2FB209AC41}"/>
-    <hyperlink ref="A380" r:id="rId417" display="https://support.microsoft.com/de-de/office/stabw-funktion-51fecaaa-231e-4bbb-9230-33650a72c9b0" xr:uid="{CEB66509-32CB-6B40-A384-F11BDD4299D8}"/>
-    <hyperlink ref="A375" r:id="rId418" display="https://support.microsoft.com/de-de/office/stabw-n-funktion-6e917c05-31a0-496f-ade7-4f4e7462f285" xr:uid="{40396F78-DE94-B442-B44C-3BF7FB4BCB43}"/>
-    <hyperlink ref="A376" r:id="rId419" display="https://support.microsoft.com/de-de/office/stabw-s-funktion-7d69cf97-0c1f-4acf-be27-f3e83904cc23" xr:uid="{FE483345-D0B5-1546-93F6-AE6FFF969A64}"/>
-    <hyperlink ref="A377" r:id="rId420" display="https://support.microsoft.com/de-de/office/stabwa-funktion-5ff38888-7ea5-48de-9a6d-11ed73b29e9d" xr:uid="{D2D5FF7B-77F4-9343-962D-31F110FE046C}"/>
-    <hyperlink ref="A381" r:id="rId421" display="https://support.microsoft.com/de-de/office/stabwn-funktion-1f7c1c88-1bec-4422-8242-e9f7dc8bb195" xr:uid="{33224F56-C105-0844-97F6-FA9230B74918}"/>
-    <hyperlink ref="A378" r:id="rId422" display="https://support.microsoft.com/de-de/office/stabwna-funktion-5578d4d6-455a-4308-9991-d405afe2c28c" xr:uid="{F977496A-6379-9D48-B292-440865256ED6}"/>
-    <hyperlink ref="A382" r:id="rId423" display="https://support.microsoft.com/de-de/office/stfehleryx-funktion-6ce74b2c-449d-4a6e-b9ac-f9cef5ba48ab" xr:uid="{8ED655FB-E5BE-174E-8D52-BD8FEB52BA55}"/>
-    <hyperlink ref="A455" r:id="rId424" display="https://support.microsoft.com/de-de/office/wechseln-funktion-6434944e-a904-4336-a9b0-1e58df3bc332" xr:uid="{4A755A24-F428-3E47-BA62-BFEDB5DCBF03}"/>
-    <hyperlink ref="A412" r:id="rId425" display="https://support.microsoft.com/de-de/office/teilergebnis-funktion-7b027003-f060-4ade-9040-e478765b9939" xr:uid="{313F80A4-D21E-F44B-9A51-43335BA7B7C7}"/>
-    <hyperlink ref="A385" r:id="rId426" display="https://support.microsoft.com/de-de/office/summe-funktion-043e1c7d-7726-4e80-8f32-07b23e057f89" xr:uid="{80BE5EFF-3785-D349-B585-9EA2D76FB784}"/>
-    <hyperlink ref="A387" r:id="rId427" display="https://support.microsoft.com/de-de/office/summewenn-funktion-169b8c99-c05c-4483-a712-1697a653039b" xr:uid="{6E600DCC-CF85-8949-A785-54F446A11EF5}"/>
-    <hyperlink ref="A388" r:id="rId428" display="https://support.microsoft.com/de-de/office/summewenns-funktion-c9e748f5-7ea7-455d-9406-611cebce642b" xr:uid="{82D89B89-949E-CF49-8183-7F51EBE738B7}"/>
-    <hyperlink ref="A386" r:id="rId429" display="https://support.microsoft.com/de-de/office/summenprodukt-funktion-16753e75-9f68-4874-94ac-4d2145a2fd2e" xr:uid="{01F31EBC-E9F3-4840-A732-F330E0DBCE52}"/>
-    <hyperlink ref="A332" r:id="rId430" display="https://support.microsoft.com/de-de/office/quadratesumme-funktion-e3313c02-51cc-4963-aae6-31442d9ec307" xr:uid="{B1D704CA-98B6-1E42-A4ED-AB40D7253AF6}"/>
-    <hyperlink ref="A389" r:id="rId431" display="https://support.microsoft.com/de-de/office/summex2my2-funktion-9e599cc5-5399-48e9-a5e0-e37812dfa3e9" xr:uid="{7B286FF9-3061-2B4C-BBE4-DE1D2C09B2AC}"/>
-    <hyperlink ref="A390" r:id="rId432" display="https://support.microsoft.com/de-de/office/summex2py2-funktion-826b60b4-0aa2-4e5e-81d2-be704d3d786f" xr:uid="{11857C07-9F20-8F4F-8E45-8924A9E7DBF2}"/>
-    <hyperlink ref="A391" r:id="rId433" display="https://support.microsoft.com/de-de/office/funktion-summexmy2-9d144ac1-4d79-43de-b524-e2ecee23b299" xr:uid="{59B7F3A8-A388-AB45-838B-72CEE09AAA15}"/>
-    <hyperlink ref="A394" r:id="rId434" display="https://support.microsoft.com/de-de/office/switch-funktion-47ab33c0-28ce-4530-8a45-d532ec4aa25e" xr:uid="{A90FD150-1F5E-1C4D-88CF-7A7F64F531D1}"/>
-    <hyperlink ref="A109" r:id="rId435" display="https://support.microsoft.com/de-de/office/dia-funktion-069f8106-b60b-4ca2-98e0-2a0f206bdb27" xr:uid="{01C24D5D-A38F-A14D-B77D-8B1C2756D26A}"/>
-    <hyperlink ref="A395" r:id="rId436" display="https://support.microsoft.com/de-de/office/t-funktion-fb83aeec-45e7-4924-af95-53e073541228" xr:uid="{BEC2B989-8829-0F43-A9D8-B56FA5406553}"/>
-    <hyperlink ref="A405" r:id="rId437" display="https://support.microsoft.com/de-de/office/tan-funktion-08851a40-179f-4052-b789-d7f699447401" xr:uid="{176E8C2E-A56C-C34D-8396-8C4FAEF84638}"/>
-    <hyperlink ref="A406" r:id="rId438" display="https://support.microsoft.com/de-de/office/tanhyp-funktion-017222f0-a0c3-4f69-9787-b3202295dc6c" xr:uid="{DD38286D-F469-6849-89F5-A279B9B61C89}"/>
-    <hyperlink ref="A423" r:id="rId439" display="https://support.microsoft.com/de-de/office/take-funktion-25382ff1-5da1-4f78-ab43-f33bd2e4e003" xr:uid="{A8DB4899-4835-E34E-AB4B-1DD7A12EEBEF}"/>
-    <hyperlink ref="A407" r:id="rId440" display="https://support.microsoft.com/de-de/office/tbill%C3%A4quiv-funktion-2ab72d90-9b4d-4efe-9fc2-0f81f2c19c8c" xr:uid="{72385635-429F-3C42-BC4E-06A5165232FC}"/>
-    <hyperlink ref="A408" r:id="rId441" display="https://support.microsoft.com/de-de/office/tbillkurs-funktion-eacca992-c29d-425a-9eb8-0513fe6035a2" xr:uid="{3A8C1B18-99EF-0F42-8FD4-E120F84E261C}"/>
-    <hyperlink ref="A409" r:id="rId442" display="https://support.microsoft.com/de-de/office/tbillrendite-funktion-6d381232-f4b0-4cd5-8e97-45b9c03468ba" xr:uid="{C4C63592-4143-F744-87D0-B0BA7BD84631}"/>
-    <hyperlink ref="A399" r:id="rId443" display="https://support.microsoft.com/de-de/office/t-vert-funktion-4329459f-ae91-48c2-bba8-1ead1c6c21b2" xr:uid="{3E1B6F9B-70E7-5A49-95F2-B36A7B5F0F26}"/>
-    <hyperlink ref="A400" r:id="rId444" display="https://support.microsoft.com/de-de/office/t-vert-2s-funktion-198e9340-e360-4230-bd21-f52f22ff5c28" xr:uid="{7065560B-51A1-C54C-91E8-1A3A5CD99408}"/>
-    <hyperlink ref="A401" r:id="rId445" display="https://support.microsoft.com/de-de/office/t-vert-re-funktion-20a30020-86f9-4b35-af1f-7ef6ae683eda" xr:uid="{E4DF2E9F-274D-664D-A4F6-B2DFB287CE5C}"/>
-    <hyperlink ref="A410" r:id="rId446" display="https://support.microsoft.com/de-de/office/tvert-funktion-630a7695-4021-4853-9468-4a1f9dcdd192" xr:uid="{0EDCD59C-B7D7-754B-92E4-DA1AF889D913}"/>
-    <hyperlink ref="A413" r:id="rId447" display="https://support.microsoft.com/de-de/office/text-funktion-20d5ac4d-7b94-49fd-bb38-93d29371225c" xr:uid="{2C8F8DBC-B4B5-6646-B61F-77AE41C57688}"/>
-    <hyperlink ref="A415" r:id="rId448" display="https://support.microsoft.com/de-de/office/textnach-funktion-c8db2546-5b51-416a-9690-c7e6722e90b4" xr:uid="{15C5A538-DAA3-844D-8557-799AFA61E569}"/>
-    <hyperlink ref="A418" r:id="rId449" display="https://support.microsoft.com/de-de/office/textbefore-funktion-d099c28a-dba8-448e-ac6c-f086d0fa1b29" xr:uid="{63F0C2AB-EA07-C040-93EF-64283CDD260F}"/>
-    <hyperlink ref="A417" r:id="rId450" display="https://support.microsoft.com/de-de/office/textjoin-funktion-357b449a-ec91-49d0-80c3-0e8fc845691c" xr:uid="{DA54B389-CD27-084F-BD6C-279B75421BD8}"/>
-    <hyperlink ref="A416" r:id="rId451" display="https://support.microsoft.com/de-de/office/textsplit-funktion-b1ca414e-4c21-4ca0-b1b7-bdecace8a6e7" xr:uid="{B73440B5-EF7B-A54A-87A6-5FD9D01BCC55}"/>
-    <hyperlink ref="A484" r:id="rId452" display="https://support.microsoft.com/de-de/office/zeit-funktion-9a5aff99-8f7d-4611-845e-747d0b8d5457" xr:uid="{750CE4F7-E5F0-4B44-9106-CCA954655CFD}"/>
-    <hyperlink ref="A485" r:id="rId453" display="https://support.microsoft.com/de-de/office/zeitwert-funktion-0b615c12-33d8-4431-bf3d-f3eb6d186645" xr:uid="{8C19FEEA-DF00-824E-AEB4-A33D240FE1CA}"/>
-    <hyperlink ref="A396" r:id="rId454" display="https://support.microsoft.com/de-de/office/t-inv-funktion-2908272b-4e61-4942-9df9-a25fec9b0e2e" xr:uid="{496DFC7D-6408-9D49-9BFE-D46A9BE33BDE}"/>
-    <hyperlink ref="A397" r:id="rId455" display="https://support.microsoft.com/de-de/office/t-inv-2s-funktion-ce72ea19-ec6c-4be7-bed2-b9baf2264f17" xr:uid="{5CBFEA00-D7BC-2949-92B6-FF0E351C76F1}"/>
-    <hyperlink ref="A419" r:id="rId456" display="https://support.microsoft.com/de-de/office/tinv-funktion-a7c85b9d-90f5-41fe-9ca5-1cd2f3e1ed7c" xr:uid="{F29B4F78-519F-FD46-A706-2C5190D7D22A}"/>
-    <hyperlink ref="A500" r:id="rId457" display="https://support.microsoft.com/de-de/office/tocol-funktion-22839d9b-0b55-4fc1-b4e6-2761f8f122ed" xr:uid="{36788612-C7F4-1843-B2A4-DDE9E98ECF51}"/>
-    <hyperlink ref="A501" r:id="rId458" display="https://support.microsoft.com/de-de/office/torow-funktion-b90d0964-a7d9-44b7-816b-ffa5c2fe2289" xr:uid="{60906CF6-0635-D04D-88A2-7493C0571CD7}"/>
-    <hyperlink ref="A168" r:id="rId459" display="https://support.microsoft.com/de-de/office/heute-funktion-5eb3078d-a82c-4736-8930-2f51a028fdd9" xr:uid="{E33C9370-B3F2-9449-86C1-DF2F006A2993}"/>
-    <hyperlink ref="A283" r:id="rId460" display="https://support.microsoft.com/de-de/office/mtrans-funktion-ed039415-ed8a-4a81-93e9-4b6dfac76027" xr:uid="{1F153C77-F2C9-4A41-8696-EADEEF0A7273}"/>
-    <hyperlink ref="A420" r:id="rId461" display="https://support.microsoft.com/de-de/office/trend-funktion-e2f135f0-8827-4096-9873-9a7cf7b51ef1" xr:uid="{F13E107C-4CF6-2F44-8E3B-B1987600CF5B}"/>
-    <hyperlink ref="A162" r:id="rId462" display="https://support.microsoft.com/de-de/office/gl%C3%A4tten-funktion-410388fa-c5df-49c6-b16c-9e5630b479f9" xr:uid="{2DD327E2-22CB-504A-9C37-6F0E7001404C}"/>
-    <hyperlink ref="A159" r:id="rId463" display="https://support.microsoft.com/de-de/office/gestutztmittel-funktion-d90c9878-a119-4746-88fa-63d988f511d3" xr:uid="{D6C277BE-FED9-3749-8281-94B55920ED14}"/>
-    <hyperlink ref="A452" r:id="rId464" display="https://support.microsoft.com/de-de/office/wahr-funktion-7652c6e3-8987-48d0-97cd-ef223246b3fb" xr:uid="{1E409F2F-23AC-BA46-B9D8-6E844BB5D73B}"/>
-    <hyperlink ref="A243" r:id="rId465" display="https://support.microsoft.com/de-de/office/k%C3%BCrzen-funktion-8b86a64c-3127-43db-ba14-aa5ceb292721" xr:uid="{D031971F-D6FB-2648-9160-F08B6043D34C}"/>
-    <hyperlink ref="A398" r:id="rId466" display="https://support.microsoft.com/de-de/office/t-test-funktion-d4e08ec3-c545-485f-962e-276f7cbed055" xr:uid="{4C85B890-05C0-2E49-ACA9-D227CD6B1E84}"/>
-    <hyperlink ref="A421" r:id="rId467" display="https://support.microsoft.com/de-de/office/ttest-funktion-1696ffc1-4811-40fd-9d13-a0eaad83c7ae" xr:uid="{00A835E1-0628-A64F-85E1-50A42FFEF643}"/>
-    <hyperlink ref="A422" r:id="rId468" display="https://support.microsoft.com/de-de/office/typ-funktion-45b4e688-4bc3-48b3-a105-ffa892995899" xr:uid="{8F44027D-660B-A94D-B62D-41847C9D3343}"/>
-    <hyperlink ref="A428" r:id="rId469" display="https://support.microsoft.com/de-de/office/unizeichen-funktion-ffeb64f5-f131-44c6-b332-5cd72f0659b8" xr:uid="{1B02A4A5-E436-2240-9C91-3E7A3A34A74B}"/>
-    <hyperlink ref="A427" r:id="rId470" display="https://support.microsoft.com/de-de/office/unicode-funktion-adb74aaa-a2a5-4dde-aff6-966e4e81f16f" xr:uid="{59BA6332-784C-3B4B-B38F-91EA590E2D92}"/>
-    <hyperlink ref="A115" r:id="rId471" display="https://support.microsoft.com/de-de/office/eindeutig-funktion-c5ab87fd-30a3-4ce9-9d1a-40204fb85e1e" xr:uid="{132655A7-DA9C-D84B-8B39-2FF7D9E317BD}"/>
-    <hyperlink ref="A164" r:id="rId472" display="https://support.microsoft.com/de-de/office/gross-funktion-c11f29b3-d1a3-4537-8df6-04d0049963d6" xr:uid="{D77D0645-ADE6-CE4B-8F66-87E391CF0420}"/>
-    <hyperlink ref="A463" r:id="rId473" display="https://support.microsoft.com/de-de/office/wert-funktion-257d0108-07dc-437d-ae1c-bc2d3953d8c2" xr:uid="{688DC13C-B275-AD4F-9A9D-CE5E479BECF1}"/>
-    <hyperlink ref="A464" r:id="rId474" display="https://support.microsoft.com/de-de/office/valuetotext-funktion-5fff61a2-301a-4ab2-9ffa-0a5242a08fea" xr:uid="{3A01290E-8B75-FD4F-A272-3BC6FC10C816}"/>
-    <hyperlink ref="A436" r:id="rId475" display="https://support.microsoft.com/de-de/office/varianz-funktion-1f2b7ab2-954d-4e17-ba2c-9e58b15a7da2" xr:uid="{C57FE6C5-AB16-544D-95FF-E9748910DA2A}"/>
-    <hyperlink ref="A437" r:id="rId476" display="https://support.microsoft.com/de-de/office/var-p-funktion-73d1285c-108c-4843-ba5d-a51f90656f3a" xr:uid="{0C5862F2-7C50-444B-A53F-EEF5FB86BF48}"/>
-    <hyperlink ref="A438" r:id="rId477" display="https://support.microsoft.com/de-de/office/var-s-funktion-913633de-136b-449d-813e-65a00b2b990b" xr:uid="{19C49CE7-175C-FE43-9D62-B01050C1F49B}"/>
-    <hyperlink ref="A439" r:id="rId478" display="https://support.microsoft.com/de-de/office/varianza-funktion-3de77469-fa3a-47b4-85fd-81758a1e1d07" xr:uid="{3308FE62-469A-7649-BB6E-A8EC09FD4B0F}"/>
-    <hyperlink ref="A443" r:id="rId479" display="https://support.microsoft.com/de-de/office/varianzen-funktion-26a541c4-ecee-464d-a731-bd4c575b1a6b" xr:uid="{169A4F1B-D27C-0544-8215-67C84E059422}"/>
-    <hyperlink ref="A440" r:id="rId480" display="https://support.microsoft.com/de-de/office/varianzena-funktion-59a62635-4e89-4fad-88ac-ce4dc0513b96" xr:uid="{561EE2E0-2403-594D-84D7-99C10A0C033D}"/>
-    <hyperlink ref="A444" r:id="rId481" display="https://support.microsoft.com/de-de/office/vdb-funktion-dde4e207-f3fa-488d-91d2-66d55e861d73" xr:uid="{18639CBC-2FF2-6B4E-8275-C160BD864E5C}"/>
-    <hyperlink ref="A393" r:id="rId482" display="https://support.microsoft.com/de-de/office/sverweis-funktion-0bbc8083-26fe-4963-8ab8-93a18ad188a1" xr:uid="{6335A78D-CA17-284C-8FF1-431F7C107B32}"/>
-    <hyperlink ref="A450" r:id="rId483" display="https://support.microsoft.com/de-de/office/vstapeln-funktion-a4b86897-be0f-48fc-adca-fcc10d795a9c" xr:uid="{51F909A1-F4B2-4741-942C-C70399A57D56}"/>
-    <hyperlink ref="A454" r:id="rId484" display="https://support.microsoft.com/de-de/office/webdienst-funktion-0546a35a-ecc6-4739-aed7-c0b7ce1562c4" xr:uid="{6D63A32C-711F-7048-9CEE-8AA6CB2D6747}"/>
-    <hyperlink ref="A466" r:id="rId485" display="https://support.microsoft.com/de-de/office/wochentag-funktion-60e44483-2ed1-439f-8bd0-e404c190949a" xr:uid="{62C473C7-C7FA-894F-8CB0-149191134C23}"/>
-    <hyperlink ref="A225" r:id="rId486" display="https://support.microsoft.com/de-de/office/kalenderwoche-funktion-e5c43a03-b4ab-426c-b411-b18c13c75340" xr:uid="{DB410882-A027-D34C-A76A-7B14761016A0}"/>
-    <hyperlink ref="A457" r:id="rId487" display="https://support.microsoft.com/de-de/office/weibull-funktion-b83dc2c6-260b-4754-bef2-633196f6fdcc" xr:uid="{AA6DB93D-15C3-E240-8CEA-6B245793213F}"/>
-    <hyperlink ref="A458" r:id="rId488" display="https://support.microsoft.com/de-de/office/weibull-vert-funktion-4e783c39-9325-49be-bbc9-a83ef82b45db" xr:uid="{DE57712F-257C-8F4E-956E-93BF556524CC}"/>
-    <hyperlink ref="A12" r:id="rId489" display="https://support.microsoft.com/de-de/office/arbeitstag-funktion-f764a5b7-05fc-4494-9486-60d494efbf33" xr:uid="{D956E11B-4F27-E947-A4ED-4B51024795F8}"/>
-    <hyperlink ref="A13" r:id="rId490" display="https://support.microsoft.com/de-de/office/arbeitstag-intl-funktion-a378391c-9ba7-4678-8a39-39611a9bf81d" xr:uid="{6F9EE8F7-0CF1-2B48-B03F-99ECD94EBB7D}"/>
-    <hyperlink ref="A373" r:id="rId491" display="https://support.microsoft.com/de-de/office/wrapcols-funktion-d038b05a-57b7-4ee0-be94-ded0792511e2" xr:uid="{C64E1C01-86CA-E943-8EE0-DAE8B40D79B6}"/>
-    <hyperlink ref="A482" r:id="rId492" display="https://support.microsoft.com/de-de/office/wraprows-funktion-796825f3-975a-4cee-9c84-1bbddf60ade0" xr:uid="{160BE9A9-EC8C-154A-A5A4-C408D874DD4F}"/>
-    <hyperlink ref="A471" r:id="rId493" display="https://support.microsoft.com/de-de/office/xintzinsfuss-funktion-de1242ec-6477-445b-b11b-a303ad9adc9d" xr:uid="{0175AB22-73D9-EB4B-AFBC-83F0A48D728C}"/>
-    <hyperlink ref="A473" r:id="rId494" display="https://support.microsoft.com/de-de/office/xverweis-funktion-b7fd680e-6d10-43e6-84f9-88eae8bf5929" xr:uid="{A21EB0A2-C96F-A846-92E5-810985E01B21}"/>
-    <hyperlink ref="A476" r:id="rId495" display="https://support.microsoft.com/de-de/office/xvergleich-funktion-d966da31-7a6b-4a13-a1c6-5a33ed6a0312" xr:uid="{802F0580-9FF7-8E4C-8D68-BEB21A5E57DC}"/>
-    <hyperlink ref="A472" r:id="rId496" display="https://support.microsoft.com/de-de/office/xkapitalwert-funktion-1b42bbf6-370f-4532-a0eb-d67c16b664b7" xr:uid="{1E826E99-123C-3B44-91B8-FEC7E0DB4098}"/>
-    <hyperlink ref="A475" r:id="rId497" display="https://support.microsoft.com/de-de/office/xoder-funktion-1548d4c2-5e47-4f77-9a92-0533bba14f37" xr:uid="{9C5082CD-3A90-5E43-9C3B-A9391CBAAD71}"/>
-    <hyperlink ref="A222" r:id="rId498" display="https://support.microsoft.com/de-de/office/jahr-funktion-c64f017a-1354-490d-981f-578e8ec8d3b9" xr:uid="{9E3DDF68-9601-2B42-82A1-F2348189BB5D}"/>
-    <hyperlink ref="A56" r:id="rId499" display="https://support.microsoft.com/de-de/office/brteiljahre-funktion-3844141e-c76d-4143-82b6-208454ddc6a8" xr:uid="{6D8FA1CE-D73D-C647-9359-C1DA0D0B19BC}"/>
-    <hyperlink ref="A347" r:id="rId500" display="https://support.microsoft.com/de-de/office/rendite-funktion-f5f5ca43-c4bd-434f-8bd2-ed3c9727a4fe" xr:uid="{004C48C2-9CFE-5441-98EE-124A4AD1DB46}"/>
-    <hyperlink ref="A348" r:id="rId501" display="https://support.microsoft.com/de-de/office/renditedis-funktion-a9dbdbae-7dae-46de-b995-615faffaaed7" xr:uid="{2FB8D67C-4029-3E4E-BCB3-C4E976128346}"/>
-    <hyperlink ref="A349" r:id="rId502" display="https://support.microsoft.com/de-de/office/renditef%C3%A4ll-funktion-ba7d1809-0d33-4bcb-96c7-6c56ec62ef6f" xr:uid="{C0EFE0E7-29F7-024B-A722-343BC12B45F3}"/>
-    <hyperlink ref="A141" r:id="rId503" display="https://support.microsoft.com/de-de/office/g-test-funktion-d633d5a3-2031-4614-a016-92180ad82bee" xr:uid="{8E9AE084-85A8-FD43-A2C7-E158763FF80C}"/>
-    <hyperlink ref="A496" r:id="rId504" display="https://support.microsoft.com/de-de/office/gtest-funktion-8f33be8a-6bd6-4ecc-8e3a-d9a4420c4a6a" xr:uid="{36ECBA96-CFED-F34B-9AD6-7504936D86F9}"/>
+    <hyperlink ref="A11" r:id="rId12" display="https://support.microsoft.com/de-de/office/arabisch-funktion-9a8da418-c17b-4ef9-a657-9370a30a674f" xr:uid="{88317945-FDE7-A549-9423-069800A1E0E8}"/>
+    <hyperlink ref="A31" r:id="rId13" display="https://support.microsoft.com/de-de/office/bereiche-funktion-8392ba32-7a41-43b3-96b0-3695d2ec6152" xr:uid="{217B1609-6621-2E42-93EA-F8805EDFA092}"/>
+    <hyperlink ref="A259" r:id="rId14" display="https://support.microsoft.com/de-de/office/arraytotext-funktion-9cdcad46-2fa5-4c6b-ac92-14e7bc862b8b" xr:uid="{9826580A-33A0-204F-9F32-5251CA87BE1C}"/>
+    <hyperlink ref="A23" r:id="rId15" display="https://support.microsoft.com/de-de/office/asc-funktion-0b6abf1c-c663-4004-a964-ebc00b723266" xr:uid="{F2C0A103-73C9-9D42-A578-969AB622CF78}"/>
+    <hyperlink ref="A18" r:id="rId16" display="https://support.microsoft.com/de-de/office/arcsin-funktion-81fb95e5-6d6f-48c4-bc45-58f955c6d347" xr:uid="{38820B26-3B51-F344-A099-85635B68EEB7}"/>
+    <hyperlink ref="A19" r:id="rId17" display="https://support.microsoft.com/de-de/office/arcsinhyp-funktion-4e00475a-067a-43cf-926a-765b0249717c" xr:uid="{42A5BF76-1C17-C245-BEDA-8F4FF3EF91AF}"/>
+    <hyperlink ref="A20" r:id="rId18" display="https://support.microsoft.com/de-de/office/arctan-funktion-50746fa8-630a-406b-81d0-4a2aed395543" xr:uid="{DA010B25-5816-B445-BE16-2B4695FCC85F}"/>
+    <hyperlink ref="A21" r:id="rId19" display="https://support.microsoft.com/de-de/office/arctan2-funktion-c04592ab-b9e3-4908-b428-c96b3a565033" xr:uid="{3A09FFD5-C854-0E42-8CAF-9C691A81A999}"/>
+    <hyperlink ref="A22" r:id="rId20" display="https://support.microsoft.com/de-de/office/arctanhyp-funktion-3cd65768-0de7-4f1d-b312-d01c8c930d90" xr:uid="{AC5E77F1-656E-FB45-916D-ED8BAE6B261C}"/>
+    <hyperlink ref="A272" r:id="rId21" display="https://support.microsoft.com/de-de/office/mittelabw-funktion-58fe8d65-2a84-4dc7-8052-f3f87b5c6639" xr:uid="{4485EAE7-8507-9A44-842F-79E4734923E7}"/>
+    <hyperlink ref="A273" r:id="rId22" display="https://support.microsoft.com/de-de/office/mittelwert-funktion-047bac88-d466-426c-a32b-8f33eb960cf6" xr:uid="{7FCDEF88-F327-734E-B7DE-A5FF5E9CC1E8}"/>
+    <hyperlink ref="A274" r:id="rId23" display="https://support.microsoft.com/de-de/office/mittelwerta-funktion-f5f84098-d453-4f4c-bbba-3d2c66356091" xr:uid="{759C1C08-B7DD-4946-8643-F24FD59A31CF}"/>
+    <hyperlink ref="A275" r:id="rId24" display="https://support.microsoft.com/de-de/office/mittelwertwenn-funktion-faec8e2e-0dec-4308-af69-f5576d8ac642" xr:uid="{91BE010F-9873-0941-BE78-9A268B9FE141}"/>
+    <hyperlink ref="A276" r:id="rId25" display="https://support.microsoft.com/de-de/office/mittelwertwenns-funktion-48910c45-1fc0-4389-a028-f7c5c3001690" xr:uid="{98615A9F-A1C8-8840-8334-C2205CC83DFD}"/>
+    <hyperlink ref="A29" r:id="rId26" display="https://support.microsoft.com/de-de/office/bahttext-funktion-5ba4d0b4-abd3-4325-8d22-7a92d59aab9c" xr:uid="{0701E001-C301-7441-9EFB-731D0076A984}"/>
+    <hyperlink ref="A30" r:id="rId27" display="https://support.microsoft.com/de-de/office/basis-funktion-2ef61411-aee9-4f29-a811-1c42456c6342" xr:uid="{A28E3701-8906-E145-A009-928500F4B174}"/>
+    <hyperlink ref="A32" r:id="rId28" display="https://support.microsoft.com/de-de/office/besseli-funktion-8d33855c-9a8d-444b-98e0-852267b1c0df" xr:uid="{61DF87AD-4DCC-334D-BB82-6A02DD3D2FFA}"/>
+    <hyperlink ref="A33" r:id="rId29" display="https://support.microsoft.com/de-de/office/besselj-funktion-839cb181-48de-408b-9d80-bd02982d94f7" xr:uid="{4451A7A2-689C-0143-9186-2DB8B2E42FD7}"/>
+    <hyperlink ref="A34" r:id="rId30" display="https://support.microsoft.com/de-de/office/besselk-funktion-606d11bc-06d3-4d53-9ecb-2803e2b90b70" xr:uid="{62DCA904-0BD1-C444-B6A1-744FE2FC715C}"/>
+    <hyperlink ref="A35" r:id="rId31" display="https://support.microsoft.com/de-de/office/bessely-funktion-f3a356b3-da89-42c3-8974-2da54d6353a2" xr:uid="{98E86012-C64C-8546-9474-F5AD01A4AEA5}"/>
+    <hyperlink ref="A38" r:id="rId32" display="https://support.microsoft.com/de-de/office/betavert-funktion-49f1b9a9-a5da-470f-8077-5f1730b5fd47" xr:uid="{061CED11-CB35-9B4F-9217-E934833810FB}"/>
+    <hyperlink ref="A37" r:id="rId33" display="https://support.microsoft.com/de-de/office/beta-vert-funktion-11188c9c-780a-42c7-ba43-9ecb5a878d31" xr:uid="{B1BCFE50-4CB9-6A45-8148-1073BB958E6E}"/>
+    <hyperlink ref="A39" r:id="rId34" display="https://support.microsoft.com/de-de/office/betainv-funktion-8b914ade-b902-43c1-ac9c-c05c54f10d6c" xr:uid="{DBEC3300-8C2D-8247-B860-1B72D8EB0DFA}"/>
+    <hyperlink ref="A36" r:id="rId35" display="https://support.microsoft.com/de-de/office/beta-inv-funktion-e84cb8aa-8df0-4cf6-9892-83a341d252eb" xr:uid="{1AF567B4-8577-B740-B273-F59582D93475}"/>
+    <hyperlink ref="A40" r:id="rId36" display="https://support.microsoft.com/de-de/office/binindez-funktion-63905b57-b3a0-453d-99f4-647bb519cd6c" xr:uid="{6FD58EE8-D794-1842-B707-1D4867FD7FFA}"/>
+    <hyperlink ref="A41" r:id="rId37" display="https://support.microsoft.com/de-de/office/bininhex-funktion-0375e507-f5e5-4077-9af8-28d84f9f41cc" xr:uid="{E25648E9-BBC3-2D41-BD80-8EFAC1388F7B}"/>
+    <hyperlink ref="A42" r:id="rId38" display="https://support.microsoft.com/de-de/office/bininokt-funktion-0a4e01ba-ac8d-4158-9b29-16c25c4c23fd" xr:uid="{32C620AD-AAF0-1142-918A-DB04C9AE95AB}"/>
+    <hyperlink ref="A46" r:id="rId39" display="https://support.microsoft.com/de-de/office/binomvert-funktion-506a663e-c4ca-428d-b9a8-05583d68789c" xr:uid="{789332EE-1E59-244B-84C7-8AB343B8D008}"/>
+    <hyperlink ref="A44" r:id="rId40" display="https://support.microsoft.com/de-de/office/binom-vert-funktion-c5ae37b6-f39c-4be2-94c2-509a1480770c" xr:uid="{2DBF5653-A4B0-FB45-B730-C18D7CA95364}"/>
+    <hyperlink ref="A45" r:id="rId41" display="https://support.microsoft.com/de-de/office/binom-vert-bereich-funktion-17331329-74c7-4053-bb4c-6653a7421595" xr:uid="{ABE96AFC-6DC4-014C-AAFE-486F0CDB4328}"/>
+    <hyperlink ref="A43" r:id="rId42" display="https://support.microsoft.com/de-de/office/binom-inv-funktion-80a0370c-ada6-49b4-83e7-05a91ba77ac9" xr:uid="{8BCCC76F-D1CA-CA4E-8864-D5607D5E455C}"/>
+    <hyperlink ref="A50" r:id="rId43" display="https://support.microsoft.com/de-de/office/bitund-funktion-8a2be3d7-91c3-4b48-9517-64548008563a" xr:uid="{AE1EE01E-5995-064A-8B7A-D1DD6AEAA9CF}"/>
+    <hyperlink ref="A47" r:id="rId44" display="https://support.microsoft.com/de-de/office/bitlverschieb-funktion-c55bb27e-cacd-4c7c-b258-d80861a03c9c" xr:uid="{D2B9470E-20BC-424B-9E50-27B5659CDD60}"/>
+    <hyperlink ref="A48" r:id="rId45" display="https://support.microsoft.com/de-de/office/bitoder-funktion-f6ead5c8-5b98-4c9e-9053-8ad5234919b2" xr:uid="{492E3895-D3F1-8343-89EA-C7F59346E797}"/>
+    <hyperlink ref="A49" r:id="rId46" display="https://support.microsoft.com/de-de/office/bitrverschieb-funktion-274d6996-f42c-4743-abdb-4ff95351222c" xr:uid="{BADAE209-0EA9-9B42-9CDF-2A0F0AE7C1E4}"/>
+    <hyperlink ref="A51" r:id="rId47" display="https://support.microsoft.com/de-de/office/bitxoder-funktion-c81306a1-03f9-4e89-85ac-b86c3cba10e4" xr:uid="{9CBBC8F6-9655-8F4C-81AD-4069FB105B3F}"/>
+    <hyperlink ref="A285" r:id="rId48" display="https://support.microsoft.com/de-de/office/bycol-funktion-58463999-7de5-49ce-8f38-b7f7a2192bfb" xr:uid="{5F3C374C-7C15-704A-8C09-3D8E4C6AE157}"/>
+    <hyperlink ref="A286" r:id="rId49" display="https://support.microsoft.com/de-de/office/byrow-funktion-2e04c677-78c8-4e6b-8c10-a4602f2602bb" xr:uid="{6DECADE0-FF13-0448-85F7-2DA902FF5601}"/>
+    <hyperlink ref="A26" r:id="rId50" display="https://support.microsoft.com/de-de/office/aufrufen-funktion-32d58445-e646-4ffd-8d5e-b45077a5e995" xr:uid="{E128DEEE-D534-3044-B432-2B459FF368A9}"/>
+    <hyperlink ref="A58" r:id="rId51" display="https://support.microsoft.com/de-de/office/obergrenze-funktion-0a5cd7c8-0720-4f0a-bd2c-c943e510899f" xr:uid="{70B6A38F-C1F7-764C-ACCF-D15088BE0C36}"/>
+    <hyperlink ref="A306" r:id="rId52" display="https://support.microsoft.com/de-de/office/obergrenze-mathematik-funktion-80f95d2f-b499-4eee-9f16-f795a8e306c8" xr:uid="{9E3A720C-3D38-C142-BF9F-2A48F2D837E4}"/>
+    <hyperlink ref="A305" r:id="rId53" display="https://support.microsoft.com/de-de/office/obergrenze-genau-funktion-f366a774-527a-4c92-ba49-af0a196e66cb" xr:uid="{59FC1545-41DE-DC4E-B11E-DBA836CFD701}"/>
+    <hyperlink ref="A59" r:id="rId54" display="https://support.microsoft.com/de-de/office/zelle-funktion-51bd39a5-f338-4dbe-a33f-955d67c2b2cf" xr:uid="{F5BBDF85-9A7C-F74B-8240-F5612EC29A65}"/>
+    <hyperlink ref="A60" r:id="rId55" display="https://support.microsoft.com/de-de/office/chivert-funktion-c90d0fbc-5b56-4f5f-ab57-34af1bf6897e" xr:uid="{D8906FEA-428A-0A48-8298-1FCE32A59603}"/>
+    <hyperlink ref="A61" r:id="rId56" display="https://support.microsoft.com/de-de/office/chiinv-funktion-cfbea3f6-6e4f-40c9-a87f-20472e0512af" xr:uid="{B1B6DBB5-2882-3D47-B31F-35D6CCC25474}"/>
+    <hyperlink ref="A67" r:id="rId57" display="https://support.microsoft.com/de-de/office/chitest-funktion-981ff871-b694-4134-848e-38ec704577ac" xr:uid="{B6290C54-97C9-E74F-8B54-3B1261C8AF74}"/>
+    <hyperlink ref="A65" r:id="rId58" display="https://support.microsoft.com/de-de/office/chiqu-vert-funktion-8486b05e-5c05-4942-a9ea-f6b341518732" xr:uid="{F5815CB5-BEFB-4D45-8132-F46A6C7BA186}"/>
+    <hyperlink ref="A66" r:id="rId59" display="https://support.microsoft.com/de-de/office/chiqu-vert-re-funktion-dc4832e8-ed2b-49ae-8d7c-b28d5804c0f2" xr:uid="{59FDF295-59FA-7A40-A377-A5493090CC00}"/>
+    <hyperlink ref="A62" r:id="rId60" display="https://support.microsoft.com/de-de/office/chiqu-inv-funktion-400db556-62b3-472d-80b3-254723e7092f" xr:uid="{B1BB769F-8725-3845-B572-A048FEF603CC}"/>
+    <hyperlink ref="A63" r:id="rId61" display="https://support.microsoft.com/de-de/office/chiqu-inv-re-funktion-435b5ed8-98d5-4da6-823f-293e2cbc94fe" xr:uid="{A4D0269D-AE34-DC4B-B820-CD059D7E45CF}"/>
+    <hyperlink ref="A64" r:id="rId62" display="https://support.microsoft.com/de-de/office/chiqu-test-funktion-2e8a7861-b14a-4985-aa93-fb88de3f260f" xr:uid="{6A934CCF-E9E6-B74A-9D88-B99E89BE00A7}"/>
+    <hyperlink ref="A374" r:id="rId63" display="https://support.microsoft.com/de-de/office/spaltenwahl-funktion-bf117976-2722-4466-9b9a-1c01ed9aebff" xr:uid="{2ACE4F83-6AC5-2749-A4CC-86E50F62826C}"/>
+    <hyperlink ref="A358" r:id="rId64" display="https://support.microsoft.com/de-de/office/s%C3%A4ubern-funktion-26f3d7c5-475f-4a9c-90e5-4b8ba987ba41" xr:uid="{E33277F0-F272-3D41-9F30-E616021E44B8}"/>
+    <hyperlink ref="A68" r:id="rId65" display="https://support.microsoft.com/de-de/office/code-funktion-c32b692b-2ed0-4a04-bdd9-75640144b928" xr:uid="{BA987445-8450-FC41-9539-CEB7D70F262A}"/>
+    <hyperlink ref="A69" r:id="rId66" display="https://support.microsoft.com/de-de/office/spalte-funktion-44e8c754-711c-4df3-9da4-47a55042554b" xr:uid="{A2DCFBDE-F065-F947-8112-F5D4987B363B}"/>
+    <hyperlink ref="A372" r:id="rId67" display="https://support.microsoft.com/de-de/office/spalten-funktion-4e8e7b4e-e603-43e8-b177-956088fa48ca" xr:uid="{FE0F0272-0ECE-6C44-83C8-D7BC072EA3AE}"/>
+    <hyperlink ref="A231" r:id="rId68" display="https://support.microsoft.com/de-de/office/kombinationen-funktion-12a3f276-0a21-423a-8de6-06990aaf638a" xr:uid="{9D0F2C72-28D4-CC4E-93E4-81DB2C83DBE2}"/>
+    <hyperlink ref="A232" r:id="rId69" display="https://support.microsoft.com/de-de/office/kombinationen2-funktion-efb49eaa-4f4c-4cd2-8179-0ddfcf9d035d" xr:uid="{D481C8B0-CED9-3A4B-9EE1-1E82F8CAE778}"/>
+    <hyperlink ref="A233" r:id="rId70" display="https://support.microsoft.com/de-de/office/komplexe-funktion-f0b8f3a9-51cc-4d6d-86fb-3a9362fa4128" xr:uid="{FD0A95D9-B198-1E4C-B02C-E508ABD5A0E1}"/>
+    <hyperlink ref="A234" r:id="rId71" display="https://support.microsoft.com/de-de/office/konfidenz-funktion-75ccc007-f77c-4343-bc14-673642091ad6" xr:uid="{FC884DE9-6606-1049-8A65-FEF55A0A70BD}"/>
+    <hyperlink ref="A235" r:id="rId72" display="https://support.microsoft.com/de-de/office/konfidenz-norm-funktion-7cec58a6-85bb-488d-91c3-63828d4fbfd4" xr:uid="{2A133571-A4AD-A648-B507-03995662DB8C}"/>
+    <hyperlink ref="A236" r:id="rId73" display="https://support.microsoft.com/de-de/office/konfidenz-t-funktion-e8eca395-6c3a-4ba9-9003-79ccc61d3c53" xr:uid="{608D2822-ED6E-9648-870D-B104C1A49FC9}"/>
+    <hyperlink ref="A70" r:id="rId74" display="https://support.microsoft.com/de-de/office/korrel-funktion-995dcef7-0c0a-4bed-a3fb-239d7b68ca92" xr:uid="{5B97F27F-5F7B-E74E-8F21-BF949ECCB058}"/>
+    <hyperlink ref="A71" r:id="rId75" display="https://support.microsoft.com/de-de/office/cos-funktion-0fb808a5-95d6-4553-8148-22aebdce5f05" xr:uid="{409A4F26-0B00-E54A-A1E5-3627163454DB}"/>
+    <hyperlink ref="A74" r:id="rId76" display="https://support.microsoft.com/de-de/office/coshyp-funktion-e460d426-c471-43e8-9540-a57ff3b70555" xr:uid="{AAC8FCC0-06F2-744A-968A-4681AA695116}"/>
+    <hyperlink ref="A75" r:id="rId77" display="https://support.microsoft.com/de-de/office/cot-funktion-c446f34d-6fe4-40dc-84f8-cf59e5f5e31a" xr:uid="{9D23C0EA-4784-9845-B029-444722ECF62D}"/>
+    <hyperlink ref="A76" r:id="rId78" display="https://support.microsoft.com/de-de/office/cothyp-funktion-2e0b4cb6-0ba0-403e-aed4-deaa71b49df5" xr:uid="{AA49E6C6-EB86-744D-952F-383803861910}"/>
+    <hyperlink ref="A8" r:id="rId79" display="https://support.microsoft.com/de-de/office/anzahl-funktion-a59cd7fc-b623-4d93-87a4-d23bf411294c" xr:uid="{5C3D9BED-7C2B-5E41-A6FE-20754B31E84D}"/>
+    <hyperlink ref="A9" r:id="rId80" display="https://support.microsoft.com/de-de/office/anzahl2-funktion-7dc98875-d5c1-46f1-9a82-53f3219e2509" xr:uid="{15777651-5CD4-B648-AC4F-6A4DD663DC45}"/>
+    <hyperlink ref="A10" r:id="rId81" display="https://support.microsoft.com/de-de/office/anzahlleerezellen-funktion-6a92d772-675c-4bee-b346-24af6bd3ac22" xr:uid="{9AF59D19-EDDB-114A-B215-67A240855A27}"/>
+    <hyperlink ref="A77" r:id="rId82" display="https://support.microsoft.com/de-de/office/kovar-funktion-50479552-2c03-4daf-bd71-a5ab88b2db03" xr:uid="{349C56E9-7B29-114D-9CD6-F1F70E8E89D8}"/>
+    <hyperlink ref="A78" r:id="rId83" display="https://support.microsoft.com/de-de/office/kovarianz-p-funktion-6f0e1e6d-956d-4e4b-9943-cfef0bf9edfc" xr:uid="{2B4E563B-40DF-6645-8FBB-7B9BC411EBAC}"/>
+    <hyperlink ref="A79" r:id="rId84" display="https://support.microsoft.com/de-de/office/kovarianz-s-funktion-0a539b74-7371-42aa-a18f-1f5320314977" xr:uid="{29CD52EF-950F-9440-A776-02671AECDD61}"/>
+    <hyperlink ref="A80" r:id="rId85" display="https://support.microsoft.com/de-de/office/kritbinom-funktion-eb6b871d-796b-4d21-b69b-e4350d5f407b" xr:uid="{BF63556B-CEDC-3547-B502-6024C64E053D}"/>
+    <hyperlink ref="A72" r:id="rId86" display="https://support.microsoft.com/de-de/office/cosec-funktion-07379361-219a-4398-8675-07ddc4f135c1" xr:uid="{258D2C22-E99A-FF42-9BDE-D4C5179E7A8B}"/>
+    <hyperlink ref="A73" r:id="rId87" display="https://support.microsoft.com/de-de/office/cosechyp-funktion-f58f2c22-eb75-4dd6-84f4-a503527f8eeb" xr:uid="{7B608A4D-E572-7844-BCD6-74BCDFF1039A}"/>
+    <hyperlink ref="A81" r:id="rId88" display="https://support.microsoft.com/de-de/office/cubekpielement-744608bf-2c62-42cd-b67a-a56109f4b03b" xr:uid="{AE0BDE39-C266-9143-96D0-03F8FE5C8D12}"/>
+    <hyperlink ref="A82" r:id="rId89" display="https://support.microsoft.com/de-de/office/cubeelement-0f6a15b9-2c18-4819-ae89-e1b5c8b398ad" xr:uid="{F6E89DE0-9003-6E48-BBF2-BD144BB5D61C}"/>
+    <hyperlink ref="A83" r:id="rId90" display="https://support.microsoft.com/de-de/office/cubeelementeigenschaft-funktion-001e57d6-b35a-49e5-abcd-05ff599e8951" xr:uid="{D4DCA0A8-C6D2-AA4A-9ABB-E43361EF2F7D}"/>
+    <hyperlink ref="A85" r:id="rId91" display="https://support.microsoft.com/de-de/office/cuberangelement-07efecde-e669-4075-b4bf-6b40df2dc4b3" xr:uid="{9EBA881D-B223-2042-B83E-AFD579E98318}"/>
+    <hyperlink ref="A86" r:id="rId92" display="https://support.microsoft.com/de-de/office/cubemenge-5b2146bd-62d6-4d04-9d8f-670e993ee1d9" xr:uid="{4E80823C-35FE-8646-9204-138E5CEB5345}"/>
+    <hyperlink ref="A84" r:id="rId93" display="https://support.microsoft.com/de-de/office/cubemengenanzahl-funktion-c4c2a438-c1ff-4061-80fe-982f2d705286" xr:uid="{A9C27623-713D-4C42-86A5-1A92850B1009}"/>
+    <hyperlink ref="A87" r:id="rId94" display="https://support.microsoft.com/de-de/office/cubewert-8733da24-26d1-4e34-9b3a-84a8f00dcbe0" xr:uid="{0388A821-E7EF-B84A-B3D2-6FE62500E1CF}"/>
+    <hyperlink ref="A238" r:id="rId95" display="https://support.microsoft.com/de-de/office/kumzinsz-funktion-61067bb0-9016-427d-b95b-1a752af0e606" xr:uid="{6941ABDE-98CD-2145-9F8D-28178E90888D}"/>
+    <hyperlink ref="A237" r:id="rId96" display="https://support.microsoft.com/de-de/office/kumkapital-funktion-94a4516d-bd65-41a1-bc16-053a6af4c04d" xr:uid="{45941D1B-339C-0140-9639-FF2D77672229}"/>
+    <hyperlink ref="A89" r:id="rId97" display="https://support.microsoft.com/de-de/office/datum-funktion-e36c0c8c-4104-49da-ab83-82328b832349" xr:uid="{2AD97F79-ABB3-DF40-B558-5B2A0BE905A5}"/>
+    <hyperlink ref="A88" r:id="rId98" display="https://support.microsoft.com/de-de/office/datedif-25dba1a4-2812-480b-84dd-8b32a451b35c" xr:uid="{C79397FC-546B-894C-BCCC-4432AA700117}"/>
+    <hyperlink ref="A90" r:id="rId99" display="https://support.microsoft.com/de-de/office/datwert-funktion-df8b07d4-7761-4a93-bc33-b7471bbff252" xr:uid="{8BCB99EC-961C-CA42-9D11-458CD610DEF4}"/>
+    <hyperlink ref="A97" r:id="rId100" display="https://support.microsoft.com/de-de/office/dbmittelwert-funktion-a6a2d5ac-4b4b-48cd-a1d8-7b37834e5aee" xr:uid="{C8222945-729F-8C40-B6AA-F57B4F59A0B0}"/>
+    <hyperlink ref="A402" r:id="rId101" display="https://support.microsoft.com/de-de/office/tag-funktion-8a7d1cbb-6c7d-4ba1-8aea-25c134d03101" xr:uid="{4B5EEA29-339D-A64E-A58D-700145576CA7}"/>
+    <hyperlink ref="A403" r:id="rId102" display="https://support.microsoft.com/de-de/office/tage-funktion-57740535-d549-4395-8728-0f07bff0b9df" xr:uid="{68420475-7AE0-1B47-A28F-409BE0AF90B7}"/>
+    <hyperlink ref="A404" r:id="rId103" display="https://support.microsoft.com/de-de/office/tage360-funktion-b9a509fd-49ef-407e-94df-0cbda5718c2a" xr:uid="{2820ADC0-DE5B-7140-8CCB-4DDEB246E833}"/>
+    <hyperlink ref="A156" r:id="rId104" display="https://support.microsoft.com/de-de/office/gda2-funktion-354e7d28-5f93-4ff1-8a52-eb4ee549d9d7" xr:uid="{90066CE9-3122-DB41-8A86-A66040CCACB2}"/>
+    <hyperlink ref="A94" r:id="rId105" display="https://support.microsoft.com/de-de/office/jis-funktion-a4025e73-63d2-4958-9423-21a24794c9e5" xr:uid="{F096E47E-8BAE-5346-85F7-12E057F3F9D3}"/>
+    <hyperlink ref="A91" r:id="rId106" display="https://support.microsoft.com/de-de/office/dbanzahl-funktion-c1fc7b93-fb0d-4d8d-97db-8d5f076eaeb1" xr:uid="{0008E345-3E1C-9046-8842-0F5202CC0E03}"/>
+    <hyperlink ref="A92" r:id="rId107" display="https://support.microsoft.com/de-de/office/dbanzahl2-funktion-00232a6d-5a66-4a01-a25b-c1653fda1244" xr:uid="{0EF8F4F3-4726-7242-8D62-CD96C39FCC18}"/>
+    <hyperlink ref="A155" r:id="rId108" display="https://support.microsoft.com/de-de/office/gda-funktion-519a7a37-8772-4c96-85c0-ed2c209717a5" xr:uid="{02294E7F-7638-0843-B883-FF57C7C30C6E}"/>
+    <hyperlink ref="A106" r:id="rId109" display="https://support.microsoft.com/de-de/office/dezinbin-funktion-0f63dd0e-5d1a-42d8-b511-5bf5c6d43838" xr:uid="{5CE931C9-1E7F-C441-9185-D02204090CF2}"/>
+    <hyperlink ref="A107" r:id="rId110" display="https://support.microsoft.com/de-de/office/dezinhex-funktion-6344ee8b-b6b5-4c6a-a672-f64666704619" xr:uid="{9EA0BB4C-B9E3-9342-982D-8B0B4E0CCB59}"/>
+    <hyperlink ref="A108" r:id="rId111" display="https://support.microsoft.com/de-de/office/dezinokt-funktion-c9d835ca-20b7-40c4-8a9e-d3be351ce00f" xr:uid="{0DC2B4F3-3B75-1446-9075-805969104182}"/>
+    <hyperlink ref="A105" r:id="rId112" display="https://support.microsoft.com/de-de/office/dezimal-funktion-ee554665-6176-46ef-82de-0a283658da2e" xr:uid="{5859FA69-8A1A-4D44-A007-1D41DB6D9F31}"/>
+    <hyperlink ref="A163" r:id="rId113" display="https://support.microsoft.com/de-de/office/grad-funktion-4d6ec4db-e694-4b94-ace0-1cc3f61f9ba1" xr:uid="{C8746787-935F-CD45-B738-82B59A6C7F29}"/>
+    <hyperlink ref="A104" r:id="rId114" display="https://support.microsoft.com/de-de/office/delta-funktion-2f763672-c959-4e07-ac33-fe03220ba432" xr:uid="{DA275F09-B459-8B43-9E32-2BF165C3B6B0}"/>
+    <hyperlink ref="A392" r:id="rId115" display="https://support.microsoft.com/de-de/office/sumquadabw-funktion-8b739616-8376-4df5-8bd0-cfe0a6caf444" xr:uid="{E94FCE75-2923-6F4D-9931-F082C531F83A}"/>
+    <hyperlink ref="A93" r:id="rId116" display="https://support.microsoft.com/de-de/office/dbauszug-funktion-455568bf-4eef-45f7-90f0-ec250d00892e" xr:uid="{E77B26CD-8AEF-AB41-A1D9-0964853DC990}"/>
+    <hyperlink ref="A110" r:id="rId117" display="https://support.microsoft.com/de-de/office/disagio-funktion-71fce9f3-3f05-4acf-a5a3-eac6ef4daa53" xr:uid="{31A4353F-ED8B-FC4C-B011-CF955B963496}"/>
+    <hyperlink ref="A95" r:id="rId118" display="https://support.microsoft.com/de-de/office/dbmax-funktion-f4e8209d-8958-4c3d-a1ee-6351665d41c2" xr:uid="{8EEB1C8B-8342-724B-BD72-4BA03F4D722A}"/>
+    <hyperlink ref="A96" r:id="rId119" display="https://support.microsoft.com/de-de/office/dbmin-funktion-4ae6f1d9-1f26-40f1-a783-6dc3680192a3" xr:uid="{8F91F3E6-F619-0D4F-8049-0D76920E0EAF}"/>
+    <hyperlink ref="A111" r:id="rId120" display="https://support.microsoft.com/de-de/office/dm-funktion-a6cd05d9-9740-4ad3-a469-8109d18ff611" xr:uid="{BA5486B1-722F-6A40-AF22-B495855D39F7}"/>
+    <hyperlink ref="A303" r:id="rId121" display="https://support.microsoft.com/de-de/office/notierungdez-funktion-db85aab0-1677-428a-9dfd-a38476693427" xr:uid="{9A2D56F4-A095-1342-B3E9-4072C0D2A2EC}"/>
+    <hyperlink ref="A302" r:id="rId122" display="https://support.microsoft.com/de-de/office/notierungbru-funktion-0835d163-3023-4a33-9824-3042c5d4f495" xr:uid="{44C346DC-5061-6C4C-A97D-EC2EF845B38E}"/>
+    <hyperlink ref="A98" r:id="rId123" display="https://support.microsoft.com/de-de/office/dbprodukt-funktion-4f96b13e-d49c-47a7-b769-22f6d017cb31" xr:uid="{C1DA81A7-FBFF-FC49-BB2B-695E37DD4050}"/>
+    <hyperlink ref="A99" r:id="rId124" display="https://support.microsoft.com/de-de/office/dbstdabw-funktion-026b8c73-616d-4b5e-b072-241871c4ab96" xr:uid="{45CBD3D4-A501-4E47-8F06-5CCED133C756}"/>
+    <hyperlink ref="A100" r:id="rId125" display="https://support.microsoft.com/de-de/office/dbstdabwn-funktion-04b78995-da03-4813-bbd9-d74fd0f5d94b" xr:uid="{5A1A919A-6EAA-FC4B-996C-8D720F683DF4}"/>
+    <hyperlink ref="A101" r:id="rId126" display="https://support.microsoft.com/de-de/office/dbsumme-funktion-53181285-0c4b-4f5a-aaa3-529a322be41b" xr:uid="{3DB7E534-D09F-184A-96AF-F90BD6FB861E}"/>
+    <hyperlink ref="A112" r:id="rId127" display="https://support.microsoft.com/de-de/office/duration-funktion-b254ea57-eadc-4602-a86a-c8e369334038" xr:uid="{33FAE164-6DA9-0D42-8DDF-247CFC6999ED}"/>
+    <hyperlink ref="A102" r:id="rId128" display="https://support.microsoft.com/de-de/office/dbvarianz-funktion-d6747ca9-99c7-48bb-996e-9d7af00f3ed1" xr:uid="{75E1D52C-4D38-A845-B60D-67CE70B0452E}"/>
+    <hyperlink ref="A103" r:id="rId129" display="https://support.microsoft.com/de-de/office/dbvarianzen-funktion-eb0ba387-9cb7-45c8-81e9-0394912502fc" xr:uid="{1A18D5A4-64F3-7148-9B2F-A04F58AD94BF}"/>
+    <hyperlink ref="A113" r:id="rId130" display="https://support.microsoft.com/de-de/office/edatum-funktion-3c920eb2-6e66-44e7-a1f5-753ae47ee4f5" xr:uid="{2BFC7862-BD80-A042-9DAC-21BE2358086C}"/>
+    <hyperlink ref="A114" r:id="rId131" display="https://support.microsoft.com/de-de/office/effektiv-funktion-910d4e4c-79e2-4009-95e6-507e04f11bc4" xr:uid="{8B19A890-9BF3-934D-A813-3217271E47C9}"/>
+    <hyperlink ref="A116" r:id="rId132" display="https://support.microsoft.com/de-de/office/urlcodieren-funktion-07c7fb90-7c60-4bff-8687-fac50fe33d0e" xr:uid="{654E2ACD-440C-854E-8BD1-EBC6091ACF71}"/>
+    <hyperlink ref="A282" r:id="rId133" display="https://support.microsoft.com/de-de/office/monatsende-funktion-7314ffa1-2bc9-4005-9d66-f49db127d628" xr:uid="{05E446BE-9239-0A4A-8059-FEDA912FF50A}"/>
+    <hyperlink ref="A151" r:id="rId134" display="https://support.microsoft.com/de-de/office/gaussfehler-funktion-c53c7e7b-5482-4b6c-883e-56df3c9af349" xr:uid="{98D31F71-B0A0-7C4C-AA86-AC8E3D68EAF5}"/>
+    <hyperlink ref="A152" r:id="rId135" display="https://support.microsoft.com/de-de/office/gaussf-genau-funktion-9a349593-705c-4278-9a98-e4122831a8e0" xr:uid="{DDC2C507-7D91-9848-8CE5-A9345FA2460B}"/>
+    <hyperlink ref="A153" r:id="rId136" display="https://support.microsoft.com/de-de/office/gaussfkompl-funktion-736e0318-70ba-4e8b-8d08-461fe68b71b3" xr:uid="{65DC6BB7-B9EC-9F47-9C83-D02E1F9974BE}"/>
+    <hyperlink ref="A154" r:id="rId137" display="https://support.microsoft.com/de-de/office/gaussfkompl-genau-funktion-e90e6bab-f45e-45df-b2ac-cd2eb4d4a273" xr:uid="{3246C95B-11D2-2543-AFBA-755AC429D68F}"/>
+    <hyperlink ref="A131" r:id="rId138" display="https://support.microsoft.com/de-de/office/fehler-typ-funktion-10958677-7c8d-44f7-ae77-b9a9ee6eefaa" xr:uid="{89889CA4-5C29-5A4C-BE41-716F4CE43A97}"/>
+    <hyperlink ref="A119" r:id="rId139" display="https://support.microsoft.com/de-de/office/euroconvert-funktion-79c8fd67-c665-450c-bb6c-15fc92f8345c" xr:uid="{F10C6EDD-8097-584B-B13D-A2EA04F486B9}"/>
+    <hyperlink ref="A158" r:id="rId140" display="https://support.microsoft.com/de-de/office/gerade-funktion-197b5f06-c795-4c1e-8696-3c3b8a646cf9" xr:uid="{CF27556A-B287-854A-BF7E-0168386D4452}"/>
+    <hyperlink ref="A176" r:id="rId141" display="https://support.microsoft.com/de-de/office/identisch-funktion-d3087698-fc15-4a15-9631-12575cf29926" xr:uid="{36B9F994-7A98-474A-8355-32C75FED6EB2}"/>
+    <hyperlink ref="A120" r:id="rId142" display="https://support.microsoft.com/de-de/office/exp-funktion-c578f034-2c45-4c37-bc8c-329660a63abe" xr:uid="{97EC44EC-9288-8C43-B830-8F145FB427CD}"/>
+    <hyperlink ref="A118" r:id="rId143" display="https://support.microsoft.com/de-de/office/expand-funktion-7433fba5-4ad1-41da-a904-d5d95808bc38" xr:uid="{FD364E4C-9029-BC41-BA38-CF13BC151040}"/>
+    <hyperlink ref="A121" r:id="rId144" display="https://support.microsoft.com/de-de/office/expon-vert-funktion-4c12ae24-e563-4155-bf3e-8b78b6ae140e" xr:uid="{AE25ED80-08A3-BB4C-9DC3-F68894CF6121}"/>
+    <hyperlink ref="A122" r:id="rId145" display="https://support.microsoft.com/de-de/office/exponvert-funktion-68ab45fd-cd6d-4887-9770-9357eb8ee06a" xr:uid="{480C9D4A-43C0-DE4C-A21F-DAED4505E12F}"/>
+    <hyperlink ref="A128" r:id="rId146" display="https://support.microsoft.com/de-de/office/fakult%C3%A4t-funktion-ca8588c2-15f2-41c0-8e8c-c11bd471a4f3" xr:uid="{EFA59580-EF9D-0D4E-95FD-9927587FF29D}"/>
+    <hyperlink ref="A129" r:id="rId147" display="https://support.microsoft.com/de-de/office/falsch-funktion-2d58dfa5-9c03-4259-bf8f-f0ae14346904" xr:uid="{9C19B7A0-62EB-DA43-90F9-3BD0DF13A11C}"/>
+    <hyperlink ref="A126" r:id="rId148" display="https://support.microsoft.com/de-de/office/f-vert-funktion-a887efdc-7c8e-46cb-a74a-f884cd29b25d" xr:uid="{F232793A-7A65-844F-BBCD-C8A153113293}"/>
+    <hyperlink ref="A130" r:id="rId149" display="https://support.microsoft.com/de-de/office/fvert-funktion-ecf76fba-b3f1-4e7d-a57e-6a5b7460b786" xr:uid="{524427E0-B865-2A44-932C-23CF28E05F07}"/>
+    <hyperlink ref="A127" r:id="rId150" display="https://support.microsoft.com/de-de/office/f-vert-re-funktion-d74cbb00-6017-4ac9-b7d7-6049badc0520" xr:uid="{29C89ACE-7BAA-FE44-8C7F-CAE715D296D0}"/>
+    <hyperlink ref="A133" r:id="rId151" display="https://support.microsoft.com/de-de/office/filter-funktion-f4f7cb66-82eb-4767-8f7c-4877ad80c759" xr:uid="{C29136F3-4C19-4B4B-8F0F-871D8E8EE3B9}"/>
+    <hyperlink ref="A134" r:id="rId152" display="https://support.microsoft.com/de-de/office/finden-findenb-funktionen-c7912941-af2a-4bdf-a553-d0d89b0a0628" xr:uid="{2CBD31C6-408D-6D44-957E-3161D53B5292}"/>
+    <hyperlink ref="A123" r:id="rId153" display="https://support.microsoft.com/de-de/office/f-inv-funktion-0dda0cf9-4ea0-42fd-8c3c-417a1ff30dbe" xr:uid="{62ADE46E-6691-3940-A762-6DA452053582}"/>
+    <hyperlink ref="A124" r:id="rId154" display="https://support.microsoft.com/de-de/office/f-inv-re-funktion-d371aa8f-b0b1-40ef-9cc2-496f0693ac00" xr:uid="{011CE859-F015-AF4B-BB27-2429634E2D6D}"/>
+    <hyperlink ref="A135" r:id="rId155" display="https://support.microsoft.com/de-de/office/finv-funktion-4d46c97c-c368-4852-bc15-41e8e31140b1" xr:uid="{AB7F7E6C-3E9E-6749-83DC-9DC9E7028BC5}"/>
+    <hyperlink ref="A136" r:id="rId156" display="https://support.microsoft.com/de-de/office/fisher-funktion-d656523c-5076-4f95-b87b-7741bf236c69" xr:uid="{F5679FD7-2331-8443-88E9-ECC20985CD91}"/>
+    <hyperlink ref="A137" r:id="rId157" display="https://support.microsoft.com/de-de/office/fisherinv-funktion-62504b39-415a-4284-a285-19c8e82f86bb" xr:uid="{9A166659-CE5B-A142-929C-31F4BE01D178}"/>
+    <hyperlink ref="A132" r:id="rId158" display="https://support.microsoft.com/de-de/office/fest-funktion-ffd5723c-324c-45e9-8b96-e41be2a8274a" xr:uid="{A5599F0B-4585-A540-8565-C8F13D304BBA}"/>
+    <hyperlink ref="A360" r:id="rId159" display="https://support.microsoft.com/de-de/office/vorhersage-und-prognose-lineare-funktionen-50ca49c9-7b40-4892-94e4-7ad38bbeda99" xr:uid="{73ED692F-B9B3-594B-B6FA-DF963C59876A}"/>
+    <hyperlink ref="A326" r:id="rId160" location="_FORECAST.ETS" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS" xr:uid="{9B19E57F-3169-EA4D-BD3D-3E1CBB80DCE3}"/>
+    <hyperlink ref="A327" r:id="rId161" location="_FORECAST.ETS.CONFINT" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS.CONFINT" xr:uid="{9CD44E86-D25B-9848-B115-5AAEB795A4D7}"/>
+    <hyperlink ref="A328" r:id="rId162" location="_FORECAST.ETS.SEASONALITY" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS.SEASONALITY" xr:uid="{FDC4B0D2-AB91-FA45-9D96-6C2FF098853C}"/>
+    <hyperlink ref="A329" r:id="rId163" location="_FORECAST.ETS.STAT" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.ETS.STAT" xr:uid="{032262B0-5D6A-A54C-AFBE-6A79FD5588CC}"/>
+    <hyperlink ref="A330" r:id="rId164" location="_FORECAST.LINEAR" display="https://support.microsoft.com/de-de/office/prognosefunktionen-referenz-897a2fe9-6595-4680-a0b0-93e0308d5f6e - _FORECAST.LINEAR" xr:uid="{7155189B-E818-4543-B973-74146C6E4D24}"/>
+    <hyperlink ref="A138" r:id="rId165" display="https://support.microsoft.com/de-de/office/formeltext-funktion-0a786771-54fd-4ae2-96ee-09cda35439c8" xr:uid="{406B4FC2-07BF-394D-AEF5-A92107DCC5B7}"/>
+    <hyperlink ref="A139" r:id="rId166" display="https://support.microsoft.com/de-de/office/h%C3%A4ufigkeit-funktion-44e3be2b-eca0-42cd-a3f7-fd9ea898fdb9" xr:uid="{553591EC-4EDB-5549-9240-EABCF2E1AEE8}"/>
+    <hyperlink ref="A125" r:id="rId167" display="https://support.microsoft.com/de-de/office/f-test-funktion-100a59e7-4108-46f8-8443-78ffacb6c0a7" xr:uid="{5FC593FD-9BD6-C94A-9391-2D97894069FE}"/>
+    <hyperlink ref="A140" r:id="rId168" display="https://support.microsoft.com/de-de/office/ftest-funktion-4c9e1202-53fe-428c-a737-976f6fc3f9fd" xr:uid="{0943F989-F559-6646-BD54-FC260BF10214}"/>
+    <hyperlink ref="A142" r:id="rId169" display="https://support.microsoft.com/de-de/office/gamma-funktion-ce1702b1-cf55-471d-8307-f83be0fc5297" xr:uid="{649C8232-9B41-C24E-8F20-380C8816BCA0}"/>
+    <hyperlink ref="A144" r:id="rId170" display="https://support.microsoft.com/de-de/office/gamma-vert-funktion-9b6f1538-d11c-4d5f-8966-21f6a2201def" xr:uid="{43998265-CA07-274A-A939-65AFF1258655}"/>
+    <hyperlink ref="A145" r:id="rId171" display="https://support.microsoft.com/de-de/office/gammavert-funktion-7327c94d-0f05-4511-83df-1dd7ed23e19e" xr:uid="{BD34C523-D4ED-6E46-832E-B75FF8728B32}"/>
+    <hyperlink ref="A143" r:id="rId172" display="https://support.microsoft.com/de-de/office/gamma-inv-funktion-74991443-c2b0-4be5-aaab-1aa4d71fbb18" xr:uid="{09CA0764-DB5D-3049-B4AD-BAD21176528D}"/>
+    <hyperlink ref="A146" r:id="rId173" display="https://support.microsoft.com/de-de/office/gammainv-funktion-06393558-37ab-47d0-aa63-432f99e7916d" xr:uid="{593DBEF0-F645-AF4D-B3CC-802A53AE10C0}"/>
+    <hyperlink ref="A147" r:id="rId174" display="https://support.microsoft.com/de-de/office/gammaln-funktion-b838c48b-c65f-484f-9e1d-141c55470eb9" xr:uid="{95AD9404-968C-AD4B-8DBF-B455379DE850}"/>
+    <hyperlink ref="A148" r:id="rId175" display="https://support.microsoft.com/de-de/office/gammaln-genau-funktion-5cdfe601-4e1e-4189-9d74-241ef1caa599" xr:uid="{FD71F682-CE3F-DA4A-B0D7-B5125978E16F}"/>
+    <hyperlink ref="A150" r:id="rId176" display="https://support.microsoft.com/de-de/office/gauss-funktion-069f1b4e-7dee-4d6a-a71f-4b69044a6b33" xr:uid="{B1294B99-C5CE-D44A-8A76-B64935344CA5}"/>
+    <hyperlink ref="A161" r:id="rId177" display="https://support.microsoft.com/de-de/office/ggt-funktion-d5107a51-69e3-461f-8e4c-ddfc21b5073a" xr:uid="{C29C5E0B-726E-404D-AAF0-95B08E0A023A}"/>
+    <hyperlink ref="A157" r:id="rId178" display="https://support.microsoft.com/de-de/office/geomittel-funktion-db1ac48d-25a5-40a0-ab83-0b38980e40d5" xr:uid="{CDCE7EA3-4D07-D14C-A55C-B40868949862}"/>
+    <hyperlink ref="A160" r:id="rId179" display="https://support.microsoft.com/de-de/office/gganzzahl-funktion-f37e7d2a-41da-4129-be95-640883fca9df" xr:uid="{39656DD0-A726-774E-8159-608528B6C753}"/>
+    <hyperlink ref="A319" r:id="rId180" display="https://support.microsoft.com/de-de/office/pivotdatenzuordnen-funktion-8c083b99-a922-4ca0-af5e-3af55960761f" xr:uid="{A856386A-5D8A-544D-B3DE-046F6D535B5A}"/>
+    <hyperlink ref="A166" r:id="rId181" display="https://support.microsoft.com/de-de/office/variation-funktion-541a91dc-3d5e-437d-b156-21324e68b80d" xr:uid="{88085673-D4E6-6541-8109-F3C7E961B62B}"/>
+    <hyperlink ref="A167" r:id="rId182" display="https://support.microsoft.com/de-de/office/harmittel-funktion-5efd9184-fab5-42f9-b1d3-57883a1d3bc6" xr:uid="{CF8D16DA-2139-2A49-B2D2-A8A9EC665F00}"/>
+    <hyperlink ref="A169" r:id="rId183" display="https://support.microsoft.com/de-de/office/hexinbin-funktion-a13aafaa-5737-4920-8424-643e581828c1" xr:uid="{8D821C61-4A73-694E-9097-15E1D20E53CA}"/>
+    <hyperlink ref="A170" r:id="rId184" display="https://support.microsoft.com/de-de/office/hexindez-funktion-8c8c3155-9f37-45a5-a3ee-ee5379ef106e" xr:uid="{B9413722-0FC8-CF4C-9B77-DD0D4596F620}"/>
+    <hyperlink ref="A171" r:id="rId185" display="https://support.microsoft.com/de-de/office/hexinokt-funktion-54d52808-5d19-4bd0-8a63-1096a5d11912" xr:uid="{F5E011A2-494B-2949-956F-6E06948DEA7D}"/>
+    <hyperlink ref="A383" r:id="rId186" display="https://support.microsoft.com/de-de/office/stunde-funktion-a3afa879-86cb-4339-b1b5-2dd2d7310ac7" xr:uid="{12DB7FC6-70D8-2147-B1AA-B517C47E2216}"/>
+    <hyperlink ref="A172" r:id="rId187" display="https://support.microsoft.com/de-de/office/hstapeln-funktion-98c4ab76-10fe-4b4f-8d5f-af1c125fe8c2" xr:uid="{0B06C6CE-3E83-BC48-AD3B-D8E00B5C66D3}"/>
+    <hyperlink ref="A173" r:id="rId188" display="https://support.microsoft.com/de-de/office/hyperlink-funktion-333c7ce6-c5ae-4164-9c47-7de9b76f577f" xr:uid="{0E4CBD27-CE94-5D42-97F8-06827B9CFA0A}"/>
+    <hyperlink ref="A174" r:id="rId189" display="https://support.microsoft.com/de-de/office/hypgeom-vert-funktion-6dbd547f-1d12-4b1f-8ae5-b0d9e3d22fbf" xr:uid="{598848F9-5547-3544-8605-1087079789ED}"/>
+    <hyperlink ref="A175" r:id="rId190" display="https://support.microsoft.com/de-de/office/hypgeomvert-funktion-23e37961-2871-4195-9629-d0b2c108a12e" xr:uid="{AD1D3730-857B-2A4E-8ED1-86224B25459F}"/>
+    <hyperlink ref="A178" r:id="rId191" display="https://support.microsoft.com/de-de/office/imabs-funktion-b31e73c6-d90c-4062-90bc-8eb351d765a1" xr:uid="{A19507E1-818D-514D-A681-1C667DC50624}"/>
+    <hyperlink ref="A179" r:id="rId192" display="https://support.microsoft.com/de-de/office/imagin%C3%A4rteil-funktion-dd5952fd-473d-44d9-95a1-9a17b23e428a" xr:uid="{53F68F97-F078-2E4C-8230-F90525F857C2}"/>
+    <hyperlink ref="A181" r:id="rId193" display="https://support.microsoft.com/de-de/office/imargument-funktion-eed37ec1-23b3-4f59-b9f3-d340358a034a" xr:uid="{AF176B4F-F488-104A-B3FB-4077D2C4532F}"/>
+    <hyperlink ref="A189" r:id="rId194" display="https://support.microsoft.com/de-de/office/imkonjugierte-funktion-2e2fc1ea-f32b-4f9b-9de6-233853bafd42" xr:uid="{A46B2C67-4733-8D4F-BD25-AC90C527F622}"/>
+    <hyperlink ref="A182" r:id="rId195" display="https://support.microsoft.com/de-de/office/imcos-funktion-dad75277-f592-4a6b-ad6c-be93a808a53c" xr:uid="{9F46FC4F-C1A1-6F47-AE45-F93FE7A36A69}"/>
+    <hyperlink ref="A185" r:id="rId196" display="https://support.microsoft.com/de-de/office/imcoshyp-funktion-053e4ddb-4122-458b-be9a-457c405e90ff" xr:uid="{34B88A7F-2DE0-2A47-8ECE-C284C57A71FD}"/>
+    <hyperlink ref="A186" r:id="rId197" display="https://support.microsoft.com/de-de/office/imcot-funktion-dc6a3607-d26a-4d06-8b41-8931da36442c" xr:uid="{A1200398-083D-C041-9999-8EFA58E6293D}"/>
+    <hyperlink ref="A183" r:id="rId198" display="https://support.microsoft.com/de-de/office/imcosec-funktion-9e158d8f-2ddf-46cd-9b1d-98e29904a323" xr:uid="{BE6296E3-DDBD-1E43-B6E6-FEC55B129C6C}"/>
+    <hyperlink ref="A184" r:id="rId199" display="https://support.microsoft.com/de-de/office/imcosechyp-funktion-c0ae4f54-5f09-4fef-8da0-dc33ea2c5ca9" xr:uid="{4AA04412-F90E-724B-BB53-753C8CBC82CF}"/>
+    <hyperlink ref="A187" r:id="rId200" display="https://support.microsoft.com/de-de/office/imdiv-funktion-a505aff7-af8a-4451-8142-77ec3d74d83f" xr:uid="{B73257D2-3C5E-F14D-86E8-E64457F754C4}"/>
+    <hyperlink ref="A188" r:id="rId201" display="https://support.microsoft.com/de-de/office/imexp-funktion-c6f8da1f-e024-4c0c-b802-a60e7147a95f" xr:uid="{3EE96CE8-39D8-874E-93C9-C3A92907BC22}"/>
+    <hyperlink ref="A190" r:id="rId202" display="https://support.microsoft.com/de-de/office/imln-funktion-32b98bcf-8b81-437c-a636-6fb3aad509d8" xr:uid="{9317D16F-67E7-E649-BA4A-48D2ADB80E75}"/>
+    <hyperlink ref="A191" r:id="rId203" display="https://support.microsoft.com/de-de/office/imlog10-funktion-58200fca-e2a2-4271-8a98-ccd4360213a5" xr:uid="{55533C7A-3C29-E749-831B-B4161D3EE884}"/>
+    <hyperlink ref="A192" r:id="rId204" display="https://support.microsoft.com/de-de/office/imlog2-funktion-152e13b4-bc79-486c-a243-e6a676878c51" xr:uid="{752EB90D-B25D-DA49-B688-1AA079EC718A}"/>
+    <hyperlink ref="A180" r:id="rId205" display="https://support.microsoft.com/de-de/office/imapotenz-funktion-210fd2f5-f8ff-4c6a-9d60-30e34fbdef39" xr:uid="{431B459B-F923-2345-BCB5-E22640F0E575}"/>
+    <hyperlink ref="A193" r:id="rId206" display="https://support.microsoft.com/de-de/office/improdukt-funktion-2fb8651a-a4f2-444f-975e-8ba7aab3a5ba" xr:uid="{809E7527-6409-4B4D-A126-033CEEC94FC7}"/>
+    <hyperlink ref="A194" r:id="rId207" display="https://support.microsoft.com/de-de/office/imrealteil-funktion-d12bc4c0-25d0-4bb3-a25f-ece1938bf366" xr:uid="{B6744836-E03D-9C41-A633-2E91B2CE139A}"/>
+    <hyperlink ref="A195" r:id="rId208" display="https://support.microsoft.com/de-de/office/imsec-funktion-6df11132-4411-4df4-a3dc-1f17372459e0" xr:uid="{D66B6BD8-6FBA-E845-A12F-510217612E0F}"/>
+    <hyperlink ref="A196" r:id="rId209" display="https://support.microsoft.com/de-de/office/imsechyp-funktion-f250304f-788b-4505-954e-eb01fa50903b" xr:uid="{B64FD425-E337-2242-A81C-D052CBCA1CDC}"/>
+    <hyperlink ref="A197" r:id="rId210" display="https://support.microsoft.com/de-de/office/imsin-funktion-1ab02a39-a721-48de-82ef-f52bf37859f6" xr:uid="{D624F109-C596-A541-B73D-FE4799CF1119}"/>
+    <hyperlink ref="A198" r:id="rId211" display="https://support.microsoft.com/de-de/office/imsinhyp-funktion-dfb9ec9e-8783-4985-8c42-b028e9e8da3d" xr:uid="{86A7278D-8C3E-9347-BC9C-FEC958E3EA2C}"/>
+    <hyperlink ref="A202" r:id="rId212" display="https://support.microsoft.com/de-de/office/imwurzel-funktion-e1753f80-ba11-4664-a10e-e17368396b70" xr:uid="{349BC6A4-D694-924E-8D37-6F06871B79F5}"/>
+    <hyperlink ref="A199" r:id="rId213" display="https://support.microsoft.com/de-de/office/imsub-funktion-2e404b4d-4935-4e85-9f52-cb08b9a45054" xr:uid="{7E0E7520-F692-5A4C-A9CF-038FB9274D8A}"/>
+    <hyperlink ref="A200" r:id="rId214" display="https://support.microsoft.com/de-de/office/imsumme-funktion-81542999-5f1c-4da6-9ffe-f1d7aaa9457f" xr:uid="{D99F4471-411D-7F4D-B3D4-7732B3ED1CA2}"/>
+    <hyperlink ref="A201" r:id="rId215" display="https://support.microsoft.com/de-de/office/imtan-funktion-8478f45d-610a-43cf-8544-9fc0b553a132" xr:uid="{9C0F0088-142D-2F4F-BD7C-F67061F36866}"/>
+    <hyperlink ref="A203" r:id="rId216" display="https://support.microsoft.com/de-de/office/index-funktion-a5dcf0dd-996d-40a4-a822-b56b061328bd" xr:uid="{BD0C74DF-D10B-284B-8DC0-39B142145DC3}"/>
+    <hyperlink ref="A204" r:id="rId217" display="https://support.microsoft.com/de-de/office/indirekt-funktion-474b3a3a-8a26-4f44-b491-92b6306fa261" xr:uid="{36C98A8A-E0C7-D54E-BC89-56FABB064998}"/>
+    <hyperlink ref="A205" r:id="rId218" display="https://support.microsoft.com/de-de/office/info-funktion-725f259a-0e4b-49b3-8b52-58815c69acae" xr:uid="{94841156-DA6F-BD49-AF22-294B804E07DD}"/>
+    <hyperlink ref="A149" r:id="rId219" display="https://support.microsoft.com/de-de/office/ganzzahl-funktion-a6c4af9e-356d-4369-ab6a-cb1fd9d343ef" xr:uid="{A0DD0FBB-09D1-984C-9EAF-DBB225C866E9}"/>
+    <hyperlink ref="A206" r:id="rId220" display="https://support.microsoft.com/de-de/office/achsenabschnitt-funktion-2a9b74e2-9d47-4772-b663-3bca70bf63ef" xr:uid="{22E9F2A2-D047-6F48-A702-A41A224E6B0B}"/>
+    <hyperlink ref="A177" r:id="rId221" display="https://support.microsoft.com/de-de/office/ikv-funktion-64925eaa-9988-495b-b290-3ad0c163c1bc" xr:uid="{1DE93ED0-A3F4-5946-9981-A84B627E59B9}"/>
+    <hyperlink ref="A216" r:id="rId222" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{436033F3-FD5B-3748-A624-18E65B3F3F58}"/>
+    <hyperlink ref="A211" r:id="rId223" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{B4258E58-EBFF-2B46-AD6E-E4C89200F378}"/>
+    <hyperlink ref="A212" r:id="rId224" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{8E12CE7E-E3B9-244A-A85D-88B206B079FD}"/>
+    <hyperlink ref="A214" r:id="rId225" display="https://support.microsoft.com/de-de/office/istgerade-funktion-aa15929a-d77b-4fbb-92f4-2f479af55356" xr:uid="{BCC6EF0B-AC71-0149-821D-3559A3AD88A5}"/>
+    <hyperlink ref="A213" r:id="rId226" display="https://support.microsoft.com/de-de/office/istformel-funktion-e4d1355f-7121-4ef2-801e-3839bfd6b1e5" xr:uid="{9E524249-8E1D-7448-976B-BFC98204BC20}"/>
+    <hyperlink ref="A217" r:id="rId227" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{960D9B0B-9842-C54A-8A3F-D71571C8635B}"/>
+    <hyperlink ref="A218" r:id="rId228" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{36B93735-F2CF-514C-B090-4B0AA10E4E49}"/>
+    <hyperlink ref="A215" r:id="rId229" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{D608F250-A685-634A-A05D-5E484E7D6961}"/>
+    <hyperlink ref="A221" r:id="rId230" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{D0087E48-D070-564D-8E68-F3C1B224C69F}"/>
+    <hyperlink ref="A220" r:id="rId231" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{E906D8A3-7E86-E84C-8EA2-8906333491E3}"/>
+    <hyperlink ref="A210" r:id="rId232" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{C3CEFF76-978C-824D-8DF4-EDFF56CB2456}"/>
+    <hyperlink ref="A219" r:id="rId233" display="https://support.microsoft.com/de-de/office/ist-funktionen-0f2d7971-6019-40a0-a171-f2d869135665" xr:uid="{0447F11A-AA47-B94D-85F8-AB0210E86CB2}"/>
+    <hyperlink ref="A207" r:id="rId234" display="https://support.microsoft.com/de-de/office/iso-obergrenze-funktion-e587bb73-6cc2-4113-b664-ff5b09859a83" xr:uid="{80F5C81F-B3A3-1C42-B676-FF8236EE2343}"/>
+    <hyperlink ref="A208" r:id="rId235" display="https://support.microsoft.com/de-de/office/isokalenderwoche-funktion-1c2d0afe-d25b-4ab1-8894-8d0520e90e0e" xr:uid="{46481D82-6827-9346-A404-E5A00F0116D0}"/>
+    <hyperlink ref="A209" r:id="rId236" display="https://support.microsoft.com/de-de/office/ispmt-funktion-fa58adb6-9d39-4ce0-8f43-75399cea56cc" xr:uid="{9FD048C2-E74C-7F47-A5CB-25E01B5E15B3}"/>
+    <hyperlink ref="A224" r:id="rId237" display="https://support.microsoft.com/de-de/office/jis-funktion-b72fb1a7-ba52-448a-b7d3-d2610868b7e2" xr:uid="{C223B310-DD42-B244-AC60-74B1E2B926B3}"/>
+    <hyperlink ref="A242" r:id="rId238" display="https://support.microsoft.com/de-de/office/kurt-funktion-bc3a265c-5da4-4dcb-b7fd-c237789095ab" xr:uid="{43E7E962-D3CC-2B41-A8E1-425ECAD027B7}"/>
+    <hyperlink ref="A244" r:id="rId239" display="https://support.microsoft.com/de-de/office/funktion-lambda-bd212d27-1cd1-4321-a34a-ccbf254b8b67" xr:uid="{7C9CAAB5-330E-6F4E-B4BB-08FCCA6B3679}"/>
+    <hyperlink ref="A227" r:id="rId240" display="https://support.microsoft.com/de-de/office/kgr%C3%B6sste-funktion-3af0af19-1190-42bb-bb8b-01672ec00a64" xr:uid="{F144FA45-345E-384A-9395-48A2E1E385FB}"/>
+    <hyperlink ref="A228" r:id="rId241" display="https://support.microsoft.com/de-de/office/kgv-funktion-7152b67a-8bb5-4075-ae5c-06ede5563c94" xr:uid="{E5D16ED7-3453-374D-A7BE-60CB9B3FDD06}"/>
+    <hyperlink ref="A248" r:id="rId242" display="https://support.microsoft.com/de-de/office/links-linksb-funktionen-9203d2d2-7960-479b-84c6-1ea52b99640c" xr:uid="{E2179A7F-3F69-A647-8D3A-9DFD13835960}"/>
+    <hyperlink ref="A245" r:id="rId243" display="https://support.microsoft.com/de-de/office/l%C3%A4nge-l%C3%A4ngeb-funktionen-29236f94-cedc-429d-affd-b5e33d2c67cb" xr:uid="{F03CF69C-2902-384B-A2EB-900E5AEEF267}"/>
+    <hyperlink ref="A246" r:id="rId244" display="https://support.microsoft.com/de-de/office/let-funktion-34842dd8-b92b-4d3f-b325-b8b8f9908999" xr:uid="{189D1472-4041-6D4A-823D-D8B5AFD8AA8A}"/>
+    <hyperlink ref="A351" r:id="rId245" display="https://support.microsoft.com/de-de/office/rgp-funktion-84d7d0d9-6e50-4101-977a-fa7abf772b6d" xr:uid="{B2BB40BE-6D49-6048-91A0-B7A79DBFB0AB}"/>
+    <hyperlink ref="A249" r:id="rId246" display="https://support.microsoft.com/de-de/office/ln-funktion-81fe1ed7-dac9-4acd-ba1d-07a142c6118f" xr:uid="{29131F59-17FB-3643-A946-8914D806DFF5}"/>
+    <hyperlink ref="A250" r:id="rId247" display="https://support.microsoft.com/de-de/office/log-funktion-4e82f196-1ca9-4747-8fb0-6c4a3abb3280" xr:uid="{70BE5447-29AC-EA44-AD28-EE7BF9A518A1}"/>
+    <hyperlink ref="A251" r:id="rId248" display="https://support.microsoft.com/de-de/office/log10-funktion-c75b881b-49dd-44fb-b6f4-37e3486a0211" xr:uid="{1A37A81B-5125-3540-971C-B8AEDD22F06B}"/>
+    <hyperlink ref="A252" r:id="rId249" display="https://support.microsoft.com/de-de/office/rkp-funktion-f27462d8-3657-4030-866b-a272c1d18b4b" xr:uid="{0509CD6B-8426-8D4B-91BC-51E4FBE01BB5}"/>
+    <hyperlink ref="A253" r:id="rId250" display="https://support.microsoft.com/de-de/office/loginv-funktion-0bd7631a-2725-482b-afb4-de23df77acfe" xr:uid="{6E992EA5-D839-2A4A-85BE-9EF711EAB9A4}"/>
+    <hyperlink ref="A255" r:id="rId251" display="https://support.microsoft.com/de-de/office/lognorm-vert-funktion-eb60d00b-48a9-4217-be2b-6074aee6b070" xr:uid="{9CE0D549-6ABB-3143-853E-6DA9C5A0A3DF}"/>
+    <hyperlink ref="A256" r:id="rId252" display="https://support.microsoft.com/de-de/office/lognormvert-funktion-f8d194cb-9ee3-4034-8c75-1bdb3884100b" xr:uid="{19808655-B6CA-F946-AEDA-96D45B419478}"/>
+    <hyperlink ref="A254" r:id="rId253" display="https://support.microsoft.com/de-de/office/lognorm-inv-funktion-fe79751a-f1f2-4af8-a0a1-e151b2d4f600" xr:uid="{10406489-2538-9D40-9F0A-853FDFD6C170}"/>
+    <hyperlink ref="A230" r:id="rId254" display="https://support.microsoft.com/de-de/office/klein-funktion-3f21df02-a80c-44b2-afaf-81358f9fdeb4" xr:uid="{70EF6965-1031-EF41-867C-A2E120A774F0}"/>
+    <hyperlink ref="A258" r:id="rId255" display="https://support.microsoft.com/de-de/office/makearray-funktion-b80da5ad-b338-4149-a523-5b221da09097" xr:uid="{83B98FBC-37DF-574E-8C79-87BF3DCE7BB5}"/>
+    <hyperlink ref="A257" r:id="rId256" display="https://support.microsoft.com/de-de/office/map-funktion-48006093-f97c-47c1-bfcc-749263bb1f01" xr:uid="{59C1ECE4-BE8F-BE40-9018-4E7282351BCF}"/>
+    <hyperlink ref="A260" r:id="rId257" display="https://support.microsoft.com/de-de/office/max-funktion-e0012414-9ac8-4b34-9a47-73e662c08098" xr:uid="{882CF65F-5D90-3D41-AB45-11DA9D8E616F}"/>
+    <hyperlink ref="A261" r:id="rId258" display="https://support.microsoft.com/de-de/office/maxa-funktion-814bda1e-3840-4bff-9365-2f59ac2ee62d" xr:uid="{11DD5A5F-C838-5D4B-83CC-D8A86BB6AB28}"/>
+    <hyperlink ref="A262" r:id="rId259" display="https://support.microsoft.com/de-de/office/maxwenns-funktion-dfd611e6-da2c-488a-919b-9b6376b28883" xr:uid="{6D094BE0-CC24-6542-81A1-743C6F9AD4EA}"/>
+    <hyperlink ref="A263" r:id="rId260" display="https://support.microsoft.com/de-de/office/mdet-funktion-e7bfa857-3834-422b-b871-0ffd03717020" xr:uid="{662E657C-940E-D74F-BEF7-29E04D9A6BAC}"/>
+    <hyperlink ref="A264" r:id="rId261" display="https://support.microsoft.com/de-de/office/mduration-funktion-b3786a69-4f20-469a-94ad-33e5b90a763c" xr:uid="{A48A7B7D-B107-5344-8764-BBADF96A38AC}"/>
+    <hyperlink ref="A265" r:id="rId262" display="https://support.microsoft.com/de-de/office/median-funktion-d0916313-4753-414c-8537-ce85bdd967d2" xr:uid="{B00B9280-F94F-4143-904D-C4B1A6A64A74}"/>
+    <hyperlink ref="A267" r:id="rId263" display="https://support.microsoft.com/de-de/office/min-funktion-61635d12-920f-4ce2-a70f-96f202dcc152" xr:uid="{283BF1E3-22B9-CF47-B3D9-ACB03B1E4405}"/>
+    <hyperlink ref="A271" r:id="rId264" display="https://support.microsoft.com/de-de/office/minwenns-funktion-6ca1ddaa-079b-4e74-80cc-72eef32e6599" xr:uid="{0B063C82-048E-8440-82CA-2EAEDDDA0937}"/>
+    <hyperlink ref="A268" r:id="rId265" display="https://support.microsoft.com/de-de/office/mina-funktion-245a6f46-7ca5-4dc7-ab49-805341bc31d3" xr:uid="{2AD5F53A-3F77-4146-8372-26637AD69766}"/>
+    <hyperlink ref="A269" r:id="rId266" display="https://support.microsoft.com/de-de/office/minute-funktion-af728df0-05c4-4b07-9eed-a84801a60589" xr:uid="{3527691E-1101-2242-BEEE-5828CD4A29DB}"/>
+    <hyperlink ref="A270" r:id="rId267" display="https://support.microsoft.com/de-de/office/minv-funktion-11f55086-adde-4c9f-8eb9-59da2d72efc6" xr:uid="{E48E9793-FE28-C64C-A4FF-658A59B2A851}"/>
+    <hyperlink ref="A331" r:id="rId268" display="https://support.microsoft.com/de-de/office/qikv-funktion-b020f038-7492-4fb4-93c1-35c345b53524" xr:uid="{AEE76B10-03C9-2A42-AA16-218FAD7FC7AA}"/>
+    <hyperlink ref="A277" r:id="rId269" display="https://support.microsoft.com/de-de/office/mmult-funktion-40593ed7-a3cd-4b6b-b9a3-e4ad3c7245eb" xr:uid="{7A42255B-C9A5-9F47-B162-055FDD9CD9BE}"/>
+    <hyperlink ref="A350" r:id="rId270" display="https://support.microsoft.com/de-de/office/rest-funktion-9b6cd169-b6ee-406a-a97b-edf2a9dc24f3" xr:uid="{26B29539-0D0B-2C43-89F7-668A35AE6D70}"/>
+    <hyperlink ref="A278" r:id="rId271" display="https://support.microsoft.com/de-de/office/modalwert-funktion-e45192ce-9122-4980-82ed-4bdc34973120" xr:uid="{0718A4DB-C902-9B46-A891-2C201CB25F4E}"/>
+    <hyperlink ref="A279" r:id="rId272" display="https://support.microsoft.com/de-de/office/modus-vielf-funktion-50fd9464-b2ba-4191-b57a-39446689ae8c" xr:uid="{F960E020-C0F2-7846-82A3-3AAA512D13AF}"/>
+    <hyperlink ref="A280" r:id="rId273" display="https://support.microsoft.com/de-de/office/modus-einf-funktion-f1267c16-66c6-4386-959f-8fba5f8bb7f8" xr:uid="{BE376B62-AFB5-B348-8FB8-1BC9AB2B110C}"/>
+    <hyperlink ref="A281" r:id="rId274" display="https://support.microsoft.com/de-de/office/monat-funktion-579a2881-199b-48b2-ab90-ddba0eba86e8" xr:uid="{F3A542ED-C545-C146-A5CB-99979A502EDF}"/>
+    <hyperlink ref="A322" r:id="rId275" display="https://support.microsoft.com/de-de/office/polynomial-funktion-6fa6373c-6533-41a2-a45e-a56db1db1bf6" xr:uid="{225764CC-2699-A44D-947C-67A7673A9892}"/>
+    <hyperlink ref="A266" r:id="rId276" display="https://support.microsoft.com/de-de/office/meinheit-funktion-c9fe916a-dc26-4105-997d-ba22799853a3" xr:uid="{1ED9EAF4-2811-3945-ACD8-5438ACA1392A}"/>
+    <hyperlink ref="A284" r:id="rId277" display="https://support.microsoft.com/de-de/office/n-funktion-a624cad1-3635-4208-b54a-29733d1278c9" xr:uid="{AC438C25-9CEC-8E44-963D-ABA4B2EDDE48}"/>
+    <hyperlink ref="A304" r:id="rId278" display="https://support.microsoft.com/de-de/office/nv-funktion-5469c2d1-a90c-4fb5-9bbc-64bd9bb6b47c" xr:uid="{47C0226E-5D75-3146-82B1-A9249DE0E578}"/>
+    <hyperlink ref="A288" r:id="rId279" display="https://support.microsoft.com/de-de/office/negbinom-vert-funktion-c8239f89-c2d0-45bd-b6af-172e570f8599" xr:uid="{FF9DAB28-6158-5946-9721-B8B6FCC5818D}"/>
+    <hyperlink ref="A289" r:id="rId280" display="https://support.microsoft.com/de-de/office/negbinomvert-funktion-f59b0a37-bae2-408d-b115-a315609ba714" xr:uid="{AB669EA6-E222-6042-B0CE-5D16DE89CF4E}"/>
+    <hyperlink ref="A290" r:id="rId281" display="https://support.microsoft.com/de-de/office/nettoarbeitstage-funktion-48e717bf-a7a3-495f-969e-5005e3eb18e7" xr:uid="{F4A77D8C-764C-0E47-9602-AA868502D87B}"/>
+    <hyperlink ref="A291" r:id="rId282" display="https://support.microsoft.com/de-de/office/nettoarbeitstage-intl-funktion-a9b26239-4f20-46a1-9ab8-4e925bfd5e28" xr:uid="{F0E6F285-6B82-084A-94BC-52CA030B8626}"/>
+    <hyperlink ref="A293" r:id="rId283" display="https://support.microsoft.com/de-de/office/nominal-funktion-7f1ae29b-6b92-435e-b950-ad8b190ddd2b" xr:uid="{DEB3D147-88E6-A04A-803C-7A955DF6C487}"/>
+    <hyperlink ref="A297" r:id="rId284" display="https://support.microsoft.com/de-de/office/norm-vert-funktion-edb1cc14-a21c-4e53-839d-8082074c9f8d" xr:uid="{4AECE833-4B4D-4C4D-8217-19DC30BB8A4D}"/>
+    <hyperlink ref="A298" r:id="rId285" display="https://support.microsoft.com/de-de/office/normvert-funktion-126db625-c53e-4591-9a22-c9ff422d6d58" xr:uid="{F0EA0BB0-B0BC-754B-986F-55F10CCEAFD9}"/>
+    <hyperlink ref="A299" r:id="rId286" display="https://support.microsoft.com/de-de/office/norminv-funktion-87981ab8-2de0-4cb0-b1aa-e21d4cb879b8" xr:uid="{233A9BAB-C259-2547-9A9B-288871FB62B7}"/>
+    <hyperlink ref="A294" r:id="rId287" display="https://support.microsoft.com/de-de/office/norm-inv-funktion-54b30935-fee7-493c-bedb-2278a9db7e13" xr:uid="{F4861A36-3784-524C-9071-9044BEA08CFE}"/>
+    <hyperlink ref="A296" r:id="rId288" display="https://support.microsoft.com/de-de/office/norm-s-vert-funktion-1e787282-3832-4520-a9ae-bd2a8d99ba88" xr:uid="{D7BEC7C7-A103-C44D-BBB1-1B3638909319}"/>
+    <hyperlink ref="A300" r:id="rId289" display="https://support.microsoft.com/de-de/office/standnormvert-funktion-463369ea-0345-445d-802a-4ff0d6ce7cac" xr:uid="{9DD12FA0-3F51-B240-BDFB-FC370ABB4777}"/>
+    <hyperlink ref="A295" r:id="rId290" display="https://support.microsoft.com/de-de/office/norm-s-inv-funktion-d6d556b4-ab7f-49cd-b526-5a20918452b1" xr:uid="{71AA8DC0-AE83-0144-8D20-A03D651D6030}"/>
+    <hyperlink ref="A301" r:id="rId291" display="https://support.microsoft.com/de-de/office/standnorminv-funktion-8d1bce66-8e4d-4f3b-967c-30eed61f019d" xr:uid="{50830CE1-E680-2243-BDA8-E3A41BCAEC69}"/>
+    <hyperlink ref="A292" r:id="rId292" display="https://support.microsoft.com/de-de/office/nicht-funktion-9cfc6011-a054-40c7-a140-cd4ba2d87d77" xr:uid="{5F8988A0-5583-E045-93A9-7CC93E63AD10}"/>
+    <hyperlink ref="A223" r:id="rId293" display="https://support.microsoft.com/de-de/office/jetzt-funktion-3337fd29-145a-4347-b2e6-20c904739c46" xr:uid="{132FCED4-0753-7B4D-8B7C-FE1D8C7C33D4}"/>
+    <hyperlink ref="A287" r:id="rId294" display="https://support.microsoft.com/de-de/office/nbw-funktion-8672cb67-2576-4d07-b67b-ac28acf2a568" xr:uid="{FC5ABDAE-1FB3-A444-93C9-1985621C0F89}"/>
+    <hyperlink ref="A309" r:id="rId295" display="https://support.microsoft.com/de-de/office/oktinbin-funktion-55383471-3c56-4d27-9522-1a8ec646c589" xr:uid="{0DC2A874-A6E8-6A49-8604-7D1F7F5C8BC2}"/>
+    <hyperlink ref="A310" r:id="rId296" display="https://support.microsoft.com/de-de/office/oktindez-funktion-87606014-cb98-44b2-8dbb-e48f8ced1554" xr:uid="{D6D82AB2-6223-8B40-8341-063B1CC64897}"/>
+    <hyperlink ref="A311" r:id="rId297" display="https://support.microsoft.com/de-de/office/oktinhex-funktion-912175b4-d497-41b4-a029-221f051b858f" xr:uid="{BA2FC8B9-3050-A84E-B9AD-856E2B664291}"/>
+    <hyperlink ref="A308" r:id="rId298" display="https://support.microsoft.com/de-de/office/bereich-verschieben-funktion-c8de19ae-dd79-4b9b-a14e-b4d906d11b66" xr:uid="{7AA98EF6-AA5C-A341-A14D-BD5757488127}"/>
+    <hyperlink ref="A307" r:id="rId299" display="https://support.microsoft.com/de-de/office/oder-funktion-7d17ad14-8700-4281-b308-00b131e22af0" xr:uid="{9374BF9A-2B31-324A-A05E-61861DC7F49D}"/>
+    <hyperlink ref="A312" r:id="rId300" display="https://support.microsoft.com/de-de/office/pduration-funktion-44f33460-5be5-4c90-b857-22308892adaf" xr:uid="{E4A70BBD-DACE-A445-A316-830F536C8346}"/>
+    <hyperlink ref="A313" r:id="rId301" display="https://support.microsoft.com/de-de/office/pearson-funktion-0c3e30fc-e5af-49c4-808a-3ef66e034c18" xr:uid="{EE808AFB-8995-FA47-8448-223C9B98093C}"/>
+    <hyperlink ref="A333" r:id="rId302" display="https://support.microsoft.com/de-de/office/quantil-exkl-funktion-bbaa7204-e9e1-4010-85bf-c31dc5dce4ba" xr:uid="{1C174383-2667-584C-870F-3518E4F08CE4}"/>
+    <hyperlink ref="A334" r:id="rId303" display="https://support.microsoft.com/de-de/office/quantil-inkl-funktion-680f9539-45eb-410b-9a5e-c1355e5fe2ed" xr:uid="{73D2C438-3867-1342-AB3E-5E8C57CE41DD}"/>
+    <hyperlink ref="A314" r:id="rId304" display="https://support.microsoft.com/de-de/office/quantil-funktion-91b43a53-543c-4708-93de-d626debdddca" xr:uid="{8BC2037B-993C-7B4C-9B09-832F60B94C5F}"/>
+    <hyperlink ref="A335" r:id="rId305" display="https://support.microsoft.com/de-de/office/quantilsrang-exkl-funktion-d8afee96-b7e2-4a2f-8c01-8fcdedaa6314" xr:uid="{61F443C9-5126-6048-BEB3-E04030569031}"/>
+    <hyperlink ref="A336" r:id="rId306" display="https://support.microsoft.com/de-de/office/quantilsrang-inkl-funktion-149592c9-00c0-49ba-86c1-c1f45b80463a" xr:uid="{66B7B582-F6AD-0748-9C7D-4919017D0068}"/>
+    <hyperlink ref="A315" r:id="rId307" display="https://support.microsoft.com/de-de/office/quantilsrang-funktion-f1b5836c-9619-4847-9fc9-080ec9024442" xr:uid="{812E9C0D-41C7-B14D-B41C-EB6C5B710E34}"/>
+    <hyperlink ref="A316" r:id="rId308" display="https://support.microsoft.com/de-de/office/phi-funktion-23e49bc6-a8e8-402d-98d3-9ded87f6295c" xr:uid="{0A258D2E-FA3E-C844-8069-C41634CF97F1}"/>
+    <hyperlink ref="A317" r:id="rId309" display="https://support.microsoft.com/de-de/office/phonetic-funktion-9a329dac-0c0f-42f8-9a55-639086988554" xr:uid="{89327455-772F-A448-BDAA-BAB55E21BB79}"/>
+    <hyperlink ref="A318" r:id="rId310" display="https://support.microsoft.com/de-de/office/pi-funktion-264199d0-a3ba-46b8-975a-c4a04608989b" xr:uid="{73585751-436E-5B42-9EB7-93BFF1A40EAF}"/>
+    <hyperlink ref="A352" r:id="rId311" display="https://support.microsoft.com/de-de/office/rmz-funktion-0214da64-9a63-4996-bc20-214433fa6441" xr:uid="{F588C938-D0BE-1540-B06D-6E7C869C8242}"/>
+    <hyperlink ref="A321" r:id="rId312" display="https://support.microsoft.com/de-de/office/poisson-vert-funktion-8fe148ff-39a2-46cb-abf3-7772695d9636" xr:uid="{146AAF12-9362-F24C-9ABA-4435F2852D8C}"/>
+    <hyperlink ref="A320" r:id="rId313" display="https://support.microsoft.com/de-de/office/poisson-funktion-d81f7294-9d7c-4f75-bc23-80aa8624173a" xr:uid="{CB33C8C1-9733-E54C-9C20-5F6F15B912DC}"/>
+    <hyperlink ref="A323" r:id="rId314" display="https://support.microsoft.com/de-de/office/potenz-funktion-d3f2908b-56f4-4c3f-895a-07fb519c362a" xr:uid="{BAF27558-DD14-3144-A871-A83D909C5F27}"/>
+    <hyperlink ref="A226" r:id="rId315" display="https://support.microsoft.com/de-de/office/kapz-funktion-c370d9e3-7749-4ca4-beea-b06c6ac95e1b" xr:uid="{495BAA0A-3596-5E46-B805-B0CA3B062CAE}"/>
+    <hyperlink ref="A239" r:id="rId316" display="https://support.microsoft.com/de-de/office/kurs-funktion-3ea9deac-8dfa-436f-a7c8-17ea02c21b0a" xr:uid="{7EC8B1AB-EE53-6A41-9181-3847E94420DE}"/>
+    <hyperlink ref="A240" r:id="rId317" display="https://support.microsoft.com/de-de/office/kursdisagio-funktion-d06ad7c1-380e-4be7-9fd9-75e3079acfd3" xr:uid="{77CADF10-039A-4E4A-9F92-5223F58B849F}"/>
+    <hyperlink ref="A241" r:id="rId318" display="https://support.microsoft.com/de-de/office/kursf%C3%A4llig-funktion-52c3b4da-bc7e-476a-989f-a95f675cae77" xr:uid="{E8815276-CA79-794E-9E06-202BBE90A71B}"/>
+    <hyperlink ref="A325" r:id="rId319" display="https://support.microsoft.com/de-de/office/produkt-funktion-8e6b5b24-90ee-4650-aeec-80982a0512ce" xr:uid="{8110E3D1-837B-CD48-9AED-1635915D7B34}"/>
+    <hyperlink ref="A165" r:id="rId320" display="https://support.microsoft.com/de-de/office/gross2-funktion-52a5a283-e8b2-49be-8506-b2887b889f94" xr:uid="{0A49C125-D2B3-6049-B2CA-C88AA9E36CE9}"/>
+    <hyperlink ref="A57" r:id="rId321" display="https://support.microsoft.com/de-de/office/bw-funktion-23879d31-0e02-4321-be01-da16e8168cbd" xr:uid="{682CA767-6C04-2648-914A-1DC86D2E14E0}"/>
+    <hyperlink ref="A337" r:id="rId322" display="https://support.microsoft.com/de-de/office/quartile-funktion-93cf8f62-60cd-4fdb-8a92-8451041e1a2a" xr:uid="{972DDC46-DE51-F241-B6A3-8C7E90F22180}"/>
+    <hyperlink ref="A338" r:id="rId323" display="https://support.microsoft.com/de-de/office/quartile-exkl-funktion-5a355b7a-840b-4a01-b0f1-f538c2864cad" xr:uid="{6BD73DC1-02C5-B543-97B4-8685EAC9056C}"/>
+    <hyperlink ref="A339" r:id="rId324" display="https://support.microsoft.com/de-de/office/quartile-inkl-funktion-1bbacc80-5075-42f1-aed6-47d735c4819d" xr:uid="{4B94F43E-4F13-4E4C-8C90-1D3E5AD5E13B}"/>
+    <hyperlink ref="A340" r:id="rId325" display="https://support.microsoft.com/de-de/office/quotient-funktion-9f7bf099-2a18-4282-8fa4-65290cc99dee" xr:uid="{98CC7C43-B069-7845-A671-4DFA91DFD48A}"/>
+    <hyperlink ref="A54" r:id="rId326" display="https://support.microsoft.com/de-de/office/bogenmass-funktion-ac409508-3d48-45f5-ac02-1497c92de5bf" xr:uid="{CA66F762-9FED-C44B-892B-CBBE75F8AE3E}"/>
+    <hyperlink ref="A342" r:id="rId327" display="https://support.microsoft.com/de-de/office/rang-mittelw-funktion-bd406a6f-eb38-4d73-aa8e-6d1c3c72e83a" xr:uid="{C4B5809E-8B23-0F49-A1A6-C771A4722D33}"/>
+    <hyperlink ref="A341" r:id="rId328" display="https://support.microsoft.com/de-de/office/rang-gleich-funktion-284858ce-8ef6-450e-b662-26245be04a40" xr:uid="{F5DA1679-B5DB-C145-9DFA-6F6D0676B502}"/>
+    <hyperlink ref="A343" r:id="rId329" display="https://support.microsoft.com/de-de/office/rang-funktion-6a2fc49d-1831-4a03-9d8c-c279cf99f723" xr:uid="{8CDEA5AA-7409-2E47-92D5-D37FD9BAD05D}"/>
+    <hyperlink ref="A28" r:id="rId330" display="https://support.microsoft.com/de-de/office/auszahlung-funktion-7a3f8b93-6611-4f81-8576-828312c9b5e5" xr:uid="{6CCEB526-500D-C548-9868-DD75DD67E670}"/>
+    <hyperlink ref="A345" r:id="rId331" display="https://support.microsoft.com/de-de/office/reduce-funktion-42e39910-b345-45f3-84b8-0642b568b7cb" xr:uid="{2E371574-C91C-5A46-AD6B-45A969631FAC}"/>
+    <hyperlink ref="A346" r:id="rId332" display="https://support.microsoft.com/de-de/office/register-kennummer-funktion-f8f0af0f-fd66-4704-a0f2-87b27b175b50" xr:uid="{22E5B6FB-0B0F-6C41-885A-B77548885FD5}"/>
+    <hyperlink ref="A117" r:id="rId333" display="https://support.microsoft.com/de-de/office/ersetzen-ersetzenb-funktionen-8d799074-2425-4a8a-84bc-82472868878a" xr:uid="{571C0C08-803F-E24C-9378-7EE1A663EB8B}"/>
+    <hyperlink ref="A344" r:id="rId334" display="https://support.microsoft.com/de-de/office/rechts-rechtsb-240267ee-9afa-4639-a02b-f19e1786cf2f" xr:uid="{43F92E28-DE07-6D4D-8D47-867A2A2251F8}"/>
+    <hyperlink ref="A353" r:id="rId335" display="https://support.microsoft.com/de-de/office/r%C3%B6misch-funktion-d6b0b99e-de46-4704-a518-b45a0f8b56f5" xr:uid="{D0414B1B-66E6-434D-94A9-92BA26103E5E}"/>
+    <hyperlink ref="A357" r:id="rId336" display="https://support.microsoft.com/de-de/office/runden-funktion-c018c5d8-40fb-4053-90b1-b3e7f61a213c" xr:uid="{82E68B80-D11C-BE46-91D2-DC4339FDD85C}"/>
+    <hyperlink ref="A2" r:id="rId337" display="https://support.microsoft.com/de-de/office/abrunden-funktion-2ec94c73-241f-4b01-8c6f-17e6d7968f53" xr:uid="{03A4E142-72B4-4E49-BBD3-8730D013C175}"/>
+    <hyperlink ref="A27" r:id="rId338" display="https://support.microsoft.com/de-de/office/aufrunden-funktion-f8bc9b23-e795-47db-8703-db171d0c42a7" xr:uid="{5A4DC162-42D5-8048-8C5C-C7DBACA4D626}"/>
+    <hyperlink ref="A354" r:id="rId339" display="https://support.microsoft.com/de-de/office/zeile-funktion-3a63b74a-c4d0-4093-b49a-e76eb49a6d8d" xr:uid="{746AD8B1-5CFE-7046-86B6-585B455983BD}"/>
+    <hyperlink ref="A355" r:id="rId340" display="https://support.microsoft.com/de-de/office/bestimmtheitsmass-funktion-d7161715-250d-4a01-b80d-a8364f2be08f" xr:uid="{40E28B58-EB7F-2F43-BC80-65BEA8DC08B8}"/>
+    <hyperlink ref="A356" r:id="rId341" display="https://support.microsoft.com/de-de/office/rtd-funktion-e0cc001a-56f0-470a-9b19-9455dc0eb593" xr:uid="{EA207D6A-1AC3-9B44-BC62-0083121965E4}"/>
+    <hyperlink ref="A359" r:id="rId342" display="https://support.microsoft.com/de-de/office/scan-funktion-d58dfd11-9969-4439-b2dc-e7062724de29" xr:uid="{D168F4E7-02FA-3E4E-ABF0-F2F6C2A6E073}"/>
+    <hyperlink ref="A384" r:id="rId343" display="https://support.microsoft.com/de-de/office/suchen-suchenb-funktionen-9ab04538-0e55-4719-a72e-b6f54513b495" xr:uid="{D7DBFB1C-B4A7-1B40-B949-0748A70E31DB}"/>
+    <hyperlink ref="A363" r:id="rId344" display="https://support.microsoft.com/de-de/office/sec-funktion-ff224717-9c87-4170-9b58-d069ced6d5f7" xr:uid="{A845A323-CB3D-BC45-9709-B9FB07DD30AC}"/>
+    <hyperlink ref="A364" r:id="rId345" display="https://support.microsoft.com/de-de/office/sechyp-funktion-e05a789f-5ff7-4d7f-984a-5edb9b09556f" xr:uid="{B7A17241-831F-FF40-A897-19B2633508E1}"/>
+    <hyperlink ref="A365" r:id="rId346" display="https://support.microsoft.com/de-de/office/sekunde-funktion-740d1cfc-553c-4099-b668-80eaa24e8af1" xr:uid="{6608DCBA-FE21-B345-BEDE-AA07B71BFD2D}"/>
+    <hyperlink ref="A366" r:id="rId347" display="https://support.microsoft.com/de-de/office/sequenz-funktion-57467a98-57e0-4817-9f14-2eb78519ca90" xr:uid="{C4FB79A7-145F-634D-8822-B5F20CF75237}"/>
+    <hyperlink ref="A324" r:id="rId348" display="https://support.microsoft.com/de-de/office/potenzreihe-funktion-a3ab25b5-1093-4f5b-b084-96c49087f637" xr:uid="{08DD69FA-2C23-374A-ADAC-C926C46F5F40}"/>
+    <hyperlink ref="A52" r:id="rId349" display="https://support.microsoft.com/de-de/office/blatt-funktion-44718b6f-8b87-47a1-a9d6-b701c06cff24" xr:uid="{C0E58A7B-70F8-4245-9F9E-B8BCCDB11216}"/>
+    <hyperlink ref="A53" r:id="rId350" display="https://support.microsoft.com/de-de/office/bl%C3%A4tter-funktion-770515eb-e1e8-45ce-8066-b557e5e4b80b" xr:uid="{671BC752-452C-F34B-8DB4-67F71A3D33B7}"/>
+    <hyperlink ref="A367" r:id="rId351" display="https://support.microsoft.com/de-de/office/sin-funktion-cf0e3432-8b9e-483c-bc55-a76651c95602" xr:uid="{250102FB-1A65-F746-92DB-A69245F72B7A}"/>
+    <hyperlink ref="A368" r:id="rId352" display="https://support.microsoft.com/de-de/office/sinhyp-funktion-1e4e8b9f-2b65-43fc-ab8a-0a37f4081fa7" xr:uid="{0E95DC34-0474-2E48-AB1A-FF0B909110BD}"/>
+    <hyperlink ref="A361" r:id="rId353" display="https://support.microsoft.com/de-de/office/schiefe-funktion-bdf49d86-b1ef-4804-a046-28eaea69c9fa" xr:uid="{AC0644CB-329D-9E4B-9705-106CC33FADB9}"/>
+    <hyperlink ref="A362" r:id="rId354" display="https://support.microsoft.com/de-de/office/schiefe-p-funktion-76530a5c-99b9-48a1-8392-26632d542fcb" xr:uid="{AE379053-708E-8B4B-A028-93C75A06E309}"/>
+    <hyperlink ref="A247" r:id="rId355" display="https://support.microsoft.com/de-de/office/lia-funktion-cdb666e5-c1c6-40a7-806a-e695edc2f1c8" xr:uid="{D4F6F0F6-8C08-8C45-98A2-E1B14069F19B}"/>
+    <hyperlink ref="A369" r:id="rId356" display="https://support.microsoft.com/de-de/office/steigung-funktion-11fb8f97-3117-4813-98aa-61d7e01276b9" xr:uid="{09449A2D-AD0F-2E42-B99F-609F554E85A9}"/>
+    <hyperlink ref="A229" r:id="rId357" display="https://support.microsoft.com/de-de/office/kkleinste-funktion-17da8222-7c82-42b2-961b-14c45384df07" xr:uid="{3699D5B6-2999-9744-8E39-6EF228F58945}"/>
+    <hyperlink ref="A370" r:id="rId358" display="https://support.microsoft.com/de-de/office/sortieren-funktion-22f63bd0-ccc8-492f-953d-c20e8e44b86c" xr:uid="{D72EC34E-3D65-7F4F-9A88-FABA83FBCE14}"/>
+    <hyperlink ref="A371" r:id="rId359" display="https://support.microsoft.com/de-de/office/sortierennach-funktion-cd2d7a62-1b93-435c-b561-d6a35134f28f" xr:uid="{C20095C5-0F6E-1744-9956-7ED628D42616}"/>
+    <hyperlink ref="A379" r:id="rId360" display="https://support.microsoft.com/de-de/office/standardisierung-funktion-81d66554-2d54-40ec-ba83-6437108ee775" xr:uid="{429E473C-BDA3-0544-8C35-93F5E6EB691F}"/>
+    <hyperlink ref="A55" r:id="rId361" display="https://support.microsoft.com/de-de/office/b%C3%B6rsenhistorie-funktion-1ac8b5b3-5f62-4d94-8ab8-7504ec7239a8" xr:uid="{A58DA5A7-C8D7-B545-99A3-5C2FB209AC41}"/>
+    <hyperlink ref="A380" r:id="rId362" display="https://support.microsoft.com/de-de/office/stabw-funktion-51fecaaa-231e-4bbb-9230-33650a72c9b0" xr:uid="{CEB66509-32CB-6B40-A384-F11BDD4299D8}"/>
+    <hyperlink ref="A375" r:id="rId363" display="https://support.microsoft.com/de-de/office/stabw-n-funktion-6e917c05-31a0-496f-ade7-4f4e7462f285" xr:uid="{40396F78-DE94-B442-B44C-3BF7FB4BCB43}"/>
+    <hyperlink ref="A376" r:id="rId364" display="https://support.microsoft.com/de-de/office/stabw-s-funktion-7d69cf97-0c1f-4acf-be27-f3e83904cc23" xr:uid="{FE483345-D0B5-1546-93F6-AE6FFF969A64}"/>
+    <hyperlink ref="A377" r:id="rId365" display="https://support.microsoft.com/de-de/office/stabwa-funktion-5ff38888-7ea5-48de-9a6d-11ed73b29e9d" xr:uid="{D2D5FF7B-77F4-9343-962D-31F110FE046C}"/>
+    <hyperlink ref="A381" r:id="rId366" display="https://support.microsoft.com/de-de/office/stabwn-funktion-1f7c1c88-1bec-4422-8242-e9f7dc8bb195" xr:uid="{33224F56-C105-0844-97F6-FA9230B74918}"/>
+    <hyperlink ref="A378" r:id="rId367" display="https://support.microsoft.com/de-de/office/stabwna-funktion-5578d4d6-455a-4308-9991-d405afe2c28c" xr:uid="{F977496A-6379-9D48-B292-440865256ED6}"/>
+    <hyperlink ref="A382" r:id="rId368" display="https://support.microsoft.com/de-de/office/stfehleryx-funktion-6ce74b2c-449d-4a6e-b9ac-f9cef5ba48ab" xr:uid="{8ED655FB-E5BE-174E-8D52-BD8FEB52BA55}"/>
+    <hyperlink ref="A385" r:id="rId369" display="https://support.microsoft.com/de-de/office/summe-funktion-043e1c7d-7726-4e80-8f32-07b23e057f89" xr:uid="{80BE5EFF-3785-D349-B585-9EA2D76FB784}"/>
+    <hyperlink ref="A387" r:id="rId370" display="https://support.microsoft.com/de-de/office/summewenn-funktion-169b8c99-c05c-4483-a712-1697a653039b" xr:uid="{6E600DCC-CF85-8949-A785-54F446A11EF5}"/>
+    <hyperlink ref="A388" r:id="rId371" display="https://support.microsoft.com/de-de/office/summewenns-funktion-c9e748f5-7ea7-455d-9406-611cebce642b" xr:uid="{82D89B89-949E-CF49-8183-7F51EBE738B7}"/>
+    <hyperlink ref="A386" r:id="rId372" display="https://support.microsoft.com/de-de/office/summenprodukt-funktion-16753e75-9f68-4874-94ac-4d2145a2fd2e" xr:uid="{01F31EBC-E9F3-4840-A732-F330E0DBCE52}"/>
+    <hyperlink ref="A332" r:id="rId373" display="https://support.microsoft.com/de-de/office/quadratesumme-funktion-e3313c02-51cc-4963-aae6-31442d9ec307" xr:uid="{B1D704CA-98B6-1E42-A4ED-AB40D7253AF6}"/>
+    <hyperlink ref="A389" r:id="rId374" display="https://support.microsoft.com/de-de/office/summex2my2-funktion-9e599cc5-5399-48e9-a5e0-e37812dfa3e9" xr:uid="{7B286FF9-3061-2B4C-BBE4-DE1D2C09B2AC}"/>
+    <hyperlink ref="A390" r:id="rId375" display="https://support.microsoft.com/de-de/office/summex2py2-funktion-826b60b4-0aa2-4e5e-81d2-be704d3d786f" xr:uid="{11857C07-9F20-8F4F-8E45-8924A9E7DBF2}"/>
+    <hyperlink ref="A391" r:id="rId376" display="https://support.microsoft.com/de-de/office/funktion-summexmy2-9d144ac1-4d79-43de-b524-e2ecee23b299" xr:uid="{59B7F3A8-A388-AB45-838B-72CEE09AAA15}"/>
+    <hyperlink ref="A394" r:id="rId377" display="https://support.microsoft.com/de-de/office/switch-funktion-47ab33c0-28ce-4530-8a45-d532ec4aa25e" xr:uid="{A90FD150-1F5E-1C4D-88CF-7A7F64F531D1}"/>
+    <hyperlink ref="A109" r:id="rId378" display="https://support.microsoft.com/de-de/office/dia-funktion-069f8106-b60b-4ca2-98e0-2a0f206bdb27" xr:uid="{01C24D5D-A38F-A14D-B77D-8B1C2756D26A}"/>
+    <hyperlink ref="A395" r:id="rId379" display="https://support.microsoft.com/de-de/office/t-funktion-fb83aeec-45e7-4924-af95-53e073541228" xr:uid="{BEC2B989-8829-0F43-A9D8-B56FA5406553}"/>
+    <hyperlink ref="A405" r:id="rId380" display="https://support.microsoft.com/de-de/office/tan-funktion-08851a40-179f-4052-b789-d7f699447401" xr:uid="{176E8C2E-A56C-C34D-8396-8C4FAEF84638}"/>
+    <hyperlink ref="A406" r:id="rId381" display="https://support.microsoft.com/de-de/office/tanhyp-funktion-017222f0-a0c3-4f69-9787-b3202295dc6c" xr:uid="{DD38286D-F469-6849-89F5-A279B9B61C89}"/>
+    <hyperlink ref="A407" r:id="rId382" display="https://support.microsoft.com/de-de/office/tbill%C3%A4quiv-funktion-2ab72d90-9b4d-4efe-9fc2-0f81f2c19c8c" xr:uid="{72385635-429F-3C42-BC4E-06A5165232FC}"/>
+    <hyperlink ref="A408" r:id="rId383" display="https://support.microsoft.com/de-de/office/tbillkurs-funktion-eacca992-c29d-425a-9eb8-0513fe6035a2" xr:uid="{3A8C1B18-99EF-0F42-8FD4-E120F84E261C}"/>
+    <hyperlink ref="A409" r:id="rId384" display="https://support.microsoft.com/de-de/office/tbillrendite-funktion-6d381232-f4b0-4cd5-8e97-45b9c03468ba" xr:uid="{C4C63592-4143-F744-87D0-B0BA7BD84631}"/>
+    <hyperlink ref="A399" r:id="rId385" display="https://support.microsoft.com/de-de/office/t-vert-funktion-4329459f-ae91-48c2-bba8-1ead1c6c21b2" xr:uid="{3E1B6F9B-70E7-5A49-95F2-B36A7B5F0F26}"/>
+    <hyperlink ref="A400" r:id="rId386" display="https://support.microsoft.com/de-de/office/t-vert-2s-funktion-198e9340-e360-4230-bd21-f52f22ff5c28" xr:uid="{7065560B-51A1-C54C-91E8-1A3A5CD99408}"/>
+    <hyperlink ref="A401" r:id="rId387" display="https://support.microsoft.com/de-de/office/t-vert-re-funktion-20a30020-86f9-4b35-af1f-7ef6ae683eda" xr:uid="{E4DF2E9F-274D-664D-A4F6-B2DFB287CE5C}"/>
+    <hyperlink ref="A396" r:id="rId388" display="https://support.microsoft.com/de-de/office/t-inv-funktion-2908272b-4e61-4942-9df9-a25fec9b0e2e" xr:uid="{496DFC7D-6408-9D49-9BFE-D46A9BE33BDE}"/>
+    <hyperlink ref="A397" r:id="rId389" display="https://support.microsoft.com/de-de/office/t-inv-2s-funktion-ce72ea19-ec6c-4be7-bed2-b9baf2264f17" xr:uid="{5CBFEA00-D7BC-2949-92B6-FF0E351C76F1}"/>
+    <hyperlink ref="A168" r:id="rId390" display="https://support.microsoft.com/de-de/office/heute-funktion-5eb3078d-a82c-4736-8930-2f51a028fdd9" xr:uid="{E33C9370-B3F2-9449-86C1-DF2F006A2993}"/>
+    <hyperlink ref="A283" r:id="rId391" display="https://support.microsoft.com/de-de/office/mtrans-funktion-ed039415-ed8a-4a81-93e9-4b6dfac76027" xr:uid="{1F153C77-F2C9-4A41-8696-EADEEF0A7273}"/>
+    <hyperlink ref="A162" r:id="rId392" display="https://support.microsoft.com/de-de/office/gl%C3%A4tten-funktion-410388fa-c5df-49c6-b16c-9e5630b479f9" xr:uid="{2DD327E2-22CB-504A-9C37-6F0E7001404C}"/>
+    <hyperlink ref="A159" r:id="rId393" display="https://support.microsoft.com/de-de/office/gestutztmittel-funktion-d90c9878-a119-4746-88fa-63d988f511d3" xr:uid="{D6C277BE-FED9-3749-8281-94B55920ED14}"/>
+    <hyperlink ref="A243" r:id="rId394" display="https://support.microsoft.com/de-de/office/k%C3%BCrzen-funktion-8b86a64c-3127-43db-ba14-aa5ceb292721" xr:uid="{D031971F-D6FB-2648-9160-F08B6043D34C}"/>
+    <hyperlink ref="A398" r:id="rId395" display="https://support.microsoft.com/de-de/office/t-test-funktion-d4e08ec3-c545-485f-962e-276f7cbed055" xr:uid="{4C85B890-05C0-2E49-ACA9-D227CD6B1E84}"/>
+    <hyperlink ref="A115" r:id="rId396" display="https://support.microsoft.com/de-de/office/eindeutig-funktion-c5ab87fd-30a3-4ce9-9d1a-40204fb85e1e" xr:uid="{132655A7-DA9C-D84B-8B39-2FF7D9E317BD}"/>
+    <hyperlink ref="A164" r:id="rId397" display="https://support.microsoft.com/de-de/office/gross-funktion-c11f29b3-d1a3-4537-8df6-04d0049963d6" xr:uid="{D77D0645-ADE6-CE4B-8F66-87E391CF0420}"/>
+    <hyperlink ref="A393" r:id="rId398" display="https://support.microsoft.com/de-de/office/sverweis-funktion-0bbc8083-26fe-4963-8ab8-93a18ad188a1" xr:uid="{6335A78D-CA17-284C-8FF1-431F7C107B32}"/>
+    <hyperlink ref="A225" r:id="rId399" display="https://support.microsoft.com/de-de/office/kalenderwoche-funktion-e5c43a03-b4ab-426c-b411-b18c13c75340" xr:uid="{DB410882-A027-D34C-A76A-7B14761016A0}"/>
+    <hyperlink ref="A12" r:id="rId400" display="https://support.microsoft.com/de-de/office/arbeitstag-funktion-f764a5b7-05fc-4494-9486-60d494efbf33" xr:uid="{D956E11B-4F27-E947-A4ED-4B51024795F8}"/>
+    <hyperlink ref="A13" r:id="rId401" display="https://support.microsoft.com/de-de/office/arbeitstag-intl-funktion-a378391c-9ba7-4678-8a39-39611a9bf81d" xr:uid="{6F9EE8F7-0CF1-2B48-B03F-99ECD94EBB7D}"/>
+    <hyperlink ref="A373" r:id="rId402" display="https://support.microsoft.com/de-de/office/wrapcols-funktion-d038b05a-57b7-4ee0-be94-ded0792511e2" xr:uid="{C64E1C01-86CA-E943-8EE0-DAE8B40D79B6}"/>
+    <hyperlink ref="A222" r:id="rId403" display="https://support.microsoft.com/de-de/office/jahr-funktion-c64f017a-1354-490d-981f-578e8ec8d3b9" xr:uid="{9E3DDF68-9601-2B42-82A1-F2348189BB5D}"/>
+    <hyperlink ref="A56" r:id="rId404" display="https://support.microsoft.com/de-de/office/brteiljahre-funktion-3844141e-c76d-4143-82b6-208454ddc6a8" xr:uid="{6D8FA1CE-D73D-C647-9359-C1DA0D0B19BC}"/>
+    <hyperlink ref="A347" r:id="rId405" display="https://support.microsoft.com/de-de/office/rendite-funktion-f5f5ca43-c4bd-434f-8bd2-ed3c9727a4fe" xr:uid="{004C48C2-9CFE-5441-98EE-124A4AD1DB46}"/>
+    <hyperlink ref="A348" r:id="rId406" display="https://support.microsoft.com/de-de/office/renditedis-funktion-a9dbdbae-7dae-46de-b995-615faffaaed7" xr:uid="{2FB8D67C-4029-3E4E-BCB3-C4E976128346}"/>
+    <hyperlink ref="A349" r:id="rId407" display="https://support.microsoft.com/de-de/office/renditef%C3%A4ll-funktion-ba7d1809-0d33-4bcb-96c7-6c56ec62ef6f" xr:uid="{C0EFE0E7-29F7-024B-A722-343BC12B45F3}"/>
+    <hyperlink ref="A141" r:id="rId408" display="https://support.microsoft.com/de-de/office/g-test-funktion-d633d5a3-2031-4614-a016-92180ad82bee" xr:uid="{8E9AE084-85A8-FD43-A2C7-E158763FF80C}"/>
+    <hyperlink ref="A425" r:id="rId409" display="https://support.microsoft.com/de-de/office/und-funktion-5f19b2e8-e1df-4408-897a-ce285a19e9d9" xr:uid="{9097DCE7-A689-CD46-93B7-6A482C456715}"/>
+    <hyperlink ref="A480" r:id="rId410" display="https://support.microsoft.com/de-de/office/zeichen-funktion-bbd249c8-b36e-4a91-8017-1c133f9b837a" xr:uid="{7426BD4D-6E06-7D46-9213-6F9788C90C27}"/>
+    <hyperlink ref="A451" r:id="rId411" display="https://support.microsoft.com/de-de/office/wahl-funktion-fc5c184f-cb62-4ec7-a46e-38653b98f5bc" xr:uid="{A6601EF2-4757-EA4D-AFED-C74E0413CF73}"/>
+    <hyperlink ref="A483" r:id="rId412" display="https://support.microsoft.com/de-de/office/chooserows-funktion-51ace882-9bab-4a44-9625-7274ef7507a3" xr:uid="{66FE6A3D-C088-BC4C-A333-6A7DDF85EC43}"/>
+    <hyperlink ref="A414" r:id="rId413" display="https://support.microsoft.com/de-de/office/textkette-funktion-9b1a9a3f-94ff-41af-9736-694cbd6b4ca2" xr:uid="{26A8E4C4-B855-2B45-85B2-652D85042BAE}"/>
+    <hyperlink ref="A446" r:id="rId414" display="https://support.microsoft.com/de-de/office/verketten-funktion-8f8ae884-2ca8-4f7a-b093-75d702bea31d" xr:uid="{FD1F599B-0753-2E43-B182-A0D8519A71E3}"/>
+    <hyperlink ref="A424" r:id="rId415" display="https://support.microsoft.com/de-de/office/umwandeln-funktion-d785bef1-808e-4aac-bdcd-666c810f9af2" xr:uid="{E1818E44-D6B1-644C-B8BA-636EC3A7560E}"/>
+    <hyperlink ref="A477" r:id="rId416" display="https://support.microsoft.com/de-de/office/z%C3%A4hlenwenn-funktion-e0de10c6-f885-4e71-abb4-1f464816df34" xr:uid="{7585A7C0-1DF5-C745-9ED1-FA31041E8B2D}"/>
+    <hyperlink ref="A478" r:id="rId417" display="https://support.microsoft.com/de-de/office/z%C3%A4hlenwenns-funktion-dda3dc6e-f74e-4aee-88bc-aa8c2a866842" xr:uid="{CBE55AD5-344C-2747-85A7-EA4626A6BE57}"/>
+    <hyperlink ref="A491" r:id="rId418" display="https://support.microsoft.com/de-de/office/zinstermtagva-funktion-eb9a8dfb-2fb2-4c61-8e5d-690b320cf872" xr:uid="{02D9A770-FADC-F84F-B261-F863E37D1E6B}"/>
+    <hyperlink ref="A489" r:id="rId419" display="https://support.microsoft.com/de-de/office/zinstermtage-funktion-cc64380b-315b-4e7b-950c-b30b0a76f671" xr:uid="{74E9E91B-144B-0847-BEB4-B02FA6A2C343}"/>
+    <hyperlink ref="A490" r:id="rId420" display="https://support.microsoft.com/de-de/office/zinstermtagnz-funktion-5ab3f0b2-029f-4a8b-bb65-47d525eea547" xr:uid="{B3192204-C3F8-624C-87FE-44632AEE9231}"/>
+    <hyperlink ref="A488" r:id="rId421" display="https://support.microsoft.com/de-de/office/zinstermnz-funktion-fd962fef-506b-4d9d-8590-16df5393691f" xr:uid="{9078F5D2-9ADD-E147-88FE-938877025A03}"/>
+    <hyperlink ref="A493" r:id="rId422" display="https://support.microsoft.com/de-de/office/zinstermzahl-funktion-a90af57b-de53-4969-9c99-dd6139db2522" xr:uid="{8C531E6F-B0A4-6147-B3DF-ED3FAD2FBAF1}"/>
+    <hyperlink ref="A492" r:id="rId423" display="https://support.microsoft.com/de-de/office/zinstermvz-funktion-2eb50473-6ee9-4052-a206-77a9a385d5b3" xr:uid="{8ECA3ED1-F990-1B41-A29F-F333D150531F}"/>
+    <hyperlink ref="A456" r:id="rId424" display="https://support.microsoft.com/de-de/office/drop-funktion-1cb4e151-9e17-4838-abe5-9ba48d8c6a34" xr:uid="{F35136E8-33BF-6645-9BB0-E87041A4C52F}"/>
+    <hyperlink ref="A504" r:id="rId425" display="https://support.microsoft.com/de-de/office/zweifakult%C3%A4t-funktion-e67697ac-d214-48eb-b7b7-cce2589ecac8" xr:uid="{E920F6D9-8549-124A-A512-CC92AD30FFEE}"/>
+    <hyperlink ref="A474" r:id="rId426" display="https://support.microsoft.com/de-de/office/xmlfiltern-funktion-4df72efc-11ec-4951-86f5-c1374812f5b7" xr:uid="{7EA168C1-B5EA-6E44-BDBF-EFF43366C514}"/>
+    <hyperlink ref="A433" r:id="rId427" display="https://support.microsoft.com/de-de/office/untergrenze-funktion-14bb497c-24f2-4e04-b327-b0b4de5a8886" xr:uid="{D023E2B8-503B-2D4A-9F99-6957DD31BB52}"/>
+    <hyperlink ref="A435" r:id="rId428" display="https://support.microsoft.com/de-de/office/untergrenze-mathematik-funktion-c302b599-fbdb-4177-ba19-2c2b1249a2f5" xr:uid="{BBBCE49C-E4FD-6346-8023-BC21282DB7DA}"/>
+    <hyperlink ref="A434" r:id="rId429" display="https://support.microsoft.com/de-de/office/untergrenze-genau-funktion-f769b468-1452-4617-8dc3-02f842a0702e" xr:uid="{361FBA2C-818B-C64D-819A-5C215857306F}"/>
+    <hyperlink ref="A502" r:id="rId430" display="https://support.microsoft.com/de-de/office/zw-funktion-2eef9f44-a084-4c61-bdd8-4fe4bb1b71b3" xr:uid="{0F5E5B6F-B323-0F4C-B3F9-2EF945097557}"/>
+    <hyperlink ref="A503" r:id="rId431" display="https://support.microsoft.com/de-de/office/zw2-funktion-bec29522-bd87-4082-bab9-a241f3fb251d" xr:uid="{D5B9F5DC-FF5D-214D-99FF-52403FCAB152}"/>
+    <hyperlink ref="A470" r:id="rId432" display="https://support.microsoft.com/de-de/office/wverweis-funktion-a3034eec-b719-4ba3-bb65-e1ad662ed95f" xr:uid="{46C619AD-C8FE-0048-8160-503ED292AF51}"/>
+    <hyperlink ref="A459" r:id="rId433" display="https://support.microsoft.com/de-de/office/wenn-funktion-69aed7c9-4e8a-4755-a9bc-aa8bbff73be2" xr:uid="{F3DDE351-D82D-704C-97FE-80C812468B0D}"/>
+    <hyperlink ref="A460" r:id="rId434" display="https://support.microsoft.com/de-de/office/wennfehler-funktion-c526fd07-caeb-47b8-8bb6-63f3e417f611" xr:uid="{C4488240-356D-3145-B696-360B7880AEC4}"/>
+    <hyperlink ref="A461" r:id="rId435" display="https://support.microsoft.com/de-de/office/wennnv-funktion-6626c961-a569-42fc-a49d-79b4951fd461" xr:uid="{9871013E-2093-A640-99E7-D77AE24BD6BF}"/>
+    <hyperlink ref="A462" r:id="rId436" display="https://support.microsoft.com/de-de/office/wenns-funktion-36329a26-37b2-467c-972b-4a39bd951d45" xr:uid="{B8051E93-C6AA-9043-BA24-FD2D923F1A25}"/>
+    <hyperlink ref="A487" r:id="rId437" display="https://support.microsoft.com/de-de/office/zinssatz-funktion-5cb34dde-a221-4cb6-b3eb-0b9e55e1316f" xr:uid="{CC6D961E-9057-7A4D-8A3A-FCFCF7EE2A12}"/>
+    <hyperlink ref="A494" r:id="rId438" display="https://support.microsoft.com/de-de/office/zinsz-funktion-5cce0ad6-8402-4a41-8d29-61a0b054cb6f" xr:uid="{1F445C58-0AC7-9243-81DF-7F4CBE4705D8}"/>
+    <hyperlink ref="A467" r:id="rId439" display="https://support.microsoft.com/de-de/office/isomitted-funktion-831d6fbc-0f07-40c4-9c5b-9c73fd1d60c1" xr:uid="{9DF9D6A3-4A6B-D54D-ABE1-9E015F7FDAEE}"/>
+    <hyperlink ref="A447" r:id="rId440" display="https://support.microsoft.com/de-de/office/verweis-funktion-446d94af-663b-451d-8251-369d5e3864cb" xr:uid="{BD92E65A-6F67-3946-B2B5-793C56115AD5}"/>
+    <hyperlink ref="A445" r:id="rId441" display="https://support.microsoft.com/de-de/office/vergleich-funktion-e8dffd45-c762-47d6-bf89-533f4a37673a" xr:uid="{A2F8FF21-B8FF-B749-A642-126D01B46C41}"/>
+    <hyperlink ref="A411" r:id="rId442" display="https://support.microsoft.com/de-de/office/teil-teilb-funktionen-d5f9e25c-d7d6-472e-b568-4ecb12433028" xr:uid="{92F937F7-0C93-D44A-AF52-B54F8C74CF55}"/>
+    <hyperlink ref="A449" r:id="rId443" display="https://support.microsoft.com/de-de/office/vrunden-funktion-c299c3b0-15a5-426d-aa4b-d2d5b3baf427" xr:uid="{36EDB697-CCBE-7D49-859E-B8DA2E7E7397}"/>
+    <hyperlink ref="A505" r:id="rId444" display="https://support.microsoft.com/de-de/office/zzr-funktion-240535b5-6653-4d2d-bfcf-b6a38151d815" xr:uid="{64C2F3FD-1129-1445-A9F1-8C3957AAA154}"/>
+    <hyperlink ref="A479" r:id="rId445" display="https://support.microsoft.com/de-de/office/zahlenwert-funktion-1b05c8cf-2bfa-4437-af70-596c7ea7d879" xr:uid="{51AF8A2B-CAA4-474F-A1BC-E839ABD0E632}"/>
+    <hyperlink ref="A426" r:id="rId446" display="https://support.microsoft.com/de-de/office/ungerade-funktion-deae64eb-e08a-4c88-8b40-6d0b42575c98" xr:uid="{C6391D1C-27E9-AC4A-8A88-166042C79847}"/>
+    <hyperlink ref="A429" r:id="rId447" display="https://support.microsoft.com/de-de/office/unreger-kurs-funktion-d7d664a8-34df-4233-8d2b-922bcf6a69e1" xr:uid="{D85BAA74-1BD7-264E-87FA-748E9B9AFD44}"/>
+    <hyperlink ref="A430" r:id="rId448" display="https://support.microsoft.com/de-de/office/unreger-rend-funktion-66bc8b7b-6501-4c93-9ce3-2fd16220fe37" xr:uid="{69586649-863E-FB4F-8064-F1DC2C16F79C}"/>
+    <hyperlink ref="A431" r:id="rId449" display="https://support.microsoft.com/de-de/office/unregle-kurs-funktion-fb657749-d200-4902-afaf-ed5445027fc4" xr:uid="{AC674A57-084D-B14C-89B8-D391A76DC46C}"/>
+    <hyperlink ref="A432" r:id="rId450" display="https://support.microsoft.com/de-de/office/unregle-rend-funktion-c873d088-cf40-435f-8d41-c8232fee9238" xr:uid="{E8BD8D1F-B54A-674F-8AE0-655C274F01F7}"/>
+    <hyperlink ref="A441" r:id="rId451" display="https://support.microsoft.com/de-de/office/variationen-funktion-3bd1cb9a-2880-41ab-a197-f246a7a602d3" xr:uid="{637E6AF1-4EA0-5B48-9ED0-CD064C395CFA}"/>
+    <hyperlink ref="A442" r:id="rId452" display="https://support.microsoft.com/de-de/office/variationen2-funktion-6c7d7fdc-d657-44e6-aa19-2857b25cae4e" xr:uid="{A0CE2FEA-E4CC-CD45-8775-95654D059F23}"/>
+    <hyperlink ref="A453" r:id="rId453" display="https://support.microsoft.com/de-de/office/wahrschbereich-funktion-9ac30561-c81c-4259-8253-34f0a238fc49" xr:uid="{FA4F1B5A-38A5-0C42-9164-D45C182DABD4}"/>
+    <hyperlink ref="A499" r:id="rId454" display="https://support.microsoft.com/de-de/office/zufallszahl-funktion-4cbfa695-8869-4788-8d90-021ea9f5be73" xr:uid="{54384B7F-BD70-DD4E-90B4-A27D53CE9969}"/>
+    <hyperlink ref="A498" r:id="rId455" display="https://support.microsoft.com/de-de/office/zufallsmatrix-funktion-21261e55-3bec-4885-86a6-8b0a47fd4d33" xr:uid="{71A8D669-DD42-FF4D-B470-CCB86806AE14}"/>
+    <hyperlink ref="A497" r:id="rId456" display="https://support.microsoft.com/de-de/office/zufallsbereich-funktion-4cc7f0d1-87dc-4eb7-987f-a469ab381685" xr:uid="{8040A74D-BA70-AC42-BA24-79B2DD6C9683}"/>
+    <hyperlink ref="A486" r:id="rId457" display="https://support.microsoft.com/de-de/office/zins-funktion-9f665657-4a7e-4bb7-a030-83fc59e748ce" xr:uid="{30DDBF2F-24AF-964A-83A3-05EF777B0C21}"/>
+    <hyperlink ref="A465" r:id="rId458" display="https://support.microsoft.com/de-de/office/wiederholen-funktion-04c4d778-e712-43b4-9c15-d656582bb061" xr:uid="{5F0A92E4-3ECA-CA44-84CF-CB8B99C8855C}"/>
+    <hyperlink ref="A481" r:id="rId459" display="https://support.microsoft.com/de-de/office/zeilen-funktion-b592593e-3fc2-47f2-bec1-bda493811597" xr:uid="{2C2351F3-8D64-F44C-A6AF-F6AD7189135B}"/>
+    <hyperlink ref="A495" r:id="rId460" display="https://support.microsoft.com/de-de/office/zsatzinvest-funktion-6f5822d8-7ef1-4233-944c-79e8172930f4" xr:uid="{13CA2538-2C80-5447-9666-8C9F788F50E5}"/>
+    <hyperlink ref="A448" r:id="rId461" display="https://support.microsoft.com/de-de/office/vorzeichen-funktion-109c932d-fcdc-4023-91f1-2dd0e916a1d8" xr:uid="{228D3E34-1242-C742-A565-972DDC356CE1}"/>
+    <hyperlink ref="A468" r:id="rId462" display="https://support.microsoft.com/de-de/office/wurzel-funktion-654975c2-05c4-4831-9a24-2c65e4040fdf" xr:uid="{8954748D-10DB-D940-BA1F-99BF92364979}"/>
+    <hyperlink ref="A469" r:id="rId463" display="https://support.microsoft.com/de-de/office/wurzelpi-funktion-1fb4e63f-9b51-46d6-ad68-b3e7a8b519b4" xr:uid="{B13E96DF-BDCB-624D-BDD2-8E43B6177B25}"/>
+    <hyperlink ref="A455" r:id="rId464" display="https://support.microsoft.com/de-de/office/wechseln-funktion-6434944e-a904-4336-a9b0-1e58df3bc332" xr:uid="{20C710C8-17C8-FD4D-A846-C313994CC58A}"/>
+    <hyperlink ref="A412" r:id="rId465" display="https://support.microsoft.com/de-de/office/teilergebnis-funktion-7b027003-f060-4ade-9040-e478765b9939" xr:uid="{62CFE9CF-DB64-6D43-A611-B103392F440D}"/>
+    <hyperlink ref="A423" r:id="rId466" display="https://support.microsoft.com/de-de/office/take-funktion-25382ff1-5da1-4f78-ab43-f33bd2e4e003" xr:uid="{A1A9CEBA-3B09-5B4F-A2B3-B5905A02B55B}"/>
+    <hyperlink ref="A410" r:id="rId467" display="https://support.microsoft.com/de-de/office/tvert-funktion-630a7695-4021-4853-9468-4a1f9dcdd192" xr:uid="{4A105009-D243-924B-A9B4-ABE84BBA8860}"/>
+    <hyperlink ref="A413" r:id="rId468" display="https://support.microsoft.com/de-de/office/text-funktion-20d5ac4d-7b94-49fd-bb38-93d29371225c" xr:uid="{53D94812-2A9F-C447-ADB2-1CDCAB1049C0}"/>
+    <hyperlink ref="A415" r:id="rId469" display="https://support.microsoft.com/de-de/office/textnach-funktion-c8db2546-5b51-416a-9690-c7e6722e90b4" xr:uid="{8DFCA6BA-BA6F-A541-BF6E-DC25412224EC}"/>
+    <hyperlink ref="A418" r:id="rId470" display="https://support.microsoft.com/de-de/office/textbefore-funktion-d099c28a-dba8-448e-ac6c-f086d0fa1b29" xr:uid="{2A7AA11B-48DD-5045-99FE-2AEB978848DF}"/>
+    <hyperlink ref="A417" r:id="rId471" display="https://support.microsoft.com/de-de/office/textjoin-funktion-357b449a-ec91-49d0-80c3-0e8fc845691c" xr:uid="{776C2191-5506-3D4E-9F03-C3A49D00D6F2}"/>
+    <hyperlink ref="A416" r:id="rId472" display="https://support.microsoft.com/de-de/office/textsplit-funktion-b1ca414e-4c21-4ca0-b1b7-bdecace8a6e7" xr:uid="{C89FE674-B171-FE43-AD65-1F9718C568AF}"/>
+    <hyperlink ref="A484" r:id="rId473" display="https://support.microsoft.com/de-de/office/zeit-funktion-9a5aff99-8f7d-4611-845e-747d0b8d5457" xr:uid="{682E3B91-1658-F64A-8DBE-96BD24EBDB83}"/>
+    <hyperlink ref="A485" r:id="rId474" display="https://support.microsoft.com/de-de/office/zeitwert-funktion-0b615c12-33d8-4431-bf3d-f3eb6d186645" xr:uid="{76218EA2-32AC-DE42-BEEA-17139A0A9A3C}"/>
+    <hyperlink ref="A419" r:id="rId475" display="https://support.microsoft.com/de-de/office/tinv-funktion-a7c85b9d-90f5-41fe-9ca5-1cd2f3e1ed7c" xr:uid="{EF971BA6-95FE-9143-9459-6F14F21B0F37}"/>
+    <hyperlink ref="A500" r:id="rId476" display="https://support.microsoft.com/de-de/office/tocol-funktion-22839d9b-0b55-4fc1-b4e6-2761f8f122ed" xr:uid="{990AFC71-E964-1C4E-8066-1CDCF8410997}"/>
+    <hyperlink ref="A501" r:id="rId477" display="https://support.microsoft.com/de-de/office/torow-funktion-b90d0964-a7d9-44b7-816b-ffa5c2fe2289" xr:uid="{AFD64ED1-169C-B54A-9EB7-4B911F9758EB}"/>
+    <hyperlink ref="A420" r:id="rId478" display="https://support.microsoft.com/de-de/office/trend-funktion-e2f135f0-8827-4096-9873-9a7cf7b51ef1" xr:uid="{2F84C66C-9B78-0042-8928-0EBC377CC31C}"/>
+    <hyperlink ref="A452" r:id="rId479" display="https://support.microsoft.com/de-de/office/wahr-funktion-7652c6e3-8987-48d0-97cd-ef223246b3fb" xr:uid="{E836B177-7529-BC43-8619-DCF95F521BDA}"/>
+    <hyperlink ref="A421" r:id="rId480" display="https://support.microsoft.com/de-de/office/ttest-funktion-1696ffc1-4811-40fd-9d13-a0eaad83c7ae" xr:uid="{18A6DF4F-9D32-3D4A-A0B5-15576C8A54BD}"/>
+    <hyperlink ref="A422" r:id="rId481" display="https://support.microsoft.com/de-de/office/typ-funktion-45b4e688-4bc3-48b3-a105-ffa892995899" xr:uid="{C082C447-FB8C-8848-B97E-D641FF1CBFAB}"/>
+    <hyperlink ref="A428" r:id="rId482" display="https://support.microsoft.com/de-de/office/unizeichen-funktion-ffeb64f5-f131-44c6-b332-5cd72f0659b8" xr:uid="{19AA1B53-62F5-8E49-A9E5-FBE0297F3C39}"/>
+    <hyperlink ref="A427" r:id="rId483" display="https://support.microsoft.com/de-de/office/unicode-funktion-adb74aaa-a2a5-4dde-aff6-966e4e81f16f" xr:uid="{CEDA8FAD-97C8-1D44-BE8C-A9C524A1DA48}"/>
+    <hyperlink ref="A463" r:id="rId484" display="https://support.microsoft.com/de-de/office/wert-funktion-257d0108-07dc-437d-ae1c-bc2d3953d8c2" xr:uid="{924D91D7-F8C4-264A-9EC9-2EE8C88974D0}"/>
+    <hyperlink ref="A464" r:id="rId485" display="https://support.microsoft.com/de-de/office/valuetotext-funktion-5fff61a2-301a-4ab2-9ffa-0a5242a08fea" xr:uid="{93660850-A751-6342-BAF3-2CFE5E6963A4}"/>
+    <hyperlink ref="A436" r:id="rId486" display="https://support.microsoft.com/de-de/office/varianz-funktion-1f2b7ab2-954d-4e17-ba2c-9e58b15a7da2" xr:uid="{5DFE5BC3-9A19-1B4A-BC54-93885B54C3E0}"/>
+    <hyperlink ref="A437" r:id="rId487" display="https://support.microsoft.com/de-de/office/var-p-funktion-73d1285c-108c-4843-ba5d-a51f90656f3a" xr:uid="{FC36AF15-9A5C-4044-B485-8CF2A0D951FF}"/>
+    <hyperlink ref="A438" r:id="rId488" display="https://support.microsoft.com/de-de/office/var-s-funktion-913633de-136b-449d-813e-65a00b2b990b" xr:uid="{8B5616C8-9289-7040-896C-8C8AADB26683}"/>
+    <hyperlink ref="A439" r:id="rId489" display="https://support.microsoft.com/de-de/office/varianza-funktion-3de77469-fa3a-47b4-85fd-81758a1e1d07" xr:uid="{CE46F176-9F70-604D-A3F0-4845ED7BC307}"/>
+    <hyperlink ref="A443" r:id="rId490" display="https://support.microsoft.com/de-de/office/varianzen-funktion-26a541c4-ecee-464d-a731-bd4c575b1a6b" xr:uid="{AC573F7E-B760-B448-801D-970BA3EAD760}"/>
+    <hyperlink ref="A440" r:id="rId491" display="https://support.microsoft.com/de-de/office/varianzena-funktion-59a62635-4e89-4fad-88ac-ce4dc0513b96" xr:uid="{55F32CBE-7AEE-FF46-B5BE-A1FF061D2BDB}"/>
+    <hyperlink ref="A444" r:id="rId492" display="https://support.microsoft.com/de-de/office/vdb-funktion-dde4e207-f3fa-488d-91d2-66d55e861d73" xr:uid="{41CF441A-62DB-8F46-8194-4989FE5F518B}"/>
+    <hyperlink ref="A450" r:id="rId493" display="https://support.microsoft.com/de-de/office/vstapeln-funktion-a4b86897-be0f-48fc-adca-fcc10d795a9c" xr:uid="{75B20B56-4E39-734B-8AAB-D9557504F3F8}"/>
+    <hyperlink ref="A454" r:id="rId494" display="https://support.microsoft.com/de-de/office/webdienst-funktion-0546a35a-ecc6-4739-aed7-c0b7ce1562c4" xr:uid="{2E0F6FE3-6743-154A-894C-3F60EDF86E49}"/>
+    <hyperlink ref="A466" r:id="rId495" display="https://support.microsoft.com/de-de/office/wochentag-funktion-60e44483-2ed1-439f-8bd0-e404c190949a" xr:uid="{5E24EFAC-0827-A74B-B45D-122E8E175305}"/>
+    <hyperlink ref="A457" r:id="rId496" display="https://support.microsoft.com/de-de/office/weibull-funktion-b83dc2c6-260b-4754-bef2-633196f6fdcc" xr:uid="{70AB65B5-F070-144F-84DF-100142F160F0}"/>
+    <hyperlink ref="A458" r:id="rId497" display="https://support.microsoft.com/de-de/office/weibull-vert-funktion-4e783c39-9325-49be-bbc9-a83ef82b45db" xr:uid="{E0B1DA9F-6FA8-FF43-8EAF-14F5CD71839F}"/>
+    <hyperlink ref="A482" r:id="rId498" display="https://support.microsoft.com/de-de/office/wraprows-funktion-796825f3-975a-4cee-9c84-1bbddf60ade0" xr:uid="{3BFE1B19-88A1-D849-8772-49B4114163E3}"/>
+    <hyperlink ref="A471" r:id="rId499" display="https://support.microsoft.com/de-de/office/xintzinsfuss-funktion-de1242ec-6477-445b-b11b-a303ad9adc9d" xr:uid="{A7ECB659-0E17-264C-8FBD-9C9329B54380}"/>
+    <hyperlink ref="A473" r:id="rId500" display="https://support.microsoft.com/de-de/office/xverweis-funktion-b7fd680e-6d10-43e6-84f9-88eae8bf5929" xr:uid="{2F9E0749-AA90-194D-A8BB-6237E55692F2}"/>
+    <hyperlink ref="A476" r:id="rId501" display="https://support.microsoft.com/de-de/office/xvergleich-funktion-d966da31-7a6b-4a13-a1c6-5a33ed6a0312" xr:uid="{767DA487-E7A2-BE48-97AC-A51FAD007DF3}"/>
+    <hyperlink ref="A472" r:id="rId502" display="https://support.microsoft.com/de-de/office/xkapitalwert-funktion-1b42bbf6-370f-4532-a0eb-d67c16b664b7" xr:uid="{9DEDDB79-7CBC-5F42-BBC8-C8B0556A9B80}"/>
+    <hyperlink ref="A475" r:id="rId503" display="https://support.microsoft.com/de-de/office/xoder-funktion-1548d4c2-5e47-4f77-9a92-0533bba14f37" xr:uid="{A9EEE090-478D-0A4D-BB17-874EC871FBE3}"/>
+    <hyperlink ref="A496" r:id="rId504" display="https://support.microsoft.com/de-de/office/gtest-funktion-8f33be8a-6bd6-4ecc-8e3a-d9a4420c4a6a" xr:uid="{426DC9D3-29BC-BF49-B11F-ACA0B9A4A6EF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId505"/>
   <tableParts count="1">
-    <tablePart r:id="rId505"/>
+    <tablePart r:id="rId506"/>
   </tableParts>
 </worksheet>
 </file>
--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/raphaelvolz/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/keremertas/Documents/GitHub/excelator/mgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E07DA047-2525-2248-8D4D-E3253B20290F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD76375E-882C-934F-8082-3697347F1EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="19740" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="20400" windowHeight="19980" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1855" uniqueCount="1093">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1976" uniqueCount="1125">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9286,6 +9286,102 @@
   </si>
   <si>
     <t>möglich, ähnlich Fakultät [math.: !; A~: fact(x)] bloß mit Abstand 2 statt 1</t>
+  </si>
+  <si>
+    <t>ite(c; t; e)</t>
+  </si>
+  <si>
+    <t>pi</t>
+  </si>
+  <si>
+    <t>polynomial:deg(p)</t>
+  </si>
+  <si>
+    <t>quantile(p; xs)</t>
+  </si>
+  <si>
+    <t>list:reduce(f; l; start_acc?)</t>
+  </si>
+  <si>
+    <t>mod(n; m)</t>
+  </si>
+  <si>
+    <t>round(x)</t>
+  </si>
+  <si>
+    <t>sin(x)</t>
+  </si>
+  <si>
+    <t>sinh(x)</t>
+  </si>
+  <si>
+    <t>list:sort(l)</t>
+  </si>
+  <si>
+    <t>sd(x; ;,,)</t>
+  </si>
+  <si>
+    <t>tan(x)</t>
+  </si>
+  <si>
+    <t>tanh(x)</t>
+  </si>
+  <si>
+    <t>Gibt "t" zurück, falls "c" true ist, sonst "e".</t>
+  </si>
+  <si>
+    <t>arbeitet mit Zeilen und Spalten</t>
+  </si>
+  <si>
+    <t>array möglich?</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Textbezug &amp; Zellen</t>
+  </si>
+  <si>
+    <t>Konstante</t>
+  </si>
+  <si>
+    <t>Tabelle</t>
+  </si>
+  <si>
+    <t>vllt möglich</t>
+  </si>
+  <si>
+    <t>Berechnet den Grad eines gegebenen Polynoms p.</t>
+  </si>
+  <si>
+    <t>wahrscheinlich möglich</t>
+  </si>
+  <si>
+    <t>Formel vorhanden wahrscheinlich mgl</t>
+  </si>
+  <si>
+    <t>Berechnet das p-Quantil, d. h. p (zwischen 0 und 1) teilt die Menge auf in einen Teil p kleiner oder gleich und einen anderen Teil 1-p größer oder gleich dem Quantil ist.</t>
+  </si>
+  <si>
+    <t>in kombination mit mod</t>
+  </si>
+  <si>
+    <t>Textbezug</t>
+  </si>
+  <si>
+    <t>Reduziert eine Liste mithilfe der übergebenen Reduzierfunktion</t>
+  </si>
+  <si>
+    <t>Berechnet den Rest der Division n/m (mathematische Variante).</t>
+  </si>
+  <si>
+    <t>Gibt die nächstgelegene ganze Zahl zurück</t>
+  </si>
+  <si>
+    <t>Erzeugt eine neue sortierte Liste mit den Elementen von l.</t>
+  </si>
+  <si>
+    <t>Berechnet die Standardabweichung basierend auf der Stichprobenvarianz.</t>
   </si>
 </sst>
 </file>
@@ -9897,15 +9993,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:I505"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="132" zoomScaleNormal="132" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A448" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C462" sqref="C462"/>
+    <sheetView tabSelected="1" zoomScale="125" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A240" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H396" sqref="H396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="44.83203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="28.5" customWidth="1"/>
+    <col min="2" max="2" width="8.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="100.6640625" customWidth="1"/>
     <col min="4" max="6" width="26.1640625" customWidth="1"/>
     <col min="7" max="7" width="17.83203125" customWidth="1"/>
@@ -14974,7 +15070,7 @@
       <c r="F306" s="8"/>
       <c r="G306" s="8"/>
     </row>
-    <row r="307" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -14984,12 +15080,16 @@
       <c r="C307" s="7" t="s">
         <v>807</v>
       </c>
-      <c r="D307" s="8"/>
+      <c r="D307" s="8" t="s">
+        <v>1093</v>
+      </c>
       <c r="E307" s="8"/>
-      <c r="F307" s="8"/>
+      <c r="F307" s="8" t="s">
+        <v>1106</v>
+      </c>
       <c r="G307" s="8"/>
     </row>
-    <row r="308" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -15001,8 +15101,12 @@
       </c>
       <c r="D308" s="8"/>
       <c r="E308" s="8"/>
-      <c r="F308" s="8"/>
-      <c r="G308" s="8"/>
+      <c r="F308" s="8" t="s">
+        <v>1107</v>
+      </c>
+      <c r="G308" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="309" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A309" s="6" t="s">
@@ -15016,7 +15120,9 @@
       </c>
       <c r="D309" s="8"/>
       <c r="E309" s="8"/>
-      <c r="F309" s="8"/>
+      <c r="F309" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="G309" s="8"/>
     </row>
     <row r="310" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15031,7 +15137,9 @@
       </c>
       <c r="D310" s="8"/>
       <c r="E310" s="8"/>
-      <c r="F310" s="8"/>
+      <c r="F310" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="G310" s="8"/>
     </row>
     <row r="311" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15046,7 +15154,9 @@
       </c>
       <c r="D311" s="8"/>
       <c r="E311" s="8"/>
-      <c r="F311" s="8"/>
+      <c r="F311" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="G311" s="8"/>
     </row>
     <row r="312" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -15061,10 +15171,12 @@
       </c>
       <c r="D312" s="8"/>
       <c r="E312" s="8"/>
-      <c r="F312" s="8"/>
+      <c r="F312" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="G312" s="8"/>
     </row>
-    <row r="313" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:7" ht="68" x14ac:dyDescent="0.2">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -15074,9 +15186,13 @@
       <c r="C313" s="7" t="s">
         <v>813</v>
       </c>
-      <c r="D313" s="8"/>
+      <c r="D313" s="8" t="s">
+        <v>1026</v>
+      </c>
       <c r="E313" s="8"/>
-      <c r="F313" s="8"/>
+      <c r="F313" s="8" t="s">
+        <v>1027</v>
+      </c>
       <c r="G313" s="8"/>
     </row>
     <row r="314" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15106,8 +15222,12 @@
       </c>
       <c r="D315" s="8"/>
       <c r="E315" s="8"/>
-      <c r="F315" s="8"/>
-      <c r="G315" s="8"/>
+      <c r="F315" s="8" t="s">
+        <v>1108</v>
+      </c>
+      <c r="G315" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="316" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="6" t="s">
@@ -15121,8 +15241,12 @@
       </c>
       <c r="D316" s="8"/>
       <c r="E316" s="8"/>
-      <c r="F316" s="8"/>
-      <c r="G316" s="8"/>
+      <c r="F316" s="8" t="s">
+        <v>1109</v>
+      </c>
+      <c r="G316" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="317" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="6" t="s">
@@ -15136,8 +15260,12 @@
       </c>
       <c r="D317" s="8"/>
       <c r="E317" s="8"/>
-      <c r="F317" s="8"/>
-      <c r="G317" s="8"/>
+      <c r="F317" s="8" t="s">
+        <v>1110</v>
+      </c>
+      <c r="G317" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="318" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A318" s="6" t="s">
@@ -15149,9 +15277,13 @@
       <c r="C318" s="7" t="s">
         <v>818</v>
       </c>
-      <c r="D318" s="8"/>
+      <c r="D318" s="8" t="s">
+        <v>1094</v>
+      </c>
       <c r="E318" s="8"/>
-      <c r="F318" s="8"/>
+      <c r="F318" s="8" t="s">
+        <v>1111</v>
+      </c>
       <c r="G318" s="8"/>
     </row>
     <row r="319" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15166,8 +15298,12 @@
       </c>
       <c r="D319" s="8"/>
       <c r="E319" s="8"/>
-      <c r="F319" s="8"/>
-      <c r="G319" s="8"/>
+      <c r="F319" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G319" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="320" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A320" s="6" t="s">
@@ -15181,7 +15317,9 @@
       </c>
       <c r="D320" s="8"/>
       <c r="E320" s="8"/>
-      <c r="F320" s="8"/>
+      <c r="F320" s="8" t="s">
+        <v>1113</v>
+      </c>
       <c r="G320" s="8"/>
     </row>
     <row r="321" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15196,10 +15334,12 @@
       </c>
       <c r="D321" s="8"/>
       <c r="E321" s="8"/>
-      <c r="F321" s="8"/>
+      <c r="F321" s="8" t="s">
+        <v>1113</v>
+      </c>
       <c r="G321" s="8"/>
     </row>
-    <row r="322" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -15209,9 +15349,13 @@
       <c r="C322" s="7" t="s">
         <v>822</v>
       </c>
-      <c r="D322" s="8"/>
+      <c r="D322" s="8" t="s">
+        <v>1095</v>
+      </c>
       <c r="E322" s="8"/>
-      <c r="F322" s="8"/>
+      <c r="F322" s="8" t="s">
+        <v>1114</v>
+      </c>
       <c r="G322" s="8"/>
     </row>
     <row r="323" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15226,7 +15370,9 @@
       </c>
       <c r="D323" s="8"/>
       <c r="E323" s="8"/>
-      <c r="F323" s="8"/>
+      <c r="F323" s="8" t="s">
+        <v>1115</v>
+      </c>
       <c r="G323" s="8"/>
     </row>
     <row r="324" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15241,7 +15387,9 @@
       </c>
       <c r="D324" s="8"/>
       <c r="E324" s="8"/>
-      <c r="F324" s="8"/>
+      <c r="F324" s="8" t="s">
+        <v>1115</v>
+      </c>
       <c r="G324" s="8"/>
     </row>
     <row r="325" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15256,7 +15404,9 @@
       </c>
       <c r="D325" s="8"/>
       <c r="E325" s="8"/>
-      <c r="F325" s="8"/>
+      <c r="F325" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="G325" s="8"/>
     </row>
     <row r="326" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15272,7 +15422,9 @@
       <c r="D326" s="8"/>
       <c r="E326" s="8"/>
       <c r="F326" s="8"/>
-      <c r="G326" s="8"/>
+      <c r="G326" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="327" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="6" t="s">
@@ -15287,7 +15439,9 @@
       <c r="D327" s="8"/>
       <c r="E327" s="8"/>
       <c r="F327" s="8"/>
-      <c r="G327" s="8"/>
+      <c r="G327" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="328" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="6" t="s">
@@ -15302,7 +15456,9 @@
       <c r="D328" s="8"/>
       <c r="E328" s="8"/>
       <c r="F328" s="8"/>
-      <c r="G328" s="8"/>
+      <c r="G328" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="329" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A329" s="6" t="s">
@@ -15317,7 +15473,9 @@
       <c r="D329" s="8"/>
       <c r="E329" s="8"/>
       <c r="F329" s="8"/>
-      <c r="G329" s="8"/>
+      <c r="G329" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="330" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A330" s="6" t="s">
@@ -15332,7 +15490,9 @@
       <c r="D330" s="8"/>
       <c r="E330" s="8"/>
       <c r="F330" s="8"/>
-      <c r="G330" s="8"/>
+      <c r="G330" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="331" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A331" s="6" t="s">
@@ -15346,7 +15506,9 @@
       </c>
       <c r="D331" s="8"/>
       <c r="E331" s="8"/>
-      <c r="F331" s="8"/>
+      <c r="F331" s="8" t="s">
+        <v>1116</v>
+      </c>
       <c r="G331" s="8"/>
     </row>
     <row r="332" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15361,10 +15523,12 @@
       </c>
       <c r="D332" s="8"/>
       <c r="E332" s="8"/>
-      <c r="F332" s="8"/>
+      <c r="F332" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="G332" s="8"/>
     </row>
-    <row r="333" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:7" ht="102" x14ac:dyDescent="0.2">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -15374,9 +15538,13 @@
       <c r="C333" s="7" t="s">
         <v>833</v>
       </c>
-      <c r="D333" s="8"/>
+      <c r="D333" s="8" t="s">
+        <v>1096</v>
+      </c>
       <c r="E333" s="8"/>
-      <c r="F333" s="8"/>
+      <c r="F333" s="8" t="s">
+        <v>1117</v>
+      </c>
       <c r="G333" s="8"/>
     </row>
     <row r="334" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15392,7 +15560,9 @@
       <c r="D334" s="8"/>
       <c r="E334" s="8"/>
       <c r="F334" s="8"/>
-      <c r="G334" s="8"/>
+      <c r="G334" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="335" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="6" t="s">
@@ -15407,7 +15577,9 @@
       <c r="D335" s="8"/>
       <c r="E335" s="8"/>
       <c r="F335" s="8"/>
-      <c r="G335" s="8"/>
+      <c r="G335" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="336" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="6" t="s">
@@ -15422,7 +15594,9 @@
       <c r="D336" s="8"/>
       <c r="E336" s="8"/>
       <c r="F336" s="8"/>
-      <c r="G336" s="8"/>
+      <c r="G336" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="337" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="6" t="s">
@@ -15437,7 +15611,9 @@
       <c r="D337" s="8"/>
       <c r="E337" s="8"/>
       <c r="F337" s="8"/>
-      <c r="G337" s="8"/>
+      <c r="G337" s="8" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="338" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="6" t="s">
@@ -15452,7 +15628,9 @@
       <c r="D338" s="8"/>
       <c r="E338" s="8"/>
       <c r="F338" s="8"/>
-      <c r="G338" s="8"/>
+      <c r="G338" s="8" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="339" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="6" t="s">
@@ -15467,7 +15645,9 @@
       <c r="D339" s="8"/>
       <c r="E339" s="8"/>
       <c r="F339" s="8"/>
-      <c r="G339" s="8"/>
+      <c r="G339" s="8" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="340" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="6" t="s">
@@ -15481,7 +15661,9 @@
       </c>
       <c r="D340" s="8"/>
       <c r="E340" s="8"/>
-      <c r="F340" s="8"/>
+      <c r="F340" s="8" t="s">
+        <v>1118</v>
+      </c>
       <c r="G340" s="8"/>
     </row>
     <row r="341" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15497,7 +15679,9 @@
       <c r="D341" s="8"/>
       <c r="E341" s="8"/>
       <c r="F341" s="8"/>
-      <c r="G341" s="8"/>
+      <c r="G341" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="342" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A342" s="6" t="s">
@@ -15512,7 +15696,9 @@
       <c r="D342" s="8"/>
       <c r="E342" s="8"/>
       <c r="F342" s="8"/>
-      <c r="G342" s="8"/>
+      <c r="G342" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="343" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A343" s="6" t="s">
@@ -15527,7 +15713,9 @@
       <c r="D343" s="8"/>
       <c r="E343" s="8"/>
       <c r="F343" s="8"/>
-      <c r="G343" s="8"/>
+      <c r="G343" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="344" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A344" s="6" t="s">
@@ -15541,10 +15729,14 @@
       </c>
       <c r="D344" s="8"/>
       <c r="E344" s="8"/>
-      <c r="F344" s="8"/>
-      <c r="G344" s="8"/>
-    </row>
-    <row r="345" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="F344" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G344" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -15554,9 +15746,13 @@
       <c r="C345" s="7" t="s">
         <v>844</v>
       </c>
-      <c r="D345" s="8"/>
+      <c r="D345" s="8" t="s">
+        <v>1097</v>
+      </c>
       <c r="E345" s="8"/>
-      <c r="F345" s="8"/>
+      <c r="F345" s="8" t="s">
+        <v>1120</v>
+      </c>
       <c r="G345" s="8"/>
     </row>
     <row r="346" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -15572,7 +15768,9 @@
       <c r="D346" s="8"/>
       <c r="E346" s="8"/>
       <c r="F346" s="8"/>
-      <c r="G346" s="8"/>
+      <c r="G346" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="347" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A347" s="6" t="s">
@@ -15587,7 +15785,9 @@
       <c r="D347" s="8"/>
       <c r="E347" s="8"/>
       <c r="F347" s="8"/>
-      <c r="G347" s="8"/>
+      <c r="G347" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="348" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A348" s="6" t="s">
@@ -15602,7 +15802,9 @@
       <c r="D348" s="8"/>
       <c r="E348" s="8"/>
       <c r="F348" s="8"/>
-      <c r="G348" s="8"/>
+      <c r="G348" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="349" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A349" s="6" t="s">
@@ -15617,7 +15819,9 @@
       <c r="D349" s="8"/>
       <c r="E349" s="8"/>
       <c r="F349" s="8"/>
-      <c r="G349" s="8"/>
+      <c r="G349" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="350" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="6" t="s">
@@ -15629,9 +15833,13 @@
       <c r="C350" s="7" t="s">
         <v>849</v>
       </c>
-      <c r="D350" s="8"/>
+      <c r="D350" s="8" t="s">
+        <v>1098</v>
+      </c>
       <c r="E350" s="8"/>
-      <c r="F350" s="8"/>
+      <c r="F350" s="8" t="s">
+        <v>1121</v>
+      </c>
       <c r="G350" s="8"/>
     </row>
     <row r="351" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -15647,7 +15855,9 @@
       <c r="D351" s="8"/>
       <c r="E351" s="8"/>
       <c r="F351" s="8"/>
-      <c r="G351" s="8"/>
+      <c r="G351" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="352" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="6" t="s">
@@ -15662,7 +15872,9 @@
       <c r="D352" s="8"/>
       <c r="E352" s="8"/>
       <c r="F352" s="8"/>
-      <c r="G352" s="8"/>
+      <c r="G352" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="353" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="6" t="s">
@@ -15677,7 +15889,9 @@
       <c r="D353" s="8"/>
       <c r="E353" s="8"/>
       <c r="F353" s="8"/>
-      <c r="G353" s="8"/>
+      <c r="G353" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="354" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A354" s="6" t="s">
@@ -15691,8 +15905,12 @@
       </c>
       <c r="D354" s="8"/>
       <c r="E354" s="8"/>
-      <c r="F354" s="8"/>
-      <c r="G354" s="8"/>
+      <c r="F354" s="8" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G354" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="355" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="6" t="s">
@@ -15707,7 +15925,9 @@
       <c r="D355" s="8"/>
       <c r="E355" s="8"/>
       <c r="F355" s="8"/>
-      <c r="G355" s="8"/>
+      <c r="G355" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="356" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="6" t="s">
@@ -15722,9 +15942,11 @@
       <c r="D356" s="8"/>
       <c r="E356" s="8"/>
       <c r="F356" s="8"/>
-      <c r="G356" s="8"/>
-    </row>
-    <row r="357" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G356" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -15734,9 +15956,13 @@
       <c r="C357" s="7" t="s">
         <v>856</v>
       </c>
-      <c r="D357" s="8"/>
+      <c r="D357" s="8" t="s">
+        <v>1099</v>
+      </c>
       <c r="E357" s="8"/>
-      <c r="F357" s="8"/>
+      <c r="F357" s="8" t="s">
+        <v>1122</v>
+      </c>
       <c r="G357" s="8"/>
     </row>
     <row r="358" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -15751,8 +15977,12 @@
       </c>
       <c r="D358" s="8"/>
       <c r="E358" s="8"/>
-      <c r="F358" s="8"/>
-      <c r="G358" s="8"/>
+      <c r="F358" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G358" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="359" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A359" s="6" t="s">
@@ -15767,7 +15997,9 @@
       <c r="D359" s="8"/>
       <c r="E359" s="8"/>
       <c r="F359" s="8"/>
-      <c r="G359" s="8"/>
+      <c r="G359" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="360" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="6" t="s">
@@ -15782,7 +16014,9 @@
       <c r="D360" s="8"/>
       <c r="E360" s="8"/>
       <c r="F360" s="8"/>
-      <c r="G360" s="8"/>
+      <c r="G360" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="361" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="6" t="s">
@@ -15797,7 +16031,9 @@
       <c r="D361" s="8"/>
       <c r="E361" s="8"/>
       <c r="F361" s="8"/>
-      <c r="G361" s="8"/>
+      <c r="G361" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="362" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A362" s="6" t="s">
@@ -15812,7 +16048,9 @@
       <c r="D362" s="8"/>
       <c r="E362" s="8"/>
       <c r="F362" s="8"/>
-      <c r="G362" s="8"/>
+      <c r="G362" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="363" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A363" s="6" t="s">
@@ -15827,7 +16065,9 @@
       <c r="D363" s="8"/>
       <c r="E363" s="8"/>
       <c r="F363" s="8"/>
-      <c r="G363" s="8"/>
+      <c r="G363" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="364" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A364" s="6" t="s">
@@ -15842,7 +16082,9 @@
       <c r="D364" s="8"/>
       <c r="E364" s="8"/>
       <c r="F364" s="8"/>
-      <c r="G364" s="8"/>
+      <c r="G364" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="365" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A365" s="6" t="s">
@@ -15857,7 +16099,9 @@
       <c r="D365" s="8"/>
       <c r="E365" s="8"/>
       <c r="F365" s="8"/>
-      <c r="G365" s="8"/>
+      <c r="G365" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="366" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A366" s="6" t="s">
@@ -15872,7 +16116,9 @@
       <c r="D366" s="8"/>
       <c r="E366" s="8"/>
       <c r="F366" s="8"/>
-      <c r="G366" s="8"/>
+      <c r="G366" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="367" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A367" s="6" t="s">
@@ -15884,7 +16130,9 @@
       <c r="C367" s="7" t="s">
         <v>866</v>
       </c>
-      <c r="D367" s="8"/>
+      <c r="D367" s="8" t="s">
+        <v>1100</v>
+      </c>
       <c r="E367" s="8"/>
       <c r="F367" s="8"/>
       <c r="G367" s="8"/>
@@ -15899,7 +16147,9 @@
       <c r="C368" s="7" t="s">
         <v>867</v>
       </c>
-      <c r="D368" s="8"/>
+      <c r="D368" s="8" t="s">
+        <v>1101</v>
+      </c>
       <c r="E368" s="8"/>
       <c r="F368" s="8"/>
       <c r="G368" s="8"/>
@@ -15917,9 +16167,11 @@
       <c r="D369" s="8"/>
       <c r="E369" s="8"/>
       <c r="F369" s="8"/>
-      <c r="G369" s="8"/>
-    </row>
-    <row r="370" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="G369" s="8" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" ht="51" x14ac:dyDescent="0.2">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -15929,9 +16181,13 @@
       <c r="C370" s="7" t="s">
         <v>869</v>
       </c>
-      <c r="D370" s="8"/>
+      <c r="D370" s="8" t="s">
+        <v>1102</v>
+      </c>
       <c r="E370" s="8"/>
-      <c r="F370" s="8"/>
+      <c r="F370" s="8" t="s">
+        <v>1123</v>
+      </c>
       <c r="G370" s="8"/>
     </row>
     <row r="371" spans="1:7" ht="34" x14ac:dyDescent="0.2">
@@ -15947,7 +16203,9 @@
       <c r="D371" s="8"/>
       <c r="E371" s="8"/>
       <c r="F371" s="8"/>
-      <c r="G371" s="8"/>
+      <c r="G371" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="372" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A372" s="6" t="s">
@@ -15962,7 +16220,9 @@
       <c r="D372" s="8"/>
       <c r="E372" s="8"/>
       <c r="F372" s="8"/>
-      <c r="G372" s="8"/>
+      <c r="G372" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="373" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A373" s="6" t="s">
@@ -15977,7 +16237,9 @@
       <c r="D373" s="8"/>
       <c r="E373" s="8"/>
       <c r="F373" s="8"/>
-      <c r="G373" s="8"/>
+      <c r="G373" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="374" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A374" s="6" t="s">
@@ -15992,7 +16254,9 @@
       <c r="D374" s="8"/>
       <c r="E374" s="8"/>
       <c r="F374" s="8"/>
-      <c r="G374" s="8"/>
+      <c r="G374" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="375" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A375" s="6" t="s">
@@ -16007,7 +16271,9 @@
       <c r="D375" s="8"/>
       <c r="E375" s="8"/>
       <c r="F375" s="8"/>
-      <c r="G375" s="8"/>
+      <c r="G375" s="8" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="376" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="6" t="s">
@@ -16019,9 +16285,13 @@
       <c r="C376" s="7" t="s">
         <v>875</v>
       </c>
-      <c r="D376" s="8"/>
+      <c r="D376" s="8" t="s">
+        <v>1103</v>
+      </c>
       <c r="E376" s="8"/>
-      <c r="F376" s="8"/>
+      <c r="F376" s="8" t="s">
+        <v>1124</v>
+      </c>
       <c r="G376" s="8"/>
     </row>
     <row r="377" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
@@ -16037,7 +16307,9 @@
       <c r="D377" s="8"/>
       <c r="E377" s="8"/>
       <c r="F377" s="8"/>
-      <c r="G377" s="8"/>
+      <c r="G377" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="378" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A378" s="6" t="s">
@@ -16052,7 +16324,9 @@
       <c r="D378" s="8"/>
       <c r="E378" s="8"/>
       <c r="F378" s="8"/>
-      <c r="G378" s="8"/>
+      <c r="G378" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="379" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A379" s="6" t="s">
@@ -16067,7 +16341,9 @@
       <c r="D379" s="8"/>
       <c r="E379" s="8"/>
       <c r="F379" s="8"/>
-      <c r="G379" s="8"/>
+      <c r="G379" s="8" t="s">
+        <v>1109</v>
+      </c>
     </row>
     <row r="380" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A380" s="6" t="s">
@@ -16082,7 +16358,9 @@
       <c r="D380" s="8"/>
       <c r="E380" s="8"/>
       <c r="F380" s="8"/>
-      <c r="G380" s="8"/>
+      <c r="G380" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="381" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A381" s="6" t="s">
@@ -16097,7 +16375,9 @@
       <c r="D381" s="8"/>
       <c r="E381" s="8"/>
       <c r="F381" s="8"/>
-      <c r="G381" s="8"/>
+      <c r="G381" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="382" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A382" s="6" t="s">
@@ -16112,7 +16392,9 @@
       <c r="D382" s="8"/>
       <c r="E382" s="8"/>
       <c r="F382" s="8"/>
-      <c r="G382" s="8"/>
+      <c r="G382" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="383" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="6" t="s">
@@ -16127,7 +16409,9 @@
       <c r="D383" s="8"/>
       <c r="E383" s="8"/>
       <c r="F383" s="8"/>
-      <c r="G383" s="8"/>
+      <c r="G383" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="384" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="6" t="s">
@@ -16142,7 +16426,9 @@
       <c r="D384" s="8"/>
       <c r="E384" s="8"/>
       <c r="F384" s="8"/>
-      <c r="G384" s="8"/>
+      <c r="G384" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="385" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A385" s="6" t="s">
@@ -16156,7 +16442,9 @@
       </c>
       <c r="D385" s="8"/>
       <c r="E385" s="8"/>
-      <c r="F385" s="8"/>
+      <c r="F385" s="8" t="s">
+        <v>1024</v>
+      </c>
       <c r="G385" s="8"/>
     </row>
     <row r="386" spans="1:7" ht="17" x14ac:dyDescent="0.2">
@@ -16172,7 +16460,9 @@
       <c r="D386" s="8"/>
       <c r="E386" s="8"/>
       <c r="F386" s="8"/>
-      <c r="G386" s="8"/>
+      <c r="G386" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="387" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="6" t="s">
@@ -16187,7 +16477,9 @@
       <c r="D387" s="8"/>
       <c r="E387" s="8"/>
       <c r="F387" s="8"/>
-      <c r="G387" s="8"/>
+      <c r="G387" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="388" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="6" t="s">
@@ -16202,7 +16494,9 @@
       <c r="D388" s="8"/>
       <c r="E388" s="8"/>
       <c r="F388" s="8"/>
-      <c r="G388" s="8"/>
+      <c r="G388" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="389" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="6" t="s">
@@ -16217,7 +16511,9 @@
       <c r="D389" s="8"/>
       <c r="E389" s="8"/>
       <c r="F389" s="8"/>
-      <c r="G389" s="8"/>
+      <c r="G389" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="390" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="6" t="s">
@@ -16232,7 +16528,9 @@
       <c r="D390" s="8"/>
       <c r="E390" s="8"/>
       <c r="F390" s="8"/>
-      <c r="G390" s="8"/>
+      <c r="G390" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="391" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A391" s="6" t="s">
@@ -16247,7 +16545,9 @@
       <c r="D391" s="8"/>
       <c r="E391" s="8"/>
       <c r="F391" s="8"/>
-      <c r="G391" s="8"/>
+      <c r="G391" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="392" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A392" s="6" t="s">
@@ -16262,7 +16562,9 @@
       <c r="D392" s="8"/>
       <c r="E392" s="8"/>
       <c r="F392" s="8"/>
-      <c r="G392" s="8"/>
+      <c r="G392" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="393" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A393" s="6" t="s">
@@ -16277,7 +16579,9 @@
       <c r="D393" s="8"/>
       <c r="E393" s="8"/>
       <c r="F393" s="8"/>
-      <c r="G393" s="8"/>
+      <c r="G393" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="394" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="6" t="s">
@@ -16292,7 +16596,9 @@
       <c r="D394" s="8"/>
       <c r="E394" s="8"/>
       <c r="F394" s="8"/>
-      <c r="G394" s="8"/>
+      <c r="G394" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="395" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="6" t="s">
@@ -16306,8 +16612,12 @@
       </c>
       <c r="D395" s="8"/>
       <c r="E395" s="8"/>
-      <c r="F395" s="8"/>
-      <c r="G395" s="8"/>
+      <c r="F395" s="8" t="s">
+        <v>1119</v>
+      </c>
+      <c r="G395" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="396" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A396" s="6" t="s">
@@ -16322,7 +16632,9 @@
       <c r="D396" s="8"/>
       <c r="E396" s="8"/>
       <c r="F396" s="8"/>
-      <c r="G396" s="8"/>
+      <c r="G396" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="397" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A397" s="6" t="s">
@@ -16337,7 +16649,9 @@
       <c r="D397" s="8"/>
       <c r="E397" s="8"/>
       <c r="F397" s="8"/>
-      <c r="G397" s="8"/>
+      <c r="G397" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="398" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A398" s="6" t="s">
@@ -16352,7 +16666,9 @@
       <c r="D398" s="8"/>
       <c r="E398" s="8"/>
       <c r="F398" s="8"/>
-      <c r="G398" s="8"/>
+      <c r="G398" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="399" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A399" s="6" t="s">
@@ -16367,7 +16683,9 @@
       <c r="D399" s="8"/>
       <c r="E399" s="8"/>
       <c r="F399" s="8"/>
-      <c r="G399" s="8"/>
+      <c r="G399" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="400" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="6" t="s">
@@ -16382,7 +16700,9 @@
       <c r="D400" s="8"/>
       <c r="E400" s="8"/>
       <c r="F400" s="8"/>
-      <c r="G400" s="8"/>
+      <c r="G400" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="401" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="6" t="s">
@@ -16397,7 +16717,9 @@
       <c r="D401" s="8"/>
       <c r="E401" s="8"/>
       <c r="F401" s="8"/>
-      <c r="G401" s="8"/>
+      <c r="G401" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="402" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A402" s="6" t="s">
@@ -16412,7 +16734,9 @@
       <c r="D402" s="8"/>
       <c r="E402" s="8"/>
       <c r="F402" s="8"/>
-      <c r="G402" s="8"/>
+      <c r="G402" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="403" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A403" s="6" t="s">
@@ -16427,7 +16751,9 @@
       <c r="D403" s="8"/>
       <c r="E403" s="8"/>
       <c r="F403" s="8"/>
-      <c r="G403" s="8"/>
+      <c r="G403" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="404" spans="1:7" ht="34" x14ac:dyDescent="0.2">
       <c r="A404" s="6" t="s">
@@ -16442,7 +16768,9 @@
       <c r="D404" s="8"/>
       <c r="E404" s="8"/>
       <c r="F404" s="8"/>
-      <c r="G404" s="8"/>
+      <c r="G404" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="405" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A405" s="6" t="s">
@@ -16454,7 +16782,9 @@
       <c r="C405" s="7" t="s">
         <v>903</v>
       </c>
-      <c r="D405" s="8"/>
+      <c r="D405" s="8" t="s">
+        <v>1104</v>
+      </c>
       <c r="E405" s="8"/>
       <c r="F405" s="8"/>
       <c r="G405" s="8"/>
@@ -16469,7 +16799,9 @@
       <c r="C406" s="7" t="s">
         <v>904</v>
       </c>
-      <c r="D406" s="8"/>
+      <c r="D406" s="8" t="s">
+        <v>1105</v>
+      </c>
       <c r="E406" s="8"/>
       <c r="F406" s="8"/>
       <c r="G406" s="8"/>
@@ -16487,7 +16819,9 @@
       <c r="D407" s="8"/>
       <c r="E407" s="8"/>
       <c r="F407" s="8"/>
-      <c r="G407" s="8"/>
+      <c r="G407" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="408" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="6" t="s">
@@ -16502,7 +16836,9 @@
       <c r="D408" s="8"/>
       <c r="E408" s="8"/>
       <c r="F408" s="8"/>
-      <c r="G408" s="8"/>
+      <c r="G408" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="409" spans="1:7" ht="16" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="6" t="s">
@@ -16517,7 +16853,9 @@
       <c r="D409" s="8"/>
       <c r="E409" s="8"/>
       <c r="F409" s="8"/>
-      <c r="G409" s="8"/>
+      <c r="G409" s="8" t="s">
+        <v>1016</v>
+      </c>
     </row>
     <row r="410" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A410" s="6" t="s">

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hspforzheimde-my.sharepoint.com/personal/staibflo_hs-pforzheim_de/Documents/für HS/SE/GitHub/excelator/mgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="13_ncr:1_{BD76375E-882C-934F-8082-3697347F1EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3773E9DA-EBD6-4440-A99B-5B3AFAB16E64}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{BD76375E-882C-934F-8082-3697347F1EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C63939-05ED-4E9C-86A2-7B8FCBEAF6BC}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1982" uniqueCount="1131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1133">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9411,6 +9411,12 @@
   </si>
   <si>
     <t>Kategorie</t>
+  </si>
+  <si>
+    <t>wird umgesetzt</t>
+  </si>
+  <si>
+    <t>&amp;</t>
   </si>
 </sst>
 </file>
@@ -9515,7 +9521,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -9546,14 +9552,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9561,32 +9561,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color rgb="FF1E1E1E"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -9653,6 +9627,32 @@
         <scheme val="minor"/>
       </font>
       <alignment vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color rgb="FF1E1E1E"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -9727,6 +9727,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:H505" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A1:H505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
@@ -9736,14 +9740,14 @@
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{10428CB8-DF17-C24D-A8C2-8B4827E181B0}" name="Funktionsname" dataDxfId="7"/>
     <tableColumn id="2" xr3:uid="{98C1F64B-509E-934D-BBC9-297E60C938D9}" name="Team" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{CCBD6B5F-84D2-495B-9B03-9C5B7B0ADD01}" name="Kategorie" dataDxfId="0">
+    <tableColumn id="8" xr3:uid="{CCBD6B5F-84D2-495B-9B03-9C5B7B0ADD01}" name="Kategorie" dataDxfId="5">
       <calculatedColumnFormula>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="5"/>
-    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{47391C81-2EA8-A148-8D5A-099836562F33}" name="Status" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{E7210489-D250-D545-A3A7-8B64CF95D33B}" name="Kommentar" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{2FB03DEE-9D86-E448-AC9D-37A85488B243}" name="Nicht möglich" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{58872452-BA7B-944C-9D5A-2F8DFEAA42D8}" name="Beschreibung" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{C34E4242-AD8F-C049-A8FD-DE3980EA15A5}" name="Schon Implementiert (Funktionsname in Excelator)" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{47391C81-2EA8-A148-8D5A-099836562F33}" name="Status" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{E7210489-D250-D545-A3A7-8B64CF95D33B}" name="Kommentar" dataDxfId="1"/>
+    <tableColumn id="4" xr3:uid="{2FB03DEE-9D86-E448-AC9D-37A85488B243}" name="Nicht möglich" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium16" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -10048,9 +10052,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:J505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A486" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
@@ -18564,7 +18568,7 @@
       </c>
       <c r="E410" s="8"/>
       <c r="F410" s="8"/>
-      <c r="G410" s="12"/>
+      <c r="G410" s="8"/>
       <c r="H410" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18585,7 +18589,7 @@
       </c>
       <c r="E411" s="8"/>
       <c r="F411" s="8"/>
-      <c r="G411" s="12"/>
+      <c r="G411" s="8"/>
       <c r="H411" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18606,7 +18610,7 @@
       </c>
       <c r="E412" s="8"/>
       <c r="F412" s="8"/>
-      <c r="G412" s="12"/>
+      <c r="G412" s="8"/>
       <c r="H412" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18627,7 +18631,7 @@
       </c>
       <c r="E413" s="8"/>
       <c r="F413" s="8"/>
-      <c r="G413" s="12"/>
+      <c r="G413" s="8"/>
       <c r="H413" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18648,7 +18652,7 @@
       </c>
       <c r="E414" s="8"/>
       <c r="F414" s="8"/>
-      <c r="G414" s="12"/>
+      <c r="G414" s="8"/>
       <c r="H414" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18669,7 +18673,7 @@
       </c>
       <c r="E415" s="8"/>
       <c r="F415" s="8"/>
-      <c r="G415" s="12"/>
+      <c r="G415" s="8"/>
       <c r="H415" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18690,7 +18694,7 @@
       </c>
       <c r="E416" s="8"/>
       <c r="F416" s="8"/>
-      <c r="G416" s="12"/>
+      <c r="G416" s="8"/>
       <c r="H416" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18711,7 +18715,7 @@
       </c>
       <c r="E417" s="8"/>
       <c r="F417" s="8"/>
-      <c r="G417" s="12"/>
+      <c r="G417" s="8"/>
       <c r="H417" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18732,7 +18736,7 @@
       </c>
       <c r="E418" s="8"/>
       <c r="F418" s="8"/>
-      <c r="G418" s="12"/>
+      <c r="G418" s="8"/>
       <c r="H418" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18753,7 +18757,7 @@
       </c>
       <c r="E419" s="8"/>
       <c r="F419" s="8"/>
-      <c r="G419" s="12"/>
+      <c r="G419" s="8"/>
       <c r="H419" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18774,7 +18778,7 @@
       </c>
       <c r="E420" s="8"/>
       <c r="F420" s="8"/>
-      <c r="G420" s="12" t="s">
+      <c r="G420" s="8" t="s">
         <v>1078</v>
       </c>
       <c r="H420" s="8"/>
@@ -18795,7 +18799,7 @@
       </c>
       <c r="E421" s="8"/>
       <c r="F421" s="8"/>
-      <c r="G421" s="12"/>
+      <c r="G421" s="8"/>
       <c r="H421" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18816,7 +18820,7 @@
       </c>
       <c r="E422" s="8"/>
       <c r="F422" s="8"/>
-      <c r="G422" s="12"/>
+      <c r="G422" s="8"/>
       <c r="H422" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18837,7 +18841,7 @@
       </c>
       <c r="E423" s="8"/>
       <c r="F423" s="8"/>
-      <c r="G423" s="12" t="s">
+      <c r="G423" s="8" t="s">
         <v>1079</v>
       </c>
       <c r="H423" s="8"/>
@@ -18858,12 +18862,12 @@
       </c>
       <c r="E424" s="8"/>
       <c r="F424" s="8"/>
-      <c r="G424" s="12" t="s">
+      <c r="G424" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H424" s="8"/>
     </row>
-    <row r="425" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:8" x14ac:dyDescent="0.5">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -18877,11 +18881,11 @@
       <c r="D425" s="7" t="s">
         <v>923</v>
       </c>
-      <c r="E425" s="8"/>
+      <c r="E425" s="8" t="s">
+        <v>1132</v>
+      </c>
       <c r="F425" s="8"/>
-      <c r="G425" s="12" t="s">
-        <v>1080</v>
-      </c>
+      <c r="G425" s="8"/>
       <c r="H425" s="8"/>
     </row>
     <row r="426" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
@@ -18899,8 +18903,10 @@
         <v>924</v>
       </c>
       <c r="E426" s="8"/>
-      <c r="F426" s="8"/>
-      <c r="G426" s="12" t="s">
+      <c r="F426" s="8" t="s">
+        <v>1131</v>
+      </c>
+      <c r="G426" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H426" s="8"/>
@@ -18921,7 +18927,7 @@
       </c>
       <c r="E427" s="8"/>
       <c r="F427" s="8"/>
-      <c r="G427" s="12"/>
+      <c r="G427" s="8"/>
       <c r="H427" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18942,7 +18948,7 @@
       </c>
       <c r="E428" s="8"/>
       <c r="F428" s="8"/>
-      <c r="G428" s="12"/>
+      <c r="G428" s="8"/>
       <c r="H428" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18963,7 +18969,7 @@
       </c>
       <c r="E429" s="8"/>
       <c r="F429" s="8"/>
-      <c r="G429" s="12"/>
+      <c r="G429" s="8"/>
       <c r="H429" s="8" t="s">
         <v>1016</v>
       </c>
@@ -18984,7 +18990,7 @@
       </c>
       <c r="E430" s="8"/>
       <c r="F430" s="8"/>
-      <c r="G430" s="12"/>
+      <c r="G430" s="8"/>
       <c r="H430" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19005,7 +19011,7 @@
       </c>
       <c r="E431" s="8"/>
       <c r="F431" s="8"/>
-      <c r="G431" s="12"/>
+      <c r="G431" s="8"/>
       <c r="H431" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19026,7 +19032,7 @@
       </c>
       <c r="E432" s="8"/>
       <c r="F432" s="8"/>
-      <c r="G432" s="12"/>
+      <c r="G432" s="8"/>
       <c r="H432" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19047,7 +19053,7 @@
       </c>
       <c r="E433" s="8"/>
       <c r="F433" s="8"/>
-      <c r="G433" s="12" t="s">
+      <c r="G433" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H433" s="8"/>
@@ -19068,7 +19074,7 @@
       </c>
       <c r="E434" s="8"/>
       <c r="F434" s="8"/>
-      <c r="G434" s="12" t="s">
+      <c r="G434" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H434" s="8"/>
@@ -19089,7 +19095,7 @@
       </c>
       <c r="E435" s="8"/>
       <c r="F435" s="8"/>
-      <c r="G435" s="12" t="s">
+      <c r="G435" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H435" s="8"/>
@@ -19112,7 +19118,7 @@
         <v>1081</v>
       </c>
       <c r="F436" s="8"/>
-      <c r="G436" s="12"/>
+      <c r="G436" s="8"/>
       <c r="H436" s="8"/>
     </row>
     <row r="437" spans="1:8" x14ac:dyDescent="0.5">
@@ -19131,7 +19137,7 @@
       </c>
       <c r="E437" s="8"/>
       <c r="F437" s="8"/>
-      <c r="G437" s="12"/>
+      <c r="G437" s="8"/>
       <c r="H437" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19154,7 +19160,7 @@
         <v>1081</v>
       </c>
       <c r="F438" s="8"/>
-      <c r="G438" s="12"/>
+      <c r="G438" s="8"/>
       <c r="H438" s="8"/>
     </row>
     <row r="439" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
@@ -19173,7 +19179,7 @@
       </c>
       <c r="E439" s="8"/>
       <c r="F439" s="8"/>
-      <c r="G439" s="12"/>
+      <c r="G439" s="8"/>
       <c r="H439" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19194,7 +19200,7 @@
       </c>
       <c r="E440" s="8"/>
       <c r="F440" s="8"/>
-      <c r="G440" s="12"/>
+      <c r="G440" s="8"/>
       <c r="H440" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19215,7 +19221,7 @@
       </c>
       <c r="E441" s="8"/>
       <c r="F441" s="8"/>
-      <c r="G441" s="12"/>
+      <c r="G441" s="8"/>
       <c r="H441" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19236,7 +19242,7 @@
       </c>
       <c r="E442" s="8"/>
       <c r="F442" s="8"/>
-      <c r="G442" s="12"/>
+      <c r="G442" s="8"/>
       <c r="H442" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19257,7 +19263,7 @@
       </c>
       <c r="E443" s="8"/>
       <c r="F443" s="8"/>
-      <c r="G443" s="12"/>
+      <c r="G443" s="8"/>
       <c r="H443" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19278,7 +19284,7 @@
       </c>
       <c r="E444" s="8"/>
       <c r="F444" s="8"/>
-      <c r="G444" s="12" t="s">
+      <c r="G444" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H444" s="8"/>
@@ -19299,7 +19305,7 @@
       </c>
       <c r="E445" s="8"/>
       <c r="F445" s="8"/>
-      <c r="G445" s="12" t="s">
+      <c r="G445" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H445" s="8"/>
@@ -19320,7 +19326,7 @@
       </c>
       <c r="E446" s="8"/>
       <c r="F446" s="8"/>
-      <c r="G446" s="12"/>
+      <c r="G446" s="8"/>
       <c r="H446" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19341,7 +19347,7 @@
       </c>
       <c r="E447" s="8"/>
       <c r="F447" s="8"/>
-      <c r="G447" s="12"/>
+      <c r="G447" s="8"/>
       <c r="H447" s="8" t="s">
         <v>1016</v>
       </c>
@@ -19362,7 +19368,7 @@
       </c>
       <c r="E448" s="8"/>
       <c r="F448" s="8"/>
-      <c r="G448" s="12" t="s">
+      <c r="G448" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H448" s="8"/>
@@ -19383,7 +19389,7 @@
       </c>
       <c r="E449" s="8"/>
       <c r="F449" s="8"/>
-      <c r="G449" s="12" t="s">
+      <c r="G449" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H449" s="8"/>
@@ -19404,7 +19410,7 @@
       </c>
       <c r="E450" s="8"/>
       <c r="F450" s="8"/>
-      <c r="G450" s="12" t="s">
+      <c r="G450" s="8" t="s">
         <v>1080</v>
       </c>
       <c r="H450" s="8"/>
@@ -19425,7 +19431,7 @@
       </c>
       <c r="E451" s="8"/>
       <c r="F451" s="8"/>
-      <c r="G451" s="12" t="s">
+      <c r="G451" s="8" t="s">
         <v>1082</v>
       </c>
       <c r="H451" s="8"/>
@@ -19605,7 +19611,9 @@
       <c r="E459" s="8" t="s">
         <v>1093</v>
       </c>
-      <c r="F459" s="8"/>
+      <c r="F459" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="G459" s="8" t="s">
         <v>1129</v>
       </c>
@@ -19633,13 +19641,13 @@
       <c r="H460" s="8"/>
     </row>
     <row r="461" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A461" s="13" t="s">
+      <c r="A461" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B461" s="14" t="s">
+      <c r="B461" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C461" s="14" t="str">
+      <c r="C461" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Logical</v>
       </c>
@@ -19654,13 +19662,13 @@
       <c r="H461" s="8"/>
     </row>
     <row r="462" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A462" s="13" t="s">
+      <c r="A462" s="12" t="s">
         <v>218</v>
       </c>
-      <c r="B462" s="14" t="s">
+      <c r="B462" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C462" s="14" t="str">
+      <c r="C462" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Logical</v>
       </c>
@@ -19675,13 +19683,13 @@
       <c r="H462" s="8"/>
     </row>
     <row r="463" spans="1:8" ht="63" x14ac:dyDescent="0.5">
-      <c r="A463" s="13" t="s">
+      <c r="A463" s="12" t="s">
         <v>473</v>
       </c>
-      <c r="B463" s="14" t="s">
+      <c r="B463" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C463" s="14" t="str">
+      <c r="C463" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Text</v>
       </c>
@@ -19698,13 +19706,13 @@
       </c>
     </row>
     <row r="464" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A464" s="13" t="s">
+      <c r="A464" s="12" t="s">
         <v>474</v>
       </c>
-      <c r="B464" s="14" t="s">
+      <c r="B464" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C464" s="14" t="str">
+      <c r="C464" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Text</v>
       </c>
@@ -19719,13 +19727,13 @@
       </c>
     </row>
     <row r="465" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A465" s="13" t="s">
+      <c r="A465" s="12" t="s">
         <v>383</v>
       </c>
-      <c r="B465" s="14" t="s">
+      <c r="B465" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C465" s="14" t="str">
+      <c r="C465" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Text</v>
       </c>
@@ -19742,13 +19750,13 @@
       </c>
     </row>
     <row r="466" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A466" s="13" t="s">
+      <c r="A466" s="12" t="s">
         <v>485</v>
       </c>
-      <c r="B466" s="14" t="s">
+      <c r="B466" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C466" s="14" t="str">
+      <c r="C466" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Date and time</v>
       </c>
@@ -19763,13 +19771,13 @@
       </c>
     </row>
     <row r="467" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A467" s="13" t="s">
+      <c r="A467" s="12" t="s">
         <v>262</v>
       </c>
-      <c r="B467" s="14" t="s">
+      <c r="B467" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C467" s="14" t="str">
+      <c r="C467" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Information</v>
       </c>
@@ -19784,13 +19792,13 @@
       </c>
     </row>
     <row r="468" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A468" s="13" t="s">
+      <c r="A468" s="12" t="s">
         <v>413</v>
       </c>
-      <c r="B468" s="14" t="s">
+      <c r="B468" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C468" s="14" t="str">
+      <c r="C468" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Math and trigonometry</v>
       </c>
@@ -19800,20 +19808,22 @@
       <c r="E468" t="s">
         <v>1086</v>
       </c>
-      <c r="F468" s="8"/>
+      <c r="F468" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="G468" s="8" t="s">
         <v>1087</v>
       </c>
       <c r="H468" s="8"/>
     </row>
     <row r="469" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A469" s="13" t="s">
+      <c r="A469" s="12" t="s">
         <v>414</v>
       </c>
-      <c r="B469" s="14" t="s">
+      <c r="B469" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C469" s="14" t="str">
+      <c r="C469" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Math and trigonometry</v>
       </c>
@@ -19828,13 +19838,13 @@
       <c r="H469" s="8"/>
     </row>
     <row r="470" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A470" s="13" t="s">
+      <c r="A470" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B470" s="14" t="s">
+      <c r="B470" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C470" s="14" t="str">
+      <c r="C470" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Lookup and reference</v>
       </c>
@@ -19849,13 +19859,13 @@
       </c>
     </row>
     <row r="471" spans="1:8" ht="63" x14ac:dyDescent="0.5">
-      <c r="A471" s="13" t="s">
+      <c r="A471" s="12" t="s">
         <v>493</v>
       </c>
-      <c r="B471" s="14" t="s">
+      <c r="B471" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C471" s="14" t="str">
+      <c r="C471" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -19872,13 +19882,13 @@
       </c>
     </row>
     <row r="472" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A472" s="13" t="s">
+      <c r="A472" s="12" t="s">
         <v>496</v>
       </c>
-      <c r="B472" s="14" t="s">
+      <c r="B472" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C472" s="14" t="str">
+      <c r="C472" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -19893,13 +19903,13 @@
       </c>
     </row>
     <row r="473" spans="1:8" ht="63" x14ac:dyDescent="0.5">
-      <c r="A473" s="13" t="s">
+      <c r="A473" s="12" t="s">
         <v>494</v>
       </c>
-      <c r="B473" s="14" t="s">
+      <c r="B473" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C473" s="14" t="str">
+      <c r="C473" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Lookup and reference</v>
       </c>
@@ -19914,13 +19924,13 @@
       </c>
     </row>
     <row r="474" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A474" s="13" t="s">
+      <c r="A474" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B474" s="14" t="s">
+      <c r="B474" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C474" s="14" t="str">
+      <c r="C474" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Web</v>
       </c>
@@ -19935,13 +19945,13 @@
       </c>
     </row>
     <row r="475" spans="1:8" ht="94.5" x14ac:dyDescent="0.5">
-      <c r="A475" s="13" t="s">
+      <c r="A475" s="12" t="s">
         <v>497</v>
       </c>
-      <c r="B475" s="14" t="s">
+      <c r="B475" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C475" s="14" t="str">
+      <c r="C475" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Logical</v>
       </c>
@@ -19949,20 +19959,22 @@
         <v>972</v>
       </c>
       <c r="E475" s="8"/>
-      <c r="F475" s="8"/>
+      <c r="F475" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="G475" s="8" t="s">
         <v>1089</v>
       </c>
       <c r="H475" s="8"/>
     </row>
     <row r="476" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A476" s="13" t="s">
+      <c r="A476" s="12" t="s">
         <v>495</v>
       </c>
-      <c r="B476" s="14" t="s">
+      <c r="B476" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C476" s="14" t="str">
+      <c r="C476" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Lookup and reference</v>
       </c>
@@ -19977,13 +19989,13 @@
       </c>
     </row>
     <row r="477" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A477" s="13" t="s">
+      <c r="A477" s="12" t="s">
         <v>89</v>
       </c>
-      <c r="B477" s="14" t="s">
+      <c r="B477" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C477" s="14" t="str">
+      <c r="C477" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Statistical</v>
       </c>
@@ -19998,13 +20010,13 @@
       </c>
     </row>
     <row r="478" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A478" s="13" t="s">
+      <c r="A478" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="B478" s="14" t="s">
+      <c r="B478" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C478" s="14" t="str">
+      <c r="C478" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Statistical</v>
       </c>
@@ -20019,13 +20031,13 @@
       </c>
     </row>
     <row r="479" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A479" s="13" t="s">
+      <c r="A479" s="12" t="s">
         <v>331</v>
       </c>
-      <c r="B479" s="14" t="s">
+      <c r="B479" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C479" s="14" t="str">
+      <c r="C479" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Text</v>
       </c>
@@ -20040,13 +20052,13 @@
       </c>
     </row>
     <row r="480" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A480" s="13" t="s">
+      <c r="A480" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="B480" s="14" t="s">
+      <c r="B480" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C480" s="14" t="str">
+      <c r="C480" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Text</v>
       </c>
@@ -20061,13 +20073,13 @@
       </c>
     </row>
     <row r="481" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A481" s="13" t="s">
+      <c r="A481" s="12" t="s">
         <v>390</v>
       </c>
-      <c r="B481" s="14" t="s">
+      <c r="B481" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C481" s="14" t="str">
+      <c r="C481" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Lookup and reference</v>
       </c>
@@ -20082,13 +20094,13 @@
       </c>
     </row>
     <row r="482" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A482" s="13" t="s">
+      <c r="A482" s="12" t="s">
         <v>492</v>
       </c>
-      <c r="B482" s="14" t="s">
+      <c r="B482" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C482" s="14" t="str">
+      <c r="C482" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Look and reference</v>
       </c>
@@ -20103,13 +20115,13 @@
       </c>
     </row>
     <row r="483" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A483" s="13" t="s">
+      <c r="A483" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="B483" s="14" t="s">
+      <c r="B483" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C483" s="14" t="str">
+      <c r="C483" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Lookup and reference</v>
       </c>
@@ -20124,13 +20136,13 @@
       </c>
     </row>
     <row r="484" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A484" s="13" t="s">
+      <c r="A484" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="B484" s="14" t="s">
+      <c r="B484" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C484" s="14" t="str">
+      <c r="C484" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Date and time</v>
       </c>
@@ -20145,13 +20157,13 @@
       </c>
     </row>
     <row r="485" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A485" s="13" t="s">
+      <c r="A485" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="B485" s="14" t="s">
+      <c r="B485" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C485" s="14" t="str">
+      <c r="C485" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Date and time</v>
       </c>
@@ -20166,13 +20178,13 @@
       </c>
     </row>
     <row r="486" spans="1:8" ht="63" x14ac:dyDescent="0.5">
-      <c r="A486" s="13" t="s">
+      <c r="A486" s="12" t="s">
         <v>378</v>
       </c>
-      <c r="B486" s="14" t="s">
+      <c r="B486" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C486" s="14" t="str">
+      <c r="C486" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20189,13 +20201,13 @@
       </c>
     </row>
     <row r="487" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A487" s="13" t="s">
+      <c r="A487" s="12" t="s">
         <v>249</v>
       </c>
-      <c r="B487" s="14" t="s">
+      <c r="B487" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C487" s="14" t="str">
+      <c r="C487" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20210,13 +20222,13 @@
       </c>
     </row>
     <row r="488" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A488" s="13" t="s">
+      <c r="A488" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="B488" s="14" t="s">
+      <c r="B488" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C488" s="14" t="str">
+      <c r="C488" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20231,13 +20243,13 @@
       </c>
     </row>
     <row r="489" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A489" s="13" t="s">
+      <c r="A489" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="B489" s="14" t="s">
+      <c r="B489" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C489" s="14" t="str">
+      <c r="C489" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20252,13 +20264,13 @@
       </c>
     </row>
     <row r="490" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A490" s="13" t="s">
+      <c r="A490" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B490" s="14" t="s">
+      <c r="B490" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C490" s="14" t="str">
+      <c r="C490" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20273,13 +20285,13 @@
       </c>
     </row>
     <row r="491" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A491" s="13" t="s">
+      <c r="A491" s="12" t="s">
         <v>91</v>
       </c>
-      <c r="B491" s="14" t="s">
+      <c r="B491" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C491" s="14" t="str">
+      <c r="C491" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20294,13 +20306,13 @@
       </c>
     </row>
     <row r="492" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A492" s="13" t="s">
+      <c r="A492" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="B492" s="14" t="s">
+      <c r="B492" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C492" s="14" t="str">
+      <c r="C492" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20315,13 +20327,13 @@
       </c>
     </row>
     <row r="493" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A493" s="13" t="s">
+      <c r="A493" s="12" t="s">
         <v>95</v>
       </c>
-      <c r="B493" s="14" t="s">
+      <c r="B493" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C493" s="14" t="str">
+      <c r="C493" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20336,13 +20348,13 @@
       </c>
     </row>
     <row r="494" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A494" s="13" t="s">
+      <c r="A494" s="12" t="s">
         <v>250</v>
       </c>
-      <c r="B494" s="14" t="s">
+      <c r="B494" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C494" s="14" t="str">
+      <c r="C494" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20357,13 +20369,13 @@
       </c>
     </row>
     <row r="495" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A495" s="13" t="s">
+      <c r="A495" s="12" t="s">
         <v>391</v>
       </c>
-      <c r="B495" s="14" t="s">
+      <c r="B495" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C495" s="14" t="str">
+      <c r="C495" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20378,13 +20390,13 @@
       </c>
     </row>
     <row r="496" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A496" s="13" t="s">
+      <c r="A496" s="12" t="s">
         <v>504</v>
       </c>
-      <c r="B496" s="14" t="s">
+      <c r="B496" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C496" s="14" t="str">
+      <c r="C496" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Compatibility</v>
       </c>
@@ -20401,13 +20413,13 @@
       </c>
     </row>
     <row r="497" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A497" s="13" t="s">
+      <c r="A497" s="12" t="s">
         <v>374</v>
       </c>
-      <c r="B497" s="14" t="s">
+      <c r="B497" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C497" s="14" t="str">
+      <c r="C497" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Math and trigonometry</v>
       </c>
@@ -20415,20 +20427,22 @@
         <v>994</v>
       </c>
       <c r="E497" s="8"/>
-      <c r="F497" s="8"/>
+      <c r="F497" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="G497" s="8" t="s">
         <v>1091</v>
       </c>
       <c r="H497" s="8"/>
     </row>
     <row r="498" spans="1:8" ht="63" x14ac:dyDescent="0.5">
-      <c r="A498" s="13" t="s">
+      <c r="A498" s="12" t="s">
         <v>373</v>
       </c>
-      <c r="B498" s="14" t="s">
+      <c r="B498" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C498" s="14" t="str">
+      <c r="C498" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Math and trigonometry</v>
       </c>
@@ -20443,13 +20457,13 @@
       </c>
     </row>
     <row r="499" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
-      <c r="A499" s="13" t="s">
+      <c r="A499" s="12" t="s">
         <v>372</v>
       </c>
-      <c r="B499" s="14" t="s">
+      <c r="B499" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C499" s="14" t="str">
+      <c r="C499" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Math and trigonometry</v>
       </c>
@@ -20457,20 +20471,22 @@
         <v>996</v>
       </c>
       <c r="E499" s="8"/>
-      <c r="F499" s="8"/>
+      <c r="F499" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="G499" s="8" t="s">
         <v>1091</v>
       </c>
       <c r="H499" s="8"/>
     </row>
     <row r="500" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A500" s="13" t="s">
+      <c r="A500" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="B500" s="14" t="s">
+      <c r="B500" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C500" s="14" t="str">
+      <c r="C500" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Lookup and reference</v>
       </c>
@@ -20487,13 +20503,13 @@
       </c>
     </row>
     <row r="501" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A501" s="13" t="s">
+      <c r="A501" s="12" t="s">
         <v>458</v>
       </c>
-      <c r="B501" s="14" t="s">
+      <c r="B501" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C501" s="14" t="str">
+      <c r="C501" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Lookup and reference</v>
       </c>
@@ -20510,13 +20526,13 @@
       </c>
     </row>
     <row r="502" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A502" s="13" t="s">
+      <c r="A502" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="B502" s="14" t="s">
+      <c r="B502" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C502" s="14" t="str">
+      <c r="C502" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20531,13 +20547,13 @@
       </c>
     </row>
     <row r="503" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
-      <c r="A503" s="13" t="s">
+      <c r="A503" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="B503" s="14" t="s">
+      <c r="B503" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C503" s="14" t="str">
+      <c r="C503" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>
@@ -20552,13 +20568,13 @@
       </c>
     </row>
     <row r="504" spans="1:8" ht="63" x14ac:dyDescent="0.5">
-      <c r="A504" s="13" t="s">
+      <c r="A504" s="12" t="s">
         <v>163</v>
       </c>
-      <c r="B504" s="14" t="s">
+      <c r="B504" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C504" s="14" t="str">
+      <c r="C504" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Math and trigonometry</v>
       </c>
@@ -20566,20 +20582,22 @@
         <v>1001</v>
       </c>
       <c r="E504" s="8"/>
-      <c r="F504" s="8"/>
+      <c r="F504" s="8" t="s">
+        <v>1131</v>
+      </c>
       <c r="G504" s="8" t="s">
         <v>1092</v>
       </c>
       <c r="H504" s="8"/>
     </row>
     <row r="505" spans="1:8" x14ac:dyDescent="0.5">
-      <c r="A505" s="13" t="s">
+      <c r="A505" s="12" t="s">
         <v>329</v>
       </c>
-      <c r="B505" s="14" t="s">
+      <c r="B505" s="7" t="s">
         <v>1015</v>
       </c>
-      <c r="C505" s="14" t="str">
+      <c r="C505" s="7" t="str">
         <f>_xlfn.TEXTBEFORE(Tabelle1[[#This Row],[Beschreibung]],":")</f>
         <v>Financial</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://hspforzheimde-my.sharepoint.com/personal/staibflo_hs-pforzheim_de/Documents/für HS/SE/GitHub/excelator/mgmt/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f68b39a81cc06860/Documents/GitHub/excelator/mgmt/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="27" documentId="13_ncr:1_{BD76375E-882C-934F-8082-3697347F1EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{16C63939-05ED-4E9C-86A2-7B8FCBEAF6BC}"/>
+  <xr:revisionPtr revIDLastSave="59" documentId="13_ncr:1_{BD76375E-882C-934F-8082-3697347F1EF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9392DDBD-FE83-4276-B583-565E5B85C598}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
+    <workbookView xWindow="-6375" yWindow="-12120" windowWidth="19440" windowHeight="11640" xr2:uid="{1F02C744-EE90-A14B-9229-2ACDAC5D761E}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1989" uniqueCount="1133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2000" uniqueCount="1134">
   <si>
     <t>Funktionsname</t>
   </si>
@@ -9417,6 +9417,9 @@
   </si>
   <si>
     <t>&amp;</t>
+  </si>
+  <si>
+    <t>Wird umgesetzt</t>
   </si>
 </sst>
 </file>
@@ -9557,8 +9560,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
     <dxf>
@@ -9727,13 +9730,21 @@
 </styleSheet>
 </file>
 
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}" name="Tabelle1" displayName="Tabelle1" ref="A1:H505" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}"/>
+  <autoFilter ref="A1:H505" xr:uid="{C418F1F6-3AF5-EF4E-8CE1-8CA525105B91}">
+    <filterColumn colId="1">
+      <filters>
+        <filter val="A"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="6">
+      <filters>
+        <filter val="möglich"/>
+        <filter val="möglich aber unnötig ?"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H505">
     <sortCondition ref="A1:A505"/>
   </sortState>
@@ -9754,7 +9765,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -10052,22 +10063,23 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E696CC-4DD8-8E43-8BCC-2210EBDA2D24}">
   <dimension ref="A1:J505"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="60" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A465" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F17" sqref="F17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F40" sqref="F40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="23.59765625" style="1" customWidth="1"/>
     <col min="2" max="2" width="11.5" customWidth="1"/>
     <col min="3" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="79.25" customWidth="1"/>
-    <col min="5" max="6" width="26.1875" customWidth="1"/>
-    <col min="7" max="7" width="17.8125" customWidth="1"/>
+    <col min="4" max="4" width="79.19921875" customWidth="1"/>
+    <col min="5" max="5" width="14.796875" customWidth="1"/>
+    <col min="6" max="6" width="14.19921875" customWidth="1"/>
+    <col min="7" max="7" width="17.796875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" s="2" customFormat="1" ht="33" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:10" s="2" customFormat="1" ht="64.2" x14ac:dyDescent="0.45">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -10093,7 +10105,7 @@
         <v>1005</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="63" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:10" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>387</v>
       </c>
@@ -10121,7 +10133,7 @@
         <v>1007</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
@@ -10144,7 +10156,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
     </row>
-    <row r="4" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -10167,7 +10179,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
@@ -10188,7 +10200,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>10</v>
       </c>
@@ -10209,7 +10221,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>11</v>
       </c>
@@ -10230,7 +10242,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A8" s="6" t="s">
         <v>86</v>
       </c>
@@ -10251,7 +10263,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>87</v>
       </c>
@@ -10272,7 +10284,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>88</v>
       </c>
@@ -10293,7 +10305,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
@@ -10314,7 +10326,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A12" s="6" t="s">
         <v>489</v>
       </c>
@@ -10335,7 +10347,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:10" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>490</v>
       </c>
@@ -10356,7 +10368,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>4</v>
       </c>
@@ -10373,11 +10385,13 @@
       <c r="E14" s="8" t="s">
         <v>1017</v>
       </c>
-      <c r="F14" s="8"/>
+      <c r="F14" s="8" t="s">
+        <v>1077</v>
+      </c>
       <c r="G14" s="8"/>
       <c r="H14" s="8"/>
     </row>
-    <row r="15" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:10" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>5</v>
       </c>
@@ -10394,11 +10408,13 @@
       <c r="E15" s="8" t="s">
         <v>1018</v>
       </c>
-      <c r="F15" s="8"/>
+      <c r="F15" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G15" s="8"/>
       <c r="H15" s="8"/>
     </row>
-    <row r="16" spans="1:10" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:10" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
@@ -10419,7 +10435,7 @@
       </c>
       <c r="H16" s="8"/>
     </row>
-    <row r="17" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>7</v>
       </c>
@@ -10440,7 +10456,7 @@
       </c>
       <c r="H17" s="8"/>
     </row>
-    <row r="18" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>17</v>
       </c>
@@ -10457,11 +10473,13 @@
       <c r="E18" s="8" t="s">
         <v>1021</v>
       </c>
-      <c r="F18" s="8"/>
+      <c r="F18" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G18" s="8"/>
       <c r="H18" s="8"/>
     </row>
-    <row r="19" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>18</v>
       </c>
@@ -10478,11 +10496,13 @@
       <c r="E19" s="8" t="s">
         <v>1022</v>
       </c>
-      <c r="F19" s="8"/>
+      <c r="F19" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G19" s="8"/>
       <c r="H19" s="8"/>
     </row>
-    <row r="20" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>19</v>
       </c>
@@ -10499,11 +10519,13 @@
       <c r="E20" s="8" t="s">
         <v>1023</v>
       </c>
-      <c r="F20" s="8"/>
+      <c r="F20" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G20" s="8"/>
       <c r="H20" s="8"/>
     </row>
-    <row r="21" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -10524,7 +10546,7 @@
       </c>
       <c r="H21" s="8"/>
     </row>
-    <row r="22" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="22" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -10545,7 +10567,7 @@
       </c>
       <c r="H22" s="8"/>
     </row>
-    <row r="23" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="23" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>16</v>
       </c>
@@ -10566,7 +10588,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="24" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="24" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>2</v>
       </c>
@@ -10587,7 +10609,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="25" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="6" t="s">
         <v>3</v>
       </c>
@@ -10608,7 +10630,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="26" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="26" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>51</v>
       </c>
@@ -10629,7 +10651,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="27" spans="1:8" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>388</v>
       </c>
@@ -10646,13 +10668,15 @@
       <c r="E27" s="8" t="s">
         <v>1025</v>
       </c>
-      <c r="F27" s="8"/>
+      <c r="F27" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G27" s="8" t="s">
         <v>1006</v>
       </c>
       <c r="H27" s="8"/>
     </row>
-    <row r="28" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="28" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>379</v>
       </c>
@@ -10673,7 +10697,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="29" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A29" s="6" t="s">
         <v>27</v>
       </c>
@@ -10694,7 +10718,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="30" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>28</v>
       </c>
@@ -10715,7 +10739,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>14</v>
       </c>
@@ -10736,7 +10760,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>29</v>
       </c>
@@ -10757,7 +10781,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>30</v>
       </c>
@@ -10778,7 +10802,7 @@
       </c>
       <c r="H33" s="8"/>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>31</v>
       </c>
@@ -10799,7 +10823,7 @@
       </c>
       <c r="H34" s="8"/>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="6" t="s">
         <v>32</v>
       </c>
@@ -10820,7 +10844,7 @@
       </c>
       <c r="H35" s="8"/>
     </row>
-    <row r="36" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="36" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>36</v>
       </c>
@@ -10841,7 +10865,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="37" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>34</v>
       </c>
@@ -10862,7 +10886,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>33</v>
       </c>
@@ -10883,7 +10907,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="39" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="39" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>35</v>
       </c>
@@ -10904,7 +10928,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="40" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A40" s="6" t="s">
         <v>37</v>
       </c>
@@ -10919,13 +10943,15 @@
         <v>545</v>
       </c>
       <c r="E40" s="8"/>
-      <c r="F40" s="8"/>
+      <c r="F40" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G40" s="8" t="s">
         <v>1020</v>
       </c>
       <c r="H40" s="8"/>
     </row>
-    <row r="41" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="41" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>38</v>
       </c>
@@ -10946,7 +10972,7 @@
       </c>
       <c r="H41" s="8"/>
     </row>
-    <row r="42" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="42" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>39</v>
       </c>
@@ -10967,7 +10993,7 @@
       </c>
       <c r="H42" s="8"/>
     </row>
-    <row r="43" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="43" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>43</v>
       </c>
@@ -10988,7 +11014,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>41</v>
       </c>
@@ -11009,7 +11035,7 @@
       <c r="G44" s="8"/>
       <c r="H44" s="8"/>
     </row>
-    <row r="45" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="45" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>42</v>
       </c>
@@ -11030,7 +11056,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>40</v>
       </c>
@@ -11051,7 +11077,7 @@
       <c r="G46" s="8"/>
       <c r="H46" s="8"/>
     </row>
-    <row r="47" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="47" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A47" s="6" t="s">
         <v>45</v>
       </c>
@@ -11072,7 +11098,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>46</v>
       </c>
@@ -11093,7 +11119,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="49" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A49" s="6" t="s">
         <v>47</v>
       </c>
@@ -11114,7 +11140,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="50" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A50" s="6" t="s">
         <v>44</v>
       </c>
@@ -11135,7 +11161,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="51" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>48</v>
       </c>
@@ -11156,7 +11182,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="52" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>401</v>
       </c>
@@ -11177,7 +11203,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="53" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>402</v>
       </c>
@@ -11198,7 +11224,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="54" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>371</v>
       </c>
@@ -11213,13 +11239,15 @@
         <v>559</v>
       </c>
       <c r="E54" s="8"/>
-      <c r="F54" s="8"/>
+      <c r="F54" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G54" s="8" t="s">
         <v>1024</v>
       </c>
       <c r="H54" s="8"/>
     </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="55" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>416</v>
       </c>
@@ -11240,7 +11268,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="56" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>499</v>
       </c>
@@ -11261,7 +11289,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="57" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>366</v>
       </c>
@@ -11282,7 +11310,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="58" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>52</v>
       </c>
@@ -11303,7 +11331,7 @@
       </c>
       <c r="H58" s="8"/>
     </row>
-    <row r="59" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="59" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>55</v>
       </c>
@@ -11324,7 +11352,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="60" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="60" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A60" s="6" t="s">
         <v>57</v>
       </c>
@@ -11345,7 +11373,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="61" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A61" s="6" t="s">
         <v>58</v>
       </c>
@@ -11366,7 +11394,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="62" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>62</v>
       </c>
@@ -11387,7 +11415,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="63" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>63</v>
       </c>
@@ -11408,7 +11436,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="64" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>64</v>
       </c>
@@ -11429,7 +11457,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="65" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>60</v>
       </c>
@@ -11450,7 +11478,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="66" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="66" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -11471,7 +11499,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="67" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>59</v>
       </c>
@@ -11492,7 +11520,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="68" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>69</v>
       </c>
@@ -11513,7 +11541,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="69" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>70</v>
       </c>
@@ -11534,7 +11562,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="70" spans="1:8" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>81</v>
       </c>
@@ -11557,7 +11585,7 @@
       </c>
       <c r="H70" s="8"/>
     </row>
-    <row r="71" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="71" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>82</v>
       </c>
@@ -11574,11 +11602,13 @@
       <c r="E71" s="8" t="s">
         <v>1029</v>
       </c>
-      <c r="F71" s="8"/>
+      <c r="F71" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G71" s="8"/>
       <c r="H71" s="8"/>
     </row>
-    <row r="72" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="72" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>101</v>
       </c>
@@ -11599,7 +11629,7 @@
       </c>
       <c r="H72" s="8"/>
     </row>
-    <row r="73" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="73" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>102</v>
       </c>
@@ -11620,7 +11650,7 @@
       </c>
       <c r="H73" s="8"/>
     </row>
-    <row r="74" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="74" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>83</v>
       </c>
@@ -11641,7 +11671,7 @@
       <c r="G74" s="8"/>
       <c r="H74" s="8"/>
     </row>
-    <row r="75" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="75" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>84</v>
       </c>
@@ -11662,7 +11692,7 @@
       <c r="G75" s="8"/>
       <c r="H75" s="8"/>
     </row>
-    <row r="76" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="76" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>85</v>
       </c>
@@ -11677,13 +11707,15 @@
         <v>580</v>
       </c>
       <c r="E76" s="8"/>
-      <c r="F76" s="8"/>
+      <c r="F76" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G76" s="8" t="s">
         <v>1024</v>
       </c>
       <c r="H76" s="8"/>
     </row>
-    <row r="77" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="77" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>97</v>
       </c>
@@ -11704,7 +11736,7 @@
       <c r="G77" s="8"/>
       <c r="H77" s="8"/>
     </row>
-    <row r="78" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="78" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>98</v>
       </c>
@@ -11725,7 +11757,7 @@
       <c r="G78" s="8"/>
       <c r="H78" s="8"/>
     </row>
-    <row r="79" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="79" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>99</v>
       </c>
@@ -11746,7 +11778,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="80" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="80" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>100</v>
       </c>
@@ -11767,7 +11799,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="81" spans="1:8" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>103</v>
       </c>
@@ -11788,7 +11820,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="82" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A82" s="6" t="s">
         <v>104</v>
       </c>
@@ -11809,7 +11841,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="83" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="6" t="s">
         <v>105</v>
       </c>
@@ -11830,7 +11862,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="84" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="84" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>108</v>
       </c>
@@ -11851,7 +11883,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="85" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="85" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>106</v>
       </c>
@@ -11872,7 +11904,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="86" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>107</v>
       </c>
@@ -11893,7 +11925,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="87" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>109</v>
       </c>
@@ -11914,7 +11946,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="88" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="88" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>113</v>
       </c>
@@ -11929,13 +11961,15 @@
         <v>592</v>
       </c>
       <c r="E88" s="8"/>
-      <c r="F88" s="8"/>
+      <c r="F88" s="8" t="s">
+        <v>1133</v>
+      </c>
       <c r="G88" s="8" t="s">
         <v>1024</v>
       </c>
       <c r="H88" s="8"/>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="89" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>112</v>
       </c>
@@ -11956,7 +11990,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="90" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>114</v>
       </c>
@@ -11977,7 +12011,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="91" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>121</v>
       </c>
@@ -11998,7 +12032,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="92" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>122</v>
       </c>
@@ -12019,7 +12053,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="93" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>131</v>
       </c>
@@ -12040,7 +12074,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="94" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>120</v>
       </c>
@@ -12061,7 +12095,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="95" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>133</v>
       </c>
@@ -12082,7 +12116,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="96" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="96" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
@@ -12103,7 +12137,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="97" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>115</v>
       </c>
@@ -12124,7 +12158,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="98" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>138</v>
       </c>
@@ -12145,7 +12179,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="99" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>140</v>
       </c>
@@ -12166,7 +12200,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="100" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="100" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>141</v>
       </c>
@@ -12187,7 +12221,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="101" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="101" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>142</v>
       </c>
@@ -12208,7 +12242,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="102" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>144</v>
       </c>
@@ -12227,7 +12261,7 @@
       <c r="G102" s="8"/>
       <c r="H102" s="8"/>
     </row>
-    <row r="103" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="103" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>145</v>
       </c>
@@ -12246,7 +12280,7 @@
       <c r="G103" s="8"/>
       <c r="H103" s="8"/>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="104" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>129</v>
       </c>
@@ -12265,7 +12299,7 @@
       <c r="G104" s="8"/>
       <c r="H104" s="8"/>
     </row>
-    <row r="105" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="105" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>127</v>
       </c>
@@ -12284,7 +12318,7 @@
       <c r="G105" s="8"/>
       <c r="H105" s="8"/>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="106" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>124</v>
       </c>
@@ -12303,7 +12337,7 @@
       <c r="G106" s="8"/>
       <c r="H106" s="8"/>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="107" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>125</v>
       </c>
@@ -12322,7 +12356,7 @@
       <c r="G107" s="8"/>
       <c r="H107" s="8"/>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="108" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>126</v>
       </c>
@@ -12341,7 +12375,7 @@
       <c r="G108" s="8"/>
       <c r="H108" s="8"/>
     </row>
-    <row r="109" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="109" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>435</v>
       </c>
@@ -12360,7 +12394,7 @@
       <c r="G109" s="8"/>
       <c r="H109" s="8"/>
     </row>
-    <row r="110" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="110" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>132</v>
       </c>
@@ -12379,7 +12413,7 @@
       <c r="G110" s="8"/>
       <c r="H110" s="8"/>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="111" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>135</v>
       </c>
@@ -12398,7 +12432,7 @@
       <c r="G111" s="8"/>
       <c r="H111" s="8"/>
     </row>
-    <row r="112" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="112" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>143</v>
       </c>
@@ -12417,7 +12451,7 @@
       <c r="G112" s="8"/>
       <c r="H112" s="8"/>
     </row>
-    <row r="113" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="113" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A113" s="6" t="s">
         <v>146</v>
       </c>
@@ -12436,7 +12470,7 @@
       <c r="G113" s="8"/>
       <c r="H113" s="8"/>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="114" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>147</v>
       </c>
@@ -12455,7 +12489,7 @@
       <c r="G114" s="8"/>
       <c r="H114" s="8"/>
     </row>
-    <row r="115" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="115" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>471</v>
       </c>
@@ -12474,7 +12508,7 @@
       <c r="G115" s="8"/>
       <c r="H115" s="8"/>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="116" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A116" s="6" t="s">
         <v>148</v>
       </c>
@@ -12493,7 +12527,7 @@
       <c r="G116" s="8"/>
       <c r="H116" s="8"/>
     </row>
-    <row r="117" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="117" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>382</v>
       </c>
@@ -12512,7 +12546,7 @@
       <c r="G117" s="8"/>
       <c r="H117" s="8"/>
     </row>
-    <row r="118" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="118" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>159</v>
       </c>
@@ -12531,7 +12565,7 @@
       <c r="G118" s="8"/>
       <c r="H118" s="8"/>
     </row>
-    <row r="119" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="119" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>155</v>
       </c>
@@ -12550,7 +12584,7 @@
       <c r="G119" s="8"/>
       <c r="H119" s="8"/>
     </row>
-    <row r="120" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="120" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>158</v>
       </c>
@@ -12569,7 +12603,7 @@
       <c r="G120" s="8"/>
       <c r="H120" s="8"/>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="121" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>160</v>
       </c>
@@ -12588,7 +12622,7 @@
       <c r="G121" s="8"/>
       <c r="H121" s="8"/>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="122" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A122" s="6" t="s">
         <v>161</v>
       </c>
@@ -12607,7 +12641,7 @@
       <c r="G122" s="8"/>
       <c r="H122" s="8"/>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="123" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>171</v>
       </c>
@@ -12626,7 +12660,7 @@
       <c r="G123" s="8"/>
       <c r="H123" s="8"/>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="124" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>172</v>
       </c>
@@ -12645,7 +12679,7 @@
       <c r="G124" s="8"/>
       <c r="H124" s="8"/>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="125" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>188</v>
       </c>
@@ -12664,7 +12698,7 @@
       <c r="G125" s="8"/>
       <c r="H125" s="8"/>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="126" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>165</v>
       </c>
@@ -12683,7 +12717,7 @@
       <c r="G126" s="8"/>
       <c r="H126" s="8"/>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="127" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>167</v>
       </c>
@@ -12702,7 +12736,7 @@
       <c r="G127" s="8"/>
       <c r="H127" s="8"/>
     </row>
-    <row r="128" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="128" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>162</v>
       </c>
@@ -12721,7 +12755,7 @@
       <c r="G128" s="8"/>
       <c r="H128" s="8"/>
     </row>
-    <row r="129" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="129" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>164</v>
       </c>
@@ -12740,7 +12774,7 @@
       <c r="G129" s="8"/>
       <c r="H129" s="8"/>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="130" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>166</v>
       </c>
@@ -12759,7 +12793,7 @@
       <c r="G130" s="8"/>
       <c r="H130" s="8"/>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="131" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>154</v>
       </c>
@@ -12778,7 +12812,7 @@
       <c r="G131" s="8"/>
       <c r="H131" s="8"/>
     </row>
-    <row r="132" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="132" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A132" s="6" t="s">
         <v>176</v>
       </c>
@@ -12797,7 +12831,7 @@
       <c r="G132" s="8"/>
       <c r="H132" s="8"/>
     </row>
-    <row r="133" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="133" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>168</v>
       </c>
@@ -12816,7 +12850,7 @@
       <c r="G133" s="8"/>
       <c r="H133" s="8"/>
     </row>
-    <row r="134" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="134" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>170</v>
       </c>
@@ -12835,7 +12869,7 @@
       <c r="G134" s="8"/>
       <c r="H134" s="8"/>
     </row>
-    <row r="135" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="135" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>173</v>
       </c>
@@ -12854,7 +12888,7 @@
       <c r="G135" s="8"/>
       <c r="H135" s="8"/>
     </row>
-    <row r="136" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="136" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>174</v>
       </c>
@@ -12873,7 +12907,7 @@
       <c r="G136" s="8"/>
       <c r="H136" s="8"/>
     </row>
-    <row r="137" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="137" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>175</v>
       </c>
@@ -12892,7 +12926,7 @@
       <c r="G137" s="8"/>
       <c r="H137" s="8"/>
     </row>
-    <row r="138" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="138" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>186</v>
       </c>
@@ -12911,7 +12945,7 @@
       <c r="G138" s="8"/>
       <c r="H138" s="8"/>
     </row>
-    <row r="139" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="139" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>187</v>
       </c>
@@ -12930,7 +12964,7 @@
       <c r="G139" s="8"/>
       <c r="H139" s="8"/>
     </row>
-    <row r="140" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="140" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>189</v>
       </c>
@@ -12949,7 +12983,7 @@
       <c r="G140" s="8"/>
       <c r="H140" s="8"/>
     </row>
-    <row r="141" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="141" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>503</v>
       </c>
@@ -12968,7 +13002,7 @@
       <c r="G141" s="8"/>
       <c r="H141" s="8"/>
     </row>
-    <row r="142" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="142" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>192</v>
       </c>
@@ -12987,7 +13021,7 @@
       <c r="G142" s="8"/>
       <c r="H142" s="8"/>
     </row>
-    <row r="143" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="143" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>195</v>
       </c>
@@ -13006,7 +13040,7 @@
       <c r="G143" s="8"/>
       <c r="H143" s="8"/>
     </row>
-    <row r="144" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="144" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>193</v>
       </c>
@@ -13025,7 +13059,7 @@
       <c r="G144" s="8"/>
       <c r="H144" s="8"/>
     </row>
-    <row r="145" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="145" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>194</v>
       </c>
@@ -13044,7 +13078,7 @@
       <c r="G145" s="8"/>
       <c r="H145" s="8"/>
     </row>
-    <row r="146" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="146" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>196</v>
       </c>
@@ -13063,7 +13097,7 @@
       <c r="G146" s="8"/>
       <c r="H146" s="8"/>
     </row>
-    <row r="147" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="147" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>197</v>
       </c>
@@ -13082,7 +13116,7 @@
       <c r="G147" s="8"/>
       <c r="H147" s="8"/>
     </row>
-    <row r="148" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="148" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>198</v>
       </c>
@@ -13101,7 +13135,7 @@
       <c r="G148" s="8"/>
       <c r="H148" s="8"/>
     </row>
-    <row r="149" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="149" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>247</v>
       </c>
@@ -13120,7 +13154,7 @@
       <c r="G149" s="8"/>
       <c r="H149" s="8"/>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="150" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>199</v>
       </c>
@@ -13139,7 +13173,7 @@
       <c r="G150" s="8"/>
       <c r="H150" s="8"/>
     </row>
-    <row r="151" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="151" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>150</v>
       </c>
@@ -13158,7 +13192,7 @@
       <c r="G151" s="8"/>
       <c r="H151" s="8"/>
     </row>
-    <row r="152" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="152" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>151</v>
       </c>
@@ -13177,7 +13211,7 @@
       <c r="G152" s="8"/>
       <c r="H152" s="8"/>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="153" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>152</v>
       </c>
@@ -13196,7 +13230,7 @@
       <c r="G153" s="8"/>
       <c r="H153" s="8"/>
     </row>
-    <row r="154" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="154" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>153</v>
       </c>
@@ -13215,7 +13249,7 @@
       <c r="G154" s="8"/>
       <c r="H154" s="8"/>
     </row>
-    <row r="155" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="155" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>123</v>
       </c>
@@ -13234,7 +13268,7 @@
       <c r="G155" s="8"/>
       <c r="H155" s="8"/>
     </row>
-    <row r="156" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="156" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>119</v>
       </c>
@@ -13253,7 +13287,7 @@
       <c r="G156" s="8"/>
       <c r="H156" s="8"/>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="157" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>201</v>
       </c>
@@ -13272,7 +13306,7 @@
       <c r="G157" s="8"/>
       <c r="H157" s="8"/>
     </row>
-    <row r="158" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="158" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A158" s="6" t="s">
         <v>156</v>
       </c>
@@ -13291,7 +13325,7 @@
       <c r="G158" s="8"/>
       <c r="H158" s="8"/>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="159" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>463</v>
       </c>
@@ -13310,7 +13344,7 @@
       <c r="G159" s="8"/>
       <c r="H159" s="8"/>
     </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="160" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>202</v>
       </c>
@@ -13329,7 +13363,7 @@
       <c r="G160" s="8"/>
       <c r="H160" s="8"/>
     </row>
-    <row r="161" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="161" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>200</v>
       </c>
@@ -13348,7 +13382,7 @@
       <c r="G161" s="8"/>
       <c r="H161" s="8"/>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="162" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>462</v>
       </c>
@@ -13367,7 +13401,7 @@
       <c r="G162" s="8"/>
       <c r="H162" s="8"/>
     </row>
-    <row r="163" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="163" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>128</v>
       </c>
@@ -13386,7 +13420,7 @@
       <c r="G163" s="8"/>
       <c r="H163" s="8"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>472</v>
       </c>
@@ -13405,7 +13439,7 @@
       <c r="G164" s="8"/>
       <c r="H164" s="8"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>365</v>
       </c>
@@ -13424,7 +13458,7 @@
       <c r="G165" s="8"/>
       <c r="H165" s="8"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>204</v>
       </c>
@@ -13443,7 +13477,7 @@
       <c r="G166" s="8"/>
       <c r="H166" s="8"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A167" s="6" t="s">
         <v>205</v>
       </c>
@@ -13462,7 +13496,7 @@
       <c r="G167" s="8"/>
       <c r="H167" s="8"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>459</v>
       </c>
@@ -13481,7 +13515,7 @@
       <c r="G168" s="8"/>
       <c r="H168" s="8"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>206</v>
       </c>
@@ -13500,7 +13534,7 @@
       <c r="G169" s="8"/>
       <c r="H169" s="8"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>207</v>
       </c>
@@ -13519,7 +13553,7 @@
       <c r="G170" s="8"/>
       <c r="H170" s="8"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -13538,7 +13572,7 @@
       <c r="G171" s="8"/>
       <c r="H171" s="8"/>
     </row>
-    <row r="172" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="172" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>211</v>
       </c>
@@ -13557,7 +13591,7 @@
       <c r="G172" s="8"/>
       <c r="H172" s="8"/>
     </row>
-    <row r="173" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="173" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>212</v>
       </c>
@@ -13576,7 +13610,7 @@
       <c r="G173" s="8"/>
       <c r="H173" s="8"/>
     </row>
-    <row r="174" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="174" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>213</v>
       </c>
@@ -13595,7 +13629,7 @@
       <c r="G174" s="8"/>
       <c r="H174" s="8"/>
     </row>
-    <row r="175" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="175" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>214</v>
       </c>
@@ -13614,7 +13648,7 @@
       <c r="G175" s="8"/>
       <c r="H175" s="8"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>157</v>
       </c>
@@ -13633,7 +13667,7 @@
       <c r="G176" s="8"/>
       <c r="H176" s="8"/>
     </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="177" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A177" s="6" t="s">
         <v>251</v>
       </c>
@@ -13652,7 +13686,7 @@
       <c r="G177" s="8"/>
       <c r="H177" s="8"/>
     </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="178" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A178" s="6" t="s">
         <v>219</v>
       </c>
@@ -13671,7 +13705,7 @@
       <c r="G178" s="8"/>
       <c r="H178" s="8"/>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="179" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A179" s="6" t="s">
         <v>220</v>
       </c>
@@ -13690,7 +13724,7 @@
       <c r="G179" s="8"/>
       <c r="H179" s="8"/>
     </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="180" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A180" s="6" t="s">
         <v>233</v>
       </c>
@@ -13709,7 +13743,7 @@
       <c r="G180" s="8"/>
       <c r="H180" s="8"/>
     </row>
-    <row r="181" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="181" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A181" s="6" t="s">
         <v>221</v>
       </c>
@@ -13728,7 +13762,7 @@
       <c r="G181" s="8"/>
       <c r="H181" s="8"/>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="182" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A182" s="6" t="s">
         <v>223</v>
       </c>
@@ -13747,7 +13781,7 @@
       <c r="G182" s="8"/>
       <c r="H182" s="8"/>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="183" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A183" s="6" t="s">
         <v>226</v>
       </c>
@@ -13766,7 +13800,7 @@
       <c r="G183" s="8"/>
       <c r="H183" s="8"/>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="184" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A184" s="6" t="s">
         <v>227</v>
       </c>
@@ -13785,7 +13819,7 @@
       <c r="G184" s="8"/>
       <c r="H184" s="8"/>
     </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="185" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A185" s="6" t="s">
         <v>224</v>
       </c>
@@ -13804,7 +13838,7 @@
       <c r="G185" s="8"/>
       <c r="H185" s="8"/>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="186" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A186" s="6" t="s">
         <v>225</v>
       </c>
@@ -13823,7 +13857,7 @@
       <c r="G186" s="8"/>
       <c r="H186" s="8"/>
     </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="187" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A187" s="6" t="s">
         <v>228</v>
       </c>
@@ -13842,7 +13876,7 @@
       <c r="G187" s="8"/>
       <c r="H187" s="8"/>
     </row>
-    <row r="188" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="188" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A188" s="6" t="s">
         <v>229</v>
       </c>
@@ -13861,7 +13895,7 @@
       <c r="G188" s="8"/>
       <c r="H188" s="8"/>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="189" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A189" s="6" t="s">
         <v>222</v>
       </c>
@@ -13880,7 +13914,7 @@
       <c r="G189" s="8"/>
       <c r="H189" s="8"/>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="190" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A190" s="6" t="s">
         <v>230</v>
       </c>
@@ -13899,7 +13933,7 @@
       <c r="G190" s="8"/>
       <c r="H190" s="8"/>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="191" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A191" s="6" t="s">
         <v>231</v>
       </c>
@@ -13918,7 +13952,7 @@
       <c r="G191" s="8"/>
       <c r="H191" s="8"/>
     </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="192" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A192" s="6" t="s">
         <v>232</v>
       </c>
@@ -13937,7 +13971,7 @@
       <c r="G192" s="8"/>
       <c r="H192" s="8"/>
     </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="193" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A193" s="6" t="s">
         <v>234</v>
       </c>
@@ -13956,7 +13990,7 @@
       <c r="G193" s="8"/>
       <c r="H193" s="8"/>
     </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="194" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A194" s="6" t="s">
         <v>235</v>
       </c>
@@ -13975,7 +14009,7 @@
       <c r="G194" s="8"/>
       <c r="H194" s="8"/>
     </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="195" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A195" s="6" t="s">
         <v>236</v>
       </c>
@@ -13994,7 +14028,7 @@
       <c r="G195" s="8"/>
       <c r="H195" s="8"/>
     </row>
-    <row r="196" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="196" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A196" s="6" t="s">
         <v>237</v>
       </c>
@@ -14013,7 +14047,7 @@
       <c r="G196" s="8"/>
       <c r="H196" s="8"/>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="197" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A197" s="6" t="s">
         <v>238</v>
       </c>
@@ -14032,7 +14066,7 @@
       <c r="G197" s="8"/>
       <c r="H197" s="8"/>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="198" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A198" s="6" t="s">
         <v>239</v>
       </c>
@@ -14051,7 +14085,7 @@
       <c r="G198" s="8"/>
       <c r="H198" s="8"/>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="199" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A199" s="6" t="s">
         <v>241</v>
       </c>
@@ -14070,7 +14104,7 @@
       <c r="G199" s="8"/>
       <c r="H199" s="8"/>
     </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="200" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A200" s="6" t="s">
         <v>242</v>
       </c>
@@ -14089,7 +14123,7 @@
       <c r="G200" s="8"/>
       <c r="H200" s="8"/>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="201" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A201" s="6" t="s">
         <v>243</v>
       </c>
@@ -14108,7 +14142,7 @@
       <c r="G201" s="8"/>
       <c r="H201" s="8"/>
     </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="202" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A202" s="6" t="s">
         <v>240</v>
       </c>
@@ -14127,7 +14161,7 @@
       <c r="G202" s="8"/>
       <c r="H202" s="8"/>
     </row>
-    <row r="203" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="203" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A203" s="6" t="s">
         <v>244</v>
       </c>
@@ -14146,7 +14180,7 @@
       <c r="G203" s="8"/>
       <c r="H203" s="8"/>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="204" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A204" s="6" t="s">
         <v>245</v>
       </c>
@@ -14165,7 +14199,7 @@
       <c r="G204" s="8"/>
       <c r="H204" s="8"/>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="205" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>246</v>
       </c>
@@ -14186,7 +14220,7 @@
       </c>
       <c r="H205" s="8"/>
     </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="206" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A206" s="6" t="s">
         <v>248</v>
       </c>
@@ -14209,7 +14243,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="207" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="207" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A207" s="6" t="s">
         <v>265</v>
       </c>
@@ -14230,7 +14264,7 @@
       </c>
       <c r="H207" s="8"/>
     </row>
-    <row r="208" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="208" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A208" s="6" t="s">
         <v>266</v>
       </c>
@@ -14251,7 +14285,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="209" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A209" s="6" t="s">
         <v>267</v>
       </c>
@@ -14274,7 +14308,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A210" s="6" t="s">
         <v>263</v>
       </c>
@@ -14295,7 +14329,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A211" s="6" t="s">
         <v>253</v>
       </c>
@@ -14316,7 +14350,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="212" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A212" s="6" t="s">
         <v>254</v>
       </c>
@@ -14337,7 +14371,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="213" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="213" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A213" s="6" t="s">
         <v>256</v>
       </c>
@@ -14358,7 +14392,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A214" s="6" t="s">
         <v>255</v>
       </c>
@@ -14379,7 +14413,7 @@
       </c>
       <c r="H214" s="8"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A215" s="6" t="s">
         <v>259</v>
       </c>
@@ -14400,7 +14434,7 @@
       </c>
       <c r="H215" s="8"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A216" s="6" t="s">
         <v>252</v>
       </c>
@@ -14421,7 +14455,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A217" s="6" t="s">
         <v>257</v>
       </c>
@@ -14442,7 +14476,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A218" s="6" t="s">
         <v>258</v>
       </c>
@@ -14463,7 +14497,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A219" s="6" t="s">
         <v>264</v>
       </c>
@@ -14484,7 +14518,7 @@
       </c>
       <c r="H219" s="8"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A220" s="6" t="s">
         <v>261</v>
       </c>
@@ -14505,7 +14539,7 @@
       </c>
       <c r="H220" s="8"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A221" s="6" t="s">
         <v>260</v>
       </c>
@@ -14526,7 +14560,7 @@
       </c>
       <c r="H221" s="8"/>
     </row>
-    <row r="222" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="222" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A222" s="6" t="s">
         <v>498</v>
       </c>
@@ -14547,7 +14581,7 @@
       </c>
       <c r="H222" s="8"/>
     </row>
-    <row r="223" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="223" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A223" s="6" t="s">
         <v>328</v>
       </c>
@@ -14568,7 +14602,7 @@
       </c>
       <c r="H223" s="8"/>
     </row>
-    <row r="224" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="224" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A224" s="6" t="s">
         <v>268</v>
       </c>
@@ -14589,7 +14623,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="225" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A225" s="6" t="s">
         <v>486</v>
       </c>
@@ -14610,7 +14644,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="226" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A226" s="6" t="s">
         <v>359</v>
       </c>
@@ -14631,7 +14665,7 @@
       </c>
       <c r="H226" s="8"/>
     </row>
-    <row r="227" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="227" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A227" s="6" t="s">
         <v>271</v>
       </c>
@@ -14654,7 +14688,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="33" x14ac:dyDescent="0.7">
+    <row r="228" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.45">
       <c r="A228" s="6" t="s">
         <v>272</v>
       </c>
@@ -14675,7 +14709,7 @@
       <c r="G228" s="8"/>
       <c r="H228" s="8"/>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="229" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A229" s="6" t="s">
         <v>410</v>
       </c>
@@ -14696,7 +14730,7 @@
       </c>
       <c r="H229" s="8"/>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="230" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A230" s="6" t="s">
         <v>286</v>
       </c>
@@ -14717,7 +14751,7 @@
       </c>
       <c r="H230" s="8"/>
     </row>
-    <row r="231" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="231" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A231" s="6" t="s">
         <v>72</v>
       </c>
@@ -14738,7 +14772,7 @@
       </c>
       <c r="H231" s="8"/>
     </row>
-    <row r="232" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="232" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A232" s="6" t="s">
         <v>73</v>
       </c>
@@ -14759,7 +14793,7 @@
       </c>
       <c r="H232" s="8"/>
     </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="233" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A233" s="6" t="s">
         <v>74</v>
       </c>
@@ -14780,7 +14814,7 @@
       </c>
       <c r="H233" s="8"/>
     </row>
-    <row r="234" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="234" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A234" s="6" t="s">
         <v>77</v>
       </c>
@@ -14803,7 +14837,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="235" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A235" s="6" t="s">
         <v>78</v>
       </c>
@@ -14826,7 +14860,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="236" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A236" s="6" t="s">
         <v>79</v>
       </c>
@@ -14849,7 +14883,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="237" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A237" s="6" t="s">
         <v>111</v>
       </c>
@@ -14872,7 +14906,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="238" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A238" s="6" t="s">
         <v>110</v>
       </c>
@@ -14895,7 +14929,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="239" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="239" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A239" s="6" t="s">
         <v>360</v>
       </c>
@@ -14918,7 +14952,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="240" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A240" s="6" t="s">
         <v>361</v>
       </c>
@@ -14941,7 +14975,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="241" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A241" s="6" t="s">
         <v>362</v>
       </c>
@@ -14964,7 +14998,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="242" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A242" s="6" t="s">
         <v>269</v>
       </c>
@@ -14985,7 +15019,7 @@
       </c>
       <c r="H242" s="8"/>
     </row>
-    <row r="243" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="243" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A243" s="6" t="s">
         <v>465</v>
       </c>
@@ -15006,7 +15040,7 @@
       </c>
       <c r="H243" s="8"/>
     </row>
-    <row r="244" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="244" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A244" s="6" t="s">
         <v>270</v>
       </c>
@@ -15027,7 +15061,7 @@
       </c>
       <c r="H244" s="8"/>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="245" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A245" s="6" t="s">
         <v>274</v>
       </c>
@@ -15048,7 +15082,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="246" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A246" s="6" t="s">
         <v>275</v>
       </c>
@@ -15069,7 +15103,7 @@
       </c>
       <c r="H246" s="8"/>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="247" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A247" s="6" t="s">
         <v>408</v>
       </c>
@@ -15092,7 +15126,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="248" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A248" s="6" t="s">
         <v>273</v>
       </c>
@@ -15113,7 +15147,7 @@
       </c>
       <c r="H248" s="8"/>
     </row>
-    <row r="249" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="249" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A249" s="6" t="s">
         <v>277</v>
       </c>
@@ -15134,7 +15168,7 @@
       <c r="G249" s="8"/>
       <c r="H249" s="8"/>
     </row>
-    <row r="250" spans="1:8" ht="33" x14ac:dyDescent="0.7">
+    <row r="250" spans="1:8" ht="33" hidden="1" x14ac:dyDescent="0.45">
       <c r="A250" s="6" t="s">
         <v>278</v>
       </c>
@@ -15155,7 +15189,7 @@
       <c r="G250" s="8"/>
       <c r="H250" s="8"/>
     </row>
-    <row r="251" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="251" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A251" s="6" t="s">
         <v>279</v>
       </c>
@@ -15176,7 +15210,7 @@
       <c r="G251" s="8"/>
       <c r="H251" s="8"/>
     </row>
-    <row r="252" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
+    <row r="252" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A252" s="6" t="s">
         <v>280</v>
       </c>
@@ -15199,7 +15233,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="253" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A253" s="6" t="s">
         <v>281</v>
       </c>
@@ -15222,7 +15256,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="254" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A254" s="6" t="s">
         <v>284</v>
       </c>
@@ -15243,7 +15277,7 @@
       </c>
       <c r="H254" s="8"/>
     </row>
-    <row r="255" spans="1:8" ht="409.5" x14ac:dyDescent="0.5">
+    <row r="255" spans="1:8" ht="409.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A255" s="6" t="s">
         <v>282</v>
       </c>
@@ -15266,7 +15300,7 @@
         <v>1035</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="256" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A256" s="6" t="s">
         <v>283</v>
       </c>
@@ -15287,7 +15321,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="257" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A257" s="6" t="s">
         <v>288</v>
       </c>
@@ -15308,7 +15342,7 @@
       </c>
       <c r="H257" s="8"/>
     </row>
-    <row r="258" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="258" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A258" s="6" t="s">
         <v>287</v>
       </c>
@@ -15331,7 +15365,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="259" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A259" s="6" t="s">
         <v>15</v>
       </c>
@@ -15354,7 +15388,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="18.75" x14ac:dyDescent="0.7">
+    <row r="260" spans="1:8" ht="19.2" hidden="1" x14ac:dyDescent="0.45">
       <c r="A260" s="6" t="s">
         <v>290</v>
       </c>
@@ -15375,7 +15409,7 @@
       <c r="G260" s="8"/>
       <c r="H260" s="8"/>
     </row>
-    <row r="261" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="261" spans="1:8" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A261" s="6" t="s">
         <v>291</v>
       </c>
@@ -15398,7 +15432,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="31.9" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="262" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A262" s="6" t="s">
         <v>292</v>
       </c>
@@ -15419,7 +15453,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="263" spans="1:8" ht="56.25" x14ac:dyDescent="0.7">
+    <row r="263" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.45">
       <c r="A263" s="6" t="s">
         <v>293</v>
       </c>
@@ -15442,7 +15476,7 @@
       </c>
       <c r="H263" s="8"/>
     </row>
-    <row r="264" spans="1:8" ht="173.65" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="264" spans="1:8" ht="171.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
         <v>294</v>
       </c>
@@ -15463,7 +15497,7 @@
         <v>1042</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="18.75" x14ac:dyDescent="0.5">
+    <row r="265" spans="1:8" ht="19.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A265" s="6" t="s">
         <v>295</v>
       </c>
@@ -15484,7 +15518,7 @@
       <c r="G265" s="8"/>
       <c r="H265" s="8"/>
     </row>
-    <row r="266" spans="1:8" ht="112.15" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="266" spans="1:8" ht="111" hidden="1" x14ac:dyDescent="0.45">
       <c r="A266" s="6" t="s">
         <v>311</v>
       </c>
@@ -15509,7 +15543,7 @@
         <v>1043</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="267" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A267" s="6" t="s">
         <v>297</v>
       </c>
@@ -15534,7 +15568,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="268" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A268" s="6" t="s">
         <v>299</v>
       </c>
@@ -15555,7 +15589,7 @@
         <v>1040</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="16.149999999999999" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A269" s="6" t="s">
         <v>300</v>
       </c>
@@ -15576,7 +15610,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="270" spans="1:8" ht="56.25" x14ac:dyDescent="0.5">
+    <row r="270" spans="1:8" ht="57.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A270" s="6" t="s">
         <v>301</v>
       </c>
@@ -15599,7 +15633,7 @@
       </c>
       <c r="H270" s="8"/>
     </row>
-    <row r="271" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="271" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A271" s="6" t="s">
         <v>298</v>
       </c>
@@ -15620,7 +15654,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="272" spans="1:8" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A272" s="6" t="s">
         <v>22</v>
       </c>
@@ -15641,7 +15675,7 @@
       </c>
       <c r="H272" s="8"/>
     </row>
-    <row r="273" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="273" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A273" s="6" t="s">
         <v>23</v>
       </c>
@@ -15662,7 +15696,7 @@
       </c>
       <c r="H273" s="8"/>
     </row>
-    <row r="274" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="274" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A274" s="6" t="s">
         <v>24</v>
       </c>
@@ -15683,7 +15717,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="275" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A275" s="6" t="s">
         <v>25</v>
       </c>
@@ -15704,7 +15738,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="276" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A276" s="6" t="s">
         <v>26</v>
       </c>
@@ -15725,7 +15759,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="277" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A277" s="6" t="s">
         <v>303</v>
       </c>
@@ -15746,7 +15780,7 @@
       </c>
       <c r="H277" s="8"/>
     </row>
-    <row r="278" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="278" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A278" s="6" t="s">
         <v>305</v>
       </c>
@@ -15767,7 +15801,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="279" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A279" s="6" t="s">
         <v>306</v>
       </c>
@@ -15788,7 +15822,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="280" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A280" s="6" t="s">
         <v>307</v>
       </c>
@@ -15809,7 +15843,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="281" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A281" s="6" t="s">
         <v>308</v>
       </c>
@@ -15830,7 +15864,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="282" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A282" s="6" t="s">
         <v>149</v>
       </c>
@@ -15851,7 +15885,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="283" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A283" s="6" t="s">
         <v>460</v>
       </c>
@@ -15872,7 +15906,7 @@
       </c>
       <c r="H283" s="8"/>
     </row>
-    <row r="284" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="284" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A284" s="6" t="s">
         <v>312</v>
       </c>
@@ -15893,7 +15927,7 @@
         <v>1046</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="285" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A285" s="6" t="s">
         <v>49</v>
       </c>
@@ -15916,7 +15950,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="286" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A286" s="6" t="s">
         <v>50</v>
       </c>
@@ -15937,7 +15971,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="287" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="287" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A287" s="6" t="s">
         <v>330</v>
       </c>
@@ -15960,7 +15994,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="288" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A288" s="6" t="s">
         <v>314</v>
       </c>
@@ -15981,7 +16015,7 @@
       </c>
       <c r="H288" s="8"/>
     </row>
-    <row r="289" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="289" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A289" s="6" t="s">
         <v>315</v>
       </c>
@@ -16002,7 +16036,7 @@
       </c>
       <c r="H289" s="8"/>
     </row>
-    <row r="290" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="290" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A290" s="6" t="s">
         <v>316</v>
       </c>
@@ -16025,7 +16059,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="291" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A291" s="6" t="s">
         <v>317</v>
       </c>
@@ -16046,7 +16080,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="292" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A292" s="6" t="s">
         <v>327</v>
       </c>
@@ -16069,7 +16103,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="293" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="293" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A293" s="6" t="s">
         <v>318</v>
       </c>
@@ -16090,7 +16124,7 @@
       </c>
       <c r="H293" s="8"/>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="294" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A294" s="6" t="s">
         <v>322</v>
       </c>
@@ -16113,7 +16147,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="295" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="295" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A295" s="6" t="s">
         <v>325</v>
       </c>
@@ -16134,7 +16168,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="296" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="296" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A296" s="6" t="s">
         <v>323</v>
       </c>
@@ -16155,7 +16189,7 @@
       </c>
       <c r="H296" s="8"/>
     </row>
-    <row r="297" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="297" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A297" s="6" t="s">
         <v>319</v>
       </c>
@@ -16176,7 +16210,7 @@
       </c>
       <c r="H297" s="8"/>
     </row>
-    <row r="298" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="298" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A298" s="6" t="s">
         <v>320</v>
       </c>
@@ -16197,7 +16231,7 @@
       </c>
       <c r="H298" s="8"/>
     </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="299" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A299" s="6" t="s">
         <v>321</v>
       </c>
@@ -16220,7 +16254,7 @@
         <v>1037</v>
       </c>
     </row>
-    <row r="300" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="300" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A300" s="6" t="s">
         <v>324</v>
       </c>
@@ -16239,7 +16273,7 @@
       <c r="G300" s="8"/>
       <c r="H300" s="8"/>
     </row>
-    <row r="301" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="301" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A301" s="6" t="s">
         <v>326</v>
       </c>
@@ -16258,7 +16292,7 @@
       <c r="G301" s="8"/>
       <c r="H301" s="8"/>
     </row>
-    <row r="302" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="302" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A302" s="6" t="s">
         <v>137</v>
       </c>
@@ -16277,7 +16311,7 @@
       <c r="G302" s="8"/>
       <c r="H302" s="8"/>
     </row>
-    <row r="303" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="303" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A303" s="6" t="s">
         <v>136</v>
       </c>
@@ -16296,7 +16330,7 @@
       <c r="G303" s="8"/>
       <c r="H303" s="8"/>
     </row>
-    <row r="304" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="304" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A304" s="6" t="s">
         <v>313</v>
       </c>
@@ -16315,7 +16349,7 @@
       <c r="G304" s="8"/>
       <c r="H304" s="8"/>
     </row>
-    <row r="305" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="305" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A305" s="6" t="s">
         <v>54</v>
       </c>
@@ -16334,7 +16368,7 @@
       <c r="G305" s="8"/>
       <c r="H305" s="8"/>
     </row>
-    <row r="306" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="306" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A306" s="6" t="s">
         <v>53</v>
       </c>
@@ -16353,7 +16387,7 @@
       <c r="G306" s="8"/>
       <c r="H306" s="8"/>
     </row>
-    <row r="307" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="307" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A307" s="6" t="s">
         <v>341</v>
       </c>
@@ -16376,7 +16410,7 @@
       </c>
       <c r="H307" s="8"/>
     </row>
-    <row r="308" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="308" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A308" s="6" t="s">
         <v>340</v>
       </c>
@@ -16399,7 +16433,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="309" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="309" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A309" s="6" t="s">
         <v>332</v>
       </c>
@@ -16420,7 +16454,7 @@
       </c>
       <c r="H309" s="8"/>
     </row>
-    <row r="310" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="310" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A310" s="6" t="s">
         <v>333</v>
       </c>
@@ -16441,7 +16475,7 @@
       </c>
       <c r="H310" s="8"/>
     </row>
-    <row r="311" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="311" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A311" s="6" t="s">
         <v>334</v>
       </c>
@@ -16462,7 +16496,7 @@
       </c>
       <c r="H311" s="8"/>
     </row>
-    <row r="312" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="312" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A312" s="6" t="s">
         <v>342</v>
       </c>
@@ -16483,7 +16517,7 @@
       </c>
       <c r="H312" s="8"/>
     </row>
-    <row r="313" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="313" spans="1:8" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A313" s="6" t="s">
         <v>343</v>
       </c>
@@ -16506,7 +16540,7 @@
       </c>
       <c r="H313" s="8"/>
     </row>
-    <row r="314" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="314" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A314" s="6" t="s">
         <v>346</v>
       </c>
@@ -16525,7 +16559,7 @@
       <c r="G314" s="8"/>
       <c r="H314" s="8"/>
     </row>
-    <row r="315" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="315" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A315" s="6" t="s">
         <v>349</v>
       </c>
@@ -16548,7 +16582,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="316" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="316" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A316" s="6" t="s">
         <v>352</v>
       </c>
@@ -16571,7 +16605,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="317" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="317" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A317" s="6" t="s">
         <v>353</v>
       </c>
@@ -16594,7 +16628,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="318" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="318" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A318" s="6" t="s">
         <v>354</v>
       </c>
@@ -16617,7 +16651,7 @@
       </c>
       <c r="H318" s="8"/>
     </row>
-    <row r="319" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="319" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A319" s="6" t="s">
         <v>203</v>
       </c>
@@ -16640,7 +16674,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="320" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="320" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A320" s="6" t="s">
         <v>357</v>
       </c>
@@ -16661,7 +16695,7 @@
       </c>
       <c r="H320" s="8"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A321" s="6" t="s">
         <v>356</v>
       </c>
@@ -16682,7 +16716,7 @@
       </c>
       <c r="H321" s="8"/>
     </row>
-    <row r="322" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="322" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A322" s="6" t="s">
         <v>310</v>
       </c>
@@ -16705,7 +16739,7 @@
       </c>
       <c r="H322" s="8"/>
     </row>
-    <row r="323" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="323" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A323" s="6" t="s">
         <v>358</v>
       </c>
@@ -16726,7 +16760,7 @@
       </c>
       <c r="H323" s="8"/>
     </row>
-    <row r="324" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="324" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A324" s="6" t="s">
         <v>400</v>
       </c>
@@ -16747,7 +16781,7 @@
       </c>
       <c r="H324" s="8"/>
     </row>
-    <row r="325" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="325" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A325" s="6" t="s">
         <v>364</v>
       </c>
@@ -16768,7 +16802,7 @@
       </c>
       <c r="H325" s="8"/>
     </row>
-    <row r="326" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="326" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A326" s="6" t="s">
         <v>181</v>
       </c>
@@ -16789,7 +16823,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="327" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="327" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A327" s="6" t="s">
         <v>182</v>
       </c>
@@ -16810,7 +16844,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="328" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="328" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A328" s="6" t="s">
         <v>183</v>
       </c>
@@ -16831,7 +16865,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="329" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="329" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A329" s="6" t="s">
         <v>184</v>
       </c>
@@ -16852,7 +16886,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="330" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="330" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A330" s="6" t="s">
         <v>185</v>
       </c>
@@ -16873,7 +16907,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="331" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="331" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A331" s="6" t="s">
         <v>302</v>
       </c>
@@ -16894,7 +16928,7 @@
       </c>
       <c r="H331" s="8"/>
     </row>
-    <row r="332" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="332" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A332" s="6" t="s">
         <v>430</v>
       </c>
@@ -16915,7 +16949,7 @@
       </c>
       <c r="H332" s="8"/>
     </row>
-    <row r="333" spans="1:8" ht="157.5" x14ac:dyDescent="0.5">
+    <row r="333" spans="1:8" ht="156" hidden="1" x14ac:dyDescent="0.3">
       <c r="A333" s="6" t="s">
         <v>344</v>
       </c>
@@ -16938,7 +16972,7 @@
       </c>
       <c r="H333" s="8"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A334" s="6" t="s">
         <v>345</v>
       </c>
@@ -16959,7 +16993,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="335" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="335" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A335" s="6" t="s">
         <v>347</v>
       </c>
@@ -16980,7 +17014,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="336" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="336" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A336" s="6" t="s">
         <v>348</v>
       </c>
@@ -17001,7 +17035,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="337" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="337" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A337" s="6" t="s">
         <v>367</v>
       </c>
@@ -17022,7 +17056,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="338" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="338" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A338" s="6" t="s">
         <v>368</v>
       </c>
@@ -17043,7 +17077,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="339" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="339" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A339" s="6" t="s">
         <v>369</v>
       </c>
@@ -17064,7 +17098,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="340" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="340" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A340" s="6" t="s">
         <v>370</v>
       </c>
@@ -17085,7 +17119,7 @@
       </c>
       <c r="H340" s="8"/>
     </row>
-    <row r="341" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="341" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A341" s="6" t="s">
         <v>376</v>
       </c>
@@ -17106,7 +17140,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="342" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="342" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A342" s="6" t="s">
         <v>375</v>
       </c>
@@ -17127,7 +17161,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="343" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="343" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A343" s="6" t="s">
         <v>377</v>
       </c>
@@ -17148,7 +17182,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="344" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="344" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A344" s="6" t="s">
         <v>384</v>
       </c>
@@ -17171,7 +17205,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="345" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="345" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A345" s="6" t="s">
         <v>380</v>
       </c>
@@ -17194,7 +17228,7 @@
       </c>
       <c r="H345" s="8"/>
     </row>
-    <row r="346" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="346" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A346" s="6" t="s">
         <v>381</v>
       </c>
@@ -17215,7 +17249,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="347" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="347" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A347" s="6" t="s">
         <v>500</v>
       </c>
@@ -17236,7 +17270,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="348" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="348" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A348" s="6" t="s">
         <v>501</v>
       </c>
@@ -17257,7 +17291,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="349" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="349" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A349" s="6" t="s">
         <v>502</v>
       </c>
@@ -17278,7 +17312,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="350" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="350" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A350" s="6" t="s">
         <v>304</v>
       </c>
@@ -17301,7 +17335,7 @@
       </c>
       <c r="H350" s="8"/>
     </row>
-    <row r="351" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="351" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A351" s="6" t="s">
         <v>276</v>
       </c>
@@ -17322,7 +17356,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="352" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="352" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A352" s="6" t="s">
         <v>355</v>
       </c>
@@ -17343,7 +17377,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="353" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="353" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A353" s="6" t="s">
         <v>385</v>
       </c>
@@ -17364,7 +17398,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="354" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="354" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A354" s="6" t="s">
         <v>389</v>
       </c>
@@ -17387,7 +17421,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="355" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="355" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A355" s="6" t="s">
         <v>392</v>
       </c>
@@ -17408,7 +17442,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="356" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="356" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A356" s="6" t="s">
         <v>393</v>
       </c>
@@ -17429,7 +17463,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="357" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="357" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A357" s="6" t="s">
         <v>386</v>
       </c>
@@ -17452,7 +17486,7 @@
       </c>
       <c r="H357" s="8"/>
     </row>
-    <row r="358" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="358" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A358" s="6" t="s">
         <v>68</v>
       </c>
@@ -17475,7 +17509,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="359" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="359" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A359" s="6" t="s">
         <v>394</v>
       </c>
@@ -17496,7 +17530,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="360" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="360" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A360" s="6" t="s">
         <v>180</v>
       </c>
@@ -17517,7 +17551,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="361" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="361" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A361" s="6" t="s">
         <v>406</v>
       </c>
@@ -17538,7 +17572,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="362" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="362" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A362" s="6" t="s">
         <v>407</v>
       </c>
@@ -17559,7 +17593,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="363" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="363" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A363" s="6" t="s">
         <v>396</v>
       </c>
@@ -17580,7 +17614,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="364" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="364" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A364" s="6" t="s">
         <v>397</v>
       </c>
@@ -17601,7 +17635,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="365" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="365" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A365" s="6" t="s">
         <v>398</v>
       </c>
@@ -17622,7 +17656,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="366" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="366" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A366" s="6" t="s">
         <v>399</v>
       </c>
@@ -17643,7 +17677,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="367" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="367" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A367" s="6" t="s">
         <v>404</v>
       </c>
@@ -17664,7 +17698,7 @@
       <c r="G367" s="8"/>
       <c r="H367" s="8"/>
     </row>
-    <row r="368" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="368" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A368" s="6" t="s">
         <v>405</v>
       </c>
@@ -17685,7 +17719,7 @@
       <c r="G368" s="8"/>
       <c r="H368" s="8"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A369" s="6" t="s">
         <v>409</v>
       </c>
@@ -17706,7 +17740,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="370" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="370" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A370" s="6" t="s">
         <v>411</v>
       </c>
@@ -17729,7 +17763,7 @@
       </c>
       <c r="H370" s="8"/>
     </row>
-    <row r="371" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="371" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A371" s="6" t="s">
         <v>412</v>
       </c>
@@ -17750,7 +17784,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="372" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A372" s="6" t="s">
         <v>71</v>
       </c>
@@ -17771,7 +17805,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="373" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="373" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A373" s="6" t="s">
         <v>491</v>
       </c>
@@ -17792,7 +17826,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="374" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A374" s="6" t="s">
         <v>66</v>
       </c>
@@ -17813,7 +17847,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A375" s="6" t="s">
         <v>418</v>
       </c>
@@ -17834,7 +17868,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="376" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="376" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A376" s="6" t="s">
         <v>419</v>
       </c>
@@ -17857,7 +17891,7 @@
       </c>
       <c r="H376" s="8"/>
     </row>
-    <row r="377" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="377" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A377" s="6" t="s">
         <v>420</v>
       </c>
@@ -17878,7 +17912,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="378" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="378" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A378" s="6" t="s">
         <v>422</v>
       </c>
@@ -17899,7 +17933,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="379" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="379" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A379" s="6" t="s">
         <v>415</v>
       </c>
@@ -17920,7 +17954,7 @@
         <v>1109</v>
       </c>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A380" s="6" t="s">
         <v>417</v>
       </c>
@@ -17941,7 +17975,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A381" s="6" t="s">
         <v>421</v>
       </c>
@@ -17962,7 +17996,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="382" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="382" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A382" s="6" t="s">
         <v>423</v>
       </c>
@@ -17983,7 +18017,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A383" s="6" t="s">
         <v>210</v>
       </c>
@@ -18004,7 +18038,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="384" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="384" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A384" s="6" t="s">
         <v>395</v>
       </c>
@@ -18025,7 +18059,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="385" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="385" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A385" s="6" t="s">
         <v>426</v>
       </c>
@@ -18046,7 +18080,7 @@
       </c>
       <c r="H385" s="8"/>
     </row>
-    <row r="386" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="386" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A386" s="6" t="s">
         <v>429</v>
       </c>
@@ -18067,7 +18101,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="387" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="387" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A387" s="6" t="s">
         <v>427</v>
       </c>
@@ -18088,7 +18122,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="388" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="388" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A388" s="6" t="s">
         <v>428</v>
       </c>
@@ -18109,7 +18143,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="389" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="389" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A389" s="6" t="s">
         <v>431</v>
       </c>
@@ -18130,7 +18164,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="390" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="390" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A390" s="6" t="s">
         <v>432</v>
       </c>
@@ -18151,7 +18185,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="391" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="391" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A391" s="6" t="s">
         <v>433</v>
       </c>
@@ -18172,7 +18206,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="392" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="392" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A392" s="6" t="s">
         <v>130</v>
       </c>
@@ -18193,7 +18227,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="393" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="393" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A393" s="6" t="s">
         <v>482</v>
       </c>
@@ -18214,7 +18248,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="394" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="394" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A394" s="6" t="s">
         <v>434</v>
       </c>
@@ -18235,7 +18269,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="395" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="395" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A395" s="6" t="s">
         <v>436</v>
       </c>
@@ -18258,7 +18292,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="396" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="396" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A396" s="6" t="s">
         <v>454</v>
       </c>
@@ -18279,7 +18313,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="397" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="397" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A397" s="6" t="s">
         <v>455</v>
       </c>
@@ -18300,7 +18334,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="398" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="398" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A398" s="6" t="s">
         <v>466</v>
       </c>
@@ -18321,7 +18355,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="399" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="399" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A399" s="6" t="s">
         <v>443</v>
       </c>
@@ -18342,7 +18376,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="400" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="400" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A400" s="6" t="s">
         <v>444</v>
       </c>
@@ -18363,7 +18397,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="401" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="401" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A401" s="6" t="s">
         <v>445</v>
       </c>
@@ -18384,7 +18418,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="402" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="402" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A402" s="6" t="s">
         <v>116</v>
       </c>
@@ -18405,7 +18439,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="403" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="403" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A403" s="6" t="s">
         <v>117</v>
       </c>
@@ -18426,7 +18460,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="404" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="404" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A404" s="6" t="s">
         <v>118</v>
       </c>
@@ -18447,7 +18481,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="405" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="405" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A405" s="6" t="s">
         <v>437</v>
       </c>
@@ -18468,7 +18502,7 @@
       <c r="G405" s="8"/>
       <c r="H405" s="8"/>
     </row>
-    <row r="406" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="406" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A406" s="6" t="s">
         <v>438</v>
       </c>
@@ -18489,7 +18523,7 @@
       <c r="G406" s="8"/>
       <c r="H406" s="8"/>
     </row>
-    <row r="407" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="407" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A407" s="6" t="s">
         <v>440</v>
       </c>
@@ -18510,7 +18544,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="408" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="408" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A408" s="6" t="s">
         <v>441</v>
       </c>
@@ -18531,7 +18565,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="409" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="409" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A409" s="6" t="s">
         <v>442</v>
       </c>
@@ -18552,7 +18586,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="410" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="410" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A410" s="6" t="s">
         <v>446</v>
       </c>
@@ -18573,7 +18607,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="411" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="411" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A411" s="6" t="s">
         <v>296</v>
       </c>
@@ -18594,7 +18628,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="412" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="412" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A412" s="6" t="s">
         <v>425</v>
       </c>
@@ -18615,7 +18649,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="413" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="413" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A413" s="6" t="s">
         <v>447</v>
       </c>
@@ -18636,7 +18670,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="414" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="414" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A414" s="6" t="s">
         <v>75</v>
       </c>
@@ -18657,7 +18691,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="415" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="415" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A415" s="6" t="s">
         <v>448</v>
       </c>
@@ -18678,7 +18712,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="416" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="416" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A416" s="6" t="s">
         <v>451</v>
       </c>
@@ -18699,7 +18733,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="417" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="417" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A417" s="6" t="s">
         <v>450</v>
       </c>
@@ -18720,7 +18754,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="418" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="418" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A418" s="6" t="s">
         <v>449</v>
       </c>
@@ -18741,7 +18775,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="419" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="419" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A419" s="6" t="s">
         <v>456</v>
       </c>
@@ -18762,7 +18796,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="420" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="420" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A420" s="6" t="s">
         <v>461</v>
       </c>
@@ -18783,7 +18817,7 @@
       </c>
       <c r="H420" s="8"/>
     </row>
-    <row r="421" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="421" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A421" s="6" t="s">
         <v>467</v>
       </c>
@@ -18804,7 +18838,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="422" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="422" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A422" s="6" t="s">
         <v>468</v>
       </c>
@@ -18825,7 +18859,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="423" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="423" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A423" s="6" t="s">
         <v>439</v>
       </c>
@@ -18846,7 +18880,7 @@
       </c>
       <c r="H423" s="8"/>
     </row>
-    <row r="424" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="424" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A424" s="6" t="s">
         <v>80</v>
       </c>
@@ -18867,7 +18901,7 @@
       </c>
       <c r="H424" s="8"/>
     </row>
-    <row r="425" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="425" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A425" s="6" t="s">
         <v>12</v>
       </c>
@@ -18888,7 +18922,7 @@
       <c r="G425" s="8"/>
       <c r="H425" s="8"/>
     </row>
-    <row r="426" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="426" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A426" s="6" t="s">
         <v>335</v>
       </c>
@@ -18911,7 +18945,7 @@
       </c>
       <c r="H426" s="8"/>
     </row>
-    <row r="427" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="427" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A427" s="6" t="s">
         <v>470</v>
       </c>
@@ -18932,7 +18966,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="428" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="428" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A428" s="6" t="s">
         <v>469</v>
       </c>
@@ -18953,7 +18987,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="429" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="429" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A429" s="6" t="s">
         <v>336</v>
       </c>
@@ -18974,7 +19008,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="430" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="430" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A430" s="6" t="s">
         <v>337</v>
       </c>
@@ -18995,7 +19029,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="431" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="431" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A431" s="6" t="s">
         <v>338</v>
       </c>
@@ -19016,7 +19050,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="432" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="432" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A432" s="6" t="s">
         <v>339</v>
       </c>
@@ -19037,7 +19071,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="433" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="433" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A433" s="6" t="s">
         <v>177</v>
       </c>
@@ -19058,7 +19092,7 @@
       </c>
       <c r="H433" s="8"/>
     </row>
-    <row r="434" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="434" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A434" s="6" t="s">
         <v>179</v>
       </c>
@@ -19079,7 +19113,7 @@
       </c>
       <c r="H434" s="8"/>
     </row>
-    <row r="435" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="435" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A435" s="6" t="s">
         <v>178</v>
       </c>
@@ -19100,7 +19134,7 @@
       </c>
       <c r="H435" s="8"/>
     </row>
-    <row r="436" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="436" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A436" s="6" t="s">
         <v>475</v>
       </c>
@@ -19121,7 +19155,7 @@
       <c r="G436" s="8"/>
       <c r="H436" s="8"/>
     </row>
-    <row r="437" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="437" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A437" s="6" t="s">
         <v>476</v>
       </c>
@@ -19142,7 +19176,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="438" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="438" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A438" s="6" t="s">
         <v>477</v>
       </c>
@@ -19163,7 +19197,7 @@
       <c r="G438" s="8"/>
       <c r="H438" s="8"/>
     </row>
-    <row r="439" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="439" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A439" s="6" t="s">
         <v>478</v>
       </c>
@@ -19184,7 +19218,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="440" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="440" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A440" s="6" t="s">
         <v>480</v>
       </c>
@@ -19205,7 +19239,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="441" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="441" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A441" s="6" t="s">
         <v>350</v>
       </c>
@@ -19226,7 +19260,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="442" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="442" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A442" s="6" t="s">
         <v>351</v>
       </c>
@@ -19247,7 +19281,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="443" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="443" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A443" s="6" t="s">
         <v>479</v>
       </c>
@@ -19268,7 +19302,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="444" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="444" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A444" s="6" t="s">
         <v>481</v>
       </c>
@@ -19289,7 +19323,7 @@
       </c>
       <c r="H444" s="8"/>
     </row>
-    <row r="445" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="445" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445" s="6" t="s">
         <v>289</v>
       </c>
@@ -19310,7 +19344,7 @@
       </c>
       <c r="H445" s="8"/>
     </row>
-    <row r="446" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="446" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446" s="6" t="s">
         <v>76</v>
       </c>
@@ -19331,7 +19365,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="447" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="447" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A447" s="6" t="s">
         <v>285</v>
       </c>
@@ -19352,7 +19386,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="448" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="448" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A448" s="6" t="s">
         <v>403</v>
       </c>
@@ -19373,7 +19407,7 @@
       </c>
       <c r="H448" s="8"/>
     </row>
-    <row r="449" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="449" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A449" s="6" t="s">
         <v>309</v>
       </c>
@@ -19394,7 +19428,7 @@
       </c>
       <c r="H449" s="8"/>
     </row>
-    <row r="450" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="450" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A450" s="6" t="s">
         <v>483</v>
       </c>
@@ -19415,7 +19449,7 @@
       </c>
       <c r="H450" s="8"/>
     </row>
-    <row r="451" spans="1:8" ht="78.75" x14ac:dyDescent="0.5">
+    <row r="451" spans="1:8" ht="78" hidden="1" x14ac:dyDescent="0.3">
       <c r="A451" s="6" t="s">
         <v>65</v>
       </c>
@@ -19436,7 +19470,7 @@
       </c>
       <c r="H451" s="8"/>
     </row>
-    <row r="452" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="452" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A452" s="6" t="s">
         <v>464</v>
       </c>
@@ -19460,7 +19494,7 @@
       </c>
       <c r="H452" s="8"/>
     </row>
-    <row r="453" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="453" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A453" s="6" t="s">
         <v>363</v>
       </c>
@@ -19483,7 +19517,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="454" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="454" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A454" s="6" t="s">
         <v>484</v>
       </c>
@@ -19504,7 +19538,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="455" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="455" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A455" s="6" t="s">
         <v>424</v>
       </c>
@@ -19525,7 +19559,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="456" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="456" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A456" s="6" t="s">
         <v>139</v>
       </c>
@@ -19548,7 +19582,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="457" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="457" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A457" s="6" t="s">
         <v>487</v>
       </c>
@@ -19571,7 +19605,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="458" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="458" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458" s="6" t="s">
         <v>488</v>
       </c>
@@ -19594,7 +19628,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="459" spans="1:8" ht="110.25" x14ac:dyDescent="0.5">
+    <row r="459" spans="1:8" ht="109.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459" s="6" t="s">
         <v>215</v>
       </c>
@@ -19619,7 +19653,7 @@
       </c>
       <c r="H459" s="8"/>
     </row>
-    <row r="460" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="460" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A460" s="6" t="s">
         <v>216</v>
       </c>
@@ -19640,7 +19674,7 @@
       </c>
       <c r="H460" s="8"/>
     </row>
-    <row r="461" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="461" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A461" s="12" t="s">
         <v>217</v>
       </c>
@@ -19661,7 +19695,7 @@
       </c>
       <c r="H461" s="8"/>
     </row>
-    <row r="462" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="462" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A462" s="12" t="s">
         <v>218</v>
       </c>
@@ -19682,7 +19716,7 @@
       </c>
       <c r="H462" s="8"/>
     </row>
-    <row r="463" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="463" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A463" s="12" t="s">
         <v>473</v>
       </c>
@@ -19705,7 +19739,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="464" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="464" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A464" s="12" t="s">
         <v>474</v>
       </c>
@@ -19726,7 +19760,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="465" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="465" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A465" s="12" t="s">
         <v>383</v>
       </c>
@@ -19749,7 +19783,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="466" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="466" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A466" s="12" t="s">
         <v>485</v>
       </c>
@@ -19770,7 +19804,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="467" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="467" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A467" s="12" t="s">
         <v>262</v>
       </c>
@@ -19791,7 +19825,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="468" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="468" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A468" s="12" t="s">
         <v>413</v>
       </c>
@@ -19816,7 +19850,7 @@
       </c>
       <c r="H468" s="8"/>
     </row>
-    <row r="469" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="469" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A469" s="12" t="s">
         <v>414</v>
       </c>
@@ -19837,7 +19871,7 @@
       </c>
       <c r="H469" s="8"/>
     </row>
-    <row r="470" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="470" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A470" s="12" t="s">
         <v>209</v>
       </c>
@@ -19858,7 +19892,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="471" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="471" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A471" s="12" t="s">
         <v>493</v>
       </c>
@@ -19881,7 +19915,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="472" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="472" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A472" s="12" t="s">
         <v>496</v>
       </c>
@@ -19902,7 +19936,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="473" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="473" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473" s="12" t="s">
         <v>494</v>
       </c>
@@ -19923,7 +19957,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="474" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="474" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474" s="12" t="s">
         <v>169</v>
       </c>
@@ -19944,7 +19978,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="475" spans="1:8" ht="94.5" x14ac:dyDescent="0.5">
+    <row r="475" spans="1:8" ht="93.6" hidden="1" x14ac:dyDescent="0.3">
       <c r="A475" s="12" t="s">
         <v>497</v>
       </c>
@@ -19967,7 +20001,7 @@
       </c>
       <c r="H475" s="8"/>
     </row>
-    <row r="476" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="476" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A476" s="12" t="s">
         <v>495</v>
       </c>
@@ -19988,7 +20022,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="477" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="477" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A477" s="12" t="s">
         <v>89</v>
       </c>
@@ -20009,7 +20043,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="478" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="478" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A478" s="12" t="s">
         <v>90</v>
       </c>
@@ -20030,7 +20064,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="479" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="479" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A479" s="12" t="s">
         <v>331</v>
       </c>
@@ -20051,7 +20085,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="480" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="480" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A480" s="12" t="s">
         <v>56</v>
       </c>
@@ -20072,7 +20106,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="481" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="481" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A481" s="12" t="s">
         <v>390</v>
       </c>
@@ -20093,7 +20127,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="482" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="482" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A482" s="12" t="s">
         <v>492</v>
       </c>
@@ -20114,7 +20148,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="483" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="483" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A483" s="12" t="s">
         <v>67</v>
       </c>
@@ -20135,7 +20169,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="484" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="484" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A484" s="12" t="s">
         <v>452</v>
       </c>
@@ -20156,7 +20190,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="485" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="485" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A485" s="12" t="s">
         <v>453</v>
       </c>
@@ -20177,7 +20211,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="486" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="486" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A486" s="12" t="s">
         <v>378</v>
       </c>
@@ -20200,7 +20234,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="487" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="487" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A487" s="12" t="s">
         <v>249</v>
       </c>
@@ -20221,7 +20255,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="488" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="488" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488" s="12" t="s">
         <v>94</v>
       </c>
@@ -20242,7 +20276,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="489" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="489" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489" s="12" t="s">
         <v>92</v>
       </c>
@@ -20263,7 +20297,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="490" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="490" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A490" s="12" t="s">
         <v>93</v>
       </c>
@@ -20284,7 +20318,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="491" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="491" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A491" s="12" t="s">
         <v>91</v>
       </c>
@@ -20305,7 +20339,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="492" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="492" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A492" s="12" t="s">
         <v>96</v>
       </c>
@@ -20326,7 +20360,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="493" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="493" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A493" s="12" t="s">
         <v>95</v>
       </c>
@@ -20347,7 +20381,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="494" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="494" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A494" s="12" t="s">
         <v>250</v>
       </c>
@@ -20368,7 +20402,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="495" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="495" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A495" s="12" t="s">
         <v>391</v>
       </c>
@@ -20389,7 +20423,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="496" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="496" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A496" s="12" t="s">
         <v>504</v>
       </c>
@@ -20412,7 +20446,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="497" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="497" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A497" s="12" t="s">
         <v>374</v>
       </c>
@@ -20435,7 +20469,7 @@
       </c>
       <c r="H497" s="8"/>
     </row>
-    <row r="498" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="498" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A498" s="12" t="s">
         <v>373</v>
       </c>
@@ -20456,7 +20490,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="499" spans="1:8" ht="47.25" x14ac:dyDescent="0.5">
+    <row r="499" spans="1:8" ht="46.8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A499" s="12" t="s">
         <v>372</v>
       </c>
@@ -20479,7 +20513,7 @@
       </c>
       <c r="H499" s="8"/>
     </row>
-    <row r="500" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="500" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A500" s="12" t="s">
         <v>457</v>
       </c>
@@ -20502,7 +20536,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="501" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="501" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A501" s="12" t="s">
         <v>458</v>
       </c>
@@ -20525,7 +20559,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="502" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="502" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502" s="12" t="s">
         <v>190</v>
       </c>
@@ -20546,7 +20580,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="503" spans="1:8" ht="31.5" x14ac:dyDescent="0.5">
+    <row r="503" spans="1:8" ht="31.2" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503" s="12" t="s">
         <v>191</v>
       </c>
@@ -20567,7 +20601,7 @@
         <v>1016</v>
       </c>
     </row>
-    <row r="504" spans="1:8" ht="63" x14ac:dyDescent="0.5">
+    <row r="504" spans="1:8" ht="62.4" hidden="1" x14ac:dyDescent="0.3">
       <c r="A504" s="12" t="s">
         <v>163</v>
       </c>
@@ -20590,7 +20624,7 @@
       </c>
       <c r="H504" s="8"/>
     </row>
-    <row r="505" spans="1:8" x14ac:dyDescent="0.5">
+    <row r="505" spans="1:8" hidden="1" x14ac:dyDescent="0.3">
       <c r="A505" s="12" t="s">
         <v>329</v>
       </c>

--- a/mgmt/Funktionsliste-Teamaufteilung.xlsx
+++ b/mgmt/Funktionsliste-Teamaufteilung.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\warn\Documents\GitHub\excelator\mgmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\super\Documents\GitHub\excelator\mgmt\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{530FB82E-2BD7-4A84-8C67-76863C8C16D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{000